--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="101">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -59,271 +59,271 @@
     <t xml:space="preserve">Case Worker / Assigned Staff Manager</t>
   </si>
   <si>
+    <t xml:space="preserve">field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial_referral_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date of Referral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">given_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given Name (Latin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Name (Latin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">presented_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Contact Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whatsapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whatsapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other_phone_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number - Alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_given_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given Name(Khmer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local_family_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Name (Khmer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-score from ODK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brsc_branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRCS Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island - Current address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street - Current address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_po_box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PO BOX - Current address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City - Current address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settlement - Current address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_resident_own_or_rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owned or Rented - Current address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_household_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is your household staying in one of the following?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island - Other address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">street2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street - Other address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_box2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip - Other address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City - Other address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settlement2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settlement - Other address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident_own_or_rent2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owned, Rented or Temporary - Other address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_type2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Type - Other address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District / Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commune_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commune / Sangkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">street_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what3words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What3Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_school_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client / School Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partners</t>
+  </si>
+  <si>
     <t xml:space="preserve">Case Worker / Staff</t>
   </si>
   <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial_referral_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Referral</t>
-  </si>
-  <si>
     <t xml:space="preserve">Initial Referral Date</t>
   </si>
   <si>
-    <t xml:space="preserve">given_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given Name (Latin)</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Name</t>
   </si>
   <si>
-    <t xml:space="preserve">family_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Name (Latin)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Last Name</t>
   </si>
   <si>
-    <t xml:space="preserve">presented_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presented ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Contact Phone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Phone Number - Primary</t>
   </si>
   <si>
-    <t xml:space="preserve">whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_phone_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_given_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given Name(Khmer)</t>
-  </si>
-  <si>
     <t xml:space="preserve">First Name - Alternate</t>
   </si>
   <si>
-    <t xml:space="preserve">local_family_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Name (Khmer)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Last Name - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-score from ODK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brsc_branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRCS Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island - Current address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street - Current address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_po_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO BOX - Current address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City - Current address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settlement - Current address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_resident_own_or_rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owned or Rented - Current address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_household_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is your household staying in one of the following?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">island2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island - Other address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street - Other address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">po_box2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip - Other address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City - Other address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settlement2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settlement - Other address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident_own_or_rent2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owned, Rented or Temporary - Other address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_type2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Type - Other address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">district_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District / Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commune_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune / Sangkat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what3words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What3Words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_school_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client / School Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partners</t>
   </si>
 </sst>
 </file>
@@ -802,8 +802,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -854,43 +854,39 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="11" t="n">
         <v>1</v>
@@ -899,27 +895,25 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="17" t="n">
         <v>0</v>
@@ -928,27 +922,25 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="17" t="n">
         <v>0</v>
@@ -957,27 +949,25 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="17" t="n">
         <v>0</v>
@@ -986,27 +976,25 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>0</v>
@@ -1015,27 +1003,25 @@
         <v>0</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>29</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>0</v>
@@ -1044,27 +1030,25 @@
         <v>0</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D9" s="9"/>
       <c r="E9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>0</v>
@@ -1073,27 +1057,25 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>34</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="24" t="n">
         <v>0</v>
@@ -1102,27 +1084,25 @@
         <v>0</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>36</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D11" s="9"/>
       <c r="E11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="24" t="n">
         <v>0</v>
@@ -1131,27 +1111,25 @@
         <v>0</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="24" t="n">
         <v>0</v>
@@ -1160,27 +1138,25 @@
         <v>1</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D13" s="9"/>
       <c r="E13" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="24" t="n">
         <v>0</v>
@@ -1189,27 +1165,25 @@
         <v>1</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="24" t="n">
         <v>0</v>
@@ -1218,27 +1192,25 @@
         <v>0</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D15" s="9"/>
       <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="26" t="n">
         <v>0</v>
@@ -1247,27 +1219,25 @@
         <v>0</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D16" s="9"/>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="26" t="n">
         <v>0</v>
@@ -1276,27 +1246,25 @@
         <v>0</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D17" s="9"/>
       <c r="E17" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="29" t="n">
         <v>0</v>
@@ -1305,27 +1273,25 @@
         <v>0</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>52</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D18" s="31"/>
       <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="29" t="n">
         <v>0</v>
@@ -1334,27 +1300,25 @@
         <v>0</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D19" s="9"/>
       <c r="E19" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="29" t="n">
         <v>0</v>
@@ -1363,27 +1327,25 @@
         <v>0</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>56</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="29" t="n">
         <v>0</v>
@@ -1392,27 +1354,25 @@
         <v>0</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>58</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="29" t="n">
         <v>0</v>
@@ -1421,27 +1381,25 @@
         <v>0</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>60</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="29" t="n">
         <v>0</v>
@@ -1450,27 +1408,25 @@
         <v>0</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="26" t="n">
         <v>0</v>
@@ -1479,27 +1435,25 @@
         <v>0</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>64</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D24" s="9"/>
       <c r="E24" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="29" t="n">
         <v>0</v>
@@ -1508,27 +1462,25 @@
         <v>0</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>66</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D25" s="9"/>
       <c r="E25" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="29" t="n">
         <v>0</v>
@@ -1537,27 +1489,25 @@
         <v>0</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="29" t="n">
         <v>0</v>
@@ -1566,27 +1516,25 @@
         <v>0</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>70</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D27" s="9"/>
       <c r="E27" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="29" t="n">
         <v>0</v>
@@ -1595,27 +1543,25 @@
         <v>0</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D28" s="9"/>
       <c r="E28" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="29" t="n">
         <v>0</v>
@@ -1624,27 +1570,25 @@
         <v>0</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>74</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="29" t="n">
         <v>0</v>
@@ -1653,25 +1597,25 @@
         <v>0</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="29" t="n">
         <v>0</v>
@@ -1680,25 +1624,25 @@
         <v>1</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="29" t="n">
         <v>0</v>
@@ -1707,25 +1651,25 @@
         <v>1</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="29" t="n">
         <v>0</v>
@@ -1734,25 +1678,25 @@
         <v>1</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="29" t="n">
         <v>0</v>
@@ -1761,25 +1705,25 @@
         <v>1</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="29" t="n">
         <v>0</v>
@@ -1788,25 +1732,25 @@
         <v>1</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="29" t="n">
         <v>0</v>
@@ -1815,25 +1759,25 @@
         <v>1</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="29" t="n">
         <v>0</v>
@@ -1842,25 +1786,25 @@
         <v>1</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="29" t="n">
         <v>0</v>
@@ -1869,25 +1813,25 @@
         <v>1</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="29" t="n">
         <v>0</v>
@@ -1896,22 +1840,22 @@
         <v>1</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>4</v>
@@ -1923,24 +1867,22 @@
         <v>1</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D40" s="33"/>
       <c r="E40" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>4</v>
@@ -1952,24 +1894,22 @@
         <v>1</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>100</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D41" s="33"/>
       <c r="E41" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>4</v>
@@ -1981,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2002,8 +1942,8 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B46" activeCellId="0" sqref="B46"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B46" activeCellId="1" sqref="D2:D41 B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2055,42 +1995,42 @@
         <v>11</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="11" t="n">
         <v>1</v>
@@ -2099,27 +2039,27 @@
         <v>1</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="17" t="n">
         <v>0</v>
@@ -2128,27 +2068,27 @@
         <v>1</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="17" t="n">
         <v>0</v>
@@ -2157,27 +2097,27 @@
         <v>1</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="17" t="n">
         <v>0</v>
@@ -2186,27 +2126,27 @@
         <v>1</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="12" t="n">
         <v>0</v>
@@ -2215,27 +2155,27 @@
         <v>1</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="12" t="n">
         <v>0</v>
@@ -2244,27 +2184,27 @@
         <v>1</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="12" t="n">
         <v>0</v>
@@ -2273,27 +2213,27 @@
         <v>1</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="24" t="n">
         <v>0</v>
@@ -2302,27 +2242,27 @@
         <v>1</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="24" t="n">
         <v>0</v>
@@ -2331,27 +2271,27 @@
         <v>1</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="24" t="n">
         <v>0</v>
@@ -2360,27 +2300,27 @@
         <v>1</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="24" t="n">
         <v>0</v>
@@ -2389,27 +2329,27 @@
         <v>1</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="24" t="n">
         <v>0</v>
@@ -2418,27 +2358,27 @@
         <v>1</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="26" t="n">
         <v>0</v>
@@ -2447,27 +2387,27 @@
         <v>1</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="26" t="n">
         <v>0</v>
@@ -2476,27 +2416,27 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="27" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E17" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="29" t="n">
         <v>0</v>
@@ -2505,27 +2445,27 @@
         <v>1</v>
       </c>
       <c r="I17" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="27" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="29" t="n">
         <v>0</v>
@@ -2534,27 +2474,27 @@
         <v>1</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="27" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E19" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="29" t="n">
         <v>0</v>
@@ -2563,27 +2503,27 @@
         <v>1</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="29" t="n">
         <v>0</v>
@@ -2592,27 +2532,27 @@
         <v>1</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="27" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="29" t="n">
         <v>0</v>
@@ -2621,27 +2561,27 @@
         <v>1</v>
       </c>
       <c r="I21" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="29" t="n">
         <v>0</v>
@@ -2650,27 +2590,27 @@
         <v>1</v>
       </c>
       <c r="I22" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="26" t="n">
         <v>0</v>
@@ -2679,27 +2619,27 @@
         <v>1</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="27" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="29" t="n">
         <v>0</v>
@@ -2708,27 +2648,27 @@
         <v>1</v>
       </c>
       <c r="I24" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="27" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="29" t="n">
         <v>0</v>
@@ -2737,27 +2677,27 @@
         <v>1</v>
       </c>
       <c r="I25" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="27" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B26" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="29" t="n">
         <v>0</v>
@@ -2766,27 +2706,27 @@
         <v>1</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="27" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B27" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="29" t="n">
         <v>0</v>
@@ -2795,27 +2735,27 @@
         <v>1</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B28" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="29" t="n">
         <v>0</v>
@@ -2824,27 +2764,27 @@
         <v>1</v>
       </c>
       <c r="I28" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="27" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B29" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="29" t="n">
         <v>0</v>
@@ -2853,25 +2793,25 @@
         <v>1</v>
       </c>
       <c r="I29" s="30" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B30" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="29" t="n">
         <v>0</v>
@@ -2880,25 +2820,25 @@
         <v>0</v>
       </c>
       <c r="I30" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="29" t="n">
         <v>0</v>
@@ -2907,25 +2847,25 @@
         <v>0</v>
       </c>
       <c r="I31" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" s="29" t="n">
         <v>0</v>
@@ -2934,25 +2874,25 @@
         <v>0</v>
       </c>
       <c r="I32" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="27" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" s="29" t="n">
         <v>0</v>
@@ -2961,25 +2901,25 @@
         <v>0</v>
       </c>
       <c r="I33" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="27" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" s="29" t="n">
         <v>0</v>
@@ -2988,25 +2928,25 @@
         <v>0</v>
       </c>
       <c r="I34" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="27" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B35" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" s="29" t="n">
         <v>0</v>
@@ -3015,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="I35" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="27" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" s="29" t="n">
         <v>0</v>
@@ -3042,25 +2982,25 @@
         <v>0</v>
       </c>
       <c r="I36" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="27" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B37" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" s="29" t="n">
         <v>0</v>
@@ -3069,25 +3009,25 @@
         <v>0</v>
       </c>
       <c r="I37" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B38" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" s="29" t="n">
         <v>0</v>
@@ -3096,22 +3036,22 @@
         <v>0</v>
       </c>
       <c r="I38" s="30" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B39" s="33" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D39" s="33"/>
       <c r="E39" s="33" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F39" s="33" t="s">
         <v>4</v>
@@ -3123,24 +3063,24 @@
         <v>0</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E40" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>4</v>
@@ -3152,24 +3092,24 @@
         <v>0</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>4</v>
@@ -3181,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="104">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -137,6 +137,15 @@
     <t xml:space="preserve">Family Name (Khmer)</t>
   </si>
   <si>
+    <t xml:space="preserve">birth_province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birth Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
     <t xml:space="preserve">v_score</t>
   </si>
   <si>
@@ -231,9 +240,6 @@
   </si>
   <si>
     <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
   </si>
   <si>
     <t xml:space="preserve">district_id</t>
@@ -338,7 +344,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -420,6 +426,13 @@
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -573,7 +586,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -674,6 +687,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,11 +711,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -803,17 +820,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H42" activeCellId="0" sqref="H42"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.98"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.5"/>
@@ -1198,13 +1215,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="0"/>
@@ -1218,63 +1235,62 @@
         <v>0</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" s="23"/>
       <c r="J14" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="n">
+      <c r="E15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="26" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="10" t="n">
@@ -1287,11 +1303,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+    <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -1299,209 +1315,209 @@
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="30" t="s">
+      <c r="A18" s="27" t="s">
         <v>48</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="27" t="s">
         <v>50</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -1509,562 +1525,592 @@
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J25" s="29" t="s">
+      <c r="J25" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="27" t="s">
         <v>69</v>
       </c>
+      <c r="B30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="29" t="n">
-        <v>1</v>
+      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="30" t="n">
+        <v>0</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="0"/>
+      <c r="E31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="0"/>
+      <c r="E32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="0"/>
+      <c r="E33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="0"/>
+      <c r="E34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="0"/>
+      <c r="E35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="0"/>
+      <c r="E36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="0"/>
+      <c r="E37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="0"/>
-      <c r="E31" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="0"/>
-      <c r="E32" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="0"/>
-      <c r="E33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="0"/>
-      <c r="E34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="0"/>
-      <c r="E35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="0"/>
-      <c r="E36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="0"/>
-      <c r="E37" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>85</v>
-      </c>
       <c r="D38" s="0"/>
-      <c r="E38" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="29" t="n">
+      <c r="E38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="29" t="s">
-        <v>70</v>
+      <c r="J38" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="0"/>
-      <c r="E39" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="32" t="s">
+      <c r="E39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="36" t="s">
+      <c r="G40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="0"/>
-      <c r="E40" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="32" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32" t="s">
+      <c r="G42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="32" t="s">
+      <c r="C43" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="0"/>
+      <c r="E43" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>88</v>
+      <c r="G43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2083,10 +2129,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2142,8 +2188,8 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>95</v>
+      <c r="D2" s="37" t="s">
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2173,7 +2219,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2203,7 +2249,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2233,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2263,7 +2309,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2357,7 +2403,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>11</v>
@@ -2451,7 +2497,7 @@
         <v>35</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E12" s="22" t="s">
         <v>11</v>
@@ -2481,7 +2527,7 @@
         <v>37</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E13" s="22" t="s">
         <v>11</v>
@@ -2501,18 +2547,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="22" t="s">
         <v>11</v>
       </c>
@@ -2523,67 +2567,65 @@
         <v>0</v>
       </c>
       <c r="H14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="23"/>
       <c r="J14" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="n">
+        <v>42</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="26" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="10" t="n">
@@ -2596,11 +2638,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
+    <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -2610,221 +2652,221 @@
         <v>46</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29" t="n">
+      <c r="F18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>50</v>
+      <c r="B19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>51</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="29" t="s">
+      <c r="J20" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="29" t="s">
+      <c r="J21" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29" t="n">
+        <v>47</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="29" t="s">
+      <c r="J22" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -2834,576 +2876,608 @@
         <v>46</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="29" t="s">
+      <c r="J24" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="F25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="29" t="n">
+      <c r="F26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J26" s="29" t="s">
+      <c r="J26" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="29" t="n">
+        <v>61</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="30" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="30" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="29" t="n">
-        <v>0</v>
+      <c r="B30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="30" t="n">
+        <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>85</v>
-      </c>
       <c r="D38" s="18"/>
-      <c r="E38" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="29" t="n">
+      <c r="E38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="29" t="s">
-        <v>70</v>
+      <c r="J38" s="30" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="32" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="36" t="s">
+      <c r="G40" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="32" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="32" t="s">
+      <c r="G42" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="32" t="s">
+      <c r="C43" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>88</v>
+      <c r="G43" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="38" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="107">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -89,6 +89,12 @@
     <t xml:space="preserve">Family Name (Latin)</t>
   </si>
   <si>
+    <t xml:space="preserve">relevant_referral_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relevant Referral Information / Notes</t>
+  </si>
+  <si>
     <t xml:space="preserve">presented_id</t>
   </si>
   <si>
@@ -324,6 +330,9 @@
   </si>
   <si>
     <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Information</t>
   </si>
   <si>
     <t xml:space="preserve">Phone Number - Primary</t>
@@ -586,7 +595,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,6 +661,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -820,17 +833,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.5"/>
@@ -1011,44 +1024,42 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="11" t="s">
@@ -1064,243 +1075,243 @@
         <v>0</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="0"/>
-      <c r="E9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23" t="n">
+      <c r="E11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="0"/>
-      <c r="E12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
-        <v>15</v>
+      <c r="E12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="0"/>
-      <c r="E13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
+      <c r="E13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23" t="s">
+      <c r="E14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="23"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="0"/>
+      <c r="E15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="n">
+      <c r="E16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1310,807 +1321,837 @@
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="n">
+        <v>49</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="n">
+        <v>49</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="n">
+        <v>49</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="n">
+        <v>49</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="n">
+        <v>49</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="n">
+        <v>49</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>46</v>
+      <c r="B24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>49</v>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="18" t="s">
+      <c r="A26" s="28" t="s">
         <v>64</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>53</v>
+      <c r="B27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="18" t="s">
+      <c r="A28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="18" t="s">
+      <c r="A29" s="28" t="s">
         <v>68</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D31" s="0"/>
-      <c r="E31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="30" t="n">
-        <v>1</v>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="31" t="n">
+        <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="0"/>
-      <c r="E32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="30" t="n">
+      <c r="E32" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="30" t="n">
+      <c r="E33" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="0"/>
-      <c r="E34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="30" t="n">
+      <c r="E34" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>80</v>
       </c>
       <c r="D35" s="0"/>
-      <c r="E35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="30" t="n">
+      <c r="E35" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="32" t="s">
+      <c r="B36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>82</v>
       </c>
       <c r="D36" s="0"/>
-      <c r="E36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30" t="n">
+      <c r="E36" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="32" t="s">
+      <c r="B37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>84</v>
       </c>
       <c r="D37" s="0"/>
-      <c r="E37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="30" t="n">
+      <c r="E37" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>70</v>
+      <c r="B38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="D38" s="0"/>
-      <c r="E38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="30" t="n">
+      <c r="E38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="32" t="s">
+      <c r="A39" s="28" t="s">
         <v>87</v>
       </c>
+      <c r="B39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>72</v>
+      </c>
       <c r="D39" s="0"/>
-      <c r="E39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30" t="n">
+      <c r="E39" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="0"/>
-      <c r="E40" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="33" t="s">
+      <c r="E40" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="0"/>
+      <c r="E41" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="37" t="s">
+      <c r="G41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="0"/>
-      <c r="E41" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="33" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="33" t="s">
+      <c r="G42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="0"/>
+      <c r="E43" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="s">
+      <c r="G43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="0"/>
-      <c r="E43" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="33" t="s">
+      <c r="C44" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="0"/>
+      <c r="E44" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="38" t="s">
-        <v>90</v>
+      <c r="G44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2129,10 +2170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2188,8 +2229,8 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="37" t="s">
-        <v>97</v>
+      <c r="D2" s="38" t="s">
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2218,8 +2259,8 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>98</v>
+      <c r="D3" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2248,8 +2289,8 @@
       <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>99</v>
+      <c r="D4" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2278,8 +2319,8 @@
       <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>100</v>
+      <c r="D5" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2308,8 +2349,8 @@
       <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>99</v>
+      <c r="D6" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2329,49 +2370,47 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="D7" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>27</v>
+      <c r="D8" s="19" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
@@ -2386,29 +2425,29 @@
         <v>1</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="D9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="10" t="n">
@@ -2417,225 +2456,225 @@
       <c r="H9" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J9" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="23" t="n">
+      <c r="E11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23" t="s">
-        <v>15</v>
+      <c r="D12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23" t="s">
+      <c r="D13" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23" t="s">
+      <c r="D14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="B15" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="0"/>
+      <c r="E15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="n">
+      <c r="E16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2645,839 +2684,871 @@
       <c r="B17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="F19" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="18" t="s">
+      <c r="E26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D28" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="18" t="s">
+      <c r="E28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D29" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="s">
+      <c r="E29" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="30" t="n">
+      <c r="F29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="30" t="n">
+        <v>63</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="32" t="s">
+      <c r="B31" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="30" t="n">
-        <v>0</v>
+      <c r="D31" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="31" t="n">
+        <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="32" t="s">
+      <c r="B32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="30" t="n">
+      <c r="D32" s="19"/>
+      <c r="E32" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="30" t="n">
+      <c r="D33" s="19"/>
+      <c r="E33" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="32" t="s">
+      <c r="B34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="30" t="n">
+      <c r="D34" s="19"/>
+      <c r="E34" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="30" t="n">
+      <c r="D35" s="19"/>
+      <c r="E35" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="32" t="s">
+      <c r="B36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="30" t="n">
+      <c r="D36" s="19"/>
+      <c r="E36" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="32" t="s">
+      <c r="B37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="30" t="n">
+      <c r="D37" s="19"/>
+      <c r="E37" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="30" t="n">
+      <c r="B38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="32" t="s">
+      <c r="A39" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="30" t="n">
+      <c r="B39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="30" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="33" t="s">
+      <c r="D40" s="19"/>
+      <c r="E40" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="37" t="s">
+      <c r="G41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="F41" s="33" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="33" t="s">
+      <c r="G42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="36" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="33" t="s">
+      <c r="G43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F43" s="33" t="s">
+      <c r="C44" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="38" t="s">
-        <v>90</v>
+      <c r="G44" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="39" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="109">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t xml:space="preserve">ID number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legacy_brcs_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legacy BRCS-ID number</t>
   </si>
   <si>
     <t xml:space="preserve">client_phone</t>
@@ -833,10 +839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1112,61 +1118,61 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="0"/>
-      <c r="E10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="10" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="0"/>
+      <c r="E11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="0"/>
-      <c r="E11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1200,13 +1206,13 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="0"/>
@@ -1220,11 +1226,13 @@
         <v>0</v>
       </c>
       <c r="H13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1262,7 +1270,7 @@
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D15" s="0"/>
@@ -1280,19 +1288,18 @@
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="B16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>43</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>44</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="23" t="s">
@@ -1305,42 +1312,41 @@
         <v>0</v>
       </c>
       <c r="H16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I16" s="24"/>
       <c r="J16" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
+      <c r="E17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1356,51 +1362,51 @@
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="31" t="n">
+        <v>51</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1411,12 +1417,12 @@
       <c r="B20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>13</v>
@@ -1441,12 +1447,12 @@
       <c r="B21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="32" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>13</v>
@@ -1476,7 +1482,7 @@
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -1506,7 +1512,7 @@
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -1536,7 +1542,7 @@
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -1555,78 +1561,78 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>13</v>
@@ -1652,11 +1658,11 @@
         <v>11</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>13</v>
@@ -1676,7 +1682,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
@@ -1686,7 +1692,7 @@
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -1706,17 +1712,17 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -1746,7 +1752,7 @@
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -1771,12 +1777,12 @@
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D32" s="0"/>
-      <c r="E32" s="29" t="s">
-        <v>11</v>
+      <c r="E32" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -1785,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1821,7 +1827,7 @@
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1851,7 +1857,7 @@
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1881,7 +1887,7 @@
         <v>26</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1911,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1941,7 +1947,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1971,7 +1977,7 @@
         <v>26</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1982,7 +1988,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="29" t="s">
@@ -2001,18 +2007,18 @@
         <v>26</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="29" t="s">
@@ -2031,52 +2037,52 @@
         <v>26</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="34" t="s">
+      <c r="B41" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>91</v>
       </c>
       <c r="D41" s="0"/>
-      <c r="E41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="36" t="n">
+      <c r="E41" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="37" t="s">
-        <v>92</v>
+      <c r="J41" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>94</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>4</v>
@@ -2091,7 +2097,7 @@
         <v>26</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2099,9 +2105,9 @@
         <v>95</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="38" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="0"/>
@@ -2121,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2129,7 +2135,7 @@
         <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>98</v>
@@ -2150,8 +2156,38 @@
       <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="39" t="s">
-        <v>92</v>
+      <c r="J44" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="0"/>
+      <c r="E45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2170,10 +2206,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2230,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2260,7 +2296,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2290,7 +2326,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2320,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2350,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2380,7 +2416,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2464,22 +2500,20 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="21" t="s">
+      <c r="D10" s="0"/>
+      <c r="E10" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="10" t="n">
@@ -2488,41 +2522,41 @@
       <c r="H10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2558,17 +2592,17 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="22" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="19" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>11</v>
@@ -2582,9 +2616,11 @@
       <c r="H13" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2598,7 +2634,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>11</v>
@@ -2624,10 +2660,12 @@
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="0"/>
+      <c r="D15" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="E15" s="23" t="s">
         <v>11</v>
       </c>
@@ -2638,50 +2676,46 @@
         <v>0</v>
       </c>
       <c r="H15" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="B16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="0"/>
+      <c r="E16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -2690,22 +2724,22 @@
       <c r="D17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
+      <c r="E17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2723,53 +2757,53 @@
         <v>48</v>
       </c>
       <c r="E18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28" t="s">
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="31" t="n">
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2780,14 +2814,14 @@
       <c r="B20" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="19" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>13</v>
@@ -2812,14 +2846,14 @@
       <c r="B21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="32" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>13</v>
@@ -2851,7 +2885,7 @@
         <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -2883,7 +2917,7 @@
         <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -2915,7 +2949,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -2934,84 +2968,84 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>13</v>
@@ -3037,13 +3071,13 @@
         <v>11</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>13</v>
@@ -3063,7 +3097,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
@@ -3075,7 +3109,7 @@
         <v>57</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -3095,19 +3129,19 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -3139,7 +3173,7 @@
         <v>72</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -3164,12 +3198,14 @@
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="29" t="s">
-        <v>11</v>
+      <c r="D32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -3178,13 +3214,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3214,7 +3250,7 @@
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3244,7 +3280,7 @@
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3274,7 +3310,7 @@
         <v>26</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3304,7 +3340,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3334,7 +3370,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3364,7 +3400,7 @@
         <v>26</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3375,7 +3411,7 @@
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="29" t="s">
@@ -3394,18 +3430,18 @@
         <v>26</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3424,52 +3460,52 @@
         <v>26</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="34" t="s">
+      <c r="B41" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="36" t="n">
+      <c r="D41" s="19"/>
+      <c r="E41" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="37" t="s">
-        <v>92</v>
+      <c r="J41" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>94</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>4</v>
@@ -3484,7 +3520,7 @@
         <v>26</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3492,14 +3528,12 @@
         <v>95</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>96</v>
-      </c>
+      <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
         <v>95</v>
       </c>
@@ -3516,7 +3550,7 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3524,7 +3558,7 @@
         <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>98</v>
@@ -3547,8 +3581,40 @@
       <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="39" t="s">
-        <v>92</v>
+      <c r="J44" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="39" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="107">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -306,12 +306,6 @@
   </si>
   <si>
     <t xml:space="preserve">hide section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">referee_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referee</t>
   </si>
   <si>
     <t xml:space="preserve">family</t>
@@ -754,12 +748,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -839,10 +833,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2105,9 +2099,9 @@
         <v>95</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D43" s="0"/>
@@ -2135,7 +2129,7 @@
         <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>98</v>
@@ -2156,37 +2150,7 @@
       <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="39" t="s">
+      <c r="J44" s="38" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2206,10 +2170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2265,8 +2229,8 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>101</v>
+      <c r="D2" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2296,7 +2260,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2326,7 +2290,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2356,7 +2320,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2386,7 +2350,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2416,7 +2380,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2540,7 +2504,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
@@ -2634,7 +2598,7 @@
         <v>39</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>11</v>
@@ -2664,7 +2628,7 @@
         <v>41</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>11</v>
@@ -3528,12 +3492,14 @@
         <v>95</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="34" t="s">
+        <v>96</v>
+      </c>
       <c r="E43" s="34" t="s">
         <v>95</v>
       </c>
@@ -3558,7 +3524,7 @@
         <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>98</v>
@@ -3581,39 +3547,7 @@
       <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="39" t="s">
+      <c r="J44" s="38" t="s">
         <v>94</v>
       </c>
     </row>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="109">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -125,6 +125,15 @@
     <t xml:space="preserve">Client Contact Phone</t>
   </si>
   <si>
+    <t xml:space="preserve">phone_owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide</t>
+  </si>
+  <si>
     <t xml:space="preserve">whatsapp</t>
   </si>
   <si>
@@ -153,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">Birth Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
   </si>
   <si>
     <t xml:space="preserve">v_score</t>
@@ -833,10 +839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1169,45 +1175,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="0"/>
-      <c r="E12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>27</v>
+      <c r="E12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="23" t="s">
@@ -1230,14 +1234,14 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
+      <c r="A14" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="23" t="s">
@@ -1250,22 +1254,24 @@
         <v>0</v>
       </c>
       <c r="H14" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J14" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="23" t="s">
@@ -1287,13 +1293,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>43</v>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="23" t="s">
@@ -1310,18 +1316,17 @@
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="24"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="0"/>
@@ -1335,42 +1340,41 @@
         <v>0</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" s="24"/>
       <c r="J17" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="0"/>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="n">
+      <c r="E18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1386,51 +1390,51 @@
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="31" t="n">
+        <v>53</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1441,12 +1445,12 @@
       <c r="B21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>13</v>
@@ -1471,12 +1475,12 @@
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -1506,7 +1510,7 @@
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -1536,7 +1540,7 @@
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -1566,7 +1570,7 @@
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
@@ -1585,78 +1589,78 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31" t="n">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>13</v>
@@ -1682,11 +1686,11 @@
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -1706,7 +1710,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
@@ -1716,7 +1720,7 @@
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -1736,17 +1740,17 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -1776,7 +1780,7 @@
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -1801,12 +1805,12 @@
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="29" t="s">
-        <v>11</v>
+      <c r="E33" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -1815,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1851,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1881,7 +1885,7 @@
         <v>26</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1911,7 +1915,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1941,7 +1945,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1971,7 +1975,7 @@
         <v>26</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2001,7 +2005,7 @@
         <v>26</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2012,7 +2016,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="29" t="s">
@@ -2031,18 +2035,18 @@
         <v>26</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="29" t="s">
@@ -2061,52 +2065,52 @@
         <v>26</v>
       </c>
       <c r="J41" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="34" t="s">
+      <c r="B42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="0"/>
-      <c r="E42" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36" t="n">
+      <c r="E42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="37" t="s">
-        <v>94</v>
+      <c r="J42" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>96</v>
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>4</v>
@@ -2121,7 +2125,7 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2129,7 +2133,7 @@
         <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>98</v>
@@ -2150,8 +2154,38 @@
       <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="38" t="s">
-        <v>94</v>
+      <c r="J44" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="0"/>
+      <c r="E45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2170,10 +2204,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2230,7 +2264,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2260,7 +2294,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2290,7 +2324,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2320,7 +2354,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2350,7 +2384,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2380,7 +2414,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2504,7 +2538,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
@@ -2523,50 +2557,46 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>27</v>
+      <c r="D12" s="0"/>
+      <c r="E12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>11</v>
@@ -2588,17 +2618,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>38</v>
+      <c r="A14" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
+      <c r="C14" s="19" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>11</v>
@@ -2612,23 +2642,25 @@
       <c r="H14" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J14" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>11</v>
@@ -2649,15 +2681,17 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="0"/>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>108</v>
+      </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
       </c>
@@ -2668,26 +2702,24 @@
         <v>0</v>
       </c>
       <c r="H16" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>46</v>
-      </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="23" t="s">
         <v>11</v>
       </c>
@@ -2698,20 +2730,18 @@
         <v>0</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24"/>
       <c r="J17" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -2720,22 +2750,22 @@
       <c r="D18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="n">
+      <c r="E18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2753,53 +2783,53 @@
         <v>50</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28" t="s">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="31" t="n">
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2810,14 +2840,14 @@
       <c r="B21" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>13</v>
@@ -2842,14 +2872,14 @@
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="32" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -2881,7 +2911,7 @@
         <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -2913,7 +2943,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -2945,7 +2975,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
@@ -2964,84 +2994,84 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31" t="n">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>13</v>
@@ -3067,13 +3097,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -3093,7 +3123,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
@@ -3105,7 +3135,7 @@
         <v>59</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -3125,19 +3155,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -3169,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -3194,12 +3224,14 @@
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="29" t="s">
-        <v>11</v>
+      <c r="D33" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -3208,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3244,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3274,7 +3306,7 @@
         <v>26</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3304,7 +3336,7 @@
         <v>26</v>
       </c>
       <c r="J36" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3334,7 +3366,7 @@
         <v>26</v>
       </c>
       <c r="J37" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3364,7 +3396,7 @@
         <v>26</v>
       </c>
       <c r="J38" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3394,7 +3426,7 @@
         <v>26</v>
       </c>
       <c r="J39" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3405,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3424,18 +3456,18 @@
         <v>26</v>
       </c>
       <c r="J40" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3454,54 +3486,52 @@
         <v>26</v>
       </c>
       <c r="J41" s="31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="34" t="s">
+      <c r="B42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36" t="n">
+      <c r="D42" s="19"/>
+      <c r="E42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="37" t="s">
-        <v>94</v>
+      <c r="J42" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>96</v>
-      </c>
+      <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>4</v>
@@ -3516,7 +3546,7 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3524,7 +3554,7 @@
         <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>98</v>
@@ -3547,8 +3577,40 @@
       <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="38" t="s">
-        <v>94</v>
+      <c r="J44" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E45" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="38" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="111">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t xml:space="preserve">hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rated_for_id_poor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is client rated for ID Poor?</t>
   </si>
   <si>
     <t xml:space="preserve">whatsapp</t>
@@ -839,10 +845,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1203,34 +1209,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="0"/>
-      <c r="E13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>27</v>
+      <c r="E13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1264,13 +1268,13 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="0"/>
@@ -1284,11 +1288,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J15" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,7 +1332,7 @@
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="0"/>
@@ -1344,18 +1350,17 @@
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="24"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="0"/>
@@ -1369,42 +1374,41 @@
         <v>0</v>
       </c>
       <c r="H18" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" s="24"/>
       <c r="J18" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
+      <c r="E19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1420,51 +1424,51 @@
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31" t="n">
+        <v>55</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1475,12 +1479,12 @@
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -1505,12 +1509,12 @@
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="32" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -1540,7 +1544,7 @@
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -1570,7 +1574,7 @@
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
@@ -1600,7 +1604,7 @@
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>13</v>
@@ -1619,78 +1623,78 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31" t="n">
+        <v>69</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -1716,11 +1720,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -1740,7 +1744,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
@@ -1750,7 +1754,7 @@
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -1770,17 +1774,17 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -1810,7 +1814,7 @@
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -1835,12 +1839,12 @@
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="0"/>
-      <c r="E34" s="29" t="s">
-        <v>11</v>
+      <c r="E34" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>13</v>
@@ -1849,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2046,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="29" t="s">
@@ -2070,13 +2074,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="29" t="s">
@@ -2099,48 +2103,48 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="34" t="s">
+      <c r="B43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="0"/>
-      <c r="E43" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36" t="n">
+      <c r="E43" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="37" t="s">
-        <v>96</v>
+      <c r="J43" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>98</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -2155,7 +2159,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2163,7 +2167,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>100</v>
@@ -2184,8 +2188,38 @@
       <c r="I45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="38" t="s">
-        <v>96</v>
+      <c r="J45" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="0"/>
+      <c r="E46" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2204,10 +2238,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2264,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2294,7 +2328,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2324,7 +2358,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2354,7 +2388,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2384,7 +2418,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2414,7 +2448,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2538,7 +2572,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
@@ -2585,36 +2619,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>27</v>
+      <c r="D13" s="0"/>
+      <c r="E13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2650,17 +2680,17 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>11</v>
@@ -2674,9 +2704,11 @@
       <c r="H15" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="24"/>
+      <c r="I15" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J15" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2690,7 +2722,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -2716,10 +2748,12 @@
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="0"/>
+      <c r="D17" s="19" t="s">
+        <v>110</v>
+      </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
       </c>
@@ -2730,50 +2764,46 @@
         <v>0</v>
       </c>
       <c r="H17" s="24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="24"/>
       <c r="J17" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="E18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2782,22 +2812,22 @@
       <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
+      <c r="E19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2815,53 +2845,53 @@
         <v>52</v>
       </c>
       <c r="E20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31" t="n">
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2872,14 +2902,14 @@
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="19" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -2904,14 +2934,14 @@
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="32" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -2943,7 +2973,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -2975,7 +3005,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
@@ -3007,7 +3037,7 @@
         <v>65</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>13</v>
@@ -3026,84 +3056,84 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="n">
+        <v>55</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31" t="n">
+        <v>69</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -3129,13 +3159,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -3155,7 +3185,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
@@ -3167,7 +3197,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -3187,19 +3217,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -3231,7 +3261,7 @@
         <v>76</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -3256,12 +3286,14 @@
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="33" t="s">
+      <c r="C34" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="29" t="s">
-        <v>11</v>
+      <c r="D34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>13</v>
@@ -3270,13 +3302,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3467,7 +3499,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3491,13 +3523,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="29" t="s">
@@ -3520,50 +3552,48 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="34" t="s">
+      <c r="B43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36" t="n">
+      <c r="D43" s="19"/>
+      <c r="E43" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="37" t="s">
-        <v>96</v>
+      <c r="J43" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>98</v>
-      </c>
+      <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -3578,7 +3608,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3586,7 +3616,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>100</v>
@@ -3609,8 +3639,40 @@
       <c r="I45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="38" t="s">
-        <v>96</v>
+      <c r="J45" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="109">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t xml:space="preserve">Birth Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-score from ODK</t>
   </si>
   <si>
     <t xml:space="preserve">brsc_branch</t>
@@ -845,10 +839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1382,33 +1376,33 @@
       </c>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="24" t="n">
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1424,7 +1418,7 @@
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="6" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
@@ -1442,33 +1436,33 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1479,12 +1473,12 @@
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="32" t="s">
         <v>57</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -1509,12 +1503,12 @@
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -1544,7 +1538,7 @@
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -1574,7 +1568,7 @@
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
@@ -1604,7 +1598,7 @@
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" s="29" t="s">
         <v>13</v>
@@ -1623,78 +1617,78 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10" t="n">
+        <v>67</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>57</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -1720,11 +1714,11 @@
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -1744,7 +1738,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
@@ -1754,7 +1748,7 @@
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -1774,17 +1768,17 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -1814,7 +1808,7 @@
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -1839,12 +1833,12 @@
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="33" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="0"/>
-      <c r="E34" s="6" t="s">
-        <v>69</v>
+      <c r="E34" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>13</v>
@@ -1853,13 +1847,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2050,7 +2044,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="29" t="s">
@@ -2074,13 +2068,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="29" t="s">
@@ -2103,48 +2097,48 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="33" t="s">
+      <c r="B43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="0"/>
-      <c r="E43" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="31" t="n">
+      <c r="E43" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36" t="n">
         <v>1</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="31" t="s">
-        <v>36</v>
+      <c r="J43" s="37" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -2159,7 +2153,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2167,7 +2161,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>100</v>
@@ -2188,38 +2182,8 @@
       <c r="I45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="0"/>
-      <c r="E46" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>98</v>
+      <c r="J45" s="38" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2238,10 +2202,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2298,7 +2262,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2328,7 +2292,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2358,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2388,7 +2352,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2418,7 +2382,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2448,7 +2412,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2572,7 +2536,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
@@ -2722,7 +2686,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -2752,7 +2716,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
@@ -2799,11 +2763,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -2812,22 +2776,22 @@
       <c r="D19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="24" t="n">
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="11" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2845,7 +2809,7 @@
         <v>52</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
@@ -2863,35 +2827,35 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="n">
+      <c r="F21" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="31" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2902,14 +2866,14 @@
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="32" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
@@ -2934,14 +2898,14 @@
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
@@ -2973,7 +2937,7 @@
         <v>61</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
@@ -3005,7 +2969,7 @@
         <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
@@ -3037,103 +3001,103 @@
         <v>65</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="D28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10" t="n">
+      <c r="F28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31" t="n">
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="D29" s="19" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -3159,13 +3123,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -3185,7 +3149,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
@@ -3197,7 +3161,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -3217,19 +3181,19 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>63</v>
-      </c>
       <c r="D32" s="19" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -3261,7 +3225,7 @@
         <v>76</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -3286,14 +3250,12 @@
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>69</v>
+      <c r="D34" s="19"/>
+      <c r="E34" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>13</v>
@@ -3302,13 +3264,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3499,7 +3461,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3523,13 +3485,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>93</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="29" t="s">
@@ -3552,48 +3514,50 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="33" t="s">
+      <c r="B43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="31" t="n">
+      <c r="D43" s="34"/>
+      <c r="E43" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="31" t="s">
-        <v>36</v>
+      <c r="J43" s="37" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="C44" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34" t="s">
-        <v>96</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -3608,7 +3572,7 @@
         <v>26</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3616,7 +3580,7 @@
         <v>99</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C45" s="34" t="s">
         <v>100</v>
@@ -3639,40 +3603,8 @@
       <c r="I45" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J45" s="37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>98</v>
+      <c r="J45" s="38" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="107">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -212,13 +212,13 @@
     <t xml:space="preserve">current_resident_own_or_rent</t>
   </si>
   <si>
-    <t xml:space="preserve">Owned or Rented</t>
+    <t xml:space="preserve">Acc. type</t>
   </si>
   <si>
     <t xml:space="preserve">current_household_type</t>
   </si>
   <si>
-    <t xml:space="preserve">Is your household staying in one of the following?</t>
+    <t xml:space="preserve">Address Type</t>
   </si>
   <si>
     <t xml:space="preserve">island2</t>
@@ -245,13 +245,7 @@
     <t xml:space="preserve">resident_own_or_rent2</t>
   </si>
   <si>
-    <t xml:space="preserve">Owned, Rented or Temporary</t>
-  </si>
-  <si>
     <t xml:space="preserve">household_type2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Type</t>
   </si>
   <si>
     <t xml:space="preserve">province_id</t>
@@ -841,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="D26 C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1593,7 +1587,7 @@
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
       <c r="D26" s="0"/>
@@ -1774,7 +1768,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="6" t="s">
@@ -1798,13 +1792,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="6" t="s">
@@ -1828,13 +1822,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="29" t="s">
@@ -1858,13 +1852,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="29" t="s">
@@ -1888,13 +1882,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="29" t="s">
@@ -1918,13 +1912,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="29" t="s">
@@ -1948,13 +1942,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="29" t="s">
@@ -1978,13 +1972,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="29" t="s">
@@ -2008,13 +2002,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="29" t="s">
@@ -2038,13 +2032,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="29" t="s">
@@ -2068,13 +2062,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="29" t="s">
@@ -2098,17 +2092,17 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>4</v>
@@ -2123,22 +2117,22 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -2153,22 +2147,22 @@
         <v>26</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>4</v>
@@ -2183,7 +2177,7 @@
         <v>26</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2204,8 +2198,8 @@
   </sheetPr>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2262,7 +2256,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2292,7 +2286,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2322,7 +2316,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2352,7 +2346,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2382,7 +2376,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2412,7 +2406,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2536,7 +2530,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
@@ -2686,7 +2680,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -2716,7 +2710,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
@@ -2994,10 +2988,10 @@
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="33" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -3187,10 +3181,10 @@
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>67</v>
@@ -3213,16 +3207,16 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>67</v>
@@ -3245,13 +3239,13 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="29" t="s">
@@ -3275,13 +3269,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="29" t="s">
@@ -3305,13 +3299,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="29" t="s">
@@ -3335,13 +3329,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="29" t="s">
@@ -3365,13 +3359,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="29" t="s">
@@ -3395,13 +3389,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="29" t="s">
@@ -3425,13 +3419,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3455,13 +3449,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3485,13 +3479,13 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="29" t="s">
@@ -3515,17 +3509,17 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>4</v>
@@ -3540,24 +3534,24 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -3572,24 +3566,24 @@
         <v>26</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B45" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="34" t="s">
         <v>97</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>99</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>4</v>
@@ -3604,7 +3598,7 @@
         <v>26</v>
       </c>
       <c r="J45" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="106">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -197,151 +197,148 @@
     <t xml:space="preserve">PO BOX</t>
   </si>
   <si>
+    <t xml:space="preserve">current_settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City/Settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_resident_own_or_rent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acc. type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_household_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">island2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_other_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">street2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">po_box2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settlement2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resident_own_or_rent2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">household_type2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District / Khan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commune_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commune / Sangkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">village_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">street_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">House Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">current_address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what3words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What3Words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_school_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client / School Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case Worker / Staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial Referral Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phone Number - Primary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name - Alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Name - Alternate</t>
+  </si>
+  <si>
     <t xml:space="preserve">current_city</t>
   </si>
   <si>
     <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_resident_own_or_rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acc. type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_household_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">island2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_other_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">po_box2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settlement2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident_own_or_rent2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_type2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">district_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District / Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commune_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune / Sangkat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what3words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What3Words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_school_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client / School Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Worker / Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Referral Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number - Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name - Alternate</t>
   </si>
 </sst>
 </file>
@@ -833,10 +830,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="1" sqref="D26 C31"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="D24 C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1557,7 +1554,7 @@
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="33" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="0"/>
@@ -1581,78 +1578,78 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>65</v>
+      <c r="B26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31" t="n">
+        <v>65</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="31" t="s">
+      <c r="J26" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31" t="n">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>13</v>
@@ -1678,11 +1675,11 @@
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -1702,17 +1699,17 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -1732,17 +1729,17 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -1762,17 +1759,17 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>63</v>
-      </c>
       <c r="D32" s="0"/>
-      <c r="E32" s="6" t="s">
-        <v>67</v>
+      <c r="E32" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -1781,13 +1778,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1797,12 +1794,12 @@
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>65</v>
+      <c r="C33" s="33" t="s">
+        <v>75</v>
       </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="6" t="s">
-        <v>67</v>
+      <c r="E33" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -1811,24 +1808,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="29" t="s">
@@ -1852,13 +1849,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="29" t="s">
@@ -1882,13 +1879,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="29" t="s">
@@ -1912,13 +1909,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="29" t="s">
@@ -1942,13 +1939,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="29" t="s">
@@ -1972,13 +1969,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="29" t="s">
@@ -2031,78 +2028,78 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>65</v>
+      <c r="B41" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="D41" s="0"/>
-      <c r="E41" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="31" t="n">
+      <c r="E41" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36" t="n">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="31" t="s">
-        <v>36</v>
+      <c r="J41" s="37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="A42" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="0"/>
+      <c r="E42" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="31" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
       <c r="C43" s="34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>4</v>
@@ -2116,68 +2113,8 @@
       <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="0"/>
-      <c r="E44" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="0"/>
-      <c r="E45" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>94</v>
+      <c r="J43" s="38" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2196,10 +2133,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2256,7 +2193,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2286,7 +2223,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2316,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2346,7 +2283,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2376,7 +2313,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2406,7 +2343,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2530,7 +2467,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
@@ -2680,7 +2617,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -2710,7 +2647,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
@@ -2887,16 +2824,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>53</v>
@@ -2919,16 +2856,16 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>53</v>
@@ -2951,16 +2888,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>53</v>
@@ -2983,16 +2920,16 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>53</v>
@@ -3015,7 +2952,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>11</v>
@@ -3027,7 +2964,7 @@
         <v>52</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>13</v>
@@ -3047,7 +2984,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>11</v>
@@ -3059,7 +2996,7 @@
         <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>13</v>
@@ -3079,19 +3016,19 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
@@ -3111,7 +3048,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
@@ -3123,7 +3060,7 @@
         <v>59</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
@@ -3143,7 +3080,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
@@ -3155,7 +3092,7 @@
         <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
@@ -3175,7 +3112,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
@@ -3187,7 +3124,7 @@
         <v>63</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -3207,19 +3144,17 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>67</v>
+      <c r="C33" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="29" t="s">
+        <v>11</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -3228,24 +3163,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>76</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="29" t="s">
@@ -3269,13 +3204,13 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="29" t="s">
@@ -3299,13 +3234,13 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>80</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="29" t="s">
@@ -3329,13 +3264,13 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>81</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>82</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="29" t="s">
@@ -3359,13 +3294,13 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>83</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>84</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="29" t="s">
@@ -3389,13 +3324,13 @@
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>85</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>86</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="29" t="s">
@@ -3419,13 +3354,13 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3449,13 +3384,13 @@
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3478,33 +3413,33 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="33" t="s">
+      <c r="D42" s="34"/>
+      <c r="E42" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="37" t="s">
         <v>91</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="31" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3512,12 +3447,14 @@
         <v>92</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C43" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="34" t="s">
+        <v>93</v>
+      </c>
       <c r="E43" s="34" t="s">
         <v>92</v>
       </c>
@@ -3534,24 +3471,24 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="D44" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>96</v>
-      </c>
       <c r="E44" s="34" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -3565,40 +3502,8 @@
       <c r="I44" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>94</v>
+      <c r="J44" s="38" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="105">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -299,13 +299,10 @@
     <t xml:space="preserve">hide section</t>
   </si>
   <si>
+    <t xml:space="preserve">partner</t>
+  </si>
+  <si>
     <t xml:space="preserve">family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partner</t>
   </si>
   <si>
     <t xml:space="preserve">Partners</t>
@@ -830,10 +827,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="1" sqref="D24 C23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2062,10 +2059,10 @@
         <v>92</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="34" t="s">
@@ -2083,37 +2080,7 @@
       <c r="I42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="0"/>
-      <c r="E43" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="38" t="s">
+      <c r="J42" s="38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2133,10 +2100,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2193,7 +2160,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2223,7 +2190,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2253,7 +2220,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2283,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2313,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2343,7 +2310,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2467,7 +2434,7 @@
         <v>33</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>11</v>
@@ -2617,7 +2584,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -2647,7 +2614,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
@@ -2824,16 +2791,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>105</v>
-      </c>
       <c r="D23" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>53</v>
@@ -3447,13 +3414,13 @@
         <v>92</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D43" s="34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="34" t="s">
         <v>92</v>
@@ -3470,39 +3437,7 @@
       <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J43" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="38" t="s">
+      <c r="J43" s="38" t="s">
         <v>91</v>
       </c>
     </row>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AC7F25-8CA9-9646-BEE5-BCB768FD7E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="brc" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="default" sheetId="1" r:id="rId1"/>
+    <sheet name="brc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,353 +26,341 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="105">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klass_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for_instances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Worker / Assigned Staff Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial_referral_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given Name (Latin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Name (Latin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant_referral_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevant Referral Information / Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presented_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presented ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legacy_brcs_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legacy BRCS-ID number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Contact Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone_owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rated_for_id_poor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is client rated for ID Poor?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_phone_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_given_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given Name(Khmer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_family_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Name (Khmer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth_province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brsc_branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRCS Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_current_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_po_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO BOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City/Settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_resident_own_or_rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acc. type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_household_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">island2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_other_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">po_box2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settlement2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident_own_or_rent2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_type2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">district_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District / Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commune_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune / Sangkat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what3words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What3Words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_school_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client / School Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Worker / Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Referral Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number - Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="108">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>klass_name</t>
+  </si>
+  <si>
+    <t>current_label</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>for_instances</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>user_ids</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>Case Worker / Assigned Staff Manager</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>initial_referral_date</t>
+  </si>
+  <si>
+    <t>Date of Referral</t>
+  </si>
+  <si>
+    <t>given_name</t>
+  </si>
+  <si>
+    <t>Given Name (Latin)</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>Family Name (Latin)</t>
+  </si>
+  <si>
+    <t>relevant_referral_information</t>
+  </si>
+  <si>
+    <t>Relevant Referral Information / Notes</t>
+  </si>
+  <si>
+    <t>presented_id</t>
+  </si>
+  <si>
+    <t>Presented ID</t>
+  </si>
+  <si>
+    <t>brc</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>ID number</t>
+  </si>
+  <si>
+    <t>legacy_brcs_id</t>
+  </si>
+  <si>
+    <t>Legacy BRCS-ID number</t>
+  </si>
+  <si>
+    <t>client_phone</t>
+  </si>
+  <si>
+    <t>Client Contact Phone</t>
+  </si>
+  <si>
+    <t>phone_owner</t>
+  </si>
+  <si>
+    <t>Phone Owner</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>rated_for_id_poor</t>
+  </si>
+  <si>
+    <t>Is client rated for ID Poor?</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>other_phone_number</t>
+  </si>
+  <si>
+    <t>Phone Number - Alternate</t>
+  </si>
+  <si>
+    <t>local_given_name</t>
+  </si>
+  <si>
+    <t>Given Name(Khmer)</t>
+  </si>
+  <si>
+    <t>local_family_name</t>
+  </si>
+  <si>
+    <t>Family Name (Khmer)</t>
+  </si>
+  <si>
+    <t>birth_province</t>
+  </si>
+  <si>
+    <t>Birth Province</t>
+  </si>
+  <si>
+    <t>brsc_branch</t>
+  </si>
+  <si>
+    <t>BRCS Branch</t>
+  </si>
+  <si>
+    <t>current_island</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>client_current_address</t>
+  </si>
+  <si>
+    <t>current_street</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>current_po_box</t>
+  </si>
+  <si>
+    <t>PO BOX</t>
+  </si>
+  <si>
+    <t>current_settlement</t>
+  </si>
+  <si>
+    <t>City/Settlement</t>
+  </si>
+  <si>
+    <t>current_resident_own_or_rent</t>
+  </si>
+  <si>
+    <t>Acc. type</t>
+  </si>
+  <si>
+    <t>current_household_type</t>
+  </si>
+  <si>
+    <t>Address Type</t>
+  </si>
+  <si>
+    <t>island2</t>
+  </si>
+  <si>
+    <t>client_other_address</t>
+  </si>
+  <si>
+    <t>street2</t>
+  </si>
+  <si>
+    <t>po_box2</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>settlement2</t>
+  </si>
+  <si>
+    <t>resident_own_or_rent2</t>
+  </si>
+  <si>
+    <t>household_type2</t>
+  </si>
+  <si>
+    <t>province_id</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>District / Khan</t>
+  </si>
+  <si>
+    <t>commune_id</t>
+  </si>
+  <si>
+    <t>Commune / Sangkat</t>
+  </si>
+  <si>
+    <t>village_id</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>street_number</t>
+  </si>
+  <si>
+    <t>Street Number</t>
+  </si>
+  <si>
+    <t>house_number</t>
+  </si>
+  <si>
+    <t>House Number</t>
+  </si>
+  <si>
+    <t>current_address</t>
+  </si>
+  <si>
+    <t>Address Name</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>what3words</t>
+  </si>
+  <si>
+    <t>What3Words</t>
+  </si>
+  <si>
+    <t>client_school_information</t>
+  </si>
+  <si>
+    <t>Client / School Information</t>
+  </si>
+  <si>
+    <t>hide section</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>Case Worker / Staff</t>
+  </si>
+  <si>
+    <t>Initial Referral Date</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Phone Number - Primary</t>
+  </si>
+  <si>
+    <t>First Name - Alternate</t>
+  </si>
+  <si>
+    <t>Last Name - Alternate</t>
+  </si>
+  <si>
+    <t>current_city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>family_member</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-  </numFmts>
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="13"/>
@@ -395,7 +388,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -410,7 +403,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
@@ -418,7 +411,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -435,11 +428,10 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -450,7 +442,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -469,60 +460,102 @@
     </fill>
   </fills>
   <borders count="12">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
       </right>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
@@ -535,230 +568,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -817,35 +743,346 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:IW43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.97"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="11" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.83"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5" style="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1"/>
+    <col min="11" max="257" width="8.83203125" style="1" customWidth="1"/>
+    <col min="258" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +1114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -887,7 +1124,7 @@
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="0"/>
+      <c r="D2"/>
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
@@ -905,7 +1142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -915,17 +1152,17 @@
       <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="0"/>
+      <c r="D3"/>
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="10"/>
@@ -933,7 +1170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -943,17 +1180,17 @@
       <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0"/>
+      <c r="D4"/>
       <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="n">
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
       <c r="I4" s="16"/>
@@ -961,7 +1198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -971,17 +1208,17 @@
       <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="0"/>
+      <c r="D5"/>
       <c r="E5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="n">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <v>1</v>
       </c>
       <c r="I5" s="16"/>
@@ -989,7 +1226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -999,17 +1236,17 @@
       <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="0"/>
+      <c r="D6"/>
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="n">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
       <c r="I6" s="16"/>
@@ -1017,7 +1254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1034,10 +1271,10 @@
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="n">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
         <v>1</v>
       </c>
       <c r="I7" s="16"/>
@@ -1045,7 +1282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
@@ -1055,17 +1292,17 @@
       <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="0"/>
+      <c r="D8"/>
       <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="n">
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
         <v>0</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -1075,7 +1312,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
@@ -1085,17 +1322,17 @@
       <c r="C9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="0"/>
+      <c r="D9"/>
       <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="n">
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -1105,7 +1342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -1115,17 +1352,17 @@
       <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="0"/>
+      <c r="D10"/>
       <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="I10" s="10" t="s">
@@ -1135,7 +1372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -1145,17 +1382,17 @@
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="0"/>
+      <c r="D11"/>
       <c r="E11" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>1</v>
       </c>
       <c r="I11" s="10"/>
@@ -1163,7 +1400,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -1173,17 +1410,17 @@
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0"/>
+      <c r="D12"/>
       <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>1</v>
       </c>
       <c r="I12" s="10"/>
@@ -1191,7 +1428,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -1201,17 +1438,17 @@
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0"/>
+      <c r="D13"/>
       <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="n">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>1</v>
       </c>
       <c r="I13" s="10"/>
@@ -1219,7 +1456,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>39</v>
       </c>
@@ -1229,17 +1466,17 @@
       <c r="C14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0"/>
+      <c r="D14"/>
       <c r="E14" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24" t="n">
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
         <v>0</v>
       </c>
       <c r="I14" s="10" t="s">
@@ -1249,7 +1486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
@@ -1259,17 +1496,17 @@
       <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="0"/>
+      <c r="D15"/>
       <c r="E15" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24" t="n">
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
         <v>0</v>
       </c>
       <c r="I15" s="10" t="s">
@@ -1279,7 +1516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>43</v>
       </c>
@@ -1289,17 +1526,17 @@
       <c r="C16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="0"/>
+      <c r="D16"/>
       <c r="E16" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24" t="n">
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
         <v>1</v>
       </c>
       <c r="I16" s="24"/>
@@ -1307,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>45</v>
       </c>
@@ -1317,17 +1554,17 @@
       <c r="C17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="0"/>
+      <c r="D17"/>
       <c r="E17" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24" t="n">
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <v>1</v>
       </c>
       <c r="I17" s="24"/>
@@ -1335,7 +1572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>47</v>
       </c>
@@ -1345,17 +1582,17 @@
       <c r="C18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="0"/>
+      <c r="D18"/>
       <c r="E18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24" t="n">
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
         <v>1</v>
       </c>
       <c r="I18" s="24"/>
@@ -1364,7 +1601,7 @@
       </c>
       <c r="K18" s="24"/>
     </row>
-    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1374,17 +1611,17 @@
       <c r="C19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="0"/>
+      <c r="D19"/>
       <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -1394,7 +1631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -1404,17 +1641,17 @@
       <c r="C20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="0"/>
+      <c r="D20"/>
       <c r="E20" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="n">
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
         <v>0</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -1424,7 +1661,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>54</v>
       </c>
@@ -1434,17 +1671,17 @@
       <c r="C21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="0"/>
+      <c r="D21"/>
       <c r="E21" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31" t="n">
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -1454,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
@@ -1464,17 +1701,17 @@
       <c r="C22" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="0"/>
+      <c r="D22"/>
       <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="31" t="n">
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -1484,7 +1721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>58</v>
       </c>
@@ -1494,17 +1731,17 @@
       <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="0"/>
+      <c r="D23"/>
       <c r="E23" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31" t="n">
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31">
         <v>0</v>
       </c>
       <c r="I23" s="10" t="s">
@@ -1514,7 +1751,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>60</v>
       </c>
@@ -1524,17 +1761,17 @@
       <c r="C24" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="0"/>
+      <c r="D24"/>
       <c r="E24" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31" t="n">
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31">
         <v>0</v>
       </c>
       <c r="I24" s="10" t="s">
@@ -1544,7 +1781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>62</v>
       </c>
@@ -1554,17 +1791,17 @@
       <c r="C25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="0"/>
+      <c r="D25"/>
       <c r="E25" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31" t="n">
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -1574,7 +1811,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1584,17 +1821,17 @@
       <c r="C26" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="0"/>
+      <c r="D26"/>
       <c r="E26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="n">
+      <c r="G26" s="27">
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -1604,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>66</v>
       </c>
@@ -1614,17 +1851,17 @@
       <c r="C27" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="0"/>
+      <c r="D27"/>
       <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F27" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31" t="n">
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
@@ -1634,7 +1871,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>67</v>
       </c>
@@ -1644,17 +1881,17 @@
       <c r="C28" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="0"/>
+      <c r="D28"/>
       <c r="E28" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31" t="n">
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
@@ -1664,7 +1901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>69</v>
       </c>
@@ -1674,17 +1911,17 @@
       <c r="C29" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="0"/>
+      <c r="D29"/>
       <c r="E29" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31" t="n">
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
         <v>0</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -1694,7 +1931,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>70</v>
       </c>
@@ -1704,17 +1941,17 @@
       <c r="C30" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="0"/>
+      <c r="D30"/>
       <c r="E30" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="31" t="n">
+      <c r="G30" s="30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="s">
@@ -1724,7 +1961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>71</v>
       </c>
@@ -1734,17 +1971,17 @@
       <c r="C31" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="0"/>
+      <c r="D31"/>
       <c r="E31" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F31" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="31" t="n">
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31" s="31">
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
@@ -1754,7 +1991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>72</v>
       </c>
@@ -1764,17 +2001,17 @@
       <c r="C32" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="0"/>
+      <c r="D32"/>
       <c r="E32" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="31" t="n">
+      <c r="G32" s="30">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31">
         <v>1</v>
       </c>
       <c r="I32" s="10" t="s">
@@ -1784,7 +2021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>74</v>
       </c>
@@ -1794,17 +2031,17 @@
       <c r="C33" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="0"/>
+      <c r="D33"/>
       <c r="E33" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31" t="n">
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31">
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
@@ -1814,7 +2051,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>76</v>
       </c>
@@ -1824,17 +2061,17 @@
       <c r="C34" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="0"/>
+      <c r="D34"/>
       <c r="E34" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="31" t="n">
+      <c r="G34" s="30">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31">
         <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
@@ -1844,7 +2081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>78</v>
       </c>
@@ -1854,17 +2091,17 @@
       <c r="C35" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="0"/>
+      <c r="D35"/>
       <c r="E35" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="31" t="n">
+      <c r="G35" s="30">
+        <v>0</v>
+      </c>
+      <c r="H35" s="31">
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
@@ -1874,7 +2111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>80</v>
       </c>
@@ -1884,17 +2121,17 @@
       <c r="C36" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="0"/>
+      <c r="D36"/>
       <c r="E36" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F36" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="31" t="n">
+      <c r="G36" s="30">
+        <v>0</v>
+      </c>
+      <c r="H36" s="31">
         <v>1</v>
       </c>
       <c r="I36" s="10" t="s">
@@ -1904,7 +2141,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>82</v>
       </c>
@@ -1914,17 +2151,17 @@
       <c r="C37" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="0"/>
+      <c r="D37"/>
       <c r="E37" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F37" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="31" t="n">
+      <c r="G37" s="30">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31">
         <v>1</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -1934,7 +2171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>84</v>
       </c>
@@ -1944,17 +2181,17 @@
       <c r="C38" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="0"/>
+      <c r="D38"/>
       <c r="E38" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="31" t="n">
+      <c r="G38" s="30">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31">
         <v>1</v>
       </c>
       <c r="I38" s="10" t="s">
@@ -1964,7 +2201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>86</v>
       </c>
@@ -1974,17 +2211,17 @@
       <c r="C39" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="0"/>
+      <c r="D39"/>
       <c r="E39" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F39" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="31" t="n">
+      <c r="G39" s="30">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
         <v>1</v>
       </c>
       <c r="I39" s="10" t="s">
@@ -1994,7 +2231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>87</v>
       </c>
@@ -2004,17 +2241,17 @@
       <c r="C40" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="0"/>
+      <c r="D40"/>
       <c r="E40" s="29" t="s">
         <v>11</v>
       </c>
       <c r="F40" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="31" t="n">
+      <c r="G40" s="30">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31">
         <v>1</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -2024,7 +2261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="34" t="s">
         <v>89</v>
       </c>
@@ -2034,17 +2271,17 @@
       <c r="C41" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="0"/>
+      <c r="D41"/>
       <c r="E41" s="34" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G41" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="36" t="n">
+      <c r="G41" s="35">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
@@ -2054,70 +2291,95 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="35">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B43" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C43" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="0"/>
-      <c r="E42" s="34" t="s">
+      <c r="D43"/>
+      <c r="E43" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="38" t="s">
+      <c r="G43" s="35">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="38" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IW44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="257" min="11" style="1" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="258" style="0" width="8.83"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11.5" style="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1"/>
+    <col min="11" max="257" width="8.83203125" style="1" customWidth="1"/>
+    <col min="258" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2179,7 +2441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2198,10 +2460,10 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="10"/>
@@ -2209,7 +2471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2228,10 +2490,10 @@
       <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="n">
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
       <c r="I4" s="16"/>
@@ -2239,7 +2501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2258,10 +2520,10 @@
       <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="n">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <v>1</v>
       </c>
       <c r="I5" s="16"/>
@@ -2269,7 +2531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2288,10 +2550,10 @@
       <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="n">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
       <c r="I6" s="16"/>
@@ -2299,7 +2561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -2318,10 +2580,10 @@
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="n">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
         <v>1</v>
       </c>
       <c r="I7" s="16"/>
@@ -2329,7 +2591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
@@ -2348,10 +2610,10 @@
       <c r="F8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="n">
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
         <v>1</v>
       </c>
       <c r="I8" s="10" t="s">
@@ -2361,7 +2623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
         <v>28</v>
       </c>
@@ -2380,10 +2642,10 @@
       <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="n">
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -2393,7 +2655,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -2403,17 +2665,17 @@
       <c r="C10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="0"/>
+      <c r="D10"/>
       <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
@@ -2423,7 +2685,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>32</v>
       </c>
@@ -2442,10 +2704,10 @@
       <c r="F11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>1</v>
       </c>
       <c r="I11" s="10"/>
@@ -2453,7 +2715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
@@ -2463,17 +2725,17 @@
       <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="0"/>
+      <c r="D12"/>
       <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
@@ -2481,7 +2743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>37</v>
       </c>
@@ -2491,17 +2753,17 @@
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="0"/>
+      <c r="D13"/>
       <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="n">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>0</v>
       </c>
       <c r="I13" s="10"/>
@@ -2509,7 +2771,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22" t="s">
         <v>39</v>
       </c>
@@ -2528,10 +2790,10 @@
       <c r="F14" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24" t="n">
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="24">
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
@@ -2541,7 +2803,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
@@ -2560,10 +2822,10 @@
       <c r="F15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24" t="n">
+      <c r="G15" s="24">
+        <v>0</v>
+      </c>
+      <c r="H15" s="24">
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
@@ -2573,7 +2835,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>43</v>
       </c>
@@ -2592,10 +2854,10 @@
       <c r="F16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="24" t="n">
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="24">
         <v>1</v>
       </c>
       <c r="I16" s="24"/>
@@ -2603,7 +2865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>45</v>
       </c>
@@ -2622,10 +2884,10 @@
       <c r="F17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24" t="n">
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
         <v>1</v>
       </c>
       <c r="I17" s="24"/>
@@ -2633,7 +2895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>47</v>
       </c>
@@ -2643,17 +2905,17 @@
       <c r="C18" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="0"/>
+      <c r="D18"/>
       <c r="E18" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="24" t="n">
+      <c r="G18" s="24">
+        <v>0</v>
+      </c>
+      <c r="H18" s="24">
         <v>0</v>
       </c>
       <c r="I18" s="24"/>
@@ -2661,7 +2923,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2680,10 +2942,10 @@
       <c r="F19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
         <v>1</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -2693,7 +2955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
         <v>51</v>
       </c>
@@ -2712,10 +2974,10 @@
       <c r="F20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="n">
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
         <v>1</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -2725,7 +2987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>54</v>
       </c>
@@ -2744,10 +3006,10 @@
       <c r="F21" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31" t="n">
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+      <c r="H21" s="31">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
@@ -2757,7 +3019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>56</v>
       </c>
@@ -2776,10 +3038,10 @@
       <c r="F22" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="31" t="n">
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="31">
         <v>1</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -2789,7 +3051,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>103</v>
       </c>
@@ -2808,10 +3070,10 @@
       <c r="F23" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31" t="n">
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="31">
         <v>1</v>
       </c>
       <c r="I23" s="10" t="s">
@@ -2821,7 +3083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>58</v>
       </c>
@@ -2840,10 +3102,10 @@
       <c r="F24" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="31" t="n">
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+      <c r="H24" s="31">
         <v>1</v>
       </c>
       <c r="I24" s="10" t="s">
@@ -2853,7 +3115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>60</v>
       </c>
@@ -2872,10 +3134,10 @@
       <c r="F25" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="31" t="n">
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+      <c r="H25" s="31">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -2885,7 +3147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>62</v>
       </c>
@@ -2904,10 +3166,10 @@
       <c r="F26" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31" t="n">
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31">
         <v>1</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -2917,7 +3179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>64</v>
       </c>
@@ -2936,10 +3198,10 @@
       <c r="F27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="n">
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
         <v>1</v>
       </c>
       <c r="I27" s="10" t="s">
@@ -2949,7 +3211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>66</v>
       </c>
@@ -2968,10 +3230,10 @@
       <c r="F28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31" t="n">
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
@@ -2981,7 +3243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>67</v>
       </c>
@@ -3000,10 +3262,10 @@
       <c r="F29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31" t="n">
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
         <v>1</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -3013,7 +3275,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
         <v>69</v>
       </c>
@@ -3032,10 +3294,10 @@
       <c r="F30" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="31" t="n">
+      <c r="G30" s="30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="31">
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
@@ -3045,7 +3307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
         <v>70</v>
       </c>
@@ -3064,10 +3326,10 @@
       <c r="F31" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="31" t="n">
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+      <c r="H31" s="31">
         <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
@@ -3077,7 +3339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
         <v>71</v>
       </c>
@@ -3096,10 +3358,10 @@
       <c r="F32" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="31" t="n">
+      <c r="G32" s="30">
+        <v>0</v>
+      </c>
+      <c r="H32" s="31">
         <v>1</v>
       </c>
       <c r="I32" s="10" t="s">
@@ -3109,7 +3371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>72</v>
       </c>
@@ -3126,10 +3388,10 @@
       <c r="F33" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="31" t="n">
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+      <c r="H33" s="31">
         <v>0</v>
       </c>
       <c r="I33" s="10" t="s">
@@ -3139,7 +3401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>74</v>
       </c>
@@ -3156,10 +3418,10 @@
       <c r="F34" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="31" t="n">
+      <c r="G34" s="30">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31">
         <v>0</v>
       </c>
       <c r="I34" s="10" t="s">
@@ -3169,7 +3431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>76</v>
       </c>
@@ -3186,10 +3448,10 @@
       <c r="F35" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="31" t="n">
+      <c r="G35" s="30">
+        <v>0</v>
+      </c>
+      <c r="H35" s="31">
         <v>0</v>
       </c>
       <c r="I35" s="10" t="s">
@@ -3199,7 +3461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>78</v>
       </c>
@@ -3216,10 +3478,10 @@
       <c r="F36" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="31" t="n">
+      <c r="G36" s="30">
+        <v>0</v>
+      </c>
+      <c r="H36" s="31">
         <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
@@ -3229,7 +3491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>80</v>
       </c>
@@ -3246,10 +3508,10 @@
       <c r="F37" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="31" t="n">
+      <c r="G37" s="30">
+        <v>0</v>
+      </c>
+      <c r="H37" s="31">
         <v>0</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -3259,7 +3521,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>82</v>
       </c>
@@ -3276,10 +3538,10 @@
       <c r="F38" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="31" t="n">
+      <c r="G38" s="30">
+        <v>0</v>
+      </c>
+      <c r="H38" s="31">
         <v>0</v>
       </c>
       <c r="I38" s="10" t="s">
@@ -3289,7 +3551,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>84</v>
       </c>
@@ -3306,10 +3568,10 @@
       <c r="F39" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="31" t="n">
+      <c r="G39" s="30">
+        <v>0</v>
+      </c>
+      <c r="H39" s="31">
         <v>0</v>
       </c>
       <c r="I39" s="10" t="s">
@@ -3319,7 +3581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>86</v>
       </c>
@@ -3336,10 +3598,10 @@
       <c r="F40" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="31" t="n">
+      <c r="G40" s="30">
+        <v>0</v>
+      </c>
+      <c r="H40" s="31">
         <v>0</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -3349,7 +3611,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>87</v>
       </c>
@@ -3366,10 +3628,10 @@
       <c r="F41" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="31" t="n">
+      <c r="G41" s="30">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31">
         <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
@@ -3379,7 +3641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="34" t="s">
         <v>89</v>
       </c>
@@ -3396,10 +3658,10 @@
       <c r="F42" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36" t="n">
+      <c r="G42" s="35">
+        <v>0</v>
+      </c>
+      <c r="H42" s="36">
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
@@ -3409,43 +3671,72 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="35">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B44" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C44" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D44" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E44" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="38" t="s">
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="38" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;Cbrc</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AC7F25-8CA9-9646-BEE5-BCB768FD7E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC259F51-B884-3B40-BF74-752C00AD99A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="110">
   <si>
     <t>name</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>gender</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>Occupation</t>
   </si>
 </sst>
 </file>
@@ -1064,10 +1070,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW43"/>
+  <dimension ref="A1:IW44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2323,31 +2329,59 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="35">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10"/>
+      <c r="J43" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="B44" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="35">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36">
-        <v>1</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="38" t="s">
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2362,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW44"/>
+  <dimension ref="A1:IW45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3703,33 +3737,61 @@
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C45" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D44" s="34" t="s">
+      <c r="D45" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F45" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="38" t="s">
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="38" t="s">
         <v>91</v>
       </c>
     </row>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC259F51-B884-3B40-BF74-752C00AD99A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4ACA5-69BB-5B4C-ADBF-BF32FD852DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>Occupation</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>Guardian</t>
   </si>
 </sst>
 </file>
@@ -628,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -685,6 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,10 +1083,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW44"/>
+  <dimension ref="A1:IW46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2329,13 +2342,13 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="34" t="s">
-        <v>109</v>
+      <c r="C43" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="34" t="s">
@@ -2357,31 +2370,87 @@
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="B46" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="38" t="s">
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2396,10 +2465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW45"/>
+  <dimension ref="A1:IW47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3737,13 +3806,13 @@
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="34" t="s">
@@ -3765,33 +3834,89 @@
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B47" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C47" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="34" t="s">
+      <c r="D47" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E47" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F47" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="35">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="38" t="s">
+      <c r="G47" s="35">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="38" t="s">
         <v>91</v>
       </c>
     </row>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF4ACA5-69BB-5B4C-ADBF-BF32FD852DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E687C435-B6C9-F54B-A958-F270869C0D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="117">
   <si>
     <t>name</t>
   </si>
@@ -368,6 +368,15 @@
   </si>
   <si>
     <t>Guardian</t>
+  </si>
+  <si>
+    <t>other_phone_whatsapp</t>
+  </si>
+  <si>
+    <t>Whatsapp?</t>
+  </si>
+  <si>
+    <t>Whatsapp? (Phone Number - Alternate)</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1092,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW46"/>
+  <dimension ref="A1:IW47"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1507,15 +1516,15 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15"/>
+        <v>116</v>
+      </c>
+      <c r="D15" s="19"/>
       <c r="E15" s="23" t="s">
         <v>11</v>
       </c>
@@ -1536,14 +1545,14 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>43</v>
+      <c r="A16" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
+      <c r="C16" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D16"/>
       <c r="E16" s="23" t="s">
@@ -1556,22 +1565,24 @@
         <v>0</v>
       </c>
       <c r="H16" s="24">
-        <v>1</v>
-      </c>
-      <c r="I16" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J16" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="23" t="s">
@@ -1593,13 +1604,13 @@
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>48</v>
+      <c r="C18" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="23" t="s">
@@ -1616,53 +1627,51 @@
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24" t="s">
         <v>36</v>
-      </c>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19"/>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20"/>
       <c r="E20" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
@@ -1680,45 +1689,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="28" t="s">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21"/>
       <c r="E21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31">
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
         <v>0</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>57</v>
+      <c r="C22" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="6" t="s">
@@ -1742,13 +1751,13 @@
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>59</v>
+      <c r="C23" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="6" t="s">
@@ -1772,13 +1781,13 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="6" t="s">
@@ -1802,13 +1811,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>63</v>
+      <c r="C25" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="6" t="s">
@@ -1830,75 +1839,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>52</v>
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="27">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10">
+        <v>53</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="31">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="28" t="s">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D27"/>
       <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31">
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D28"/>
       <c r="E28" s="6" t="s">
@@ -1922,13 +1931,13 @@
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D29"/>
       <c r="E29" s="6" t="s">
@@ -1952,13 +1961,13 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30"/>
       <c r="E30" s="6" t="s">
@@ -1982,13 +1991,13 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="6" t="s">
@@ -2012,17 +2021,17 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>73</v>
+      <c r="C32" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D32"/>
-      <c r="E32" s="29" t="s">
-        <v>11</v>
+      <c r="E32" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F32" s="29" t="s">
         <v>13</v>
@@ -2031,24 +2040,24 @@
         <v>0</v>
       </c>
       <c r="H32" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="29" t="s">
@@ -2072,13 +2081,13 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="29" t="s">
@@ -2102,13 +2111,13 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="29" t="s">
@@ -2132,13 +2141,13 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="29" t="s">
@@ -2162,13 +2171,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="29" t="s">
@@ -2192,13 +2201,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="29" t="s">
@@ -2222,13 +2231,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="29" t="s">
@@ -2252,13 +2261,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="29" t="s">
@@ -2280,75 +2289,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>90</v>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="D41"/>
-      <c r="E41" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="35">
-        <v>0</v>
-      </c>
-      <c r="H41" s="36">
+      <c r="E41" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="30">
+        <v>0</v>
+      </c>
+      <c r="H41" s="31">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J41" s="37" t="s">
-        <v>91</v>
+      <c r="J41" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="34" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G42" s="35">
         <v>0</v>
       </c>
       <c r="H42" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C43" s="40" t="s">
-        <v>111</v>
+      <c r="C43" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="34" t="s">
@@ -2361,22 +2370,24 @@
         <v>0</v>
       </c>
       <c r="H43" s="36">
-        <v>1</v>
-      </c>
-      <c r="I43" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J43" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>113</v>
+      <c r="C44" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="34" t="s">
@@ -2398,13 +2409,13 @@
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="34" t="s">
@@ -2426,31 +2437,59 @@
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="B47" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G46" s="35">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="38" t="s">
+      <c r="G47" s="35">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2465,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW47"/>
+  <dimension ref="A1:IW48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="J15" sqref="A15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2882,10 +2921,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>11</v>
@@ -2908,16 +2947,16 @@
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>11</v>
@@ -2939,17 +2978,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>43</v>
+      <c r="A16" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>44</v>
+      <c r="C16" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -2963,23 +3002,25 @@
       <c r="H16" s="24">
         <v>1</v>
       </c>
-      <c r="I16" s="24"/>
+      <c r="I16" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J16" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
@@ -3000,15 +3041,17 @@
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18"/>
+      <c r="C18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="E18" s="23" t="s">
         <v>11</v>
       </c>
@@ -3019,60 +3062,56 @@
         <v>0</v>
       </c>
       <c r="H18" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="24"/>
       <c r="J18" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>13</v>
@@ -3090,50 +3129,50 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="28" t="s">
+    <row r="21" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-      <c r="H21" s="31">
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
         <v>1</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>57</v>
+      <c r="C22" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>53</v>
@@ -3156,16 +3195,16 @@
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>104</v>
+      <c r="C23" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>53</v>
@@ -3188,16 +3227,16 @@
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>53</v>
@@ -3220,16 +3259,16 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>53</v>
@@ -3252,16 +3291,16 @@
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>63</v>
+      <c r="C26" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>53</v>
@@ -3282,82 +3321,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="19" t="s">
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31">
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>65</v>
@@ -3380,16 +3419,16 @@
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>65</v>
@@ -3412,16 +3451,16 @@
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>65</v>
@@ -3444,16 +3483,16 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>65</v>
@@ -3476,17 +3515,19 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="29" t="s">
-        <v>11</v>
+      <c r="C33" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -3495,24 +3536,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="29" t="s">
@@ -3536,13 +3577,13 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="29" t="s">
@@ -3566,13 +3607,13 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="29" t="s">
@@ -3596,13 +3637,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="29" t="s">
@@ -3626,13 +3667,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="29" t="s">
@@ -3656,13 +3697,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="29" t="s">
@@ -3686,13 +3727,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3716,13 +3757,13 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3744,75 +3785,75 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="35">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="30">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31">
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J42" s="37" t="s">
-        <v>91</v>
+      <c r="J42" s="31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43"/>
+        <v>90</v>
+      </c>
+      <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F43" s="34" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G43" s="35">
         <v>0</v>
       </c>
       <c r="H43" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="34" t="s">
@@ -3825,22 +3866,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="36">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J44" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="34" t="s">
@@ -3862,13 +3905,13 @@
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
@@ -3890,33 +3933,61 @@
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B48" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C48" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="34" t="s">
+      <c r="D48" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E48" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F48" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="35">
-        <v>0</v>
-      </c>
-      <c r="H47" s="36">
-        <v>0</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="38" t="s">
+      <c r="G48" s="35">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="38" t="s">
         <v>91</v>
       </c>
     </row>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E687C435-B6C9-F54B-A958-F270869C0D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E935B208-54E6-334B-B24D-806B782F77F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -377,13 +377,22 @@
   </si>
   <si>
     <t>Whatsapp? (Phone Number - Alternate)</t>
+  </si>
+  <si>
+    <t>caregiver_information</t>
+  </si>
+  <si>
+    <t>Caregiver Information</t>
+  </si>
+  <si>
+    <t>note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -470,6 +479,25 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -649,7 +677,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -707,6 +735,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,10 +1124,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW47"/>
+  <dimension ref="A1:IW49"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2349,19 +2381,19 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>13</v>
@@ -2372,22 +2404,20 @@
       <c r="H43" s="36">
         <v>0</v>
       </c>
-      <c r="I43" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="I43" s="10"/>
       <c r="J43" s="37" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="40" t="s">
-        <v>111</v>
+      <c r="C44" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="34" t="s">
@@ -2400,22 +2430,24 @@
         <v>0</v>
       </c>
       <c r="H44" s="36">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J44" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>113</v>
+      <c r="C45" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="34" t="s">
@@ -2437,13 +2469,13 @@
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
@@ -2463,33 +2495,91 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F47" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>1</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="35">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36">
+        <v>0</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="B49" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="35">
-        <v>0</v>
-      </c>
-      <c r="H47" s="36">
-        <v>1</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J47" s="38" t="s">
+      <c r="G49" s="35">
+        <v>0</v>
+      </c>
+      <c r="H49" s="36">
+        <v>1</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2504,10 +2594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW48"/>
+  <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="A15:J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3845,19 +3935,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44" s="34" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>13</v>
@@ -3868,22 +3960,20 @@
       <c r="H44" s="36">
         <v>1</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="I44" s="10"/>
       <c r="J44" s="37" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="34" t="s">
@@ -3896,22 +3986,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="36">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J45" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
@@ -3933,13 +4025,13 @@
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="34" t="s">
@@ -3961,33 +4053,93 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="35">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36">
+        <v>0</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0</v>
+      </c>
+      <c r="H49" s="36">
+        <v>1</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B50" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C50" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D50" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E50" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F50" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="35">
-        <v>0</v>
-      </c>
-      <c r="H48" s="36">
-        <v>0</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J48" s="38" t="s">
+      <c r="G50" s="35">
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <v>0</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="38" t="s">
         <v>91</v>
       </c>
     </row>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E935B208-54E6-334B-B24D-806B782F77F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F738D18-BA67-CA4A-8E18-670A8C687C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -386,6 +386,12 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>preferred_language</t>
+  </si>
+  <si>
+    <t>Preferred Language</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1130,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW49"/>
+  <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1344,15 +1350,15 @@
     </row>
     <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8"/>
+      <c r="C8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="42"/>
       <c r="E8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1374,13 +1380,13 @@
     </row>
     <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9"/>
       <c r="E9" s="11" t="s">
@@ -1404,13 +1410,13 @@
     </row>
     <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="11" t="s">
@@ -1432,43 +1438,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
+    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D11"/>
-      <c r="E11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="21" t="s">
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="10">
         <v>0</v>
       </c>
       <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J11" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12"/>
       <c r="E12" s="21" t="s">
@@ -1485,18 +1493,18 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="21" t="s">
@@ -1516,47 +1524,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>40</v>
+    <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D14"/>
-      <c r="E14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>27</v>
+      <c r="E14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D15"/>
       <c r="E15" s="23" t="s">
         <v>11</v>
       </c>
@@ -1578,15 +1584,15 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16"/>
+        <v>116</v>
+      </c>
+      <c r="D16" s="19"/>
       <c r="E16" s="23" t="s">
         <v>11</v>
       </c>
@@ -1607,14 +1613,14 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>43</v>
+      <c r="A17" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>44</v>
+      <c r="C17" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D17"/>
       <c r="E17" s="23" t="s">
@@ -1627,22 +1633,24 @@
         <v>0</v>
       </c>
       <c r="H17" s="24">
-        <v>1</v>
-      </c>
-      <c r="I17" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J17" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="23" t="s">
@@ -1661,17 +1669,16 @@
       <c r="J18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>48</v>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D19"/>
       <c r="E19" s="23" t="s">
@@ -1688,52 +1695,51 @@
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+    <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="D20"/>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="D21"/>
       <c r="E21" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>13</v>
@@ -1751,45 +1757,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="30">
-        <v>0</v>
-      </c>
-      <c r="H22" s="31">
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>57</v>
+      <c r="C23" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="6" t="s">
@@ -1813,13 +1819,13 @@
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>59</v>
+      <c r="C24" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="6" t="s">
@@ -1843,13 +1849,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="6" t="s">
@@ -1873,13 +1879,13 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>63</v>
+      <c r="C26" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="6" t="s">
@@ -1901,75 +1907,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>52</v>
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D27"/>
       <c r="E27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
+        <v>53</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="31">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="28" t="s">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D28"/>
       <c r="E28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-      <c r="H28" s="31">
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="27">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D29"/>
       <c r="E29" s="6" t="s">
@@ -1993,13 +1999,13 @@
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D30"/>
       <c r="E30" s="6" t="s">
@@ -2023,13 +2029,13 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="6" t="s">
@@ -2053,13 +2059,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="6" t="s">
@@ -2083,17 +2089,17 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>73</v>
+      <c r="C33" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D33"/>
-      <c r="E33" s="29" t="s">
-        <v>11</v>
+      <c r="E33" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F33" s="29" t="s">
         <v>13</v>
@@ -2102,24 +2108,24 @@
         <v>0</v>
       </c>
       <c r="H33" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J33" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="29" t="s">
@@ -2143,13 +2149,13 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="29" t="s">
@@ -2173,13 +2179,13 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="29" t="s">
@@ -2203,13 +2209,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="29" t="s">
@@ -2233,13 +2239,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="29" t="s">
@@ -2263,13 +2269,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="29" t="s">
@@ -2293,13 +2299,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="29" t="s">
@@ -2323,13 +2329,13 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="29" t="s">
@@ -2351,103 +2357,103 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="34" t="s">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="30">
+        <v>0</v>
+      </c>
+      <c r="H42" s="31">
+        <v>1</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="34" t="s">
+      <c r="B43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D42"/>
-      <c r="E42" s="34" t="s">
+      <c r="D43"/>
+      <c r="E43" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F43" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="35">
-        <v>0</v>
-      </c>
-      <c r="H42" s="36">
-        <v>1</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="37" t="s">
+      <c r="G43" s="35">
+        <v>0</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="34" t="s">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B44" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C44" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43" t="s">
+      <c r="D44" s="42"/>
+      <c r="E44" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="35">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="37" t="s">
+      <c r="F44" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10"/>
+      <c r="J44" s="37" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C45" s="40" t="s">
-        <v>111</v>
+      <c r="C45" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="34" t="s">
@@ -2460,22 +2466,24 @@
         <v>0</v>
       </c>
       <c r="H45" s="36">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J45" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>113</v>
+      <c r="C46" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
@@ -2497,13 +2505,13 @@
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="34" t="s">
@@ -2524,14 +2532,14 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="43" t="s">
-        <v>119</v>
+      <c r="A48" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="42" t="s">
-        <v>23</v>
+      <c r="C48" s="34" t="s">
+        <v>109</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="34" t="s">
@@ -2544,42 +2552,70 @@
         <v>0</v>
       </c>
       <c r="H48" s="36">
-        <v>0</v>
-      </c>
-      <c r="I48" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" s="10"/>
       <c r="J48" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A49" s="34" t="s">
-        <v>92</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="43" t="s">
+        <v>119</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>94</v>
+        <v>105</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0</v>
+      </c>
+      <c r="H49" s="36">
+        <v>0</v>
+      </c>
+      <c r="I49" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="B50" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="35">
-        <v>0</v>
-      </c>
-      <c r="H49" s="36">
-        <v>1</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J49" s="38" t="s">
+      <c r="G50" s="35">
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <v>1</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="38" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2594,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW50"/>
+  <dimension ref="A1:IW51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2825,16 +2861,16 @@
     </row>
     <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>25</v>
+      <c r="C8" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>121</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
@@ -2857,16 +2893,16 @@
     </row>
     <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>11</v>
@@ -2889,15 +2925,17 @@
     </row>
     <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10"/>
+        <v>29</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
@@ -2917,23 +2955,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="21" t="s">
+    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="10">
@@ -2942,22 +2978,26 @@
       <c r="H11" s="10">
         <v>1</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J11" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12"/>
+        <v>33</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="E12" s="21" t="s">
         <v>11</v>
       </c>
@@ -2968,22 +3008,22 @@
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="21" t="s">
@@ -3003,50 +3043,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>27</v>
+    <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>11</v>
@@ -3069,16 +3105,16 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -3100,17 +3136,17 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>43</v>
+      <c r="A17" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>44</v>
+      <c r="C17" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
@@ -3124,23 +3160,25 @@
       <c r="H17" s="24">
         <v>1</v>
       </c>
-      <c r="I17" s="24"/>
+      <c r="I17" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J17" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>11</v>
@@ -3161,15 +3199,17 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19"/>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="E19" s="23" t="s">
         <v>11</v>
       </c>
@@ -3180,60 +3220,56 @@
         <v>0</v>
       </c>
       <c r="H19" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>13</v>
@@ -3251,50 +3287,50 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="28" t="s">
+    <row r="22" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="30">
-        <v>0</v>
-      </c>
-      <c r="H22" s="31">
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>1</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>57</v>
+      <c r="C23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>53</v>
@@ -3317,16 +3353,16 @@
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>104</v>
+      <c r="C24" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>53</v>
@@ -3349,16 +3385,16 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>53</v>
@@ -3381,16 +3417,16 @@
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>53</v>
@@ -3413,16 +3449,16 @@
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>63</v>
+      <c r="C27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>53</v>
@@ -3443,82 +3479,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19" t="s">
+      <c r="B29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D29" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="30">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31">
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
         <v>1</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>65</v>
@@ -3541,16 +3577,16 @@
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>65</v>
@@ -3573,16 +3609,16 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>65</v>
@@ -3605,16 +3641,16 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>65</v>
@@ -3637,17 +3673,19 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="29" t="s">
-        <v>11</v>
+      <c r="C34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>13</v>
@@ -3656,24 +3694,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="29" t="s">
@@ -3697,13 +3735,13 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="29" t="s">
@@ -3727,13 +3765,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="29" t="s">
@@ -3757,13 +3795,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="29" t="s">
@@ -3787,13 +3825,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="29" t="s">
@@ -3817,13 +3855,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3847,13 +3885,13 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3877,13 +3915,13 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="29" t="s">
@@ -3905,105 +3943,105 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34" t="s">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="30">
+        <v>0</v>
+      </c>
+      <c r="H43" s="31">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="34" t="s">
+      <c r="B44" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="35">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="37" t="s">
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="37" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C45" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D45" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E45" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
-        <v>1</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="37" t="s">
+      <c r="F45" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="37" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
@@ -4016,22 +4054,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="36">
-        <v>0</v>
-      </c>
-      <c r="I46" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J46" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="34" t="s">
@@ -4053,13 +4093,13 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>105</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="34" t="s">
@@ -4079,19 +4119,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="43" t="s">
-        <v>119</v>
+    <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="42" t="s">
-        <v>23</v>
-      </c>
+      <c r="C49" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49"/>
       <c r="E49" s="34" t="s">
         <v>105</v>
       </c>
@@ -4102,46 +4140,570 @@
         <v>0</v>
       </c>
       <c r="H49" s="36">
-        <v>1</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="35">
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <v>1</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="34" t="s">
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50"/>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50"/>
+      <c r="BF50"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+      <c r="BR50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50"/>
+      <c r="BV50"/>
+      <c r="BW50"/>
+      <c r="BX50"/>
+      <c r="BY50"/>
+      <c r="BZ50"/>
+      <c r="CA50"/>
+      <c r="CB50"/>
+      <c r="CC50"/>
+      <c r="CD50"/>
+      <c r="CE50"/>
+      <c r="CF50"/>
+      <c r="CG50"/>
+      <c r="CH50"/>
+      <c r="CI50"/>
+      <c r="CJ50"/>
+      <c r="CK50"/>
+      <c r="CL50"/>
+      <c r="CM50"/>
+      <c r="CN50"/>
+      <c r="CO50"/>
+      <c r="CP50"/>
+      <c r="CQ50"/>
+      <c r="CR50"/>
+      <c r="CS50"/>
+      <c r="CT50"/>
+      <c r="CU50"/>
+      <c r="CV50"/>
+      <c r="CW50"/>
+      <c r="CX50"/>
+      <c r="CY50"/>
+      <c r="CZ50"/>
+      <c r="DA50"/>
+      <c r="DB50"/>
+      <c r="DC50"/>
+      <c r="DD50"/>
+      <c r="DE50"/>
+      <c r="DF50"/>
+      <c r="DG50"/>
+      <c r="DH50"/>
+      <c r="DI50"/>
+      <c r="DJ50"/>
+      <c r="DK50"/>
+      <c r="DL50"/>
+      <c r="DM50"/>
+      <c r="DN50"/>
+      <c r="DO50"/>
+      <c r="DP50"/>
+      <c r="DQ50"/>
+      <c r="DR50"/>
+      <c r="DS50"/>
+      <c r="DT50"/>
+      <c r="DU50"/>
+      <c r="DV50"/>
+      <c r="DW50"/>
+      <c r="DX50"/>
+      <c r="DY50"/>
+      <c r="DZ50"/>
+      <c r="EA50"/>
+      <c r="EB50"/>
+      <c r="EC50"/>
+      <c r="ED50"/>
+      <c r="EE50"/>
+      <c r="EF50"/>
+      <c r="EG50"/>
+      <c r="EH50"/>
+      <c r="EI50"/>
+      <c r="EJ50"/>
+      <c r="EK50"/>
+      <c r="EL50"/>
+      <c r="EM50"/>
+      <c r="EN50"/>
+      <c r="EO50"/>
+      <c r="EP50"/>
+      <c r="EQ50"/>
+      <c r="ER50"/>
+      <c r="ES50"/>
+      <c r="ET50"/>
+      <c r="EU50"/>
+      <c r="EV50"/>
+      <c r="EW50"/>
+      <c r="EX50"/>
+      <c r="EY50"/>
+      <c r="EZ50"/>
+      <c r="FA50"/>
+      <c r="FB50"/>
+      <c r="FC50"/>
+      <c r="FD50"/>
+      <c r="FE50"/>
+      <c r="FF50"/>
+      <c r="FG50"/>
+      <c r="FH50"/>
+      <c r="FI50"/>
+      <c r="FJ50"/>
+      <c r="FK50"/>
+      <c r="FL50"/>
+      <c r="FM50"/>
+      <c r="FN50"/>
+      <c r="FO50"/>
+      <c r="FP50"/>
+      <c r="FQ50"/>
+      <c r="FR50"/>
+      <c r="FS50"/>
+      <c r="FT50"/>
+      <c r="FU50"/>
+      <c r="FV50"/>
+      <c r="FW50"/>
+      <c r="FX50"/>
+      <c r="FY50"/>
+      <c r="FZ50"/>
+      <c r="GA50"/>
+      <c r="GB50"/>
+      <c r="GC50"/>
+      <c r="GD50"/>
+      <c r="GE50"/>
+      <c r="GF50"/>
+      <c r="GG50"/>
+      <c r="GH50"/>
+      <c r="GI50"/>
+      <c r="GJ50"/>
+      <c r="GK50"/>
+      <c r="GL50"/>
+      <c r="GM50"/>
+      <c r="GN50"/>
+      <c r="GO50"/>
+      <c r="GP50"/>
+      <c r="GQ50"/>
+      <c r="GR50"/>
+      <c r="GS50"/>
+      <c r="GT50"/>
+      <c r="GU50"/>
+      <c r="GV50"/>
+      <c r="GW50"/>
+      <c r="GX50"/>
+      <c r="GY50"/>
+      <c r="GZ50"/>
+      <c r="HA50"/>
+      <c r="HB50"/>
+      <c r="HC50"/>
+      <c r="HD50"/>
+      <c r="HE50"/>
+      <c r="HF50"/>
+      <c r="HG50"/>
+      <c r="HH50"/>
+      <c r="HI50"/>
+      <c r="HJ50"/>
+      <c r="HK50"/>
+      <c r="HL50"/>
+      <c r="HM50"/>
+      <c r="HN50"/>
+      <c r="HO50"/>
+      <c r="HP50"/>
+      <c r="HQ50"/>
+      <c r="HR50"/>
+      <c r="HS50"/>
+      <c r="HT50"/>
+      <c r="HU50"/>
+      <c r="HV50"/>
+      <c r="HW50"/>
+      <c r="HX50"/>
+      <c r="HY50"/>
+      <c r="HZ50"/>
+      <c r="IA50"/>
+      <c r="IB50"/>
+      <c r="IC50"/>
+      <c r="ID50"/>
+      <c r="IE50"/>
+      <c r="IF50"/>
+      <c r="IG50"/>
+      <c r="IH50"/>
+      <c r="II50"/>
+      <c r="IJ50"/>
+      <c r="IK50"/>
+      <c r="IL50"/>
+      <c r="IM50"/>
+      <c r="IN50"/>
+      <c r="IO50"/>
+      <c r="IP50"/>
+      <c r="IQ50"/>
+      <c r="IR50"/>
+      <c r="IS50"/>
+      <c r="IT50"/>
+      <c r="IU50"/>
+      <c r="IV50"/>
+      <c r="IW50"/>
+    </row>
+    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B51" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C51" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D51" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E51" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F51" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="35">
-        <v>0</v>
-      </c>
-      <c r="H50" s="36">
-        <v>0</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="38" t="s">
+      <c r="G51" s="35">
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <v>0</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="38" t="s">
         <v>91</v>
       </c>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51"/>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+      <c r="BR51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51"/>
+      <c r="BV51"/>
+      <c r="BW51"/>
+      <c r="BX51"/>
+      <c r="BY51"/>
+      <c r="BZ51"/>
+      <c r="CA51"/>
+      <c r="CB51"/>
+      <c r="CC51"/>
+      <c r="CD51"/>
+      <c r="CE51"/>
+      <c r="CF51"/>
+      <c r="CG51"/>
+      <c r="CH51"/>
+      <c r="CI51"/>
+      <c r="CJ51"/>
+      <c r="CK51"/>
+      <c r="CL51"/>
+      <c r="CM51"/>
+      <c r="CN51"/>
+      <c r="CO51"/>
+      <c r="CP51"/>
+      <c r="CQ51"/>
+      <c r="CR51"/>
+      <c r="CS51"/>
+      <c r="CT51"/>
+      <c r="CU51"/>
+      <c r="CV51"/>
+      <c r="CW51"/>
+      <c r="CX51"/>
+      <c r="CY51"/>
+      <c r="CZ51"/>
+      <c r="DA51"/>
+      <c r="DB51"/>
+      <c r="DC51"/>
+      <c r="DD51"/>
+      <c r="DE51"/>
+      <c r="DF51"/>
+      <c r="DG51"/>
+      <c r="DH51"/>
+      <c r="DI51"/>
+      <c r="DJ51"/>
+      <c r="DK51"/>
+      <c r="DL51"/>
+      <c r="DM51"/>
+      <c r="DN51"/>
+      <c r="DO51"/>
+      <c r="DP51"/>
+      <c r="DQ51"/>
+      <c r="DR51"/>
+      <c r="DS51"/>
+      <c r="DT51"/>
+      <c r="DU51"/>
+      <c r="DV51"/>
+      <c r="DW51"/>
+      <c r="DX51"/>
+      <c r="DY51"/>
+      <c r="DZ51"/>
+      <c r="EA51"/>
+      <c r="EB51"/>
+      <c r="EC51"/>
+      <c r="ED51"/>
+      <c r="EE51"/>
+      <c r="EF51"/>
+      <c r="EG51"/>
+      <c r="EH51"/>
+      <c r="EI51"/>
+      <c r="EJ51"/>
+      <c r="EK51"/>
+      <c r="EL51"/>
+      <c r="EM51"/>
+      <c r="EN51"/>
+      <c r="EO51"/>
+      <c r="EP51"/>
+      <c r="EQ51"/>
+      <c r="ER51"/>
+      <c r="ES51"/>
+      <c r="ET51"/>
+      <c r="EU51"/>
+      <c r="EV51"/>
+      <c r="EW51"/>
+      <c r="EX51"/>
+      <c r="EY51"/>
+      <c r="EZ51"/>
+      <c r="FA51"/>
+      <c r="FB51"/>
+      <c r="FC51"/>
+      <c r="FD51"/>
+      <c r="FE51"/>
+      <c r="FF51"/>
+      <c r="FG51"/>
+      <c r="FH51"/>
+      <c r="FI51"/>
+      <c r="FJ51"/>
+      <c r="FK51"/>
+      <c r="FL51"/>
+      <c r="FM51"/>
+      <c r="FN51"/>
+      <c r="FO51"/>
+      <c r="FP51"/>
+      <c r="FQ51"/>
+      <c r="FR51"/>
+      <c r="FS51"/>
+      <c r="FT51"/>
+      <c r="FU51"/>
+      <c r="FV51"/>
+      <c r="FW51"/>
+      <c r="FX51"/>
+      <c r="FY51"/>
+      <c r="FZ51"/>
+      <c r="GA51"/>
+      <c r="GB51"/>
+      <c r="GC51"/>
+      <c r="GD51"/>
+      <c r="GE51"/>
+      <c r="GF51"/>
+      <c r="GG51"/>
+      <c r="GH51"/>
+      <c r="GI51"/>
+      <c r="GJ51"/>
+      <c r="GK51"/>
+      <c r="GL51"/>
+      <c r="GM51"/>
+      <c r="GN51"/>
+      <c r="GO51"/>
+      <c r="GP51"/>
+      <c r="GQ51"/>
+      <c r="GR51"/>
+      <c r="GS51"/>
+      <c r="GT51"/>
+      <c r="GU51"/>
+      <c r="GV51"/>
+      <c r="GW51"/>
+      <c r="GX51"/>
+      <c r="GY51"/>
+      <c r="GZ51"/>
+      <c r="HA51"/>
+      <c r="HB51"/>
+      <c r="HC51"/>
+      <c r="HD51"/>
+      <c r="HE51"/>
+      <c r="HF51"/>
+      <c r="HG51"/>
+      <c r="HH51"/>
+      <c r="HI51"/>
+      <c r="HJ51"/>
+      <c r="HK51"/>
+      <c r="HL51"/>
+      <c r="HM51"/>
+      <c r="HN51"/>
+      <c r="HO51"/>
+      <c r="HP51"/>
+      <c r="HQ51"/>
+      <c r="HR51"/>
+      <c r="HS51"/>
+      <c r="HT51"/>
+      <c r="HU51"/>
+      <c r="HV51"/>
+      <c r="HW51"/>
+      <c r="HX51"/>
+      <c r="HY51"/>
+      <c r="HZ51"/>
+      <c r="IA51"/>
+      <c r="IB51"/>
+      <c r="IC51"/>
+      <c r="ID51"/>
+      <c r="IE51"/>
+      <c r="IF51"/>
+      <c r="IG51"/>
+      <c r="IH51"/>
+      <c r="II51"/>
+      <c r="IJ51"/>
+      <c r="IK51"/>
+      <c r="IL51"/>
+      <c r="IM51"/>
+      <c r="IN51"/>
+      <c r="IO51"/>
+      <c r="IP51"/>
+      <c r="IQ51"/>
+      <c r="IR51"/>
+      <c r="IS51"/>
+      <c r="IT51"/>
+      <c r="IU51"/>
+      <c r="IV51"/>
+      <c r="IW51"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F738D18-BA67-CA4A-8E18-670A8C687C3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12363EC3-7ACD-B44B-AC17-5CA04EAA3179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -230,9 +230,6 @@
   </si>
   <si>
     <t>po_box2</t>
-  </si>
-  <si>
-    <t>Zip</t>
   </si>
   <si>
     <t>settlement2</t>
@@ -470,7 +467,7 @@
       <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -484,7 +481,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1132,8 +1129,8 @@
   </sheetPr>
   <dimension ref="A1:IW50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1350,13 +1347,13 @@
     </row>
     <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>121</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="11" t="s">
@@ -1584,13 +1581,13 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="23" t="s">
@@ -2004,8 +2001,8 @@
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>68</v>
+      <c r="C30" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="D30"/>
       <c r="E30" s="6" t="s">
@@ -2029,7 +2026,7 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
@@ -2059,7 +2056,7 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
@@ -2089,7 +2086,7 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
@@ -2119,13 +2116,13 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="D34"/>
       <c r="E34" s="29" t="s">
@@ -2149,13 +2146,13 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="29" t="s">
@@ -2179,13 +2176,13 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>77</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="29" t="s">
@@ -2209,13 +2206,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="29" t="s">
@@ -2239,13 +2236,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="29" t="s">
@@ -2269,13 +2266,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="29" t="s">
@@ -2299,13 +2296,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>85</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="29" t="s">
@@ -2329,7 +2326,7 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
@@ -2359,13 +2356,13 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="29" t="s">
@@ -2389,17 +2386,17 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="34" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F43" s="34" t="s">
         <v>4</v>
@@ -2414,22 +2411,22 @@
         <v>26</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="41" t="s">
         <v>117</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>118</v>
       </c>
       <c r="D44" s="42"/>
       <c r="E44" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>13</v>
@@ -2447,17 +2444,17 @@
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="D45"/>
       <c r="E45" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>13</v>
@@ -2477,17 +2474,17 @@
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="40" t="s">
         <v>110</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="34" t="s">
         <v>13</v>
@@ -2505,17 +2502,17 @@
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="34" t="s">
         <v>112</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>113</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>13</v>
@@ -2533,17 +2530,17 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>109</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>13</v>
@@ -2561,17 +2558,17 @@
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>13</v>
@@ -2591,17 +2588,17 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="C50" s="34" t="s">
         <v>93</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>4</v>
@@ -2616,7 +2613,7 @@
         <v>26</v>
       </c>
       <c r="J50" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2630,7 @@
   <dimension ref="A1:IW51"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2690,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>11</v>
@@ -2720,7 +2717,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2750,7 +2747,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>11</v>
@@ -2780,7 +2777,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>11</v>
@@ -2810,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>11</v>
@@ -2840,7 +2837,7 @@
         <v>23</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2861,16 +2858,16 @@
     </row>
     <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>121</v>
-      </c>
       <c r="D8" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>11</v>
@@ -2996,7 +2993,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>11</v>
@@ -3079,10 +3076,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>11</v>
@@ -3105,16 +3102,16 @@
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -3178,7 +3175,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>11</v>
@@ -3208,7 +3205,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>11</v>
@@ -3385,16 +3382,16 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="D25" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>53</v>
@@ -3582,11 +3579,11 @@
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>68</v>
+      <c r="C31" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>65</v>
@@ -3609,7 +3606,7 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
@@ -3641,7 +3638,7 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
@@ -3673,7 +3670,7 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
@@ -3705,13 +3702,13 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>72</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>73</v>
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="29" t="s">
@@ -3735,13 +3732,13 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="29" t="s">
@@ -3765,13 +3762,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="33" t="s">
         <v>76</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>77</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="29" t="s">
@@ -3795,13 +3792,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="33" t="s">
         <v>78</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>79</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="29" t="s">
@@ -3825,13 +3822,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="33" t="s">
         <v>80</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>81</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="29" t="s">
@@ -3855,13 +3852,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="33" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3885,13 +3882,13 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="33" t="s">
         <v>84</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>85</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3915,7 +3912,7 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
@@ -3945,13 +3942,13 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>88</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="29" t="s">
@@ -3975,17 +3972,17 @@
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>89</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>90</v>
       </c>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F44" s="34" t="s">
         <v>4</v>
@@ -4000,24 +3997,24 @@
         <v>26</v>
       </c>
       <c r="J44" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="41" t="s">
         <v>117</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>118</v>
       </c>
       <c r="D45" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F45" s="34" t="s">
         <v>13</v>
@@ -4035,17 +4032,17 @@
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="34" t="s">
         <v>13</v>
@@ -4065,17 +4062,17 @@
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="34" t="s">
         <v>110</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>111</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F47" s="34" t="s">
         <v>13</v>
@@ -4093,17 +4090,17 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>112</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>113</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F48" s="34" t="s">
         <v>13</v>
@@ -4121,17 +4118,17 @@
     </row>
     <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>109</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F49" s="34" t="s">
         <v>13</v>
@@ -4149,10 +4146,10 @@
     </row>
     <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>23</v>
@@ -4161,7 +4158,7 @@
         <v>23</v>
       </c>
       <c r="E50" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50" s="34" t="s">
         <v>13</v>
@@ -4428,19 +4425,19 @@
     </row>
     <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="C51" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C51" s="34" t="s">
-        <v>94</v>
-      </c>
       <c r="D51" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>4</v>
@@ -4455,7 +4452,7 @@
         <v>26</v>
       </c>
       <c r="J51" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12363EC3-7ACD-B44B-AC17-5CA04EAA3179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228CB08-D99C-094A-BBBF-0CFDDE0461F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -389,6 +389,9 @@
   </si>
   <si>
     <t>Preferred Language</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
@@ -517,7 +520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -676,11 +679,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -742,6 +756,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,10 +1142,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW50"/>
+  <dimension ref="A1:IW51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1291,15 +1306,15 @@
     </row>
     <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6"/>
+        <v>105</v>
+      </c>
+      <c r="D6" s="19"/>
       <c r="E6" s="12" t="s">
         <v>11</v>
       </c>
@@ -1319,15 +1334,15 @@
     </row>
     <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="D7"/>
       <c r="E7" s="12" t="s">
         <v>11</v>
       </c>
@@ -1345,47 +1360,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>26</v>
-      </c>
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16"/>
       <c r="J8" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9"/>
+      <c r="C9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="42"/>
       <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
@@ -1407,13 +1420,13 @@
     </row>
     <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="11" t="s">
@@ -1437,13 +1450,13 @@
     </row>
     <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11"/>
       <c r="E11" s="11" t="s">
@@ -1465,43 +1478,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
+    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>31</v>
       </c>
       <c r="D12"/>
-      <c r="E12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="21" t="s">
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J12" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13"/>
       <c r="E13" s="21" t="s">
@@ -1518,18 +1533,18 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="21" t="s">
@@ -1549,47 +1564,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>40</v>
+    <row r="15" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D15"/>
-      <c r="E15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>27</v>
+      <c r="E15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D16"/>
       <c r="E16" s="23" t="s">
         <v>11</v>
       </c>
@@ -1611,15 +1624,15 @@
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17"/>
+        <v>115</v>
+      </c>
+      <c r="D17" s="19"/>
       <c r="E17" s="23" t="s">
         <v>11</v>
       </c>
@@ -1640,14 +1653,14 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>43</v>
+      <c r="A18" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
+      <c r="C18" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="23" t="s">
@@ -1660,22 +1673,24 @@
         <v>0</v>
       </c>
       <c r="H18" s="24">
-        <v>1</v>
-      </c>
-      <c r="I18" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J18" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19"/>
       <c r="E19" s="23" t="s">
@@ -1694,17 +1709,16 @@
       <c r="J19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>48</v>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D20"/>
       <c r="E20" s="23" t="s">
@@ -1721,52 +1735,51 @@
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="B22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="D21"/>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="D22"/>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>13</v>
@@ -1784,45 +1797,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="28" t="s">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23"/>
       <c r="E23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31">
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
         <v>0</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>57</v>
+      <c r="C24" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="6" t="s">
@@ -1846,13 +1859,13 @@
     </row>
     <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>59</v>
+      <c r="C25" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="D25"/>
       <c r="E25" s="6" t="s">
@@ -1876,13 +1889,13 @@
     </row>
     <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26"/>
       <c r="E26" s="6" t="s">
@@ -1906,13 +1919,13 @@
     </row>
     <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>63</v>
+      <c r="C27" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="D27"/>
       <c r="E27" s="6" t="s">
@@ -1934,75 +1947,75 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>52</v>
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="D28"/>
       <c r="E28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
+        <v>53</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="31">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="28" t="s">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D29"/>
       <c r="E29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="30">
-        <v>0</v>
-      </c>
-      <c r="H29" s="31">
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="27">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
         <v>0</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="31" t="s">
+      <c r="J29" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>57</v>
+      <c r="C30" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="D30"/>
       <c r="E30" s="6" t="s">
@@ -2026,13 +2039,13 @@
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>59</v>
+      <c r="C31" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="D31"/>
       <c r="E31" s="6" t="s">
@@ -2056,13 +2069,13 @@
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32"/>
       <c r="E32" s="6" t="s">
@@ -2086,13 +2099,13 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33"/>
       <c r="E33" s="6" t="s">
@@ -2116,17 +2129,17 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="33" t="s">
-        <v>72</v>
+      <c r="C34" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="D34"/>
-      <c r="E34" s="29" t="s">
-        <v>11</v>
+      <c r="E34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F34" s="29" t="s">
         <v>13</v>
@@ -2135,24 +2148,24 @@
         <v>0</v>
       </c>
       <c r="H34" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J34" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D35"/>
       <c r="E35" s="29" t="s">
@@ -2176,13 +2189,13 @@
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D36"/>
       <c r="E36" s="29" t="s">
@@ -2206,13 +2219,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D37"/>
       <c r="E37" s="29" t="s">
@@ -2236,13 +2249,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D38"/>
       <c r="E38" s="29" t="s">
@@ -2266,13 +2279,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39"/>
       <c r="E39" s="29" t="s">
@@ -2296,13 +2309,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="29" t="s">
@@ -2326,13 +2339,13 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D41"/>
       <c r="E41" s="29" t="s">
@@ -2356,13 +2369,13 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D42"/>
       <c r="E42" s="29" t="s">
@@ -2384,103 +2397,103 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="34" t="s">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="30">
+        <v>0</v>
+      </c>
+      <c r="H43" s="31">
+        <v>1</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="34" t="s">
+      <c r="B44" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D43"/>
-      <c r="E43" s="34" t="s">
+      <c r="D44"/>
+      <c r="E44" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F44" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="35">
-        <v>0</v>
-      </c>
-      <c r="H43" s="36">
-        <v>1</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J43" s="37" t="s">
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B45" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C45" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="43" t="s">
+      <c r="D45" s="42"/>
+      <c r="E45" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="37" t="s">
+      <c r="F45" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="37" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J45" s="37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="40" t="s">
-        <v>110</v>
+      <c r="C46" s="34" t="s">
+        <v>105</v>
       </c>
       <c r="D46"/>
       <c r="E46" s="34" t="s">
@@ -2493,22 +2506,24 @@
         <v>0</v>
       </c>
       <c r="H46" s="36">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J46" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>112</v>
+      <c r="C47" s="40" t="s">
+        <v>110</v>
       </c>
       <c r="D47"/>
       <c r="E47" s="34" t="s">
@@ -2530,13 +2545,13 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="34" t="s">
@@ -2557,14 +2572,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="43" t="s">
-        <v>118</v>
+      <c r="A49" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="42" t="s">
-        <v>23</v>
+      <c r="C49" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="34" t="s">
@@ -2577,42 +2592,70 @@
         <v>0</v>
       </c>
       <c r="H49" s="36">
-        <v>0</v>
-      </c>
-      <c r="I49" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" s="10"/>
       <c r="J49" s="37" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A50" s="34" t="s">
-        <v>91</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="43" t="s">
+        <v>118</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>23</v>
       </c>
       <c r="D50"/>
       <c r="E50" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="35">
+        <v>0</v>
+      </c>
+      <c r="H50" s="36">
+        <v>0</v>
+      </c>
+      <c r="I50" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" s="37" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="B51" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G50" s="35">
-        <v>0</v>
-      </c>
-      <c r="H50" s="36">
-        <v>1</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J50" s="38" t="s">
+      <c r="G51" s="35">
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <v>1</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="38" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2627,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW51"/>
+  <dimension ref="A1:IW52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2828,16 +2871,16 @@
     </row>
     <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>11</v>
@@ -2856,50 +2899,48 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>1</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>26</v>
-      </c>
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16"/>
       <c r="J8" s="11" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>25</v>
+      <c r="C9" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>120</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>11</v>
@@ -2922,16 +2963,16 @@
     </row>
     <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>11</v>
@@ -2954,15 +2995,17 @@
     </row>
     <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11"/>
+        <v>29</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="11" t="s">
         <v>11</v>
       </c>
@@ -2982,23 +3025,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="21" t="s">
+    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="10">
@@ -3007,22 +3048,26 @@
       <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J12" s="11" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13"/>
+        <v>33</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
@@ -3033,22 +3078,22 @@
         <v>0</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14"/>
       <c r="E14" s="21" t="s">
@@ -3068,50 +3113,46 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="24">
-        <v>1</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>27</v>
+    <row r="15" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>11</v>
@@ -3134,16 +3175,16 @@
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>11</v>
@@ -3165,17 +3206,17 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>43</v>
+      <c r="A18" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>44</v>
+      <c r="C18" s="19" t="s">
+        <v>42</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>11</v>
@@ -3189,23 +3230,25 @@
       <c r="H18" s="24">
         <v>1</v>
       </c>
-      <c r="I18" s="24"/>
+      <c r="I18" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J18" s="24" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>11</v>
@@ -3226,15 +3269,17 @@
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20"/>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>101</v>
+      </c>
       <c r="E20" s="23" t="s">
         <v>11</v>
       </c>
@@ -3245,60 +3290,56 @@
         <v>0</v>
       </c>
       <c r="H20" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+      <c r="H21" s="24">
+        <v>1</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>13</v>
@@ -3316,50 +3357,50 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="28" t="s">
+    <row r="23" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F23" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-      <c r="H23" s="31">
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
         <v>1</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="31" t="s">
+      <c r="J23" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>57</v>
+      <c r="C24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>53</v>
@@ -3382,16 +3423,16 @@
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>103</v>
+      <c r="C25" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>53</v>
@@ -3414,16 +3455,16 @@
     </row>
     <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>53</v>
@@ -3446,16 +3487,16 @@
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>53</v>
@@ -3478,16 +3519,16 @@
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>63</v>
+      <c r="C28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>53</v>
@@ -3508,82 +3549,82 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+      <c r="H29" s="31">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="19" t="s">
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D30" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>55</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="31">
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="27">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="31" t="s">
+      <c r="J30" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>57</v>
+      <c r="C31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>55</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>65</v>
@@ -3606,16 +3647,16 @@
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>59</v>
+      <c r="C32" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>65</v>
@@ -3638,16 +3679,16 @@
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B33" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>65</v>
@@ -3670,16 +3711,16 @@
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>65</v>
@@ -3702,17 +3743,19 @@
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="29" t="s">
-        <v>11</v>
+      <c r="C35" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="F35" s="29" t="s">
         <v>13</v>
@@ -3721,24 +3764,24 @@
         <v>0</v>
       </c>
       <c r="H35" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>26</v>
       </c>
       <c r="J35" s="31" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="29" t="s">
@@ -3762,13 +3805,13 @@
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D37" s="19"/>
       <c r="E37" s="29" t="s">
@@ -3792,13 +3835,13 @@
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="19"/>
       <c r="E38" s="29" t="s">
@@ -3822,13 +3865,13 @@
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="29" t="s">
@@ -3852,13 +3895,13 @@
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D40" s="19"/>
       <c r="E40" s="29" t="s">
@@ -3882,13 +3925,13 @@
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="29" t="s">
@@ -3912,13 +3955,13 @@
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B42" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="29" t="s">
@@ -3942,13 +3985,13 @@
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B43" s="28" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="29" t="s">
@@ -3970,107 +4013,109 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="34" t="s">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="30">
+        <v>0</v>
+      </c>
+      <c r="H44" s="31">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="34" t="s">
+      <c r="B45" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F45" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="36">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J44" s="37" t="s">
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" s="37" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B46" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C46" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D46" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E46" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0</v>
-      </c>
-      <c r="H45" s="36">
-        <v>1</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="37" t="s">
+      <c r="F46" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36">
+        <v>1</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="37" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="35">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
-        <v>1</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J46" s="37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="34" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B47" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47"/>
+        <v>105</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>121</v>
+      </c>
       <c r="E47" s="34" t="s">
         <v>104</v>
       </c>
@@ -4081,22 +4126,24 @@
         <v>0</v>
       </c>
       <c r="H47" s="36">
-        <v>0</v>
-      </c>
-      <c r="I47" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="J47" s="37" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B48" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48"/>
       <c r="E48" s="34" t="s">
@@ -4118,13 +4165,13 @@
     </row>
     <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="34" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B49" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D49"/>
       <c r="E49" s="34" t="s">
@@ -4145,18 +4192,16 @@
       </c>
     </row>
     <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="43" t="s">
-        <v>118</v>
+      <c r="A50" s="34" t="s">
+        <v>107</v>
       </c>
       <c r="B50" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="42" t="s">
-        <v>23</v>
-      </c>
+      <c r="C50" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50"/>
       <c r="E50" s="34" t="s">
         <v>104</v>
       </c>
@@ -4167,292 +4212,43 @@
         <v>0</v>
       </c>
       <c r="H50" s="36">
-        <v>1</v>
-      </c>
-      <c r="I50" s="44" t="s">
-        <v>26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" s="10"/>
       <c r="J50" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="35">
+        <v>0</v>
+      </c>
+      <c r="H51" s="36">
+        <v>1</v>
+      </c>
+      <c r="I51" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" s="37" t="s">
         <v>27</v>
-      </c>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
-      <c r="AB50"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
-      <c r="AE50"/>
-      <c r="AF50"/>
-      <c r="AG50"/>
-      <c r="AH50"/>
-      <c r="AI50"/>
-      <c r="AJ50"/>
-      <c r="AK50"/>
-      <c r="AL50"/>
-      <c r="AM50"/>
-      <c r="AN50"/>
-      <c r="AO50"/>
-      <c r="AP50"/>
-      <c r="AQ50"/>
-      <c r="AR50"/>
-      <c r="AS50"/>
-      <c r="AT50"/>
-      <c r="AU50"/>
-      <c r="AV50"/>
-      <c r="AW50"/>
-      <c r="AX50"/>
-      <c r="AY50"/>
-      <c r="AZ50"/>
-      <c r="BA50"/>
-      <c r="BB50"/>
-      <c r="BC50"/>
-      <c r="BD50"/>
-      <c r="BE50"/>
-      <c r="BF50"/>
-      <c r="BG50"/>
-      <c r="BH50"/>
-      <c r="BI50"/>
-      <c r="BJ50"/>
-      <c r="BK50"/>
-      <c r="BL50"/>
-      <c r="BM50"/>
-      <c r="BN50"/>
-      <c r="BO50"/>
-      <c r="BP50"/>
-      <c r="BQ50"/>
-      <c r="BR50"/>
-      <c r="BS50"/>
-      <c r="BT50"/>
-      <c r="BU50"/>
-      <c r="BV50"/>
-      <c r="BW50"/>
-      <c r="BX50"/>
-      <c r="BY50"/>
-      <c r="BZ50"/>
-      <c r="CA50"/>
-      <c r="CB50"/>
-      <c r="CC50"/>
-      <c r="CD50"/>
-      <c r="CE50"/>
-      <c r="CF50"/>
-      <c r="CG50"/>
-      <c r="CH50"/>
-      <c r="CI50"/>
-      <c r="CJ50"/>
-      <c r="CK50"/>
-      <c r="CL50"/>
-      <c r="CM50"/>
-      <c r="CN50"/>
-      <c r="CO50"/>
-      <c r="CP50"/>
-      <c r="CQ50"/>
-      <c r="CR50"/>
-      <c r="CS50"/>
-      <c r="CT50"/>
-      <c r="CU50"/>
-      <c r="CV50"/>
-      <c r="CW50"/>
-      <c r="CX50"/>
-      <c r="CY50"/>
-      <c r="CZ50"/>
-      <c r="DA50"/>
-      <c r="DB50"/>
-      <c r="DC50"/>
-      <c r="DD50"/>
-      <c r="DE50"/>
-      <c r="DF50"/>
-      <c r="DG50"/>
-      <c r="DH50"/>
-      <c r="DI50"/>
-      <c r="DJ50"/>
-      <c r="DK50"/>
-      <c r="DL50"/>
-      <c r="DM50"/>
-      <c r="DN50"/>
-      <c r="DO50"/>
-      <c r="DP50"/>
-      <c r="DQ50"/>
-      <c r="DR50"/>
-      <c r="DS50"/>
-      <c r="DT50"/>
-      <c r="DU50"/>
-      <c r="DV50"/>
-      <c r="DW50"/>
-      <c r="DX50"/>
-      <c r="DY50"/>
-      <c r="DZ50"/>
-      <c r="EA50"/>
-      <c r="EB50"/>
-      <c r="EC50"/>
-      <c r="ED50"/>
-      <c r="EE50"/>
-      <c r="EF50"/>
-      <c r="EG50"/>
-      <c r="EH50"/>
-      <c r="EI50"/>
-      <c r="EJ50"/>
-      <c r="EK50"/>
-      <c r="EL50"/>
-      <c r="EM50"/>
-      <c r="EN50"/>
-      <c r="EO50"/>
-      <c r="EP50"/>
-      <c r="EQ50"/>
-      <c r="ER50"/>
-      <c r="ES50"/>
-      <c r="ET50"/>
-      <c r="EU50"/>
-      <c r="EV50"/>
-      <c r="EW50"/>
-      <c r="EX50"/>
-      <c r="EY50"/>
-      <c r="EZ50"/>
-      <c r="FA50"/>
-      <c r="FB50"/>
-      <c r="FC50"/>
-      <c r="FD50"/>
-      <c r="FE50"/>
-      <c r="FF50"/>
-      <c r="FG50"/>
-      <c r="FH50"/>
-      <c r="FI50"/>
-      <c r="FJ50"/>
-      <c r="FK50"/>
-      <c r="FL50"/>
-      <c r="FM50"/>
-      <c r="FN50"/>
-      <c r="FO50"/>
-      <c r="FP50"/>
-      <c r="FQ50"/>
-      <c r="FR50"/>
-      <c r="FS50"/>
-      <c r="FT50"/>
-      <c r="FU50"/>
-      <c r="FV50"/>
-      <c r="FW50"/>
-      <c r="FX50"/>
-      <c r="FY50"/>
-      <c r="FZ50"/>
-      <c r="GA50"/>
-      <c r="GB50"/>
-      <c r="GC50"/>
-      <c r="GD50"/>
-      <c r="GE50"/>
-      <c r="GF50"/>
-      <c r="GG50"/>
-      <c r="GH50"/>
-      <c r="GI50"/>
-      <c r="GJ50"/>
-      <c r="GK50"/>
-      <c r="GL50"/>
-      <c r="GM50"/>
-      <c r="GN50"/>
-      <c r="GO50"/>
-      <c r="GP50"/>
-      <c r="GQ50"/>
-      <c r="GR50"/>
-      <c r="GS50"/>
-      <c r="GT50"/>
-      <c r="GU50"/>
-      <c r="GV50"/>
-      <c r="GW50"/>
-      <c r="GX50"/>
-      <c r="GY50"/>
-      <c r="GZ50"/>
-      <c r="HA50"/>
-      <c r="HB50"/>
-      <c r="HC50"/>
-      <c r="HD50"/>
-      <c r="HE50"/>
-      <c r="HF50"/>
-      <c r="HG50"/>
-      <c r="HH50"/>
-      <c r="HI50"/>
-      <c r="HJ50"/>
-      <c r="HK50"/>
-      <c r="HL50"/>
-      <c r="HM50"/>
-      <c r="HN50"/>
-      <c r="HO50"/>
-      <c r="HP50"/>
-      <c r="HQ50"/>
-      <c r="HR50"/>
-      <c r="HS50"/>
-      <c r="HT50"/>
-      <c r="HU50"/>
-      <c r="HV50"/>
-      <c r="HW50"/>
-      <c r="HX50"/>
-      <c r="HY50"/>
-      <c r="HZ50"/>
-      <c r="IA50"/>
-      <c r="IB50"/>
-      <c r="IC50"/>
-      <c r="ID50"/>
-      <c r="IE50"/>
-      <c r="IF50"/>
-      <c r="IG50"/>
-      <c r="IH50"/>
-      <c r="II50"/>
-      <c r="IJ50"/>
-      <c r="IK50"/>
-      <c r="IL50"/>
-      <c r="IM50"/>
-      <c r="IN50"/>
-      <c r="IO50"/>
-      <c r="IP50"/>
-      <c r="IQ50"/>
-      <c r="IR50"/>
-      <c r="IS50"/>
-      <c r="IT50"/>
-      <c r="IU50"/>
-      <c r="IV50"/>
-      <c r="IW50"/>
-    </row>
-    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="F51" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="G51" s="35">
-        <v>0</v>
-      </c>
-      <c r="H51" s="36">
-        <v>0</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J51" s="38" t="s">
-        <v>90</v>
       </c>
       <c r="K51"/>
       <c r="L51"/>
@@ -4702,6 +4498,285 @@
       <c r="IV51"/>
       <c r="IW51"/>
     </row>
+    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="35">
+        <v>0</v>
+      </c>
+      <c r="H52" s="36">
+        <v>0</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+      <c r="AW52"/>
+      <c r="AX52"/>
+      <c r="AY52"/>
+      <c r="AZ52"/>
+      <c r="BA52"/>
+      <c r="BB52"/>
+      <c r="BC52"/>
+      <c r="BD52"/>
+      <c r="BE52"/>
+      <c r="BF52"/>
+      <c r="BG52"/>
+      <c r="BH52"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
+      <c r="BK52"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+      <c r="BR52"/>
+      <c r="BS52"/>
+      <c r="BT52"/>
+      <c r="BU52"/>
+      <c r="BV52"/>
+      <c r="BW52"/>
+      <c r="BX52"/>
+      <c r="BY52"/>
+      <c r="BZ52"/>
+      <c r="CA52"/>
+      <c r="CB52"/>
+      <c r="CC52"/>
+      <c r="CD52"/>
+      <c r="CE52"/>
+      <c r="CF52"/>
+      <c r="CG52"/>
+      <c r="CH52"/>
+      <c r="CI52"/>
+      <c r="CJ52"/>
+      <c r="CK52"/>
+      <c r="CL52"/>
+      <c r="CM52"/>
+      <c r="CN52"/>
+      <c r="CO52"/>
+      <c r="CP52"/>
+      <c r="CQ52"/>
+      <c r="CR52"/>
+      <c r="CS52"/>
+      <c r="CT52"/>
+      <c r="CU52"/>
+      <c r="CV52"/>
+      <c r="CW52"/>
+      <c r="CX52"/>
+      <c r="CY52"/>
+      <c r="CZ52"/>
+      <c r="DA52"/>
+      <c r="DB52"/>
+      <c r="DC52"/>
+      <c r="DD52"/>
+      <c r="DE52"/>
+      <c r="DF52"/>
+      <c r="DG52"/>
+      <c r="DH52"/>
+      <c r="DI52"/>
+      <c r="DJ52"/>
+      <c r="DK52"/>
+      <c r="DL52"/>
+      <c r="DM52"/>
+      <c r="DN52"/>
+      <c r="DO52"/>
+      <c r="DP52"/>
+      <c r="DQ52"/>
+      <c r="DR52"/>
+      <c r="DS52"/>
+      <c r="DT52"/>
+      <c r="DU52"/>
+      <c r="DV52"/>
+      <c r="DW52"/>
+      <c r="DX52"/>
+      <c r="DY52"/>
+      <c r="DZ52"/>
+      <c r="EA52"/>
+      <c r="EB52"/>
+      <c r="EC52"/>
+      <c r="ED52"/>
+      <c r="EE52"/>
+      <c r="EF52"/>
+      <c r="EG52"/>
+      <c r="EH52"/>
+      <c r="EI52"/>
+      <c r="EJ52"/>
+      <c r="EK52"/>
+      <c r="EL52"/>
+      <c r="EM52"/>
+      <c r="EN52"/>
+      <c r="EO52"/>
+      <c r="EP52"/>
+      <c r="EQ52"/>
+      <c r="ER52"/>
+      <c r="ES52"/>
+      <c r="ET52"/>
+      <c r="EU52"/>
+      <c r="EV52"/>
+      <c r="EW52"/>
+      <c r="EX52"/>
+      <c r="EY52"/>
+      <c r="EZ52"/>
+      <c r="FA52"/>
+      <c r="FB52"/>
+      <c r="FC52"/>
+      <c r="FD52"/>
+      <c r="FE52"/>
+      <c r="FF52"/>
+      <c r="FG52"/>
+      <c r="FH52"/>
+      <c r="FI52"/>
+      <c r="FJ52"/>
+      <c r="FK52"/>
+      <c r="FL52"/>
+      <c r="FM52"/>
+      <c r="FN52"/>
+      <c r="FO52"/>
+      <c r="FP52"/>
+      <c r="FQ52"/>
+      <c r="FR52"/>
+      <c r="FS52"/>
+      <c r="FT52"/>
+      <c r="FU52"/>
+      <c r="FV52"/>
+      <c r="FW52"/>
+      <c r="FX52"/>
+      <c r="FY52"/>
+      <c r="FZ52"/>
+      <c r="GA52"/>
+      <c r="GB52"/>
+      <c r="GC52"/>
+      <c r="GD52"/>
+      <c r="GE52"/>
+      <c r="GF52"/>
+      <c r="GG52"/>
+      <c r="GH52"/>
+      <c r="GI52"/>
+      <c r="GJ52"/>
+      <c r="GK52"/>
+      <c r="GL52"/>
+      <c r="GM52"/>
+      <c r="GN52"/>
+      <c r="GO52"/>
+      <c r="GP52"/>
+      <c r="GQ52"/>
+      <c r="GR52"/>
+      <c r="GS52"/>
+      <c r="GT52"/>
+      <c r="GU52"/>
+      <c r="GV52"/>
+      <c r="GW52"/>
+      <c r="GX52"/>
+      <c r="GY52"/>
+      <c r="GZ52"/>
+      <c r="HA52"/>
+      <c r="HB52"/>
+      <c r="HC52"/>
+      <c r="HD52"/>
+      <c r="HE52"/>
+      <c r="HF52"/>
+      <c r="HG52"/>
+      <c r="HH52"/>
+      <c r="HI52"/>
+      <c r="HJ52"/>
+      <c r="HK52"/>
+      <c r="HL52"/>
+      <c r="HM52"/>
+      <c r="HN52"/>
+      <c r="HO52"/>
+      <c r="HP52"/>
+      <c r="HQ52"/>
+      <c r="HR52"/>
+      <c r="HS52"/>
+      <c r="HT52"/>
+      <c r="HU52"/>
+      <c r="HV52"/>
+      <c r="HW52"/>
+      <c r="HX52"/>
+      <c r="HY52"/>
+      <c r="HZ52"/>
+      <c r="IA52"/>
+      <c r="IB52"/>
+      <c r="IC52"/>
+      <c r="ID52"/>
+      <c r="IE52"/>
+      <c r="IF52"/>
+      <c r="IG52"/>
+      <c r="IH52"/>
+      <c r="II52"/>
+      <c r="IJ52"/>
+      <c r="IK52"/>
+      <c r="IL52"/>
+      <c r="IM52"/>
+      <c r="IN52"/>
+      <c r="IO52"/>
+      <c r="IP52"/>
+      <c r="IQ52"/>
+      <c r="IR52"/>
+      <c r="IS52"/>
+      <c r="IT52"/>
+      <c r="IU52"/>
+      <c r="IV52"/>
+      <c r="IW52"/>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C228CB08-D99C-094A-BBBF-0CFDDE0461F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38ECB1-AA88-A843-A315-DACA32096FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -392,13 +392,61 @@
   </si>
   <si>
     <t>Sex</t>
+  </si>
+  <si>
+    <t>family_type</t>
+  </si>
+  <si>
+    <t>Family Type</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>dependable_income</t>
+  </si>
+  <si>
+    <t>Dependable Income</t>
+  </si>
+  <si>
+    <t>Monthly Household Income</t>
+  </si>
+  <si>
+    <t>household_income</t>
+  </si>
+  <si>
+    <t>contract_date</t>
+  </si>
+  <si>
+    <t>Contract Date</t>
+  </si>
+  <si>
+    <t>adult_name</t>
+  </si>
+  <si>
+    <t>Adult Name</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -505,6 +553,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF383636"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -520,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -690,11 +757,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -757,6 +885,18 @@
     <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,10 +1282,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW51"/>
+  <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2485,177 +2625,487 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="34" t="s">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="49">
+        <v>0</v>
+      </c>
+      <c r="H46" s="49">
+        <v>1</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="54">
+        <v>0</v>
+      </c>
+      <c r="H47" s="54">
+        <v>1</v>
+      </c>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="54">
+        <v>0</v>
+      </c>
+      <c r="H48" s="54">
+        <v>1</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="54">
+        <v>0</v>
+      </c>
+      <c r="H49" s="54">
+        <v>1</v>
+      </c>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="54">
+        <v>0</v>
+      </c>
+      <c r="H50" s="54">
+        <v>1</v>
+      </c>
+      <c r="I50" s="54"/>
+      <c r="J50" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="54">
+        <v>0</v>
+      </c>
+      <c r="H51" s="54">
+        <v>1</v>
+      </c>
+      <c r="I51" s="54"/>
+      <c r="J51" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="54">
+        <v>0</v>
+      </c>
+      <c r="H52" s="54">
+        <v>1</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="54">
+        <v>0</v>
+      </c>
+      <c r="H53" s="54">
+        <v>1</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="54">
+        <v>1</v>
+      </c>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="54">
+        <v>0</v>
+      </c>
+      <c r="H55" s="54">
+        <v>1</v>
+      </c>
+      <c r="I55" s="54"/>
+      <c r="J55" s="55" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B56" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C56" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D46"/>
-      <c r="E46" s="34" t="s">
+      <c r="D56"/>
+      <c r="E56" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="35">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
-        <v>0</v>
-      </c>
-      <c r="I46" s="10" t="s">
+      <c r="F56" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="35">
+        <v>0</v>
+      </c>
+      <c r="H56" s="36">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J46" s="37" t="s">
+      <c r="J56" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34" t="s">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B57" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C57" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="D47"/>
-      <c r="E47" s="34" t="s">
+      <c r="D57"/>
+      <c r="E57" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="35">
-        <v>0</v>
-      </c>
-      <c r="H47" s="36">
+      <c r="F57" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="35">
+        <v>0</v>
+      </c>
+      <c r="H57" s="36">
         <v>1</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="37" t="s">
+      <c r="I57" s="10"/>
+      <c r="J57" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="34" t="s">
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B58" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C58" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D48"/>
-      <c r="E48" s="34" t="s">
+      <c r="D58"/>
+      <c r="E58" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="35">
-        <v>0</v>
-      </c>
-      <c r="H48" s="36">
+      <c r="F58" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="35">
+        <v>0</v>
+      </c>
+      <c r="H58" s="36">
         <v>1</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="37" t="s">
+      <c r="I58" s="10"/>
+      <c r="J58" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="34" t="s">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="35">
+        <v>0</v>
+      </c>
+      <c r="H59" s="36">
+        <v>1</v>
+      </c>
+      <c r="I59" s="44"/>
+      <c r="J59" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B60" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C60" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="D49"/>
-      <c r="E49" s="34" t="s">
+      <c r="D60"/>
+      <c r="E60" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="35">
-        <v>0</v>
-      </c>
-      <c r="H49" s="36">
+      <c r="F60" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="35">
+        <v>0</v>
+      </c>
+      <c r="H60" s="36">
         <v>1</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="37" t="s">
+      <c r="I60" s="10"/>
+      <c r="J60" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="43" t="s">
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B61" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="42" t="s">
+      <c r="C61" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D50"/>
-      <c r="E50" s="34" t="s">
+      <c r="D61"/>
+      <c r="E61" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="35">
-        <v>0</v>
-      </c>
-      <c r="H50" s="36">
-        <v>0</v>
-      </c>
-      <c r="I50" s="44" t="s">
+      <c r="F61" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="35">
+        <v>0</v>
+      </c>
+      <c r="H61" s="36">
+        <v>0</v>
+      </c>
+      <c r="I61" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J50" s="37" t="s">
+      <c r="J61" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A51" s="34" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B62" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C62" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D51"/>
-      <c r="E51" s="34" t="s">
+      <c r="D62"/>
+      <c r="E62" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F62" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G51" s="35">
-        <v>0</v>
-      </c>
-      <c r="H51" s="36">
+      <c r="G62" s="35">
+        <v>0</v>
+      </c>
+      <c r="H62" s="36">
         <v>1</v>
       </c>
-      <c r="I51" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J51" s="38" t="s">
+      <c r="J62" s="38" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2670,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IW52"/>
+  <dimension ref="A1:IW63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3677,7 +4127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
         <v>68</v>
       </c>
@@ -3709,7 +4159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
         <v>69</v>
       </c>
@@ -3741,7 +4191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
         <v>70</v>
       </c>
@@ -3773,7 +4223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
         <v>71</v>
       </c>
@@ -3803,7 +4253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="28" t="s">
         <v>73</v>
       </c>
@@ -3833,7 +4283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
         <v>75</v>
       </c>
@@ -3863,7 +4313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
         <v>77</v>
       </c>
@@ -3893,7 +4343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
         <v>79</v>
       </c>
@@ -3923,7 +4373,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
         <v>81</v>
       </c>
@@ -3953,7 +4403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
         <v>83</v>
       </c>
@@ -3983,7 +4433,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
         <v>85</v>
       </c>
@@ -4013,7 +4463,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
         <v>86</v>
       </c>
@@ -4043,7 +4493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="34" t="s">
         <v>88</v>
       </c>
@@ -4073,7 +4523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
         <v>116</v>
       </c>
@@ -4103,679 +4553,3461 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="34" t="s">
+    <row r="47" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="49">
+        <v>0</v>
+      </c>
+      <c r="H47" s="49">
+        <v>0</v>
+      </c>
+      <c r="I47" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="51"/>
+      <c r="AO47" s="51"/>
+      <c r="AP47" s="51"/>
+      <c r="AQ47" s="51"/>
+      <c r="AR47" s="51"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="51"/>
+      <c r="AW47" s="51"/>
+      <c r="AX47" s="51"/>
+      <c r="AY47" s="51"/>
+      <c r="AZ47" s="51"/>
+      <c r="BA47" s="51"/>
+      <c r="BB47" s="51"/>
+      <c r="BC47" s="51"/>
+      <c r="BD47" s="51"/>
+      <c r="BE47" s="51"/>
+      <c r="BF47" s="51"/>
+      <c r="BG47" s="51"/>
+      <c r="BH47" s="51"/>
+      <c r="BI47" s="51"/>
+      <c r="BJ47" s="51"/>
+      <c r="BK47" s="51"/>
+      <c r="BL47" s="51"/>
+      <c r="BM47" s="51"/>
+      <c r="BN47" s="51"/>
+      <c r="BO47" s="51"/>
+      <c r="BP47" s="51"/>
+      <c r="BQ47" s="51"/>
+      <c r="BR47" s="51"/>
+      <c r="BS47" s="51"/>
+      <c r="BT47" s="51"/>
+      <c r="BU47" s="51"/>
+      <c r="BV47" s="51"/>
+      <c r="BW47" s="51"/>
+      <c r="BX47" s="51"/>
+      <c r="BY47" s="51"/>
+      <c r="BZ47" s="51"/>
+      <c r="CA47" s="51"/>
+      <c r="CB47" s="51"/>
+      <c r="CC47" s="51"/>
+      <c r="CD47" s="51"/>
+      <c r="CE47" s="51"/>
+      <c r="CF47" s="51"/>
+      <c r="CG47" s="51"/>
+      <c r="CH47" s="51"/>
+      <c r="CI47" s="51"/>
+      <c r="CJ47" s="51"/>
+      <c r="CK47" s="51"/>
+      <c r="CL47" s="51"/>
+      <c r="CM47" s="51"/>
+      <c r="CN47" s="51"/>
+      <c r="CO47" s="51"/>
+      <c r="CP47" s="51"/>
+      <c r="CQ47" s="51"/>
+      <c r="CR47" s="51"/>
+      <c r="CS47" s="51"/>
+      <c r="CT47" s="51"/>
+      <c r="CU47" s="51"/>
+      <c r="CV47" s="51"/>
+      <c r="CW47" s="51"/>
+      <c r="CX47" s="51"/>
+      <c r="CY47" s="51"/>
+      <c r="CZ47" s="51"/>
+      <c r="DA47" s="51"/>
+      <c r="DB47" s="51"/>
+      <c r="DC47" s="51"/>
+      <c r="DD47" s="51"/>
+      <c r="DE47" s="51"/>
+      <c r="DF47" s="51"/>
+      <c r="DG47" s="51"/>
+      <c r="DH47" s="51"/>
+      <c r="DI47" s="51"/>
+      <c r="DJ47" s="51"/>
+      <c r="DK47" s="51"/>
+      <c r="DL47" s="51"/>
+      <c r="DM47" s="51"/>
+      <c r="DN47" s="51"/>
+      <c r="DO47" s="51"/>
+      <c r="DP47" s="51"/>
+      <c r="DQ47" s="51"/>
+      <c r="DR47" s="51"/>
+      <c r="DS47" s="51"/>
+      <c r="DT47" s="51"/>
+      <c r="DU47" s="51"/>
+      <c r="DV47" s="51"/>
+      <c r="DW47" s="51"/>
+      <c r="DX47" s="51"/>
+      <c r="DY47" s="51"/>
+      <c r="DZ47" s="51"/>
+      <c r="EA47" s="51"/>
+      <c r="EB47" s="51"/>
+      <c r="EC47" s="51"/>
+      <c r="ED47" s="51"/>
+      <c r="EE47" s="51"/>
+      <c r="EF47" s="51"/>
+      <c r="EG47" s="51"/>
+      <c r="EH47" s="51"/>
+      <c r="EI47" s="51"/>
+      <c r="EJ47" s="51"/>
+      <c r="EK47" s="51"/>
+      <c r="EL47" s="51"/>
+      <c r="EM47" s="51"/>
+      <c r="EN47" s="51"/>
+      <c r="EO47" s="51"/>
+      <c r="EP47" s="51"/>
+      <c r="EQ47" s="51"/>
+      <c r="ER47" s="51"/>
+      <c r="ES47" s="51"/>
+      <c r="ET47" s="51"/>
+      <c r="EU47" s="51"/>
+      <c r="EV47" s="51"/>
+      <c r="EW47" s="51"/>
+      <c r="EX47" s="51"/>
+      <c r="EY47" s="51"/>
+      <c r="EZ47" s="51"/>
+      <c r="FA47" s="51"/>
+      <c r="FB47" s="51"/>
+      <c r="FC47" s="51"/>
+      <c r="FD47" s="51"/>
+      <c r="FE47" s="51"/>
+      <c r="FF47" s="51"/>
+      <c r="FG47" s="51"/>
+      <c r="FH47" s="51"/>
+      <c r="FI47" s="51"/>
+      <c r="FJ47" s="51"/>
+      <c r="FK47" s="51"/>
+      <c r="FL47" s="51"/>
+      <c r="FM47" s="51"/>
+      <c r="FN47" s="51"/>
+      <c r="FO47" s="51"/>
+      <c r="FP47" s="51"/>
+      <c r="FQ47" s="51"/>
+      <c r="FR47" s="51"/>
+      <c r="FS47" s="51"/>
+      <c r="FT47" s="51"/>
+      <c r="FU47" s="51"/>
+      <c r="FV47" s="51"/>
+      <c r="FW47" s="51"/>
+      <c r="FX47" s="51"/>
+      <c r="FY47" s="51"/>
+      <c r="FZ47" s="51"/>
+      <c r="GA47" s="51"/>
+      <c r="GB47" s="51"/>
+      <c r="GC47" s="51"/>
+      <c r="GD47" s="51"/>
+      <c r="GE47" s="51"/>
+      <c r="GF47" s="51"/>
+      <c r="GG47" s="51"/>
+      <c r="GH47" s="51"/>
+      <c r="GI47" s="51"/>
+      <c r="GJ47" s="51"/>
+      <c r="GK47" s="51"/>
+      <c r="GL47" s="51"/>
+      <c r="GM47" s="51"/>
+      <c r="GN47" s="51"/>
+      <c r="GO47" s="51"/>
+      <c r="GP47" s="51"/>
+      <c r="GQ47" s="51"/>
+      <c r="GR47" s="51"/>
+      <c r="GS47" s="51"/>
+      <c r="GT47" s="51"/>
+      <c r="GU47" s="51"/>
+      <c r="GV47" s="51"/>
+      <c r="GW47" s="51"/>
+      <c r="GX47" s="51"/>
+      <c r="GY47" s="51"/>
+      <c r="GZ47" s="51"/>
+      <c r="HA47" s="51"/>
+      <c r="HB47" s="51"/>
+      <c r="HC47" s="51"/>
+      <c r="HD47" s="51"/>
+      <c r="HE47" s="51"/>
+      <c r="HF47" s="51"/>
+      <c r="HG47" s="51"/>
+      <c r="HH47" s="51"/>
+      <c r="HI47" s="51"/>
+      <c r="HJ47" s="51"/>
+      <c r="HK47" s="51"/>
+      <c r="HL47" s="51"/>
+      <c r="HM47" s="51"/>
+      <c r="HN47" s="51"/>
+      <c r="HO47" s="51"/>
+      <c r="HP47" s="51"/>
+      <c r="HQ47" s="51"/>
+      <c r="HR47" s="51"/>
+      <c r="HS47" s="51"/>
+      <c r="HT47" s="51"/>
+      <c r="HU47" s="51"/>
+      <c r="HV47" s="51"/>
+      <c r="HW47" s="51"/>
+      <c r="HX47" s="51"/>
+      <c r="HY47" s="51"/>
+      <c r="HZ47" s="51"/>
+      <c r="IA47" s="51"/>
+      <c r="IB47" s="51"/>
+      <c r="IC47" s="51"/>
+      <c r="ID47" s="51"/>
+      <c r="IE47" s="51"/>
+      <c r="IF47" s="51"/>
+      <c r="IG47" s="51"/>
+      <c r="IH47" s="51"/>
+      <c r="II47" s="51"/>
+      <c r="IJ47" s="51"/>
+      <c r="IK47" s="51"/>
+      <c r="IL47" s="51"/>
+      <c r="IM47" s="51"/>
+      <c r="IN47" s="51"/>
+      <c r="IO47" s="51"/>
+      <c r="IP47" s="51"/>
+      <c r="IQ47" s="51"/>
+      <c r="IR47" s="51"/>
+      <c r="IS47" s="51"/>
+      <c r="IT47" s="51"/>
+      <c r="IU47" s="51"/>
+      <c r="IV47" s="51"/>
+      <c r="IW47" s="51"/>
+    </row>
+    <row r="48" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="54">
+        <v>0</v>
+      </c>
+      <c r="H48" s="54">
+        <v>0</v>
+      </c>
+      <c r="I48" s="54"/>
+      <c r="J48" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="51"/>
+      <c r="AQ48" s="51"/>
+      <c r="AR48" s="51"/>
+      <c r="AS48" s="51"/>
+      <c r="AT48" s="51"/>
+      <c r="AU48" s="51"/>
+      <c r="AV48" s="51"/>
+      <c r="AW48" s="51"/>
+      <c r="AX48" s="51"/>
+      <c r="AY48" s="51"/>
+      <c r="AZ48" s="51"/>
+      <c r="BA48" s="51"/>
+      <c r="BB48" s="51"/>
+      <c r="BC48" s="51"/>
+      <c r="BD48" s="51"/>
+      <c r="BE48" s="51"/>
+      <c r="BF48" s="51"/>
+      <c r="BG48" s="51"/>
+      <c r="BH48" s="51"/>
+      <c r="BI48" s="51"/>
+      <c r="BJ48" s="51"/>
+      <c r="BK48" s="51"/>
+      <c r="BL48" s="51"/>
+      <c r="BM48" s="51"/>
+      <c r="BN48" s="51"/>
+      <c r="BO48" s="51"/>
+      <c r="BP48" s="51"/>
+      <c r="BQ48" s="51"/>
+      <c r="BR48" s="51"/>
+      <c r="BS48" s="51"/>
+      <c r="BT48" s="51"/>
+      <c r="BU48" s="51"/>
+      <c r="BV48" s="51"/>
+      <c r="BW48" s="51"/>
+      <c r="BX48" s="51"/>
+      <c r="BY48" s="51"/>
+      <c r="BZ48" s="51"/>
+      <c r="CA48" s="51"/>
+      <c r="CB48" s="51"/>
+      <c r="CC48" s="51"/>
+      <c r="CD48" s="51"/>
+      <c r="CE48" s="51"/>
+      <c r="CF48" s="51"/>
+      <c r="CG48" s="51"/>
+      <c r="CH48" s="51"/>
+      <c r="CI48" s="51"/>
+      <c r="CJ48" s="51"/>
+      <c r="CK48" s="51"/>
+      <c r="CL48" s="51"/>
+      <c r="CM48" s="51"/>
+      <c r="CN48" s="51"/>
+      <c r="CO48" s="51"/>
+      <c r="CP48" s="51"/>
+      <c r="CQ48" s="51"/>
+      <c r="CR48" s="51"/>
+      <c r="CS48" s="51"/>
+      <c r="CT48" s="51"/>
+      <c r="CU48" s="51"/>
+      <c r="CV48" s="51"/>
+      <c r="CW48" s="51"/>
+      <c r="CX48" s="51"/>
+      <c r="CY48" s="51"/>
+      <c r="CZ48" s="51"/>
+      <c r="DA48" s="51"/>
+      <c r="DB48" s="51"/>
+      <c r="DC48" s="51"/>
+      <c r="DD48" s="51"/>
+      <c r="DE48" s="51"/>
+      <c r="DF48" s="51"/>
+      <c r="DG48" s="51"/>
+      <c r="DH48" s="51"/>
+      <c r="DI48" s="51"/>
+      <c r="DJ48" s="51"/>
+      <c r="DK48" s="51"/>
+      <c r="DL48" s="51"/>
+      <c r="DM48" s="51"/>
+      <c r="DN48" s="51"/>
+      <c r="DO48" s="51"/>
+      <c r="DP48" s="51"/>
+      <c r="DQ48" s="51"/>
+      <c r="DR48" s="51"/>
+      <c r="DS48" s="51"/>
+      <c r="DT48" s="51"/>
+      <c r="DU48" s="51"/>
+      <c r="DV48" s="51"/>
+      <c r="DW48" s="51"/>
+      <c r="DX48" s="51"/>
+      <c r="DY48" s="51"/>
+      <c r="DZ48" s="51"/>
+      <c r="EA48" s="51"/>
+      <c r="EB48" s="51"/>
+      <c r="EC48" s="51"/>
+      <c r="ED48" s="51"/>
+      <c r="EE48" s="51"/>
+      <c r="EF48" s="51"/>
+      <c r="EG48" s="51"/>
+      <c r="EH48" s="51"/>
+      <c r="EI48" s="51"/>
+      <c r="EJ48" s="51"/>
+      <c r="EK48" s="51"/>
+      <c r="EL48" s="51"/>
+      <c r="EM48" s="51"/>
+      <c r="EN48" s="51"/>
+      <c r="EO48" s="51"/>
+      <c r="EP48" s="51"/>
+      <c r="EQ48" s="51"/>
+      <c r="ER48" s="51"/>
+      <c r="ES48" s="51"/>
+      <c r="ET48" s="51"/>
+      <c r="EU48" s="51"/>
+      <c r="EV48" s="51"/>
+      <c r="EW48" s="51"/>
+      <c r="EX48" s="51"/>
+      <c r="EY48" s="51"/>
+      <c r="EZ48" s="51"/>
+      <c r="FA48" s="51"/>
+      <c r="FB48" s="51"/>
+      <c r="FC48" s="51"/>
+      <c r="FD48" s="51"/>
+      <c r="FE48" s="51"/>
+      <c r="FF48" s="51"/>
+      <c r="FG48" s="51"/>
+      <c r="FH48" s="51"/>
+      <c r="FI48" s="51"/>
+      <c r="FJ48" s="51"/>
+      <c r="FK48" s="51"/>
+      <c r="FL48" s="51"/>
+      <c r="FM48" s="51"/>
+      <c r="FN48" s="51"/>
+      <c r="FO48" s="51"/>
+      <c r="FP48" s="51"/>
+      <c r="FQ48" s="51"/>
+      <c r="FR48" s="51"/>
+      <c r="FS48" s="51"/>
+      <c r="FT48" s="51"/>
+      <c r="FU48" s="51"/>
+      <c r="FV48" s="51"/>
+      <c r="FW48" s="51"/>
+      <c r="FX48" s="51"/>
+      <c r="FY48" s="51"/>
+      <c r="FZ48" s="51"/>
+      <c r="GA48" s="51"/>
+      <c r="GB48" s="51"/>
+      <c r="GC48" s="51"/>
+      <c r="GD48" s="51"/>
+      <c r="GE48" s="51"/>
+      <c r="GF48" s="51"/>
+      <c r="GG48" s="51"/>
+      <c r="GH48" s="51"/>
+      <c r="GI48" s="51"/>
+      <c r="GJ48" s="51"/>
+      <c r="GK48" s="51"/>
+      <c r="GL48" s="51"/>
+      <c r="GM48" s="51"/>
+      <c r="GN48" s="51"/>
+      <c r="GO48" s="51"/>
+      <c r="GP48" s="51"/>
+      <c r="GQ48" s="51"/>
+      <c r="GR48" s="51"/>
+      <c r="GS48" s="51"/>
+      <c r="GT48" s="51"/>
+      <c r="GU48" s="51"/>
+      <c r="GV48" s="51"/>
+      <c r="GW48" s="51"/>
+      <c r="GX48" s="51"/>
+      <c r="GY48" s="51"/>
+      <c r="GZ48" s="51"/>
+      <c r="HA48" s="51"/>
+      <c r="HB48" s="51"/>
+      <c r="HC48" s="51"/>
+      <c r="HD48" s="51"/>
+      <c r="HE48" s="51"/>
+      <c r="HF48" s="51"/>
+      <c r="HG48" s="51"/>
+      <c r="HH48" s="51"/>
+      <c r="HI48" s="51"/>
+      <c r="HJ48" s="51"/>
+      <c r="HK48" s="51"/>
+      <c r="HL48" s="51"/>
+      <c r="HM48" s="51"/>
+      <c r="HN48" s="51"/>
+      <c r="HO48" s="51"/>
+      <c r="HP48" s="51"/>
+      <c r="HQ48" s="51"/>
+      <c r="HR48" s="51"/>
+      <c r="HS48" s="51"/>
+      <c r="HT48" s="51"/>
+      <c r="HU48" s="51"/>
+      <c r="HV48" s="51"/>
+      <c r="HW48" s="51"/>
+      <c r="HX48" s="51"/>
+      <c r="HY48" s="51"/>
+      <c r="HZ48" s="51"/>
+      <c r="IA48" s="51"/>
+      <c r="IB48" s="51"/>
+      <c r="IC48" s="51"/>
+      <c r="ID48" s="51"/>
+      <c r="IE48" s="51"/>
+      <c r="IF48" s="51"/>
+      <c r="IG48" s="51"/>
+      <c r="IH48" s="51"/>
+      <c r="II48" s="51"/>
+      <c r="IJ48" s="51"/>
+      <c r="IK48" s="51"/>
+      <c r="IL48" s="51"/>
+      <c r="IM48" s="51"/>
+      <c r="IN48" s="51"/>
+      <c r="IO48" s="51"/>
+      <c r="IP48" s="51"/>
+      <c r="IQ48" s="51"/>
+      <c r="IR48" s="51"/>
+      <c r="IS48" s="51"/>
+      <c r="IT48" s="51"/>
+      <c r="IU48" s="51"/>
+      <c r="IV48" s="51"/>
+      <c r="IW48" s="51"/>
+    </row>
+    <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="42"/>
+      <c r="E49" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="54">
+        <v>0</v>
+      </c>
+      <c r="H49" s="54">
+        <v>0</v>
+      </c>
+      <c r="I49" s="54"/>
+      <c r="J49" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="51"/>
+      <c r="AQ49" s="51"/>
+      <c r="AR49" s="51"/>
+      <c r="AS49" s="51"/>
+      <c r="AT49" s="51"/>
+      <c r="AU49" s="51"/>
+      <c r="AV49" s="51"/>
+      <c r="AW49" s="51"/>
+      <c r="AX49" s="51"/>
+      <c r="AY49" s="51"/>
+      <c r="AZ49" s="51"/>
+      <c r="BA49" s="51"/>
+      <c r="BB49" s="51"/>
+      <c r="BC49" s="51"/>
+      <c r="BD49" s="51"/>
+      <c r="BE49" s="51"/>
+      <c r="BF49" s="51"/>
+      <c r="BG49" s="51"/>
+      <c r="BH49" s="51"/>
+      <c r="BI49" s="51"/>
+      <c r="BJ49" s="51"/>
+      <c r="BK49" s="51"/>
+      <c r="BL49" s="51"/>
+      <c r="BM49" s="51"/>
+      <c r="BN49" s="51"/>
+      <c r="BO49" s="51"/>
+      <c r="BP49" s="51"/>
+      <c r="BQ49" s="51"/>
+      <c r="BR49" s="51"/>
+      <c r="BS49" s="51"/>
+      <c r="BT49" s="51"/>
+      <c r="BU49" s="51"/>
+      <c r="BV49" s="51"/>
+      <c r="BW49" s="51"/>
+      <c r="BX49" s="51"/>
+      <c r="BY49" s="51"/>
+      <c r="BZ49" s="51"/>
+      <c r="CA49" s="51"/>
+      <c r="CB49" s="51"/>
+      <c r="CC49" s="51"/>
+      <c r="CD49" s="51"/>
+      <c r="CE49" s="51"/>
+      <c r="CF49" s="51"/>
+      <c r="CG49" s="51"/>
+      <c r="CH49" s="51"/>
+      <c r="CI49" s="51"/>
+      <c r="CJ49" s="51"/>
+      <c r="CK49" s="51"/>
+      <c r="CL49" s="51"/>
+      <c r="CM49" s="51"/>
+      <c r="CN49" s="51"/>
+      <c r="CO49" s="51"/>
+      <c r="CP49" s="51"/>
+      <c r="CQ49" s="51"/>
+      <c r="CR49" s="51"/>
+      <c r="CS49" s="51"/>
+      <c r="CT49" s="51"/>
+      <c r="CU49" s="51"/>
+      <c r="CV49" s="51"/>
+      <c r="CW49" s="51"/>
+      <c r="CX49" s="51"/>
+      <c r="CY49" s="51"/>
+      <c r="CZ49" s="51"/>
+      <c r="DA49" s="51"/>
+      <c r="DB49" s="51"/>
+      <c r="DC49" s="51"/>
+      <c r="DD49" s="51"/>
+      <c r="DE49" s="51"/>
+      <c r="DF49" s="51"/>
+      <c r="DG49" s="51"/>
+      <c r="DH49" s="51"/>
+      <c r="DI49" s="51"/>
+      <c r="DJ49" s="51"/>
+      <c r="DK49" s="51"/>
+      <c r="DL49" s="51"/>
+      <c r="DM49" s="51"/>
+      <c r="DN49" s="51"/>
+      <c r="DO49" s="51"/>
+      <c r="DP49" s="51"/>
+      <c r="DQ49" s="51"/>
+      <c r="DR49" s="51"/>
+      <c r="DS49" s="51"/>
+      <c r="DT49" s="51"/>
+      <c r="DU49" s="51"/>
+      <c r="DV49" s="51"/>
+      <c r="DW49" s="51"/>
+      <c r="DX49" s="51"/>
+      <c r="DY49" s="51"/>
+      <c r="DZ49" s="51"/>
+      <c r="EA49" s="51"/>
+      <c r="EB49" s="51"/>
+      <c r="EC49" s="51"/>
+      <c r="ED49" s="51"/>
+      <c r="EE49" s="51"/>
+      <c r="EF49" s="51"/>
+      <c r="EG49" s="51"/>
+      <c r="EH49" s="51"/>
+      <c r="EI49" s="51"/>
+      <c r="EJ49" s="51"/>
+      <c r="EK49" s="51"/>
+      <c r="EL49" s="51"/>
+      <c r="EM49" s="51"/>
+      <c r="EN49" s="51"/>
+      <c r="EO49" s="51"/>
+      <c r="EP49" s="51"/>
+      <c r="EQ49" s="51"/>
+      <c r="ER49" s="51"/>
+      <c r="ES49" s="51"/>
+      <c r="ET49" s="51"/>
+      <c r="EU49" s="51"/>
+      <c r="EV49" s="51"/>
+      <c r="EW49" s="51"/>
+      <c r="EX49" s="51"/>
+      <c r="EY49" s="51"/>
+      <c r="EZ49" s="51"/>
+      <c r="FA49" s="51"/>
+      <c r="FB49" s="51"/>
+      <c r="FC49" s="51"/>
+      <c r="FD49" s="51"/>
+      <c r="FE49" s="51"/>
+      <c r="FF49" s="51"/>
+      <c r="FG49" s="51"/>
+      <c r="FH49" s="51"/>
+      <c r="FI49" s="51"/>
+      <c r="FJ49" s="51"/>
+      <c r="FK49" s="51"/>
+      <c r="FL49" s="51"/>
+      <c r="FM49" s="51"/>
+      <c r="FN49" s="51"/>
+      <c r="FO49" s="51"/>
+      <c r="FP49" s="51"/>
+      <c r="FQ49" s="51"/>
+      <c r="FR49" s="51"/>
+      <c r="FS49" s="51"/>
+      <c r="FT49" s="51"/>
+      <c r="FU49" s="51"/>
+      <c r="FV49" s="51"/>
+      <c r="FW49" s="51"/>
+      <c r="FX49" s="51"/>
+      <c r="FY49" s="51"/>
+      <c r="FZ49" s="51"/>
+      <c r="GA49" s="51"/>
+      <c r="GB49" s="51"/>
+      <c r="GC49" s="51"/>
+      <c r="GD49" s="51"/>
+      <c r="GE49" s="51"/>
+      <c r="GF49" s="51"/>
+      <c r="GG49" s="51"/>
+      <c r="GH49" s="51"/>
+      <c r="GI49" s="51"/>
+      <c r="GJ49" s="51"/>
+      <c r="GK49" s="51"/>
+      <c r="GL49" s="51"/>
+      <c r="GM49" s="51"/>
+      <c r="GN49" s="51"/>
+      <c r="GO49" s="51"/>
+      <c r="GP49" s="51"/>
+      <c r="GQ49" s="51"/>
+      <c r="GR49" s="51"/>
+      <c r="GS49" s="51"/>
+      <c r="GT49" s="51"/>
+      <c r="GU49" s="51"/>
+      <c r="GV49" s="51"/>
+      <c r="GW49" s="51"/>
+      <c r="GX49" s="51"/>
+      <c r="GY49" s="51"/>
+      <c r="GZ49" s="51"/>
+      <c r="HA49" s="51"/>
+      <c r="HB49" s="51"/>
+      <c r="HC49" s="51"/>
+      <c r="HD49" s="51"/>
+      <c r="HE49" s="51"/>
+      <c r="HF49" s="51"/>
+      <c r="HG49" s="51"/>
+      <c r="HH49" s="51"/>
+      <c r="HI49" s="51"/>
+      <c r="HJ49" s="51"/>
+      <c r="HK49" s="51"/>
+      <c r="HL49" s="51"/>
+      <c r="HM49" s="51"/>
+      <c r="HN49" s="51"/>
+      <c r="HO49" s="51"/>
+      <c r="HP49" s="51"/>
+      <c r="HQ49" s="51"/>
+      <c r="HR49" s="51"/>
+      <c r="HS49" s="51"/>
+      <c r="HT49" s="51"/>
+      <c r="HU49" s="51"/>
+      <c r="HV49" s="51"/>
+      <c r="HW49" s="51"/>
+      <c r="HX49" s="51"/>
+      <c r="HY49" s="51"/>
+      <c r="HZ49" s="51"/>
+      <c r="IA49" s="51"/>
+      <c r="IB49" s="51"/>
+      <c r="IC49" s="51"/>
+      <c r="ID49" s="51"/>
+      <c r="IE49" s="51"/>
+      <c r="IF49" s="51"/>
+      <c r="IG49" s="51"/>
+      <c r="IH49" s="51"/>
+      <c r="II49" s="51"/>
+      <c r="IJ49" s="51"/>
+      <c r="IK49" s="51"/>
+      <c r="IL49" s="51"/>
+      <c r="IM49" s="51"/>
+      <c r="IN49" s="51"/>
+      <c r="IO49" s="51"/>
+      <c r="IP49" s="51"/>
+      <c r="IQ49" s="51"/>
+      <c r="IR49" s="51"/>
+      <c r="IS49" s="51"/>
+      <c r="IT49" s="51"/>
+      <c r="IU49" s="51"/>
+      <c r="IV49" s="51"/>
+      <c r="IW49" s="51"/>
+    </row>
+    <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="54">
+        <v>0</v>
+      </c>
+      <c r="H50" s="54">
+        <v>0</v>
+      </c>
+      <c r="I50" s="54"/>
+      <c r="J50" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="51"/>
+      <c r="W50" s="51"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="51"/>
+      <c r="AC50" s="51"/>
+      <c r="AD50" s="51"/>
+      <c r="AE50" s="51"/>
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="51"/>
+      <c r="AK50" s="51"/>
+      <c r="AL50" s="51"/>
+      <c r="AM50" s="51"/>
+      <c r="AN50" s="51"/>
+      <c r="AO50" s="51"/>
+      <c r="AP50" s="51"/>
+      <c r="AQ50" s="51"/>
+      <c r="AR50" s="51"/>
+      <c r="AS50" s="51"/>
+      <c r="AT50" s="51"/>
+      <c r="AU50" s="51"/>
+      <c r="AV50" s="51"/>
+      <c r="AW50" s="51"/>
+      <c r="AX50" s="51"/>
+      <c r="AY50" s="51"/>
+      <c r="AZ50" s="51"/>
+      <c r="BA50" s="51"/>
+      <c r="BB50" s="51"/>
+      <c r="BC50" s="51"/>
+      <c r="BD50" s="51"/>
+      <c r="BE50" s="51"/>
+      <c r="BF50" s="51"/>
+      <c r="BG50" s="51"/>
+      <c r="BH50" s="51"/>
+      <c r="BI50" s="51"/>
+      <c r="BJ50" s="51"/>
+      <c r="BK50" s="51"/>
+      <c r="BL50" s="51"/>
+      <c r="BM50" s="51"/>
+      <c r="BN50" s="51"/>
+      <c r="BO50" s="51"/>
+      <c r="BP50" s="51"/>
+      <c r="BQ50" s="51"/>
+      <c r="BR50" s="51"/>
+      <c r="BS50" s="51"/>
+      <c r="BT50" s="51"/>
+      <c r="BU50" s="51"/>
+      <c r="BV50" s="51"/>
+      <c r="BW50" s="51"/>
+      <c r="BX50" s="51"/>
+      <c r="BY50" s="51"/>
+      <c r="BZ50" s="51"/>
+      <c r="CA50" s="51"/>
+      <c r="CB50" s="51"/>
+      <c r="CC50" s="51"/>
+      <c r="CD50" s="51"/>
+      <c r="CE50" s="51"/>
+      <c r="CF50" s="51"/>
+      <c r="CG50" s="51"/>
+      <c r="CH50" s="51"/>
+      <c r="CI50" s="51"/>
+      <c r="CJ50" s="51"/>
+      <c r="CK50" s="51"/>
+      <c r="CL50" s="51"/>
+      <c r="CM50" s="51"/>
+      <c r="CN50" s="51"/>
+      <c r="CO50" s="51"/>
+      <c r="CP50" s="51"/>
+      <c r="CQ50" s="51"/>
+      <c r="CR50" s="51"/>
+      <c r="CS50" s="51"/>
+      <c r="CT50" s="51"/>
+      <c r="CU50" s="51"/>
+      <c r="CV50" s="51"/>
+      <c r="CW50" s="51"/>
+      <c r="CX50" s="51"/>
+      <c r="CY50" s="51"/>
+      <c r="CZ50" s="51"/>
+      <c r="DA50" s="51"/>
+      <c r="DB50" s="51"/>
+      <c r="DC50" s="51"/>
+      <c r="DD50" s="51"/>
+      <c r="DE50" s="51"/>
+      <c r="DF50" s="51"/>
+      <c r="DG50" s="51"/>
+      <c r="DH50" s="51"/>
+      <c r="DI50" s="51"/>
+      <c r="DJ50" s="51"/>
+      <c r="DK50" s="51"/>
+      <c r="DL50" s="51"/>
+      <c r="DM50" s="51"/>
+      <c r="DN50" s="51"/>
+      <c r="DO50" s="51"/>
+      <c r="DP50" s="51"/>
+      <c r="DQ50" s="51"/>
+      <c r="DR50" s="51"/>
+      <c r="DS50" s="51"/>
+      <c r="DT50" s="51"/>
+      <c r="DU50" s="51"/>
+      <c r="DV50" s="51"/>
+      <c r="DW50" s="51"/>
+      <c r="DX50" s="51"/>
+      <c r="DY50" s="51"/>
+      <c r="DZ50" s="51"/>
+      <c r="EA50" s="51"/>
+      <c r="EB50" s="51"/>
+      <c r="EC50" s="51"/>
+      <c r="ED50" s="51"/>
+      <c r="EE50" s="51"/>
+      <c r="EF50" s="51"/>
+      <c r="EG50" s="51"/>
+      <c r="EH50" s="51"/>
+      <c r="EI50" s="51"/>
+      <c r="EJ50" s="51"/>
+      <c r="EK50" s="51"/>
+      <c r="EL50" s="51"/>
+      <c r="EM50" s="51"/>
+      <c r="EN50" s="51"/>
+      <c r="EO50" s="51"/>
+      <c r="EP50" s="51"/>
+      <c r="EQ50" s="51"/>
+      <c r="ER50" s="51"/>
+      <c r="ES50" s="51"/>
+      <c r="ET50" s="51"/>
+      <c r="EU50" s="51"/>
+      <c r="EV50" s="51"/>
+      <c r="EW50" s="51"/>
+      <c r="EX50" s="51"/>
+      <c r="EY50" s="51"/>
+      <c r="EZ50" s="51"/>
+      <c r="FA50" s="51"/>
+      <c r="FB50" s="51"/>
+      <c r="FC50" s="51"/>
+      <c r="FD50" s="51"/>
+      <c r="FE50" s="51"/>
+      <c r="FF50" s="51"/>
+      <c r="FG50" s="51"/>
+      <c r="FH50" s="51"/>
+      <c r="FI50" s="51"/>
+      <c r="FJ50" s="51"/>
+      <c r="FK50" s="51"/>
+      <c r="FL50" s="51"/>
+      <c r="FM50" s="51"/>
+      <c r="FN50" s="51"/>
+      <c r="FO50" s="51"/>
+      <c r="FP50" s="51"/>
+      <c r="FQ50" s="51"/>
+      <c r="FR50" s="51"/>
+      <c r="FS50" s="51"/>
+      <c r="FT50" s="51"/>
+      <c r="FU50" s="51"/>
+      <c r="FV50" s="51"/>
+      <c r="FW50" s="51"/>
+      <c r="FX50" s="51"/>
+      <c r="FY50" s="51"/>
+      <c r="FZ50" s="51"/>
+      <c r="GA50" s="51"/>
+      <c r="GB50" s="51"/>
+      <c r="GC50" s="51"/>
+      <c r="GD50" s="51"/>
+      <c r="GE50" s="51"/>
+      <c r="GF50" s="51"/>
+      <c r="GG50" s="51"/>
+      <c r="GH50" s="51"/>
+      <c r="GI50" s="51"/>
+      <c r="GJ50" s="51"/>
+      <c r="GK50" s="51"/>
+      <c r="GL50" s="51"/>
+      <c r="GM50" s="51"/>
+      <c r="GN50" s="51"/>
+      <c r="GO50" s="51"/>
+      <c r="GP50" s="51"/>
+      <c r="GQ50" s="51"/>
+      <c r="GR50" s="51"/>
+      <c r="GS50" s="51"/>
+      <c r="GT50" s="51"/>
+      <c r="GU50" s="51"/>
+      <c r="GV50" s="51"/>
+      <c r="GW50" s="51"/>
+      <c r="GX50" s="51"/>
+      <c r="GY50" s="51"/>
+      <c r="GZ50" s="51"/>
+      <c r="HA50" s="51"/>
+      <c r="HB50" s="51"/>
+      <c r="HC50" s="51"/>
+      <c r="HD50" s="51"/>
+      <c r="HE50" s="51"/>
+      <c r="HF50" s="51"/>
+      <c r="HG50" s="51"/>
+      <c r="HH50" s="51"/>
+      <c r="HI50" s="51"/>
+      <c r="HJ50" s="51"/>
+      <c r="HK50" s="51"/>
+      <c r="HL50" s="51"/>
+      <c r="HM50" s="51"/>
+      <c r="HN50" s="51"/>
+      <c r="HO50" s="51"/>
+      <c r="HP50" s="51"/>
+      <c r="HQ50" s="51"/>
+      <c r="HR50" s="51"/>
+      <c r="HS50" s="51"/>
+      <c r="HT50" s="51"/>
+      <c r="HU50" s="51"/>
+      <c r="HV50" s="51"/>
+      <c r="HW50" s="51"/>
+      <c r="HX50" s="51"/>
+      <c r="HY50" s="51"/>
+      <c r="HZ50" s="51"/>
+      <c r="IA50" s="51"/>
+      <c r="IB50" s="51"/>
+      <c r="IC50" s="51"/>
+      <c r="ID50" s="51"/>
+      <c r="IE50" s="51"/>
+      <c r="IF50" s="51"/>
+      <c r="IG50" s="51"/>
+      <c r="IH50" s="51"/>
+      <c r="II50" s="51"/>
+      <c r="IJ50" s="51"/>
+      <c r="IK50" s="51"/>
+      <c r="IL50" s="51"/>
+      <c r="IM50" s="51"/>
+      <c r="IN50" s="51"/>
+      <c r="IO50" s="51"/>
+      <c r="IP50" s="51"/>
+      <c r="IQ50" s="51"/>
+      <c r="IR50" s="51"/>
+      <c r="IS50" s="51"/>
+      <c r="IT50" s="51"/>
+      <c r="IU50" s="51"/>
+      <c r="IV50" s="51"/>
+      <c r="IW50" s="51"/>
+    </row>
+    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="42"/>
+      <c r="E51" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F51" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="54">
+        <v>0</v>
+      </c>
+      <c r="H51" s="54">
+        <v>0</v>
+      </c>
+      <c r="I51" s="54"/>
+      <c r="J51" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="51"/>
+      <c r="AE51" s="51"/>
+      <c r="AF51" s="51"/>
+      <c r="AG51" s="51"/>
+      <c r="AH51" s="51"/>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="51"/>
+      <c r="AK51" s="51"/>
+      <c r="AL51" s="51"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="51"/>
+      <c r="AO51" s="51"/>
+      <c r="AP51" s="51"/>
+      <c r="AQ51" s="51"/>
+      <c r="AR51" s="51"/>
+      <c r="AS51" s="51"/>
+      <c r="AT51" s="51"/>
+      <c r="AU51" s="51"/>
+      <c r="AV51" s="51"/>
+      <c r="AW51" s="51"/>
+      <c r="AX51" s="51"/>
+      <c r="AY51" s="51"/>
+      <c r="AZ51" s="51"/>
+      <c r="BA51" s="51"/>
+      <c r="BB51" s="51"/>
+      <c r="BC51" s="51"/>
+      <c r="BD51" s="51"/>
+      <c r="BE51" s="51"/>
+      <c r="BF51" s="51"/>
+      <c r="BG51" s="51"/>
+      <c r="BH51" s="51"/>
+      <c r="BI51" s="51"/>
+      <c r="BJ51" s="51"/>
+      <c r="BK51" s="51"/>
+      <c r="BL51" s="51"/>
+      <c r="BM51" s="51"/>
+      <c r="BN51" s="51"/>
+      <c r="BO51" s="51"/>
+      <c r="BP51" s="51"/>
+      <c r="BQ51" s="51"/>
+      <c r="BR51" s="51"/>
+      <c r="BS51" s="51"/>
+      <c r="BT51" s="51"/>
+      <c r="BU51" s="51"/>
+      <c r="BV51" s="51"/>
+      <c r="BW51" s="51"/>
+      <c r="BX51" s="51"/>
+      <c r="BY51" s="51"/>
+      <c r="BZ51" s="51"/>
+      <c r="CA51" s="51"/>
+      <c r="CB51" s="51"/>
+      <c r="CC51" s="51"/>
+      <c r="CD51" s="51"/>
+      <c r="CE51" s="51"/>
+      <c r="CF51" s="51"/>
+      <c r="CG51" s="51"/>
+      <c r="CH51" s="51"/>
+      <c r="CI51" s="51"/>
+      <c r="CJ51" s="51"/>
+      <c r="CK51" s="51"/>
+      <c r="CL51" s="51"/>
+      <c r="CM51" s="51"/>
+      <c r="CN51" s="51"/>
+      <c r="CO51" s="51"/>
+      <c r="CP51" s="51"/>
+      <c r="CQ51" s="51"/>
+      <c r="CR51" s="51"/>
+      <c r="CS51" s="51"/>
+      <c r="CT51" s="51"/>
+      <c r="CU51" s="51"/>
+      <c r="CV51" s="51"/>
+      <c r="CW51" s="51"/>
+      <c r="CX51" s="51"/>
+      <c r="CY51" s="51"/>
+      <c r="CZ51" s="51"/>
+      <c r="DA51" s="51"/>
+      <c r="DB51" s="51"/>
+      <c r="DC51" s="51"/>
+      <c r="DD51" s="51"/>
+      <c r="DE51" s="51"/>
+      <c r="DF51" s="51"/>
+      <c r="DG51" s="51"/>
+      <c r="DH51" s="51"/>
+      <c r="DI51" s="51"/>
+      <c r="DJ51" s="51"/>
+      <c r="DK51" s="51"/>
+      <c r="DL51" s="51"/>
+      <c r="DM51" s="51"/>
+      <c r="DN51" s="51"/>
+      <c r="DO51" s="51"/>
+      <c r="DP51" s="51"/>
+      <c r="DQ51" s="51"/>
+      <c r="DR51" s="51"/>
+      <c r="DS51" s="51"/>
+      <c r="DT51" s="51"/>
+      <c r="DU51" s="51"/>
+      <c r="DV51" s="51"/>
+      <c r="DW51" s="51"/>
+      <c r="DX51" s="51"/>
+      <c r="DY51" s="51"/>
+      <c r="DZ51" s="51"/>
+      <c r="EA51" s="51"/>
+      <c r="EB51" s="51"/>
+      <c r="EC51" s="51"/>
+      <c r="ED51" s="51"/>
+      <c r="EE51" s="51"/>
+      <c r="EF51" s="51"/>
+      <c r="EG51" s="51"/>
+      <c r="EH51" s="51"/>
+      <c r="EI51" s="51"/>
+      <c r="EJ51" s="51"/>
+      <c r="EK51" s="51"/>
+      <c r="EL51" s="51"/>
+      <c r="EM51" s="51"/>
+      <c r="EN51" s="51"/>
+      <c r="EO51" s="51"/>
+      <c r="EP51" s="51"/>
+      <c r="EQ51" s="51"/>
+      <c r="ER51" s="51"/>
+      <c r="ES51" s="51"/>
+      <c r="ET51" s="51"/>
+      <c r="EU51" s="51"/>
+      <c r="EV51" s="51"/>
+      <c r="EW51" s="51"/>
+      <c r="EX51" s="51"/>
+      <c r="EY51" s="51"/>
+      <c r="EZ51" s="51"/>
+      <c r="FA51" s="51"/>
+      <c r="FB51" s="51"/>
+      <c r="FC51" s="51"/>
+      <c r="FD51" s="51"/>
+      <c r="FE51" s="51"/>
+      <c r="FF51" s="51"/>
+      <c r="FG51" s="51"/>
+      <c r="FH51" s="51"/>
+      <c r="FI51" s="51"/>
+      <c r="FJ51" s="51"/>
+      <c r="FK51" s="51"/>
+      <c r="FL51" s="51"/>
+      <c r="FM51" s="51"/>
+      <c r="FN51" s="51"/>
+      <c r="FO51" s="51"/>
+      <c r="FP51" s="51"/>
+      <c r="FQ51" s="51"/>
+      <c r="FR51" s="51"/>
+      <c r="FS51" s="51"/>
+      <c r="FT51" s="51"/>
+      <c r="FU51" s="51"/>
+      <c r="FV51" s="51"/>
+      <c r="FW51" s="51"/>
+      <c r="FX51" s="51"/>
+      <c r="FY51" s="51"/>
+      <c r="FZ51" s="51"/>
+      <c r="GA51" s="51"/>
+      <c r="GB51" s="51"/>
+      <c r="GC51" s="51"/>
+      <c r="GD51" s="51"/>
+      <c r="GE51" s="51"/>
+      <c r="GF51" s="51"/>
+      <c r="GG51" s="51"/>
+      <c r="GH51" s="51"/>
+      <c r="GI51" s="51"/>
+      <c r="GJ51" s="51"/>
+      <c r="GK51" s="51"/>
+      <c r="GL51" s="51"/>
+      <c r="GM51" s="51"/>
+      <c r="GN51" s="51"/>
+      <c r="GO51" s="51"/>
+      <c r="GP51" s="51"/>
+      <c r="GQ51" s="51"/>
+      <c r="GR51" s="51"/>
+      <c r="GS51" s="51"/>
+      <c r="GT51" s="51"/>
+      <c r="GU51" s="51"/>
+      <c r="GV51" s="51"/>
+      <c r="GW51" s="51"/>
+      <c r="GX51" s="51"/>
+      <c r="GY51" s="51"/>
+      <c r="GZ51" s="51"/>
+      <c r="HA51" s="51"/>
+      <c r="HB51" s="51"/>
+      <c r="HC51" s="51"/>
+      <c r="HD51" s="51"/>
+      <c r="HE51" s="51"/>
+      <c r="HF51" s="51"/>
+      <c r="HG51" s="51"/>
+      <c r="HH51" s="51"/>
+      <c r="HI51" s="51"/>
+      <c r="HJ51" s="51"/>
+      <c r="HK51" s="51"/>
+      <c r="HL51" s="51"/>
+      <c r="HM51" s="51"/>
+      <c r="HN51" s="51"/>
+      <c r="HO51" s="51"/>
+      <c r="HP51" s="51"/>
+      <c r="HQ51" s="51"/>
+      <c r="HR51" s="51"/>
+      <c r="HS51" s="51"/>
+      <c r="HT51" s="51"/>
+      <c r="HU51" s="51"/>
+      <c r="HV51" s="51"/>
+      <c r="HW51" s="51"/>
+      <c r="HX51" s="51"/>
+      <c r="HY51" s="51"/>
+      <c r="HZ51" s="51"/>
+      <c r="IA51" s="51"/>
+      <c r="IB51" s="51"/>
+      <c r="IC51" s="51"/>
+      <c r="ID51" s="51"/>
+      <c r="IE51" s="51"/>
+      <c r="IF51" s="51"/>
+      <c r="IG51" s="51"/>
+      <c r="IH51" s="51"/>
+      <c r="II51" s="51"/>
+      <c r="IJ51" s="51"/>
+      <c r="IK51" s="51"/>
+      <c r="IL51" s="51"/>
+      <c r="IM51" s="51"/>
+      <c r="IN51" s="51"/>
+      <c r="IO51" s="51"/>
+      <c r="IP51" s="51"/>
+      <c r="IQ51" s="51"/>
+      <c r="IR51" s="51"/>
+      <c r="IS51" s="51"/>
+      <c r="IT51" s="51"/>
+      <c r="IU51" s="51"/>
+      <c r="IV51" s="51"/>
+      <c r="IW51" s="51"/>
+    </row>
+    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="42"/>
+      <c r="E52" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="54">
+        <v>0</v>
+      </c>
+      <c r="H52" s="54">
+        <v>0</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="51"/>
+      <c r="AD52" s="51"/>
+      <c r="AE52" s="51"/>
+      <c r="AF52" s="51"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="51"/>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="51"/>
+      <c r="AN52" s="51"/>
+      <c r="AO52" s="51"/>
+      <c r="AP52" s="51"/>
+      <c r="AQ52" s="51"/>
+      <c r="AR52" s="51"/>
+      <c r="AS52" s="51"/>
+      <c r="AT52" s="51"/>
+      <c r="AU52" s="51"/>
+      <c r="AV52" s="51"/>
+      <c r="AW52" s="51"/>
+      <c r="AX52" s="51"/>
+      <c r="AY52" s="51"/>
+      <c r="AZ52" s="51"/>
+      <c r="BA52" s="51"/>
+      <c r="BB52" s="51"/>
+      <c r="BC52" s="51"/>
+      <c r="BD52" s="51"/>
+      <c r="BE52" s="51"/>
+      <c r="BF52" s="51"/>
+      <c r="BG52" s="51"/>
+      <c r="BH52" s="51"/>
+      <c r="BI52" s="51"/>
+      <c r="BJ52" s="51"/>
+      <c r="BK52" s="51"/>
+      <c r="BL52" s="51"/>
+      <c r="BM52" s="51"/>
+      <c r="BN52" s="51"/>
+      <c r="BO52" s="51"/>
+      <c r="BP52" s="51"/>
+      <c r="BQ52" s="51"/>
+      <c r="BR52" s="51"/>
+      <c r="BS52" s="51"/>
+      <c r="BT52" s="51"/>
+      <c r="BU52" s="51"/>
+      <c r="BV52" s="51"/>
+      <c r="BW52" s="51"/>
+      <c r="BX52" s="51"/>
+      <c r="BY52" s="51"/>
+      <c r="BZ52" s="51"/>
+      <c r="CA52" s="51"/>
+      <c r="CB52" s="51"/>
+      <c r="CC52" s="51"/>
+      <c r="CD52" s="51"/>
+      <c r="CE52" s="51"/>
+      <c r="CF52" s="51"/>
+      <c r="CG52" s="51"/>
+      <c r="CH52" s="51"/>
+      <c r="CI52" s="51"/>
+      <c r="CJ52" s="51"/>
+      <c r="CK52" s="51"/>
+      <c r="CL52" s="51"/>
+      <c r="CM52" s="51"/>
+      <c r="CN52" s="51"/>
+      <c r="CO52" s="51"/>
+      <c r="CP52" s="51"/>
+      <c r="CQ52" s="51"/>
+      <c r="CR52" s="51"/>
+      <c r="CS52" s="51"/>
+      <c r="CT52" s="51"/>
+      <c r="CU52" s="51"/>
+      <c r="CV52" s="51"/>
+      <c r="CW52" s="51"/>
+      <c r="CX52" s="51"/>
+      <c r="CY52" s="51"/>
+      <c r="CZ52" s="51"/>
+      <c r="DA52" s="51"/>
+      <c r="DB52" s="51"/>
+      <c r="DC52" s="51"/>
+      <c r="DD52" s="51"/>
+      <c r="DE52" s="51"/>
+      <c r="DF52" s="51"/>
+      <c r="DG52" s="51"/>
+      <c r="DH52" s="51"/>
+      <c r="DI52" s="51"/>
+      <c r="DJ52" s="51"/>
+      <c r="DK52" s="51"/>
+      <c r="DL52" s="51"/>
+      <c r="DM52" s="51"/>
+      <c r="DN52" s="51"/>
+      <c r="DO52" s="51"/>
+      <c r="DP52" s="51"/>
+      <c r="DQ52" s="51"/>
+      <c r="DR52" s="51"/>
+      <c r="DS52" s="51"/>
+      <c r="DT52" s="51"/>
+      <c r="DU52" s="51"/>
+      <c r="DV52" s="51"/>
+      <c r="DW52" s="51"/>
+      <c r="DX52" s="51"/>
+      <c r="DY52" s="51"/>
+      <c r="DZ52" s="51"/>
+      <c r="EA52" s="51"/>
+      <c r="EB52" s="51"/>
+      <c r="EC52" s="51"/>
+      <c r="ED52" s="51"/>
+      <c r="EE52" s="51"/>
+      <c r="EF52" s="51"/>
+      <c r="EG52" s="51"/>
+      <c r="EH52" s="51"/>
+      <c r="EI52" s="51"/>
+      <c r="EJ52" s="51"/>
+      <c r="EK52" s="51"/>
+      <c r="EL52" s="51"/>
+      <c r="EM52" s="51"/>
+      <c r="EN52" s="51"/>
+      <c r="EO52" s="51"/>
+      <c r="EP52" s="51"/>
+      <c r="EQ52" s="51"/>
+      <c r="ER52" s="51"/>
+      <c r="ES52" s="51"/>
+      <c r="ET52" s="51"/>
+      <c r="EU52" s="51"/>
+      <c r="EV52" s="51"/>
+      <c r="EW52" s="51"/>
+      <c r="EX52" s="51"/>
+      <c r="EY52" s="51"/>
+      <c r="EZ52" s="51"/>
+      <c r="FA52" s="51"/>
+      <c r="FB52" s="51"/>
+      <c r="FC52" s="51"/>
+      <c r="FD52" s="51"/>
+      <c r="FE52" s="51"/>
+      <c r="FF52" s="51"/>
+      <c r="FG52" s="51"/>
+      <c r="FH52" s="51"/>
+      <c r="FI52" s="51"/>
+      <c r="FJ52" s="51"/>
+      <c r="FK52" s="51"/>
+      <c r="FL52" s="51"/>
+      <c r="FM52" s="51"/>
+      <c r="FN52" s="51"/>
+      <c r="FO52" s="51"/>
+      <c r="FP52" s="51"/>
+      <c r="FQ52" s="51"/>
+      <c r="FR52" s="51"/>
+      <c r="FS52" s="51"/>
+      <c r="FT52" s="51"/>
+      <c r="FU52" s="51"/>
+      <c r="FV52" s="51"/>
+      <c r="FW52" s="51"/>
+      <c r="FX52" s="51"/>
+      <c r="FY52" s="51"/>
+      <c r="FZ52" s="51"/>
+      <c r="GA52" s="51"/>
+      <c r="GB52" s="51"/>
+      <c r="GC52" s="51"/>
+      <c r="GD52" s="51"/>
+      <c r="GE52" s="51"/>
+      <c r="GF52" s="51"/>
+      <c r="GG52" s="51"/>
+      <c r="GH52" s="51"/>
+      <c r="GI52" s="51"/>
+      <c r="GJ52" s="51"/>
+      <c r="GK52" s="51"/>
+      <c r="GL52" s="51"/>
+      <c r="GM52" s="51"/>
+      <c r="GN52" s="51"/>
+      <c r="GO52" s="51"/>
+      <c r="GP52" s="51"/>
+      <c r="GQ52" s="51"/>
+      <c r="GR52" s="51"/>
+      <c r="GS52" s="51"/>
+      <c r="GT52" s="51"/>
+      <c r="GU52" s="51"/>
+      <c r="GV52" s="51"/>
+      <c r="GW52" s="51"/>
+      <c r="GX52" s="51"/>
+      <c r="GY52" s="51"/>
+      <c r="GZ52" s="51"/>
+      <c r="HA52" s="51"/>
+      <c r="HB52" s="51"/>
+      <c r="HC52" s="51"/>
+      <c r="HD52" s="51"/>
+      <c r="HE52" s="51"/>
+      <c r="HF52" s="51"/>
+      <c r="HG52" s="51"/>
+      <c r="HH52" s="51"/>
+      <c r="HI52" s="51"/>
+      <c r="HJ52" s="51"/>
+      <c r="HK52" s="51"/>
+      <c r="HL52" s="51"/>
+      <c r="HM52" s="51"/>
+      <c r="HN52" s="51"/>
+      <c r="HO52" s="51"/>
+      <c r="HP52" s="51"/>
+      <c r="HQ52" s="51"/>
+      <c r="HR52" s="51"/>
+      <c r="HS52" s="51"/>
+      <c r="HT52" s="51"/>
+      <c r="HU52" s="51"/>
+      <c r="HV52" s="51"/>
+      <c r="HW52" s="51"/>
+      <c r="HX52" s="51"/>
+      <c r="HY52" s="51"/>
+      <c r="HZ52" s="51"/>
+      <c r="IA52" s="51"/>
+      <c r="IB52" s="51"/>
+      <c r="IC52" s="51"/>
+      <c r="ID52" s="51"/>
+      <c r="IE52" s="51"/>
+      <c r="IF52" s="51"/>
+      <c r="IG52" s="51"/>
+      <c r="IH52" s="51"/>
+      <c r="II52" s="51"/>
+      <c r="IJ52" s="51"/>
+      <c r="IK52" s="51"/>
+      <c r="IL52" s="51"/>
+      <c r="IM52" s="51"/>
+      <c r="IN52" s="51"/>
+      <c r="IO52" s="51"/>
+      <c r="IP52" s="51"/>
+      <c r="IQ52" s="51"/>
+      <c r="IR52" s="51"/>
+      <c r="IS52" s="51"/>
+      <c r="IT52" s="51"/>
+      <c r="IU52" s="51"/>
+      <c r="IV52" s="51"/>
+      <c r="IW52" s="51"/>
+    </row>
+    <row r="53" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="54">
+        <v>0</v>
+      </c>
+      <c r="H53" s="54">
+        <v>0</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="51"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
+      <c r="AO53" s="51"/>
+      <c r="AP53" s="51"/>
+      <c r="AQ53" s="51"/>
+      <c r="AR53" s="51"/>
+      <c r="AS53" s="51"/>
+      <c r="AT53" s="51"/>
+      <c r="AU53" s="51"/>
+      <c r="AV53" s="51"/>
+      <c r="AW53" s="51"/>
+      <c r="AX53" s="51"/>
+      <c r="AY53" s="51"/>
+      <c r="AZ53" s="51"/>
+      <c r="BA53" s="51"/>
+      <c r="BB53" s="51"/>
+      <c r="BC53" s="51"/>
+      <c r="BD53" s="51"/>
+      <c r="BE53" s="51"/>
+      <c r="BF53" s="51"/>
+      <c r="BG53" s="51"/>
+      <c r="BH53" s="51"/>
+      <c r="BI53" s="51"/>
+      <c r="BJ53" s="51"/>
+      <c r="BK53" s="51"/>
+      <c r="BL53" s="51"/>
+      <c r="BM53" s="51"/>
+      <c r="BN53" s="51"/>
+      <c r="BO53" s="51"/>
+      <c r="BP53" s="51"/>
+      <c r="BQ53" s="51"/>
+      <c r="BR53" s="51"/>
+      <c r="BS53" s="51"/>
+      <c r="BT53" s="51"/>
+      <c r="BU53" s="51"/>
+      <c r="BV53" s="51"/>
+      <c r="BW53" s="51"/>
+      <c r="BX53" s="51"/>
+      <c r="BY53" s="51"/>
+      <c r="BZ53" s="51"/>
+      <c r="CA53" s="51"/>
+      <c r="CB53" s="51"/>
+      <c r="CC53" s="51"/>
+      <c r="CD53" s="51"/>
+      <c r="CE53" s="51"/>
+      <c r="CF53" s="51"/>
+      <c r="CG53" s="51"/>
+      <c r="CH53" s="51"/>
+      <c r="CI53" s="51"/>
+      <c r="CJ53" s="51"/>
+      <c r="CK53" s="51"/>
+      <c r="CL53" s="51"/>
+      <c r="CM53" s="51"/>
+      <c r="CN53" s="51"/>
+      <c r="CO53" s="51"/>
+      <c r="CP53" s="51"/>
+      <c r="CQ53" s="51"/>
+      <c r="CR53" s="51"/>
+      <c r="CS53" s="51"/>
+      <c r="CT53" s="51"/>
+      <c r="CU53" s="51"/>
+      <c r="CV53" s="51"/>
+      <c r="CW53" s="51"/>
+      <c r="CX53" s="51"/>
+      <c r="CY53" s="51"/>
+      <c r="CZ53" s="51"/>
+      <c r="DA53" s="51"/>
+      <c r="DB53" s="51"/>
+      <c r="DC53" s="51"/>
+      <c r="DD53" s="51"/>
+      <c r="DE53" s="51"/>
+      <c r="DF53" s="51"/>
+      <c r="DG53" s="51"/>
+      <c r="DH53" s="51"/>
+      <c r="DI53" s="51"/>
+      <c r="DJ53" s="51"/>
+      <c r="DK53" s="51"/>
+      <c r="DL53" s="51"/>
+      <c r="DM53" s="51"/>
+      <c r="DN53" s="51"/>
+      <c r="DO53" s="51"/>
+      <c r="DP53" s="51"/>
+      <c r="DQ53" s="51"/>
+      <c r="DR53" s="51"/>
+      <c r="DS53" s="51"/>
+      <c r="DT53" s="51"/>
+      <c r="DU53" s="51"/>
+      <c r="DV53" s="51"/>
+      <c r="DW53" s="51"/>
+      <c r="DX53" s="51"/>
+      <c r="DY53" s="51"/>
+      <c r="DZ53" s="51"/>
+      <c r="EA53" s="51"/>
+      <c r="EB53" s="51"/>
+      <c r="EC53" s="51"/>
+      <c r="ED53" s="51"/>
+      <c r="EE53" s="51"/>
+      <c r="EF53" s="51"/>
+      <c r="EG53" s="51"/>
+      <c r="EH53" s="51"/>
+      <c r="EI53" s="51"/>
+      <c r="EJ53" s="51"/>
+      <c r="EK53" s="51"/>
+      <c r="EL53" s="51"/>
+      <c r="EM53" s="51"/>
+      <c r="EN53" s="51"/>
+      <c r="EO53" s="51"/>
+      <c r="EP53" s="51"/>
+      <c r="EQ53" s="51"/>
+      <c r="ER53" s="51"/>
+      <c r="ES53" s="51"/>
+      <c r="ET53" s="51"/>
+      <c r="EU53" s="51"/>
+      <c r="EV53" s="51"/>
+      <c r="EW53" s="51"/>
+      <c r="EX53" s="51"/>
+      <c r="EY53" s="51"/>
+      <c r="EZ53" s="51"/>
+      <c r="FA53" s="51"/>
+      <c r="FB53" s="51"/>
+      <c r="FC53" s="51"/>
+      <c r="FD53" s="51"/>
+      <c r="FE53" s="51"/>
+      <c r="FF53" s="51"/>
+      <c r="FG53" s="51"/>
+      <c r="FH53" s="51"/>
+      <c r="FI53" s="51"/>
+      <c r="FJ53" s="51"/>
+      <c r="FK53" s="51"/>
+      <c r="FL53" s="51"/>
+      <c r="FM53" s="51"/>
+      <c r="FN53" s="51"/>
+      <c r="FO53" s="51"/>
+      <c r="FP53" s="51"/>
+      <c r="FQ53" s="51"/>
+      <c r="FR53" s="51"/>
+      <c r="FS53" s="51"/>
+      <c r="FT53" s="51"/>
+      <c r="FU53" s="51"/>
+      <c r="FV53" s="51"/>
+      <c r="FW53" s="51"/>
+      <c r="FX53" s="51"/>
+      <c r="FY53" s="51"/>
+      <c r="FZ53" s="51"/>
+      <c r="GA53" s="51"/>
+      <c r="GB53" s="51"/>
+      <c r="GC53" s="51"/>
+      <c r="GD53" s="51"/>
+      <c r="GE53" s="51"/>
+      <c r="GF53" s="51"/>
+      <c r="GG53" s="51"/>
+      <c r="GH53" s="51"/>
+      <c r="GI53" s="51"/>
+      <c r="GJ53" s="51"/>
+      <c r="GK53" s="51"/>
+      <c r="GL53" s="51"/>
+      <c r="GM53" s="51"/>
+      <c r="GN53" s="51"/>
+      <c r="GO53" s="51"/>
+      <c r="GP53" s="51"/>
+      <c r="GQ53" s="51"/>
+      <c r="GR53" s="51"/>
+      <c r="GS53" s="51"/>
+      <c r="GT53" s="51"/>
+      <c r="GU53" s="51"/>
+      <c r="GV53" s="51"/>
+      <c r="GW53" s="51"/>
+      <c r="GX53" s="51"/>
+      <c r="GY53" s="51"/>
+      <c r="GZ53" s="51"/>
+      <c r="HA53" s="51"/>
+      <c r="HB53" s="51"/>
+      <c r="HC53" s="51"/>
+      <c r="HD53" s="51"/>
+      <c r="HE53" s="51"/>
+      <c r="HF53" s="51"/>
+      <c r="HG53" s="51"/>
+      <c r="HH53" s="51"/>
+      <c r="HI53" s="51"/>
+      <c r="HJ53" s="51"/>
+      <c r="HK53" s="51"/>
+      <c r="HL53" s="51"/>
+      <c r="HM53" s="51"/>
+      <c r="HN53" s="51"/>
+      <c r="HO53" s="51"/>
+      <c r="HP53" s="51"/>
+      <c r="HQ53" s="51"/>
+      <c r="HR53" s="51"/>
+      <c r="HS53" s="51"/>
+      <c r="HT53" s="51"/>
+      <c r="HU53" s="51"/>
+      <c r="HV53" s="51"/>
+      <c r="HW53" s="51"/>
+      <c r="HX53" s="51"/>
+      <c r="HY53" s="51"/>
+      <c r="HZ53" s="51"/>
+      <c r="IA53" s="51"/>
+      <c r="IB53" s="51"/>
+      <c r="IC53" s="51"/>
+      <c r="ID53" s="51"/>
+      <c r="IE53" s="51"/>
+      <c r="IF53" s="51"/>
+      <c r="IG53" s="51"/>
+      <c r="IH53" s="51"/>
+      <c r="II53" s="51"/>
+      <c r="IJ53" s="51"/>
+      <c r="IK53" s="51"/>
+      <c r="IL53" s="51"/>
+      <c r="IM53" s="51"/>
+      <c r="IN53" s="51"/>
+      <c r="IO53" s="51"/>
+      <c r="IP53" s="51"/>
+      <c r="IQ53" s="51"/>
+      <c r="IR53" s="51"/>
+      <c r="IS53" s="51"/>
+      <c r="IT53" s="51"/>
+      <c r="IU53" s="51"/>
+      <c r="IV53" s="51"/>
+      <c r="IW53" s="51"/>
+    </row>
+    <row r="54" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F54" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="54"/>
+      <c r="J54" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="51"/>
+      <c r="AO54" s="51"/>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="51"/>
+      <c r="AR54" s="51"/>
+      <c r="AS54" s="51"/>
+      <c r="AT54" s="51"/>
+      <c r="AU54" s="51"/>
+      <c r="AV54" s="51"/>
+      <c r="AW54" s="51"/>
+      <c r="AX54" s="51"/>
+      <c r="AY54" s="51"/>
+      <c r="AZ54" s="51"/>
+      <c r="BA54" s="51"/>
+      <c r="BB54" s="51"/>
+      <c r="BC54" s="51"/>
+      <c r="BD54" s="51"/>
+      <c r="BE54" s="51"/>
+      <c r="BF54" s="51"/>
+      <c r="BG54" s="51"/>
+      <c r="BH54" s="51"/>
+      <c r="BI54" s="51"/>
+      <c r="BJ54" s="51"/>
+      <c r="BK54" s="51"/>
+      <c r="BL54" s="51"/>
+      <c r="BM54" s="51"/>
+      <c r="BN54" s="51"/>
+      <c r="BO54" s="51"/>
+      <c r="BP54" s="51"/>
+      <c r="BQ54" s="51"/>
+      <c r="BR54" s="51"/>
+      <c r="BS54" s="51"/>
+      <c r="BT54" s="51"/>
+      <c r="BU54" s="51"/>
+      <c r="BV54" s="51"/>
+      <c r="BW54" s="51"/>
+      <c r="BX54" s="51"/>
+      <c r="BY54" s="51"/>
+      <c r="BZ54" s="51"/>
+      <c r="CA54" s="51"/>
+      <c r="CB54" s="51"/>
+      <c r="CC54" s="51"/>
+      <c r="CD54" s="51"/>
+      <c r="CE54" s="51"/>
+      <c r="CF54" s="51"/>
+      <c r="CG54" s="51"/>
+      <c r="CH54" s="51"/>
+      <c r="CI54" s="51"/>
+      <c r="CJ54" s="51"/>
+      <c r="CK54" s="51"/>
+      <c r="CL54" s="51"/>
+      <c r="CM54" s="51"/>
+      <c r="CN54" s="51"/>
+      <c r="CO54" s="51"/>
+      <c r="CP54" s="51"/>
+      <c r="CQ54" s="51"/>
+      <c r="CR54" s="51"/>
+      <c r="CS54" s="51"/>
+      <c r="CT54" s="51"/>
+      <c r="CU54" s="51"/>
+      <c r="CV54" s="51"/>
+      <c r="CW54" s="51"/>
+      <c r="CX54" s="51"/>
+      <c r="CY54" s="51"/>
+      <c r="CZ54" s="51"/>
+      <c r="DA54" s="51"/>
+      <c r="DB54" s="51"/>
+      <c r="DC54" s="51"/>
+      <c r="DD54" s="51"/>
+      <c r="DE54" s="51"/>
+      <c r="DF54" s="51"/>
+      <c r="DG54" s="51"/>
+      <c r="DH54" s="51"/>
+      <c r="DI54" s="51"/>
+      <c r="DJ54" s="51"/>
+      <c r="DK54" s="51"/>
+      <c r="DL54" s="51"/>
+      <c r="DM54" s="51"/>
+      <c r="DN54" s="51"/>
+      <c r="DO54" s="51"/>
+      <c r="DP54" s="51"/>
+      <c r="DQ54" s="51"/>
+      <c r="DR54" s="51"/>
+      <c r="DS54" s="51"/>
+      <c r="DT54" s="51"/>
+      <c r="DU54" s="51"/>
+      <c r="DV54" s="51"/>
+      <c r="DW54" s="51"/>
+      <c r="DX54" s="51"/>
+      <c r="DY54" s="51"/>
+      <c r="DZ54" s="51"/>
+      <c r="EA54" s="51"/>
+      <c r="EB54" s="51"/>
+      <c r="EC54" s="51"/>
+      <c r="ED54" s="51"/>
+      <c r="EE54" s="51"/>
+      <c r="EF54" s="51"/>
+      <c r="EG54" s="51"/>
+      <c r="EH54" s="51"/>
+      <c r="EI54" s="51"/>
+      <c r="EJ54" s="51"/>
+      <c r="EK54" s="51"/>
+      <c r="EL54" s="51"/>
+      <c r="EM54" s="51"/>
+      <c r="EN54" s="51"/>
+      <c r="EO54" s="51"/>
+      <c r="EP54" s="51"/>
+      <c r="EQ54" s="51"/>
+      <c r="ER54" s="51"/>
+      <c r="ES54" s="51"/>
+      <c r="ET54" s="51"/>
+      <c r="EU54" s="51"/>
+      <c r="EV54" s="51"/>
+      <c r="EW54" s="51"/>
+      <c r="EX54" s="51"/>
+      <c r="EY54" s="51"/>
+      <c r="EZ54" s="51"/>
+      <c r="FA54" s="51"/>
+      <c r="FB54" s="51"/>
+      <c r="FC54" s="51"/>
+      <c r="FD54" s="51"/>
+      <c r="FE54" s="51"/>
+      <c r="FF54" s="51"/>
+      <c r="FG54" s="51"/>
+      <c r="FH54" s="51"/>
+      <c r="FI54" s="51"/>
+      <c r="FJ54" s="51"/>
+      <c r="FK54" s="51"/>
+      <c r="FL54" s="51"/>
+      <c r="FM54" s="51"/>
+      <c r="FN54" s="51"/>
+      <c r="FO54" s="51"/>
+      <c r="FP54" s="51"/>
+      <c r="FQ54" s="51"/>
+      <c r="FR54" s="51"/>
+      <c r="FS54" s="51"/>
+      <c r="FT54" s="51"/>
+      <c r="FU54" s="51"/>
+      <c r="FV54" s="51"/>
+      <c r="FW54" s="51"/>
+      <c r="FX54" s="51"/>
+      <c r="FY54" s="51"/>
+      <c r="FZ54" s="51"/>
+      <c r="GA54" s="51"/>
+      <c r="GB54" s="51"/>
+      <c r="GC54" s="51"/>
+      <c r="GD54" s="51"/>
+      <c r="GE54" s="51"/>
+      <c r="GF54" s="51"/>
+      <c r="GG54" s="51"/>
+      <c r="GH54" s="51"/>
+      <c r="GI54" s="51"/>
+      <c r="GJ54" s="51"/>
+      <c r="GK54" s="51"/>
+      <c r="GL54" s="51"/>
+      <c r="GM54" s="51"/>
+      <c r="GN54" s="51"/>
+      <c r="GO54" s="51"/>
+      <c r="GP54" s="51"/>
+      <c r="GQ54" s="51"/>
+      <c r="GR54" s="51"/>
+      <c r="GS54" s="51"/>
+      <c r="GT54" s="51"/>
+      <c r="GU54" s="51"/>
+      <c r="GV54" s="51"/>
+      <c r="GW54" s="51"/>
+      <c r="GX54" s="51"/>
+      <c r="GY54" s="51"/>
+      <c r="GZ54" s="51"/>
+      <c r="HA54" s="51"/>
+      <c r="HB54" s="51"/>
+      <c r="HC54" s="51"/>
+      <c r="HD54" s="51"/>
+      <c r="HE54" s="51"/>
+      <c r="HF54" s="51"/>
+      <c r="HG54" s="51"/>
+      <c r="HH54" s="51"/>
+      <c r="HI54" s="51"/>
+      <c r="HJ54" s="51"/>
+      <c r="HK54" s="51"/>
+      <c r="HL54" s="51"/>
+      <c r="HM54" s="51"/>
+      <c r="HN54" s="51"/>
+      <c r="HO54" s="51"/>
+      <c r="HP54" s="51"/>
+      <c r="HQ54" s="51"/>
+      <c r="HR54" s="51"/>
+      <c r="HS54" s="51"/>
+      <c r="HT54" s="51"/>
+      <c r="HU54" s="51"/>
+      <c r="HV54" s="51"/>
+      <c r="HW54" s="51"/>
+      <c r="HX54" s="51"/>
+      <c r="HY54" s="51"/>
+      <c r="HZ54" s="51"/>
+      <c r="IA54" s="51"/>
+      <c r="IB54" s="51"/>
+      <c r="IC54" s="51"/>
+      <c r="ID54" s="51"/>
+      <c r="IE54" s="51"/>
+      <c r="IF54" s="51"/>
+      <c r="IG54" s="51"/>
+      <c r="IH54" s="51"/>
+      <c r="II54" s="51"/>
+      <c r="IJ54" s="51"/>
+      <c r="IK54" s="51"/>
+      <c r="IL54" s="51"/>
+      <c r="IM54" s="51"/>
+      <c r="IN54" s="51"/>
+      <c r="IO54" s="51"/>
+      <c r="IP54" s="51"/>
+      <c r="IQ54" s="51"/>
+      <c r="IR54" s="51"/>
+      <c r="IS54" s="51"/>
+      <c r="IT54" s="51"/>
+      <c r="IU54" s="51"/>
+      <c r="IV54" s="51"/>
+      <c r="IW54" s="51"/>
+    </row>
+    <row r="55" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="54">
+        <v>0</v>
+      </c>
+      <c r="H55" s="54">
+        <v>0</v>
+      </c>
+      <c r="I55" s="54"/>
+      <c r="J55" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="51"/>
+      <c r="AM55" s="51"/>
+      <c r="AN55" s="51"/>
+      <c r="AO55" s="51"/>
+      <c r="AP55" s="51"/>
+      <c r="AQ55" s="51"/>
+      <c r="AR55" s="51"/>
+      <c r="AS55" s="51"/>
+      <c r="AT55" s="51"/>
+      <c r="AU55" s="51"/>
+      <c r="AV55" s="51"/>
+      <c r="AW55" s="51"/>
+      <c r="AX55" s="51"/>
+      <c r="AY55" s="51"/>
+      <c r="AZ55" s="51"/>
+      <c r="BA55" s="51"/>
+      <c r="BB55" s="51"/>
+      <c r="BC55" s="51"/>
+      <c r="BD55" s="51"/>
+      <c r="BE55" s="51"/>
+      <c r="BF55" s="51"/>
+      <c r="BG55" s="51"/>
+      <c r="BH55" s="51"/>
+      <c r="BI55" s="51"/>
+      <c r="BJ55" s="51"/>
+      <c r="BK55" s="51"/>
+      <c r="BL55" s="51"/>
+      <c r="BM55" s="51"/>
+      <c r="BN55" s="51"/>
+      <c r="BO55" s="51"/>
+      <c r="BP55" s="51"/>
+      <c r="BQ55" s="51"/>
+      <c r="BR55" s="51"/>
+      <c r="BS55" s="51"/>
+      <c r="BT55" s="51"/>
+      <c r="BU55" s="51"/>
+      <c r="BV55" s="51"/>
+      <c r="BW55" s="51"/>
+      <c r="BX55" s="51"/>
+      <c r="BY55" s="51"/>
+      <c r="BZ55" s="51"/>
+      <c r="CA55" s="51"/>
+      <c r="CB55" s="51"/>
+      <c r="CC55" s="51"/>
+      <c r="CD55" s="51"/>
+      <c r="CE55" s="51"/>
+      <c r="CF55" s="51"/>
+      <c r="CG55" s="51"/>
+      <c r="CH55" s="51"/>
+      <c r="CI55" s="51"/>
+      <c r="CJ55" s="51"/>
+      <c r="CK55" s="51"/>
+      <c r="CL55" s="51"/>
+      <c r="CM55" s="51"/>
+      <c r="CN55" s="51"/>
+      <c r="CO55" s="51"/>
+      <c r="CP55" s="51"/>
+      <c r="CQ55" s="51"/>
+      <c r="CR55" s="51"/>
+      <c r="CS55" s="51"/>
+      <c r="CT55" s="51"/>
+      <c r="CU55" s="51"/>
+      <c r="CV55" s="51"/>
+      <c r="CW55" s="51"/>
+      <c r="CX55" s="51"/>
+      <c r="CY55" s="51"/>
+      <c r="CZ55" s="51"/>
+      <c r="DA55" s="51"/>
+      <c r="DB55" s="51"/>
+      <c r="DC55" s="51"/>
+      <c r="DD55" s="51"/>
+      <c r="DE55" s="51"/>
+      <c r="DF55" s="51"/>
+      <c r="DG55" s="51"/>
+      <c r="DH55" s="51"/>
+      <c r="DI55" s="51"/>
+      <c r="DJ55" s="51"/>
+      <c r="DK55" s="51"/>
+      <c r="DL55" s="51"/>
+      <c r="DM55" s="51"/>
+      <c r="DN55" s="51"/>
+      <c r="DO55" s="51"/>
+      <c r="DP55" s="51"/>
+      <c r="DQ55" s="51"/>
+      <c r="DR55" s="51"/>
+      <c r="DS55" s="51"/>
+      <c r="DT55" s="51"/>
+      <c r="DU55" s="51"/>
+      <c r="DV55" s="51"/>
+      <c r="DW55" s="51"/>
+      <c r="DX55" s="51"/>
+      <c r="DY55" s="51"/>
+      <c r="DZ55" s="51"/>
+      <c r="EA55" s="51"/>
+      <c r="EB55" s="51"/>
+      <c r="EC55" s="51"/>
+      <c r="ED55" s="51"/>
+      <c r="EE55" s="51"/>
+      <c r="EF55" s="51"/>
+      <c r="EG55" s="51"/>
+      <c r="EH55" s="51"/>
+      <c r="EI55" s="51"/>
+      <c r="EJ55" s="51"/>
+      <c r="EK55" s="51"/>
+      <c r="EL55" s="51"/>
+      <c r="EM55" s="51"/>
+      <c r="EN55" s="51"/>
+      <c r="EO55" s="51"/>
+      <c r="EP55" s="51"/>
+      <c r="EQ55" s="51"/>
+      <c r="ER55" s="51"/>
+      <c r="ES55" s="51"/>
+      <c r="ET55" s="51"/>
+      <c r="EU55" s="51"/>
+      <c r="EV55" s="51"/>
+      <c r="EW55" s="51"/>
+      <c r="EX55" s="51"/>
+      <c r="EY55" s="51"/>
+      <c r="EZ55" s="51"/>
+      <c r="FA55" s="51"/>
+      <c r="FB55" s="51"/>
+      <c r="FC55" s="51"/>
+      <c r="FD55" s="51"/>
+      <c r="FE55" s="51"/>
+      <c r="FF55" s="51"/>
+      <c r="FG55" s="51"/>
+      <c r="FH55" s="51"/>
+      <c r="FI55" s="51"/>
+      <c r="FJ55" s="51"/>
+      <c r="FK55" s="51"/>
+      <c r="FL55" s="51"/>
+      <c r="FM55" s="51"/>
+      <c r="FN55" s="51"/>
+      <c r="FO55" s="51"/>
+      <c r="FP55" s="51"/>
+      <c r="FQ55" s="51"/>
+      <c r="FR55" s="51"/>
+      <c r="FS55" s="51"/>
+      <c r="FT55" s="51"/>
+      <c r="FU55" s="51"/>
+      <c r="FV55" s="51"/>
+      <c r="FW55" s="51"/>
+      <c r="FX55" s="51"/>
+      <c r="FY55" s="51"/>
+      <c r="FZ55" s="51"/>
+      <c r="GA55" s="51"/>
+      <c r="GB55" s="51"/>
+      <c r="GC55" s="51"/>
+      <c r="GD55" s="51"/>
+      <c r="GE55" s="51"/>
+      <c r="GF55" s="51"/>
+      <c r="GG55" s="51"/>
+      <c r="GH55" s="51"/>
+      <c r="GI55" s="51"/>
+      <c r="GJ55" s="51"/>
+      <c r="GK55" s="51"/>
+      <c r="GL55" s="51"/>
+      <c r="GM55" s="51"/>
+      <c r="GN55" s="51"/>
+      <c r="GO55" s="51"/>
+      <c r="GP55" s="51"/>
+      <c r="GQ55" s="51"/>
+      <c r="GR55" s="51"/>
+      <c r="GS55" s="51"/>
+      <c r="GT55" s="51"/>
+      <c r="GU55" s="51"/>
+      <c r="GV55" s="51"/>
+      <c r="GW55" s="51"/>
+      <c r="GX55" s="51"/>
+      <c r="GY55" s="51"/>
+      <c r="GZ55" s="51"/>
+      <c r="HA55" s="51"/>
+      <c r="HB55" s="51"/>
+      <c r="HC55" s="51"/>
+      <c r="HD55" s="51"/>
+      <c r="HE55" s="51"/>
+      <c r="HF55" s="51"/>
+      <c r="HG55" s="51"/>
+      <c r="HH55" s="51"/>
+      <c r="HI55" s="51"/>
+      <c r="HJ55" s="51"/>
+      <c r="HK55" s="51"/>
+      <c r="HL55" s="51"/>
+      <c r="HM55" s="51"/>
+      <c r="HN55" s="51"/>
+      <c r="HO55" s="51"/>
+      <c r="HP55" s="51"/>
+      <c r="HQ55" s="51"/>
+      <c r="HR55" s="51"/>
+      <c r="HS55" s="51"/>
+      <c r="HT55" s="51"/>
+      <c r="HU55" s="51"/>
+      <c r="HV55" s="51"/>
+      <c r="HW55" s="51"/>
+      <c r="HX55" s="51"/>
+      <c r="HY55" s="51"/>
+      <c r="HZ55" s="51"/>
+      <c r="IA55" s="51"/>
+      <c r="IB55" s="51"/>
+      <c r="IC55" s="51"/>
+      <c r="ID55" s="51"/>
+      <c r="IE55" s="51"/>
+      <c r="IF55" s="51"/>
+      <c r="IG55" s="51"/>
+      <c r="IH55" s="51"/>
+      <c r="II55" s="51"/>
+      <c r="IJ55" s="51"/>
+      <c r="IK55" s="51"/>
+      <c r="IL55" s="51"/>
+      <c r="IM55" s="51"/>
+      <c r="IN55" s="51"/>
+      <c r="IO55" s="51"/>
+      <c r="IP55" s="51"/>
+      <c r="IQ55" s="51"/>
+      <c r="IR55" s="51"/>
+      <c r="IS55" s="51"/>
+      <c r="IT55" s="51"/>
+      <c r="IU55" s="51"/>
+      <c r="IV55" s="51"/>
+      <c r="IW55" s="51"/>
+    </row>
+    <row r="56" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" s="42"/>
+      <c r="E56" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="54">
+        <v>0</v>
+      </c>
+      <c r="H56" s="54">
+        <v>0</v>
+      </c>
+      <c r="I56" s="54"/>
+      <c r="J56" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="51"/>
+      <c r="AD56" s="51"/>
+      <c r="AE56" s="51"/>
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51"/>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="51"/>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="51"/>
+      <c r="AN56" s="51"/>
+      <c r="AO56" s="51"/>
+      <c r="AP56" s="51"/>
+      <c r="AQ56" s="51"/>
+      <c r="AR56" s="51"/>
+      <c r="AS56" s="51"/>
+      <c r="AT56" s="51"/>
+      <c r="AU56" s="51"/>
+      <c r="AV56" s="51"/>
+      <c r="AW56" s="51"/>
+      <c r="AX56" s="51"/>
+      <c r="AY56" s="51"/>
+      <c r="AZ56" s="51"/>
+      <c r="BA56" s="51"/>
+      <c r="BB56" s="51"/>
+      <c r="BC56" s="51"/>
+      <c r="BD56" s="51"/>
+      <c r="BE56" s="51"/>
+      <c r="BF56" s="51"/>
+      <c r="BG56" s="51"/>
+      <c r="BH56" s="51"/>
+      <c r="BI56" s="51"/>
+      <c r="BJ56" s="51"/>
+      <c r="BK56" s="51"/>
+      <c r="BL56" s="51"/>
+      <c r="BM56" s="51"/>
+      <c r="BN56" s="51"/>
+      <c r="BO56" s="51"/>
+      <c r="BP56" s="51"/>
+      <c r="BQ56" s="51"/>
+      <c r="BR56" s="51"/>
+      <c r="BS56" s="51"/>
+      <c r="BT56" s="51"/>
+      <c r="BU56" s="51"/>
+      <c r="BV56" s="51"/>
+      <c r="BW56" s="51"/>
+      <c r="BX56" s="51"/>
+      <c r="BY56" s="51"/>
+      <c r="BZ56" s="51"/>
+      <c r="CA56" s="51"/>
+      <c r="CB56" s="51"/>
+      <c r="CC56" s="51"/>
+      <c r="CD56" s="51"/>
+      <c r="CE56" s="51"/>
+      <c r="CF56" s="51"/>
+      <c r="CG56" s="51"/>
+      <c r="CH56" s="51"/>
+      <c r="CI56" s="51"/>
+      <c r="CJ56" s="51"/>
+      <c r="CK56" s="51"/>
+      <c r="CL56" s="51"/>
+      <c r="CM56" s="51"/>
+      <c r="CN56" s="51"/>
+      <c r="CO56" s="51"/>
+      <c r="CP56" s="51"/>
+      <c r="CQ56" s="51"/>
+      <c r="CR56" s="51"/>
+      <c r="CS56" s="51"/>
+      <c r="CT56" s="51"/>
+      <c r="CU56" s="51"/>
+      <c r="CV56" s="51"/>
+      <c r="CW56" s="51"/>
+      <c r="CX56" s="51"/>
+      <c r="CY56" s="51"/>
+      <c r="CZ56" s="51"/>
+      <c r="DA56" s="51"/>
+      <c r="DB56" s="51"/>
+      <c r="DC56" s="51"/>
+      <c r="DD56" s="51"/>
+      <c r="DE56" s="51"/>
+      <c r="DF56" s="51"/>
+      <c r="DG56" s="51"/>
+      <c r="DH56" s="51"/>
+      <c r="DI56" s="51"/>
+      <c r="DJ56" s="51"/>
+      <c r="DK56" s="51"/>
+      <c r="DL56" s="51"/>
+      <c r="DM56" s="51"/>
+      <c r="DN56" s="51"/>
+      <c r="DO56" s="51"/>
+      <c r="DP56" s="51"/>
+      <c r="DQ56" s="51"/>
+      <c r="DR56" s="51"/>
+      <c r="DS56" s="51"/>
+      <c r="DT56" s="51"/>
+      <c r="DU56" s="51"/>
+      <c r="DV56" s="51"/>
+      <c r="DW56" s="51"/>
+      <c r="DX56" s="51"/>
+      <c r="DY56" s="51"/>
+      <c r="DZ56" s="51"/>
+      <c r="EA56" s="51"/>
+      <c r="EB56" s="51"/>
+      <c r="EC56" s="51"/>
+      <c r="ED56" s="51"/>
+      <c r="EE56" s="51"/>
+      <c r="EF56" s="51"/>
+      <c r="EG56" s="51"/>
+      <c r="EH56" s="51"/>
+      <c r="EI56" s="51"/>
+      <c r="EJ56" s="51"/>
+      <c r="EK56" s="51"/>
+      <c r="EL56" s="51"/>
+      <c r="EM56" s="51"/>
+      <c r="EN56" s="51"/>
+      <c r="EO56" s="51"/>
+      <c r="EP56" s="51"/>
+      <c r="EQ56" s="51"/>
+      <c r="ER56" s="51"/>
+      <c r="ES56" s="51"/>
+      <c r="ET56" s="51"/>
+      <c r="EU56" s="51"/>
+      <c r="EV56" s="51"/>
+      <c r="EW56" s="51"/>
+      <c r="EX56" s="51"/>
+      <c r="EY56" s="51"/>
+      <c r="EZ56" s="51"/>
+      <c r="FA56" s="51"/>
+      <c r="FB56" s="51"/>
+      <c r="FC56" s="51"/>
+      <c r="FD56" s="51"/>
+      <c r="FE56" s="51"/>
+      <c r="FF56" s="51"/>
+      <c r="FG56" s="51"/>
+      <c r="FH56" s="51"/>
+      <c r="FI56" s="51"/>
+      <c r="FJ56" s="51"/>
+      <c r="FK56" s="51"/>
+      <c r="FL56" s="51"/>
+      <c r="FM56" s="51"/>
+      <c r="FN56" s="51"/>
+      <c r="FO56" s="51"/>
+      <c r="FP56" s="51"/>
+      <c r="FQ56" s="51"/>
+      <c r="FR56" s="51"/>
+      <c r="FS56" s="51"/>
+      <c r="FT56" s="51"/>
+      <c r="FU56" s="51"/>
+      <c r="FV56" s="51"/>
+      <c r="FW56" s="51"/>
+      <c r="FX56" s="51"/>
+      <c r="FY56" s="51"/>
+      <c r="FZ56" s="51"/>
+      <c r="GA56" s="51"/>
+      <c r="GB56" s="51"/>
+      <c r="GC56" s="51"/>
+      <c r="GD56" s="51"/>
+      <c r="GE56" s="51"/>
+      <c r="GF56" s="51"/>
+      <c r="GG56" s="51"/>
+      <c r="GH56" s="51"/>
+      <c r="GI56" s="51"/>
+      <c r="GJ56" s="51"/>
+      <c r="GK56" s="51"/>
+      <c r="GL56" s="51"/>
+      <c r="GM56" s="51"/>
+      <c r="GN56" s="51"/>
+      <c r="GO56" s="51"/>
+      <c r="GP56" s="51"/>
+      <c r="GQ56" s="51"/>
+      <c r="GR56" s="51"/>
+      <c r="GS56" s="51"/>
+      <c r="GT56" s="51"/>
+      <c r="GU56" s="51"/>
+      <c r="GV56" s="51"/>
+      <c r="GW56" s="51"/>
+      <c r="GX56" s="51"/>
+      <c r="GY56" s="51"/>
+      <c r="GZ56" s="51"/>
+      <c r="HA56" s="51"/>
+      <c r="HB56" s="51"/>
+      <c r="HC56" s="51"/>
+      <c r="HD56" s="51"/>
+      <c r="HE56" s="51"/>
+      <c r="HF56" s="51"/>
+      <c r="HG56" s="51"/>
+      <c r="HH56" s="51"/>
+      <c r="HI56" s="51"/>
+      <c r="HJ56" s="51"/>
+      <c r="HK56" s="51"/>
+      <c r="HL56" s="51"/>
+      <c r="HM56" s="51"/>
+      <c r="HN56" s="51"/>
+      <c r="HO56" s="51"/>
+      <c r="HP56" s="51"/>
+      <c r="HQ56" s="51"/>
+      <c r="HR56" s="51"/>
+      <c r="HS56" s="51"/>
+      <c r="HT56" s="51"/>
+      <c r="HU56" s="51"/>
+      <c r="HV56" s="51"/>
+      <c r="HW56" s="51"/>
+      <c r="HX56" s="51"/>
+      <c r="HY56" s="51"/>
+      <c r="HZ56" s="51"/>
+      <c r="IA56" s="51"/>
+      <c r="IB56" s="51"/>
+      <c r="IC56" s="51"/>
+      <c r="ID56" s="51"/>
+      <c r="IE56" s="51"/>
+      <c r="IF56" s="51"/>
+      <c r="IG56" s="51"/>
+      <c r="IH56" s="51"/>
+      <c r="II56" s="51"/>
+      <c r="IJ56" s="51"/>
+      <c r="IK56" s="51"/>
+      <c r="IL56" s="51"/>
+      <c r="IM56" s="51"/>
+      <c r="IN56" s="51"/>
+      <c r="IO56" s="51"/>
+      <c r="IP56" s="51"/>
+      <c r="IQ56" s="51"/>
+      <c r="IR56" s="51"/>
+      <c r="IS56" s="51"/>
+      <c r="IT56" s="51"/>
+      <c r="IU56" s="51"/>
+      <c r="IV56" s="51"/>
+      <c r="IW56" s="51"/>
+    </row>
+    <row r="57" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B57" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C57" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D57" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E57" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="35">
-        <v>0</v>
-      </c>
-      <c r="H47" s="36">
+      <c r="F57" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="35">
+        <v>0</v>
+      </c>
+      <c r="H57" s="36">
         <v>1</v>
       </c>
-      <c r="I47" s="10" t="s">
+      <c r="I57" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="J57" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="34" t="s">
+    <row r="58" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B58" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C58" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D48"/>
-      <c r="E48" s="34" t="s">
+      <c r="D58"/>
+      <c r="E58" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="35">
-        <v>0</v>
-      </c>
-      <c r="H48" s="36">
-        <v>0</v>
-      </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="37" t="s">
+      <c r="F58" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="35">
+        <v>0</v>
+      </c>
+      <c r="H58" s="36">
+        <v>0</v>
+      </c>
+      <c r="I58" s="10"/>
+      <c r="J58" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="34" t="s">
+    <row r="59" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="35">
+        <v>0</v>
+      </c>
+      <c r="H59" s="36">
+        <v>0</v>
+      </c>
+      <c r="I59" s="10"/>
+      <c r="J59" s="37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B60" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C60" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="D49"/>
-      <c r="E49" s="34" t="s">
+      <c r="D60"/>
+      <c r="E60" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="35">
-        <v>0</v>
-      </c>
-      <c r="H49" s="36">
-        <v>0</v>
-      </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="37" t="s">
+      <c r="F60" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="35">
+        <v>0</v>
+      </c>
+      <c r="H60" s="36">
+        <v>0</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="34" t="s">
+    <row r="61" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" s="34" t="s">
+      <c r="C61" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F50" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="35">
-        <v>0</v>
-      </c>
-      <c r="H50" s="36">
-        <v>0</v>
-      </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="43" t="s">
+      <c r="F61" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="35">
+        <v>0</v>
+      </c>
+      <c r="H61" s="36">
+        <v>1</v>
+      </c>
+      <c r="I61" s="44"/>
+      <c r="J61" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B62" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="42" t="s">
+      <c r="C62" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D62" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E62" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="F51" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="35">
-        <v>0</v>
-      </c>
-      <c r="H51" s="36">
+      <c r="F62" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="35">
+        <v>0</v>
+      </c>
+      <c r="H62" s="36">
         <v>1</v>
       </c>
-      <c r="I51" s="44" t="s">
+      <c r="I62" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J51" s="37" t="s">
+      <c r="J62" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
-      <c r="AB51"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
-      <c r="AE51"/>
-      <c r="AF51"/>
-      <c r="AG51"/>
-      <c r="AH51"/>
-      <c r="AI51"/>
-      <c r="AJ51"/>
-      <c r="AK51"/>
-      <c r="AL51"/>
-      <c r="AM51"/>
-      <c r="AN51"/>
-      <c r="AO51"/>
-      <c r="AP51"/>
-      <c r="AQ51"/>
-      <c r="AR51"/>
-      <c r="AS51"/>
-      <c r="AT51"/>
-      <c r="AU51"/>
-      <c r="AV51"/>
-      <c r="AW51"/>
-      <c r="AX51"/>
-      <c r="AY51"/>
-      <c r="AZ51"/>
-      <c r="BA51"/>
-      <c r="BB51"/>
-      <c r="BC51"/>
-      <c r="BD51"/>
-      <c r="BE51"/>
-      <c r="BF51"/>
-      <c r="BG51"/>
-      <c r="BH51"/>
-      <c r="BI51"/>
-      <c r="BJ51"/>
-      <c r="BK51"/>
-      <c r="BL51"/>
-      <c r="BM51"/>
-      <c r="BN51"/>
-      <c r="BO51"/>
-      <c r="BP51"/>
-      <c r="BQ51"/>
-      <c r="BR51"/>
-      <c r="BS51"/>
-      <c r="BT51"/>
-      <c r="BU51"/>
-      <c r="BV51"/>
-      <c r="BW51"/>
-      <c r="BX51"/>
-      <c r="BY51"/>
-      <c r="BZ51"/>
-      <c r="CA51"/>
-      <c r="CB51"/>
-      <c r="CC51"/>
-      <c r="CD51"/>
-      <c r="CE51"/>
-      <c r="CF51"/>
-      <c r="CG51"/>
-      <c r="CH51"/>
-      <c r="CI51"/>
-      <c r="CJ51"/>
-      <c r="CK51"/>
-      <c r="CL51"/>
-      <c r="CM51"/>
-      <c r="CN51"/>
-      <c r="CO51"/>
-      <c r="CP51"/>
-      <c r="CQ51"/>
-      <c r="CR51"/>
-      <c r="CS51"/>
-      <c r="CT51"/>
-      <c r="CU51"/>
-      <c r="CV51"/>
-      <c r="CW51"/>
-      <c r="CX51"/>
-      <c r="CY51"/>
-      <c r="CZ51"/>
-      <c r="DA51"/>
-      <c r="DB51"/>
-      <c r="DC51"/>
-      <c r="DD51"/>
-      <c r="DE51"/>
-      <c r="DF51"/>
-      <c r="DG51"/>
-      <c r="DH51"/>
-      <c r="DI51"/>
-      <c r="DJ51"/>
-      <c r="DK51"/>
-      <c r="DL51"/>
-      <c r="DM51"/>
-      <c r="DN51"/>
-      <c r="DO51"/>
-      <c r="DP51"/>
-      <c r="DQ51"/>
-      <c r="DR51"/>
-      <c r="DS51"/>
-      <c r="DT51"/>
-      <c r="DU51"/>
-      <c r="DV51"/>
-      <c r="DW51"/>
-      <c r="DX51"/>
-      <c r="DY51"/>
-      <c r="DZ51"/>
-      <c r="EA51"/>
-      <c r="EB51"/>
-      <c r="EC51"/>
-      <c r="ED51"/>
-      <c r="EE51"/>
-      <c r="EF51"/>
-      <c r="EG51"/>
-      <c r="EH51"/>
-      <c r="EI51"/>
-      <c r="EJ51"/>
-      <c r="EK51"/>
-      <c r="EL51"/>
-      <c r="EM51"/>
-      <c r="EN51"/>
-      <c r="EO51"/>
-      <c r="EP51"/>
-      <c r="EQ51"/>
-      <c r="ER51"/>
-      <c r="ES51"/>
-      <c r="ET51"/>
-      <c r="EU51"/>
-      <c r="EV51"/>
-      <c r="EW51"/>
-      <c r="EX51"/>
-      <c r="EY51"/>
-      <c r="EZ51"/>
-      <c r="FA51"/>
-      <c r="FB51"/>
-      <c r="FC51"/>
-      <c r="FD51"/>
-      <c r="FE51"/>
-      <c r="FF51"/>
-      <c r="FG51"/>
-      <c r="FH51"/>
-      <c r="FI51"/>
-      <c r="FJ51"/>
-      <c r="FK51"/>
-      <c r="FL51"/>
-      <c r="FM51"/>
-      <c r="FN51"/>
-      <c r="FO51"/>
-      <c r="FP51"/>
-      <c r="FQ51"/>
-      <c r="FR51"/>
-      <c r="FS51"/>
-      <c r="FT51"/>
-      <c r="FU51"/>
-      <c r="FV51"/>
-      <c r="FW51"/>
-      <c r="FX51"/>
-      <c r="FY51"/>
-      <c r="FZ51"/>
-      <c r="GA51"/>
-      <c r="GB51"/>
-      <c r="GC51"/>
-      <c r="GD51"/>
-      <c r="GE51"/>
-      <c r="GF51"/>
-      <c r="GG51"/>
-      <c r="GH51"/>
-      <c r="GI51"/>
-      <c r="GJ51"/>
-      <c r="GK51"/>
-      <c r="GL51"/>
-      <c r="GM51"/>
-      <c r="GN51"/>
-      <c r="GO51"/>
-      <c r="GP51"/>
-      <c r="GQ51"/>
-      <c r="GR51"/>
-      <c r="GS51"/>
-      <c r="GT51"/>
-      <c r="GU51"/>
-      <c r="GV51"/>
-      <c r="GW51"/>
-      <c r="GX51"/>
-      <c r="GY51"/>
-      <c r="GZ51"/>
-      <c r="HA51"/>
-      <c r="HB51"/>
-      <c r="HC51"/>
-      <c r="HD51"/>
-      <c r="HE51"/>
-      <c r="HF51"/>
-      <c r="HG51"/>
-      <c r="HH51"/>
-      <c r="HI51"/>
-      <c r="HJ51"/>
-      <c r="HK51"/>
-      <c r="HL51"/>
-      <c r="HM51"/>
-      <c r="HN51"/>
-      <c r="HO51"/>
-      <c r="HP51"/>
-      <c r="HQ51"/>
-      <c r="HR51"/>
-      <c r="HS51"/>
-      <c r="HT51"/>
-      <c r="HU51"/>
-      <c r="HV51"/>
-      <c r="HW51"/>
-      <c r="HX51"/>
-      <c r="HY51"/>
-      <c r="HZ51"/>
-      <c r="IA51"/>
-      <c r="IB51"/>
-      <c r="IC51"/>
-      <c r="ID51"/>
-      <c r="IE51"/>
-      <c r="IF51"/>
-      <c r="IG51"/>
-      <c r="IH51"/>
-      <c r="II51"/>
-      <c r="IJ51"/>
-      <c r="IK51"/>
-      <c r="IL51"/>
-      <c r="IM51"/>
-      <c r="IN51"/>
-      <c r="IO51"/>
-      <c r="IP51"/>
-      <c r="IQ51"/>
-      <c r="IR51"/>
-      <c r="IS51"/>
-      <c r="IT51"/>
-      <c r="IU51"/>
-      <c r="IV51"/>
-      <c r="IW51"/>
-    </row>
-    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="34" t="s">
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62"/>
+      <c r="AU62"/>
+      <c r="AV62"/>
+      <c r="AW62"/>
+      <c r="AX62"/>
+      <c r="AY62"/>
+      <c r="AZ62"/>
+      <c r="BA62"/>
+      <c r="BB62"/>
+      <c r="BC62"/>
+      <c r="BD62"/>
+      <c r="BE62"/>
+      <c r="BF62"/>
+      <c r="BG62"/>
+      <c r="BH62"/>
+      <c r="BI62"/>
+      <c r="BJ62"/>
+      <c r="BK62"/>
+      <c r="BL62"/>
+      <c r="BM62"/>
+      <c r="BN62"/>
+      <c r="BO62"/>
+      <c r="BP62"/>
+      <c r="BQ62"/>
+      <c r="BR62"/>
+      <c r="BS62"/>
+      <c r="BT62"/>
+      <c r="BU62"/>
+      <c r="BV62"/>
+      <c r="BW62"/>
+      <c r="BX62"/>
+      <c r="BY62"/>
+      <c r="BZ62"/>
+      <c r="CA62"/>
+      <c r="CB62"/>
+      <c r="CC62"/>
+      <c r="CD62"/>
+      <c r="CE62"/>
+      <c r="CF62"/>
+      <c r="CG62"/>
+      <c r="CH62"/>
+      <c r="CI62"/>
+      <c r="CJ62"/>
+      <c r="CK62"/>
+      <c r="CL62"/>
+      <c r="CM62"/>
+      <c r="CN62"/>
+      <c r="CO62"/>
+      <c r="CP62"/>
+      <c r="CQ62"/>
+      <c r="CR62"/>
+      <c r="CS62"/>
+      <c r="CT62"/>
+      <c r="CU62"/>
+      <c r="CV62"/>
+      <c r="CW62"/>
+      <c r="CX62"/>
+      <c r="CY62"/>
+      <c r="CZ62"/>
+      <c r="DA62"/>
+      <c r="DB62"/>
+      <c r="DC62"/>
+      <c r="DD62"/>
+      <c r="DE62"/>
+      <c r="DF62"/>
+      <c r="DG62"/>
+      <c r="DH62"/>
+      <c r="DI62"/>
+      <c r="DJ62"/>
+      <c r="DK62"/>
+      <c r="DL62"/>
+      <c r="DM62"/>
+      <c r="DN62"/>
+      <c r="DO62"/>
+      <c r="DP62"/>
+      <c r="DQ62"/>
+      <c r="DR62"/>
+      <c r="DS62"/>
+      <c r="DT62"/>
+      <c r="DU62"/>
+      <c r="DV62"/>
+      <c r="DW62"/>
+      <c r="DX62"/>
+      <c r="DY62"/>
+      <c r="DZ62"/>
+      <c r="EA62"/>
+      <c r="EB62"/>
+      <c r="EC62"/>
+      <c r="ED62"/>
+      <c r="EE62"/>
+      <c r="EF62"/>
+      <c r="EG62"/>
+      <c r="EH62"/>
+      <c r="EI62"/>
+      <c r="EJ62"/>
+      <c r="EK62"/>
+      <c r="EL62"/>
+      <c r="EM62"/>
+      <c r="EN62"/>
+      <c r="EO62"/>
+      <c r="EP62"/>
+      <c r="EQ62"/>
+      <c r="ER62"/>
+      <c r="ES62"/>
+      <c r="ET62"/>
+      <c r="EU62"/>
+      <c r="EV62"/>
+      <c r="EW62"/>
+      <c r="EX62"/>
+      <c r="EY62"/>
+      <c r="EZ62"/>
+      <c r="FA62"/>
+      <c r="FB62"/>
+      <c r="FC62"/>
+      <c r="FD62"/>
+      <c r="FE62"/>
+      <c r="FF62"/>
+      <c r="FG62"/>
+      <c r="FH62"/>
+      <c r="FI62"/>
+      <c r="FJ62"/>
+      <c r="FK62"/>
+      <c r="FL62"/>
+      <c r="FM62"/>
+      <c r="FN62"/>
+      <c r="FO62"/>
+      <c r="FP62"/>
+      <c r="FQ62"/>
+      <c r="FR62"/>
+      <c r="FS62"/>
+      <c r="FT62"/>
+      <c r="FU62"/>
+      <c r="FV62"/>
+      <c r="FW62"/>
+      <c r="FX62"/>
+      <c r="FY62"/>
+      <c r="FZ62"/>
+      <c r="GA62"/>
+      <c r="GB62"/>
+      <c r="GC62"/>
+      <c r="GD62"/>
+      <c r="GE62"/>
+      <c r="GF62"/>
+      <c r="GG62"/>
+      <c r="GH62"/>
+      <c r="GI62"/>
+      <c r="GJ62"/>
+      <c r="GK62"/>
+      <c r="GL62"/>
+      <c r="GM62"/>
+      <c r="GN62"/>
+      <c r="GO62"/>
+      <c r="GP62"/>
+      <c r="GQ62"/>
+      <c r="GR62"/>
+      <c r="GS62"/>
+      <c r="GT62"/>
+      <c r="GU62"/>
+      <c r="GV62"/>
+      <c r="GW62"/>
+      <c r="GX62"/>
+      <c r="GY62"/>
+      <c r="GZ62"/>
+      <c r="HA62"/>
+      <c r="HB62"/>
+      <c r="HC62"/>
+      <c r="HD62"/>
+      <c r="HE62"/>
+      <c r="HF62"/>
+      <c r="HG62"/>
+      <c r="HH62"/>
+      <c r="HI62"/>
+      <c r="HJ62"/>
+      <c r="HK62"/>
+      <c r="HL62"/>
+      <c r="HM62"/>
+      <c r="HN62"/>
+      <c r="HO62"/>
+      <c r="HP62"/>
+      <c r="HQ62"/>
+      <c r="HR62"/>
+      <c r="HS62"/>
+      <c r="HT62"/>
+      <c r="HU62"/>
+      <c r="HV62"/>
+      <c r="HW62"/>
+      <c r="HX62"/>
+      <c r="HY62"/>
+      <c r="HZ62"/>
+      <c r="IA62"/>
+      <c r="IB62"/>
+      <c r="IC62"/>
+      <c r="ID62"/>
+      <c r="IE62"/>
+      <c r="IF62"/>
+      <c r="IG62"/>
+      <c r="IH62"/>
+      <c r="II62"/>
+      <c r="IJ62"/>
+      <c r="IK62"/>
+      <c r="IL62"/>
+      <c r="IM62"/>
+      <c r="IN62"/>
+      <c r="IO62"/>
+      <c r="IP62"/>
+      <c r="IQ62"/>
+      <c r="IR62"/>
+      <c r="IS62"/>
+      <c r="IT62"/>
+      <c r="IU62"/>
+      <c r="IV62"/>
+      <c r="IW62"/>
+    </row>
+    <row r="63" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B63" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C63" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D63" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="34" t="s">
+      <c r="E63" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="F52" s="34" t="s">
+      <c r="F63" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="35">
-        <v>0</v>
-      </c>
-      <c r="H52" s="36">
-        <v>0</v>
-      </c>
-      <c r="I52" s="10" t="s">
+      <c r="G63" s="35">
+        <v>0</v>
+      </c>
+      <c r="H63" s="36">
+        <v>0</v>
+      </c>
+      <c r="I63" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J52" s="38" t="s">
+      <c r="J63" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-      <c r="AN52"/>
-      <c r="AO52"/>
-      <c r="AP52"/>
-      <c r="AQ52"/>
-      <c r="AR52"/>
-      <c r="AS52"/>
-      <c r="AT52"/>
-      <c r="AU52"/>
-      <c r="AV52"/>
-      <c r="AW52"/>
-      <c r="AX52"/>
-      <c r="AY52"/>
-      <c r="AZ52"/>
-      <c r="BA52"/>
-      <c r="BB52"/>
-      <c r="BC52"/>
-      <c r="BD52"/>
-      <c r="BE52"/>
-      <c r="BF52"/>
-      <c r="BG52"/>
-      <c r="BH52"/>
-      <c r="BI52"/>
-      <c r="BJ52"/>
-      <c r="BK52"/>
-      <c r="BL52"/>
-      <c r="BM52"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-      <c r="BP52"/>
-      <c r="BQ52"/>
-      <c r="BR52"/>
-      <c r="BS52"/>
-      <c r="BT52"/>
-      <c r="BU52"/>
-      <c r="BV52"/>
-      <c r="BW52"/>
-      <c r="BX52"/>
-      <c r="BY52"/>
-      <c r="BZ52"/>
-      <c r="CA52"/>
-      <c r="CB52"/>
-      <c r="CC52"/>
-      <c r="CD52"/>
-      <c r="CE52"/>
-      <c r="CF52"/>
-      <c r="CG52"/>
-      <c r="CH52"/>
-      <c r="CI52"/>
-      <c r="CJ52"/>
-      <c r="CK52"/>
-      <c r="CL52"/>
-      <c r="CM52"/>
-      <c r="CN52"/>
-      <c r="CO52"/>
-      <c r="CP52"/>
-      <c r="CQ52"/>
-      <c r="CR52"/>
-      <c r="CS52"/>
-      <c r="CT52"/>
-      <c r="CU52"/>
-      <c r="CV52"/>
-      <c r="CW52"/>
-      <c r="CX52"/>
-      <c r="CY52"/>
-      <c r="CZ52"/>
-      <c r="DA52"/>
-      <c r="DB52"/>
-      <c r="DC52"/>
-      <c r="DD52"/>
-      <c r="DE52"/>
-      <c r="DF52"/>
-      <c r="DG52"/>
-      <c r="DH52"/>
-      <c r="DI52"/>
-      <c r="DJ52"/>
-      <c r="DK52"/>
-      <c r="DL52"/>
-      <c r="DM52"/>
-      <c r="DN52"/>
-      <c r="DO52"/>
-      <c r="DP52"/>
-      <c r="DQ52"/>
-      <c r="DR52"/>
-      <c r="DS52"/>
-      <c r="DT52"/>
-      <c r="DU52"/>
-      <c r="DV52"/>
-      <c r="DW52"/>
-      <c r="DX52"/>
-      <c r="DY52"/>
-      <c r="DZ52"/>
-      <c r="EA52"/>
-      <c r="EB52"/>
-      <c r="EC52"/>
-      <c r="ED52"/>
-      <c r="EE52"/>
-      <c r="EF52"/>
-      <c r="EG52"/>
-      <c r="EH52"/>
-      <c r="EI52"/>
-      <c r="EJ52"/>
-      <c r="EK52"/>
-      <c r="EL52"/>
-      <c r="EM52"/>
-      <c r="EN52"/>
-      <c r="EO52"/>
-      <c r="EP52"/>
-      <c r="EQ52"/>
-      <c r="ER52"/>
-      <c r="ES52"/>
-      <c r="ET52"/>
-      <c r="EU52"/>
-      <c r="EV52"/>
-      <c r="EW52"/>
-      <c r="EX52"/>
-      <c r="EY52"/>
-      <c r="EZ52"/>
-      <c r="FA52"/>
-      <c r="FB52"/>
-      <c r="FC52"/>
-      <c r="FD52"/>
-      <c r="FE52"/>
-      <c r="FF52"/>
-      <c r="FG52"/>
-      <c r="FH52"/>
-      <c r="FI52"/>
-      <c r="FJ52"/>
-      <c r="FK52"/>
-      <c r="FL52"/>
-      <c r="FM52"/>
-      <c r="FN52"/>
-      <c r="FO52"/>
-      <c r="FP52"/>
-      <c r="FQ52"/>
-      <c r="FR52"/>
-      <c r="FS52"/>
-      <c r="FT52"/>
-      <c r="FU52"/>
-      <c r="FV52"/>
-      <c r="FW52"/>
-      <c r="FX52"/>
-      <c r="FY52"/>
-      <c r="FZ52"/>
-      <c r="GA52"/>
-      <c r="GB52"/>
-      <c r="GC52"/>
-      <c r="GD52"/>
-      <c r="GE52"/>
-      <c r="GF52"/>
-      <c r="GG52"/>
-      <c r="GH52"/>
-      <c r="GI52"/>
-      <c r="GJ52"/>
-      <c r="GK52"/>
-      <c r="GL52"/>
-      <c r="GM52"/>
-      <c r="GN52"/>
-      <c r="GO52"/>
-      <c r="GP52"/>
-      <c r="GQ52"/>
-      <c r="GR52"/>
-      <c r="GS52"/>
-      <c r="GT52"/>
-      <c r="GU52"/>
-      <c r="GV52"/>
-      <c r="GW52"/>
-      <c r="GX52"/>
-      <c r="GY52"/>
-      <c r="GZ52"/>
-      <c r="HA52"/>
-      <c r="HB52"/>
-      <c r="HC52"/>
-      <c r="HD52"/>
-      <c r="HE52"/>
-      <c r="HF52"/>
-      <c r="HG52"/>
-      <c r="HH52"/>
-      <c r="HI52"/>
-      <c r="HJ52"/>
-      <c r="HK52"/>
-      <c r="HL52"/>
-      <c r="HM52"/>
-      <c r="HN52"/>
-      <c r="HO52"/>
-      <c r="HP52"/>
-      <c r="HQ52"/>
-      <c r="HR52"/>
-      <c r="HS52"/>
-      <c r="HT52"/>
-      <c r="HU52"/>
-      <c r="HV52"/>
-      <c r="HW52"/>
-      <c r="HX52"/>
-      <c r="HY52"/>
-      <c r="HZ52"/>
-      <c r="IA52"/>
-      <c r="IB52"/>
-      <c r="IC52"/>
-      <c r="ID52"/>
-      <c r="IE52"/>
-      <c r="IF52"/>
-      <c r="IG52"/>
-      <c r="IH52"/>
-      <c r="II52"/>
-      <c r="IJ52"/>
-      <c r="IK52"/>
-      <c r="IL52"/>
-      <c r="IM52"/>
-      <c r="IN52"/>
-      <c r="IO52"/>
-      <c r="IP52"/>
-      <c r="IQ52"/>
-      <c r="IR52"/>
-      <c r="IS52"/>
-      <c r="IT52"/>
-      <c r="IU52"/>
-      <c r="IV52"/>
-      <c r="IW52"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
+      <c r="BK63"/>
+      <c r="BL63"/>
+      <c r="BM63"/>
+      <c r="BN63"/>
+      <c r="BO63"/>
+      <c r="BP63"/>
+      <c r="BQ63"/>
+      <c r="BR63"/>
+      <c r="BS63"/>
+      <c r="BT63"/>
+      <c r="BU63"/>
+      <c r="BV63"/>
+      <c r="BW63"/>
+      <c r="BX63"/>
+      <c r="BY63"/>
+      <c r="BZ63"/>
+      <c r="CA63"/>
+      <c r="CB63"/>
+      <c r="CC63"/>
+      <c r="CD63"/>
+      <c r="CE63"/>
+      <c r="CF63"/>
+      <c r="CG63"/>
+      <c r="CH63"/>
+      <c r="CI63"/>
+      <c r="CJ63"/>
+      <c r="CK63"/>
+      <c r="CL63"/>
+      <c r="CM63"/>
+      <c r="CN63"/>
+      <c r="CO63"/>
+      <c r="CP63"/>
+      <c r="CQ63"/>
+      <c r="CR63"/>
+      <c r="CS63"/>
+      <c r="CT63"/>
+      <c r="CU63"/>
+      <c r="CV63"/>
+      <c r="CW63"/>
+      <c r="CX63"/>
+      <c r="CY63"/>
+      <c r="CZ63"/>
+      <c r="DA63"/>
+      <c r="DB63"/>
+      <c r="DC63"/>
+      <c r="DD63"/>
+      <c r="DE63"/>
+      <c r="DF63"/>
+      <c r="DG63"/>
+      <c r="DH63"/>
+      <c r="DI63"/>
+      <c r="DJ63"/>
+      <c r="DK63"/>
+      <c r="DL63"/>
+      <c r="DM63"/>
+      <c r="DN63"/>
+      <c r="DO63"/>
+      <c r="DP63"/>
+      <c r="DQ63"/>
+      <c r="DR63"/>
+      <c r="DS63"/>
+      <c r="DT63"/>
+      <c r="DU63"/>
+      <c r="DV63"/>
+      <c r="DW63"/>
+      <c r="DX63"/>
+      <c r="DY63"/>
+      <c r="DZ63"/>
+      <c r="EA63"/>
+      <c r="EB63"/>
+      <c r="EC63"/>
+      <c r="ED63"/>
+      <c r="EE63"/>
+      <c r="EF63"/>
+      <c r="EG63"/>
+      <c r="EH63"/>
+      <c r="EI63"/>
+      <c r="EJ63"/>
+      <c r="EK63"/>
+      <c r="EL63"/>
+      <c r="EM63"/>
+      <c r="EN63"/>
+      <c r="EO63"/>
+      <c r="EP63"/>
+      <c r="EQ63"/>
+      <c r="ER63"/>
+      <c r="ES63"/>
+      <c r="ET63"/>
+      <c r="EU63"/>
+      <c r="EV63"/>
+      <c r="EW63"/>
+      <c r="EX63"/>
+      <c r="EY63"/>
+      <c r="EZ63"/>
+      <c r="FA63"/>
+      <c r="FB63"/>
+      <c r="FC63"/>
+      <c r="FD63"/>
+      <c r="FE63"/>
+      <c r="FF63"/>
+      <c r="FG63"/>
+      <c r="FH63"/>
+      <c r="FI63"/>
+      <c r="FJ63"/>
+      <c r="FK63"/>
+      <c r="FL63"/>
+      <c r="FM63"/>
+      <c r="FN63"/>
+      <c r="FO63"/>
+      <c r="FP63"/>
+      <c r="FQ63"/>
+      <c r="FR63"/>
+      <c r="FS63"/>
+      <c r="FT63"/>
+      <c r="FU63"/>
+      <c r="FV63"/>
+      <c r="FW63"/>
+      <c r="FX63"/>
+      <c r="FY63"/>
+      <c r="FZ63"/>
+      <c r="GA63"/>
+      <c r="GB63"/>
+      <c r="GC63"/>
+      <c r="GD63"/>
+      <c r="GE63"/>
+      <c r="GF63"/>
+      <c r="GG63"/>
+      <c r="GH63"/>
+      <c r="GI63"/>
+      <c r="GJ63"/>
+      <c r="GK63"/>
+      <c r="GL63"/>
+      <c r="GM63"/>
+      <c r="GN63"/>
+      <c r="GO63"/>
+      <c r="GP63"/>
+      <c r="GQ63"/>
+      <c r="GR63"/>
+      <c r="GS63"/>
+      <c r="GT63"/>
+      <c r="GU63"/>
+      <c r="GV63"/>
+      <c r="GW63"/>
+      <c r="GX63"/>
+      <c r="GY63"/>
+      <c r="GZ63"/>
+      <c r="HA63"/>
+      <c r="HB63"/>
+      <c r="HC63"/>
+      <c r="HD63"/>
+      <c r="HE63"/>
+      <c r="HF63"/>
+      <c r="HG63"/>
+      <c r="HH63"/>
+      <c r="HI63"/>
+      <c r="HJ63"/>
+      <c r="HK63"/>
+      <c r="HL63"/>
+      <c r="HM63"/>
+      <c r="HN63"/>
+      <c r="HO63"/>
+      <c r="HP63"/>
+      <c r="HQ63"/>
+      <c r="HR63"/>
+      <c r="HS63"/>
+      <c r="HT63"/>
+      <c r="HU63"/>
+      <c r="HV63"/>
+      <c r="HW63"/>
+      <c r="HX63"/>
+      <c r="HY63"/>
+      <c r="HZ63"/>
+      <c r="IA63"/>
+      <c r="IB63"/>
+      <c r="IC63"/>
+      <c r="ID63"/>
+      <c r="IE63"/>
+      <c r="IF63"/>
+      <c r="IG63"/>
+      <c r="IH63"/>
+      <c r="II63"/>
+      <c r="IJ63"/>
+      <c r="IK63"/>
+      <c r="IL63"/>
+      <c r="IM63"/>
+      <c r="IN63"/>
+      <c r="IO63"/>
+      <c r="IP63"/>
+      <c r="IQ63"/>
+      <c r="IR63"/>
+      <c r="IS63"/>
+      <c r="IT63"/>
+      <c r="IU63"/>
+      <c r="IV63"/>
+      <c r="IW63"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/office/oscar-web/db/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vibolteav/office/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C38ECB1-AA88-A843-A315-DACA32096FB5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F77943-FA6F-3C45-9323-A0132652C732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="138">
   <si>
     <t>name</t>
   </si>
@@ -1284,8 +1284,8 @@
   </sheetPr>
   <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2590,9 +2590,7 @@
       <c r="H44" s="36">
         <v>1</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="I44" s="10"/>
       <c r="J44" s="37" t="s">
         <v>90</v>
       </c>
@@ -3122,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4516,9 +4514,7 @@
       <c r="H45" s="36">
         <v>0</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="I45" s="10"/>
       <c r="J45" s="37" t="s">
         <v>90</v>
       </c>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiry/Documents/oscar-web/db/support/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4290E9C8-5699-1C47-8FEF-EDAC159C76BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="default" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="brc" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="default" sheetId="1" r:id="rId1"/>
+    <sheet name="brc" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,446 +26,425 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="136">
-  <si>
-    <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klass_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for_instances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Worker / Assigned Staff Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial_referral_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date of Referral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">given_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given Name (Latin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Name (Latin)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relevant_referral_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relevant Referral Information / Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preferred_language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new</t>
-  </si>
-  <si>
-    <t xml:space="preserve">presented_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presented ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legacy_brcs_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legacy BRCS-ID number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client Contact Phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phone_owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rated_for_id_poor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is client rated for ID Poor?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_phone_whatsapp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whatsapp? (Phone Number - Alternate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_phone_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_given_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given Name(Khmer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">local_family_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Name (Khmer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birth_province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birth Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brsc_branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRCS Branch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_current_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_po_box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PO BOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City/Settlement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_resident_own_or_rent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acc. type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_household_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">island2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">client_other_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">po_box2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">settlement2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">resident_own_or_rent2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_type2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">province_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Province</t>
-  </si>
-  <si>
-    <t xml:space="preserve">district_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District / Khan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">commune_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune / Sangkat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">village_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Street Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house_number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Address Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what3words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What3Words</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caregiver_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caregiver Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commune</t>
-  </si>
-  <si>
-    <t xml:space="preserve">street</t>
-  </si>
-  <si>
-    <t xml:space="preserve">house</t>
-  </si>
-  <si>
-    <t xml:space="preserve">House</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dependable_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependable Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">household_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monthly Household Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contract_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contract Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">family_member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adult_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adult Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occupation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hide section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case Worker / Staff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Referral Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone Number - Primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whatsapp?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First Name - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last Name - Alternate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">current_city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="136">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>klass_name</t>
+  </si>
+  <si>
+    <t>current_label</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>visible</t>
+  </si>
+  <si>
+    <t>for_instances</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>user_ids</t>
+  </si>
+  <si>
+    <t>client</t>
+  </si>
+  <si>
+    <t>Case Worker / Assigned Staff Manager</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>rename</t>
+  </si>
+  <si>
+    <t>initial_referral_date</t>
+  </si>
+  <si>
+    <t>Date of Referral</t>
+  </si>
+  <si>
+    <t>given_name</t>
+  </si>
+  <si>
+    <t>Given Name (Latin)</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>Family Name (Latin)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>relevant_referral_information</t>
+  </si>
+  <si>
+    <t>Relevant Referral Information / Notes</t>
+  </si>
+  <si>
+    <t>preferred_language</t>
+  </si>
+  <si>
+    <t>Preferred Language</t>
+  </si>
+  <si>
+    <t>brc</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>presented_id</t>
+  </si>
+  <si>
+    <t>Presented ID</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>ID number</t>
+  </si>
+  <si>
+    <t>legacy_brcs_id</t>
+  </si>
+  <si>
+    <t>Legacy BRCS-ID number</t>
+  </si>
+  <si>
+    <t>client_phone</t>
+  </si>
+  <si>
+    <t>Client Contact Phone</t>
+  </si>
+  <si>
+    <t>phone_owner</t>
+  </si>
+  <si>
+    <t>Phone Owner</t>
+  </si>
+  <si>
+    <t>hide</t>
+  </si>
+  <si>
+    <t>rated_for_id_poor</t>
+  </si>
+  <si>
+    <t>Is client rated for ID Poor?</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>Whatsapp</t>
+  </si>
+  <si>
+    <t>other_phone_whatsapp</t>
+  </si>
+  <si>
+    <t>Whatsapp? (Phone Number - Alternate)</t>
+  </si>
+  <si>
+    <t>other_phone_number</t>
+  </si>
+  <si>
+    <t>Phone Number - Alternate</t>
+  </si>
+  <si>
+    <t>local_given_name</t>
+  </si>
+  <si>
+    <t>Given Name(Khmer)</t>
+  </si>
+  <si>
+    <t>local_family_name</t>
+  </si>
+  <si>
+    <t>Family Name (Khmer)</t>
+  </si>
+  <si>
+    <t>birth_province</t>
+  </si>
+  <si>
+    <t>Birth Province</t>
+  </si>
+  <si>
+    <t>brsc_branch</t>
+  </si>
+  <si>
+    <t>BRCS Branch</t>
+  </si>
+  <si>
+    <t>current_island</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>client_current_address</t>
+  </si>
+  <si>
+    <t>current_street</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>current_po_box</t>
+  </si>
+  <si>
+    <t>PO BOX</t>
+  </si>
+  <si>
+    <t>current_settlement</t>
+  </si>
+  <si>
+    <t>City/Settlement</t>
+  </si>
+  <si>
+    <t>current_resident_own_or_rent</t>
+  </si>
+  <si>
+    <t>Acc. type</t>
+  </si>
+  <si>
+    <t>current_household_type</t>
+  </si>
+  <si>
+    <t>Address Type</t>
+  </si>
+  <si>
+    <t>island2</t>
+  </si>
+  <si>
+    <t>client_other_address</t>
+  </si>
+  <si>
+    <t>street2</t>
+  </si>
+  <si>
+    <t>po_box2</t>
+  </si>
+  <si>
+    <t>settlement2</t>
+  </si>
+  <si>
+    <t>resident_own_or_rent2</t>
+  </si>
+  <si>
+    <t>household_type2</t>
+  </si>
+  <si>
+    <t>province_id</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>District / Khan</t>
+  </si>
+  <si>
+    <t>commune_id</t>
+  </si>
+  <si>
+    <t>Commune / Sangkat</t>
+  </si>
+  <si>
+    <t>village_id</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>street_number</t>
+  </si>
+  <si>
+    <t>Street Number</t>
+  </si>
+  <si>
+    <t>house_number</t>
+  </si>
+  <si>
+    <t>House Number</t>
+  </si>
+  <si>
+    <t>current_address</t>
+  </si>
+  <si>
+    <t>Address Name</t>
+  </si>
+  <si>
+    <t>address_type</t>
+  </si>
+  <si>
+    <t>what3words</t>
+  </si>
+  <si>
+    <t>What3Words</t>
+  </si>
+  <si>
+    <t>caregiver_information</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Caregiver Information</t>
+  </si>
+  <si>
+    <t>family_type</t>
+  </si>
+  <si>
+    <t>Family Type</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>dependable_income</t>
+  </si>
+  <si>
+    <t>Dependable Income</t>
+  </si>
+  <si>
+    <t>household_income</t>
+  </si>
+  <si>
+    <t>Monthly Household Income</t>
+  </si>
+  <si>
+    <t>contract_date</t>
+  </si>
+  <si>
+    <t>Contract Date</t>
+  </si>
+  <si>
+    <t>family_member</t>
+  </si>
+  <si>
+    <t>relation</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>Guardian</t>
+  </si>
+  <si>
+    <t>adult_name</t>
+  </si>
+  <si>
+    <t>Adult Name</t>
+  </si>
+  <si>
+    <t>occupation</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>Partners</t>
+  </si>
+  <si>
+    <t>hide section</t>
+  </si>
+  <si>
+    <t>Case Worker / Staff</t>
+  </si>
+  <si>
+    <t>Initial Referral Date</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Phone Number - Primary</t>
+  </si>
+  <si>
+    <t>Whatsapp?</t>
+  </si>
+  <si>
+    <t>First Name - Alternate</t>
+  </si>
+  <si>
+    <t>Last Name - Alternate</t>
+  </si>
+  <si>
+    <t>current_city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-  </numFmts>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="13"/>
@@ -488,7 +472,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -503,7 +487,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
@@ -511,7 +495,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -532,7 +516,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -540,7 +524,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF383636"/>
       <name val="Helvetica Neue"/>
@@ -553,6 +537,34 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF383636"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -570,60 +582,102 @@
     </fill>
   </fills>
   <borders count="18">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
       </right>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color rgb="FFAAAAAA"/>
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFAAAAAA"/>
@@ -636,344 +690,217 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="62">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="58">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1032,34 +959,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="11" style="1" width="8.83"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="257" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1134,10 +1372,10 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="10"/>
@@ -1145,7 +1383,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1161,10 +1399,10 @@
       <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="n">
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
       <c r="I4" s="16"/>
@@ -1172,7 +1410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1188,10 +1426,10 @@
       <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="n">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <v>1</v>
       </c>
       <c r="I5" s="16"/>
@@ -1199,7 +1437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1216,10 +1454,10 @@
       <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="n">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
       <c r="I6" s="16"/>
@@ -1227,7 +1465,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1243,10 +1481,10 @@
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="n">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
         <v>1</v>
       </c>
       <c r="I7" s="16"/>
@@ -1254,7 +1492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1271,10 +1509,10 @@
       <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="n">
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <v>1</v>
       </c>
       <c r="I8" s="16"/>
@@ -1282,7 +1520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
@@ -1299,10 +1537,10 @@
       <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="n">
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>0</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -1312,7 +1550,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -1328,10 +1566,10 @@
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>0</v>
       </c>
       <c r="I10" s="10" t="s">
@@ -1341,7 +1579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
@@ -1357,10 +1595,10 @@
       <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>0</v>
       </c>
       <c r="I11" s="10" t="s">
@@ -1370,7 +1608,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -1386,10 +1624,10 @@
       <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>0</v>
       </c>
       <c r="I12" s="10" t="s">
@@ -1399,7 +1637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1415,10 +1653,10 @@
       <c r="F13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="n">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>1</v>
       </c>
       <c r="I13" s="10"/>
@@ -1426,7 +1664,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1442,10 +1680,10 @@
       <c r="F14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="n">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>1</v>
       </c>
       <c r="I14" s="10"/>
@@ -1453,7 +1691,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1469,10 +1707,10 @@
       <c r="F15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="n">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <v>1</v>
       </c>
       <c r="I15" s="10"/>
@@ -1480,7 +1718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>43</v>
       </c>
@@ -1496,10 +1734,10 @@
       <c r="F16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25" t="n">
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <v>0</v>
       </c>
       <c r="I16" s="10" t="s">
@@ -1509,7 +1747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -1526,10 +1764,10 @@
       <c r="F17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25" t="n">
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
         <v>0</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -1539,7 +1777,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>47</v>
       </c>
@@ -1555,10 +1793,10 @@
       <c r="F18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25" t="n">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <v>0</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -1568,7 +1806,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
@@ -1584,10 +1822,10 @@
       <c r="F19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25" t="n">
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <v>1</v>
       </c>
       <c r="I19" s="25"/>
@@ -1595,7 +1833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>51</v>
       </c>
@@ -1611,10 +1849,10 @@
       <c r="F20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25" t="n">
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <v>1</v>
       </c>
       <c r="I20" s="25"/>
@@ -1623,7 +1861,7 @@
       </c>
       <c r="K20" s="25"/>
     </row>
-    <row r="21" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>53</v>
       </c>
@@ -1639,10 +1877,10 @@
       <c r="F21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25" t="n">
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <v>1</v>
       </c>
       <c r="I21" s="25"/>
@@ -1650,7 +1888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -1666,10 +1904,10 @@
       <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="n">
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>0</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -1679,7 +1917,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -1695,10 +1933,10 @@
       <c r="F23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="n">
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
         <v>0</v>
       </c>
       <c r="I23" s="10" t="s">
@@ -1708,7 +1946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>60</v>
       </c>
@@ -1724,10 +1962,10 @@
       <c r="F24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="32" t="n">
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
         <v>0</v>
       </c>
       <c r="I24" s="10" t="s">
@@ -1737,7 +1975,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>62</v>
       </c>
@@ -1753,10 +1991,10 @@
       <c r="F25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32" t="n">
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -1766,7 +2004,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>64</v>
       </c>
@@ -1782,10 +2020,10 @@
       <c r="F26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32" t="n">
+      <c r="G26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
         <v>0</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -1795,7 +2033,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>66</v>
       </c>
@@ -1811,10 +2049,10 @@
       <c r="F27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32" t="n">
+      <c r="G27" s="31">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32">
         <v>0</v>
       </c>
       <c r="I27" s="10" t="s">
@@ -1824,7 +2062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>68</v>
       </c>
@@ -1840,10 +2078,10 @@
       <c r="F28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="32" t="n">
+      <c r="G28" s="31">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
         <v>0</v>
       </c>
       <c r="I28" s="10" t="s">
@@ -1853,7 +2091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>70</v>
       </c>
@@ -1869,10 +2107,10 @@
       <c r="F29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10" t="n">
+      <c r="G29" s="28">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
         <v>0</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -1882,7 +2120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>72</v>
       </c>
@@ -1898,10 +2136,10 @@
       <c r="F30" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="32" t="n">
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="s">
@@ -1911,7 +2149,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>73</v>
       </c>
@@ -1927,10 +2165,10 @@
       <c r="F31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="32" t="n">
+      <c r="G31" s="31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32">
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
@@ -1940,7 +2178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>74</v>
       </c>
@@ -1956,10 +2194,10 @@
       <c r="F32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="32" t="n">
+      <c r="G32" s="31">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32">
         <v>0</v>
       </c>
       <c r="I32" s="10" t="s">
@@ -1969,7 +2207,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>75</v>
       </c>
@@ -1985,10 +2223,10 @@
       <c r="F33" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="32" t="n">
+      <c r="G33" s="31">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32">
         <v>0</v>
       </c>
       <c r="I33" s="10" t="s">
@@ -1998,7 +2236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>76</v>
       </c>
@@ -2014,10 +2252,10 @@
       <c r="F34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="32" t="n">
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="32">
         <v>0</v>
       </c>
       <c r="I34" s="10" t="s">
@@ -2027,7 +2265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>77</v>
       </c>
@@ -2043,10 +2281,10 @@
       <c r="F35" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="32" t="n">
+      <c r="G35" s="31">
+        <v>0</v>
+      </c>
+      <c r="H35" s="32">
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
@@ -2056,7 +2294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>79</v>
       </c>
@@ -2072,10 +2310,10 @@
       <c r="F36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="32" t="n">
+      <c r="G36" s="31">
+        <v>0</v>
+      </c>
+      <c r="H36" s="32">
         <v>1</v>
       </c>
       <c r="I36" s="10" t="s">
@@ -2085,7 +2323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>81</v>
       </c>
@@ -2101,10 +2339,10 @@
       <c r="F37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="32" t="n">
+      <c r="G37" s="31">
+        <v>0</v>
+      </c>
+      <c r="H37" s="32">
         <v>1</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -2114,7 +2352,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>83</v>
       </c>
@@ -2130,10 +2368,10 @@
       <c r="F38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="32" t="n">
+      <c r="G38" s="31">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32">
         <v>1</v>
       </c>
       <c r="I38" s="10" t="s">
@@ -2143,7 +2381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>85</v>
       </c>
@@ -2159,10 +2397,10 @@
       <c r="F39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="32" t="n">
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32">
         <v>1</v>
       </c>
       <c r="I39" s="10" t="s">
@@ -2172,7 +2410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>87</v>
       </c>
@@ -2188,10 +2426,10 @@
       <c r="F40" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="32" t="n">
+      <c r="G40" s="31">
+        <v>0</v>
+      </c>
+      <c r="H40" s="32">
         <v>1</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -2201,7 +2439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>89</v>
       </c>
@@ -2217,10 +2455,10 @@
       <c r="F41" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="32" t="n">
+      <c r="G41" s="31">
+        <v>0</v>
+      </c>
+      <c r="H41" s="32">
         <v>1</v>
       </c>
       <c r="I41" s="10" t="s">
@@ -2230,7 +2468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>91</v>
       </c>
@@ -2246,10 +2484,10 @@
       <c r="F42" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="32" t="n">
+      <c r="G42" s="31">
+        <v>0</v>
+      </c>
+      <c r="H42" s="32">
         <v>1</v>
       </c>
       <c r="I42" s="10" t="s">
@@ -2259,7 +2497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>92</v>
       </c>
@@ -2275,10 +2513,10 @@
       <c r="F43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="32" t="n">
+      <c r="G43" s="31">
+        <v>0</v>
+      </c>
+      <c r="H43" s="32">
         <v>1</v>
       </c>
       <c r="I43" s="10" t="s">
@@ -2288,14 +2526,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="35" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="36" t="s">
+      <c r="C44" s="58" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="20"/>
@@ -2305,10 +2543,10 @@
       <c r="F44" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="39" t="n">
+      <c r="G44" s="38">
+        <v>0</v>
+      </c>
+      <c r="H44" s="39">
         <v>0</v>
       </c>
       <c r="I44" s="10"/>
@@ -2316,14 +2554,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="41" t="s">
         <v>97</v>
       </c>
       <c r="B45" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="59" t="s">
         <v>98</v>
       </c>
       <c r="D45" s="20"/>
@@ -2333,10 +2571,10 @@
       <c r="F45" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="44" t="n">
+      <c r="G45" s="44">
+        <v>0</v>
+      </c>
+      <c r="H45" s="44">
         <v>1</v>
       </c>
       <c r="I45" s="44" t="s">
@@ -2346,14 +2584,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="46" t="s">
         <v>77</v>
       </c>
       <c r="B46" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D46" s="20"/>
@@ -2363,10 +2601,10 @@
       <c r="F46" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="48" t="n">
+      <c r="G46" s="48">
+        <v>0</v>
+      </c>
+      <c r="H46" s="48">
         <v>1</v>
       </c>
       <c r="I46" s="48"/>
@@ -2374,15 +2612,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="46" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B47" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C47" s="36" t="s">
-        <v>99</v>
+      <c r="C47" s="58" t="s">
+        <v>23</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="46" t="s">
@@ -2391,26 +2629,26 @@
       <c r="F47" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="48" t="n">
+      <c r="G47" s="48">
+        <v>0</v>
+      </c>
+      <c r="H47" s="48">
         <v>1</v>
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="36" t="s">
-        <v>100</v>
+      <c r="C48" s="58" t="s">
+        <v>99</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="46" t="s">
@@ -2419,10 +2657,10 @@
       <c r="F48" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="48" t="n">
+      <c r="G48" s="48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="48">
         <v>1</v>
       </c>
       <c r="I48" s="48"/>
@@ -2430,15 +2668,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B49" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="36" t="s">
-        <v>84</v>
+      <c r="C49" s="58" t="s">
+        <v>100</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="46" t="s">
@@ -2447,10 +2685,10 @@
       <c r="F49" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="48" t="n">
+      <c r="G49" s="48">
+        <v>0</v>
+      </c>
+      <c r="H49" s="48">
         <v>1</v>
       </c>
       <c r="I49" s="48"/>
@@ -2458,15 +2696,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="46" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B50" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C50" s="36" t="s">
-        <v>61</v>
+      <c r="C50" s="58" t="s">
+        <v>84</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="46" t="s">
@@ -2475,10 +2713,10 @@
       <c r="F50" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="48" t="n">
+      <c r="G50" s="48">
+        <v>0</v>
+      </c>
+      <c r="H50" s="48">
         <v>1</v>
       </c>
       <c r="I50" s="48"/>
@@ -2486,15 +2724,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="36" t="s">
-        <v>103</v>
+      <c r="C51" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="46" t="s">
@@ -2503,10 +2741,10 @@
       <c r="F51" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="48" t="n">
+      <c r="G51" s="48">
+        <v>0</v>
+      </c>
+      <c r="H51" s="48">
         <v>1</v>
       </c>
       <c r="I51" s="48"/>
@@ -2514,15 +2752,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="50" t="s">
-        <v>105</v>
+      <c r="C52" s="58" t="s">
+        <v>103</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="46" t="s">
@@ -2531,10 +2769,10 @@
       <c r="F52" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="48" t="n">
+      <c r="G52" s="48">
+        <v>0</v>
+      </c>
+      <c r="H52" s="48">
         <v>1</v>
       </c>
       <c r="I52" s="48"/>
@@ -2542,15 +2780,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="36" t="s">
-        <v>107</v>
+      <c r="C53" s="60" t="s">
+        <v>105</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="46" t="s">
@@ -2559,10 +2797,10 @@
       <c r="F53" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="48" t="n">
+      <c r="G53" s="48">
+        <v>0</v>
+      </c>
+      <c r="H53" s="48">
         <v>1</v>
       </c>
       <c r="I53" s="48"/>
@@ -2570,15 +2808,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="36" t="s">
-        <v>109</v>
+      <c r="C54" s="58" t="s">
+        <v>107</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="46" t="s">
@@ -2587,10 +2825,10 @@
       <c r="F54" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="48" t="n">
+      <c r="G54" s="48">
+        <v>0</v>
+      </c>
+      <c r="H54" s="48">
         <v>1</v>
       </c>
       <c r="I54" s="48"/>
@@ -2598,36 +2836,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="48">
+        <v>0</v>
+      </c>
+      <c r="H55" s="48">
+        <v>1</v>
+      </c>
+      <c r="I55" s="48"/>
+      <c r="J55" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="35" t="s">
         <v>111</v>
       </c>
@@ -2643,10 +2880,10 @@
       <c r="F56" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="39" t="n">
+      <c r="G56" s="38">
+        <v>0</v>
+      </c>
+      <c r="H56" s="39">
         <v>1</v>
       </c>
       <c r="I56" s="10"/>
@@ -2654,7 +2891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="35" t="s">
         <v>113</v>
       </c>
@@ -2670,10 +2907,10 @@
       <c r="F57" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="39" t="n">
+      <c r="G57" s="38">
+        <v>0</v>
+      </c>
+      <c r="H57" s="39">
         <v>1</v>
       </c>
       <c r="I57" s="10"/>
@@ -2681,15 +2918,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="35" t="s">
-        <v>115</v>
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="61" t="s">
+        <v>22</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E58" s="35" t="s">
         <v>110</v>
@@ -2697,10 +2934,10 @@
       <c r="F58" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="39" t="n">
+      <c r="G58" s="38">
+        <v>0</v>
+      </c>
+      <c r="H58" s="39">
         <v>1</v>
       </c>
       <c r="I58" s="53"/>
@@ -2708,15 +2945,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>118</v>
+      <c r="C59" s="52" t="s">
+        <v>116</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>110</v>
@@ -2724,26 +2961,26 @@
       <c r="F59" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" s="10"/>
+      <c r="G59" s="38">
+        <v>0</v>
+      </c>
+      <c r="H59" s="39">
+        <v>1</v>
+      </c>
+      <c r="I59" s="53"/>
       <c r="J59" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="20" t="s">
-        <v>25</v>
+      <c r="C60" s="35" t="s">
+        <v>118</v>
       </c>
       <c r="E60" s="35" t="s">
         <v>110</v>
@@ -2751,82 +2988,103 @@
       <c r="F60" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="53" t="s">
+      <c r="G60" s="38">
+        <v>0</v>
+      </c>
+      <c r="H60" s="39">
+        <v>1</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="38">
+        <v>0</v>
+      </c>
+      <c r="H61" s="39">
+        <v>0</v>
+      </c>
+      <c r="I61" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J60" s="40" t="s">
+      <c r="J61" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="35" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B62" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C62" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E62" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F62" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" s="10" t="s">
+      <c r="G62" s="38">
+        <v>0</v>
+      </c>
+      <c r="H62" s="39">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="54" t="s">
+      <c r="J62" s="54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:IW1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="26.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="257" min="11" style="1" width="8.83"/>
+    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
+    <col min="11" max="257" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +3116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2888,7 +3146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -2907,10 +3165,10 @@
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="G3" s="9">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="10"/>
@@ -2918,7 +3176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -2937,10 +3195,10 @@
       <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16" t="n">
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
         <v>1</v>
       </c>
       <c r="I4" s="16"/>
@@ -2948,7 +3206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2967,10 +3225,10 @@
       <c r="F5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16" t="n">
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
         <v>1</v>
       </c>
       <c r="I5" s="16"/>
@@ -2978,7 +3236,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2997,10 +3255,10 @@
       <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16" t="n">
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
         <v>1</v>
       </c>
       <c r="I6" s="16"/>
@@ -3008,7 +3266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -3027,10 +3285,10 @@
       <c r="F7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16" t="n">
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
         <v>1</v>
       </c>
       <c r="I7" s="16"/>
@@ -3038,7 +3296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -3057,10 +3315,10 @@
       <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16" t="n">
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
         <v>1</v>
       </c>
       <c r="I8" s="16"/>
@@ -3068,7 +3326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
@@ -3087,10 +3345,10 @@
       <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="n">
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
@@ -3100,7 +3358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -3119,10 +3377,10 @@
       <c r="F10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
         <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
@@ -3132,7 +3390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
@@ -3151,10 +3409,10 @@
       <c r="F11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
         <v>1</v>
       </c>
       <c r="I11" s="10" t="s">
@@ -3164,7 +3422,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -3180,10 +3438,10 @@
       <c r="F12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="G12" s="10">
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
@@ -3193,7 +3451,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -3212,10 +3470,10 @@
       <c r="F13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="n">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>1</v>
       </c>
       <c r="I13" s="10"/>
@@ -3223,7 +3481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -3239,10 +3497,10 @@
       <c r="F14" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="n">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>0</v>
       </c>
       <c r="I14" s="10"/>
@@ -3250,7 +3508,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -3266,10 +3524,10 @@
       <c r="F15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="n">
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
         <v>0</v>
       </c>
       <c r="I15" s="10"/>
@@ -3277,7 +3535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23" t="s">
         <v>43</v>
       </c>
@@ -3296,10 +3554,10 @@
       <c r="F16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25" t="n">
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
@@ -3309,7 +3567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -3328,10 +3586,10 @@
       <c r="F17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25" t="n">
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
         <v>1</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -3341,7 +3599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>47</v>
       </c>
@@ -3360,10 +3618,10 @@
       <c r="F18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25" t="n">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <v>1</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -3373,7 +3631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
@@ -3392,10 +3650,10 @@
       <c r="F19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25" t="n">
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <v>1</v>
       </c>
       <c r="I19" s="25"/>
@@ -3403,7 +3661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>51</v>
       </c>
@@ -3422,10 +3680,10 @@
       <c r="F20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25" t="n">
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <v>1</v>
       </c>
       <c r="I20" s="25"/>
@@ -3433,7 +3691,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>53</v>
       </c>
@@ -3449,10 +3707,10 @@
       <c r="F21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25" t="n">
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <v>1</v>
       </c>
       <c r="I21" s="25"/>
@@ -3460,7 +3718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -3479,10 +3737,10 @@
       <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="n">
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
         <v>1</v>
       </c>
       <c r="I22" s="10" t="s">
@@ -3492,7 +3750,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -3511,10 +3769,10 @@
       <c r="F23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="n">
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
         <v>1</v>
       </c>
       <c r="I23" s="10" t="s">
@@ -3524,7 +3782,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
         <v>60</v>
       </c>
@@ -3543,10 +3801,10 @@
       <c r="F24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="32" t="n">
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="32">
         <v>1</v>
       </c>
       <c r="I24" s="10" t="s">
@@ -3556,7 +3814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
         <v>62</v>
       </c>
@@ -3575,10 +3833,10 @@
       <c r="F25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32" t="n">
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="32">
         <v>1</v>
       </c>
       <c r="I25" s="10" t="s">
@@ -3588,7 +3846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>133</v>
       </c>
@@ -3607,10 +3865,10 @@
       <c r="F26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32" t="n">
+      <c r="G26" s="31">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
         <v>1</v>
       </c>
       <c r="I26" s="10" t="s">
@@ -3620,7 +3878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>64</v>
       </c>
@@ -3639,10 +3897,10 @@
       <c r="F27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="32" t="n">
+      <c r="G27" s="31">
+        <v>0</v>
+      </c>
+      <c r="H27" s="32">
         <v>1</v>
       </c>
       <c r="I27" s="10" t="s">
@@ -3652,7 +3910,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>66</v>
       </c>
@@ -3671,10 +3929,10 @@
       <c r="F28" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="32" t="n">
+      <c r="G28" s="31">
+        <v>0</v>
+      </c>
+      <c r="H28" s="32">
         <v>1</v>
       </c>
       <c r="I28" s="10" t="s">
@@ -3684,7 +3942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>68</v>
       </c>
@@ -3703,10 +3961,10 @@
       <c r="F29" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="32" t="n">
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
         <v>1</v>
       </c>
       <c r="I29" s="10" t="s">
@@ -3716,7 +3974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>70</v>
       </c>
@@ -3735,10 +3993,10 @@
       <c r="F30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10" t="n">
+      <c r="G30" s="28">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
         <v>1</v>
       </c>
       <c r="I30" s="10" t="s">
@@ -3748,7 +4006,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>72</v>
       </c>
@@ -3767,10 +4025,10 @@
       <c r="F31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="32" t="n">
+      <c r="G31" s="31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="32">
         <v>1</v>
       </c>
       <c r="I31" s="10" t="s">
@@ -3780,7 +4038,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>73</v>
       </c>
@@ -3799,10 +4057,10 @@
       <c r="F32" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="32" t="n">
+      <c r="G32" s="31">
+        <v>0</v>
+      </c>
+      <c r="H32" s="32">
         <v>1</v>
       </c>
       <c r="I32" s="10" t="s">
@@ -3812,7 +4070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>74</v>
       </c>
@@ -3831,10 +4089,10 @@
       <c r="F33" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="32" t="n">
+      <c r="G33" s="31">
+        <v>0</v>
+      </c>
+      <c r="H33" s="32">
         <v>1</v>
       </c>
       <c r="I33" s="10" t="s">
@@ -3844,7 +4102,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
         <v>75</v>
       </c>
@@ -3863,10 +4121,10 @@
       <c r="F34" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="32" t="n">
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="32">
         <v>1</v>
       </c>
       <c r="I34" s="10" t="s">
@@ -3876,7 +4134,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
         <v>76</v>
       </c>
@@ -3895,10 +4153,10 @@
       <c r="F35" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="32" t="n">
+      <c r="G35" s="31">
+        <v>0</v>
+      </c>
+      <c r="H35" s="32">
         <v>1</v>
       </c>
       <c r="I35" s="10" t="s">
@@ -3908,7 +4166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>77</v>
       </c>
@@ -3925,10 +4183,10 @@
       <c r="F36" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="32" t="n">
+      <c r="G36" s="31">
+        <v>0</v>
+      </c>
+      <c r="H36" s="32">
         <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
@@ -3938,7 +4196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>79</v>
       </c>
@@ -3955,10 +4213,10 @@
       <c r="F37" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="32" t="n">
+      <c r="G37" s="31">
+        <v>0</v>
+      </c>
+      <c r="H37" s="32">
         <v>0</v>
       </c>
       <c r="I37" s="10" t="s">
@@ -3968,7 +4226,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>81</v>
       </c>
@@ -3985,10 +4243,10 @@
       <c r="F38" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="32" t="n">
+      <c r="G38" s="31">
+        <v>0</v>
+      </c>
+      <c r="H38" s="32">
         <v>0</v>
       </c>
       <c r="I38" s="10" t="s">
@@ -3998,7 +4256,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>83</v>
       </c>
@@ -4015,10 +4273,10 @@
       <c r="F39" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="32" t="n">
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="32">
         <v>0</v>
       </c>
       <c r="I39" s="10" t="s">
@@ -4028,7 +4286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>85</v>
       </c>
@@ -4045,10 +4303,10 @@
       <c r="F40" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="32" t="n">
+      <c r="G40" s="31">
+        <v>0</v>
+      </c>
+      <c r="H40" s="32">
         <v>0</v>
       </c>
       <c r="I40" s="10" t="s">
@@ -4058,7 +4316,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>87</v>
       </c>
@@ -4075,10 +4333,10 @@
       <c r="F41" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="32" t="n">
+      <c r="G41" s="31">
+        <v>0</v>
+      </c>
+      <c r="H41" s="32">
         <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
@@ -4088,7 +4346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>89</v>
       </c>
@@ -4105,10 +4363,10 @@
       <c r="F42" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="32" t="n">
+      <c r="G42" s="31">
+        <v>0</v>
+      </c>
+      <c r="H42" s="32">
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
@@ -4118,7 +4376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>91</v>
       </c>
@@ -4135,10 +4393,10 @@
       <c r="F43" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="32" t="n">
+      <c r="G43" s="31">
+        <v>0</v>
+      </c>
+      <c r="H43" s="32">
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
@@ -4148,7 +4406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>92</v>
       </c>
@@ -4165,10 +4423,10 @@
       <c r="F44" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="32" t="n">
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
+      <c r="H44" s="32">
         <v>0</v>
       </c>
       <c r="I44" s="10" t="s">
@@ -4178,7 +4436,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="35" t="s">
         <v>94</v>
       </c>
@@ -4197,10 +4455,10 @@
       <c r="F45" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="39" t="n">
+      <c r="G45" s="38">
+        <v>0</v>
+      </c>
+      <c r="H45" s="39">
         <v>1</v>
       </c>
       <c r="I45" s="10"/>
@@ -4208,7 +4466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="41" t="s">
         <v>97</v>
       </c>
@@ -4225,10 +4483,10 @@
       <c r="F46" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="44" t="n">
+      <c r="G46" s="44">
+        <v>0</v>
+      </c>
+      <c r="H46" s="44">
         <v>0</v>
       </c>
       <c r="I46" s="44" t="s">
@@ -4485,7 +4743,7 @@
       <c r="IV46" s="56"/>
       <c r="IW46" s="56"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="46" t="s">
         <v>77</v>
       </c>
@@ -4502,10 +4760,10 @@
       <c r="F47" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="48" t="n">
+      <c r="G47" s="48">
+        <v>0</v>
+      </c>
+      <c r="H47" s="48">
         <v>0</v>
       </c>
       <c r="I47" s="48"/>
@@ -4760,7 +5018,7 @@
       <c r="IV47" s="56"/>
       <c r="IW47" s="56"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46" t="s">
         <v>79</v>
       </c>
@@ -4777,10 +5035,10 @@
       <c r="F48" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="48" t="n">
+      <c r="G48" s="48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="48">
         <v>0</v>
       </c>
       <c r="I48" s="48"/>
@@ -5035,7 +5293,7 @@
       <c r="IV48" s="56"/>
       <c r="IW48" s="56"/>
     </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46" t="s">
         <v>81</v>
       </c>
@@ -5052,10 +5310,10 @@
       <c r="F49" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="48" t="n">
+      <c r="G49" s="48">
+        <v>0</v>
+      </c>
+      <c r="H49" s="48">
         <v>0</v>
       </c>
       <c r="I49" s="48"/>
@@ -5310,7 +5568,7 @@
       <c r="IV49" s="56"/>
       <c r="IW49" s="56"/>
     </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="46" t="s">
         <v>83</v>
       </c>
@@ -5327,10 +5585,10 @@
       <c r="F50" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="48" t="n">
+      <c r="G50" s="48">
+        <v>0</v>
+      </c>
+      <c r="H50" s="48">
         <v>0</v>
       </c>
       <c r="I50" s="48"/>
@@ -5585,7 +5843,7 @@
       <c r="IV50" s="56"/>
       <c r="IW50" s="56"/>
     </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46" t="s">
         <v>101</v>
       </c>
@@ -5602,10 +5860,10 @@
       <c r="F51" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="48" t="n">
+      <c r="G51" s="48">
+        <v>0</v>
+      </c>
+      <c r="H51" s="48">
         <v>0</v>
       </c>
       <c r="I51" s="48"/>
@@ -5860,7 +6118,7 @@
       <c r="IV51" s="56"/>
       <c r="IW51" s="56"/>
     </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="46" t="s">
         <v>102</v>
       </c>
@@ -5877,10 +6135,10 @@
       <c r="F52" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="48" t="n">
+      <c r="G52" s="48">
+        <v>0</v>
+      </c>
+      <c r="H52" s="48">
         <v>0</v>
       </c>
       <c r="I52" s="48"/>
@@ -6135,7 +6393,7 @@
       <c r="IV52" s="56"/>
       <c r="IW52" s="56"/>
     </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="46" t="s">
         <v>104</v>
       </c>
@@ -6152,10 +6410,10 @@
       <c r="F53" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="48" t="n">
+      <c r="G53" s="48">
+        <v>0</v>
+      </c>
+      <c r="H53" s="48">
         <v>0</v>
       </c>
       <c r="I53" s="48"/>
@@ -6410,7 +6668,7 @@
       <c r="IV53" s="56"/>
       <c r="IW53" s="56"/>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="46" t="s">
         <v>106</v>
       </c>
@@ -6427,10 +6685,10 @@
       <c r="F54" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="48" t="n">
+      <c r="G54" s="48">
+        <v>0</v>
+      </c>
+      <c r="H54" s="48">
         <v>0</v>
       </c>
       <c r="I54" s="48"/>
@@ -6685,7 +6943,7 @@
       <c r="IV54" s="56"/>
       <c r="IW54" s="56"/>
     </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="46" t="s">
         <v>108</v>
       </c>
@@ -6702,10 +6960,10 @@
       <c r="F55" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="48" t="n">
+      <c r="G55" s="48">
+        <v>0</v>
+      </c>
+      <c r="H55" s="48">
         <v>0</v>
       </c>
       <c r="I55" s="48"/>
@@ -6960,7 +7218,7 @@
       <c r="IV55" s="56"/>
       <c r="IW55" s="56"/>
     </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="35" t="s">
         <v>22</v>
       </c>
@@ -6979,10 +7237,10 @@
       <c r="F56" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="39" t="n">
+      <c r="G56" s="38">
+        <v>0</v>
+      </c>
+      <c r="H56" s="39">
         <v>1</v>
       </c>
       <c r="I56" s="10" t="s">
@@ -6992,7 +7250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="35" t="s">
         <v>111</v>
       </c>
@@ -7008,10 +7266,10 @@
       <c r="F57" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="39" t="n">
+      <c r="G57" s="38">
+        <v>0</v>
+      </c>
+      <c r="H57" s="39">
         <v>0</v>
       </c>
       <c r="I57" s="10"/>
@@ -7019,7 +7277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="35" t="s">
         <v>117</v>
       </c>
@@ -7035,10 +7293,10 @@
       <c r="F58" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G58" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="39" t="n">
+      <c r="G58" s="38">
+        <v>0</v>
+      </c>
+      <c r="H58" s="39">
         <v>0</v>
       </c>
       <c r="I58" s="10"/>
@@ -7046,7 +7304,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="35" t="s">
         <v>113</v>
       </c>
@@ -7062,10 +7320,10 @@
       <c r="F59" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="39" t="n">
+      <c r="G59" s="38">
+        <v>0</v>
+      </c>
+      <c r="H59" s="39">
         <v>0</v>
       </c>
       <c r="I59" s="10"/>
@@ -7073,7 +7331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
         <v>115</v>
       </c>
@@ -7092,10 +7350,10 @@
       <c r="F60" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G60" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="39" t="n">
+      <c r="G60" s="38">
+        <v>0</v>
+      </c>
+      <c r="H60" s="39">
         <v>1</v>
       </c>
       <c r="I60" s="53"/>
@@ -7103,7 +7361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="37" t="s">
         <v>119</v>
       </c>
@@ -7122,10 +7380,10 @@
       <c r="F61" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="39" t="n">
+      <c r="G61" s="38">
+        <v>0</v>
+      </c>
+      <c r="H61" s="39">
         <v>1</v>
       </c>
       <c r="I61" s="53" t="s">
@@ -7135,7 +7393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="35" t="s">
         <v>120</v>
       </c>
@@ -7154,10 +7412,10 @@
       <c r="F62" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="39" t="n">
+      <c r="G62" s="38">
+        <v>0</v>
+      </c>
+      <c r="H62" s="39">
         <v>0</v>
       </c>
       <c r="I62" s="10" t="s">
@@ -7167,12 +7425,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;Cbrc</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiry/Documents/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4290E9C8-5699-1C47-8FEF-EDAC159C76BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2608C080-6086-044F-AD32-BB91ECB4946E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="141">
   <si>
     <t>name</t>
   </si>
@@ -434,6 +434,21 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>complete_screening_assessment</t>
+  </si>
+  <si>
+    <t>Complete Screening Assessment</t>
+  </si>
+  <si>
+    <t>legal_documents</t>
+  </si>
+  <si>
+    <t>Legal Documentations</t>
+  </si>
+  <si>
+    <t>raname</t>
   </si>
 </sst>
 </file>
@@ -581,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -812,11 +827,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -895,6 +923,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1280,10 +1318,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW62"/>
+  <dimension ref="A1:IW64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1747,7 +1785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -1777,7 +1815,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
         <v>47</v>
       </c>
@@ -1806,15 +1844,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>49</v>
+    <row r="19" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>50</v>
+      <c r="C19" s="17" t="s">
+        <v>139</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>11</v>
@@ -1828,48 +1866,321 @@
       <c r="H19" s="25">
         <v>1</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="IM19" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="IN19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="IO19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="IQ19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="IR19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="IS19" s="25">
+        <v>0</v>
+      </c>
+      <c r="IT19" s="25">
+        <v>1</v>
+      </c>
+      <c r="IU19" s="25"/>
+      <c r="IV19" s="25" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="IW19" s="25"/>
+    </row>
+    <row r="20" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="67">
+        <v>0</v>
+      </c>
+      <c r="H20" s="67">
+        <v>1</v>
+      </c>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
+      <c r="ED20"/>
+      <c r="EE20"/>
+      <c r="EF20"/>
+      <c r="EG20"/>
+      <c r="EH20"/>
+      <c r="EI20"/>
+      <c r="EJ20"/>
+      <c r="EK20"/>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EN20"/>
+      <c r="EO20"/>
+      <c r="EP20"/>
+      <c r="EQ20"/>
+      <c r="ER20"/>
+      <c r="ES20"/>
+      <c r="ET20"/>
+      <c r="EU20"/>
+      <c r="EV20"/>
+      <c r="EW20"/>
+      <c r="EX20"/>
+      <c r="EY20"/>
+      <c r="EZ20"/>
+      <c r="FA20"/>
+      <c r="FB20"/>
+      <c r="FC20"/>
+      <c r="FD20"/>
+      <c r="FE20"/>
+      <c r="FF20"/>
+      <c r="FG20"/>
+      <c r="FH20"/>
+      <c r="FI20"/>
+      <c r="FJ20"/>
+      <c r="FK20"/>
+      <c r="FL20"/>
+      <c r="FM20"/>
+      <c r="FN20"/>
+      <c r="FO20"/>
+      <c r="FP20"/>
+      <c r="FQ20"/>
+      <c r="FR20"/>
+      <c r="FS20"/>
+      <c r="FT20"/>
+      <c r="FU20"/>
+      <c r="FV20"/>
+      <c r="FW20"/>
+      <c r="FX20"/>
+      <c r="FY20"/>
+      <c r="FZ20"/>
+      <c r="GA20"/>
+      <c r="GB20"/>
+      <c r="GC20"/>
+      <c r="GD20"/>
+      <c r="GE20"/>
+      <c r="GF20"/>
+      <c r="GG20"/>
+      <c r="GH20"/>
+      <c r="GI20"/>
+      <c r="GJ20"/>
+      <c r="GK20"/>
+      <c r="GL20"/>
+      <c r="GM20"/>
+      <c r="GN20"/>
+      <c r="GO20"/>
+      <c r="GP20"/>
+      <c r="GQ20"/>
+      <c r="GR20"/>
+      <c r="GS20"/>
+      <c r="GT20"/>
+      <c r="GU20"/>
+      <c r="GV20"/>
+      <c r="GW20"/>
+      <c r="GX20"/>
+      <c r="GY20"/>
+      <c r="GZ20"/>
+      <c r="HA20"/>
+      <c r="HB20"/>
+      <c r="HC20"/>
+      <c r="HD20"/>
+      <c r="HE20"/>
+      <c r="HF20"/>
+      <c r="HG20"/>
+      <c r="HH20"/>
+      <c r="HI20"/>
+      <c r="HJ20"/>
+      <c r="HK20"/>
+      <c r="HL20"/>
+      <c r="HM20"/>
+      <c r="HN20"/>
+      <c r="HO20"/>
+      <c r="HP20"/>
+      <c r="HQ20"/>
+      <c r="HR20"/>
+      <c r="HS20"/>
+      <c r="HT20"/>
+      <c r="HU20"/>
+      <c r="HV20"/>
+      <c r="HW20"/>
+      <c r="HX20"/>
+      <c r="HY20"/>
+      <c r="HZ20"/>
+      <c r="IA20"/>
+      <c r="IB20"/>
+      <c r="IC20"/>
+      <c r="ID20"/>
+      <c r="IE20"/>
+      <c r="IF20"/>
+      <c r="IG20"/>
+      <c r="IH20"/>
+      <c r="II20"/>
+      <c r="IJ20"/>
+      <c r="IK20"/>
+      <c r="IL20"/>
+      <c r="IM20"/>
+      <c r="IN20"/>
+      <c r="IO20"/>
+      <c r="IP20"/>
+      <c r="IQ20"/>
+      <c r="IR20"/>
+      <c r="IS20"/>
+      <c r="IT20"/>
+      <c r="IU20"/>
+      <c r="IV20"/>
+      <c r="IW20"/>
+    </row>
+    <row r="21" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="B21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25">
-        <v>1</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>54</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>11</v>
@@ -1885,50 +2196,49 @@
       </c>
       <c r="I21" s="25"/>
       <c r="J21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>1</v>
+      </c>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+    <row r="23" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="B23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="28">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>58</v>
-      </c>
       <c r="E23" s="6" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>13</v>
@@ -1946,44 +2256,44 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="29" t="s">
+    <row r="24" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="31">
-        <v>0</v>
-      </c>
-      <c r="H24" s="32">
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
         <v>0</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="33" t="s">
-        <v>63</v>
+      <c r="C25" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>59</v>
@@ -2004,15 +2314,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="17" t="s">
-        <v>65</v>
+      <c r="C26" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>59</v>
@@ -2033,15 +2343,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>59</v>
@@ -2062,15 +2372,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>69</v>
+      <c r="C28" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>59</v>
@@ -2091,73 +2401,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>58</v>
+    <row r="29" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="28">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
+        <v>59</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="32">
         <v>0</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="29" t="s">
+    <row r="30" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" s="31">
-        <v>0</v>
-      </c>
-      <c r="H30" s="32">
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="28">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="33" t="s">
-        <v>63</v>
+      <c r="C31" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>71</v>
@@ -2178,15 +2488,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>65</v>
+      <c r="C32" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>71</v>
@@ -2207,15 +2517,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="1" customFormat="1" ht="0" hidden="1" x14ac:dyDescent="0">
       <c r="A33" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>71</v>
@@ -2236,16 +2546,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>69</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="6" t="s">
         <v>71</v>
       </c>
@@ -2265,18 +2576,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>11</v>
+      <c r="C35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>13</v>
@@ -2285,25 +2597,26 @@
         <v>0</v>
       </c>
       <c r="H35" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J35" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>80</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="30" t="s">
         <v>11</v>
       </c>
@@ -2323,16 +2636,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="30" t="s">
         <v>11</v>
       </c>
@@ -2352,16 +2666,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>84</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="30" t="s">
         <v>11</v>
       </c>
@@ -2381,16 +2696,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>86</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="30" t="s">
         <v>11</v>
       </c>
@@ -2410,16 +2726,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>88</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="30" t="s">
         <v>11</v>
       </c>
@@ -2439,16 +2756,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="30" t="s">
         <v>11</v>
       </c>
@@ -2468,16 +2786,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>69</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="30" t="s">
         <v>11</v>
       </c>
@@ -2497,16 +2816,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>93</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="30" t="s">
         <v>11</v>
       </c>
@@ -2526,101 +2846,103 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="35" t="s">
+    <row r="44" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
+      <c r="H44" s="32">
+        <v>1</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B45" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C45" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="37" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="F44" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="38">
-        <v>0</v>
-      </c>
-      <c r="H44" s="39">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="40" t="s">
+      <c r="F45" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="38">
+        <v>0</v>
+      </c>
+      <c r="H45" s="39">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10"/>
+      <c r="J45" s="40" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
+    <row r="46" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B46" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C46" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="41" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="44">
-        <v>0</v>
-      </c>
-      <c r="H45" s="44">
-        <v>1</v>
-      </c>
-      <c r="I45" s="44" t="s">
+      <c r="F46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="44">
+        <v>0</v>
+      </c>
+      <c r="H46" s="44">
+        <v>1</v>
+      </c>
+      <c r="I46" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="45" t="s">
+      <c r="J46" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="46" t="s">
+    <row r="47" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="46" t="s">
         <v>77</v>
-      </c>
-      <c r="B46" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="48">
-        <v>0</v>
-      </c>
-      <c r="H46" s="48">
-        <v>1</v>
-      </c>
-      <c r="I46" s="48"/>
-      <c r="J46" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="46" t="s">
-        <v>22</v>
       </c>
       <c r="B47" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D47" s="20"/>
       <c r="E47" s="46" t="s">
@@ -2637,18 +2959,18 @@
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="46" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="46" t="s">
@@ -2665,18 +2987,18 @@
       </c>
       <c r="I48" s="48"/>
       <c r="J48" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="46" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B49" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="46" t="s">
@@ -2693,18 +3015,18 @@
       </c>
       <c r="I49" s="48"/>
       <c r="J49" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="46" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B50" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="46" t="s">
@@ -2724,15 +3046,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="46" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="46" t="s">
@@ -2752,15 +3074,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="46" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B52" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="46" t="s">
@@ -2780,15 +3102,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="46" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="60" t="s">
-        <v>105</v>
+      <c r="C53" s="58" t="s">
+        <v>61</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="46" t="s">
@@ -2808,15 +3130,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B54" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="46" t="s">
@@ -2836,15 +3158,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B55" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="58" t="s">
-        <v>109</v>
+      <c r="C55" s="60" t="s">
+        <v>105</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="46" t="s">
@@ -2864,70 +3186,73 @@
         <v>40</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="35" t="s">
+    <row r="56" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="48">
+        <v>0</v>
+      </c>
+      <c r="H56" s="48">
+        <v>1</v>
+      </c>
+      <c r="I56" s="48"/>
+      <c r="J56" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="48">
+        <v>0</v>
+      </c>
+      <c r="H57" s="48">
+        <v>1</v>
+      </c>
+      <c r="I57" s="48"/>
+      <c r="J57" s="49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F56" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="38">
-        <v>0</v>
-      </c>
-      <c r="H56" s="39">
-        <v>1</v>
-      </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F57" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="38">
-        <v>0</v>
-      </c>
-      <c r="H57" s="39">
-        <v>1</v>
-      </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61" t="s">
-        <v>22</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="52" t="s">
-        <v>23</v>
-      </c>
+      <c r="C58" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="35" t="s">
         <v>110</v>
       </c>
@@ -2940,21 +3265,22 @@
       <c r="H58" s="39">
         <v>1</v>
       </c>
-      <c r="I58" s="53"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>116</v>
-      </c>
+      <c r="C59" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="1"/>
       <c r="E59" s="35" t="s">
         <v>110</v>
       </c>
@@ -2967,21 +3293,22 @@
       <c r="H59" s="39">
         <v>1</v>
       </c>
-      <c r="I59" s="53"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="35" t="s">
-        <v>117</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="61" t="s">
+        <v>22</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="35" t="s">
-        <v>118</v>
-      </c>
+      <c r="C60" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1"/>
       <c r="E60" s="35" t="s">
         <v>110</v>
       </c>
@@ -2994,21 +3321,22 @@
       <c r="H60" s="39">
         <v>1</v>
       </c>
-      <c r="I60" s="10"/>
+      <c r="I60" s="53"/>
       <c r="J60" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="37" t="s">
-        <v>119</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="35" t="s">
+        <v>115</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="20" t="s">
-        <v>25</v>
-      </c>
+      <c r="C61" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="1"/>
       <c r="E61" s="35" t="s">
         <v>110</v>
       </c>
@@ -3019,41 +3347,98 @@
         <v>0</v>
       </c>
       <c r="H61" s="39">
-        <v>0</v>
-      </c>
-      <c r="I61" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="53"/>
+      <c r="J61" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="38">
+        <v>0</v>
+      </c>
+      <c r="H62" s="39">
+        <v>1</v>
+      </c>
+      <c r="I62" s="10"/>
+      <c r="J62" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="38">
+        <v>0</v>
+      </c>
+      <c r="H63" s="39">
+        <v>0</v>
+      </c>
+      <c r="I63" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J61" s="40" t="s">
+      <c r="J63" s="40" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A62" s="35" t="s">
+    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B64" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C64" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="D64" s="1"/>
+      <c r="E64" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F64" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="38">
-        <v>0</v>
-      </c>
-      <c r="H62" s="39">
-        <v>1</v>
-      </c>
-      <c r="I62" s="10" t="s">
+      <c r="G64" s="38">
+        <v>0</v>
+      </c>
+      <c r="H64" s="39">
+        <v>1</v>
+      </c>
+      <c r="I64" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J62" s="54" t="s">
+      <c r="J64" s="54" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3070,7 +3455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiry/Documents/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2608C080-6086-044F-AD32-BB91ECB4946E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA519AC-1B24-4D4B-BD23-B89E07096A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>raname</t>
+  </si>
+  <si>
+    <t>view_screening_assessment</t>
+  </si>
+  <si>
+    <t>View Screening Assessment</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1324,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW64"/>
+  <dimension ref="A1:IW65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2173,42 +2179,289 @@
       <c r="IW20"/>
     </row>
     <row r="21" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="64" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="67">
+        <v>0</v>
+      </c>
+      <c r="H21" s="67">
+        <v>1</v>
+      </c>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+      <c r="AQ21"/>
+      <c r="AR21"/>
+      <c r="AS21"/>
+      <c r="AT21"/>
+      <c r="AU21"/>
+      <c r="AV21"/>
+      <c r="AW21"/>
+      <c r="AX21"/>
+      <c r="AY21"/>
+      <c r="AZ21"/>
+      <c r="BA21"/>
+      <c r="BB21"/>
+      <c r="BC21"/>
+      <c r="BD21"/>
+      <c r="BE21"/>
+      <c r="BF21"/>
+      <c r="BG21"/>
+      <c r="BH21"/>
+      <c r="BI21"/>
+      <c r="BJ21"/>
+      <c r="BK21"/>
+      <c r="BL21"/>
+      <c r="BM21"/>
+      <c r="BN21"/>
+      <c r="BO21"/>
+      <c r="BP21"/>
+      <c r="BQ21"/>
+      <c r="BR21"/>
+      <c r="BS21"/>
+      <c r="BT21"/>
+      <c r="BU21"/>
+      <c r="BV21"/>
+      <c r="BW21"/>
+      <c r="BX21"/>
+      <c r="BY21"/>
+      <c r="BZ21"/>
+      <c r="CA21"/>
+      <c r="CB21"/>
+      <c r="CC21"/>
+      <c r="CD21"/>
+      <c r="CE21"/>
+      <c r="CF21"/>
+      <c r="CG21"/>
+      <c r="CH21"/>
+      <c r="CI21"/>
+      <c r="CJ21"/>
+      <c r="CK21"/>
+      <c r="CL21"/>
+      <c r="CM21"/>
+      <c r="CN21"/>
+      <c r="CO21"/>
+      <c r="CP21"/>
+      <c r="CQ21"/>
+      <c r="CR21"/>
+      <c r="CS21"/>
+      <c r="CT21"/>
+      <c r="CU21"/>
+      <c r="CV21"/>
+      <c r="CW21"/>
+      <c r="CX21"/>
+      <c r="CY21"/>
+      <c r="CZ21"/>
+      <c r="DA21"/>
+      <c r="DB21"/>
+      <c r="DC21"/>
+      <c r="DD21"/>
+      <c r="DE21"/>
+      <c r="DF21"/>
+      <c r="DG21"/>
+      <c r="DH21"/>
+      <c r="DI21"/>
+      <c r="DJ21"/>
+      <c r="DK21"/>
+      <c r="DL21"/>
+      <c r="DM21"/>
+      <c r="DN21"/>
+      <c r="DO21"/>
+      <c r="DP21"/>
+      <c r="DQ21"/>
+      <c r="DR21"/>
+      <c r="DS21"/>
+      <c r="DT21"/>
+      <c r="DU21"/>
+      <c r="DV21"/>
+      <c r="DW21"/>
+      <c r="DX21"/>
+      <c r="DY21"/>
+      <c r="DZ21"/>
+      <c r="EA21"/>
+      <c r="EB21"/>
+      <c r="EC21"/>
+      <c r="ED21"/>
+      <c r="EE21"/>
+      <c r="EF21"/>
+      <c r="EG21"/>
+      <c r="EH21"/>
+      <c r="EI21"/>
+      <c r="EJ21"/>
+      <c r="EK21"/>
+      <c r="EL21"/>
+      <c r="EM21"/>
+      <c r="EN21"/>
+      <c r="EO21"/>
+      <c r="EP21"/>
+      <c r="EQ21"/>
+      <c r="ER21"/>
+      <c r="ES21"/>
+      <c r="ET21"/>
+      <c r="EU21"/>
+      <c r="EV21"/>
+      <c r="EW21"/>
+      <c r="EX21"/>
+      <c r="EY21"/>
+      <c r="EZ21"/>
+      <c r="FA21"/>
+      <c r="FB21"/>
+      <c r="FC21"/>
+      <c r="FD21"/>
+      <c r="FE21"/>
+      <c r="FF21"/>
+      <c r="FG21"/>
+      <c r="FH21"/>
+      <c r="FI21"/>
+      <c r="FJ21"/>
+      <c r="FK21"/>
+      <c r="FL21"/>
+      <c r="FM21"/>
+      <c r="FN21"/>
+      <c r="FO21"/>
+      <c r="FP21"/>
+      <c r="FQ21"/>
+      <c r="FR21"/>
+      <c r="FS21"/>
+      <c r="FT21"/>
+      <c r="FU21"/>
+      <c r="FV21"/>
+      <c r="FW21"/>
+      <c r="FX21"/>
+      <c r="FY21"/>
+      <c r="FZ21"/>
+      <c r="GA21"/>
+      <c r="GB21"/>
+      <c r="GC21"/>
+      <c r="GD21"/>
+      <c r="GE21"/>
+      <c r="GF21"/>
+      <c r="GG21"/>
+      <c r="GH21"/>
+      <c r="GI21"/>
+      <c r="GJ21"/>
+      <c r="GK21"/>
+      <c r="GL21"/>
+      <c r="GM21"/>
+      <c r="GN21"/>
+      <c r="GO21"/>
+      <c r="GP21"/>
+      <c r="GQ21"/>
+      <c r="GR21"/>
+      <c r="GS21"/>
+      <c r="GT21"/>
+      <c r="GU21"/>
+      <c r="GV21"/>
+      <c r="GW21"/>
+      <c r="GX21"/>
+      <c r="GY21"/>
+      <c r="GZ21"/>
+      <c r="HA21"/>
+      <c r="HB21"/>
+      <c r="HC21"/>
+      <c r="HD21"/>
+      <c r="HE21"/>
+      <c r="HF21"/>
+      <c r="HG21"/>
+      <c r="HH21"/>
+      <c r="HI21"/>
+      <c r="HJ21"/>
+      <c r="HK21"/>
+      <c r="HL21"/>
+      <c r="HM21"/>
+      <c r="HN21"/>
+      <c r="HO21"/>
+      <c r="HP21"/>
+      <c r="HQ21"/>
+      <c r="HR21"/>
+      <c r="HS21"/>
+      <c r="HT21"/>
+      <c r="HU21"/>
+      <c r="HV21"/>
+      <c r="HW21"/>
+      <c r="HX21"/>
+      <c r="HY21"/>
+      <c r="HZ21"/>
+      <c r="IA21"/>
+      <c r="IB21"/>
+      <c r="IC21"/>
+      <c r="ID21"/>
+      <c r="IE21"/>
+      <c r="IF21"/>
+      <c r="IG21"/>
+      <c r="IH21"/>
+      <c r="II21"/>
+      <c r="IJ21"/>
+      <c r="IK21"/>
+      <c r="IL21"/>
+      <c r="IM21"/>
+      <c r="IN21"/>
+      <c r="IO21"/>
+      <c r="IP21"/>
+      <c r="IQ21"/>
+      <c r="IR21"/>
+      <c r="IS21"/>
+      <c r="IT21"/>
+      <c r="IU21"/>
+      <c r="IV21"/>
+      <c r="IW21"/>
+    </row>
+    <row r="22" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="25">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25">
-        <v>1</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>53</v>
       </c>
       <c r="B22" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>54</v>
+      <c r="C22" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>11</v>
@@ -2224,50 +2477,49 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1</v>
+      </c>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+    <row r="24" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="28">
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>13</v>
@@ -2285,44 +2537,44 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="29" t="s">
+    <row r="25" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="31">
-        <v>0</v>
-      </c>
-      <c r="H25" s="32">
+      <c r="G25" s="28">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
         <v>0</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B26" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>63</v>
+      <c r="C26" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>59</v>
@@ -2345,13 +2597,13 @@
     </row>
     <row r="27" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>65</v>
+      <c r="C27" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>59</v>
@@ -2374,13 +2626,13 @@
     </row>
     <row r="28" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>59</v>
@@ -2403,13 +2655,13 @@
     </row>
     <row r="29" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>69</v>
+      <c r="C29" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>59</v>
@@ -2430,73 +2682,73 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="6" t="s">
+    <row r="30" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>58</v>
+      <c r="C30" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="28">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="32">
         <v>0</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="29" t="s">
+    <row r="31" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="32">
+      <c r="G31" s="28">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="33" t="s">
-        <v>63</v>
+      <c r="C32" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>71</v>
@@ -2517,15 +2769,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" ht="0" hidden="1" x14ac:dyDescent="0">
+    <row r="33" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>65</v>
+      <c r="C33" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>71</v>
@@ -2546,17 +2798,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" s="1" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>65</v>
+      </c>
       <c r="E34" s="6" t="s">
         <v>71</v>
       </c>
@@ -2576,17 +2827,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="1"/>
+        <v>67</v>
+      </c>
       <c r="E35" s="6" t="s">
         <v>71</v>
       </c>
@@ -2605,20 +2855,266 @@
       <c r="J35" s="32" t="s">
         <v>29</v>
       </c>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+      <c r="AL35"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+      <c r="AO35"/>
+      <c r="AP35"/>
+      <c r="AQ35"/>
+      <c r="AR35"/>
+      <c r="AS35"/>
+      <c r="AT35"/>
+      <c r="AU35"/>
+      <c r="AV35"/>
+      <c r="AW35"/>
+      <c r="AX35"/>
+      <c r="AY35"/>
+      <c r="AZ35"/>
+      <c r="BA35"/>
+      <c r="BB35"/>
+      <c r="BC35"/>
+      <c r="BD35"/>
+      <c r="BE35"/>
+      <c r="BF35"/>
+      <c r="BG35"/>
+      <c r="BH35"/>
+      <c r="BI35"/>
+      <c r="BJ35"/>
+      <c r="BK35"/>
+      <c r="BL35"/>
+      <c r="BM35"/>
+      <c r="BN35"/>
+      <c r="BO35"/>
+      <c r="BP35"/>
+      <c r="BQ35"/>
+      <c r="BR35"/>
+      <c r="BS35"/>
+      <c r="BT35"/>
+      <c r="BU35"/>
+      <c r="BV35"/>
+      <c r="BW35"/>
+      <c r="BX35"/>
+      <c r="BY35"/>
+      <c r="BZ35"/>
+      <c r="CA35"/>
+      <c r="CB35"/>
+      <c r="CC35"/>
+      <c r="CD35"/>
+      <c r="CE35"/>
+      <c r="CF35"/>
+      <c r="CG35"/>
+      <c r="CH35"/>
+      <c r="CI35"/>
+      <c r="CJ35"/>
+      <c r="CK35"/>
+      <c r="CL35"/>
+      <c r="CM35"/>
+      <c r="CN35"/>
+      <c r="CO35"/>
+      <c r="CP35"/>
+      <c r="CQ35"/>
+      <c r="CR35"/>
+      <c r="CS35"/>
+      <c r="CT35"/>
+      <c r="CU35"/>
+      <c r="CV35"/>
+      <c r="CW35"/>
+      <c r="CX35"/>
+      <c r="CY35"/>
+      <c r="CZ35"/>
+      <c r="DA35"/>
+      <c r="DB35"/>
+      <c r="DC35"/>
+      <c r="DD35"/>
+      <c r="DE35"/>
+      <c r="DF35"/>
+      <c r="DG35"/>
+      <c r="DH35"/>
+      <c r="DI35"/>
+      <c r="DJ35"/>
+      <c r="DK35"/>
+      <c r="DL35"/>
+      <c r="DM35"/>
+      <c r="DN35"/>
+      <c r="DO35"/>
+      <c r="DP35"/>
+      <c r="DQ35"/>
+      <c r="DR35"/>
+      <c r="DS35"/>
+      <c r="DT35"/>
+      <c r="DU35"/>
+      <c r="DV35"/>
+      <c r="DW35"/>
+      <c r="DX35"/>
+      <c r="DY35"/>
+      <c r="DZ35"/>
+      <c r="EA35"/>
+      <c r="EB35"/>
+      <c r="EC35"/>
+      <c r="ED35"/>
+      <c r="EE35"/>
+      <c r="EF35"/>
+      <c r="EG35"/>
+      <c r="EH35"/>
+      <c r="EI35"/>
+      <c r="EJ35"/>
+      <c r="EK35"/>
+      <c r="EL35"/>
+      <c r="EM35"/>
+      <c r="EN35"/>
+      <c r="EO35"/>
+      <c r="EP35"/>
+      <c r="EQ35"/>
+      <c r="ER35"/>
+      <c r="ES35"/>
+      <c r="ET35"/>
+      <c r="EU35"/>
+      <c r="EV35"/>
+      <c r="EW35"/>
+      <c r="EX35"/>
+      <c r="EY35"/>
+      <c r="EZ35"/>
+      <c r="FA35"/>
+      <c r="FB35"/>
+      <c r="FC35"/>
+      <c r="FD35"/>
+      <c r="FE35"/>
+      <c r="FF35"/>
+      <c r="FG35"/>
+      <c r="FH35"/>
+      <c r="FI35"/>
+      <c r="FJ35"/>
+      <c r="FK35"/>
+      <c r="FL35"/>
+      <c r="FM35"/>
+      <c r="FN35"/>
+      <c r="FO35"/>
+      <c r="FP35"/>
+      <c r="FQ35"/>
+      <c r="FR35"/>
+      <c r="FS35"/>
+      <c r="FT35"/>
+      <c r="FU35"/>
+      <c r="FV35"/>
+      <c r="FW35"/>
+      <c r="FX35"/>
+      <c r="FY35"/>
+      <c r="FZ35"/>
+      <c r="GA35"/>
+      <c r="GB35"/>
+      <c r="GC35"/>
+      <c r="GD35"/>
+      <c r="GE35"/>
+      <c r="GF35"/>
+      <c r="GG35"/>
+      <c r="GH35"/>
+      <c r="GI35"/>
+      <c r="GJ35"/>
+      <c r="GK35"/>
+      <c r="GL35"/>
+      <c r="GM35"/>
+      <c r="GN35"/>
+      <c r="GO35"/>
+      <c r="GP35"/>
+      <c r="GQ35"/>
+      <c r="GR35"/>
+      <c r="GS35"/>
+      <c r="GT35"/>
+      <c r="GU35"/>
+      <c r="GV35"/>
+      <c r="GW35"/>
+      <c r="GX35"/>
+      <c r="GY35"/>
+      <c r="GZ35"/>
+      <c r="HA35"/>
+      <c r="HB35"/>
+      <c r="HC35"/>
+      <c r="HD35"/>
+      <c r="HE35"/>
+      <c r="HF35"/>
+      <c r="HG35"/>
+      <c r="HH35"/>
+      <c r="HI35"/>
+      <c r="HJ35"/>
+      <c r="HK35"/>
+      <c r="HL35"/>
+      <c r="HM35"/>
+      <c r="HN35"/>
+      <c r="HO35"/>
+      <c r="HP35"/>
+      <c r="HQ35"/>
+      <c r="HR35"/>
+      <c r="HS35"/>
+      <c r="HT35"/>
+      <c r="HU35"/>
+      <c r="HV35"/>
+      <c r="HW35"/>
+      <c r="HX35"/>
+      <c r="HY35"/>
+      <c r="HZ35"/>
+      <c r="IA35"/>
+      <c r="IB35"/>
+      <c r="IC35"/>
+      <c r="ID35"/>
+      <c r="IE35"/>
+      <c r="IF35"/>
+      <c r="IG35"/>
+      <c r="IH35"/>
+      <c r="II35"/>
+      <c r="IJ35"/>
+      <c r="IK35"/>
+      <c r="IL35"/>
+      <c r="IM35"/>
+      <c r="IN35"/>
+      <c r="IO35"/>
+      <c r="IP35"/>
+      <c r="IQ35"/>
+      <c r="IR35"/>
+      <c r="IS35"/>
+      <c r="IT35"/>
+      <c r="IU35"/>
+      <c r="IV35"/>
+      <c r="IW35"/>
     </row>
-    <row r="36" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="30" t="s">
-        <v>11</v>
+      <c r="C36" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>13</v>
@@ -2627,26 +3123,272 @@
         <v>0</v>
       </c>
       <c r="H36" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>28</v>
       </c>
       <c r="J36" s="32" t="s">
-        <v>40</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+      <c r="AL36"/>
+      <c r="AM36"/>
+      <c r="AN36"/>
+      <c r="AO36"/>
+      <c r="AP36"/>
+      <c r="AQ36"/>
+      <c r="AR36"/>
+      <c r="AS36"/>
+      <c r="AT36"/>
+      <c r="AU36"/>
+      <c r="AV36"/>
+      <c r="AW36"/>
+      <c r="AX36"/>
+      <c r="AY36"/>
+      <c r="AZ36"/>
+      <c r="BA36"/>
+      <c r="BB36"/>
+      <c r="BC36"/>
+      <c r="BD36"/>
+      <c r="BE36"/>
+      <c r="BF36"/>
+      <c r="BG36"/>
+      <c r="BH36"/>
+      <c r="BI36"/>
+      <c r="BJ36"/>
+      <c r="BK36"/>
+      <c r="BL36"/>
+      <c r="BM36"/>
+      <c r="BN36"/>
+      <c r="BO36"/>
+      <c r="BP36"/>
+      <c r="BQ36"/>
+      <c r="BR36"/>
+      <c r="BS36"/>
+      <c r="BT36"/>
+      <c r="BU36"/>
+      <c r="BV36"/>
+      <c r="BW36"/>
+      <c r="BX36"/>
+      <c r="BY36"/>
+      <c r="BZ36"/>
+      <c r="CA36"/>
+      <c r="CB36"/>
+      <c r="CC36"/>
+      <c r="CD36"/>
+      <c r="CE36"/>
+      <c r="CF36"/>
+      <c r="CG36"/>
+      <c r="CH36"/>
+      <c r="CI36"/>
+      <c r="CJ36"/>
+      <c r="CK36"/>
+      <c r="CL36"/>
+      <c r="CM36"/>
+      <c r="CN36"/>
+      <c r="CO36"/>
+      <c r="CP36"/>
+      <c r="CQ36"/>
+      <c r="CR36"/>
+      <c r="CS36"/>
+      <c r="CT36"/>
+      <c r="CU36"/>
+      <c r="CV36"/>
+      <c r="CW36"/>
+      <c r="CX36"/>
+      <c r="CY36"/>
+      <c r="CZ36"/>
+      <c r="DA36"/>
+      <c r="DB36"/>
+      <c r="DC36"/>
+      <c r="DD36"/>
+      <c r="DE36"/>
+      <c r="DF36"/>
+      <c r="DG36"/>
+      <c r="DH36"/>
+      <c r="DI36"/>
+      <c r="DJ36"/>
+      <c r="DK36"/>
+      <c r="DL36"/>
+      <c r="DM36"/>
+      <c r="DN36"/>
+      <c r="DO36"/>
+      <c r="DP36"/>
+      <c r="DQ36"/>
+      <c r="DR36"/>
+      <c r="DS36"/>
+      <c r="DT36"/>
+      <c r="DU36"/>
+      <c r="DV36"/>
+      <c r="DW36"/>
+      <c r="DX36"/>
+      <c r="DY36"/>
+      <c r="DZ36"/>
+      <c r="EA36"/>
+      <c r="EB36"/>
+      <c r="EC36"/>
+      <c r="ED36"/>
+      <c r="EE36"/>
+      <c r="EF36"/>
+      <c r="EG36"/>
+      <c r="EH36"/>
+      <c r="EI36"/>
+      <c r="EJ36"/>
+      <c r="EK36"/>
+      <c r="EL36"/>
+      <c r="EM36"/>
+      <c r="EN36"/>
+      <c r="EO36"/>
+      <c r="EP36"/>
+      <c r="EQ36"/>
+      <c r="ER36"/>
+      <c r="ES36"/>
+      <c r="ET36"/>
+      <c r="EU36"/>
+      <c r="EV36"/>
+      <c r="EW36"/>
+      <c r="EX36"/>
+      <c r="EY36"/>
+      <c r="EZ36"/>
+      <c r="FA36"/>
+      <c r="FB36"/>
+      <c r="FC36"/>
+      <c r="FD36"/>
+      <c r="FE36"/>
+      <c r="FF36"/>
+      <c r="FG36"/>
+      <c r="FH36"/>
+      <c r="FI36"/>
+      <c r="FJ36"/>
+      <c r="FK36"/>
+      <c r="FL36"/>
+      <c r="FM36"/>
+      <c r="FN36"/>
+      <c r="FO36"/>
+      <c r="FP36"/>
+      <c r="FQ36"/>
+      <c r="FR36"/>
+      <c r="FS36"/>
+      <c r="FT36"/>
+      <c r="FU36"/>
+      <c r="FV36"/>
+      <c r="FW36"/>
+      <c r="FX36"/>
+      <c r="FY36"/>
+      <c r="FZ36"/>
+      <c r="GA36"/>
+      <c r="GB36"/>
+      <c r="GC36"/>
+      <c r="GD36"/>
+      <c r="GE36"/>
+      <c r="GF36"/>
+      <c r="GG36"/>
+      <c r="GH36"/>
+      <c r="GI36"/>
+      <c r="GJ36"/>
+      <c r="GK36"/>
+      <c r="GL36"/>
+      <c r="GM36"/>
+      <c r="GN36"/>
+      <c r="GO36"/>
+      <c r="GP36"/>
+      <c r="GQ36"/>
+      <c r="GR36"/>
+      <c r="GS36"/>
+      <c r="GT36"/>
+      <c r="GU36"/>
+      <c r="GV36"/>
+      <c r="GW36"/>
+      <c r="GX36"/>
+      <c r="GY36"/>
+      <c r="GZ36"/>
+      <c r="HA36"/>
+      <c r="HB36"/>
+      <c r="HC36"/>
+      <c r="HD36"/>
+      <c r="HE36"/>
+      <c r="HF36"/>
+      <c r="HG36"/>
+      <c r="HH36"/>
+      <c r="HI36"/>
+      <c r="HJ36"/>
+      <c r="HK36"/>
+      <c r="HL36"/>
+      <c r="HM36"/>
+      <c r="HN36"/>
+      <c r="HO36"/>
+      <c r="HP36"/>
+      <c r="HQ36"/>
+      <c r="HR36"/>
+      <c r="HS36"/>
+      <c r="HT36"/>
+      <c r="HU36"/>
+      <c r="HV36"/>
+      <c r="HW36"/>
+      <c r="HX36"/>
+      <c r="HY36"/>
+      <c r="HZ36"/>
+      <c r="IA36"/>
+      <c r="IB36"/>
+      <c r="IC36"/>
+      <c r="ID36"/>
+      <c r="IE36"/>
+      <c r="IF36"/>
+      <c r="IG36"/>
+      <c r="IH36"/>
+      <c r="II36"/>
+      <c r="IJ36"/>
+      <c r="IK36"/>
+      <c r="IL36"/>
+      <c r="IM36"/>
+      <c r="IN36"/>
+      <c r="IO36"/>
+      <c r="IP36"/>
+      <c r="IQ36"/>
+      <c r="IR36"/>
+      <c r="IS36"/>
+      <c r="IT36"/>
+      <c r="IU36"/>
+      <c r="IV36"/>
+      <c r="IW36"/>
     </row>
-    <row r="37" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B37" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>78</v>
+      </c>
       <c r="E37" s="30" t="s">
         <v>11</v>
       </c>
@@ -2665,18 +3407,264 @@
       <c r="J37" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+      <c r="AL37"/>
+      <c r="AM37"/>
+      <c r="AN37"/>
+      <c r="AO37"/>
+      <c r="AP37"/>
+      <c r="AQ37"/>
+      <c r="AR37"/>
+      <c r="AS37"/>
+      <c r="AT37"/>
+      <c r="AU37"/>
+      <c r="AV37"/>
+      <c r="AW37"/>
+      <c r="AX37"/>
+      <c r="AY37"/>
+      <c r="AZ37"/>
+      <c r="BA37"/>
+      <c r="BB37"/>
+      <c r="BC37"/>
+      <c r="BD37"/>
+      <c r="BE37"/>
+      <c r="BF37"/>
+      <c r="BG37"/>
+      <c r="BH37"/>
+      <c r="BI37"/>
+      <c r="BJ37"/>
+      <c r="BK37"/>
+      <c r="BL37"/>
+      <c r="BM37"/>
+      <c r="BN37"/>
+      <c r="BO37"/>
+      <c r="BP37"/>
+      <c r="BQ37"/>
+      <c r="BR37"/>
+      <c r="BS37"/>
+      <c r="BT37"/>
+      <c r="BU37"/>
+      <c r="BV37"/>
+      <c r="BW37"/>
+      <c r="BX37"/>
+      <c r="BY37"/>
+      <c r="BZ37"/>
+      <c r="CA37"/>
+      <c r="CB37"/>
+      <c r="CC37"/>
+      <c r="CD37"/>
+      <c r="CE37"/>
+      <c r="CF37"/>
+      <c r="CG37"/>
+      <c r="CH37"/>
+      <c r="CI37"/>
+      <c r="CJ37"/>
+      <c r="CK37"/>
+      <c r="CL37"/>
+      <c r="CM37"/>
+      <c r="CN37"/>
+      <c r="CO37"/>
+      <c r="CP37"/>
+      <c r="CQ37"/>
+      <c r="CR37"/>
+      <c r="CS37"/>
+      <c r="CT37"/>
+      <c r="CU37"/>
+      <c r="CV37"/>
+      <c r="CW37"/>
+      <c r="CX37"/>
+      <c r="CY37"/>
+      <c r="CZ37"/>
+      <c r="DA37"/>
+      <c r="DB37"/>
+      <c r="DC37"/>
+      <c r="DD37"/>
+      <c r="DE37"/>
+      <c r="DF37"/>
+      <c r="DG37"/>
+      <c r="DH37"/>
+      <c r="DI37"/>
+      <c r="DJ37"/>
+      <c r="DK37"/>
+      <c r="DL37"/>
+      <c r="DM37"/>
+      <c r="DN37"/>
+      <c r="DO37"/>
+      <c r="DP37"/>
+      <c r="DQ37"/>
+      <c r="DR37"/>
+      <c r="DS37"/>
+      <c r="DT37"/>
+      <c r="DU37"/>
+      <c r="DV37"/>
+      <c r="DW37"/>
+      <c r="DX37"/>
+      <c r="DY37"/>
+      <c r="DZ37"/>
+      <c r="EA37"/>
+      <c r="EB37"/>
+      <c r="EC37"/>
+      <c r="ED37"/>
+      <c r="EE37"/>
+      <c r="EF37"/>
+      <c r="EG37"/>
+      <c r="EH37"/>
+      <c r="EI37"/>
+      <c r="EJ37"/>
+      <c r="EK37"/>
+      <c r="EL37"/>
+      <c r="EM37"/>
+      <c r="EN37"/>
+      <c r="EO37"/>
+      <c r="EP37"/>
+      <c r="EQ37"/>
+      <c r="ER37"/>
+      <c r="ES37"/>
+      <c r="ET37"/>
+      <c r="EU37"/>
+      <c r="EV37"/>
+      <c r="EW37"/>
+      <c r="EX37"/>
+      <c r="EY37"/>
+      <c r="EZ37"/>
+      <c r="FA37"/>
+      <c r="FB37"/>
+      <c r="FC37"/>
+      <c r="FD37"/>
+      <c r="FE37"/>
+      <c r="FF37"/>
+      <c r="FG37"/>
+      <c r="FH37"/>
+      <c r="FI37"/>
+      <c r="FJ37"/>
+      <c r="FK37"/>
+      <c r="FL37"/>
+      <c r="FM37"/>
+      <c r="FN37"/>
+      <c r="FO37"/>
+      <c r="FP37"/>
+      <c r="FQ37"/>
+      <c r="FR37"/>
+      <c r="FS37"/>
+      <c r="FT37"/>
+      <c r="FU37"/>
+      <c r="FV37"/>
+      <c r="FW37"/>
+      <c r="FX37"/>
+      <c r="FY37"/>
+      <c r="FZ37"/>
+      <c r="GA37"/>
+      <c r="GB37"/>
+      <c r="GC37"/>
+      <c r="GD37"/>
+      <c r="GE37"/>
+      <c r="GF37"/>
+      <c r="GG37"/>
+      <c r="GH37"/>
+      <c r="GI37"/>
+      <c r="GJ37"/>
+      <c r="GK37"/>
+      <c r="GL37"/>
+      <c r="GM37"/>
+      <c r="GN37"/>
+      <c r="GO37"/>
+      <c r="GP37"/>
+      <c r="GQ37"/>
+      <c r="GR37"/>
+      <c r="GS37"/>
+      <c r="GT37"/>
+      <c r="GU37"/>
+      <c r="GV37"/>
+      <c r="GW37"/>
+      <c r="GX37"/>
+      <c r="GY37"/>
+      <c r="GZ37"/>
+      <c r="HA37"/>
+      <c r="HB37"/>
+      <c r="HC37"/>
+      <c r="HD37"/>
+      <c r="HE37"/>
+      <c r="HF37"/>
+      <c r="HG37"/>
+      <c r="HH37"/>
+      <c r="HI37"/>
+      <c r="HJ37"/>
+      <c r="HK37"/>
+      <c r="HL37"/>
+      <c r="HM37"/>
+      <c r="HN37"/>
+      <c r="HO37"/>
+      <c r="HP37"/>
+      <c r="HQ37"/>
+      <c r="HR37"/>
+      <c r="HS37"/>
+      <c r="HT37"/>
+      <c r="HU37"/>
+      <c r="HV37"/>
+      <c r="HW37"/>
+      <c r="HX37"/>
+      <c r="HY37"/>
+      <c r="HZ37"/>
+      <c r="IA37"/>
+      <c r="IB37"/>
+      <c r="IC37"/>
+      <c r="ID37"/>
+      <c r="IE37"/>
+      <c r="IF37"/>
+      <c r="IG37"/>
+      <c r="IH37"/>
+      <c r="II37"/>
+      <c r="IJ37"/>
+      <c r="IK37"/>
+      <c r="IL37"/>
+      <c r="IM37"/>
+      <c r="IN37"/>
+      <c r="IO37"/>
+      <c r="IP37"/>
+      <c r="IQ37"/>
+      <c r="IR37"/>
+      <c r="IS37"/>
+      <c r="IT37"/>
+      <c r="IU37"/>
+      <c r="IV37"/>
+      <c r="IW37"/>
     </row>
-    <row r="38" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B38" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>80</v>
+      </c>
       <c r="E38" s="30" t="s">
         <v>11</v>
       </c>
@@ -2695,18 +3683,264 @@
       <c r="J38" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+      <c r="AL38"/>
+      <c r="AM38"/>
+      <c r="AN38"/>
+      <c r="AO38"/>
+      <c r="AP38"/>
+      <c r="AQ38"/>
+      <c r="AR38"/>
+      <c r="AS38"/>
+      <c r="AT38"/>
+      <c r="AU38"/>
+      <c r="AV38"/>
+      <c r="AW38"/>
+      <c r="AX38"/>
+      <c r="AY38"/>
+      <c r="AZ38"/>
+      <c r="BA38"/>
+      <c r="BB38"/>
+      <c r="BC38"/>
+      <c r="BD38"/>
+      <c r="BE38"/>
+      <c r="BF38"/>
+      <c r="BG38"/>
+      <c r="BH38"/>
+      <c r="BI38"/>
+      <c r="BJ38"/>
+      <c r="BK38"/>
+      <c r="BL38"/>
+      <c r="BM38"/>
+      <c r="BN38"/>
+      <c r="BO38"/>
+      <c r="BP38"/>
+      <c r="BQ38"/>
+      <c r="BR38"/>
+      <c r="BS38"/>
+      <c r="BT38"/>
+      <c r="BU38"/>
+      <c r="BV38"/>
+      <c r="BW38"/>
+      <c r="BX38"/>
+      <c r="BY38"/>
+      <c r="BZ38"/>
+      <c r="CA38"/>
+      <c r="CB38"/>
+      <c r="CC38"/>
+      <c r="CD38"/>
+      <c r="CE38"/>
+      <c r="CF38"/>
+      <c r="CG38"/>
+      <c r="CH38"/>
+      <c r="CI38"/>
+      <c r="CJ38"/>
+      <c r="CK38"/>
+      <c r="CL38"/>
+      <c r="CM38"/>
+      <c r="CN38"/>
+      <c r="CO38"/>
+      <c r="CP38"/>
+      <c r="CQ38"/>
+      <c r="CR38"/>
+      <c r="CS38"/>
+      <c r="CT38"/>
+      <c r="CU38"/>
+      <c r="CV38"/>
+      <c r="CW38"/>
+      <c r="CX38"/>
+      <c r="CY38"/>
+      <c r="CZ38"/>
+      <c r="DA38"/>
+      <c r="DB38"/>
+      <c r="DC38"/>
+      <c r="DD38"/>
+      <c r="DE38"/>
+      <c r="DF38"/>
+      <c r="DG38"/>
+      <c r="DH38"/>
+      <c r="DI38"/>
+      <c r="DJ38"/>
+      <c r="DK38"/>
+      <c r="DL38"/>
+      <c r="DM38"/>
+      <c r="DN38"/>
+      <c r="DO38"/>
+      <c r="DP38"/>
+      <c r="DQ38"/>
+      <c r="DR38"/>
+      <c r="DS38"/>
+      <c r="DT38"/>
+      <c r="DU38"/>
+      <c r="DV38"/>
+      <c r="DW38"/>
+      <c r="DX38"/>
+      <c r="DY38"/>
+      <c r="DZ38"/>
+      <c r="EA38"/>
+      <c r="EB38"/>
+      <c r="EC38"/>
+      <c r="ED38"/>
+      <c r="EE38"/>
+      <c r="EF38"/>
+      <c r="EG38"/>
+      <c r="EH38"/>
+      <c r="EI38"/>
+      <c r="EJ38"/>
+      <c r="EK38"/>
+      <c r="EL38"/>
+      <c r="EM38"/>
+      <c r="EN38"/>
+      <c r="EO38"/>
+      <c r="EP38"/>
+      <c r="EQ38"/>
+      <c r="ER38"/>
+      <c r="ES38"/>
+      <c r="ET38"/>
+      <c r="EU38"/>
+      <c r="EV38"/>
+      <c r="EW38"/>
+      <c r="EX38"/>
+      <c r="EY38"/>
+      <c r="EZ38"/>
+      <c r="FA38"/>
+      <c r="FB38"/>
+      <c r="FC38"/>
+      <c r="FD38"/>
+      <c r="FE38"/>
+      <c r="FF38"/>
+      <c r="FG38"/>
+      <c r="FH38"/>
+      <c r="FI38"/>
+      <c r="FJ38"/>
+      <c r="FK38"/>
+      <c r="FL38"/>
+      <c r="FM38"/>
+      <c r="FN38"/>
+      <c r="FO38"/>
+      <c r="FP38"/>
+      <c r="FQ38"/>
+      <c r="FR38"/>
+      <c r="FS38"/>
+      <c r="FT38"/>
+      <c r="FU38"/>
+      <c r="FV38"/>
+      <c r="FW38"/>
+      <c r="FX38"/>
+      <c r="FY38"/>
+      <c r="FZ38"/>
+      <c r="GA38"/>
+      <c r="GB38"/>
+      <c r="GC38"/>
+      <c r="GD38"/>
+      <c r="GE38"/>
+      <c r="GF38"/>
+      <c r="GG38"/>
+      <c r="GH38"/>
+      <c r="GI38"/>
+      <c r="GJ38"/>
+      <c r="GK38"/>
+      <c r="GL38"/>
+      <c r="GM38"/>
+      <c r="GN38"/>
+      <c r="GO38"/>
+      <c r="GP38"/>
+      <c r="GQ38"/>
+      <c r="GR38"/>
+      <c r="GS38"/>
+      <c r="GT38"/>
+      <c r="GU38"/>
+      <c r="GV38"/>
+      <c r="GW38"/>
+      <c r="GX38"/>
+      <c r="GY38"/>
+      <c r="GZ38"/>
+      <c r="HA38"/>
+      <c r="HB38"/>
+      <c r="HC38"/>
+      <c r="HD38"/>
+      <c r="HE38"/>
+      <c r="HF38"/>
+      <c r="HG38"/>
+      <c r="HH38"/>
+      <c r="HI38"/>
+      <c r="HJ38"/>
+      <c r="HK38"/>
+      <c r="HL38"/>
+      <c r="HM38"/>
+      <c r="HN38"/>
+      <c r="HO38"/>
+      <c r="HP38"/>
+      <c r="HQ38"/>
+      <c r="HR38"/>
+      <c r="HS38"/>
+      <c r="HT38"/>
+      <c r="HU38"/>
+      <c r="HV38"/>
+      <c r="HW38"/>
+      <c r="HX38"/>
+      <c r="HY38"/>
+      <c r="HZ38"/>
+      <c r="IA38"/>
+      <c r="IB38"/>
+      <c r="IC38"/>
+      <c r="ID38"/>
+      <c r="IE38"/>
+      <c r="IF38"/>
+      <c r="IG38"/>
+      <c r="IH38"/>
+      <c r="II38"/>
+      <c r="IJ38"/>
+      <c r="IK38"/>
+      <c r="IL38"/>
+      <c r="IM38"/>
+      <c r="IN38"/>
+      <c r="IO38"/>
+      <c r="IP38"/>
+      <c r="IQ38"/>
+      <c r="IR38"/>
+      <c r="IS38"/>
+      <c r="IT38"/>
+      <c r="IU38"/>
+      <c r="IV38"/>
+      <c r="IW38"/>
     </row>
-    <row r="39" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>82</v>
+      </c>
       <c r="E39" s="30" t="s">
         <v>11</v>
       </c>
@@ -2725,18 +3959,264 @@
       <c r="J39" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+      <c r="AL39"/>
+      <c r="AM39"/>
+      <c r="AN39"/>
+      <c r="AO39"/>
+      <c r="AP39"/>
+      <c r="AQ39"/>
+      <c r="AR39"/>
+      <c r="AS39"/>
+      <c r="AT39"/>
+      <c r="AU39"/>
+      <c r="AV39"/>
+      <c r="AW39"/>
+      <c r="AX39"/>
+      <c r="AY39"/>
+      <c r="AZ39"/>
+      <c r="BA39"/>
+      <c r="BB39"/>
+      <c r="BC39"/>
+      <c r="BD39"/>
+      <c r="BE39"/>
+      <c r="BF39"/>
+      <c r="BG39"/>
+      <c r="BH39"/>
+      <c r="BI39"/>
+      <c r="BJ39"/>
+      <c r="BK39"/>
+      <c r="BL39"/>
+      <c r="BM39"/>
+      <c r="BN39"/>
+      <c r="BO39"/>
+      <c r="BP39"/>
+      <c r="BQ39"/>
+      <c r="BR39"/>
+      <c r="BS39"/>
+      <c r="BT39"/>
+      <c r="BU39"/>
+      <c r="BV39"/>
+      <c r="BW39"/>
+      <c r="BX39"/>
+      <c r="BY39"/>
+      <c r="BZ39"/>
+      <c r="CA39"/>
+      <c r="CB39"/>
+      <c r="CC39"/>
+      <c r="CD39"/>
+      <c r="CE39"/>
+      <c r="CF39"/>
+      <c r="CG39"/>
+      <c r="CH39"/>
+      <c r="CI39"/>
+      <c r="CJ39"/>
+      <c r="CK39"/>
+      <c r="CL39"/>
+      <c r="CM39"/>
+      <c r="CN39"/>
+      <c r="CO39"/>
+      <c r="CP39"/>
+      <c r="CQ39"/>
+      <c r="CR39"/>
+      <c r="CS39"/>
+      <c r="CT39"/>
+      <c r="CU39"/>
+      <c r="CV39"/>
+      <c r="CW39"/>
+      <c r="CX39"/>
+      <c r="CY39"/>
+      <c r="CZ39"/>
+      <c r="DA39"/>
+      <c r="DB39"/>
+      <c r="DC39"/>
+      <c r="DD39"/>
+      <c r="DE39"/>
+      <c r="DF39"/>
+      <c r="DG39"/>
+      <c r="DH39"/>
+      <c r="DI39"/>
+      <c r="DJ39"/>
+      <c r="DK39"/>
+      <c r="DL39"/>
+      <c r="DM39"/>
+      <c r="DN39"/>
+      <c r="DO39"/>
+      <c r="DP39"/>
+      <c r="DQ39"/>
+      <c r="DR39"/>
+      <c r="DS39"/>
+      <c r="DT39"/>
+      <c r="DU39"/>
+      <c r="DV39"/>
+      <c r="DW39"/>
+      <c r="DX39"/>
+      <c r="DY39"/>
+      <c r="DZ39"/>
+      <c r="EA39"/>
+      <c r="EB39"/>
+      <c r="EC39"/>
+      <c r="ED39"/>
+      <c r="EE39"/>
+      <c r="EF39"/>
+      <c r="EG39"/>
+      <c r="EH39"/>
+      <c r="EI39"/>
+      <c r="EJ39"/>
+      <c r="EK39"/>
+      <c r="EL39"/>
+      <c r="EM39"/>
+      <c r="EN39"/>
+      <c r="EO39"/>
+      <c r="EP39"/>
+      <c r="EQ39"/>
+      <c r="ER39"/>
+      <c r="ES39"/>
+      <c r="ET39"/>
+      <c r="EU39"/>
+      <c r="EV39"/>
+      <c r="EW39"/>
+      <c r="EX39"/>
+      <c r="EY39"/>
+      <c r="EZ39"/>
+      <c r="FA39"/>
+      <c r="FB39"/>
+      <c r="FC39"/>
+      <c r="FD39"/>
+      <c r="FE39"/>
+      <c r="FF39"/>
+      <c r="FG39"/>
+      <c r="FH39"/>
+      <c r="FI39"/>
+      <c r="FJ39"/>
+      <c r="FK39"/>
+      <c r="FL39"/>
+      <c r="FM39"/>
+      <c r="FN39"/>
+      <c r="FO39"/>
+      <c r="FP39"/>
+      <c r="FQ39"/>
+      <c r="FR39"/>
+      <c r="FS39"/>
+      <c r="FT39"/>
+      <c r="FU39"/>
+      <c r="FV39"/>
+      <c r="FW39"/>
+      <c r="FX39"/>
+      <c r="FY39"/>
+      <c r="FZ39"/>
+      <c r="GA39"/>
+      <c r="GB39"/>
+      <c r="GC39"/>
+      <c r="GD39"/>
+      <c r="GE39"/>
+      <c r="GF39"/>
+      <c r="GG39"/>
+      <c r="GH39"/>
+      <c r="GI39"/>
+      <c r="GJ39"/>
+      <c r="GK39"/>
+      <c r="GL39"/>
+      <c r="GM39"/>
+      <c r="GN39"/>
+      <c r="GO39"/>
+      <c r="GP39"/>
+      <c r="GQ39"/>
+      <c r="GR39"/>
+      <c r="GS39"/>
+      <c r="GT39"/>
+      <c r="GU39"/>
+      <c r="GV39"/>
+      <c r="GW39"/>
+      <c r="GX39"/>
+      <c r="GY39"/>
+      <c r="GZ39"/>
+      <c r="HA39"/>
+      <c r="HB39"/>
+      <c r="HC39"/>
+      <c r="HD39"/>
+      <c r="HE39"/>
+      <c r="HF39"/>
+      <c r="HG39"/>
+      <c r="HH39"/>
+      <c r="HI39"/>
+      <c r="HJ39"/>
+      <c r="HK39"/>
+      <c r="HL39"/>
+      <c r="HM39"/>
+      <c r="HN39"/>
+      <c r="HO39"/>
+      <c r="HP39"/>
+      <c r="HQ39"/>
+      <c r="HR39"/>
+      <c r="HS39"/>
+      <c r="HT39"/>
+      <c r="HU39"/>
+      <c r="HV39"/>
+      <c r="HW39"/>
+      <c r="HX39"/>
+      <c r="HY39"/>
+      <c r="HZ39"/>
+      <c r="IA39"/>
+      <c r="IB39"/>
+      <c r="IC39"/>
+      <c r="ID39"/>
+      <c r="IE39"/>
+      <c r="IF39"/>
+      <c r="IG39"/>
+      <c r="IH39"/>
+      <c r="II39"/>
+      <c r="IJ39"/>
+      <c r="IK39"/>
+      <c r="IL39"/>
+      <c r="IM39"/>
+      <c r="IN39"/>
+      <c r="IO39"/>
+      <c r="IP39"/>
+      <c r="IQ39"/>
+      <c r="IR39"/>
+      <c r="IS39"/>
+      <c r="IT39"/>
+      <c r="IU39"/>
+      <c r="IV39"/>
+      <c r="IW39"/>
     </row>
-    <row r="40" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B40" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="1"/>
+        <v>84</v>
+      </c>
       <c r="E40" s="30" t="s">
         <v>11</v>
       </c>
@@ -2755,18 +4235,264 @@
       <c r="J40" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+      <c r="AL40"/>
+      <c r="AM40"/>
+      <c r="AN40"/>
+      <c r="AO40"/>
+      <c r="AP40"/>
+      <c r="AQ40"/>
+      <c r="AR40"/>
+      <c r="AS40"/>
+      <c r="AT40"/>
+      <c r="AU40"/>
+      <c r="AV40"/>
+      <c r="AW40"/>
+      <c r="AX40"/>
+      <c r="AY40"/>
+      <c r="AZ40"/>
+      <c r="BA40"/>
+      <c r="BB40"/>
+      <c r="BC40"/>
+      <c r="BD40"/>
+      <c r="BE40"/>
+      <c r="BF40"/>
+      <c r="BG40"/>
+      <c r="BH40"/>
+      <c r="BI40"/>
+      <c r="BJ40"/>
+      <c r="BK40"/>
+      <c r="BL40"/>
+      <c r="BM40"/>
+      <c r="BN40"/>
+      <c r="BO40"/>
+      <c r="BP40"/>
+      <c r="BQ40"/>
+      <c r="BR40"/>
+      <c r="BS40"/>
+      <c r="BT40"/>
+      <c r="BU40"/>
+      <c r="BV40"/>
+      <c r="BW40"/>
+      <c r="BX40"/>
+      <c r="BY40"/>
+      <c r="BZ40"/>
+      <c r="CA40"/>
+      <c r="CB40"/>
+      <c r="CC40"/>
+      <c r="CD40"/>
+      <c r="CE40"/>
+      <c r="CF40"/>
+      <c r="CG40"/>
+      <c r="CH40"/>
+      <c r="CI40"/>
+      <c r="CJ40"/>
+      <c r="CK40"/>
+      <c r="CL40"/>
+      <c r="CM40"/>
+      <c r="CN40"/>
+      <c r="CO40"/>
+      <c r="CP40"/>
+      <c r="CQ40"/>
+      <c r="CR40"/>
+      <c r="CS40"/>
+      <c r="CT40"/>
+      <c r="CU40"/>
+      <c r="CV40"/>
+      <c r="CW40"/>
+      <c r="CX40"/>
+      <c r="CY40"/>
+      <c r="CZ40"/>
+      <c r="DA40"/>
+      <c r="DB40"/>
+      <c r="DC40"/>
+      <c r="DD40"/>
+      <c r="DE40"/>
+      <c r="DF40"/>
+      <c r="DG40"/>
+      <c r="DH40"/>
+      <c r="DI40"/>
+      <c r="DJ40"/>
+      <c r="DK40"/>
+      <c r="DL40"/>
+      <c r="DM40"/>
+      <c r="DN40"/>
+      <c r="DO40"/>
+      <c r="DP40"/>
+      <c r="DQ40"/>
+      <c r="DR40"/>
+      <c r="DS40"/>
+      <c r="DT40"/>
+      <c r="DU40"/>
+      <c r="DV40"/>
+      <c r="DW40"/>
+      <c r="DX40"/>
+      <c r="DY40"/>
+      <c r="DZ40"/>
+      <c r="EA40"/>
+      <c r="EB40"/>
+      <c r="EC40"/>
+      <c r="ED40"/>
+      <c r="EE40"/>
+      <c r="EF40"/>
+      <c r="EG40"/>
+      <c r="EH40"/>
+      <c r="EI40"/>
+      <c r="EJ40"/>
+      <c r="EK40"/>
+      <c r="EL40"/>
+      <c r="EM40"/>
+      <c r="EN40"/>
+      <c r="EO40"/>
+      <c r="EP40"/>
+      <c r="EQ40"/>
+      <c r="ER40"/>
+      <c r="ES40"/>
+      <c r="ET40"/>
+      <c r="EU40"/>
+      <c r="EV40"/>
+      <c r="EW40"/>
+      <c r="EX40"/>
+      <c r="EY40"/>
+      <c r="EZ40"/>
+      <c r="FA40"/>
+      <c r="FB40"/>
+      <c r="FC40"/>
+      <c r="FD40"/>
+      <c r="FE40"/>
+      <c r="FF40"/>
+      <c r="FG40"/>
+      <c r="FH40"/>
+      <c r="FI40"/>
+      <c r="FJ40"/>
+      <c r="FK40"/>
+      <c r="FL40"/>
+      <c r="FM40"/>
+      <c r="FN40"/>
+      <c r="FO40"/>
+      <c r="FP40"/>
+      <c r="FQ40"/>
+      <c r="FR40"/>
+      <c r="FS40"/>
+      <c r="FT40"/>
+      <c r="FU40"/>
+      <c r="FV40"/>
+      <c r="FW40"/>
+      <c r="FX40"/>
+      <c r="FY40"/>
+      <c r="FZ40"/>
+      <c r="GA40"/>
+      <c r="GB40"/>
+      <c r="GC40"/>
+      <c r="GD40"/>
+      <c r="GE40"/>
+      <c r="GF40"/>
+      <c r="GG40"/>
+      <c r="GH40"/>
+      <c r="GI40"/>
+      <c r="GJ40"/>
+      <c r="GK40"/>
+      <c r="GL40"/>
+      <c r="GM40"/>
+      <c r="GN40"/>
+      <c r="GO40"/>
+      <c r="GP40"/>
+      <c r="GQ40"/>
+      <c r="GR40"/>
+      <c r="GS40"/>
+      <c r="GT40"/>
+      <c r="GU40"/>
+      <c r="GV40"/>
+      <c r="GW40"/>
+      <c r="GX40"/>
+      <c r="GY40"/>
+      <c r="GZ40"/>
+      <c r="HA40"/>
+      <c r="HB40"/>
+      <c r="HC40"/>
+      <c r="HD40"/>
+      <c r="HE40"/>
+      <c r="HF40"/>
+      <c r="HG40"/>
+      <c r="HH40"/>
+      <c r="HI40"/>
+      <c r="HJ40"/>
+      <c r="HK40"/>
+      <c r="HL40"/>
+      <c r="HM40"/>
+      <c r="HN40"/>
+      <c r="HO40"/>
+      <c r="HP40"/>
+      <c r="HQ40"/>
+      <c r="HR40"/>
+      <c r="HS40"/>
+      <c r="HT40"/>
+      <c r="HU40"/>
+      <c r="HV40"/>
+      <c r="HW40"/>
+      <c r="HX40"/>
+      <c r="HY40"/>
+      <c r="HZ40"/>
+      <c r="IA40"/>
+      <c r="IB40"/>
+      <c r="IC40"/>
+      <c r="ID40"/>
+      <c r="IE40"/>
+      <c r="IF40"/>
+      <c r="IG40"/>
+      <c r="IH40"/>
+      <c r="II40"/>
+      <c r="IJ40"/>
+      <c r="IK40"/>
+      <c r="IL40"/>
+      <c r="IM40"/>
+      <c r="IN40"/>
+      <c r="IO40"/>
+      <c r="IP40"/>
+      <c r="IQ40"/>
+      <c r="IR40"/>
+      <c r="IS40"/>
+      <c r="IT40"/>
+      <c r="IU40"/>
+      <c r="IV40"/>
+      <c r="IW40"/>
     </row>
-    <row r="41" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="1"/>
+        <v>86</v>
+      </c>
       <c r="E41" s="30" t="s">
         <v>11</v>
       </c>
@@ -2785,18 +4511,264 @@
       <c r="J41" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+      <c r="AL41"/>
+      <c r="AM41"/>
+      <c r="AN41"/>
+      <c r="AO41"/>
+      <c r="AP41"/>
+      <c r="AQ41"/>
+      <c r="AR41"/>
+      <c r="AS41"/>
+      <c r="AT41"/>
+      <c r="AU41"/>
+      <c r="AV41"/>
+      <c r="AW41"/>
+      <c r="AX41"/>
+      <c r="AY41"/>
+      <c r="AZ41"/>
+      <c r="BA41"/>
+      <c r="BB41"/>
+      <c r="BC41"/>
+      <c r="BD41"/>
+      <c r="BE41"/>
+      <c r="BF41"/>
+      <c r="BG41"/>
+      <c r="BH41"/>
+      <c r="BI41"/>
+      <c r="BJ41"/>
+      <c r="BK41"/>
+      <c r="BL41"/>
+      <c r="BM41"/>
+      <c r="BN41"/>
+      <c r="BO41"/>
+      <c r="BP41"/>
+      <c r="BQ41"/>
+      <c r="BR41"/>
+      <c r="BS41"/>
+      <c r="BT41"/>
+      <c r="BU41"/>
+      <c r="BV41"/>
+      <c r="BW41"/>
+      <c r="BX41"/>
+      <c r="BY41"/>
+      <c r="BZ41"/>
+      <c r="CA41"/>
+      <c r="CB41"/>
+      <c r="CC41"/>
+      <c r="CD41"/>
+      <c r="CE41"/>
+      <c r="CF41"/>
+      <c r="CG41"/>
+      <c r="CH41"/>
+      <c r="CI41"/>
+      <c r="CJ41"/>
+      <c r="CK41"/>
+      <c r="CL41"/>
+      <c r="CM41"/>
+      <c r="CN41"/>
+      <c r="CO41"/>
+      <c r="CP41"/>
+      <c r="CQ41"/>
+      <c r="CR41"/>
+      <c r="CS41"/>
+      <c r="CT41"/>
+      <c r="CU41"/>
+      <c r="CV41"/>
+      <c r="CW41"/>
+      <c r="CX41"/>
+      <c r="CY41"/>
+      <c r="CZ41"/>
+      <c r="DA41"/>
+      <c r="DB41"/>
+      <c r="DC41"/>
+      <c r="DD41"/>
+      <c r="DE41"/>
+      <c r="DF41"/>
+      <c r="DG41"/>
+      <c r="DH41"/>
+      <c r="DI41"/>
+      <c r="DJ41"/>
+      <c r="DK41"/>
+      <c r="DL41"/>
+      <c r="DM41"/>
+      <c r="DN41"/>
+      <c r="DO41"/>
+      <c r="DP41"/>
+      <c r="DQ41"/>
+      <c r="DR41"/>
+      <c r="DS41"/>
+      <c r="DT41"/>
+      <c r="DU41"/>
+      <c r="DV41"/>
+      <c r="DW41"/>
+      <c r="DX41"/>
+      <c r="DY41"/>
+      <c r="DZ41"/>
+      <c r="EA41"/>
+      <c r="EB41"/>
+      <c r="EC41"/>
+      <c r="ED41"/>
+      <c r="EE41"/>
+      <c r="EF41"/>
+      <c r="EG41"/>
+      <c r="EH41"/>
+      <c r="EI41"/>
+      <c r="EJ41"/>
+      <c r="EK41"/>
+      <c r="EL41"/>
+      <c r="EM41"/>
+      <c r="EN41"/>
+      <c r="EO41"/>
+      <c r="EP41"/>
+      <c r="EQ41"/>
+      <c r="ER41"/>
+      <c r="ES41"/>
+      <c r="ET41"/>
+      <c r="EU41"/>
+      <c r="EV41"/>
+      <c r="EW41"/>
+      <c r="EX41"/>
+      <c r="EY41"/>
+      <c r="EZ41"/>
+      <c r="FA41"/>
+      <c r="FB41"/>
+      <c r="FC41"/>
+      <c r="FD41"/>
+      <c r="FE41"/>
+      <c r="FF41"/>
+      <c r="FG41"/>
+      <c r="FH41"/>
+      <c r="FI41"/>
+      <c r="FJ41"/>
+      <c r="FK41"/>
+      <c r="FL41"/>
+      <c r="FM41"/>
+      <c r="FN41"/>
+      <c r="FO41"/>
+      <c r="FP41"/>
+      <c r="FQ41"/>
+      <c r="FR41"/>
+      <c r="FS41"/>
+      <c r="FT41"/>
+      <c r="FU41"/>
+      <c r="FV41"/>
+      <c r="FW41"/>
+      <c r="FX41"/>
+      <c r="FY41"/>
+      <c r="FZ41"/>
+      <c r="GA41"/>
+      <c r="GB41"/>
+      <c r="GC41"/>
+      <c r="GD41"/>
+      <c r="GE41"/>
+      <c r="GF41"/>
+      <c r="GG41"/>
+      <c r="GH41"/>
+      <c r="GI41"/>
+      <c r="GJ41"/>
+      <c r="GK41"/>
+      <c r="GL41"/>
+      <c r="GM41"/>
+      <c r="GN41"/>
+      <c r="GO41"/>
+      <c r="GP41"/>
+      <c r="GQ41"/>
+      <c r="GR41"/>
+      <c r="GS41"/>
+      <c r="GT41"/>
+      <c r="GU41"/>
+      <c r="GV41"/>
+      <c r="GW41"/>
+      <c r="GX41"/>
+      <c r="GY41"/>
+      <c r="GZ41"/>
+      <c r="HA41"/>
+      <c r="HB41"/>
+      <c r="HC41"/>
+      <c r="HD41"/>
+      <c r="HE41"/>
+      <c r="HF41"/>
+      <c r="HG41"/>
+      <c r="HH41"/>
+      <c r="HI41"/>
+      <c r="HJ41"/>
+      <c r="HK41"/>
+      <c r="HL41"/>
+      <c r="HM41"/>
+      <c r="HN41"/>
+      <c r="HO41"/>
+      <c r="HP41"/>
+      <c r="HQ41"/>
+      <c r="HR41"/>
+      <c r="HS41"/>
+      <c r="HT41"/>
+      <c r="HU41"/>
+      <c r="HV41"/>
+      <c r="HW41"/>
+      <c r="HX41"/>
+      <c r="HY41"/>
+      <c r="HZ41"/>
+      <c r="IA41"/>
+      <c r="IB41"/>
+      <c r="IC41"/>
+      <c r="ID41"/>
+      <c r="IE41"/>
+      <c r="IF41"/>
+      <c r="IG41"/>
+      <c r="IH41"/>
+      <c r="II41"/>
+      <c r="IJ41"/>
+      <c r="IK41"/>
+      <c r="IL41"/>
+      <c r="IM41"/>
+      <c r="IN41"/>
+      <c r="IO41"/>
+      <c r="IP41"/>
+      <c r="IQ41"/>
+      <c r="IR41"/>
+      <c r="IS41"/>
+      <c r="IT41"/>
+      <c r="IU41"/>
+      <c r="IV41"/>
+      <c r="IW41"/>
     </row>
-    <row r="42" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="1"/>
+        <v>88</v>
+      </c>
       <c r="E42" s="30" t="s">
         <v>11</v>
       </c>
@@ -2815,18 +4787,264 @@
       <c r="J42" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+      <c r="Y42"/>
+      <c r="Z42"/>
+      <c r="AA42"/>
+      <c r="AB42"/>
+      <c r="AC42"/>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+      <c r="AL42"/>
+      <c r="AM42"/>
+      <c r="AN42"/>
+      <c r="AO42"/>
+      <c r="AP42"/>
+      <c r="AQ42"/>
+      <c r="AR42"/>
+      <c r="AS42"/>
+      <c r="AT42"/>
+      <c r="AU42"/>
+      <c r="AV42"/>
+      <c r="AW42"/>
+      <c r="AX42"/>
+      <c r="AY42"/>
+      <c r="AZ42"/>
+      <c r="BA42"/>
+      <c r="BB42"/>
+      <c r="BC42"/>
+      <c r="BD42"/>
+      <c r="BE42"/>
+      <c r="BF42"/>
+      <c r="BG42"/>
+      <c r="BH42"/>
+      <c r="BI42"/>
+      <c r="BJ42"/>
+      <c r="BK42"/>
+      <c r="BL42"/>
+      <c r="BM42"/>
+      <c r="BN42"/>
+      <c r="BO42"/>
+      <c r="BP42"/>
+      <c r="BQ42"/>
+      <c r="BR42"/>
+      <c r="BS42"/>
+      <c r="BT42"/>
+      <c r="BU42"/>
+      <c r="BV42"/>
+      <c r="BW42"/>
+      <c r="BX42"/>
+      <c r="BY42"/>
+      <c r="BZ42"/>
+      <c r="CA42"/>
+      <c r="CB42"/>
+      <c r="CC42"/>
+      <c r="CD42"/>
+      <c r="CE42"/>
+      <c r="CF42"/>
+      <c r="CG42"/>
+      <c r="CH42"/>
+      <c r="CI42"/>
+      <c r="CJ42"/>
+      <c r="CK42"/>
+      <c r="CL42"/>
+      <c r="CM42"/>
+      <c r="CN42"/>
+      <c r="CO42"/>
+      <c r="CP42"/>
+      <c r="CQ42"/>
+      <c r="CR42"/>
+      <c r="CS42"/>
+      <c r="CT42"/>
+      <c r="CU42"/>
+      <c r="CV42"/>
+      <c r="CW42"/>
+      <c r="CX42"/>
+      <c r="CY42"/>
+      <c r="CZ42"/>
+      <c r="DA42"/>
+      <c r="DB42"/>
+      <c r="DC42"/>
+      <c r="DD42"/>
+      <c r="DE42"/>
+      <c r="DF42"/>
+      <c r="DG42"/>
+      <c r="DH42"/>
+      <c r="DI42"/>
+      <c r="DJ42"/>
+      <c r="DK42"/>
+      <c r="DL42"/>
+      <c r="DM42"/>
+      <c r="DN42"/>
+      <c r="DO42"/>
+      <c r="DP42"/>
+      <c r="DQ42"/>
+      <c r="DR42"/>
+      <c r="DS42"/>
+      <c r="DT42"/>
+      <c r="DU42"/>
+      <c r="DV42"/>
+      <c r="DW42"/>
+      <c r="DX42"/>
+      <c r="DY42"/>
+      <c r="DZ42"/>
+      <c r="EA42"/>
+      <c r="EB42"/>
+      <c r="EC42"/>
+      <c r="ED42"/>
+      <c r="EE42"/>
+      <c r="EF42"/>
+      <c r="EG42"/>
+      <c r="EH42"/>
+      <c r="EI42"/>
+      <c r="EJ42"/>
+      <c r="EK42"/>
+      <c r="EL42"/>
+      <c r="EM42"/>
+      <c r="EN42"/>
+      <c r="EO42"/>
+      <c r="EP42"/>
+      <c r="EQ42"/>
+      <c r="ER42"/>
+      <c r="ES42"/>
+      <c r="ET42"/>
+      <c r="EU42"/>
+      <c r="EV42"/>
+      <c r="EW42"/>
+      <c r="EX42"/>
+      <c r="EY42"/>
+      <c r="EZ42"/>
+      <c r="FA42"/>
+      <c r="FB42"/>
+      <c r="FC42"/>
+      <c r="FD42"/>
+      <c r="FE42"/>
+      <c r="FF42"/>
+      <c r="FG42"/>
+      <c r="FH42"/>
+      <c r="FI42"/>
+      <c r="FJ42"/>
+      <c r="FK42"/>
+      <c r="FL42"/>
+      <c r="FM42"/>
+      <c r="FN42"/>
+      <c r="FO42"/>
+      <c r="FP42"/>
+      <c r="FQ42"/>
+      <c r="FR42"/>
+      <c r="FS42"/>
+      <c r="FT42"/>
+      <c r="FU42"/>
+      <c r="FV42"/>
+      <c r="FW42"/>
+      <c r="FX42"/>
+      <c r="FY42"/>
+      <c r="FZ42"/>
+      <c r="GA42"/>
+      <c r="GB42"/>
+      <c r="GC42"/>
+      <c r="GD42"/>
+      <c r="GE42"/>
+      <c r="GF42"/>
+      <c r="GG42"/>
+      <c r="GH42"/>
+      <c r="GI42"/>
+      <c r="GJ42"/>
+      <c r="GK42"/>
+      <c r="GL42"/>
+      <c r="GM42"/>
+      <c r="GN42"/>
+      <c r="GO42"/>
+      <c r="GP42"/>
+      <c r="GQ42"/>
+      <c r="GR42"/>
+      <c r="GS42"/>
+      <c r="GT42"/>
+      <c r="GU42"/>
+      <c r="GV42"/>
+      <c r="GW42"/>
+      <c r="GX42"/>
+      <c r="GY42"/>
+      <c r="GZ42"/>
+      <c r="HA42"/>
+      <c r="HB42"/>
+      <c r="HC42"/>
+      <c r="HD42"/>
+      <c r="HE42"/>
+      <c r="HF42"/>
+      <c r="HG42"/>
+      <c r="HH42"/>
+      <c r="HI42"/>
+      <c r="HJ42"/>
+      <c r="HK42"/>
+      <c r="HL42"/>
+      <c r="HM42"/>
+      <c r="HN42"/>
+      <c r="HO42"/>
+      <c r="HP42"/>
+      <c r="HQ42"/>
+      <c r="HR42"/>
+      <c r="HS42"/>
+      <c r="HT42"/>
+      <c r="HU42"/>
+      <c r="HV42"/>
+      <c r="HW42"/>
+      <c r="HX42"/>
+      <c r="HY42"/>
+      <c r="HZ42"/>
+      <c r="IA42"/>
+      <c r="IB42"/>
+      <c r="IC42"/>
+      <c r="ID42"/>
+      <c r="IE42"/>
+      <c r="IF42"/>
+      <c r="IG42"/>
+      <c r="IH42"/>
+      <c r="II42"/>
+      <c r="IJ42"/>
+      <c r="IK42"/>
+      <c r="IL42"/>
+      <c r="IM42"/>
+      <c r="IN42"/>
+      <c r="IO42"/>
+      <c r="IP42"/>
+      <c r="IQ42"/>
+      <c r="IR42"/>
+      <c r="IS42"/>
+      <c r="IT42"/>
+      <c r="IU42"/>
+      <c r="IV42"/>
+      <c r="IW42"/>
     </row>
-    <row r="43" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="1"/>
+        <v>90</v>
+      </c>
       <c r="E43" s="30" t="s">
         <v>11</v>
       </c>
@@ -2845,18 +5063,264 @@
       <c r="J43" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+      <c r="AQ43"/>
+      <c r="AR43"/>
+      <c r="AS43"/>
+      <c r="AT43"/>
+      <c r="AU43"/>
+      <c r="AV43"/>
+      <c r="AW43"/>
+      <c r="AX43"/>
+      <c r="AY43"/>
+      <c r="AZ43"/>
+      <c r="BA43"/>
+      <c r="BB43"/>
+      <c r="BC43"/>
+      <c r="BD43"/>
+      <c r="BE43"/>
+      <c r="BF43"/>
+      <c r="BG43"/>
+      <c r="BH43"/>
+      <c r="BI43"/>
+      <c r="BJ43"/>
+      <c r="BK43"/>
+      <c r="BL43"/>
+      <c r="BM43"/>
+      <c r="BN43"/>
+      <c r="BO43"/>
+      <c r="BP43"/>
+      <c r="BQ43"/>
+      <c r="BR43"/>
+      <c r="BS43"/>
+      <c r="BT43"/>
+      <c r="BU43"/>
+      <c r="BV43"/>
+      <c r="BW43"/>
+      <c r="BX43"/>
+      <c r="BY43"/>
+      <c r="BZ43"/>
+      <c r="CA43"/>
+      <c r="CB43"/>
+      <c r="CC43"/>
+      <c r="CD43"/>
+      <c r="CE43"/>
+      <c r="CF43"/>
+      <c r="CG43"/>
+      <c r="CH43"/>
+      <c r="CI43"/>
+      <c r="CJ43"/>
+      <c r="CK43"/>
+      <c r="CL43"/>
+      <c r="CM43"/>
+      <c r="CN43"/>
+      <c r="CO43"/>
+      <c r="CP43"/>
+      <c r="CQ43"/>
+      <c r="CR43"/>
+      <c r="CS43"/>
+      <c r="CT43"/>
+      <c r="CU43"/>
+      <c r="CV43"/>
+      <c r="CW43"/>
+      <c r="CX43"/>
+      <c r="CY43"/>
+      <c r="CZ43"/>
+      <c r="DA43"/>
+      <c r="DB43"/>
+      <c r="DC43"/>
+      <c r="DD43"/>
+      <c r="DE43"/>
+      <c r="DF43"/>
+      <c r="DG43"/>
+      <c r="DH43"/>
+      <c r="DI43"/>
+      <c r="DJ43"/>
+      <c r="DK43"/>
+      <c r="DL43"/>
+      <c r="DM43"/>
+      <c r="DN43"/>
+      <c r="DO43"/>
+      <c r="DP43"/>
+      <c r="DQ43"/>
+      <c r="DR43"/>
+      <c r="DS43"/>
+      <c r="DT43"/>
+      <c r="DU43"/>
+      <c r="DV43"/>
+      <c r="DW43"/>
+      <c r="DX43"/>
+      <c r="DY43"/>
+      <c r="DZ43"/>
+      <c r="EA43"/>
+      <c r="EB43"/>
+      <c r="EC43"/>
+      <c r="ED43"/>
+      <c r="EE43"/>
+      <c r="EF43"/>
+      <c r="EG43"/>
+      <c r="EH43"/>
+      <c r="EI43"/>
+      <c r="EJ43"/>
+      <c r="EK43"/>
+      <c r="EL43"/>
+      <c r="EM43"/>
+      <c r="EN43"/>
+      <c r="EO43"/>
+      <c r="EP43"/>
+      <c r="EQ43"/>
+      <c r="ER43"/>
+      <c r="ES43"/>
+      <c r="ET43"/>
+      <c r="EU43"/>
+      <c r="EV43"/>
+      <c r="EW43"/>
+      <c r="EX43"/>
+      <c r="EY43"/>
+      <c r="EZ43"/>
+      <c r="FA43"/>
+      <c r="FB43"/>
+      <c r="FC43"/>
+      <c r="FD43"/>
+      <c r="FE43"/>
+      <c r="FF43"/>
+      <c r="FG43"/>
+      <c r="FH43"/>
+      <c r="FI43"/>
+      <c r="FJ43"/>
+      <c r="FK43"/>
+      <c r="FL43"/>
+      <c r="FM43"/>
+      <c r="FN43"/>
+      <c r="FO43"/>
+      <c r="FP43"/>
+      <c r="FQ43"/>
+      <c r="FR43"/>
+      <c r="FS43"/>
+      <c r="FT43"/>
+      <c r="FU43"/>
+      <c r="FV43"/>
+      <c r="FW43"/>
+      <c r="FX43"/>
+      <c r="FY43"/>
+      <c r="FZ43"/>
+      <c r="GA43"/>
+      <c r="GB43"/>
+      <c r="GC43"/>
+      <c r="GD43"/>
+      <c r="GE43"/>
+      <c r="GF43"/>
+      <c r="GG43"/>
+      <c r="GH43"/>
+      <c r="GI43"/>
+      <c r="GJ43"/>
+      <c r="GK43"/>
+      <c r="GL43"/>
+      <c r="GM43"/>
+      <c r="GN43"/>
+      <c r="GO43"/>
+      <c r="GP43"/>
+      <c r="GQ43"/>
+      <c r="GR43"/>
+      <c r="GS43"/>
+      <c r="GT43"/>
+      <c r="GU43"/>
+      <c r="GV43"/>
+      <c r="GW43"/>
+      <c r="GX43"/>
+      <c r="GY43"/>
+      <c r="GZ43"/>
+      <c r="HA43"/>
+      <c r="HB43"/>
+      <c r="HC43"/>
+      <c r="HD43"/>
+      <c r="HE43"/>
+      <c r="HF43"/>
+      <c r="HG43"/>
+      <c r="HH43"/>
+      <c r="HI43"/>
+      <c r="HJ43"/>
+      <c r="HK43"/>
+      <c r="HL43"/>
+      <c r="HM43"/>
+      <c r="HN43"/>
+      <c r="HO43"/>
+      <c r="HP43"/>
+      <c r="HQ43"/>
+      <c r="HR43"/>
+      <c r="HS43"/>
+      <c r="HT43"/>
+      <c r="HU43"/>
+      <c r="HV43"/>
+      <c r="HW43"/>
+      <c r="HX43"/>
+      <c r="HY43"/>
+      <c r="HZ43"/>
+      <c r="IA43"/>
+      <c r="IB43"/>
+      <c r="IC43"/>
+      <c r="ID43"/>
+      <c r="IE43"/>
+      <c r="IF43"/>
+      <c r="IG43"/>
+      <c r="IH43"/>
+      <c r="II43"/>
+      <c r="IJ43"/>
+      <c r="IK43"/>
+      <c r="IL43"/>
+      <c r="IM43"/>
+      <c r="IN43"/>
+      <c r="IO43"/>
+      <c r="IP43"/>
+      <c r="IQ43"/>
+      <c r="IR43"/>
+      <c r="IS43"/>
+      <c r="IT43"/>
+      <c r="IU43"/>
+      <c r="IV43"/>
+      <c r="IW43"/>
     </row>
-    <row r="44" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="1"/>
+        <v>69</v>
+      </c>
       <c r="E44" s="30" t="s">
         <v>11</v>
       </c>
@@ -2875,102 +5339,1091 @@
       <c r="J44" s="32" t="s">
         <v>40</v>
       </c>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+      <c r="AP44"/>
+      <c r="AQ44"/>
+      <c r="AR44"/>
+      <c r="AS44"/>
+      <c r="AT44"/>
+      <c r="AU44"/>
+      <c r="AV44"/>
+      <c r="AW44"/>
+      <c r="AX44"/>
+      <c r="AY44"/>
+      <c r="AZ44"/>
+      <c r="BA44"/>
+      <c r="BB44"/>
+      <c r="BC44"/>
+      <c r="BD44"/>
+      <c r="BE44"/>
+      <c r="BF44"/>
+      <c r="BG44"/>
+      <c r="BH44"/>
+      <c r="BI44"/>
+      <c r="BJ44"/>
+      <c r="BK44"/>
+      <c r="BL44"/>
+      <c r="BM44"/>
+      <c r="BN44"/>
+      <c r="BO44"/>
+      <c r="BP44"/>
+      <c r="BQ44"/>
+      <c r="BR44"/>
+      <c r="BS44"/>
+      <c r="BT44"/>
+      <c r="BU44"/>
+      <c r="BV44"/>
+      <c r="BW44"/>
+      <c r="BX44"/>
+      <c r="BY44"/>
+      <c r="BZ44"/>
+      <c r="CA44"/>
+      <c r="CB44"/>
+      <c r="CC44"/>
+      <c r="CD44"/>
+      <c r="CE44"/>
+      <c r="CF44"/>
+      <c r="CG44"/>
+      <c r="CH44"/>
+      <c r="CI44"/>
+      <c r="CJ44"/>
+      <c r="CK44"/>
+      <c r="CL44"/>
+      <c r="CM44"/>
+      <c r="CN44"/>
+      <c r="CO44"/>
+      <c r="CP44"/>
+      <c r="CQ44"/>
+      <c r="CR44"/>
+      <c r="CS44"/>
+      <c r="CT44"/>
+      <c r="CU44"/>
+      <c r="CV44"/>
+      <c r="CW44"/>
+      <c r="CX44"/>
+      <c r="CY44"/>
+      <c r="CZ44"/>
+      <c r="DA44"/>
+      <c r="DB44"/>
+      <c r="DC44"/>
+      <c r="DD44"/>
+      <c r="DE44"/>
+      <c r="DF44"/>
+      <c r="DG44"/>
+      <c r="DH44"/>
+      <c r="DI44"/>
+      <c r="DJ44"/>
+      <c r="DK44"/>
+      <c r="DL44"/>
+      <c r="DM44"/>
+      <c r="DN44"/>
+      <c r="DO44"/>
+      <c r="DP44"/>
+      <c r="DQ44"/>
+      <c r="DR44"/>
+      <c r="DS44"/>
+      <c r="DT44"/>
+      <c r="DU44"/>
+      <c r="DV44"/>
+      <c r="DW44"/>
+      <c r="DX44"/>
+      <c r="DY44"/>
+      <c r="DZ44"/>
+      <c r="EA44"/>
+      <c r="EB44"/>
+      <c r="EC44"/>
+      <c r="ED44"/>
+      <c r="EE44"/>
+      <c r="EF44"/>
+      <c r="EG44"/>
+      <c r="EH44"/>
+      <c r="EI44"/>
+      <c r="EJ44"/>
+      <c r="EK44"/>
+      <c r="EL44"/>
+      <c r="EM44"/>
+      <c r="EN44"/>
+      <c r="EO44"/>
+      <c r="EP44"/>
+      <c r="EQ44"/>
+      <c r="ER44"/>
+      <c r="ES44"/>
+      <c r="ET44"/>
+      <c r="EU44"/>
+      <c r="EV44"/>
+      <c r="EW44"/>
+      <c r="EX44"/>
+      <c r="EY44"/>
+      <c r="EZ44"/>
+      <c r="FA44"/>
+      <c r="FB44"/>
+      <c r="FC44"/>
+      <c r="FD44"/>
+      <c r="FE44"/>
+      <c r="FF44"/>
+      <c r="FG44"/>
+      <c r="FH44"/>
+      <c r="FI44"/>
+      <c r="FJ44"/>
+      <c r="FK44"/>
+      <c r="FL44"/>
+      <c r="FM44"/>
+      <c r="FN44"/>
+      <c r="FO44"/>
+      <c r="FP44"/>
+      <c r="FQ44"/>
+      <c r="FR44"/>
+      <c r="FS44"/>
+      <c r="FT44"/>
+      <c r="FU44"/>
+      <c r="FV44"/>
+      <c r="FW44"/>
+      <c r="FX44"/>
+      <c r="FY44"/>
+      <c r="FZ44"/>
+      <c r="GA44"/>
+      <c r="GB44"/>
+      <c r="GC44"/>
+      <c r="GD44"/>
+      <c r="GE44"/>
+      <c r="GF44"/>
+      <c r="GG44"/>
+      <c r="GH44"/>
+      <c r="GI44"/>
+      <c r="GJ44"/>
+      <c r="GK44"/>
+      <c r="GL44"/>
+      <c r="GM44"/>
+      <c r="GN44"/>
+      <c r="GO44"/>
+      <c r="GP44"/>
+      <c r="GQ44"/>
+      <c r="GR44"/>
+      <c r="GS44"/>
+      <c r="GT44"/>
+      <c r="GU44"/>
+      <c r="GV44"/>
+      <c r="GW44"/>
+      <c r="GX44"/>
+      <c r="GY44"/>
+      <c r="GZ44"/>
+      <c r="HA44"/>
+      <c r="HB44"/>
+      <c r="HC44"/>
+      <c r="HD44"/>
+      <c r="HE44"/>
+      <c r="HF44"/>
+      <c r="HG44"/>
+      <c r="HH44"/>
+      <c r="HI44"/>
+      <c r="HJ44"/>
+      <c r="HK44"/>
+      <c r="HL44"/>
+      <c r="HM44"/>
+      <c r="HN44"/>
+      <c r="HO44"/>
+      <c r="HP44"/>
+      <c r="HQ44"/>
+      <c r="HR44"/>
+      <c r="HS44"/>
+      <c r="HT44"/>
+      <c r="HU44"/>
+      <c r="HV44"/>
+      <c r="HW44"/>
+      <c r="HX44"/>
+      <c r="HY44"/>
+      <c r="HZ44"/>
+      <c r="IA44"/>
+      <c r="IB44"/>
+      <c r="IC44"/>
+      <c r="ID44"/>
+      <c r="IE44"/>
+      <c r="IF44"/>
+      <c r="IG44"/>
+      <c r="IH44"/>
+      <c r="II44"/>
+      <c r="IJ44"/>
+      <c r="IK44"/>
+      <c r="IL44"/>
+      <c r="IM44"/>
+      <c r="IN44"/>
+      <c r="IO44"/>
+      <c r="IP44"/>
+      <c r="IQ44"/>
+      <c r="IR44"/>
+      <c r="IS44"/>
+      <c r="IT44"/>
+      <c r="IU44"/>
+      <c r="IV44"/>
+      <c r="IW44"/>
     </row>
-    <row r="45" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="35" t="s">
+    <row r="45" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="31">
+        <v>0</v>
+      </c>
+      <c r="H45" s="32">
+        <v>1</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+      <c r="AQ45"/>
+      <c r="AR45"/>
+      <c r="AS45"/>
+      <c r="AT45"/>
+      <c r="AU45"/>
+      <c r="AV45"/>
+      <c r="AW45"/>
+      <c r="AX45"/>
+      <c r="AY45"/>
+      <c r="AZ45"/>
+      <c r="BA45"/>
+      <c r="BB45"/>
+      <c r="BC45"/>
+      <c r="BD45"/>
+      <c r="BE45"/>
+      <c r="BF45"/>
+      <c r="BG45"/>
+      <c r="BH45"/>
+      <c r="BI45"/>
+      <c r="BJ45"/>
+      <c r="BK45"/>
+      <c r="BL45"/>
+      <c r="BM45"/>
+      <c r="BN45"/>
+      <c r="BO45"/>
+      <c r="BP45"/>
+      <c r="BQ45"/>
+      <c r="BR45"/>
+      <c r="BS45"/>
+      <c r="BT45"/>
+      <c r="BU45"/>
+      <c r="BV45"/>
+      <c r="BW45"/>
+      <c r="BX45"/>
+      <c r="BY45"/>
+      <c r="BZ45"/>
+      <c r="CA45"/>
+      <c r="CB45"/>
+      <c r="CC45"/>
+      <c r="CD45"/>
+      <c r="CE45"/>
+      <c r="CF45"/>
+      <c r="CG45"/>
+      <c r="CH45"/>
+      <c r="CI45"/>
+      <c r="CJ45"/>
+      <c r="CK45"/>
+      <c r="CL45"/>
+      <c r="CM45"/>
+      <c r="CN45"/>
+      <c r="CO45"/>
+      <c r="CP45"/>
+      <c r="CQ45"/>
+      <c r="CR45"/>
+      <c r="CS45"/>
+      <c r="CT45"/>
+      <c r="CU45"/>
+      <c r="CV45"/>
+      <c r="CW45"/>
+      <c r="CX45"/>
+      <c r="CY45"/>
+      <c r="CZ45"/>
+      <c r="DA45"/>
+      <c r="DB45"/>
+      <c r="DC45"/>
+      <c r="DD45"/>
+      <c r="DE45"/>
+      <c r="DF45"/>
+      <c r="DG45"/>
+      <c r="DH45"/>
+      <c r="DI45"/>
+      <c r="DJ45"/>
+      <c r="DK45"/>
+      <c r="DL45"/>
+      <c r="DM45"/>
+      <c r="DN45"/>
+      <c r="DO45"/>
+      <c r="DP45"/>
+      <c r="DQ45"/>
+      <c r="DR45"/>
+      <c r="DS45"/>
+      <c r="DT45"/>
+      <c r="DU45"/>
+      <c r="DV45"/>
+      <c r="DW45"/>
+      <c r="DX45"/>
+      <c r="DY45"/>
+      <c r="DZ45"/>
+      <c r="EA45"/>
+      <c r="EB45"/>
+      <c r="EC45"/>
+      <c r="ED45"/>
+      <c r="EE45"/>
+      <c r="EF45"/>
+      <c r="EG45"/>
+      <c r="EH45"/>
+      <c r="EI45"/>
+      <c r="EJ45"/>
+      <c r="EK45"/>
+      <c r="EL45"/>
+      <c r="EM45"/>
+      <c r="EN45"/>
+      <c r="EO45"/>
+      <c r="EP45"/>
+      <c r="EQ45"/>
+      <c r="ER45"/>
+      <c r="ES45"/>
+      <c r="ET45"/>
+      <c r="EU45"/>
+      <c r="EV45"/>
+      <c r="EW45"/>
+      <c r="EX45"/>
+      <c r="EY45"/>
+      <c r="EZ45"/>
+      <c r="FA45"/>
+      <c r="FB45"/>
+      <c r="FC45"/>
+      <c r="FD45"/>
+      <c r="FE45"/>
+      <c r="FF45"/>
+      <c r="FG45"/>
+      <c r="FH45"/>
+      <c r="FI45"/>
+      <c r="FJ45"/>
+      <c r="FK45"/>
+      <c r="FL45"/>
+      <c r="FM45"/>
+      <c r="FN45"/>
+      <c r="FO45"/>
+      <c r="FP45"/>
+      <c r="FQ45"/>
+      <c r="FR45"/>
+      <c r="FS45"/>
+      <c r="FT45"/>
+      <c r="FU45"/>
+      <c r="FV45"/>
+      <c r="FW45"/>
+      <c r="FX45"/>
+      <c r="FY45"/>
+      <c r="FZ45"/>
+      <c r="GA45"/>
+      <c r="GB45"/>
+      <c r="GC45"/>
+      <c r="GD45"/>
+      <c r="GE45"/>
+      <c r="GF45"/>
+      <c r="GG45"/>
+      <c r="GH45"/>
+      <c r="GI45"/>
+      <c r="GJ45"/>
+      <c r="GK45"/>
+      <c r="GL45"/>
+      <c r="GM45"/>
+      <c r="GN45"/>
+      <c r="GO45"/>
+      <c r="GP45"/>
+      <c r="GQ45"/>
+      <c r="GR45"/>
+      <c r="GS45"/>
+      <c r="GT45"/>
+      <c r="GU45"/>
+      <c r="GV45"/>
+      <c r="GW45"/>
+      <c r="GX45"/>
+      <c r="GY45"/>
+      <c r="GZ45"/>
+      <c r="HA45"/>
+      <c r="HB45"/>
+      <c r="HC45"/>
+      <c r="HD45"/>
+      <c r="HE45"/>
+      <c r="HF45"/>
+      <c r="HG45"/>
+      <c r="HH45"/>
+      <c r="HI45"/>
+      <c r="HJ45"/>
+      <c r="HK45"/>
+      <c r="HL45"/>
+      <c r="HM45"/>
+      <c r="HN45"/>
+      <c r="HO45"/>
+      <c r="HP45"/>
+      <c r="HQ45"/>
+      <c r="HR45"/>
+      <c r="HS45"/>
+      <c r="HT45"/>
+      <c r="HU45"/>
+      <c r="HV45"/>
+      <c r="HW45"/>
+      <c r="HX45"/>
+      <c r="HY45"/>
+      <c r="HZ45"/>
+      <c r="IA45"/>
+      <c r="IB45"/>
+      <c r="IC45"/>
+      <c r="ID45"/>
+      <c r="IE45"/>
+      <c r="IF45"/>
+      <c r="IG45"/>
+      <c r="IH45"/>
+      <c r="II45"/>
+      <c r="IJ45"/>
+      <c r="IK45"/>
+      <c r="IL45"/>
+      <c r="IM45"/>
+      <c r="IN45"/>
+      <c r="IO45"/>
+      <c r="IP45"/>
+      <c r="IQ45"/>
+      <c r="IR45"/>
+      <c r="IS45"/>
+      <c r="IT45"/>
+      <c r="IU45"/>
+      <c r="IV45"/>
+      <c r="IW45"/>
+    </row>
+    <row r="46" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B46" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C46" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="37" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F46" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="38">
-        <v>0</v>
-      </c>
-      <c r="H45" s="39">
-        <v>0</v>
-      </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="40" t="s">
+      <c r="G46" s="38">
+        <v>0</v>
+      </c>
+      <c r="H46" s="39">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="40" t="s">
         <v>15</v>
       </c>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+      <c r="AQ46"/>
+      <c r="AR46"/>
+      <c r="AS46"/>
+      <c r="AT46"/>
+      <c r="AU46"/>
+      <c r="AV46"/>
+      <c r="AW46"/>
+      <c r="AX46"/>
+      <c r="AY46"/>
+      <c r="AZ46"/>
+      <c r="BA46"/>
+      <c r="BB46"/>
+      <c r="BC46"/>
+      <c r="BD46"/>
+      <c r="BE46"/>
+      <c r="BF46"/>
+      <c r="BG46"/>
+      <c r="BH46"/>
+      <c r="BI46"/>
+      <c r="BJ46"/>
+      <c r="BK46"/>
+      <c r="BL46"/>
+      <c r="BM46"/>
+      <c r="BN46"/>
+      <c r="BO46"/>
+      <c r="BP46"/>
+      <c r="BQ46"/>
+      <c r="BR46"/>
+      <c r="BS46"/>
+      <c r="BT46"/>
+      <c r="BU46"/>
+      <c r="BV46"/>
+      <c r="BW46"/>
+      <c r="BX46"/>
+      <c r="BY46"/>
+      <c r="BZ46"/>
+      <c r="CA46"/>
+      <c r="CB46"/>
+      <c r="CC46"/>
+      <c r="CD46"/>
+      <c r="CE46"/>
+      <c r="CF46"/>
+      <c r="CG46"/>
+      <c r="CH46"/>
+      <c r="CI46"/>
+      <c r="CJ46"/>
+      <c r="CK46"/>
+      <c r="CL46"/>
+      <c r="CM46"/>
+      <c r="CN46"/>
+      <c r="CO46"/>
+      <c r="CP46"/>
+      <c r="CQ46"/>
+      <c r="CR46"/>
+      <c r="CS46"/>
+      <c r="CT46"/>
+      <c r="CU46"/>
+      <c r="CV46"/>
+      <c r="CW46"/>
+      <c r="CX46"/>
+      <c r="CY46"/>
+      <c r="CZ46"/>
+      <c r="DA46"/>
+      <c r="DB46"/>
+      <c r="DC46"/>
+      <c r="DD46"/>
+      <c r="DE46"/>
+      <c r="DF46"/>
+      <c r="DG46"/>
+      <c r="DH46"/>
+      <c r="DI46"/>
+      <c r="DJ46"/>
+      <c r="DK46"/>
+      <c r="DL46"/>
+      <c r="DM46"/>
+      <c r="DN46"/>
+      <c r="DO46"/>
+      <c r="DP46"/>
+      <c r="DQ46"/>
+      <c r="DR46"/>
+      <c r="DS46"/>
+      <c r="DT46"/>
+      <c r="DU46"/>
+      <c r="DV46"/>
+      <c r="DW46"/>
+      <c r="DX46"/>
+      <c r="DY46"/>
+      <c r="DZ46"/>
+      <c r="EA46"/>
+      <c r="EB46"/>
+      <c r="EC46"/>
+      <c r="ED46"/>
+      <c r="EE46"/>
+      <c r="EF46"/>
+      <c r="EG46"/>
+      <c r="EH46"/>
+      <c r="EI46"/>
+      <c r="EJ46"/>
+      <c r="EK46"/>
+      <c r="EL46"/>
+      <c r="EM46"/>
+      <c r="EN46"/>
+      <c r="EO46"/>
+      <c r="EP46"/>
+      <c r="EQ46"/>
+      <c r="ER46"/>
+      <c r="ES46"/>
+      <c r="ET46"/>
+      <c r="EU46"/>
+      <c r="EV46"/>
+      <c r="EW46"/>
+      <c r="EX46"/>
+      <c r="EY46"/>
+      <c r="EZ46"/>
+      <c r="FA46"/>
+      <c r="FB46"/>
+      <c r="FC46"/>
+      <c r="FD46"/>
+      <c r="FE46"/>
+      <c r="FF46"/>
+      <c r="FG46"/>
+      <c r="FH46"/>
+      <c r="FI46"/>
+      <c r="FJ46"/>
+      <c r="FK46"/>
+      <c r="FL46"/>
+      <c r="FM46"/>
+      <c r="FN46"/>
+      <c r="FO46"/>
+      <c r="FP46"/>
+      <c r="FQ46"/>
+      <c r="FR46"/>
+      <c r="FS46"/>
+      <c r="FT46"/>
+      <c r="FU46"/>
+      <c r="FV46"/>
+      <c r="FW46"/>
+      <c r="FX46"/>
+      <c r="FY46"/>
+      <c r="FZ46"/>
+      <c r="GA46"/>
+      <c r="GB46"/>
+      <c r="GC46"/>
+      <c r="GD46"/>
+      <c r="GE46"/>
+      <c r="GF46"/>
+      <c r="GG46"/>
+      <c r="GH46"/>
+      <c r="GI46"/>
+      <c r="GJ46"/>
+      <c r="GK46"/>
+      <c r="GL46"/>
+      <c r="GM46"/>
+      <c r="GN46"/>
+      <c r="GO46"/>
+      <c r="GP46"/>
+      <c r="GQ46"/>
+      <c r="GR46"/>
+      <c r="GS46"/>
+      <c r="GT46"/>
+      <c r="GU46"/>
+      <c r="GV46"/>
+      <c r="GW46"/>
+      <c r="GX46"/>
+      <c r="GY46"/>
+      <c r="GZ46"/>
+      <c r="HA46"/>
+      <c r="HB46"/>
+      <c r="HC46"/>
+      <c r="HD46"/>
+      <c r="HE46"/>
+      <c r="HF46"/>
+      <c r="HG46"/>
+      <c r="HH46"/>
+      <c r="HI46"/>
+      <c r="HJ46"/>
+      <c r="HK46"/>
+      <c r="HL46"/>
+      <c r="HM46"/>
+      <c r="HN46"/>
+      <c r="HO46"/>
+      <c r="HP46"/>
+      <c r="HQ46"/>
+      <c r="HR46"/>
+      <c r="HS46"/>
+      <c r="HT46"/>
+      <c r="HU46"/>
+      <c r="HV46"/>
+      <c r="HW46"/>
+      <c r="HX46"/>
+      <c r="HY46"/>
+      <c r="HZ46"/>
+      <c r="IA46"/>
+      <c r="IB46"/>
+      <c r="IC46"/>
+      <c r="ID46"/>
+      <c r="IE46"/>
+      <c r="IF46"/>
+      <c r="IG46"/>
+      <c r="IH46"/>
+      <c r="II46"/>
+      <c r="IJ46"/>
+      <c r="IK46"/>
+      <c r="IL46"/>
+      <c r="IM46"/>
+      <c r="IN46"/>
+      <c r="IO46"/>
+      <c r="IP46"/>
+      <c r="IQ46"/>
+      <c r="IR46"/>
+      <c r="IS46"/>
+      <c r="IT46"/>
+      <c r="IU46"/>
+      <c r="IV46"/>
+      <c r="IW46"/>
     </row>
-    <row r="46" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
+    <row r="47" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B47" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C47" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="41" t="s">
+      <c r="D47" s="20"/>
+      <c r="E47" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F46" s="42" t="s">
+      <c r="F47" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="44">
-        <v>0</v>
-      </c>
-      <c r="H46" s="44">
+      <c r="G47" s="44">
+        <v>0</v>
+      </c>
+      <c r="H47" s="44">
         <v>1</v>
       </c>
-      <c r="I46" s="44" t="s">
+      <c r="I47" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="J46" s="45" t="s">
+      <c r="J47" s="45" t="s">
         <v>40</v>
       </c>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+      <c r="AQ47"/>
+      <c r="AR47"/>
+      <c r="AS47"/>
+      <c r="AT47"/>
+      <c r="AU47"/>
+      <c r="AV47"/>
+      <c r="AW47"/>
+      <c r="AX47"/>
+      <c r="AY47"/>
+      <c r="AZ47"/>
+      <c r="BA47"/>
+      <c r="BB47"/>
+      <c r="BC47"/>
+      <c r="BD47"/>
+      <c r="BE47"/>
+      <c r="BF47"/>
+      <c r="BG47"/>
+      <c r="BH47"/>
+      <c r="BI47"/>
+      <c r="BJ47"/>
+      <c r="BK47"/>
+      <c r="BL47"/>
+      <c r="BM47"/>
+      <c r="BN47"/>
+      <c r="BO47"/>
+      <c r="BP47"/>
+      <c r="BQ47"/>
+      <c r="BR47"/>
+      <c r="BS47"/>
+      <c r="BT47"/>
+      <c r="BU47"/>
+      <c r="BV47"/>
+      <c r="BW47"/>
+      <c r="BX47"/>
+      <c r="BY47"/>
+      <c r="BZ47"/>
+      <c r="CA47"/>
+      <c r="CB47"/>
+      <c r="CC47"/>
+      <c r="CD47"/>
+      <c r="CE47"/>
+      <c r="CF47"/>
+      <c r="CG47"/>
+      <c r="CH47"/>
+      <c r="CI47"/>
+      <c r="CJ47"/>
+      <c r="CK47"/>
+      <c r="CL47"/>
+      <c r="CM47"/>
+      <c r="CN47"/>
+      <c r="CO47"/>
+      <c r="CP47"/>
+      <c r="CQ47"/>
+      <c r="CR47"/>
+      <c r="CS47"/>
+      <c r="CT47"/>
+      <c r="CU47"/>
+      <c r="CV47"/>
+      <c r="CW47"/>
+      <c r="CX47"/>
+      <c r="CY47"/>
+      <c r="CZ47"/>
+      <c r="DA47"/>
+      <c r="DB47"/>
+      <c r="DC47"/>
+      <c r="DD47"/>
+      <c r="DE47"/>
+      <c r="DF47"/>
+      <c r="DG47"/>
+      <c r="DH47"/>
+      <c r="DI47"/>
+      <c r="DJ47"/>
+      <c r="DK47"/>
+      <c r="DL47"/>
+      <c r="DM47"/>
+      <c r="DN47"/>
+      <c r="DO47"/>
+      <c r="DP47"/>
+      <c r="DQ47"/>
+      <c r="DR47"/>
+      <c r="DS47"/>
+      <c r="DT47"/>
+      <c r="DU47"/>
+      <c r="DV47"/>
+      <c r="DW47"/>
+      <c r="DX47"/>
+      <c r="DY47"/>
+      <c r="DZ47"/>
+      <c r="EA47"/>
+      <c r="EB47"/>
+      <c r="EC47"/>
+      <c r="ED47"/>
+      <c r="EE47"/>
+      <c r="EF47"/>
+      <c r="EG47"/>
+      <c r="EH47"/>
+      <c r="EI47"/>
+      <c r="EJ47"/>
+      <c r="EK47"/>
+      <c r="EL47"/>
+      <c r="EM47"/>
+      <c r="EN47"/>
+      <c r="EO47"/>
+      <c r="EP47"/>
+      <c r="EQ47"/>
+      <c r="ER47"/>
+      <c r="ES47"/>
+      <c r="ET47"/>
+      <c r="EU47"/>
+      <c r="EV47"/>
+      <c r="EW47"/>
+      <c r="EX47"/>
+      <c r="EY47"/>
+      <c r="EZ47"/>
+      <c r="FA47"/>
+      <c r="FB47"/>
+      <c r="FC47"/>
+      <c r="FD47"/>
+      <c r="FE47"/>
+      <c r="FF47"/>
+      <c r="FG47"/>
+      <c r="FH47"/>
+      <c r="FI47"/>
+      <c r="FJ47"/>
+      <c r="FK47"/>
+      <c r="FL47"/>
+      <c r="FM47"/>
+      <c r="FN47"/>
+      <c r="FO47"/>
+      <c r="FP47"/>
+      <c r="FQ47"/>
+      <c r="FR47"/>
+      <c r="FS47"/>
+      <c r="FT47"/>
+      <c r="FU47"/>
+      <c r="FV47"/>
+      <c r="FW47"/>
+      <c r="FX47"/>
+      <c r="FY47"/>
+      <c r="FZ47"/>
+      <c r="GA47"/>
+      <c r="GB47"/>
+      <c r="GC47"/>
+      <c r="GD47"/>
+      <c r="GE47"/>
+      <c r="GF47"/>
+      <c r="GG47"/>
+      <c r="GH47"/>
+      <c r="GI47"/>
+      <c r="GJ47"/>
+      <c r="GK47"/>
+      <c r="GL47"/>
+      <c r="GM47"/>
+      <c r="GN47"/>
+      <c r="GO47"/>
+      <c r="GP47"/>
+      <c r="GQ47"/>
+      <c r="GR47"/>
+      <c r="GS47"/>
+      <c r="GT47"/>
+      <c r="GU47"/>
+      <c r="GV47"/>
+      <c r="GW47"/>
+      <c r="GX47"/>
+      <c r="GY47"/>
+      <c r="GZ47"/>
+      <c r="HA47"/>
+      <c r="HB47"/>
+      <c r="HC47"/>
+      <c r="HD47"/>
+      <c r="HE47"/>
+      <c r="HF47"/>
+      <c r="HG47"/>
+      <c r="HH47"/>
+      <c r="HI47"/>
+      <c r="HJ47"/>
+      <c r="HK47"/>
+      <c r="HL47"/>
+      <c r="HM47"/>
+      <c r="HN47"/>
+      <c r="HO47"/>
+      <c r="HP47"/>
+      <c r="HQ47"/>
+      <c r="HR47"/>
+      <c r="HS47"/>
+      <c r="HT47"/>
+      <c r="HU47"/>
+      <c r="HV47"/>
+      <c r="HW47"/>
+      <c r="HX47"/>
+      <c r="HY47"/>
+      <c r="HZ47"/>
+      <c r="IA47"/>
+      <c r="IB47"/>
+      <c r="IC47"/>
+      <c r="ID47"/>
+      <c r="IE47"/>
+      <c r="IF47"/>
+      <c r="IG47"/>
+      <c r="IH47"/>
+      <c r="II47"/>
+      <c r="IJ47"/>
+      <c r="IK47"/>
+      <c r="IL47"/>
+      <c r="IM47"/>
+      <c r="IN47"/>
+      <c r="IO47"/>
+      <c r="IP47"/>
+      <c r="IQ47"/>
+      <c r="IR47"/>
+      <c r="IS47"/>
+      <c r="IT47"/>
+      <c r="IU47"/>
+      <c r="IV47"/>
+      <c r="IW47"/>
     </row>
-    <row r="47" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="46" t="s">
+    <row r="48" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="46" t="s">
         <v>77</v>
-      </c>
-      <c r="B47" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F47" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="48">
-        <v>0</v>
-      </c>
-      <c r="H47" s="48">
-        <v>1</v>
-      </c>
-      <c r="I47" s="48"/>
-      <c r="J47" s="49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46" t="s">
-        <v>22</v>
       </c>
       <c r="B48" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="58" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="D48" s="20"/>
       <c r="E48" s="46" t="s">
@@ -2987,18 +6440,265 @@
       </c>
       <c r="I48" s="48"/>
       <c r="J48" s="49" t="s">
-        <v>15</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+      <c r="AQ48"/>
+      <c r="AR48"/>
+      <c r="AS48"/>
+      <c r="AT48"/>
+      <c r="AU48"/>
+      <c r="AV48"/>
+      <c r="AW48"/>
+      <c r="AX48"/>
+      <c r="AY48"/>
+      <c r="AZ48"/>
+      <c r="BA48"/>
+      <c r="BB48"/>
+      <c r="BC48"/>
+      <c r="BD48"/>
+      <c r="BE48"/>
+      <c r="BF48"/>
+      <c r="BG48"/>
+      <c r="BH48"/>
+      <c r="BI48"/>
+      <c r="BJ48"/>
+      <c r="BK48"/>
+      <c r="BL48"/>
+      <c r="BM48"/>
+      <c r="BN48"/>
+      <c r="BO48"/>
+      <c r="BP48"/>
+      <c r="BQ48"/>
+      <c r="BR48"/>
+      <c r="BS48"/>
+      <c r="BT48"/>
+      <c r="BU48"/>
+      <c r="BV48"/>
+      <c r="BW48"/>
+      <c r="BX48"/>
+      <c r="BY48"/>
+      <c r="BZ48"/>
+      <c r="CA48"/>
+      <c r="CB48"/>
+      <c r="CC48"/>
+      <c r="CD48"/>
+      <c r="CE48"/>
+      <c r="CF48"/>
+      <c r="CG48"/>
+      <c r="CH48"/>
+      <c r="CI48"/>
+      <c r="CJ48"/>
+      <c r="CK48"/>
+      <c r="CL48"/>
+      <c r="CM48"/>
+      <c r="CN48"/>
+      <c r="CO48"/>
+      <c r="CP48"/>
+      <c r="CQ48"/>
+      <c r="CR48"/>
+      <c r="CS48"/>
+      <c r="CT48"/>
+      <c r="CU48"/>
+      <c r="CV48"/>
+      <c r="CW48"/>
+      <c r="CX48"/>
+      <c r="CY48"/>
+      <c r="CZ48"/>
+      <c r="DA48"/>
+      <c r="DB48"/>
+      <c r="DC48"/>
+      <c r="DD48"/>
+      <c r="DE48"/>
+      <c r="DF48"/>
+      <c r="DG48"/>
+      <c r="DH48"/>
+      <c r="DI48"/>
+      <c r="DJ48"/>
+      <c r="DK48"/>
+      <c r="DL48"/>
+      <c r="DM48"/>
+      <c r="DN48"/>
+      <c r="DO48"/>
+      <c r="DP48"/>
+      <c r="DQ48"/>
+      <c r="DR48"/>
+      <c r="DS48"/>
+      <c r="DT48"/>
+      <c r="DU48"/>
+      <c r="DV48"/>
+      <c r="DW48"/>
+      <c r="DX48"/>
+      <c r="DY48"/>
+      <c r="DZ48"/>
+      <c r="EA48"/>
+      <c r="EB48"/>
+      <c r="EC48"/>
+      <c r="ED48"/>
+      <c r="EE48"/>
+      <c r="EF48"/>
+      <c r="EG48"/>
+      <c r="EH48"/>
+      <c r="EI48"/>
+      <c r="EJ48"/>
+      <c r="EK48"/>
+      <c r="EL48"/>
+      <c r="EM48"/>
+      <c r="EN48"/>
+      <c r="EO48"/>
+      <c r="EP48"/>
+      <c r="EQ48"/>
+      <c r="ER48"/>
+      <c r="ES48"/>
+      <c r="ET48"/>
+      <c r="EU48"/>
+      <c r="EV48"/>
+      <c r="EW48"/>
+      <c r="EX48"/>
+      <c r="EY48"/>
+      <c r="EZ48"/>
+      <c r="FA48"/>
+      <c r="FB48"/>
+      <c r="FC48"/>
+      <c r="FD48"/>
+      <c r="FE48"/>
+      <c r="FF48"/>
+      <c r="FG48"/>
+      <c r="FH48"/>
+      <c r="FI48"/>
+      <c r="FJ48"/>
+      <c r="FK48"/>
+      <c r="FL48"/>
+      <c r="FM48"/>
+      <c r="FN48"/>
+      <c r="FO48"/>
+      <c r="FP48"/>
+      <c r="FQ48"/>
+      <c r="FR48"/>
+      <c r="FS48"/>
+      <c r="FT48"/>
+      <c r="FU48"/>
+      <c r="FV48"/>
+      <c r="FW48"/>
+      <c r="FX48"/>
+      <c r="FY48"/>
+      <c r="FZ48"/>
+      <c r="GA48"/>
+      <c r="GB48"/>
+      <c r="GC48"/>
+      <c r="GD48"/>
+      <c r="GE48"/>
+      <c r="GF48"/>
+      <c r="GG48"/>
+      <c r="GH48"/>
+      <c r="GI48"/>
+      <c r="GJ48"/>
+      <c r="GK48"/>
+      <c r="GL48"/>
+      <c r="GM48"/>
+      <c r="GN48"/>
+      <c r="GO48"/>
+      <c r="GP48"/>
+      <c r="GQ48"/>
+      <c r="GR48"/>
+      <c r="GS48"/>
+      <c r="GT48"/>
+      <c r="GU48"/>
+      <c r="GV48"/>
+      <c r="GW48"/>
+      <c r="GX48"/>
+      <c r="GY48"/>
+      <c r="GZ48"/>
+      <c r="HA48"/>
+      <c r="HB48"/>
+      <c r="HC48"/>
+      <c r="HD48"/>
+      <c r="HE48"/>
+      <c r="HF48"/>
+      <c r="HG48"/>
+      <c r="HH48"/>
+      <c r="HI48"/>
+      <c r="HJ48"/>
+      <c r="HK48"/>
+      <c r="HL48"/>
+      <c r="HM48"/>
+      <c r="HN48"/>
+      <c r="HO48"/>
+      <c r="HP48"/>
+      <c r="HQ48"/>
+      <c r="HR48"/>
+      <c r="HS48"/>
+      <c r="HT48"/>
+      <c r="HU48"/>
+      <c r="HV48"/>
+      <c r="HW48"/>
+      <c r="HX48"/>
+      <c r="HY48"/>
+      <c r="HZ48"/>
+      <c r="IA48"/>
+      <c r="IB48"/>
+      <c r="IC48"/>
+      <c r="ID48"/>
+      <c r="IE48"/>
+      <c r="IF48"/>
+      <c r="IG48"/>
+      <c r="IH48"/>
+      <c r="II48"/>
+      <c r="IJ48"/>
+      <c r="IK48"/>
+      <c r="IL48"/>
+      <c r="IM48"/>
+      <c r="IN48"/>
+      <c r="IO48"/>
+      <c r="IP48"/>
+      <c r="IQ48"/>
+      <c r="IR48"/>
+      <c r="IS48"/>
+      <c r="IT48"/>
+      <c r="IU48"/>
+      <c r="IV48"/>
+      <c r="IW48"/>
     </row>
-    <row r="49" spans="1:10" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:257" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="46" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B49" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C49" s="58" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="46" t="s">
@@ -3017,16 +6717,263 @@
       <c r="J49" s="49" t="s">
         <v>15</v>
       </c>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+      <c r="AQ49"/>
+      <c r="AR49"/>
+      <c r="AS49"/>
+      <c r="AT49"/>
+      <c r="AU49"/>
+      <c r="AV49"/>
+      <c r="AW49"/>
+      <c r="AX49"/>
+      <c r="AY49"/>
+      <c r="AZ49"/>
+      <c r="BA49"/>
+      <c r="BB49"/>
+      <c r="BC49"/>
+      <c r="BD49"/>
+      <c r="BE49"/>
+      <c r="BF49"/>
+      <c r="BG49"/>
+      <c r="BH49"/>
+      <c r="BI49"/>
+      <c r="BJ49"/>
+      <c r="BK49"/>
+      <c r="BL49"/>
+      <c r="BM49"/>
+      <c r="BN49"/>
+      <c r="BO49"/>
+      <c r="BP49"/>
+      <c r="BQ49"/>
+      <c r="BR49"/>
+      <c r="BS49"/>
+      <c r="BT49"/>
+      <c r="BU49"/>
+      <c r="BV49"/>
+      <c r="BW49"/>
+      <c r="BX49"/>
+      <c r="BY49"/>
+      <c r="BZ49"/>
+      <c r="CA49"/>
+      <c r="CB49"/>
+      <c r="CC49"/>
+      <c r="CD49"/>
+      <c r="CE49"/>
+      <c r="CF49"/>
+      <c r="CG49"/>
+      <c r="CH49"/>
+      <c r="CI49"/>
+      <c r="CJ49"/>
+      <c r="CK49"/>
+      <c r="CL49"/>
+      <c r="CM49"/>
+      <c r="CN49"/>
+      <c r="CO49"/>
+      <c r="CP49"/>
+      <c r="CQ49"/>
+      <c r="CR49"/>
+      <c r="CS49"/>
+      <c r="CT49"/>
+      <c r="CU49"/>
+      <c r="CV49"/>
+      <c r="CW49"/>
+      <c r="CX49"/>
+      <c r="CY49"/>
+      <c r="CZ49"/>
+      <c r="DA49"/>
+      <c r="DB49"/>
+      <c r="DC49"/>
+      <c r="DD49"/>
+      <c r="DE49"/>
+      <c r="DF49"/>
+      <c r="DG49"/>
+      <c r="DH49"/>
+      <c r="DI49"/>
+      <c r="DJ49"/>
+      <c r="DK49"/>
+      <c r="DL49"/>
+      <c r="DM49"/>
+      <c r="DN49"/>
+      <c r="DO49"/>
+      <c r="DP49"/>
+      <c r="DQ49"/>
+      <c r="DR49"/>
+      <c r="DS49"/>
+      <c r="DT49"/>
+      <c r="DU49"/>
+      <c r="DV49"/>
+      <c r="DW49"/>
+      <c r="DX49"/>
+      <c r="DY49"/>
+      <c r="DZ49"/>
+      <c r="EA49"/>
+      <c r="EB49"/>
+      <c r="EC49"/>
+      <c r="ED49"/>
+      <c r="EE49"/>
+      <c r="EF49"/>
+      <c r="EG49"/>
+      <c r="EH49"/>
+      <c r="EI49"/>
+      <c r="EJ49"/>
+      <c r="EK49"/>
+      <c r="EL49"/>
+      <c r="EM49"/>
+      <c r="EN49"/>
+      <c r="EO49"/>
+      <c r="EP49"/>
+      <c r="EQ49"/>
+      <c r="ER49"/>
+      <c r="ES49"/>
+      <c r="ET49"/>
+      <c r="EU49"/>
+      <c r="EV49"/>
+      <c r="EW49"/>
+      <c r="EX49"/>
+      <c r="EY49"/>
+      <c r="EZ49"/>
+      <c r="FA49"/>
+      <c r="FB49"/>
+      <c r="FC49"/>
+      <c r="FD49"/>
+      <c r="FE49"/>
+      <c r="FF49"/>
+      <c r="FG49"/>
+      <c r="FH49"/>
+      <c r="FI49"/>
+      <c r="FJ49"/>
+      <c r="FK49"/>
+      <c r="FL49"/>
+      <c r="FM49"/>
+      <c r="FN49"/>
+      <c r="FO49"/>
+      <c r="FP49"/>
+      <c r="FQ49"/>
+      <c r="FR49"/>
+      <c r="FS49"/>
+      <c r="FT49"/>
+      <c r="FU49"/>
+      <c r="FV49"/>
+      <c r="FW49"/>
+      <c r="FX49"/>
+      <c r="FY49"/>
+      <c r="FZ49"/>
+      <c r="GA49"/>
+      <c r="GB49"/>
+      <c r="GC49"/>
+      <c r="GD49"/>
+      <c r="GE49"/>
+      <c r="GF49"/>
+      <c r="GG49"/>
+      <c r="GH49"/>
+      <c r="GI49"/>
+      <c r="GJ49"/>
+      <c r="GK49"/>
+      <c r="GL49"/>
+      <c r="GM49"/>
+      <c r="GN49"/>
+      <c r="GO49"/>
+      <c r="GP49"/>
+      <c r="GQ49"/>
+      <c r="GR49"/>
+      <c r="GS49"/>
+      <c r="GT49"/>
+      <c r="GU49"/>
+      <c r="GV49"/>
+      <c r="GW49"/>
+      <c r="GX49"/>
+      <c r="GY49"/>
+      <c r="GZ49"/>
+      <c r="HA49"/>
+      <c r="HB49"/>
+      <c r="HC49"/>
+      <c r="HD49"/>
+      <c r="HE49"/>
+      <c r="HF49"/>
+      <c r="HG49"/>
+      <c r="HH49"/>
+      <c r="HI49"/>
+      <c r="HJ49"/>
+      <c r="HK49"/>
+      <c r="HL49"/>
+      <c r="HM49"/>
+      <c r="HN49"/>
+      <c r="HO49"/>
+      <c r="HP49"/>
+      <c r="HQ49"/>
+      <c r="HR49"/>
+      <c r="HS49"/>
+      <c r="HT49"/>
+      <c r="HU49"/>
+      <c r="HV49"/>
+      <c r="HW49"/>
+      <c r="HX49"/>
+      <c r="HY49"/>
+      <c r="HZ49"/>
+      <c r="IA49"/>
+      <c r="IB49"/>
+      <c r="IC49"/>
+      <c r="ID49"/>
+      <c r="IE49"/>
+      <c r="IF49"/>
+      <c r="IG49"/>
+      <c r="IH49"/>
+      <c r="II49"/>
+      <c r="IJ49"/>
+      <c r="IK49"/>
+      <c r="IL49"/>
+      <c r="IM49"/>
+      <c r="IN49"/>
+      <c r="IO49"/>
+      <c r="IP49"/>
+      <c r="IQ49"/>
+      <c r="IR49"/>
+      <c r="IS49"/>
+      <c r="IT49"/>
+      <c r="IU49"/>
+      <c r="IV49"/>
+      <c r="IW49"/>
     </row>
-    <row r="50" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:257" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="46" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="B50" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="D50" s="20"/>
       <c r="E50" s="46" t="s">
@@ -3043,18 +6990,265 @@
       </c>
       <c r="I50" s="48"/>
       <c r="J50" s="49" t="s">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+      <c r="AL50"/>
+      <c r="AM50"/>
+      <c r="AN50"/>
+      <c r="AO50"/>
+      <c r="AP50"/>
+      <c r="AQ50"/>
+      <c r="AR50"/>
+      <c r="AS50"/>
+      <c r="AT50"/>
+      <c r="AU50"/>
+      <c r="AV50"/>
+      <c r="AW50"/>
+      <c r="AX50"/>
+      <c r="AY50"/>
+      <c r="AZ50"/>
+      <c r="BA50"/>
+      <c r="BB50"/>
+      <c r="BC50"/>
+      <c r="BD50"/>
+      <c r="BE50"/>
+      <c r="BF50"/>
+      <c r="BG50"/>
+      <c r="BH50"/>
+      <c r="BI50"/>
+      <c r="BJ50"/>
+      <c r="BK50"/>
+      <c r="BL50"/>
+      <c r="BM50"/>
+      <c r="BN50"/>
+      <c r="BO50"/>
+      <c r="BP50"/>
+      <c r="BQ50"/>
+      <c r="BR50"/>
+      <c r="BS50"/>
+      <c r="BT50"/>
+      <c r="BU50"/>
+      <c r="BV50"/>
+      <c r="BW50"/>
+      <c r="BX50"/>
+      <c r="BY50"/>
+      <c r="BZ50"/>
+      <c r="CA50"/>
+      <c r="CB50"/>
+      <c r="CC50"/>
+      <c r="CD50"/>
+      <c r="CE50"/>
+      <c r="CF50"/>
+      <c r="CG50"/>
+      <c r="CH50"/>
+      <c r="CI50"/>
+      <c r="CJ50"/>
+      <c r="CK50"/>
+      <c r="CL50"/>
+      <c r="CM50"/>
+      <c r="CN50"/>
+      <c r="CO50"/>
+      <c r="CP50"/>
+      <c r="CQ50"/>
+      <c r="CR50"/>
+      <c r="CS50"/>
+      <c r="CT50"/>
+      <c r="CU50"/>
+      <c r="CV50"/>
+      <c r="CW50"/>
+      <c r="CX50"/>
+      <c r="CY50"/>
+      <c r="CZ50"/>
+      <c r="DA50"/>
+      <c r="DB50"/>
+      <c r="DC50"/>
+      <c r="DD50"/>
+      <c r="DE50"/>
+      <c r="DF50"/>
+      <c r="DG50"/>
+      <c r="DH50"/>
+      <c r="DI50"/>
+      <c r="DJ50"/>
+      <c r="DK50"/>
+      <c r="DL50"/>
+      <c r="DM50"/>
+      <c r="DN50"/>
+      <c r="DO50"/>
+      <c r="DP50"/>
+      <c r="DQ50"/>
+      <c r="DR50"/>
+      <c r="DS50"/>
+      <c r="DT50"/>
+      <c r="DU50"/>
+      <c r="DV50"/>
+      <c r="DW50"/>
+      <c r="DX50"/>
+      <c r="DY50"/>
+      <c r="DZ50"/>
+      <c r="EA50"/>
+      <c r="EB50"/>
+      <c r="EC50"/>
+      <c r="ED50"/>
+      <c r="EE50"/>
+      <c r="EF50"/>
+      <c r="EG50"/>
+      <c r="EH50"/>
+      <c r="EI50"/>
+      <c r="EJ50"/>
+      <c r="EK50"/>
+      <c r="EL50"/>
+      <c r="EM50"/>
+      <c r="EN50"/>
+      <c r="EO50"/>
+      <c r="EP50"/>
+      <c r="EQ50"/>
+      <c r="ER50"/>
+      <c r="ES50"/>
+      <c r="ET50"/>
+      <c r="EU50"/>
+      <c r="EV50"/>
+      <c r="EW50"/>
+      <c r="EX50"/>
+      <c r="EY50"/>
+      <c r="EZ50"/>
+      <c r="FA50"/>
+      <c r="FB50"/>
+      <c r="FC50"/>
+      <c r="FD50"/>
+      <c r="FE50"/>
+      <c r="FF50"/>
+      <c r="FG50"/>
+      <c r="FH50"/>
+      <c r="FI50"/>
+      <c r="FJ50"/>
+      <c r="FK50"/>
+      <c r="FL50"/>
+      <c r="FM50"/>
+      <c r="FN50"/>
+      <c r="FO50"/>
+      <c r="FP50"/>
+      <c r="FQ50"/>
+      <c r="FR50"/>
+      <c r="FS50"/>
+      <c r="FT50"/>
+      <c r="FU50"/>
+      <c r="FV50"/>
+      <c r="FW50"/>
+      <c r="FX50"/>
+      <c r="FY50"/>
+      <c r="FZ50"/>
+      <c r="GA50"/>
+      <c r="GB50"/>
+      <c r="GC50"/>
+      <c r="GD50"/>
+      <c r="GE50"/>
+      <c r="GF50"/>
+      <c r="GG50"/>
+      <c r="GH50"/>
+      <c r="GI50"/>
+      <c r="GJ50"/>
+      <c r="GK50"/>
+      <c r="GL50"/>
+      <c r="GM50"/>
+      <c r="GN50"/>
+      <c r="GO50"/>
+      <c r="GP50"/>
+      <c r="GQ50"/>
+      <c r="GR50"/>
+      <c r="GS50"/>
+      <c r="GT50"/>
+      <c r="GU50"/>
+      <c r="GV50"/>
+      <c r="GW50"/>
+      <c r="GX50"/>
+      <c r="GY50"/>
+      <c r="GZ50"/>
+      <c r="HA50"/>
+      <c r="HB50"/>
+      <c r="HC50"/>
+      <c r="HD50"/>
+      <c r="HE50"/>
+      <c r="HF50"/>
+      <c r="HG50"/>
+      <c r="HH50"/>
+      <c r="HI50"/>
+      <c r="HJ50"/>
+      <c r="HK50"/>
+      <c r="HL50"/>
+      <c r="HM50"/>
+      <c r="HN50"/>
+      <c r="HO50"/>
+      <c r="HP50"/>
+      <c r="HQ50"/>
+      <c r="HR50"/>
+      <c r="HS50"/>
+      <c r="HT50"/>
+      <c r="HU50"/>
+      <c r="HV50"/>
+      <c r="HW50"/>
+      <c r="HX50"/>
+      <c r="HY50"/>
+      <c r="HZ50"/>
+      <c r="IA50"/>
+      <c r="IB50"/>
+      <c r="IC50"/>
+      <c r="ID50"/>
+      <c r="IE50"/>
+      <c r="IF50"/>
+      <c r="IG50"/>
+      <c r="IH50"/>
+      <c r="II50"/>
+      <c r="IJ50"/>
+      <c r="IK50"/>
+      <c r="IL50"/>
+      <c r="IM50"/>
+      <c r="IN50"/>
+      <c r="IO50"/>
+      <c r="IP50"/>
+      <c r="IQ50"/>
+      <c r="IR50"/>
+      <c r="IS50"/>
+      <c r="IT50"/>
+      <c r="IU50"/>
+      <c r="IV50"/>
+      <c r="IW50"/>
     </row>
-    <row r="51" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B51" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="46" t="s">
@@ -3073,16 +7267,263 @@
       <c r="J51" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+      <c r="AL51"/>
+      <c r="AM51"/>
+      <c r="AN51"/>
+      <c r="AO51"/>
+      <c r="AP51"/>
+      <c r="AQ51"/>
+      <c r="AR51"/>
+      <c r="AS51"/>
+      <c r="AT51"/>
+      <c r="AU51"/>
+      <c r="AV51"/>
+      <c r="AW51"/>
+      <c r="AX51"/>
+      <c r="AY51"/>
+      <c r="AZ51"/>
+      <c r="BA51"/>
+      <c r="BB51"/>
+      <c r="BC51"/>
+      <c r="BD51"/>
+      <c r="BE51"/>
+      <c r="BF51"/>
+      <c r="BG51"/>
+      <c r="BH51"/>
+      <c r="BI51"/>
+      <c r="BJ51"/>
+      <c r="BK51"/>
+      <c r="BL51"/>
+      <c r="BM51"/>
+      <c r="BN51"/>
+      <c r="BO51"/>
+      <c r="BP51"/>
+      <c r="BQ51"/>
+      <c r="BR51"/>
+      <c r="BS51"/>
+      <c r="BT51"/>
+      <c r="BU51"/>
+      <c r="BV51"/>
+      <c r="BW51"/>
+      <c r="BX51"/>
+      <c r="BY51"/>
+      <c r="BZ51"/>
+      <c r="CA51"/>
+      <c r="CB51"/>
+      <c r="CC51"/>
+      <c r="CD51"/>
+      <c r="CE51"/>
+      <c r="CF51"/>
+      <c r="CG51"/>
+      <c r="CH51"/>
+      <c r="CI51"/>
+      <c r="CJ51"/>
+      <c r="CK51"/>
+      <c r="CL51"/>
+      <c r="CM51"/>
+      <c r="CN51"/>
+      <c r="CO51"/>
+      <c r="CP51"/>
+      <c r="CQ51"/>
+      <c r="CR51"/>
+      <c r="CS51"/>
+      <c r="CT51"/>
+      <c r="CU51"/>
+      <c r="CV51"/>
+      <c r="CW51"/>
+      <c r="CX51"/>
+      <c r="CY51"/>
+      <c r="CZ51"/>
+      <c r="DA51"/>
+      <c r="DB51"/>
+      <c r="DC51"/>
+      <c r="DD51"/>
+      <c r="DE51"/>
+      <c r="DF51"/>
+      <c r="DG51"/>
+      <c r="DH51"/>
+      <c r="DI51"/>
+      <c r="DJ51"/>
+      <c r="DK51"/>
+      <c r="DL51"/>
+      <c r="DM51"/>
+      <c r="DN51"/>
+      <c r="DO51"/>
+      <c r="DP51"/>
+      <c r="DQ51"/>
+      <c r="DR51"/>
+      <c r="DS51"/>
+      <c r="DT51"/>
+      <c r="DU51"/>
+      <c r="DV51"/>
+      <c r="DW51"/>
+      <c r="DX51"/>
+      <c r="DY51"/>
+      <c r="DZ51"/>
+      <c r="EA51"/>
+      <c r="EB51"/>
+      <c r="EC51"/>
+      <c r="ED51"/>
+      <c r="EE51"/>
+      <c r="EF51"/>
+      <c r="EG51"/>
+      <c r="EH51"/>
+      <c r="EI51"/>
+      <c r="EJ51"/>
+      <c r="EK51"/>
+      <c r="EL51"/>
+      <c r="EM51"/>
+      <c r="EN51"/>
+      <c r="EO51"/>
+      <c r="EP51"/>
+      <c r="EQ51"/>
+      <c r="ER51"/>
+      <c r="ES51"/>
+      <c r="ET51"/>
+      <c r="EU51"/>
+      <c r="EV51"/>
+      <c r="EW51"/>
+      <c r="EX51"/>
+      <c r="EY51"/>
+      <c r="EZ51"/>
+      <c r="FA51"/>
+      <c r="FB51"/>
+      <c r="FC51"/>
+      <c r="FD51"/>
+      <c r="FE51"/>
+      <c r="FF51"/>
+      <c r="FG51"/>
+      <c r="FH51"/>
+      <c r="FI51"/>
+      <c r="FJ51"/>
+      <c r="FK51"/>
+      <c r="FL51"/>
+      <c r="FM51"/>
+      <c r="FN51"/>
+      <c r="FO51"/>
+      <c r="FP51"/>
+      <c r="FQ51"/>
+      <c r="FR51"/>
+      <c r="FS51"/>
+      <c r="FT51"/>
+      <c r="FU51"/>
+      <c r="FV51"/>
+      <c r="FW51"/>
+      <c r="FX51"/>
+      <c r="FY51"/>
+      <c r="FZ51"/>
+      <c r="GA51"/>
+      <c r="GB51"/>
+      <c r="GC51"/>
+      <c r="GD51"/>
+      <c r="GE51"/>
+      <c r="GF51"/>
+      <c r="GG51"/>
+      <c r="GH51"/>
+      <c r="GI51"/>
+      <c r="GJ51"/>
+      <c r="GK51"/>
+      <c r="GL51"/>
+      <c r="GM51"/>
+      <c r="GN51"/>
+      <c r="GO51"/>
+      <c r="GP51"/>
+      <c r="GQ51"/>
+      <c r="GR51"/>
+      <c r="GS51"/>
+      <c r="GT51"/>
+      <c r="GU51"/>
+      <c r="GV51"/>
+      <c r="GW51"/>
+      <c r="GX51"/>
+      <c r="GY51"/>
+      <c r="GZ51"/>
+      <c r="HA51"/>
+      <c r="HB51"/>
+      <c r="HC51"/>
+      <c r="HD51"/>
+      <c r="HE51"/>
+      <c r="HF51"/>
+      <c r="HG51"/>
+      <c r="HH51"/>
+      <c r="HI51"/>
+      <c r="HJ51"/>
+      <c r="HK51"/>
+      <c r="HL51"/>
+      <c r="HM51"/>
+      <c r="HN51"/>
+      <c r="HO51"/>
+      <c r="HP51"/>
+      <c r="HQ51"/>
+      <c r="HR51"/>
+      <c r="HS51"/>
+      <c r="HT51"/>
+      <c r="HU51"/>
+      <c r="HV51"/>
+      <c r="HW51"/>
+      <c r="HX51"/>
+      <c r="HY51"/>
+      <c r="HZ51"/>
+      <c r="IA51"/>
+      <c r="IB51"/>
+      <c r="IC51"/>
+      <c r="ID51"/>
+      <c r="IE51"/>
+      <c r="IF51"/>
+      <c r="IG51"/>
+      <c r="IH51"/>
+      <c r="II51"/>
+      <c r="IJ51"/>
+      <c r="IK51"/>
+      <c r="IL51"/>
+      <c r="IM51"/>
+      <c r="IN51"/>
+      <c r="IO51"/>
+      <c r="IP51"/>
+      <c r="IQ51"/>
+      <c r="IR51"/>
+      <c r="IS51"/>
+      <c r="IT51"/>
+      <c r="IU51"/>
+      <c r="IV51"/>
+      <c r="IW51"/>
     </row>
-    <row r="52" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B52" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="46" t="s">
@@ -3101,16 +7542,263 @@
       <c r="J52" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+      <c r="AL52"/>
+      <c r="AM52"/>
+      <c r="AN52"/>
+      <c r="AO52"/>
+      <c r="AP52"/>
+      <c r="AQ52"/>
+      <c r="AR52"/>
+      <c r="AS52"/>
+      <c r="AT52"/>
+      <c r="AU52"/>
+      <c r="AV52"/>
+      <c r="AW52"/>
+      <c r="AX52"/>
+      <c r="AY52"/>
+      <c r="AZ52"/>
+      <c r="BA52"/>
+      <c r="BB52"/>
+      <c r="BC52"/>
+      <c r="BD52"/>
+      <c r="BE52"/>
+      <c r="BF52"/>
+      <c r="BG52"/>
+      <c r="BH52"/>
+      <c r="BI52"/>
+      <c r="BJ52"/>
+      <c r="BK52"/>
+      <c r="BL52"/>
+      <c r="BM52"/>
+      <c r="BN52"/>
+      <c r="BO52"/>
+      <c r="BP52"/>
+      <c r="BQ52"/>
+      <c r="BR52"/>
+      <c r="BS52"/>
+      <c r="BT52"/>
+      <c r="BU52"/>
+      <c r="BV52"/>
+      <c r="BW52"/>
+      <c r="BX52"/>
+      <c r="BY52"/>
+      <c r="BZ52"/>
+      <c r="CA52"/>
+      <c r="CB52"/>
+      <c r="CC52"/>
+      <c r="CD52"/>
+      <c r="CE52"/>
+      <c r="CF52"/>
+      <c r="CG52"/>
+      <c r="CH52"/>
+      <c r="CI52"/>
+      <c r="CJ52"/>
+      <c r="CK52"/>
+      <c r="CL52"/>
+      <c r="CM52"/>
+      <c r="CN52"/>
+      <c r="CO52"/>
+      <c r="CP52"/>
+      <c r="CQ52"/>
+      <c r="CR52"/>
+      <c r="CS52"/>
+      <c r="CT52"/>
+      <c r="CU52"/>
+      <c r="CV52"/>
+      <c r="CW52"/>
+      <c r="CX52"/>
+      <c r="CY52"/>
+      <c r="CZ52"/>
+      <c r="DA52"/>
+      <c r="DB52"/>
+      <c r="DC52"/>
+      <c r="DD52"/>
+      <c r="DE52"/>
+      <c r="DF52"/>
+      <c r="DG52"/>
+      <c r="DH52"/>
+      <c r="DI52"/>
+      <c r="DJ52"/>
+      <c r="DK52"/>
+      <c r="DL52"/>
+      <c r="DM52"/>
+      <c r="DN52"/>
+      <c r="DO52"/>
+      <c r="DP52"/>
+      <c r="DQ52"/>
+      <c r="DR52"/>
+      <c r="DS52"/>
+      <c r="DT52"/>
+      <c r="DU52"/>
+      <c r="DV52"/>
+      <c r="DW52"/>
+      <c r="DX52"/>
+      <c r="DY52"/>
+      <c r="DZ52"/>
+      <c r="EA52"/>
+      <c r="EB52"/>
+      <c r="EC52"/>
+      <c r="ED52"/>
+      <c r="EE52"/>
+      <c r="EF52"/>
+      <c r="EG52"/>
+      <c r="EH52"/>
+      <c r="EI52"/>
+      <c r="EJ52"/>
+      <c r="EK52"/>
+      <c r="EL52"/>
+      <c r="EM52"/>
+      <c r="EN52"/>
+      <c r="EO52"/>
+      <c r="EP52"/>
+      <c r="EQ52"/>
+      <c r="ER52"/>
+      <c r="ES52"/>
+      <c r="ET52"/>
+      <c r="EU52"/>
+      <c r="EV52"/>
+      <c r="EW52"/>
+      <c r="EX52"/>
+      <c r="EY52"/>
+      <c r="EZ52"/>
+      <c r="FA52"/>
+      <c r="FB52"/>
+      <c r="FC52"/>
+      <c r="FD52"/>
+      <c r="FE52"/>
+      <c r="FF52"/>
+      <c r="FG52"/>
+      <c r="FH52"/>
+      <c r="FI52"/>
+      <c r="FJ52"/>
+      <c r="FK52"/>
+      <c r="FL52"/>
+      <c r="FM52"/>
+      <c r="FN52"/>
+      <c r="FO52"/>
+      <c r="FP52"/>
+      <c r="FQ52"/>
+      <c r="FR52"/>
+      <c r="FS52"/>
+      <c r="FT52"/>
+      <c r="FU52"/>
+      <c r="FV52"/>
+      <c r="FW52"/>
+      <c r="FX52"/>
+      <c r="FY52"/>
+      <c r="FZ52"/>
+      <c r="GA52"/>
+      <c r="GB52"/>
+      <c r="GC52"/>
+      <c r="GD52"/>
+      <c r="GE52"/>
+      <c r="GF52"/>
+      <c r="GG52"/>
+      <c r="GH52"/>
+      <c r="GI52"/>
+      <c r="GJ52"/>
+      <c r="GK52"/>
+      <c r="GL52"/>
+      <c r="GM52"/>
+      <c r="GN52"/>
+      <c r="GO52"/>
+      <c r="GP52"/>
+      <c r="GQ52"/>
+      <c r="GR52"/>
+      <c r="GS52"/>
+      <c r="GT52"/>
+      <c r="GU52"/>
+      <c r="GV52"/>
+      <c r="GW52"/>
+      <c r="GX52"/>
+      <c r="GY52"/>
+      <c r="GZ52"/>
+      <c r="HA52"/>
+      <c r="HB52"/>
+      <c r="HC52"/>
+      <c r="HD52"/>
+      <c r="HE52"/>
+      <c r="HF52"/>
+      <c r="HG52"/>
+      <c r="HH52"/>
+      <c r="HI52"/>
+      <c r="HJ52"/>
+      <c r="HK52"/>
+      <c r="HL52"/>
+      <c r="HM52"/>
+      <c r="HN52"/>
+      <c r="HO52"/>
+      <c r="HP52"/>
+      <c r="HQ52"/>
+      <c r="HR52"/>
+      <c r="HS52"/>
+      <c r="HT52"/>
+      <c r="HU52"/>
+      <c r="HV52"/>
+      <c r="HW52"/>
+      <c r="HX52"/>
+      <c r="HY52"/>
+      <c r="HZ52"/>
+      <c r="IA52"/>
+      <c r="IB52"/>
+      <c r="IC52"/>
+      <c r="ID52"/>
+      <c r="IE52"/>
+      <c r="IF52"/>
+      <c r="IG52"/>
+      <c r="IH52"/>
+      <c r="II52"/>
+      <c r="IJ52"/>
+      <c r="IK52"/>
+      <c r="IL52"/>
+      <c r="IM52"/>
+      <c r="IN52"/>
+      <c r="IO52"/>
+      <c r="IP52"/>
+      <c r="IQ52"/>
+      <c r="IR52"/>
+      <c r="IS52"/>
+      <c r="IT52"/>
+      <c r="IU52"/>
+      <c r="IV52"/>
+      <c r="IW52"/>
     </row>
-    <row r="53" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="46" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B53" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C53" s="58" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="46" t="s">
@@ -3129,16 +7817,263 @@
       <c r="J53" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+      <c r="AL53"/>
+      <c r="AM53"/>
+      <c r="AN53"/>
+      <c r="AO53"/>
+      <c r="AP53"/>
+      <c r="AQ53"/>
+      <c r="AR53"/>
+      <c r="AS53"/>
+      <c r="AT53"/>
+      <c r="AU53"/>
+      <c r="AV53"/>
+      <c r="AW53"/>
+      <c r="AX53"/>
+      <c r="AY53"/>
+      <c r="AZ53"/>
+      <c r="BA53"/>
+      <c r="BB53"/>
+      <c r="BC53"/>
+      <c r="BD53"/>
+      <c r="BE53"/>
+      <c r="BF53"/>
+      <c r="BG53"/>
+      <c r="BH53"/>
+      <c r="BI53"/>
+      <c r="BJ53"/>
+      <c r="BK53"/>
+      <c r="BL53"/>
+      <c r="BM53"/>
+      <c r="BN53"/>
+      <c r="BO53"/>
+      <c r="BP53"/>
+      <c r="BQ53"/>
+      <c r="BR53"/>
+      <c r="BS53"/>
+      <c r="BT53"/>
+      <c r="BU53"/>
+      <c r="BV53"/>
+      <c r="BW53"/>
+      <c r="BX53"/>
+      <c r="BY53"/>
+      <c r="BZ53"/>
+      <c r="CA53"/>
+      <c r="CB53"/>
+      <c r="CC53"/>
+      <c r="CD53"/>
+      <c r="CE53"/>
+      <c r="CF53"/>
+      <c r="CG53"/>
+      <c r="CH53"/>
+      <c r="CI53"/>
+      <c r="CJ53"/>
+      <c r="CK53"/>
+      <c r="CL53"/>
+      <c r="CM53"/>
+      <c r="CN53"/>
+      <c r="CO53"/>
+      <c r="CP53"/>
+      <c r="CQ53"/>
+      <c r="CR53"/>
+      <c r="CS53"/>
+      <c r="CT53"/>
+      <c r="CU53"/>
+      <c r="CV53"/>
+      <c r="CW53"/>
+      <c r="CX53"/>
+      <c r="CY53"/>
+      <c r="CZ53"/>
+      <c r="DA53"/>
+      <c r="DB53"/>
+      <c r="DC53"/>
+      <c r="DD53"/>
+      <c r="DE53"/>
+      <c r="DF53"/>
+      <c r="DG53"/>
+      <c r="DH53"/>
+      <c r="DI53"/>
+      <c r="DJ53"/>
+      <c r="DK53"/>
+      <c r="DL53"/>
+      <c r="DM53"/>
+      <c r="DN53"/>
+      <c r="DO53"/>
+      <c r="DP53"/>
+      <c r="DQ53"/>
+      <c r="DR53"/>
+      <c r="DS53"/>
+      <c r="DT53"/>
+      <c r="DU53"/>
+      <c r="DV53"/>
+      <c r="DW53"/>
+      <c r="DX53"/>
+      <c r="DY53"/>
+      <c r="DZ53"/>
+      <c r="EA53"/>
+      <c r="EB53"/>
+      <c r="EC53"/>
+      <c r="ED53"/>
+      <c r="EE53"/>
+      <c r="EF53"/>
+      <c r="EG53"/>
+      <c r="EH53"/>
+      <c r="EI53"/>
+      <c r="EJ53"/>
+      <c r="EK53"/>
+      <c r="EL53"/>
+      <c r="EM53"/>
+      <c r="EN53"/>
+      <c r="EO53"/>
+      <c r="EP53"/>
+      <c r="EQ53"/>
+      <c r="ER53"/>
+      <c r="ES53"/>
+      <c r="ET53"/>
+      <c r="EU53"/>
+      <c r="EV53"/>
+      <c r="EW53"/>
+      <c r="EX53"/>
+      <c r="EY53"/>
+      <c r="EZ53"/>
+      <c r="FA53"/>
+      <c r="FB53"/>
+      <c r="FC53"/>
+      <c r="FD53"/>
+      <c r="FE53"/>
+      <c r="FF53"/>
+      <c r="FG53"/>
+      <c r="FH53"/>
+      <c r="FI53"/>
+      <c r="FJ53"/>
+      <c r="FK53"/>
+      <c r="FL53"/>
+      <c r="FM53"/>
+      <c r="FN53"/>
+      <c r="FO53"/>
+      <c r="FP53"/>
+      <c r="FQ53"/>
+      <c r="FR53"/>
+      <c r="FS53"/>
+      <c r="FT53"/>
+      <c r="FU53"/>
+      <c r="FV53"/>
+      <c r="FW53"/>
+      <c r="FX53"/>
+      <c r="FY53"/>
+      <c r="FZ53"/>
+      <c r="GA53"/>
+      <c r="GB53"/>
+      <c r="GC53"/>
+      <c r="GD53"/>
+      <c r="GE53"/>
+      <c r="GF53"/>
+      <c r="GG53"/>
+      <c r="GH53"/>
+      <c r="GI53"/>
+      <c r="GJ53"/>
+      <c r="GK53"/>
+      <c r="GL53"/>
+      <c r="GM53"/>
+      <c r="GN53"/>
+      <c r="GO53"/>
+      <c r="GP53"/>
+      <c r="GQ53"/>
+      <c r="GR53"/>
+      <c r="GS53"/>
+      <c r="GT53"/>
+      <c r="GU53"/>
+      <c r="GV53"/>
+      <c r="GW53"/>
+      <c r="GX53"/>
+      <c r="GY53"/>
+      <c r="GZ53"/>
+      <c r="HA53"/>
+      <c r="HB53"/>
+      <c r="HC53"/>
+      <c r="HD53"/>
+      <c r="HE53"/>
+      <c r="HF53"/>
+      <c r="HG53"/>
+      <c r="HH53"/>
+      <c r="HI53"/>
+      <c r="HJ53"/>
+      <c r="HK53"/>
+      <c r="HL53"/>
+      <c r="HM53"/>
+      <c r="HN53"/>
+      <c r="HO53"/>
+      <c r="HP53"/>
+      <c r="HQ53"/>
+      <c r="HR53"/>
+      <c r="HS53"/>
+      <c r="HT53"/>
+      <c r="HU53"/>
+      <c r="HV53"/>
+      <c r="HW53"/>
+      <c r="HX53"/>
+      <c r="HY53"/>
+      <c r="HZ53"/>
+      <c r="IA53"/>
+      <c r="IB53"/>
+      <c r="IC53"/>
+      <c r="ID53"/>
+      <c r="IE53"/>
+      <c r="IF53"/>
+      <c r="IG53"/>
+      <c r="IH53"/>
+      <c r="II53"/>
+      <c r="IJ53"/>
+      <c r="IK53"/>
+      <c r="IL53"/>
+      <c r="IM53"/>
+      <c r="IN53"/>
+      <c r="IO53"/>
+      <c r="IP53"/>
+      <c r="IQ53"/>
+      <c r="IR53"/>
+      <c r="IS53"/>
+      <c r="IT53"/>
+      <c r="IU53"/>
+      <c r="IV53"/>
+      <c r="IW53"/>
     </row>
-    <row r="54" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="46" t="s">
@@ -3157,16 +8092,263 @@
       <c r="J54" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+      <c r="AL54"/>
+      <c r="AM54"/>
+      <c r="AN54"/>
+      <c r="AO54"/>
+      <c r="AP54"/>
+      <c r="AQ54"/>
+      <c r="AR54"/>
+      <c r="AS54"/>
+      <c r="AT54"/>
+      <c r="AU54"/>
+      <c r="AV54"/>
+      <c r="AW54"/>
+      <c r="AX54"/>
+      <c r="AY54"/>
+      <c r="AZ54"/>
+      <c r="BA54"/>
+      <c r="BB54"/>
+      <c r="BC54"/>
+      <c r="BD54"/>
+      <c r="BE54"/>
+      <c r="BF54"/>
+      <c r="BG54"/>
+      <c r="BH54"/>
+      <c r="BI54"/>
+      <c r="BJ54"/>
+      <c r="BK54"/>
+      <c r="BL54"/>
+      <c r="BM54"/>
+      <c r="BN54"/>
+      <c r="BO54"/>
+      <c r="BP54"/>
+      <c r="BQ54"/>
+      <c r="BR54"/>
+      <c r="BS54"/>
+      <c r="BT54"/>
+      <c r="BU54"/>
+      <c r="BV54"/>
+      <c r="BW54"/>
+      <c r="BX54"/>
+      <c r="BY54"/>
+      <c r="BZ54"/>
+      <c r="CA54"/>
+      <c r="CB54"/>
+      <c r="CC54"/>
+      <c r="CD54"/>
+      <c r="CE54"/>
+      <c r="CF54"/>
+      <c r="CG54"/>
+      <c r="CH54"/>
+      <c r="CI54"/>
+      <c r="CJ54"/>
+      <c r="CK54"/>
+      <c r="CL54"/>
+      <c r="CM54"/>
+      <c r="CN54"/>
+      <c r="CO54"/>
+      <c r="CP54"/>
+      <c r="CQ54"/>
+      <c r="CR54"/>
+      <c r="CS54"/>
+      <c r="CT54"/>
+      <c r="CU54"/>
+      <c r="CV54"/>
+      <c r="CW54"/>
+      <c r="CX54"/>
+      <c r="CY54"/>
+      <c r="CZ54"/>
+      <c r="DA54"/>
+      <c r="DB54"/>
+      <c r="DC54"/>
+      <c r="DD54"/>
+      <c r="DE54"/>
+      <c r="DF54"/>
+      <c r="DG54"/>
+      <c r="DH54"/>
+      <c r="DI54"/>
+      <c r="DJ54"/>
+      <c r="DK54"/>
+      <c r="DL54"/>
+      <c r="DM54"/>
+      <c r="DN54"/>
+      <c r="DO54"/>
+      <c r="DP54"/>
+      <c r="DQ54"/>
+      <c r="DR54"/>
+      <c r="DS54"/>
+      <c r="DT54"/>
+      <c r="DU54"/>
+      <c r="DV54"/>
+      <c r="DW54"/>
+      <c r="DX54"/>
+      <c r="DY54"/>
+      <c r="DZ54"/>
+      <c r="EA54"/>
+      <c r="EB54"/>
+      <c r="EC54"/>
+      <c r="ED54"/>
+      <c r="EE54"/>
+      <c r="EF54"/>
+      <c r="EG54"/>
+      <c r="EH54"/>
+      <c r="EI54"/>
+      <c r="EJ54"/>
+      <c r="EK54"/>
+      <c r="EL54"/>
+      <c r="EM54"/>
+      <c r="EN54"/>
+      <c r="EO54"/>
+      <c r="EP54"/>
+      <c r="EQ54"/>
+      <c r="ER54"/>
+      <c r="ES54"/>
+      <c r="ET54"/>
+      <c r="EU54"/>
+      <c r="EV54"/>
+      <c r="EW54"/>
+      <c r="EX54"/>
+      <c r="EY54"/>
+      <c r="EZ54"/>
+      <c r="FA54"/>
+      <c r="FB54"/>
+      <c r="FC54"/>
+      <c r="FD54"/>
+      <c r="FE54"/>
+      <c r="FF54"/>
+      <c r="FG54"/>
+      <c r="FH54"/>
+      <c r="FI54"/>
+      <c r="FJ54"/>
+      <c r="FK54"/>
+      <c r="FL54"/>
+      <c r="FM54"/>
+      <c r="FN54"/>
+      <c r="FO54"/>
+      <c r="FP54"/>
+      <c r="FQ54"/>
+      <c r="FR54"/>
+      <c r="FS54"/>
+      <c r="FT54"/>
+      <c r="FU54"/>
+      <c r="FV54"/>
+      <c r="FW54"/>
+      <c r="FX54"/>
+      <c r="FY54"/>
+      <c r="FZ54"/>
+      <c r="GA54"/>
+      <c r="GB54"/>
+      <c r="GC54"/>
+      <c r="GD54"/>
+      <c r="GE54"/>
+      <c r="GF54"/>
+      <c r="GG54"/>
+      <c r="GH54"/>
+      <c r="GI54"/>
+      <c r="GJ54"/>
+      <c r="GK54"/>
+      <c r="GL54"/>
+      <c r="GM54"/>
+      <c r="GN54"/>
+      <c r="GO54"/>
+      <c r="GP54"/>
+      <c r="GQ54"/>
+      <c r="GR54"/>
+      <c r="GS54"/>
+      <c r="GT54"/>
+      <c r="GU54"/>
+      <c r="GV54"/>
+      <c r="GW54"/>
+      <c r="GX54"/>
+      <c r="GY54"/>
+      <c r="GZ54"/>
+      <c r="HA54"/>
+      <c r="HB54"/>
+      <c r="HC54"/>
+      <c r="HD54"/>
+      <c r="HE54"/>
+      <c r="HF54"/>
+      <c r="HG54"/>
+      <c r="HH54"/>
+      <c r="HI54"/>
+      <c r="HJ54"/>
+      <c r="HK54"/>
+      <c r="HL54"/>
+      <c r="HM54"/>
+      <c r="HN54"/>
+      <c r="HO54"/>
+      <c r="HP54"/>
+      <c r="HQ54"/>
+      <c r="HR54"/>
+      <c r="HS54"/>
+      <c r="HT54"/>
+      <c r="HU54"/>
+      <c r="HV54"/>
+      <c r="HW54"/>
+      <c r="HX54"/>
+      <c r="HY54"/>
+      <c r="HZ54"/>
+      <c r="IA54"/>
+      <c r="IB54"/>
+      <c r="IC54"/>
+      <c r="ID54"/>
+      <c r="IE54"/>
+      <c r="IF54"/>
+      <c r="IG54"/>
+      <c r="IH54"/>
+      <c r="II54"/>
+      <c r="IJ54"/>
+      <c r="IK54"/>
+      <c r="IL54"/>
+      <c r="IM54"/>
+      <c r="IN54"/>
+      <c r="IO54"/>
+      <c r="IP54"/>
+      <c r="IQ54"/>
+      <c r="IR54"/>
+      <c r="IS54"/>
+      <c r="IT54"/>
+      <c r="IU54"/>
+      <c r="IV54"/>
+      <c r="IW54"/>
     </row>
-    <row r="55" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B55" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="60" t="s">
-        <v>105</v>
+      <c r="C55" s="58" t="s">
+        <v>103</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="46" t="s">
@@ -3185,16 +8367,263 @@
       <c r="J55" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+      <c r="AL55"/>
+      <c r="AM55"/>
+      <c r="AN55"/>
+      <c r="AO55"/>
+      <c r="AP55"/>
+      <c r="AQ55"/>
+      <c r="AR55"/>
+      <c r="AS55"/>
+      <c r="AT55"/>
+      <c r="AU55"/>
+      <c r="AV55"/>
+      <c r="AW55"/>
+      <c r="AX55"/>
+      <c r="AY55"/>
+      <c r="AZ55"/>
+      <c r="BA55"/>
+      <c r="BB55"/>
+      <c r="BC55"/>
+      <c r="BD55"/>
+      <c r="BE55"/>
+      <c r="BF55"/>
+      <c r="BG55"/>
+      <c r="BH55"/>
+      <c r="BI55"/>
+      <c r="BJ55"/>
+      <c r="BK55"/>
+      <c r="BL55"/>
+      <c r="BM55"/>
+      <c r="BN55"/>
+      <c r="BO55"/>
+      <c r="BP55"/>
+      <c r="BQ55"/>
+      <c r="BR55"/>
+      <c r="BS55"/>
+      <c r="BT55"/>
+      <c r="BU55"/>
+      <c r="BV55"/>
+      <c r="BW55"/>
+      <c r="BX55"/>
+      <c r="BY55"/>
+      <c r="BZ55"/>
+      <c r="CA55"/>
+      <c r="CB55"/>
+      <c r="CC55"/>
+      <c r="CD55"/>
+      <c r="CE55"/>
+      <c r="CF55"/>
+      <c r="CG55"/>
+      <c r="CH55"/>
+      <c r="CI55"/>
+      <c r="CJ55"/>
+      <c r="CK55"/>
+      <c r="CL55"/>
+      <c r="CM55"/>
+      <c r="CN55"/>
+      <c r="CO55"/>
+      <c r="CP55"/>
+      <c r="CQ55"/>
+      <c r="CR55"/>
+      <c r="CS55"/>
+      <c r="CT55"/>
+      <c r="CU55"/>
+      <c r="CV55"/>
+      <c r="CW55"/>
+      <c r="CX55"/>
+      <c r="CY55"/>
+      <c r="CZ55"/>
+      <c r="DA55"/>
+      <c r="DB55"/>
+      <c r="DC55"/>
+      <c r="DD55"/>
+      <c r="DE55"/>
+      <c r="DF55"/>
+      <c r="DG55"/>
+      <c r="DH55"/>
+      <c r="DI55"/>
+      <c r="DJ55"/>
+      <c r="DK55"/>
+      <c r="DL55"/>
+      <c r="DM55"/>
+      <c r="DN55"/>
+      <c r="DO55"/>
+      <c r="DP55"/>
+      <c r="DQ55"/>
+      <c r="DR55"/>
+      <c r="DS55"/>
+      <c r="DT55"/>
+      <c r="DU55"/>
+      <c r="DV55"/>
+      <c r="DW55"/>
+      <c r="DX55"/>
+      <c r="DY55"/>
+      <c r="DZ55"/>
+      <c r="EA55"/>
+      <c r="EB55"/>
+      <c r="EC55"/>
+      <c r="ED55"/>
+      <c r="EE55"/>
+      <c r="EF55"/>
+      <c r="EG55"/>
+      <c r="EH55"/>
+      <c r="EI55"/>
+      <c r="EJ55"/>
+      <c r="EK55"/>
+      <c r="EL55"/>
+      <c r="EM55"/>
+      <c r="EN55"/>
+      <c r="EO55"/>
+      <c r="EP55"/>
+      <c r="EQ55"/>
+      <c r="ER55"/>
+      <c r="ES55"/>
+      <c r="ET55"/>
+      <c r="EU55"/>
+      <c r="EV55"/>
+      <c r="EW55"/>
+      <c r="EX55"/>
+      <c r="EY55"/>
+      <c r="EZ55"/>
+      <c r="FA55"/>
+      <c r="FB55"/>
+      <c r="FC55"/>
+      <c r="FD55"/>
+      <c r="FE55"/>
+      <c r="FF55"/>
+      <c r="FG55"/>
+      <c r="FH55"/>
+      <c r="FI55"/>
+      <c r="FJ55"/>
+      <c r="FK55"/>
+      <c r="FL55"/>
+      <c r="FM55"/>
+      <c r="FN55"/>
+      <c r="FO55"/>
+      <c r="FP55"/>
+      <c r="FQ55"/>
+      <c r="FR55"/>
+      <c r="FS55"/>
+      <c r="FT55"/>
+      <c r="FU55"/>
+      <c r="FV55"/>
+      <c r="FW55"/>
+      <c r="FX55"/>
+      <c r="FY55"/>
+      <c r="FZ55"/>
+      <c r="GA55"/>
+      <c r="GB55"/>
+      <c r="GC55"/>
+      <c r="GD55"/>
+      <c r="GE55"/>
+      <c r="GF55"/>
+      <c r="GG55"/>
+      <c r="GH55"/>
+      <c r="GI55"/>
+      <c r="GJ55"/>
+      <c r="GK55"/>
+      <c r="GL55"/>
+      <c r="GM55"/>
+      <c r="GN55"/>
+      <c r="GO55"/>
+      <c r="GP55"/>
+      <c r="GQ55"/>
+      <c r="GR55"/>
+      <c r="GS55"/>
+      <c r="GT55"/>
+      <c r="GU55"/>
+      <c r="GV55"/>
+      <c r="GW55"/>
+      <c r="GX55"/>
+      <c r="GY55"/>
+      <c r="GZ55"/>
+      <c r="HA55"/>
+      <c r="HB55"/>
+      <c r="HC55"/>
+      <c r="HD55"/>
+      <c r="HE55"/>
+      <c r="HF55"/>
+      <c r="HG55"/>
+      <c r="HH55"/>
+      <c r="HI55"/>
+      <c r="HJ55"/>
+      <c r="HK55"/>
+      <c r="HL55"/>
+      <c r="HM55"/>
+      <c r="HN55"/>
+      <c r="HO55"/>
+      <c r="HP55"/>
+      <c r="HQ55"/>
+      <c r="HR55"/>
+      <c r="HS55"/>
+      <c r="HT55"/>
+      <c r="HU55"/>
+      <c r="HV55"/>
+      <c r="HW55"/>
+      <c r="HX55"/>
+      <c r="HY55"/>
+      <c r="HZ55"/>
+      <c r="IA55"/>
+      <c r="IB55"/>
+      <c r="IC55"/>
+      <c r="ID55"/>
+      <c r="IE55"/>
+      <c r="IF55"/>
+      <c r="IG55"/>
+      <c r="IH55"/>
+      <c r="II55"/>
+      <c r="IJ55"/>
+      <c r="IK55"/>
+      <c r="IL55"/>
+      <c r="IM55"/>
+      <c r="IN55"/>
+      <c r="IO55"/>
+      <c r="IP55"/>
+      <c r="IQ55"/>
+      <c r="IR55"/>
+      <c r="IS55"/>
+      <c r="IT55"/>
+      <c r="IU55"/>
+      <c r="IV55"/>
+      <c r="IW55"/>
     </row>
-    <row r="56" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="58" t="s">
-        <v>107</v>
+      <c r="C56" s="60" t="s">
+        <v>105</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="46" t="s">
@@ -3213,16 +8642,263 @@
       <c r="J56" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+      <c r="AL56"/>
+      <c r="AM56"/>
+      <c r="AN56"/>
+      <c r="AO56"/>
+      <c r="AP56"/>
+      <c r="AQ56"/>
+      <c r="AR56"/>
+      <c r="AS56"/>
+      <c r="AT56"/>
+      <c r="AU56"/>
+      <c r="AV56"/>
+      <c r="AW56"/>
+      <c r="AX56"/>
+      <c r="AY56"/>
+      <c r="AZ56"/>
+      <c r="BA56"/>
+      <c r="BB56"/>
+      <c r="BC56"/>
+      <c r="BD56"/>
+      <c r="BE56"/>
+      <c r="BF56"/>
+      <c r="BG56"/>
+      <c r="BH56"/>
+      <c r="BI56"/>
+      <c r="BJ56"/>
+      <c r="BK56"/>
+      <c r="BL56"/>
+      <c r="BM56"/>
+      <c r="BN56"/>
+      <c r="BO56"/>
+      <c r="BP56"/>
+      <c r="BQ56"/>
+      <c r="BR56"/>
+      <c r="BS56"/>
+      <c r="BT56"/>
+      <c r="BU56"/>
+      <c r="BV56"/>
+      <c r="BW56"/>
+      <c r="BX56"/>
+      <c r="BY56"/>
+      <c r="BZ56"/>
+      <c r="CA56"/>
+      <c r="CB56"/>
+      <c r="CC56"/>
+      <c r="CD56"/>
+      <c r="CE56"/>
+      <c r="CF56"/>
+      <c r="CG56"/>
+      <c r="CH56"/>
+      <c r="CI56"/>
+      <c r="CJ56"/>
+      <c r="CK56"/>
+      <c r="CL56"/>
+      <c r="CM56"/>
+      <c r="CN56"/>
+      <c r="CO56"/>
+      <c r="CP56"/>
+      <c r="CQ56"/>
+      <c r="CR56"/>
+      <c r="CS56"/>
+      <c r="CT56"/>
+      <c r="CU56"/>
+      <c r="CV56"/>
+      <c r="CW56"/>
+      <c r="CX56"/>
+      <c r="CY56"/>
+      <c r="CZ56"/>
+      <c r="DA56"/>
+      <c r="DB56"/>
+      <c r="DC56"/>
+      <c r="DD56"/>
+      <c r="DE56"/>
+      <c r="DF56"/>
+      <c r="DG56"/>
+      <c r="DH56"/>
+      <c r="DI56"/>
+      <c r="DJ56"/>
+      <c r="DK56"/>
+      <c r="DL56"/>
+      <c r="DM56"/>
+      <c r="DN56"/>
+      <c r="DO56"/>
+      <c r="DP56"/>
+      <c r="DQ56"/>
+      <c r="DR56"/>
+      <c r="DS56"/>
+      <c r="DT56"/>
+      <c r="DU56"/>
+      <c r="DV56"/>
+      <c r="DW56"/>
+      <c r="DX56"/>
+      <c r="DY56"/>
+      <c r="DZ56"/>
+      <c r="EA56"/>
+      <c r="EB56"/>
+      <c r="EC56"/>
+      <c r="ED56"/>
+      <c r="EE56"/>
+      <c r="EF56"/>
+      <c r="EG56"/>
+      <c r="EH56"/>
+      <c r="EI56"/>
+      <c r="EJ56"/>
+      <c r="EK56"/>
+      <c r="EL56"/>
+      <c r="EM56"/>
+      <c r="EN56"/>
+      <c r="EO56"/>
+      <c r="EP56"/>
+      <c r="EQ56"/>
+      <c r="ER56"/>
+      <c r="ES56"/>
+      <c r="ET56"/>
+      <c r="EU56"/>
+      <c r="EV56"/>
+      <c r="EW56"/>
+      <c r="EX56"/>
+      <c r="EY56"/>
+      <c r="EZ56"/>
+      <c r="FA56"/>
+      <c r="FB56"/>
+      <c r="FC56"/>
+      <c r="FD56"/>
+      <c r="FE56"/>
+      <c r="FF56"/>
+      <c r="FG56"/>
+      <c r="FH56"/>
+      <c r="FI56"/>
+      <c r="FJ56"/>
+      <c r="FK56"/>
+      <c r="FL56"/>
+      <c r="FM56"/>
+      <c r="FN56"/>
+      <c r="FO56"/>
+      <c r="FP56"/>
+      <c r="FQ56"/>
+      <c r="FR56"/>
+      <c r="FS56"/>
+      <c r="FT56"/>
+      <c r="FU56"/>
+      <c r="FV56"/>
+      <c r="FW56"/>
+      <c r="FX56"/>
+      <c r="FY56"/>
+      <c r="FZ56"/>
+      <c r="GA56"/>
+      <c r="GB56"/>
+      <c r="GC56"/>
+      <c r="GD56"/>
+      <c r="GE56"/>
+      <c r="GF56"/>
+      <c r="GG56"/>
+      <c r="GH56"/>
+      <c r="GI56"/>
+      <c r="GJ56"/>
+      <c r="GK56"/>
+      <c r="GL56"/>
+      <c r="GM56"/>
+      <c r="GN56"/>
+      <c r="GO56"/>
+      <c r="GP56"/>
+      <c r="GQ56"/>
+      <c r="GR56"/>
+      <c r="GS56"/>
+      <c r="GT56"/>
+      <c r="GU56"/>
+      <c r="GV56"/>
+      <c r="GW56"/>
+      <c r="GX56"/>
+      <c r="GY56"/>
+      <c r="GZ56"/>
+      <c r="HA56"/>
+      <c r="HB56"/>
+      <c r="HC56"/>
+      <c r="HD56"/>
+      <c r="HE56"/>
+      <c r="HF56"/>
+      <c r="HG56"/>
+      <c r="HH56"/>
+      <c r="HI56"/>
+      <c r="HJ56"/>
+      <c r="HK56"/>
+      <c r="HL56"/>
+      <c r="HM56"/>
+      <c r="HN56"/>
+      <c r="HO56"/>
+      <c r="HP56"/>
+      <c r="HQ56"/>
+      <c r="HR56"/>
+      <c r="HS56"/>
+      <c r="HT56"/>
+      <c r="HU56"/>
+      <c r="HV56"/>
+      <c r="HW56"/>
+      <c r="HX56"/>
+      <c r="HY56"/>
+      <c r="HZ56"/>
+      <c r="IA56"/>
+      <c r="IB56"/>
+      <c r="IC56"/>
+      <c r="ID56"/>
+      <c r="IE56"/>
+      <c r="IF56"/>
+      <c r="IG56"/>
+      <c r="IH56"/>
+      <c r="II56"/>
+      <c r="IJ56"/>
+      <c r="IK56"/>
+      <c r="IL56"/>
+      <c r="IM56"/>
+      <c r="IN56"/>
+      <c r="IO56"/>
+      <c r="IP56"/>
+      <c r="IQ56"/>
+      <c r="IR56"/>
+      <c r="IS56"/>
+      <c r="IT56"/>
+      <c r="IU56"/>
+      <c r="IV56"/>
+      <c r="IW56"/>
     </row>
-    <row r="57" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" s="47" t="s">
         <v>95</v>
       </c>
       <c r="C57" s="58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="46" t="s">
@@ -3241,46 +8917,539 @@
       <c r="J57" s="49" t="s">
         <v>40</v>
       </c>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57"/>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+      <c r="BY57"/>
+      <c r="BZ57"/>
+      <c r="CA57"/>
+      <c r="CB57"/>
+      <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+      <c r="CF57"/>
+      <c r="CG57"/>
+      <c r="CH57"/>
+      <c r="CI57"/>
+      <c r="CJ57"/>
+      <c r="CK57"/>
+      <c r="CL57"/>
+      <c r="CM57"/>
+      <c r="CN57"/>
+      <c r="CO57"/>
+      <c r="CP57"/>
+      <c r="CQ57"/>
+      <c r="CR57"/>
+      <c r="CS57"/>
+      <c r="CT57"/>
+      <c r="CU57"/>
+      <c r="CV57"/>
+      <c r="CW57"/>
+      <c r="CX57"/>
+      <c r="CY57"/>
+      <c r="CZ57"/>
+      <c r="DA57"/>
+      <c r="DB57"/>
+      <c r="DC57"/>
+      <c r="DD57"/>
+      <c r="DE57"/>
+      <c r="DF57"/>
+      <c r="DG57"/>
+      <c r="DH57"/>
+      <c r="DI57"/>
+      <c r="DJ57"/>
+      <c r="DK57"/>
+      <c r="DL57"/>
+      <c r="DM57"/>
+      <c r="DN57"/>
+      <c r="DO57"/>
+      <c r="DP57"/>
+      <c r="DQ57"/>
+      <c r="DR57"/>
+      <c r="DS57"/>
+      <c r="DT57"/>
+      <c r="DU57"/>
+      <c r="DV57"/>
+      <c r="DW57"/>
+      <c r="DX57"/>
+      <c r="DY57"/>
+      <c r="DZ57"/>
+      <c r="EA57"/>
+      <c r="EB57"/>
+      <c r="EC57"/>
+      <c r="ED57"/>
+      <c r="EE57"/>
+      <c r="EF57"/>
+      <c r="EG57"/>
+      <c r="EH57"/>
+      <c r="EI57"/>
+      <c r="EJ57"/>
+      <c r="EK57"/>
+      <c r="EL57"/>
+      <c r="EM57"/>
+      <c r="EN57"/>
+      <c r="EO57"/>
+      <c r="EP57"/>
+      <c r="EQ57"/>
+      <c r="ER57"/>
+      <c r="ES57"/>
+      <c r="ET57"/>
+      <c r="EU57"/>
+      <c r="EV57"/>
+      <c r="EW57"/>
+      <c r="EX57"/>
+      <c r="EY57"/>
+      <c r="EZ57"/>
+      <c r="FA57"/>
+      <c r="FB57"/>
+      <c r="FC57"/>
+      <c r="FD57"/>
+      <c r="FE57"/>
+      <c r="FF57"/>
+      <c r="FG57"/>
+      <c r="FH57"/>
+      <c r="FI57"/>
+      <c r="FJ57"/>
+      <c r="FK57"/>
+      <c r="FL57"/>
+      <c r="FM57"/>
+      <c r="FN57"/>
+      <c r="FO57"/>
+      <c r="FP57"/>
+      <c r="FQ57"/>
+      <c r="FR57"/>
+      <c r="FS57"/>
+      <c r="FT57"/>
+      <c r="FU57"/>
+      <c r="FV57"/>
+      <c r="FW57"/>
+      <c r="FX57"/>
+      <c r="FY57"/>
+      <c r="FZ57"/>
+      <c r="GA57"/>
+      <c r="GB57"/>
+      <c r="GC57"/>
+      <c r="GD57"/>
+      <c r="GE57"/>
+      <c r="GF57"/>
+      <c r="GG57"/>
+      <c r="GH57"/>
+      <c r="GI57"/>
+      <c r="GJ57"/>
+      <c r="GK57"/>
+      <c r="GL57"/>
+      <c r="GM57"/>
+      <c r="GN57"/>
+      <c r="GO57"/>
+      <c r="GP57"/>
+      <c r="GQ57"/>
+      <c r="GR57"/>
+      <c r="GS57"/>
+      <c r="GT57"/>
+      <c r="GU57"/>
+      <c r="GV57"/>
+      <c r="GW57"/>
+      <c r="GX57"/>
+      <c r="GY57"/>
+      <c r="GZ57"/>
+      <c r="HA57"/>
+      <c r="HB57"/>
+      <c r="HC57"/>
+      <c r="HD57"/>
+      <c r="HE57"/>
+      <c r="HF57"/>
+      <c r="HG57"/>
+      <c r="HH57"/>
+      <c r="HI57"/>
+      <c r="HJ57"/>
+      <c r="HK57"/>
+      <c r="HL57"/>
+      <c r="HM57"/>
+      <c r="HN57"/>
+      <c r="HO57"/>
+      <c r="HP57"/>
+      <c r="HQ57"/>
+      <c r="HR57"/>
+      <c r="HS57"/>
+      <c r="HT57"/>
+      <c r="HU57"/>
+      <c r="HV57"/>
+      <c r="HW57"/>
+      <c r="HX57"/>
+      <c r="HY57"/>
+      <c r="HZ57"/>
+      <c r="IA57"/>
+      <c r="IB57"/>
+      <c r="IC57"/>
+      <c r="ID57"/>
+      <c r="IE57"/>
+      <c r="IF57"/>
+      <c r="IG57"/>
+      <c r="IH57"/>
+      <c r="II57"/>
+      <c r="IJ57"/>
+      <c r="IK57"/>
+      <c r="IL57"/>
+      <c r="IM57"/>
+      <c r="IN57"/>
+      <c r="IO57"/>
+      <c r="IP57"/>
+      <c r="IQ57"/>
+      <c r="IR57"/>
+      <c r="IS57"/>
+      <c r="IT57"/>
+      <c r="IU57"/>
+      <c r="IV57"/>
+      <c r="IW57"/>
     </row>
-    <row r="58" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="35" t="s">
+    <row r="58" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F58" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="48">
+        <v>0</v>
+      </c>
+      <c r="H58" s="48">
+        <v>1</v>
+      </c>
+      <c r="I58" s="48"/>
+      <c r="J58" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+      <c r="AL58"/>
+      <c r="AM58"/>
+      <c r="AN58"/>
+      <c r="AO58"/>
+      <c r="AP58"/>
+      <c r="AQ58"/>
+      <c r="AR58"/>
+      <c r="AS58"/>
+      <c r="AT58"/>
+      <c r="AU58"/>
+      <c r="AV58"/>
+      <c r="AW58"/>
+      <c r="AX58"/>
+      <c r="AY58"/>
+      <c r="AZ58"/>
+      <c r="BA58"/>
+      <c r="BB58"/>
+      <c r="BC58"/>
+      <c r="BD58"/>
+      <c r="BE58"/>
+      <c r="BF58"/>
+      <c r="BG58"/>
+      <c r="BH58"/>
+      <c r="BI58"/>
+      <c r="BJ58"/>
+      <c r="BK58"/>
+      <c r="BL58"/>
+      <c r="BM58"/>
+      <c r="BN58"/>
+      <c r="BO58"/>
+      <c r="BP58"/>
+      <c r="BQ58"/>
+      <c r="BR58"/>
+      <c r="BS58"/>
+      <c r="BT58"/>
+      <c r="BU58"/>
+      <c r="BV58"/>
+      <c r="BW58"/>
+      <c r="BX58"/>
+      <c r="BY58"/>
+      <c r="BZ58"/>
+      <c r="CA58"/>
+      <c r="CB58"/>
+      <c r="CC58"/>
+      <c r="CD58"/>
+      <c r="CE58"/>
+      <c r="CF58"/>
+      <c r="CG58"/>
+      <c r="CH58"/>
+      <c r="CI58"/>
+      <c r="CJ58"/>
+      <c r="CK58"/>
+      <c r="CL58"/>
+      <c r="CM58"/>
+      <c r="CN58"/>
+      <c r="CO58"/>
+      <c r="CP58"/>
+      <c r="CQ58"/>
+      <c r="CR58"/>
+      <c r="CS58"/>
+      <c r="CT58"/>
+      <c r="CU58"/>
+      <c r="CV58"/>
+      <c r="CW58"/>
+      <c r="CX58"/>
+      <c r="CY58"/>
+      <c r="CZ58"/>
+      <c r="DA58"/>
+      <c r="DB58"/>
+      <c r="DC58"/>
+      <c r="DD58"/>
+      <c r="DE58"/>
+      <c r="DF58"/>
+      <c r="DG58"/>
+      <c r="DH58"/>
+      <c r="DI58"/>
+      <c r="DJ58"/>
+      <c r="DK58"/>
+      <c r="DL58"/>
+      <c r="DM58"/>
+      <c r="DN58"/>
+      <c r="DO58"/>
+      <c r="DP58"/>
+      <c r="DQ58"/>
+      <c r="DR58"/>
+      <c r="DS58"/>
+      <c r="DT58"/>
+      <c r="DU58"/>
+      <c r="DV58"/>
+      <c r="DW58"/>
+      <c r="DX58"/>
+      <c r="DY58"/>
+      <c r="DZ58"/>
+      <c r="EA58"/>
+      <c r="EB58"/>
+      <c r="EC58"/>
+      <c r="ED58"/>
+      <c r="EE58"/>
+      <c r="EF58"/>
+      <c r="EG58"/>
+      <c r="EH58"/>
+      <c r="EI58"/>
+      <c r="EJ58"/>
+      <c r="EK58"/>
+      <c r="EL58"/>
+      <c r="EM58"/>
+      <c r="EN58"/>
+      <c r="EO58"/>
+      <c r="EP58"/>
+      <c r="EQ58"/>
+      <c r="ER58"/>
+      <c r="ES58"/>
+      <c r="ET58"/>
+      <c r="EU58"/>
+      <c r="EV58"/>
+      <c r="EW58"/>
+      <c r="EX58"/>
+      <c r="EY58"/>
+      <c r="EZ58"/>
+      <c r="FA58"/>
+      <c r="FB58"/>
+      <c r="FC58"/>
+      <c r="FD58"/>
+      <c r="FE58"/>
+      <c r="FF58"/>
+      <c r="FG58"/>
+      <c r="FH58"/>
+      <c r="FI58"/>
+      <c r="FJ58"/>
+      <c r="FK58"/>
+      <c r="FL58"/>
+      <c r="FM58"/>
+      <c r="FN58"/>
+      <c r="FO58"/>
+      <c r="FP58"/>
+      <c r="FQ58"/>
+      <c r="FR58"/>
+      <c r="FS58"/>
+      <c r="FT58"/>
+      <c r="FU58"/>
+      <c r="FV58"/>
+      <c r="FW58"/>
+      <c r="FX58"/>
+      <c r="FY58"/>
+      <c r="FZ58"/>
+      <c r="GA58"/>
+      <c r="GB58"/>
+      <c r="GC58"/>
+      <c r="GD58"/>
+      <c r="GE58"/>
+      <c r="GF58"/>
+      <c r="GG58"/>
+      <c r="GH58"/>
+      <c r="GI58"/>
+      <c r="GJ58"/>
+      <c r="GK58"/>
+      <c r="GL58"/>
+      <c r="GM58"/>
+      <c r="GN58"/>
+      <c r="GO58"/>
+      <c r="GP58"/>
+      <c r="GQ58"/>
+      <c r="GR58"/>
+      <c r="GS58"/>
+      <c r="GT58"/>
+      <c r="GU58"/>
+      <c r="GV58"/>
+      <c r="GW58"/>
+      <c r="GX58"/>
+      <c r="GY58"/>
+      <c r="GZ58"/>
+      <c r="HA58"/>
+      <c r="HB58"/>
+      <c r="HC58"/>
+      <c r="HD58"/>
+      <c r="HE58"/>
+      <c r="HF58"/>
+      <c r="HG58"/>
+      <c r="HH58"/>
+      <c r="HI58"/>
+      <c r="HJ58"/>
+      <c r="HK58"/>
+      <c r="HL58"/>
+      <c r="HM58"/>
+      <c r="HN58"/>
+      <c r="HO58"/>
+      <c r="HP58"/>
+      <c r="HQ58"/>
+      <c r="HR58"/>
+      <c r="HS58"/>
+      <c r="HT58"/>
+      <c r="HU58"/>
+      <c r="HV58"/>
+      <c r="HW58"/>
+      <c r="HX58"/>
+      <c r="HY58"/>
+      <c r="HZ58"/>
+      <c r="IA58"/>
+      <c r="IB58"/>
+      <c r="IC58"/>
+      <c r="ID58"/>
+      <c r="IE58"/>
+      <c r="IF58"/>
+      <c r="IG58"/>
+      <c r="IH58"/>
+      <c r="II58"/>
+      <c r="IJ58"/>
+      <c r="IK58"/>
+      <c r="IL58"/>
+      <c r="IM58"/>
+      <c r="IN58"/>
+      <c r="IO58"/>
+      <c r="IP58"/>
+      <c r="IQ58"/>
+      <c r="IR58"/>
+      <c r="IS58"/>
+      <c r="IT58"/>
+      <c r="IU58"/>
+      <c r="IV58"/>
+      <c r="IW58"/>
+    </row>
+    <row r="59" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="38">
-        <v>0</v>
-      </c>
-      <c r="H58" s="39">
-        <v>1</v>
-      </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D59" s="1"/>
+      <c r="C59" s="51" t="s">
+        <v>112</v>
+      </c>
       <c r="E59" s="35" t="s">
         <v>110</v>
       </c>
@@ -3297,18 +9466,264 @@
       <c r="J59" s="40" t="s">
         <v>40</v>
       </c>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+      <c r="AL59"/>
+      <c r="AM59"/>
+      <c r="AN59"/>
+      <c r="AO59"/>
+      <c r="AP59"/>
+      <c r="AQ59"/>
+      <c r="AR59"/>
+      <c r="AS59"/>
+      <c r="AT59"/>
+      <c r="AU59"/>
+      <c r="AV59"/>
+      <c r="AW59"/>
+      <c r="AX59"/>
+      <c r="AY59"/>
+      <c r="AZ59"/>
+      <c r="BA59"/>
+      <c r="BB59"/>
+      <c r="BC59"/>
+      <c r="BD59"/>
+      <c r="BE59"/>
+      <c r="BF59"/>
+      <c r="BG59"/>
+      <c r="BH59"/>
+      <c r="BI59"/>
+      <c r="BJ59"/>
+      <c r="BK59"/>
+      <c r="BL59"/>
+      <c r="BM59"/>
+      <c r="BN59"/>
+      <c r="BO59"/>
+      <c r="BP59"/>
+      <c r="BQ59"/>
+      <c r="BR59"/>
+      <c r="BS59"/>
+      <c r="BT59"/>
+      <c r="BU59"/>
+      <c r="BV59"/>
+      <c r="BW59"/>
+      <c r="BX59"/>
+      <c r="BY59"/>
+      <c r="BZ59"/>
+      <c r="CA59"/>
+      <c r="CB59"/>
+      <c r="CC59"/>
+      <c r="CD59"/>
+      <c r="CE59"/>
+      <c r="CF59"/>
+      <c r="CG59"/>
+      <c r="CH59"/>
+      <c r="CI59"/>
+      <c r="CJ59"/>
+      <c r="CK59"/>
+      <c r="CL59"/>
+      <c r="CM59"/>
+      <c r="CN59"/>
+      <c r="CO59"/>
+      <c r="CP59"/>
+      <c r="CQ59"/>
+      <c r="CR59"/>
+      <c r="CS59"/>
+      <c r="CT59"/>
+      <c r="CU59"/>
+      <c r="CV59"/>
+      <c r="CW59"/>
+      <c r="CX59"/>
+      <c r="CY59"/>
+      <c r="CZ59"/>
+      <c r="DA59"/>
+      <c r="DB59"/>
+      <c r="DC59"/>
+      <c r="DD59"/>
+      <c r="DE59"/>
+      <c r="DF59"/>
+      <c r="DG59"/>
+      <c r="DH59"/>
+      <c r="DI59"/>
+      <c r="DJ59"/>
+      <c r="DK59"/>
+      <c r="DL59"/>
+      <c r="DM59"/>
+      <c r="DN59"/>
+      <c r="DO59"/>
+      <c r="DP59"/>
+      <c r="DQ59"/>
+      <c r="DR59"/>
+      <c r="DS59"/>
+      <c r="DT59"/>
+      <c r="DU59"/>
+      <c r="DV59"/>
+      <c r="DW59"/>
+      <c r="DX59"/>
+      <c r="DY59"/>
+      <c r="DZ59"/>
+      <c r="EA59"/>
+      <c r="EB59"/>
+      <c r="EC59"/>
+      <c r="ED59"/>
+      <c r="EE59"/>
+      <c r="EF59"/>
+      <c r="EG59"/>
+      <c r="EH59"/>
+      <c r="EI59"/>
+      <c r="EJ59"/>
+      <c r="EK59"/>
+      <c r="EL59"/>
+      <c r="EM59"/>
+      <c r="EN59"/>
+      <c r="EO59"/>
+      <c r="EP59"/>
+      <c r="EQ59"/>
+      <c r="ER59"/>
+      <c r="ES59"/>
+      <c r="ET59"/>
+      <c r="EU59"/>
+      <c r="EV59"/>
+      <c r="EW59"/>
+      <c r="EX59"/>
+      <c r="EY59"/>
+      <c r="EZ59"/>
+      <c r="FA59"/>
+      <c r="FB59"/>
+      <c r="FC59"/>
+      <c r="FD59"/>
+      <c r="FE59"/>
+      <c r="FF59"/>
+      <c r="FG59"/>
+      <c r="FH59"/>
+      <c r="FI59"/>
+      <c r="FJ59"/>
+      <c r="FK59"/>
+      <c r="FL59"/>
+      <c r="FM59"/>
+      <c r="FN59"/>
+      <c r="FO59"/>
+      <c r="FP59"/>
+      <c r="FQ59"/>
+      <c r="FR59"/>
+      <c r="FS59"/>
+      <c r="FT59"/>
+      <c r="FU59"/>
+      <c r="FV59"/>
+      <c r="FW59"/>
+      <c r="FX59"/>
+      <c r="FY59"/>
+      <c r="FZ59"/>
+      <c r="GA59"/>
+      <c r="GB59"/>
+      <c r="GC59"/>
+      <c r="GD59"/>
+      <c r="GE59"/>
+      <c r="GF59"/>
+      <c r="GG59"/>
+      <c r="GH59"/>
+      <c r="GI59"/>
+      <c r="GJ59"/>
+      <c r="GK59"/>
+      <c r="GL59"/>
+      <c r="GM59"/>
+      <c r="GN59"/>
+      <c r="GO59"/>
+      <c r="GP59"/>
+      <c r="GQ59"/>
+      <c r="GR59"/>
+      <c r="GS59"/>
+      <c r="GT59"/>
+      <c r="GU59"/>
+      <c r="GV59"/>
+      <c r="GW59"/>
+      <c r="GX59"/>
+      <c r="GY59"/>
+      <c r="GZ59"/>
+      <c r="HA59"/>
+      <c r="HB59"/>
+      <c r="HC59"/>
+      <c r="HD59"/>
+      <c r="HE59"/>
+      <c r="HF59"/>
+      <c r="HG59"/>
+      <c r="HH59"/>
+      <c r="HI59"/>
+      <c r="HJ59"/>
+      <c r="HK59"/>
+      <c r="HL59"/>
+      <c r="HM59"/>
+      <c r="HN59"/>
+      <c r="HO59"/>
+      <c r="HP59"/>
+      <c r="HQ59"/>
+      <c r="HR59"/>
+      <c r="HS59"/>
+      <c r="HT59"/>
+      <c r="HU59"/>
+      <c r="HV59"/>
+      <c r="HW59"/>
+      <c r="HX59"/>
+      <c r="HY59"/>
+      <c r="HZ59"/>
+      <c r="IA59"/>
+      <c r="IB59"/>
+      <c r="IC59"/>
+      <c r="ID59"/>
+      <c r="IE59"/>
+      <c r="IF59"/>
+      <c r="IG59"/>
+      <c r="IH59"/>
+      <c r="II59"/>
+      <c r="IJ59"/>
+      <c r="IK59"/>
+      <c r="IL59"/>
+      <c r="IM59"/>
+      <c r="IN59"/>
+      <c r="IO59"/>
+      <c r="IP59"/>
+      <c r="IQ59"/>
+      <c r="IR59"/>
+      <c r="IS59"/>
+      <c r="IT59"/>
+      <c r="IU59"/>
+      <c r="IV59"/>
+      <c r="IW59"/>
     </row>
-    <row r="60" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="61" t="s">
-        <v>22</v>
+    <row r="60" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="35" t="s">
+        <v>113</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="1"/>
+      <c r="C60" s="35" t="s">
+        <v>114</v>
+      </c>
       <c r="E60" s="35" t="s">
         <v>110</v>
       </c>
@@ -3321,22 +9736,268 @@
       <c r="H60" s="39">
         <v>1</v>
       </c>
-      <c r="I60" s="53"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="40" t="s">
-        <v>15</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+      <c r="AL60"/>
+      <c r="AM60"/>
+      <c r="AN60"/>
+      <c r="AO60"/>
+      <c r="AP60"/>
+      <c r="AQ60"/>
+      <c r="AR60"/>
+      <c r="AS60"/>
+      <c r="AT60"/>
+      <c r="AU60"/>
+      <c r="AV60"/>
+      <c r="AW60"/>
+      <c r="AX60"/>
+      <c r="AY60"/>
+      <c r="AZ60"/>
+      <c r="BA60"/>
+      <c r="BB60"/>
+      <c r="BC60"/>
+      <c r="BD60"/>
+      <c r="BE60"/>
+      <c r="BF60"/>
+      <c r="BG60"/>
+      <c r="BH60"/>
+      <c r="BI60"/>
+      <c r="BJ60"/>
+      <c r="BK60"/>
+      <c r="BL60"/>
+      <c r="BM60"/>
+      <c r="BN60"/>
+      <c r="BO60"/>
+      <c r="BP60"/>
+      <c r="BQ60"/>
+      <c r="BR60"/>
+      <c r="BS60"/>
+      <c r="BT60"/>
+      <c r="BU60"/>
+      <c r="BV60"/>
+      <c r="BW60"/>
+      <c r="BX60"/>
+      <c r="BY60"/>
+      <c r="BZ60"/>
+      <c r="CA60"/>
+      <c r="CB60"/>
+      <c r="CC60"/>
+      <c r="CD60"/>
+      <c r="CE60"/>
+      <c r="CF60"/>
+      <c r="CG60"/>
+      <c r="CH60"/>
+      <c r="CI60"/>
+      <c r="CJ60"/>
+      <c r="CK60"/>
+      <c r="CL60"/>
+      <c r="CM60"/>
+      <c r="CN60"/>
+      <c r="CO60"/>
+      <c r="CP60"/>
+      <c r="CQ60"/>
+      <c r="CR60"/>
+      <c r="CS60"/>
+      <c r="CT60"/>
+      <c r="CU60"/>
+      <c r="CV60"/>
+      <c r="CW60"/>
+      <c r="CX60"/>
+      <c r="CY60"/>
+      <c r="CZ60"/>
+      <c r="DA60"/>
+      <c r="DB60"/>
+      <c r="DC60"/>
+      <c r="DD60"/>
+      <c r="DE60"/>
+      <c r="DF60"/>
+      <c r="DG60"/>
+      <c r="DH60"/>
+      <c r="DI60"/>
+      <c r="DJ60"/>
+      <c r="DK60"/>
+      <c r="DL60"/>
+      <c r="DM60"/>
+      <c r="DN60"/>
+      <c r="DO60"/>
+      <c r="DP60"/>
+      <c r="DQ60"/>
+      <c r="DR60"/>
+      <c r="DS60"/>
+      <c r="DT60"/>
+      <c r="DU60"/>
+      <c r="DV60"/>
+      <c r="DW60"/>
+      <c r="DX60"/>
+      <c r="DY60"/>
+      <c r="DZ60"/>
+      <c r="EA60"/>
+      <c r="EB60"/>
+      <c r="EC60"/>
+      <c r="ED60"/>
+      <c r="EE60"/>
+      <c r="EF60"/>
+      <c r="EG60"/>
+      <c r="EH60"/>
+      <c r="EI60"/>
+      <c r="EJ60"/>
+      <c r="EK60"/>
+      <c r="EL60"/>
+      <c r="EM60"/>
+      <c r="EN60"/>
+      <c r="EO60"/>
+      <c r="EP60"/>
+      <c r="EQ60"/>
+      <c r="ER60"/>
+      <c r="ES60"/>
+      <c r="ET60"/>
+      <c r="EU60"/>
+      <c r="EV60"/>
+      <c r="EW60"/>
+      <c r="EX60"/>
+      <c r="EY60"/>
+      <c r="EZ60"/>
+      <c r="FA60"/>
+      <c r="FB60"/>
+      <c r="FC60"/>
+      <c r="FD60"/>
+      <c r="FE60"/>
+      <c r="FF60"/>
+      <c r="FG60"/>
+      <c r="FH60"/>
+      <c r="FI60"/>
+      <c r="FJ60"/>
+      <c r="FK60"/>
+      <c r="FL60"/>
+      <c r="FM60"/>
+      <c r="FN60"/>
+      <c r="FO60"/>
+      <c r="FP60"/>
+      <c r="FQ60"/>
+      <c r="FR60"/>
+      <c r="FS60"/>
+      <c r="FT60"/>
+      <c r="FU60"/>
+      <c r="FV60"/>
+      <c r="FW60"/>
+      <c r="FX60"/>
+      <c r="FY60"/>
+      <c r="FZ60"/>
+      <c r="GA60"/>
+      <c r="GB60"/>
+      <c r="GC60"/>
+      <c r="GD60"/>
+      <c r="GE60"/>
+      <c r="GF60"/>
+      <c r="GG60"/>
+      <c r="GH60"/>
+      <c r="GI60"/>
+      <c r="GJ60"/>
+      <c r="GK60"/>
+      <c r="GL60"/>
+      <c r="GM60"/>
+      <c r="GN60"/>
+      <c r="GO60"/>
+      <c r="GP60"/>
+      <c r="GQ60"/>
+      <c r="GR60"/>
+      <c r="GS60"/>
+      <c r="GT60"/>
+      <c r="GU60"/>
+      <c r="GV60"/>
+      <c r="GW60"/>
+      <c r="GX60"/>
+      <c r="GY60"/>
+      <c r="GZ60"/>
+      <c r="HA60"/>
+      <c r="HB60"/>
+      <c r="HC60"/>
+      <c r="HD60"/>
+      <c r="HE60"/>
+      <c r="HF60"/>
+      <c r="HG60"/>
+      <c r="HH60"/>
+      <c r="HI60"/>
+      <c r="HJ60"/>
+      <c r="HK60"/>
+      <c r="HL60"/>
+      <c r="HM60"/>
+      <c r="HN60"/>
+      <c r="HO60"/>
+      <c r="HP60"/>
+      <c r="HQ60"/>
+      <c r="HR60"/>
+      <c r="HS60"/>
+      <c r="HT60"/>
+      <c r="HU60"/>
+      <c r="HV60"/>
+      <c r="HW60"/>
+      <c r="HX60"/>
+      <c r="HY60"/>
+      <c r="HZ60"/>
+      <c r="IA60"/>
+      <c r="IB60"/>
+      <c r="IC60"/>
+      <c r="ID60"/>
+      <c r="IE60"/>
+      <c r="IF60"/>
+      <c r="IG60"/>
+      <c r="IH60"/>
+      <c r="II60"/>
+      <c r="IJ60"/>
+      <c r="IK60"/>
+      <c r="IL60"/>
+      <c r="IM60"/>
+      <c r="IN60"/>
+      <c r="IO60"/>
+      <c r="IP60"/>
+      <c r="IQ60"/>
+      <c r="IR60"/>
+      <c r="IS60"/>
+      <c r="IT60"/>
+      <c r="IU60"/>
+      <c r="IV60"/>
+      <c r="IW60"/>
     </row>
-    <row r="61" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="35" t="s">
-        <v>115</v>
+    <row r="61" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="61" t="s">
+        <v>22</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>110</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="1"/>
+        <v>23</v>
+      </c>
       <c r="E61" s="35" t="s">
         <v>110</v>
       </c>
@@ -3353,18 +10014,264 @@
       <c r="J61" s="40" t="s">
         <v>15</v>
       </c>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+      <c r="AL61"/>
+      <c r="AM61"/>
+      <c r="AN61"/>
+      <c r="AO61"/>
+      <c r="AP61"/>
+      <c r="AQ61"/>
+      <c r="AR61"/>
+      <c r="AS61"/>
+      <c r="AT61"/>
+      <c r="AU61"/>
+      <c r="AV61"/>
+      <c r="AW61"/>
+      <c r="AX61"/>
+      <c r="AY61"/>
+      <c r="AZ61"/>
+      <c r="BA61"/>
+      <c r="BB61"/>
+      <c r="BC61"/>
+      <c r="BD61"/>
+      <c r="BE61"/>
+      <c r="BF61"/>
+      <c r="BG61"/>
+      <c r="BH61"/>
+      <c r="BI61"/>
+      <c r="BJ61"/>
+      <c r="BK61"/>
+      <c r="BL61"/>
+      <c r="BM61"/>
+      <c r="BN61"/>
+      <c r="BO61"/>
+      <c r="BP61"/>
+      <c r="BQ61"/>
+      <c r="BR61"/>
+      <c r="BS61"/>
+      <c r="BT61"/>
+      <c r="BU61"/>
+      <c r="BV61"/>
+      <c r="BW61"/>
+      <c r="BX61"/>
+      <c r="BY61"/>
+      <c r="BZ61"/>
+      <c r="CA61"/>
+      <c r="CB61"/>
+      <c r="CC61"/>
+      <c r="CD61"/>
+      <c r="CE61"/>
+      <c r="CF61"/>
+      <c r="CG61"/>
+      <c r="CH61"/>
+      <c r="CI61"/>
+      <c r="CJ61"/>
+      <c r="CK61"/>
+      <c r="CL61"/>
+      <c r="CM61"/>
+      <c r="CN61"/>
+      <c r="CO61"/>
+      <c r="CP61"/>
+      <c r="CQ61"/>
+      <c r="CR61"/>
+      <c r="CS61"/>
+      <c r="CT61"/>
+      <c r="CU61"/>
+      <c r="CV61"/>
+      <c r="CW61"/>
+      <c r="CX61"/>
+      <c r="CY61"/>
+      <c r="CZ61"/>
+      <c r="DA61"/>
+      <c r="DB61"/>
+      <c r="DC61"/>
+      <c r="DD61"/>
+      <c r="DE61"/>
+      <c r="DF61"/>
+      <c r="DG61"/>
+      <c r="DH61"/>
+      <c r="DI61"/>
+      <c r="DJ61"/>
+      <c r="DK61"/>
+      <c r="DL61"/>
+      <c r="DM61"/>
+      <c r="DN61"/>
+      <c r="DO61"/>
+      <c r="DP61"/>
+      <c r="DQ61"/>
+      <c r="DR61"/>
+      <c r="DS61"/>
+      <c r="DT61"/>
+      <c r="DU61"/>
+      <c r="DV61"/>
+      <c r="DW61"/>
+      <c r="DX61"/>
+      <c r="DY61"/>
+      <c r="DZ61"/>
+      <c r="EA61"/>
+      <c r="EB61"/>
+      <c r="EC61"/>
+      <c r="ED61"/>
+      <c r="EE61"/>
+      <c r="EF61"/>
+      <c r="EG61"/>
+      <c r="EH61"/>
+      <c r="EI61"/>
+      <c r="EJ61"/>
+      <c r="EK61"/>
+      <c r="EL61"/>
+      <c r="EM61"/>
+      <c r="EN61"/>
+      <c r="EO61"/>
+      <c r="EP61"/>
+      <c r="EQ61"/>
+      <c r="ER61"/>
+      <c r="ES61"/>
+      <c r="ET61"/>
+      <c r="EU61"/>
+      <c r="EV61"/>
+      <c r="EW61"/>
+      <c r="EX61"/>
+      <c r="EY61"/>
+      <c r="EZ61"/>
+      <c r="FA61"/>
+      <c r="FB61"/>
+      <c r="FC61"/>
+      <c r="FD61"/>
+      <c r="FE61"/>
+      <c r="FF61"/>
+      <c r="FG61"/>
+      <c r="FH61"/>
+      <c r="FI61"/>
+      <c r="FJ61"/>
+      <c r="FK61"/>
+      <c r="FL61"/>
+      <c r="FM61"/>
+      <c r="FN61"/>
+      <c r="FO61"/>
+      <c r="FP61"/>
+      <c r="FQ61"/>
+      <c r="FR61"/>
+      <c r="FS61"/>
+      <c r="FT61"/>
+      <c r="FU61"/>
+      <c r="FV61"/>
+      <c r="FW61"/>
+      <c r="FX61"/>
+      <c r="FY61"/>
+      <c r="FZ61"/>
+      <c r="GA61"/>
+      <c r="GB61"/>
+      <c r="GC61"/>
+      <c r="GD61"/>
+      <c r="GE61"/>
+      <c r="GF61"/>
+      <c r="GG61"/>
+      <c r="GH61"/>
+      <c r="GI61"/>
+      <c r="GJ61"/>
+      <c r="GK61"/>
+      <c r="GL61"/>
+      <c r="GM61"/>
+      <c r="GN61"/>
+      <c r="GO61"/>
+      <c r="GP61"/>
+      <c r="GQ61"/>
+      <c r="GR61"/>
+      <c r="GS61"/>
+      <c r="GT61"/>
+      <c r="GU61"/>
+      <c r="GV61"/>
+      <c r="GW61"/>
+      <c r="GX61"/>
+      <c r="GY61"/>
+      <c r="GZ61"/>
+      <c r="HA61"/>
+      <c r="HB61"/>
+      <c r="HC61"/>
+      <c r="HD61"/>
+      <c r="HE61"/>
+      <c r="HF61"/>
+      <c r="HG61"/>
+      <c r="HH61"/>
+      <c r="HI61"/>
+      <c r="HJ61"/>
+      <c r="HK61"/>
+      <c r="HL61"/>
+      <c r="HM61"/>
+      <c r="HN61"/>
+      <c r="HO61"/>
+      <c r="HP61"/>
+      <c r="HQ61"/>
+      <c r="HR61"/>
+      <c r="HS61"/>
+      <c r="HT61"/>
+      <c r="HU61"/>
+      <c r="HV61"/>
+      <c r="HW61"/>
+      <c r="HX61"/>
+      <c r="HY61"/>
+      <c r="HZ61"/>
+      <c r="IA61"/>
+      <c r="IB61"/>
+      <c r="IC61"/>
+      <c r="ID61"/>
+      <c r="IE61"/>
+      <c r="IF61"/>
+      <c r="IG61"/>
+      <c r="IH61"/>
+      <c r="II61"/>
+      <c r="IJ61"/>
+      <c r="IK61"/>
+      <c r="IL61"/>
+      <c r="IM61"/>
+      <c r="IN61"/>
+      <c r="IO61"/>
+      <c r="IP61"/>
+      <c r="IQ61"/>
+      <c r="IR61"/>
+      <c r="IS61"/>
+      <c r="IT61"/>
+      <c r="IU61"/>
+      <c r="IV61"/>
+      <c r="IW61"/>
     </row>
-    <row r="62" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C62" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D62" s="1"/>
+      <c r="C62" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="E62" s="35" t="s">
         <v>110</v>
       </c>
@@ -3377,22 +10284,268 @@
       <c r="H62" s="39">
         <v>1</v>
       </c>
-      <c r="I62" s="10"/>
+      <c r="I62" s="53"/>
       <c r="J62" s="40" t="s">
-        <v>40</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+      <c r="AL62"/>
+      <c r="AM62"/>
+      <c r="AN62"/>
+      <c r="AO62"/>
+      <c r="AP62"/>
+      <c r="AQ62"/>
+      <c r="AR62"/>
+      <c r="AS62"/>
+      <c r="AT62"/>
+      <c r="AU62"/>
+      <c r="AV62"/>
+      <c r="AW62"/>
+      <c r="AX62"/>
+      <c r="AY62"/>
+      <c r="AZ62"/>
+      <c r="BA62"/>
+      <c r="BB62"/>
+      <c r="BC62"/>
+      <c r="BD62"/>
+      <c r="BE62"/>
+      <c r="BF62"/>
+      <c r="BG62"/>
+      <c r="BH62"/>
+      <c r="BI62"/>
+      <c r="BJ62"/>
+      <c r="BK62"/>
+      <c r="BL62"/>
+      <c r="BM62"/>
+      <c r="BN62"/>
+      <c r="BO62"/>
+      <c r="BP62"/>
+      <c r="BQ62"/>
+      <c r="BR62"/>
+      <c r="BS62"/>
+      <c r="BT62"/>
+      <c r="BU62"/>
+      <c r="BV62"/>
+      <c r="BW62"/>
+      <c r="BX62"/>
+      <c r="BY62"/>
+      <c r="BZ62"/>
+      <c r="CA62"/>
+      <c r="CB62"/>
+      <c r="CC62"/>
+      <c r="CD62"/>
+      <c r="CE62"/>
+      <c r="CF62"/>
+      <c r="CG62"/>
+      <c r="CH62"/>
+      <c r="CI62"/>
+      <c r="CJ62"/>
+      <c r="CK62"/>
+      <c r="CL62"/>
+      <c r="CM62"/>
+      <c r="CN62"/>
+      <c r="CO62"/>
+      <c r="CP62"/>
+      <c r="CQ62"/>
+      <c r="CR62"/>
+      <c r="CS62"/>
+      <c r="CT62"/>
+      <c r="CU62"/>
+      <c r="CV62"/>
+      <c r="CW62"/>
+      <c r="CX62"/>
+      <c r="CY62"/>
+      <c r="CZ62"/>
+      <c r="DA62"/>
+      <c r="DB62"/>
+      <c r="DC62"/>
+      <c r="DD62"/>
+      <c r="DE62"/>
+      <c r="DF62"/>
+      <c r="DG62"/>
+      <c r="DH62"/>
+      <c r="DI62"/>
+      <c r="DJ62"/>
+      <c r="DK62"/>
+      <c r="DL62"/>
+      <c r="DM62"/>
+      <c r="DN62"/>
+      <c r="DO62"/>
+      <c r="DP62"/>
+      <c r="DQ62"/>
+      <c r="DR62"/>
+      <c r="DS62"/>
+      <c r="DT62"/>
+      <c r="DU62"/>
+      <c r="DV62"/>
+      <c r="DW62"/>
+      <c r="DX62"/>
+      <c r="DY62"/>
+      <c r="DZ62"/>
+      <c r="EA62"/>
+      <c r="EB62"/>
+      <c r="EC62"/>
+      <c r="ED62"/>
+      <c r="EE62"/>
+      <c r="EF62"/>
+      <c r="EG62"/>
+      <c r="EH62"/>
+      <c r="EI62"/>
+      <c r="EJ62"/>
+      <c r="EK62"/>
+      <c r="EL62"/>
+      <c r="EM62"/>
+      <c r="EN62"/>
+      <c r="EO62"/>
+      <c r="EP62"/>
+      <c r="EQ62"/>
+      <c r="ER62"/>
+      <c r="ES62"/>
+      <c r="ET62"/>
+      <c r="EU62"/>
+      <c r="EV62"/>
+      <c r="EW62"/>
+      <c r="EX62"/>
+      <c r="EY62"/>
+      <c r="EZ62"/>
+      <c r="FA62"/>
+      <c r="FB62"/>
+      <c r="FC62"/>
+      <c r="FD62"/>
+      <c r="FE62"/>
+      <c r="FF62"/>
+      <c r="FG62"/>
+      <c r="FH62"/>
+      <c r="FI62"/>
+      <c r="FJ62"/>
+      <c r="FK62"/>
+      <c r="FL62"/>
+      <c r="FM62"/>
+      <c r="FN62"/>
+      <c r="FO62"/>
+      <c r="FP62"/>
+      <c r="FQ62"/>
+      <c r="FR62"/>
+      <c r="FS62"/>
+      <c r="FT62"/>
+      <c r="FU62"/>
+      <c r="FV62"/>
+      <c r="FW62"/>
+      <c r="FX62"/>
+      <c r="FY62"/>
+      <c r="FZ62"/>
+      <c r="GA62"/>
+      <c r="GB62"/>
+      <c r="GC62"/>
+      <c r="GD62"/>
+      <c r="GE62"/>
+      <c r="GF62"/>
+      <c r="GG62"/>
+      <c r="GH62"/>
+      <c r="GI62"/>
+      <c r="GJ62"/>
+      <c r="GK62"/>
+      <c r="GL62"/>
+      <c r="GM62"/>
+      <c r="GN62"/>
+      <c r="GO62"/>
+      <c r="GP62"/>
+      <c r="GQ62"/>
+      <c r="GR62"/>
+      <c r="GS62"/>
+      <c r="GT62"/>
+      <c r="GU62"/>
+      <c r="GV62"/>
+      <c r="GW62"/>
+      <c r="GX62"/>
+      <c r="GY62"/>
+      <c r="GZ62"/>
+      <c r="HA62"/>
+      <c r="HB62"/>
+      <c r="HC62"/>
+      <c r="HD62"/>
+      <c r="HE62"/>
+      <c r="HF62"/>
+      <c r="HG62"/>
+      <c r="HH62"/>
+      <c r="HI62"/>
+      <c r="HJ62"/>
+      <c r="HK62"/>
+      <c r="HL62"/>
+      <c r="HM62"/>
+      <c r="HN62"/>
+      <c r="HO62"/>
+      <c r="HP62"/>
+      <c r="HQ62"/>
+      <c r="HR62"/>
+      <c r="HS62"/>
+      <c r="HT62"/>
+      <c r="HU62"/>
+      <c r="HV62"/>
+      <c r="HW62"/>
+      <c r="HX62"/>
+      <c r="HY62"/>
+      <c r="HZ62"/>
+      <c r="IA62"/>
+      <c r="IB62"/>
+      <c r="IC62"/>
+      <c r="ID62"/>
+      <c r="IE62"/>
+      <c r="IF62"/>
+      <c r="IG62"/>
+      <c r="IH62"/>
+      <c r="II62"/>
+      <c r="IJ62"/>
+      <c r="IK62"/>
+      <c r="IL62"/>
+      <c r="IM62"/>
+      <c r="IN62"/>
+      <c r="IO62"/>
+      <c r="IP62"/>
+      <c r="IQ62"/>
+      <c r="IR62"/>
+      <c r="IS62"/>
+      <c r="IT62"/>
+      <c r="IU62"/>
+      <c r="IV62"/>
+      <c r="IW62"/>
     </row>
-    <row r="63" spans="1:10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="37" t="s">
-        <v>119</v>
+    <row r="63" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D63" s="1"/>
+      <c r="C63" s="35" t="s">
+        <v>118</v>
+      </c>
       <c r="E63" s="35" t="s">
         <v>110</v>
       </c>
@@ -3403,44 +10556,811 @@
         <v>0</v>
       </c>
       <c r="H63" s="39">
-        <v>0</v>
-      </c>
-      <c r="I63" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="10"/>
+      <c r="J63" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+      <c r="AL63"/>
+      <c r="AM63"/>
+      <c r="AN63"/>
+      <c r="AO63"/>
+      <c r="AP63"/>
+      <c r="AQ63"/>
+      <c r="AR63"/>
+      <c r="AS63"/>
+      <c r="AT63"/>
+      <c r="AU63"/>
+      <c r="AV63"/>
+      <c r="AW63"/>
+      <c r="AX63"/>
+      <c r="AY63"/>
+      <c r="AZ63"/>
+      <c r="BA63"/>
+      <c r="BB63"/>
+      <c r="BC63"/>
+      <c r="BD63"/>
+      <c r="BE63"/>
+      <c r="BF63"/>
+      <c r="BG63"/>
+      <c r="BH63"/>
+      <c r="BI63"/>
+      <c r="BJ63"/>
+      <c r="BK63"/>
+      <c r="BL63"/>
+      <c r="BM63"/>
+      <c r="BN63"/>
+      <c r="BO63"/>
+      <c r="BP63"/>
+      <c r="BQ63"/>
+      <c r="BR63"/>
+      <c r="BS63"/>
+      <c r="BT63"/>
+      <c r="BU63"/>
+      <c r="BV63"/>
+      <c r="BW63"/>
+      <c r="BX63"/>
+      <c r="BY63"/>
+      <c r="BZ63"/>
+      <c r="CA63"/>
+      <c r="CB63"/>
+      <c r="CC63"/>
+      <c r="CD63"/>
+      <c r="CE63"/>
+      <c r="CF63"/>
+      <c r="CG63"/>
+      <c r="CH63"/>
+      <c r="CI63"/>
+      <c r="CJ63"/>
+      <c r="CK63"/>
+      <c r="CL63"/>
+      <c r="CM63"/>
+      <c r="CN63"/>
+      <c r="CO63"/>
+      <c r="CP63"/>
+      <c r="CQ63"/>
+      <c r="CR63"/>
+      <c r="CS63"/>
+      <c r="CT63"/>
+      <c r="CU63"/>
+      <c r="CV63"/>
+      <c r="CW63"/>
+      <c r="CX63"/>
+      <c r="CY63"/>
+      <c r="CZ63"/>
+      <c r="DA63"/>
+      <c r="DB63"/>
+      <c r="DC63"/>
+      <c r="DD63"/>
+      <c r="DE63"/>
+      <c r="DF63"/>
+      <c r="DG63"/>
+      <c r="DH63"/>
+      <c r="DI63"/>
+      <c r="DJ63"/>
+      <c r="DK63"/>
+      <c r="DL63"/>
+      <c r="DM63"/>
+      <c r="DN63"/>
+      <c r="DO63"/>
+      <c r="DP63"/>
+      <c r="DQ63"/>
+      <c r="DR63"/>
+      <c r="DS63"/>
+      <c r="DT63"/>
+      <c r="DU63"/>
+      <c r="DV63"/>
+      <c r="DW63"/>
+      <c r="DX63"/>
+      <c r="DY63"/>
+      <c r="DZ63"/>
+      <c r="EA63"/>
+      <c r="EB63"/>
+      <c r="EC63"/>
+      <c r="ED63"/>
+      <c r="EE63"/>
+      <c r="EF63"/>
+      <c r="EG63"/>
+      <c r="EH63"/>
+      <c r="EI63"/>
+      <c r="EJ63"/>
+      <c r="EK63"/>
+      <c r="EL63"/>
+      <c r="EM63"/>
+      <c r="EN63"/>
+      <c r="EO63"/>
+      <c r="EP63"/>
+      <c r="EQ63"/>
+      <c r="ER63"/>
+      <c r="ES63"/>
+      <c r="ET63"/>
+      <c r="EU63"/>
+      <c r="EV63"/>
+      <c r="EW63"/>
+      <c r="EX63"/>
+      <c r="EY63"/>
+      <c r="EZ63"/>
+      <c r="FA63"/>
+      <c r="FB63"/>
+      <c r="FC63"/>
+      <c r="FD63"/>
+      <c r="FE63"/>
+      <c r="FF63"/>
+      <c r="FG63"/>
+      <c r="FH63"/>
+      <c r="FI63"/>
+      <c r="FJ63"/>
+      <c r="FK63"/>
+      <c r="FL63"/>
+      <c r="FM63"/>
+      <c r="FN63"/>
+      <c r="FO63"/>
+      <c r="FP63"/>
+      <c r="FQ63"/>
+      <c r="FR63"/>
+      <c r="FS63"/>
+      <c r="FT63"/>
+      <c r="FU63"/>
+      <c r="FV63"/>
+      <c r="FW63"/>
+      <c r="FX63"/>
+      <c r="FY63"/>
+      <c r="FZ63"/>
+      <c r="GA63"/>
+      <c r="GB63"/>
+      <c r="GC63"/>
+      <c r="GD63"/>
+      <c r="GE63"/>
+      <c r="GF63"/>
+      <c r="GG63"/>
+      <c r="GH63"/>
+      <c r="GI63"/>
+      <c r="GJ63"/>
+      <c r="GK63"/>
+      <c r="GL63"/>
+      <c r="GM63"/>
+      <c r="GN63"/>
+      <c r="GO63"/>
+      <c r="GP63"/>
+      <c r="GQ63"/>
+      <c r="GR63"/>
+      <c r="GS63"/>
+      <c r="GT63"/>
+      <c r="GU63"/>
+      <c r="GV63"/>
+      <c r="GW63"/>
+      <c r="GX63"/>
+      <c r="GY63"/>
+      <c r="GZ63"/>
+      <c r="HA63"/>
+      <c r="HB63"/>
+      <c r="HC63"/>
+      <c r="HD63"/>
+      <c r="HE63"/>
+      <c r="HF63"/>
+      <c r="HG63"/>
+      <c r="HH63"/>
+      <c r="HI63"/>
+      <c r="HJ63"/>
+      <c r="HK63"/>
+      <c r="HL63"/>
+      <c r="HM63"/>
+      <c r="HN63"/>
+      <c r="HO63"/>
+      <c r="HP63"/>
+      <c r="HQ63"/>
+      <c r="HR63"/>
+      <c r="HS63"/>
+      <c r="HT63"/>
+      <c r="HU63"/>
+      <c r="HV63"/>
+      <c r="HW63"/>
+      <c r="HX63"/>
+      <c r="HY63"/>
+      <c r="HZ63"/>
+      <c r="IA63"/>
+      <c r="IB63"/>
+      <c r="IC63"/>
+      <c r="ID63"/>
+      <c r="IE63"/>
+      <c r="IF63"/>
+      <c r="IG63"/>
+      <c r="IH63"/>
+      <c r="II63"/>
+      <c r="IJ63"/>
+      <c r="IK63"/>
+      <c r="IL63"/>
+      <c r="IM63"/>
+      <c r="IN63"/>
+      <c r="IO63"/>
+      <c r="IP63"/>
+      <c r="IQ63"/>
+      <c r="IR63"/>
+      <c r="IS63"/>
+      <c r="IT63"/>
+      <c r="IU63"/>
+      <c r="IV63"/>
+      <c r="IW63"/>
+    </row>
+    <row r="64" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F64" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="38">
+        <v>0</v>
+      </c>
+      <c r="H64" s="39">
+        <v>0</v>
+      </c>
+      <c r="I64" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="J63" s="40" t="s">
+      <c r="J64" s="40" t="s">
         <v>29</v>
       </c>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+      <c r="AL64"/>
+      <c r="AM64"/>
+      <c r="AN64"/>
+      <c r="AO64"/>
+      <c r="AP64"/>
+      <c r="AQ64"/>
+      <c r="AR64"/>
+      <c r="AS64"/>
+      <c r="AT64"/>
+      <c r="AU64"/>
+      <c r="AV64"/>
+      <c r="AW64"/>
+      <c r="AX64"/>
+      <c r="AY64"/>
+      <c r="AZ64"/>
+      <c r="BA64"/>
+      <c r="BB64"/>
+      <c r="BC64"/>
+      <c r="BD64"/>
+      <c r="BE64"/>
+      <c r="BF64"/>
+      <c r="BG64"/>
+      <c r="BH64"/>
+      <c r="BI64"/>
+      <c r="BJ64"/>
+      <c r="BK64"/>
+      <c r="BL64"/>
+      <c r="BM64"/>
+      <c r="BN64"/>
+      <c r="BO64"/>
+      <c r="BP64"/>
+      <c r="BQ64"/>
+      <c r="BR64"/>
+      <c r="BS64"/>
+      <c r="BT64"/>
+      <c r="BU64"/>
+      <c r="BV64"/>
+      <c r="BW64"/>
+      <c r="BX64"/>
+      <c r="BY64"/>
+      <c r="BZ64"/>
+      <c r="CA64"/>
+      <c r="CB64"/>
+      <c r="CC64"/>
+      <c r="CD64"/>
+      <c r="CE64"/>
+      <c r="CF64"/>
+      <c r="CG64"/>
+      <c r="CH64"/>
+      <c r="CI64"/>
+      <c r="CJ64"/>
+      <c r="CK64"/>
+      <c r="CL64"/>
+      <c r="CM64"/>
+      <c r="CN64"/>
+      <c r="CO64"/>
+      <c r="CP64"/>
+      <c r="CQ64"/>
+      <c r="CR64"/>
+      <c r="CS64"/>
+      <c r="CT64"/>
+      <c r="CU64"/>
+      <c r="CV64"/>
+      <c r="CW64"/>
+      <c r="CX64"/>
+      <c r="CY64"/>
+      <c r="CZ64"/>
+      <c r="DA64"/>
+      <c r="DB64"/>
+      <c r="DC64"/>
+      <c r="DD64"/>
+      <c r="DE64"/>
+      <c r="DF64"/>
+      <c r="DG64"/>
+      <c r="DH64"/>
+      <c r="DI64"/>
+      <c r="DJ64"/>
+      <c r="DK64"/>
+      <c r="DL64"/>
+      <c r="DM64"/>
+      <c r="DN64"/>
+      <c r="DO64"/>
+      <c r="DP64"/>
+      <c r="DQ64"/>
+      <c r="DR64"/>
+      <c r="DS64"/>
+      <c r="DT64"/>
+      <c r="DU64"/>
+      <c r="DV64"/>
+      <c r="DW64"/>
+      <c r="DX64"/>
+      <c r="DY64"/>
+      <c r="DZ64"/>
+      <c r="EA64"/>
+      <c r="EB64"/>
+      <c r="EC64"/>
+      <c r="ED64"/>
+      <c r="EE64"/>
+      <c r="EF64"/>
+      <c r="EG64"/>
+      <c r="EH64"/>
+      <c r="EI64"/>
+      <c r="EJ64"/>
+      <c r="EK64"/>
+      <c r="EL64"/>
+      <c r="EM64"/>
+      <c r="EN64"/>
+      <c r="EO64"/>
+      <c r="EP64"/>
+      <c r="EQ64"/>
+      <c r="ER64"/>
+      <c r="ES64"/>
+      <c r="ET64"/>
+      <c r="EU64"/>
+      <c r="EV64"/>
+      <c r="EW64"/>
+      <c r="EX64"/>
+      <c r="EY64"/>
+      <c r="EZ64"/>
+      <c r="FA64"/>
+      <c r="FB64"/>
+      <c r="FC64"/>
+      <c r="FD64"/>
+      <c r="FE64"/>
+      <c r="FF64"/>
+      <c r="FG64"/>
+      <c r="FH64"/>
+      <c r="FI64"/>
+      <c r="FJ64"/>
+      <c r="FK64"/>
+      <c r="FL64"/>
+      <c r="FM64"/>
+      <c r="FN64"/>
+      <c r="FO64"/>
+      <c r="FP64"/>
+      <c r="FQ64"/>
+      <c r="FR64"/>
+      <c r="FS64"/>
+      <c r="FT64"/>
+      <c r="FU64"/>
+      <c r="FV64"/>
+      <c r="FW64"/>
+      <c r="FX64"/>
+      <c r="FY64"/>
+      <c r="FZ64"/>
+      <c r="GA64"/>
+      <c r="GB64"/>
+      <c r="GC64"/>
+      <c r="GD64"/>
+      <c r="GE64"/>
+      <c r="GF64"/>
+      <c r="GG64"/>
+      <c r="GH64"/>
+      <c r="GI64"/>
+      <c r="GJ64"/>
+      <c r="GK64"/>
+      <c r="GL64"/>
+      <c r="GM64"/>
+      <c r="GN64"/>
+      <c r="GO64"/>
+      <c r="GP64"/>
+      <c r="GQ64"/>
+      <c r="GR64"/>
+      <c r="GS64"/>
+      <c r="GT64"/>
+      <c r="GU64"/>
+      <c r="GV64"/>
+      <c r="GW64"/>
+      <c r="GX64"/>
+      <c r="GY64"/>
+      <c r="GZ64"/>
+      <c r="HA64"/>
+      <c r="HB64"/>
+      <c r="HC64"/>
+      <c r="HD64"/>
+      <c r="HE64"/>
+      <c r="HF64"/>
+      <c r="HG64"/>
+      <c r="HH64"/>
+      <c r="HI64"/>
+      <c r="HJ64"/>
+      <c r="HK64"/>
+      <c r="HL64"/>
+      <c r="HM64"/>
+      <c r="HN64"/>
+      <c r="HO64"/>
+      <c r="HP64"/>
+      <c r="HQ64"/>
+      <c r="HR64"/>
+      <c r="HS64"/>
+      <c r="HT64"/>
+      <c r="HU64"/>
+      <c r="HV64"/>
+      <c r="HW64"/>
+      <c r="HX64"/>
+      <c r="HY64"/>
+      <c r="HZ64"/>
+      <c r="IA64"/>
+      <c r="IB64"/>
+      <c r="IC64"/>
+      <c r="ID64"/>
+      <c r="IE64"/>
+      <c r="IF64"/>
+      <c r="IG64"/>
+      <c r="IH64"/>
+      <c r="II64"/>
+      <c r="IJ64"/>
+      <c r="IK64"/>
+      <c r="IL64"/>
+      <c r="IM64"/>
+      <c r="IN64"/>
+      <c r="IO64"/>
+      <c r="IP64"/>
+      <c r="IQ64"/>
+      <c r="IR64"/>
+      <c r="IS64"/>
+      <c r="IT64"/>
+      <c r="IU64"/>
+      <c r="IV64"/>
+      <c r="IW64"/>
     </row>
-    <row r="64" spans="1:10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35" t="s">
+    <row r="65" spans="1:257" x14ac:dyDescent="0.15">
+      <c r="A65" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B65" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C65" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="35" t="s">
+      <c r="E65" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="F64" s="35" t="s">
+      <c r="F65" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G64" s="38">
-        <v>0</v>
-      </c>
-      <c r="H64" s="39">
+      <c r="G65" s="38">
+        <v>0</v>
+      </c>
+      <c r="H65" s="39">
         <v>1</v>
       </c>
-      <c r="I64" s="10" t="s">
+      <c r="I65" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J64" s="54" t="s">
+      <c r="J65" s="54" t="s">
         <v>122</v>
       </c>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+      <c r="AL65"/>
+      <c r="AM65"/>
+      <c r="AN65"/>
+      <c r="AO65"/>
+      <c r="AP65"/>
+      <c r="AQ65"/>
+      <c r="AR65"/>
+      <c r="AS65"/>
+      <c r="AT65"/>
+      <c r="AU65"/>
+      <c r="AV65"/>
+      <c r="AW65"/>
+      <c r="AX65"/>
+      <c r="AY65"/>
+      <c r="AZ65"/>
+      <c r="BA65"/>
+      <c r="BB65"/>
+      <c r="BC65"/>
+      <c r="BD65"/>
+      <c r="BE65"/>
+      <c r="BF65"/>
+      <c r="BG65"/>
+      <c r="BH65"/>
+      <c r="BI65"/>
+      <c r="BJ65"/>
+      <c r="BK65"/>
+      <c r="BL65"/>
+      <c r="BM65"/>
+      <c r="BN65"/>
+      <c r="BO65"/>
+      <c r="BP65"/>
+      <c r="BQ65"/>
+      <c r="BR65"/>
+      <c r="BS65"/>
+      <c r="BT65"/>
+      <c r="BU65"/>
+      <c r="BV65"/>
+      <c r="BW65"/>
+      <c r="BX65"/>
+      <c r="BY65"/>
+      <c r="BZ65"/>
+      <c r="CA65"/>
+      <c r="CB65"/>
+      <c r="CC65"/>
+      <c r="CD65"/>
+      <c r="CE65"/>
+      <c r="CF65"/>
+      <c r="CG65"/>
+      <c r="CH65"/>
+      <c r="CI65"/>
+      <c r="CJ65"/>
+      <c r="CK65"/>
+      <c r="CL65"/>
+      <c r="CM65"/>
+      <c r="CN65"/>
+      <c r="CO65"/>
+      <c r="CP65"/>
+      <c r="CQ65"/>
+      <c r="CR65"/>
+      <c r="CS65"/>
+      <c r="CT65"/>
+      <c r="CU65"/>
+      <c r="CV65"/>
+      <c r="CW65"/>
+      <c r="CX65"/>
+      <c r="CY65"/>
+      <c r="CZ65"/>
+      <c r="DA65"/>
+      <c r="DB65"/>
+      <c r="DC65"/>
+      <c r="DD65"/>
+      <c r="DE65"/>
+      <c r="DF65"/>
+      <c r="DG65"/>
+      <c r="DH65"/>
+      <c r="DI65"/>
+      <c r="DJ65"/>
+      <c r="DK65"/>
+      <c r="DL65"/>
+      <c r="DM65"/>
+      <c r="DN65"/>
+      <c r="DO65"/>
+      <c r="DP65"/>
+      <c r="DQ65"/>
+      <c r="DR65"/>
+      <c r="DS65"/>
+      <c r="DT65"/>
+      <c r="DU65"/>
+      <c r="DV65"/>
+      <c r="DW65"/>
+      <c r="DX65"/>
+      <c r="DY65"/>
+      <c r="DZ65"/>
+      <c r="EA65"/>
+      <c r="EB65"/>
+      <c r="EC65"/>
+      <c r="ED65"/>
+      <c r="EE65"/>
+      <c r="EF65"/>
+      <c r="EG65"/>
+      <c r="EH65"/>
+      <c r="EI65"/>
+      <c r="EJ65"/>
+      <c r="EK65"/>
+      <c r="EL65"/>
+      <c r="EM65"/>
+      <c r="EN65"/>
+      <c r="EO65"/>
+      <c r="EP65"/>
+      <c r="EQ65"/>
+      <c r="ER65"/>
+      <c r="ES65"/>
+      <c r="ET65"/>
+      <c r="EU65"/>
+      <c r="EV65"/>
+      <c r="EW65"/>
+      <c r="EX65"/>
+      <c r="EY65"/>
+      <c r="EZ65"/>
+      <c r="FA65"/>
+      <c r="FB65"/>
+      <c r="FC65"/>
+      <c r="FD65"/>
+      <c r="FE65"/>
+      <c r="FF65"/>
+      <c r="FG65"/>
+      <c r="FH65"/>
+      <c r="FI65"/>
+      <c r="FJ65"/>
+      <c r="FK65"/>
+      <c r="FL65"/>
+      <c r="FM65"/>
+      <c r="FN65"/>
+      <c r="FO65"/>
+      <c r="FP65"/>
+      <c r="FQ65"/>
+      <c r="FR65"/>
+      <c r="FS65"/>
+      <c r="FT65"/>
+      <c r="FU65"/>
+      <c r="FV65"/>
+      <c r="FW65"/>
+      <c r="FX65"/>
+      <c r="FY65"/>
+      <c r="FZ65"/>
+      <c r="GA65"/>
+      <c r="GB65"/>
+      <c r="GC65"/>
+      <c r="GD65"/>
+      <c r="GE65"/>
+      <c r="GF65"/>
+      <c r="GG65"/>
+      <c r="GH65"/>
+      <c r="GI65"/>
+      <c r="GJ65"/>
+      <c r="GK65"/>
+      <c r="GL65"/>
+      <c r="GM65"/>
+      <c r="GN65"/>
+      <c r="GO65"/>
+      <c r="GP65"/>
+      <c r="GQ65"/>
+      <c r="GR65"/>
+      <c r="GS65"/>
+      <c r="GT65"/>
+      <c r="GU65"/>
+      <c r="GV65"/>
+      <c r="GW65"/>
+      <c r="GX65"/>
+      <c r="GY65"/>
+      <c r="GZ65"/>
+      <c r="HA65"/>
+      <c r="HB65"/>
+      <c r="HC65"/>
+      <c r="HD65"/>
+      <c r="HE65"/>
+      <c r="HF65"/>
+      <c r="HG65"/>
+      <c r="HH65"/>
+      <c r="HI65"/>
+      <c r="HJ65"/>
+      <c r="HK65"/>
+      <c r="HL65"/>
+      <c r="HM65"/>
+      <c r="HN65"/>
+      <c r="HO65"/>
+      <c r="HP65"/>
+      <c r="HQ65"/>
+      <c r="HR65"/>
+      <c r="HS65"/>
+      <c r="HT65"/>
+      <c r="HU65"/>
+      <c r="HV65"/>
+      <c r="HW65"/>
+      <c r="HX65"/>
+      <c r="HY65"/>
+      <c r="HZ65"/>
+      <c r="IA65"/>
+      <c r="IB65"/>
+      <c r="IC65"/>
+      <c r="ID65"/>
+      <c r="IE65"/>
+      <c r="IF65"/>
+      <c r="IG65"/>
+      <c r="IH65"/>
+      <c r="II65"/>
+      <c r="IJ65"/>
+      <c r="IK65"/>
+      <c r="IL65"/>
+      <c r="IM65"/>
+      <c r="IN65"/>
+      <c r="IO65"/>
+      <c r="IP65"/>
+      <c r="IQ65"/>
+      <c r="IR65"/>
+      <c r="IS65"/>
+      <c r="IT65"/>
+      <c r="IU65"/>
+      <c r="IV65"/>
+      <c r="IW65"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiry/Documents/oscar-web/db/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA519AC-1B24-4D4B-BD23-B89E07096A61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE9AFA-6490-304F-AC1A-17C4312ABD51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1326,14 +1326,16 @@
   </sheetPr>
   <dimension ref="A1:IW65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
     <col min="6" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
@@ -11375,8 +11377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/oscar-web/db/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE9AFA-6490-304F-AC1A-17C4312ABD51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A04C3-7F51-0148-AE6A-5BFA1D650B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="440" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="179">
   <si>
     <t>name</t>
   </si>
@@ -456,6 +456,114 @@
   <si>
     <t>View Screening Assessment</t>
   </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> brc</t>
+  </si>
+  <si>
+    <t>meeting_date</t>
+  </si>
+  <si>
+    <t>attendants</t>
+  </si>
+  <si>
+    <t>client_strength</t>
+  </si>
+  <si>
+    <t>client_limitation</t>
+  </si>
+  <si>
+    <t>client_engagement</t>
+  </si>
+  <si>
+    <t>presenting_problem</t>
+  </si>
+  <si>
+    <t>local_resource</t>
+  </si>
+  <si>
+    <t>client_support</t>
+  </si>
+  <si>
+    <t>attachments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> case_conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> field</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> rename</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Case Conference Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Attendants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client strengths</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client limitations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Presenting problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resources/services in local community</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Support and Barriers to client engagement</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Attachments</t>
+  </si>
+  <si>
+    <t>add_new_service_delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add New Service Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> service_delivery</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Category</t>
+  </si>
+  <si>
+    <t>service_deliveries</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service Deliveries</t>
+  </si>
+  <si>
+    <t>service_provided</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Service Provided</t>
+  </si>
+  <si>
+    <t>case_conference</t>
+  </si>
+  <si>
+    <t>service_delivery</t>
+  </si>
 </sst>
 </file>
 
@@ -602,7 +710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -846,11 +954,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -939,6 +1086,33 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1324,10 +1498,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW65"/>
+  <dimension ref="A1:IW94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -11089,31 +11263,31 @@
       <c r="IW64"/>
     </row>
     <row r="65" spans="1:257" x14ac:dyDescent="0.15">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E65" s="35" t="s">
+      <c r="E65" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="F65" s="35" t="s">
+      <c r="F65" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G65" s="38">
+      <c r="G65" s="69">
         <v>0</v>
       </c>
-      <c r="H65" s="39">
+      <c r="H65" s="70">
         <v>1</v>
       </c>
-      <c r="I65" s="10" t="s">
+      <c r="I65" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="J65" s="54" t="s">
+      <c r="J65" s="72" t="s">
         <v>122</v>
       </c>
       <c r="K65"/>
@@ -11364,6 +11538,4339 @@
       <c r="IV65"/>
       <c r="IW65"/>
     </row>
+    <row r="66" spans="1:257" s="80" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C66" s="78" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F66" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="78">
+        <v>0</v>
+      </c>
+      <c r="H66" s="78">
+        <v>1</v>
+      </c>
+      <c r="I66" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J66" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K66" s="79"/>
+      <c r="L66" s="79"/>
+      <c r="M66" s="79"/>
+      <c r="N66" s="79"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="79"/>
+      <c r="Q66" s="79"/>
+      <c r="R66" s="79"/>
+      <c r="S66" s="79"/>
+      <c r="T66" s="79"/>
+      <c r="U66" s="79"/>
+      <c r="V66" s="79"/>
+      <c r="W66" s="79"/>
+      <c r="X66" s="79"/>
+      <c r="Y66" s="79"/>
+      <c r="Z66" s="79"/>
+      <c r="AA66" s="79"/>
+      <c r="AB66" s="79"/>
+      <c r="AC66" s="79"/>
+      <c r="AD66" s="79"/>
+      <c r="AE66" s="79"/>
+      <c r="AF66" s="79"/>
+      <c r="AG66" s="79"/>
+      <c r="AH66" s="79"/>
+      <c r="AI66" s="79"/>
+      <c r="AJ66" s="79"/>
+      <c r="AK66" s="79"/>
+      <c r="AL66" s="79"/>
+      <c r="AM66" s="79"/>
+      <c r="AN66" s="79"/>
+      <c r="AO66" s="79"/>
+      <c r="AP66" s="79"/>
+      <c r="AQ66" s="79"/>
+      <c r="AR66" s="79"/>
+      <c r="AS66" s="79"/>
+      <c r="AT66" s="79"/>
+      <c r="AU66" s="79"/>
+      <c r="AV66" s="79"/>
+      <c r="AW66" s="79"/>
+      <c r="AX66" s="79"/>
+      <c r="AY66" s="79"/>
+      <c r="AZ66" s="79"/>
+      <c r="BA66" s="79"/>
+      <c r="BB66" s="79"/>
+      <c r="BC66" s="79"/>
+      <c r="BD66" s="79"/>
+      <c r="BE66" s="79"/>
+      <c r="BF66" s="79"/>
+      <c r="BG66" s="79"/>
+      <c r="BH66" s="79"/>
+      <c r="BI66" s="79"/>
+      <c r="BJ66" s="79"/>
+      <c r="BK66" s="79"/>
+      <c r="BL66" s="79"/>
+      <c r="BM66" s="79"/>
+      <c r="BN66" s="79"/>
+      <c r="BO66" s="79"/>
+      <c r="BP66" s="79"/>
+      <c r="BQ66" s="79"/>
+      <c r="BR66" s="79"/>
+      <c r="BS66" s="79"/>
+      <c r="BT66" s="79"/>
+      <c r="BU66" s="79"/>
+      <c r="BV66" s="79"/>
+      <c r="BW66" s="79"/>
+      <c r="BX66" s="79"/>
+      <c r="BY66" s="79"/>
+      <c r="BZ66" s="79"/>
+      <c r="CA66" s="79"/>
+      <c r="CB66" s="79"/>
+      <c r="CC66" s="79"/>
+      <c r="CD66" s="79"/>
+      <c r="CE66" s="79"/>
+      <c r="CF66" s="79"/>
+      <c r="CG66" s="79"/>
+      <c r="CH66" s="79"/>
+      <c r="CI66" s="79"/>
+      <c r="CJ66" s="79"/>
+      <c r="CK66" s="79"/>
+      <c r="CL66" s="79"/>
+      <c r="CM66" s="79"/>
+      <c r="CN66" s="79"/>
+      <c r="CO66" s="79"/>
+      <c r="CP66" s="79"/>
+      <c r="CQ66" s="79"/>
+      <c r="CR66" s="79"/>
+      <c r="CS66" s="79"/>
+      <c r="CT66" s="79"/>
+      <c r="CU66" s="79"/>
+      <c r="CV66" s="79"/>
+      <c r="CW66" s="79"/>
+      <c r="CX66" s="79"/>
+      <c r="CY66" s="79"/>
+      <c r="CZ66" s="79"/>
+      <c r="DA66" s="79"/>
+      <c r="DB66" s="79"/>
+      <c r="DC66" s="79"/>
+      <c r="DD66" s="79"/>
+      <c r="DE66" s="79"/>
+      <c r="DF66" s="79"/>
+      <c r="DG66" s="79"/>
+      <c r="DH66" s="79"/>
+      <c r="DI66" s="79"/>
+      <c r="DJ66" s="79"/>
+      <c r="DK66" s="79"/>
+      <c r="DL66" s="79"/>
+      <c r="DM66" s="79"/>
+      <c r="DN66" s="79"/>
+      <c r="DO66" s="79"/>
+      <c r="DP66" s="79"/>
+      <c r="DQ66" s="79"/>
+      <c r="DR66" s="79"/>
+      <c r="DS66" s="79"/>
+      <c r="DT66" s="79"/>
+      <c r="DU66" s="79"/>
+      <c r="DV66" s="79"/>
+      <c r="DW66" s="79"/>
+      <c r="DX66" s="79"/>
+      <c r="DY66" s="79"/>
+      <c r="DZ66" s="79"/>
+      <c r="EA66" s="79"/>
+      <c r="EB66" s="79"/>
+      <c r="EC66" s="79"/>
+      <c r="ED66" s="79"/>
+      <c r="EE66" s="79"/>
+      <c r="EF66" s="79"/>
+      <c r="EG66" s="79"/>
+      <c r="EH66" s="79"/>
+      <c r="EI66" s="79"/>
+      <c r="EJ66" s="79"/>
+      <c r="EK66" s="79"/>
+      <c r="EL66" s="79"/>
+      <c r="EM66" s="79"/>
+      <c r="EN66" s="79"/>
+      <c r="EO66" s="79"/>
+      <c r="EP66" s="79"/>
+      <c r="EQ66" s="79"/>
+      <c r="ER66" s="79"/>
+      <c r="ES66" s="79"/>
+      <c r="ET66" s="79"/>
+      <c r="EU66" s="79"/>
+      <c r="EV66" s="79"/>
+      <c r="EW66" s="79"/>
+      <c r="EX66" s="79"/>
+      <c r="EY66" s="79"/>
+      <c r="EZ66" s="79"/>
+      <c r="FA66" s="79"/>
+      <c r="FB66" s="79"/>
+      <c r="FC66" s="79"/>
+      <c r="FD66" s="79"/>
+      <c r="FE66" s="79"/>
+      <c r="FF66" s="79"/>
+      <c r="FG66" s="79"/>
+      <c r="FH66" s="79"/>
+      <c r="FI66" s="79"/>
+      <c r="FJ66" s="79"/>
+      <c r="FK66" s="79"/>
+      <c r="FL66" s="79"/>
+      <c r="FM66" s="79"/>
+      <c r="FN66" s="79"/>
+      <c r="FO66" s="79"/>
+      <c r="FP66" s="79"/>
+      <c r="FQ66" s="79"/>
+      <c r="FR66" s="79"/>
+      <c r="FS66" s="79"/>
+      <c r="FT66" s="79"/>
+      <c r="FU66" s="79"/>
+      <c r="FV66" s="79"/>
+      <c r="FW66" s="79"/>
+      <c r="FX66" s="79"/>
+      <c r="FY66" s="79"/>
+      <c r="FZ66" s="79"/>
+      <c r="GA66" s="79"/>
+      <c r="GB66" s="79"/>
+      <c r="GC66" s="79"/>
+      <c r="GD66" s="79"/>
+      <c r="GE66" s="79"/>
+      <c r="GF66" s="79"/>
+      <c r="GG66" s="79"/>
+      <c r="GH66" s="79"/>
+      <c r="GI66" s="79"/>
+      <c r="GJ66" s="79"/>
+      <c r="GK66" s="79"/>
+      <c r="GL66" s="79"/>
+      <c r="GM66" s="79"/>
+      <c r="GN66" s="79"/>
+      <c r="GO66" s="79"/>
+      <c r="GP66" s="79"/>
+      <c r="GQ66" s="79"/>
+      <c r="GR66" s="79"/>
+      <c r="GS66" s="79"/>
+      <c r="GT66" s="79"/>
+      <c r="GU66" s="79"/>
+      <c r="GV66" s="79"/>
+      <c r="GW66" s="79"/>
+      <c r="GX66" s="79"/>
+      <c r="GY66" s="79"/>
+      <c r="GZ66" s="79"/>
+      <c r="HA66" s="79"/>
+      <c r="HB66" s="79"/>
+      <c r="HC66" s="79"/>
+      <c r="HD66" s="79"/>
+      <c r="HE66" s="79"/>
+      <c r="HF66" s="79"/>
+      <c r="HG66" s="79"/>
+      <c r="HH66" s="79"/>
+      <c r="HI66" s="79"/>
+      <c r="HJ66" s="79"/>
+      <c r="HK66" s="79"/>
+      <c r="HL66" s="79"/>
+      <c r="HM66" s="79"/>
+      <c r="HN66" s="79"/>
+      <c r="HO66" s="79"/>
+      <c r="HP66" s="79"/>
+      <c r="HQ66" s="79"/>
+      <c r="HR66" s="79"/>
+      <c r="HS66" s="79"/>
+      <c r="HT66" s="79"/>
+      <c r="HU66" s="79"/>
+      <c r="HV66" s="79"/>
+      <c r="HW66" s="79"/>
+      <c r="HX66" s="79"/>
+      <c r="HY66" s="79"/>
+      <c r="HZ66" s="79"/>
+      <c r="IA66" s="79"/>
+      <c r="IB66" s="79"/>
+      <c r="IC66" s="79"/>
+      <c r="ID66" s="79"/>
+      <c r="IE66" s="79"/>
+      <c r="IF66" s="79"/>
+      <c r="IG66" s="79"/>
+      <c r="IH66" s="79"/>
+      <c r="II66" s="79"/>
+      <c r="IJ66" s="79"/>
+      <c r="IK66" s="79"/>
+      <c r="IL66" s="79"/>
+      <c r="IM66" s="79"/>
+      <c r="IN66" s="79"/>
+      <c r="IO66" s="79"/>
+      <c r="IP66" s="79"/>
+      <c r="IQ66" s="79"/>
+      <c r="IR66" s="79"/>
+      <c r="IS66" s="79"/>
+      <c r="IT66" s="79"/>
+      <c r="IU66" s="79"/>
+      <c r="IV66" s="79"/>
+      <c r="IW66" s="79"/>
+    </row>
+    <row r="67" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F67" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G67" s="78">
+        <v>0</v>
+      </c>
+      <c r="H67" s="78">
+        <v>1</v>
+      </c>
+      <c r="I67" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K67" s="79"/>
+      <c r="L67" s="79"/>
+      <c r="M67" s="79"/>
+      <c r="N67" s="79"/>
+      <c r="O67" s="79"/>
+      <c r="P67" s="79"/>
+      <c r="Q67" s="79"/>
+      <c r="R67" s="79"/>
+      <c r="S67" s="79"/>
+      <c r="T67" s="79"/>
+      <c r="U67" s="79"/>
+      <c r="V67" s="79"/>
+      <c r="W67" s="79"/>
+      <c r="X67" s="79"/>
+      <c r="Y67" s="79"/>
+      <c r="Z67" s="79"/>
+      <c r="AA67" s="79"/>
+      <c r="AB67" s="79"/>
+      <c r="AC67" s="79"/>
+      <c r="AD67" s="79"/>
+      <c r="AE67" s="79"/>
+      <c r="AF67" s="79"/>
+      <c r="AG67" s="79"/>
+      <c r="AH67" s="79"/>
+      <c r="AI67" s="79"/>
+      <c r="AJ67" s="79"/>
+      <c r="AK67" s="79"/>
+      <c r="AL67" s="79"/>
+      <c r="AM67" s="79"/>
+      <c r="AN67" s="79"/>
+      <c r="AO67" s="79"/>
+      <c r="AP67" s="79"/>
+      <c r="AQ67" s="79"/>
+      <c r="AR67" s="79"/>
+      <c r="AS67" s="79"/>
+      <c r="AT67" s="79"/>
+      <c r="AU67" s="79"/>
+      <c r="AV67" s="79"/>
+      <c r="AW67" s="79"/>
+      <c r="AX67" s="79"/>
+      <c r="AY67" s="79"/>
+      <c r="AZ67" s="79"/>
+      <c r="BA67" s="79"/>
+      <c r="BB67" s="79"/>
+      <c r="BC67" s="79"/>
+      <c r="BD67" s="79"/>
+      <c r="BE67" s="79"/>
+      <c r="BF67" s="79"/>
+      <c r="BG67" s="79"/>
+      <c r="BH67" s="79"/>
+      <c r="BI67" s="79"/>
+      <c r="BJ67" s="79"/>
+      <c r="BK67" s="79"/>
+      <c r="BL67" s="79"/>
+      <c r="BM67" s="79"/>
+      <c r="BN67" s="79"/>
+      <c r="BO67" s="79"/>
+      <c r="BP67" s="79"/>
+      <c r="BQ67" s="79"/>
+      <c r="BR67" s="79"/>
+      <c r="BS67" s="79"/>
+      <c r="BT67" s="79"/>
+      <c r="BU67" s="79"/>
+      <c r="BV67" s="79"/>
+      <c r="BW67" s="79"/>
+      <c r="BX67" s="79"/>
+      <c r="BY67" s="79"/>
+      <c r="BZ67" s="79"/>
+      <c r="CA67" s="79"/>
+      <c r="CB67" s="79"/>
+      <c r="CC67" s="79"/>
+      <c r="CD67" s="79"/>
+      <c r="CE67" s="79"/>
+      <c r="CF67" s="79"/>
+      <c r="CG67" s="79"/>
+      <c r="CH67" s="79"/>
+      <c r="CI67" s="79"/>
+      <c r="CJ67" s="79"/>
+      <c r="CK67" s="79"/>
+      <c r="CL67" s="79"/>
+      <c r="CM67" s="79"/>
+      <c r="CN67" s="79"/>
+      <c r="CO67" s="79"/>
+      <c r="CP67" s="79"/>
+      <c r="CQ67" s="79"/>
+      <c r="CR67" s="79"/>
+      <c r="CS67" s="79"/>
+      <c r="CT67" s="79"/>
+      <c r="CU67" s="79"/>
+      <c r="CV67" s="79"/>
+      <c r="CW67" s="79"/>
+      <c r="CX67" s="79"/>
+      <c r="CY67" s="79"/>
+      <c r="CZ67" s="79"/>
+      <c r="DA67" s="79"/>
+      <c r="DB67" s="79"/>
+      <c r="DC67" s="79"/>
+      <c r="DD67" s="79"/>
+      <c r="DE67" s="79"/>
+      <c r="DF67" s="79"/>
+      <c r="DG67" s="79"/>
+      <c r="DH67" s="79"/>
+      <c r="DI67" s="79"/>
+      <c r="DJ67" s="79"/>
+      <c r="DK67" s="79"/>
+      <c r="DL67" s="79"/>
+      <c r="DM67" s="79"/>
+      <c r="DN67" s="79"/>
+      <c r="DO67" s="79"/>
+      <c r="DP67" s="79"/>
+      <c r="DQ67" s="79"/>
+      <c r="DR67" s="79"/>
+      <c r="DS67" s="79"/>
+      <c r="DT67" s="79"/>
+      <c r="DU67" s="79"/>
+      <c r="DV67" s="79"/>
+      <c r="DW67" s="79"/>
+      <c r="DX67" s="79"/>
+      <c r="DY67" s="79"/>
+      <c r="DZ67" s="79"/>
+      <c r="EA67" s="79"/>
+      <c r="EB67" s="79"/>
+      <c r="EC67" s="79"/>
+      <c r="ED67" s="79"/>
+      <c r="EE67" s="79"/>
+      <c r="EF67" s="79"/>
+      <c r="EG67" s="79"/>
+      <c r="EH67" s="79"/>
+      <c r="EI67" s="79"/>
+      <c r="EJ67" s="79"/>
+      <c r="EK67" s="79"/>
+      <c r="EL67" s="79"/>
+      <c r="EM67" s="79"/>
+      <c r="EN67" s="79"/>
+      <c r="EO67" s="79"/>
+      <c r="EP67" s="79"/>
+      <c r="EQ67" s="79"/>
+      <c r="ER67" s="79"/>
+      <c r="ES67" s="79"/>
+      <c r="ET67" s="79"/>
+      <c r="EU67" s="79"/>
+      <c r="EV67" s="79"/>
+      <c r="EW67" s="79"/>
+      <c r="EX67" s="79"/>
+      <c r="EY67" s="79"/>
+      <c r="EZ67" s="79"/>
+      <c r="FA67" s="79"/>
+      <c r="FB67" s="79"/>
+      <c r="FC67" s="79"/>
+      <c r="FD67" s="79"/>
+      <c r="FE67" s="79"/>
+      <c r="FF67" s="79"/>
+      <c r="FG67" s="79"/>
+      <c r="FH67" s="79"/>
+      <c r="FI67" s="79"/>
+      <c r="FJ67" s="79"/>
+      <c r="FK67" s="79"/>
+      <c r="FL67" s="79"/>
+      <c r="FM67" s="79"/>
+      <c r="FN67" s="79"/>
+      <c r="FO67" s="79"/>
+      <c r="FP67" s="79"/>
+      <c r="FQ67" s="79"/>
+      <c r="FR67" s="79"/>
+      <c r="FS67" s="79"/>
+      <c r="FT67" s="79"/>
+      <c r="FU67" s="79"/>
+      <c r="FV67" s="79"/>
+      <c r="FW67" s="79"/>
+      <c r="FX67" s="79"/>
+      <c r="FY67" s="79"/>
+      <c r="FZ67" s="79"/>
+      <c r="GA67" s="79"/>
+      <c r="GB67" s="79"/>
+      <c r="GC67" s="79"/>
+      <c r="GD67" s="79"/>
+      <c r="GE67" s="79"/>
+      <c r="GF67" s="79"/>
+      <c r="GG67" s="79"/>
+      <c r="GH67" s="79"/>
+      <c r="GI67" s="79"/>
+      <c r="GJ67" s="79"/>
+      <c r="GK67" s="79"/>
+      <c r="GL67" s="79"/>
+      <c r="GM67" s="79"/>
+      <c r="GN67" s="79"/>
+      <c r="GO67" s="79"/>
+      <c r="GP67" s="79"/>
+      <c r="GQ67" s="79"/>
+      <c r="GR67" s="79"/>
+      <c r="GS67" s="79"/>
+      <c r="GT67" s="79"/>
+      <c r="GU67" s="79"/>
+      <c r="GV67" s="79"/>
+      <c r="GW67" s="79"/>
+      <c r="GX67" s="79"/>
+      <c r="GY67" s="79"/>
+      <c r="GZ67" s="79"/>
+      <c r="HA67" s="79"/>
+      <c r="HB67" s="79"/>
+      <c r="HC67" s="79"/>
+      <c r="HD67" s="79"/>
+      <c r="HE67" s="79"/>
+      <c r="HF67" s="79"/>
+      <c r="HG67" s="79"/>
+      <c r="HH67" s="79"/>
+      <c r="HI67" s="79"/>
+      <c r="HJ67" s="79"/>
+      <c r="HK67" s="79"/>
+      <c r="HL67" s="79"/>
+      <c r="HM67" s="79"/>
+      <c r="HN67" s="79"/>
+      <c r="HO67" s="79"/>
+      <c r="HP67" s="79"/>
+      <c r="HQ67" s="79"/>
+      <c r="HR67" s="79"/>
+      <c r="HS67" s="79"/>
+      <c r="HT67" s="79"/>
+      <c r="HU67" s="79"/>
+      <c r="HV67" s="79"/>
+      <c r="HW67" s="79"/>
+      <c r="HX67" s="79"/>
+      <c r="HY67" s="79"/>
+      <c r="HZ67" s="79"/>
+      <c r="IA67" s="79"/>
+      <c r="IB67" s="79"/>
+      <c r="IC67" s="79"/>
+      <c r="ID67" s="79"/>
+      <c r="IE67" s="79"/>
+      <c r="IF67" s="79"/>
+      <c r="IG67" s="79"/>
+      <c r="IH67" s="79"/>
+      <c r="II67" s="79"/>
+      <c r="IJ67" s="79"/>
+      <c r="IK67" s="79"/>
+      <c r="IL67" s="79"/>
+      <c r="IM67" s="79"/>
+      <c r="IN67" s="79"/>
+      <c r="IO67" s="79"/>
+      <c r="IP67" s="79"/>
+      <c r="IQ67" s="79"/>
+      <c r="IR67" s="79"/>
+      <c r="IS67" s="79"/>
+      <c r="IT67" s="79"/>
+      <c r="IU67" s="79"/>
+      <c r="IV67" s="79"/>
+      <c r="IW67" s="79"/>
+    </row>
+    <row r="68" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="77" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G68" s="78">
+        <v>0</v>
+      </c>
+      <c r="H68" s="78">
+        <v>1</v>
+      </c>
+      <c r="I68" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K68" s="79"/>
+      <c r="L68" s="79"/>
+      <c r="M68" s="79"/>
+      <c r="N68" s="79"/>
+      <c r="O68" s="79"/>
+      <c r="P68" s="79"/>
+      <c r="Q68" s="79"/>
+      <c r="R68" s="79"/>
+      <c r="S68" s="79"/>
+      <c r="T68" s="79"/>
+      <c r="U68" s="79"/>
+      <c r="V68" s="79"/>
+      <c r="W68" s="79"/>
+      <c r="X68" s="79"/>
+      <c r="Y68" s="79"/>
+      <c r="Z68" s="79"/>
+      <c r="AA68" s="79"/>
+      <c r="AB68" s="79"/>
+      <c r="AC68" s="79"/>
+      <c r="AD68" s="79"/>
+      <c r="AE68" s="79"/>
+      <c r="AF68" s="79"/>
+      <c r="AG68" s="79"/>
+      <c r="AH68" s="79"/>
+      <c r="AI68" s="79"/>
+      <c r="AJ68" s="79"/>
+      <c r="AK68" s="79"/>
+      <c r="AL68" s="79"/>
+      <c r="AM68" s="79"/>
+      <c r="AN68" s="79"/>
+      <c r="AO68" s="79"/>
+      <c r="AP68" s="79"/>
+      <c r="AQ68" s="79"/>
+      <c r="AR68" s="79"/>
+      <c r="AS68" s="79"/>
+      <c r="AT68" s="79"/>
+      <c r="AU68" s="79"/>
+      <c r="AV68" s="79"/>
+      <c r="AW68" s="79"/>
+      <c r="AX68" s="79"/>
+      <c r="AY68" s="79"/>
+      <c r="AZ68" s="79"/>
+      <c r="BA68" s="79"/>
+      <c r="BB68" s="79"/>
+      <c r="BC68" s="79"/>
+      <c r="BD68" s="79"/>
+      <c r="BE68" s="79"/>
+      <c r="BF68" s="79"/>
+      <c r="BG68" s="79"/>
+      <c r="BH68" s="79"/>
+      <c r="BI68" s="79"/>
+      <c r="BJ68" s="79"/>
+      <c r="BK68" s="79"/>
+      <c r="BL68" s="79"/>
+      <c r="BM68" s="79"/>
+      <c r="BN68" s="79"/>
+      <c r="BO68" s="79"/>
+      <c r="BP68" s="79"/>
+      <c r="BQ68" s="79"/>
+      <c r="BR68" s="79"/>
+      <c r="BS68" s="79"/>
+      <c r="BT68" s="79"/>
+      <c r="BU68" s="79"/>
+      <c r="BV68" s="79"/>
+      <c r="BW68" s="79"/>
+      <c r="BX68" s="79"/>
+      <c r="BY68" s="79"/>
+      <c r="BZ68" s="79"/>
+      <c r="CA68" s="79"/>
+      <c r="CB68" s="79"/>
+      <c r="CC68" s="79"/>
+      <c r="CD68" s="79"/>
+      <c r="CE68" s="79"/>
+      <c r="CF68" s="79"/>
+      <c r="CG68" s="79"/>
+      <c r="CH68" s="79"/>
+      <c r="CI68" s="79"/>
+      <c r="CJ68" s="79"/>
+      <c r="CK68" s="79"/>
+      <c r="CL68" s="79"/>
+      <c r="CM68" s="79"/>
+      <c r="CN68" s="79"/>
+      <c r="CO68" s="79"/>
+      <c r="CP68" s="79"/>
+      <c r="CQ68" s="79"/>
+      <c r="CR68" s="79"/>
+      <c r="CS68" s="79"/>
+      <c r="CT68" s="79"/>
+      <c r="CU68" s="79"/>
+      <c r="CV68" s="79"/>
+      <c r="CW68" s="79"/>
+      <c r="CX68" s="79"/>
+      <c r="CY68" s="79"/>
+      <c r="CZ68" s="79"/>
+      <c r="DA68" s="79"/>
+      <c r="DB68" s="79"/>
+      <c r="DC68" s="79"/>
+      <c r="DD68" s="79"/>
+      <c r="DE68" s="79"/>
+      <c r="DF68" s="79"/>
+      <c r="DG68" s="79"/>
+      <c r="DH68" s="79"/>
+      <c r="DI68" s="79"/>
+      <c r="DJ68" s="79"/>
+      <c r="DK68" s="79"/>
+      <c r="DL68" s="79"/>
+      <c r="DM68" s="79"/>
+      <c r="DN68" s="79"/>
+      <c r="DO68" s="79"/>
+      <c r="DP68" s="79"/>
+      <c r="DQ68" s="79"/>
+      <c r="DR68" s="79"/>
+      <c r="DS68" s="79"/>
+      <c r="DT68" s="79"/>
+      <c r="DU68" s="79"/>
+      <c r="DV68" s="79"/>
+      <c r="DW68" s="79"/>
+      <c r="DX68" s="79"/>
+      <c r="DY68" s="79"/>
+      <c r="DZ68" s="79"/>
+      <c r="EA68" s="79"/>
+      <c r="EB68" s="79"/>
+      <c r="EC68" s="79"/>
+      <c r="ED68" s="79"/>
+      <c r="EE68" s="79"/>
+      <c r="EF68" s="79"/>
+      <c r="EG68" s="79"/>
+      <c r="EH68" s="79"/>
+      <c r="EI68" s="79"/>
+      <c r="EJ68" s="79"/>
+      <c r="EK68" s="79"/>
+      <c r="EL68" s="79"/>
+      <c r="EM68" s="79"/>
+      <c r="EN68" s="79"/>
+      <c r="EO68" s="79"/>
+      <c r="EP68" s="79"/>
+      <c r="EQ68" s="79"/>
+      <c r="ER68" s="79"/>
+      <c r="ES68" s="79"/>
+      <c r="ET68" s="79"/>
+      <c r="EU68" s="79"/>
+      <c r="EV68" s="79"/>
+      <c r="EW68" s="79"/>
+      <c r="EX68" s="79"/>
+      <c r="EY68" s="79"/>
+      <c r="EZ68" s="79"/>
+      <c r="FA68" s="79"/>
+      <c r="FB68" s="79"/>
+      <c r="FC68" s="79"/>
+      <c r="FD68" s="79"/>
+      <c r="FE68" s="79"/>
+      <c r="FF68" s="79"/>
+      <c r="FG68" s="79"/>
+      <c r="FH68" s="79"/>
+      <c r="FI68" s="79"/>
+      <c r="FJ68" s="79"/>
+      <c r="FK68" s="79"/>
+      <c r="FL68" s="79"/>
+      <c r="FM68" s="79"/>
+      <c r="FN68" s="79"/>
+      <c r="FO68" s="79"/>
+      <c r="FP68" s="79"/>
+      <c r="FQ68" s="79"/>
+      <c r="FR68" s="79"/>
+      <c r="FS68" s="79"/>
+      <c r="FT68" s="79"/>
+      <c r="FU68" s="79"/>
+      <c r="FV68" s="79"/>
+      <c r="FW68" s="79"/>
+      <c r="FX68" s="79"/>
+      <c r="FY68" s="79"/>
+      <c r="FZ68" s="79"/>
+      <c r="GA68" s="79"/>
+      <c r="GB68" s="79"/>
+      <c r="GC68" s="79"/>
+      <c r="GD68" s="79"/>
+      <c r="GE68" s="79"/>
+      <c r="GF68" s="79"/>
+      <c r="GG68" s="79"/>
+      <c r="GH68" s="79"/>
+      <c r="GI68" s="79"/>
+      <c r="GJ68" s="79"/>
+      <c r="GK68" s="79"/>
+      <c r="GL68" s="79"/>
+      <c r="GM68" s="79"/>
+      <c r="GN68" s="79"/>
+      <c r="GO68" s="79"/>
+      <c r="GP68" s="79"/>
+      <c r="GQ68" s="79"/>
+      <c r="GR68" s="79"/>
+      <c r="GS68" s="79"/>
+      <c r="GT68" s="79"/>
+      <c r="GU68" s="79"/>
+      <c r="GV68" s="79"/>
+      <c r="GW68" s="79"/>
+      <c r="GX68" s="79"/>
+      <c r="GY68" s="79"/>
+      <c r="GZ68" s="79"/>
+      <c r="HA68" s="79"/>
+      <c r="HB68" s="79"/>
+      <c r="HC68" s="79"/>
+      <c r="HD68" s="79"/>
+      <c r="HE68" s="79"/>
+      <c r="HF68" s="79"/>
+      <c r="HG68" s="79"/>
+      <c r="HH68" s="79"/>
+      <c r="HI68" s="79"/>
+      <c r="HJ68" s="79"/>
+      <c r="HK68" s="79"/>
+      <c r="HL68" s="79"/>
+      <c r="HM68" s="79"/>
+      <c r="HN68" s="79"/>
+      <c r="HO68" s="79"/>
+      <c r="HP68" s="79"/>
+      <c r="HQ68" s="79"/>
+      <c r="HR68" s="79"/>
+      <c r="HS68" s="79"/>
+      <c r="HT68" s="79"/>
+      <c r="HU68" s="79"/>
+      <c r="HV68" s="79"/>
+      <c r="HW68" s="79"/>
+      <c r="HX68" s="79"/>
+      <c r="HY68" s="79"/>
+      <c r="HZ68" s="79"/>
+      <c r="IA68" s="79"/>
+      <c r="IB68" s="79"/>
+      <c r="IC68" s="79"/>
+      <c r="ID68" s="79"/>
+      <c r="IE68" s="79"/>
+      <c r="IF68" s="79"/>
+      <c r="IG68" s="79"/>
+      <c r="IH68" s="79"/>
+      <c r="II68" s="79"/>
+      <c r="IJ68" s="79"/>
+      <c r="IK68" s="79"/>
+      <c r="IL68" s="79"/>
+      <c r="IM68" s="79"/>
+      <c r="IN68" s="79"/>
+      <c r="IO68" s="79"/>
+      <c r="IP68" s="79"/>
+      <c r="IQ68" s="79"/>
+      <c r="IR68" s="79"/>
+      <c r="IS68" s="79"/>
+      <c r="IT68" s="79"/>
+      <c r="IU68" s="79"/>
+      <c r="IV68" s="79"/>
+      <c r="IW68" s="79"/>
+    </row>
+    <row r="69" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C69" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G69" s="78">
+        <v>0</v>
+      </c>
+      <c r="H69" s="78">
+        <v>1</v>
+      </c>
+      <c r="I69" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J69" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K69" s="79"/>
+      <c r="L69" s="79"/>
+      <c r="M69" s="79"/>
+      <c r="N69" s="79"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="79"/>
+      <c r="Q69" s="79"/>
+      <c r="R69" s="79"/>
+      <c r="S69" s="79"/>
+      <c r="T69" s="79"/>
+      <c r="U69" s="79"/>
+      <c r="V69" s="79"/>
+      <c r="W69" s="79"/>
+      <c r="X69" s="79"/>
+      <c r="Y69" s="79"/>
+      <c r="Z69" s="79"/>
+      <c r="AA69" s="79"/>
+      <c r="AB69" s="79"/>
+      <c r="AC69" s="79"/>
+      <c r="AD69" s="79"/>
+      <c r="AE69" s="79"/>
+      <c r="AF69" s="79"/>
+      <c r="AG69" s="79"/>
+      <c r="AH69" s="79"/>
+      <c r="AI69" s="79"/>
+      <c r="AJ69" s="79"/>
+      <c r="AK69" s="79"/>
+      <c r="AL69" s="79"/>
+      <c r="AM69" s="79"/>
+      <c r="AN69" s="79"/>
+      <c r="AO69" s="79"/>
+      <c r="AP69" s="79"/>
+      <c r="AQ69" s="79"/>
+      <c r="AR69" s="79"/>
+      <c r="AS69" s="79"/>
+      <c r="AT69" s="79"/>
+      <c r="AU69" s="79"/>
+      <c r="AV69" s="79"/>
+      <c r="AW69" s="79"/>
+      <c r="AX69" s="79"/>
+      <c r="AY69" s="79"/>
+      <c r="AZ69" s="79"/>
+      <c r="BA69" s="79"/>
+      <c r="BB69" s="79"/>
+      <c r="BC69" s="79"/>
+      <c r="BD69" s="79"/>
+      <c r="BE69" s="79"/>
+      <c r="BF69" s="79"/>
+      <c r="BG69" s="79"/>
+      <c r="BH69" s="79"/>
+      <c r="BI69" s="79"/>
+      <c r="BJ69" s="79"/>
+      <c r="BK69" s="79"/>
+      <c r="BL69" s="79"/>
+      <c r="BM69" s="79"/>
+      <c r="BN69" s="79"/>
+      <c r="BO69" s="79"/>
+      <c r="BP69" s="79"/>
+      <c r="BQ69" s="79"/>
+      <c r="BR69" s="79"/>
+      <c r="BS69" s="79"/>
+      <c r="BT69" s="79"/>
+      <c r="BU69" s="79"/>
+      <c r="BV69" s="79"/>
+      <c r="BW69" s="79"/>
+      <c r="BX69" s="79"/>
+      <c r="BY69" s="79"/>
+      <c r="BZ69" s="79"/>
+      <c r="CA69" s="79"/>
+      <c r="CB69" s="79"/>
+      <c r="CC69" s="79"/>
+      <c r="CD69" s="79"/>
+      <c r="CE69" s="79"/>
+      <c r="CF69" s="79"/>
+      <c r="CG69" s="79"/>
+      <c r="CH69" s="79"/>
+      <c r="CI69" s="79"/>
+      <c r="CJ69" s="79"/>
+      <c r="CK69" s="79"/>
+      <c r="CL69" s="79"/>
+      <c r="CM69" s="79"/>
+      <c r="CN69" s="79"/>
+      <c r="CO69" s="79"/>
+      <c r="CP69" s="79"/>
+      <c r="CQ69" s="79"/>
+      <c r="CR69" s="79"/>
+      <c r="CS69" s="79"/>
+      <c r="CT69" s="79"/>
+      <c r="CU69" s="79"/>
+      <c r="CV69" s="79"/>
+      <c r="CW69" s="79"/>
+      <c r="CX69" s="79"/>
+      <c r="CY69" s="79"/>
+      <c r="CZ69" s="79"/>
+      <c r="DA69" s="79"/>
+      <c r="DB69" s="79"/>
+      <c r="DC69" s="79"/>
+      <c r="DD69" s="79"/>
+      <c r="DE69" s="79"/>
+      <c r="DF69" s="79"/>
+      <c r="DG69" s="79"/>
+      <c r="DH69" s="79"/>
+      <c r="DI69" s="79"/>
+      <c r="DJ69" s="79"/>
+      <c r="DK69" s="79"/>
+      <c r="DL69" s="79"/>
+      <c r="DM69" s="79"/>
+      <c r="DN69" s="79"/>
+      <c r="DO69" s="79"/>
+      <c r="DP69" s="79"/>
+      <c r="DQ69" s="79"/>
+      <c r="DR69" s="79"/>
+      <c r="DS69" s="79"/>
+      <c r="DT69" s="79"/>
+      <c r="DU69" s="79"/>
+      <c r="DV69" s="79"/>
+      <c r="DW69" s="79"/>
+      <c r="DX69" s="79"/>
+      <c r="DY69" s="79"/>
+      <c r="DZ69" s="79"/>
+      <c r="EA69" s="79"/>
+      <c r="EB69" s="79"/>
+      <c r="EC69" s="79"/>
+      <c r="ED69" s="79"/>
+      <c r="EE69" s="79"/>
+      <c r="EF69" s="79"/>
+      <c r="EG69" s="79"/>
+      <c r="EH69" s="79"/>
+      <c r="EI69" s="79"/>
+      <c r="EJ69" s="79"/>
+      <c r="EK69" s="79"/>
+      <c r="EL69" s="79"/>
+      <c r="EM69" s="79"/>
+      <c r="EN69" s="79"/>
+      <c r="EO69" s="79"/>
+      <c r="EP69" s="79"/>
+      <c r="EQ69" s="79"/>
+      <c r="ER69" s="79"/>
+      <c r="ES69" s="79"/>
+      <c r="ET69" s="79"/>
+      <c r="EU69" s="79"/>
+      <c r="EV69" s="79"/>
+      <c r="EW69" s="79"/>
+      <c r="EX69" s="79"/>
+      <c r="EY69" s="79"/>
+      <c r="EZ69" s="79"/>
+      <c r="FA69" s="79"/>
+      <c r="FB69" s="79"/>
+      <c r="FC69" s="79"/>
+      <c r="FD69" s="79"/>
+      <c r="FE69" s="79"/>
+      <c r="FF69" s="79"/>
+      <c r="FG69" s="79"/>
+      <c r="FH69" s="79"/>
+      <c r="FI69" s="79"/>
+      <c r="FJ69" s="79"/>
+      <c r="FK69" s="79"/>
+      <c r="FL69" s="79"/>
+      <c r="FM69" s="79"/>
+      <c r="FN69" s="79"/>
+      <c r="FO69" s="79"/>
+      <c r="FP69" s="79"/>
+      <c r="FQ69" s="79"/>
+      <c r="FR69" s="79"/>
+      <c r="FS69" s="79"/>
+      <c r="FT69" s="79"/>
+      <c r="FU69" s="79"/>
+      <c r="FV69" s="79"/>
+      <c r="FW69" s="79"/>
+      <c r="FX69" s="79"/>
+      <c r="FY69" s="79"/>
+      <c r="FZ69" s="79"/>
+      <c r="GA69" s="79"/>
+      <c r="GB69" s="79"/>
+      <c r="GC69" s="79"/>
+      <c r="GD69" s="79"/>
+      <c r="GE69" s="79"/>
+      <c r="GF69" s="79"/>
+      <c r="GG69" s="79"/>
+      <c r="GH69" s="79"/>
+      <c r="GI69" s="79"/>
+      <c r="GJ69" s="79"/>
+      <c r="GK69" s="79"/>
+      <c r="GL69" s="79"/>
+      <c r="GM69" s="79"/>
+      <c r="GN69" s="79"/>
+      <c r="GO69" s="79"/>
+      <c r="GP69" s="79"/>
+      <c r="GQ69" s="79"/>
+      <c r="GR69" s="79"/>
+      <c r="GS69" s="79"/>
+      <c r="GT69" s="79"/>
+      <c r="GU69" s="79"/>
+      <c r="GV69" s="79"/>
+      <c r="GW69" s="79"/>
+      <c r="GX69" s="79"/>
+      <c r="GY69" s="79"/>
+      <c r="GZ69" s="79"/>
+      <c r="HA69" s="79"/>
+      <c r="HB69" s="79"/>
+      <c r="HC69" s="79"/>
+      <c r="HD69" s="79"/>
+      <c r="HE69" s="79"/>
+      <c r="HF69" s="79"/>
+      <c r="HG69" s="79"/>
+      <c r="HH69" s="79"/>
+      <c r="HI69" s="79"/>
+      <c r="HJ69" s="79"/>
+      <c r="HK69" s="79"/>
+      <c r="HL69" s="79"/>
+      <c r="HM69" s="79"/>
+      <c r="HN69" s="79"/>
+      <c r="HO69" s="79"/>
+      <c r="HP69" s="79"/>
+      <c r="HQ69" s="79"/>
+      <c r="HR69" s="79"/>
+      <c r="HS69" s="79"/>
+      <c r="HT69" s="79"/>
+      <c r="HU69" s="79"/>
+      <c r="HV69" s="79"/>
+      <c r="HW69" s="79"/>
+      <c r="HX69" s="79"/>
+      <c r="HY69" s="79"/>
+      <c r="HZ69" s="79"/>
+      <c r="IA69" s="79"/>
+      <c r="IB69" s="79"/>
+      <c r="IC69" s="79"/>
+      <c r="ID69" s="79"/>
+      <c r="IE69" s="79"/>
+      <c r="IF69" s="79"/>
+      <c r="IG69" s="79"/>
+      <c r="IH69" s="79"/>
+      <c r="II69" s="79"/>
+      <c r="IJ69" s="79"/>
+      <c r="IK69" s="79"/>
+      <c r="IL69" s="79"/>
+      <c r="IM69" s="79"/>
+      <c r="IN69" s="79"/>
+      <c r="IO69" s="79"/>
+      <c r="IP69" s="79"/>
+      <c r="IQ69" s="79"/>
+      <c r="IR69" s="79"/>
+      <c r="IS69" s="79"/>
+      <c r="IT69" s="79"/>
+      <c r="IU69" s="79"/>
+      <c r="IV69" s="79"/>
+      <c r="IW69" s="79"/>
+    </row>
+    <row r="70" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G70" s="78">
+        <v>0</v>
+      </c>
+      <c r="H70" s="78">
+        <v>1</v>
+      </c>
+      <c r="I70" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J70" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K70" s="79"/>
+      <c r="L70" s="79"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="79"/>
+      <c r="Q70" s="79"/>
+      <c r="R70" s="79"/>
+      <c r="S70" s="79"/>
+      <c r="T70" s="79"/>
+      <c r="U70" s="79"/>
+      <c r="V70" s="79"/>
+      <c r="W70" s="79"/>
+      <c r="X70" s="79"/>
+      <c r="Y70" s="79"/>
+      <c r="Z70" s="79"/>
+      <c r="AA70" s="79"/>
+      <c r="AB70" s="79"/>
+      <c r="AC70" s="79"/>
+      <c r="AD70" s="79"/>
+      <c r="AE70" s="79"/>
+      <c r="AF70" s="79"/>
+      <c r="AG70" s="79"/>
+      <c r="AH70" s="79"/>
+      <c r="AI70" s="79"/>
+      <c r="AJ70" s="79"/>
+      <c r="AK70" s="79"/>
+      <c r="AL70" s="79"/>
+      <c r="AM70" s="79"/>
+      <c r="AN70" s="79"/>
+      <c r="AO70" s="79"/>
+      <c r="AP70" s="79"/>
+      <c r="AQ70" s="79"/>
+      <c r="AR70" s="79"/>
+      <c r="AS70" s="79"/>
+      <c r="AT70" s="79"/>
+      <c r="AU70" s="79"/>
+      <c r="AV70" s="79"/>
+      <c r="AW70" s="79"/>
+      <c r="AX70" s="79"/>
+      <c r="AY70" s="79"/>
+      <c r="AZ70" s="79"/>
+      <c r="BA70" s="79"/>
+      <c r="BB70" s="79"/>
+      <c r="BC70" s="79"/>
+      <c r="BD70" s="79"/>
+      <c r="BE70" s="79"/>
+      <c r="BF70" s="79"/>
+      <c r="BG70" s="79"/>
+      <c r="BH70" s="79"/>
+      <c r="BI70" s="79"/>
+      <c r="BJ70" s="79"/>
+      <c r="BK70" s="79"/>
+      <c r="BL70" s="79"/>
+      <c r="BM70" s="79"/>
+      <c r="BN70" s="79"/>
+      <c r="BO70" s="79"/>
+      <c r="BP70" s="79"/>
+      <c r="BQ70" s="79"/>
+      <c r="BR70" s="79"/>
+      <c r="BS70" s="79"/>
+      <c r="BT70" s="79"/>
+      <c r="BU70" s="79"/>
+      <c r="BV70" s="79"/>
+      <c r="BW70" s="79"/>
+      <c r="BX70" s="79"/>
+      <c r="BY70" s="79"/>
+      <c r="BZ70" s="79"/>
+      <c r="CA70" s="79"/>
+      <c r="CB70" s="79"/>
+      <c r="CC70" s="79"/>
+      <c r="CD70" s="79"/>
+      <c r="CE70" s="79"/>
+      <c r="CF70" s="79"/>
+      <c r="CG70" s="79"/>
+      <c r="CH70" s="79"/>
+      <c r="CI70" s="79"/>
+      <c r="CJ70" s="79"/>
+      <c r="CK70" s="79"/>
+      <c r="CL70" s="79"/>
+      <c r="CM70" s="79"/>
+      <c r="CN70" s="79"/>
+      <c r="CO70" s="79"/>
+      <c r="CP70" s="79"/>
+      <c r="CQ70" s="79"/>
+      <c r="CR70" s="79"/>
+      <c r="CS70" s="79"/>
+      <c r="CT70" s="79"/>
+      <c r="CU70" s="79"/>
+      <c r="CV70" s="79"/>
+      <c r="CW70" s="79"/>
+      <c r="CX70" s="79"/>
+      <c r="CY70" s="79"/>
+      <c r="CZ70" s="79"/>
+      <c r="DA70" s="79"/>
+      <c r="DB70" s="79"/>
+      <c r="DC70" s="79"/>
+      <c r="DD70" s="79"/>
+      <c r="DE70" s="79"/>
+      <c r="DF70" s="79"/>
+      <c r="DG70" s="79"/>
+      <c r="DH70" s="79"/>
+      <c r="DI70" s="79"/>
+      <c r="DJ70" s="79"/>
+      <c r="DK70" s="79"/>
+      <c r="DL70" s="79"/>
+      <c r="DM70" s="79"/>
+      <c r="DN70" s="79"/>
+      <c r="DO70" s="79"/>
+      <c r="DP70" s="79"/>
+      <c r="DQ70" s="79"/>
+      <c r="DR70" s="79"/>
+      <c r="DS70" s="79"/>
+      <c r="DT70" s="79"/>
+      <c r="DU70" s="79"/>
+      <c r="DV70" s="79"/>
+      <c r="DW70" s="79"/>
+      <c r="DX70" s="79"/>
+      <c r="DY70" s="79"/>
+      <c r="DZ70" s="79"/>
+      <c r="EA70" s="79"/>
+      <c r="EB70" s="79"/>
+      <c r="EC70" s="79"/>
+      <c r="ED70" s="79"/>
+      <c r="EE70" s="79"/>
+      <c r="EF70" s="79"/>
+      <c r="EG70" s="79"/>
+      <c r="EH70" s="79"/>
+      <c r="EI70" s="79"/>
+      <c r="EJ70" s="79"/>
+      <c r="EK70" s="79"/>
+      <c r="EL70" s="79"/>
+      <c r="EM70" s="79"/>
+      <c r="EN70" s="79"/>
+      <c r="EO70" s="79"/>
+      <c r="EP70" s="79"/>
+      <c r="EQ70" s="79"/>
+      <c r="ER70" s="79"/>
+      <c r="ES70" s="79"/>
+      <c r="ET70" s="79"/>
+      <c r="EU70" s="79"/>
+      <c r="EV70" s="79"/>
+      <c r="EW70" s="79"/>
+      <c r="EX70" s="79"/>
+      <c r="EY70" s="79"/>
+      <c r="EZ70" s="79"/>
+      <c r="FA70" s="79"/>
+      <c r="FB70" s="79"/>
+      <c r="FC70" s="79"/>
+      <c r="FD70" s="79"/>
+      <c r="FE70" s="79"/>
+      <c r="FF70" s="79"/>
+      <c r="FG70" s="79"/>
+      <c r="FH70" s="79"/>
+      <c r="FI70" s="79"/>
+      <c r="FJ70" s="79"/>
+      <c r="FK70" s="79"/>
+      <c r="FL70" s="79"/>
+      <c r="FM70" s="79"/>
+      <c r="FN70" s="79"/>
+      <c r="FO70" s="79"/>
+      <c r="FP70" s="79"/>
+      <c r="FQ70" s="79"/>
+      <c r="FR70" s="79"/>
+      <c r="FS70" s="79"/>
+      <c r="FT70" s="79"/>
+      <c r="FU70" s="79"/>
+      <c r="FV70" s="79"/>
+      <c r="FW70" s="79"/>
+      <c r="FX70" s="79"/>
+      <c r="FY70" s="79"/>
+      <c r="FZ70" s="79"/>
+      <c r="GA70" s="79"/>
+      <c r="GB70" s="79"/>
+      <c r="GC70" s="79"/>
+      <c r="GD70" s="79"/>
+      <c r="GE70" s="79"/>
+      <c r="GF70" s="79"/>
+      <c r="GG70" s="79"/>
+      <c r="GH70" s="79"/>
+      <c r="GI70" s="79"/>
+      <c r="GJ70" s="79"/>
+      <c r="GK70" s="79"/>
+      <c r="GL70" s="79"/>
+      <c r="GM70" s="79"/>
+      <c r="GN70" s="79"/>
+      <c r="GO70" s="79"/>
+      <c r="GP70" s="79"/>
+      <c r="GQ70" s="79"/>
+      <c r="GR70" s="79"/>
+      <c r="GS70" s="79"/>
+      <c r="GT70" s="79"/>
+      <c r="GU70" s="79"/>
+      <c r="GV70" s="79"/>
+      <c r="GW70" s="79"/>
+      <c r="GX70" s="79"/>
+      <c r="GY70" s="79"/>
+      <c r="GZ70" s="79"/>
+      <c r="HA70" s="79"/>
+      <c r="HB70" s="79"/>
+      <c r="HC70" s="79"/>
+      <c r="HD70" s="79"/>
+      <c r="HE70" s="79"/>
+      <c r="HF70" s="79"/>
+      <c r="HG70" s="79"/>
+      <c r="HH70" s="79"/>
+      <c r="HI70" s="79"/>
+      <c r="HJ70" s="79"/>
+      <c r="HK70" s="79"/>
+      <c r="HL70" s="79"/>
+      <c r="HM70" s="79"/>
+      <c r="HN70" s="79"/>
+      <c r="HO70" s="79"/>
+      <c r="HP70" s="79"/>
+      <c r="HQ70" s="79"/>
+      <c r="HR70" s="79"/>
+      <c r="HS70" s="79"/>
+      <c r="HT70" s="79"/>
+      <c r="HU70" s="79"/>
+      <c r="HV70" s="79"/>
+      <c r="HW70" s="79"/>
+      <c r="HX70" s="79"/>
+      <c r="HY70" s="79"/>
+      <c r="HZ70" s="79"/>
+      <c r="IA70" s="79"/>
+      <c r="IB70" s="79"/>
+      <c r="IC70" s="79"/>
+      <c r="ID70" s="79"/>
+      <c r="IE70" s="79"/>
+      <c r="IF70" s="79"/>
+      <c r="IG70" s="79"/>
+      <c r="IH70" s="79"/>
+      <c r="II70" s="79"/>
+      <c r="IJ70" s="79"/>
+      <c r="IK70" s="79"/>
+      <c r="IL70" s="79"/>
+      <c r="IM70" s="79"/>
+      <c r="IN70" s="79"/>
+      <c r="IO70" s="79"/>
+      <c r="IP70" s="79"/>
+      <c r="IQ70" s="79"/>
+      <c r="IR70" s="79"/>
+      <c r="IS70" s="79"/>
+      <c r="IT70" s="79"/>
+      <c r="IU70" s="79"/>
+      <c r="IV70" s="79"/>
+      <c r="IW70" s="79"/>
+    </row>
+    <row r="71" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G71" s="78">
+        <v>0</v>
+      </c>
+      <c r="H71" s="78">
+        <v>1</v>
+      </c>
+      <c r="I71" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J71" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K71" s="79"/>
+      <c r="L71" s="79"/>
+      <c r="M71" s="79"/>
+      <c r="N71" s="79"/>
+      <c r="O71" s="79"/>
+      <c r="P71" s="79"/>
+      <c r="Q71" s="79"/>
+      <c r="R71" s="79"/>
+      <c r="S71" s="79"/>
+      <c r="T71" s="79"/>
+      <c r="U71" s="79"/>
+      <c r="V71" s="79"/>
+      <c r="W71" s="79"/>
+      <c r="X71" s="79"/>
+      <c r="Y71" s="79"/>
+      <c r="Z71" s="79"/>
+      <c r="AA71" s="79"/>
+      <c r="AB71" s="79"/>
+      <c r="AC71" s="79"/>
+      <c r="AD71" s="79"/>
+      <c r="AE71" s="79"/>
+      <c r="AF71" s="79"/>
+      <c r="AG71" s="79"/>
+      <c r="AH71" s="79"/>
+      <c r="AI71" s="79"/>
+      <c r="AJ71" s="79"/>
+      <c r="AK71" s="79"/>
+      <c r="AL71" s="79"/>
+      <c r="AM71" s="79"/>
+      <c r="AN71" s="79"/>
+      <c r="AO71" s="79"/>
+      <c r="AP71" s="79"/>
+      <c r="AQ71" s="79"/>
+      <c r="AR71" s="79"/>
+      <c r="AS71" s="79"/>
+      <c r="AT71" s="79"/>
+      <c r="AU71" s="79"/>
+      <c r="AV71" s="79"/>
+      <c r="AW71" s="79"/>
+      <c r="AX71" s="79"/>
+      <c r="AY71" s="79"/>
+      <c r="AZ71" s="79"/>
+      <c r="BA71" s="79"/>
+      <c r="BB71" s="79"/>
+      <c r="BC71" s="79"/>
+      <c r="BD71" s="79"/>
+      <c r="BE71" s="79"/>
+      <c r="BF71" s="79"/>
+      <c r="BG71" s="79"/>
+      <c r="BH71" s="79"/>
+      <c r="BI71" s="79"/>
+      <c r="BJ71" s="79"/>
+      <c r="BK71" s="79"/>
+      <c r="BL71" s="79"/>
+      <c r="BM71" s="79"/>
+      <c r="BN71" s="79"/>
+      <c r="BO71" s="79"/>
+      <c r="BP71" s="79"/>
+      <c r="BQ71" s="79"/>
+      <c r="BR71" s="79"/>
+      <c r="BS71" s="79"/>
+      <c r="BT71" s="79"/>
+      <c r="BU71" s="79"/>
+      <c r="BV71" s="79"/>
+      <c r="BW71" s="79"/>
+      <c r="BX71" s="79"/>
+      <c r="BY71" s="79"/>
+      <c r="BZ71" s="79"/>
+      <c r="CA71" s="79"/>
+      <c r="CB71" s="79"/>
+      <c r="CC71" s="79"/>
+      <c r="CD71" s="79"/>
+      <c r="CE71" s="79"/>
+      <c r="CF71" s="79"/>
+      <c r="CG71" s="79"/>
+      <c r="CH71" s="79"/>
+      <c r="CI71" s="79"/>
+      <c r="CJ71" s="79"/>
+      <c r="CK71" s="79"/>
+      <c r="CL71" s="79"/>
+      <c r="CM71" s="79"/>
+      <c r="CN71" s="79"/>
+      <c r="CO71" s="79"/>
+      <c r="CP71" s="79"/>
+      <c r="CQ71" s="79"/>
+      <c r="CR71" s="79"/>
+      <c r="CS71" s="79"/>
+      <c r="CT71" s="79"/>
+      <c r="CU71" s="79"/>
+      <c r="CV71" s="79"/>
+      <c r="CW71" s="79"/>
+      <c r="CX71" s="79"/>
+      <c r="CY71" s="79"/>
+      <c r="CZ71" s="79"/>
+      <c r="DA71" s="79"/>
+      <c r="DB71" s="79"/>
+      <c r="DC71" s="79"/>
+      <c r="DD71" s="79"/>
+      <c r="DE71" s="79"/>
+      <c r="DF71" s="79"/>
+      <c r="DG71" s="79"/>
+      <c r="DH71" s="79"/>
+      <c r="DI71" s="79"/>
+      <c r="DJ71" s="79"/>
+      <c r="DK71" s="79"/>
+      <c r="DL71" s="79"/>
+      <c r="DM71" s="79"/>
+      <c r="DN71" s="79"/>
+      <c r="DO71" s="79"/>
+      <c r="DP71" s="79"/>
+      <c r="DQ71" s="79"/>
+      <c r="DR71" s="79"/>
+      <c r="DS71" s="79"/>
+      <c r="DT71" s="79"/>
+      <c r="DU71" s="79"/>
+      <c r="DV71" s="79"/>
+      <c r="DW71" s="79"/>
+      <c r="DX71" s="79"/>
+      <c r="DY71" s="79"/>
+      <c r="DZ71" s="79"/>
+      <c r="EA71" s="79"/>
+      <c r="EB71" s="79"/>
+      <c r="EC71" s="79"/>
+      <c r="ED71" s="79"/>
+      <c r="EE71" s="79"/>
+      <c r="EF71" s="79"/>
+      <c r="EG71" s="79"/>
+      <c r="EH71" s="79"/>
+      <c r="EI71" s="79"/>
+      <c r="EJ71" s="79"/>
+      <c r="EK71" s="79"/>
+      <c r="EL71" s="79"/>
+      <c r="EM71" s="79"/>
+      <c r="EN71" s="79"/>
+      <c r="EO71" s="79"/>
+      <c r="EP71" s="79"/>
+      <c r="EQ71" s="79"/>
+      <c r="ER71" s="79"/>
+      <c r="ES71" s="79"/>
+      <c r="ET71" s="79"/>
+      <c r="EU71" s="79"/>
+      <c r="EV71" s="79"/>
+      <c r="EW71" s="79"/>
+      <c r="EX71" s="79"/>
+      <c r="EY71" s="79"/>
+      <c r="EZ71" s="79"/>
+      <c r="FA71" s="79"/>
+      <c r="FB71" s="79"/>
+      <c r="FC71" s="79"/>
+      <c r="FD71" s="79"/>
+      <c r="FE71" s="79"/>
+      <c r="FF71" s="79"/>
+      <c r="FG71" s="79"/>
+      <c r="FH71" s="79"/>
+      <c r="FI71" s="79"/>
+      <c r="FJ71" s="79"/>
+      <c r="FK71" s="79"/>
+      <c r="FL71" s="79"/>
+      <c r="FM71" s="79"/>
+      <c r="FN71" s="79"/>
+      <c r="FO71" s="79"/>
+      <c r="FP71" s="79"/>
+      <c r="FQ71" s="79"/>
+      <c r="FR71" s="79"/>
+      <c r="FS71" s="79"/>
+      <c r="FT71" s="79"/>
+      <c r="FU71" s="79"/>
+      <c r="FV71" s="79"/>
+      <c r="FW71" s="79"/>
+      <c r="FX71" s="79"/>
+      <c r="FY71" s="79"/>
+      <c r="FZ71" s="79"/>
+      <c r="GA71" s="79"/>
+      <c r="GB71" s="79"/>
+      <c r="GC71" s="79"/>
+      <c r="GD71" s="79"/>
+      <c r="GE71" s="79"/>
+      <c r="GF71" s="79"/>
+      <c r="GG71" s="79"/>
+      <c r="GH71" s="79"/>
+      <c r="GI71" s="79"/>
+      <c r="GJ71" s="79"/>
+      <c r="GK71" s="79"/>
+      <c r="GL71" s="79"/>
+      <c r="GM71" s="79"/>
+      <c r="GN71" s="79"/>
+      <c r="GO71" s="79"/>
+      <c r="GP71" s="79"/>
+      <c r="GQ71" s="79"/>
+      <c r="GR71" s="79"/>
+      <c r="GS71" s="79"/>
+      <c r="GT71" s="79"/>
+      <c r="GU71" s="79"/>
+      <c r="GV71" s="79"/>
+      <c r="GW71" s="79"/>
+      <c r="GX71" s="79"/>
+      <c r="GY71" s="79"/>
+      <c r="GZ71" s="79"/>
+      <c r="HA71" s="79"/>
+      <c r="HB71" s="79"/>
+      <c r="HC71" s="79"/>
+      <c r="HD71" s="79"/>
+      <c r="HE71" s="79"/>
+      <c r="HF71" s="79"/>
+      <c r="HG71" s="79"/>
+      <c r="HH71" s="79"/>
+      <c r="HI71" s="79"/>
+      <c r="HJ71" s="79"/>
+      <c r="HK71" s="79"/>
+      <c r="HL71" s="79"/>
+      <c r="HM71" s="79"/>
+      <c r="HN71" s="79"/>
+      <c r="HO71" s="79"/>
+      <c r="HP71" s="79"/>
+      <c r="HQ71" s="79"/>
+      <c r="HR71" s="79"/>
+      <c r="HS71" s="79"/>
+      <c r="HT71" s="79"/>
+      <c r="HU71" s="79"/>
+      <c r="HV71" s="79"/>
+      <c r="HW71" s="79"/>
+      <c r="HX71" s="79"/>
+      <c r="HY71" s="79"/>
+      <c r="HZ71" s="79"/>
+      <c r="IA71" s="79"/>
+      <c r="IB71" s="79"/>
+      <c r="IC71" s="79"/>
+      <c r="ID71" s="79"/>
+      <c r="IE71" s="79"/>
+      <c r="IF71" s="79"/>
+      <c r="IG71" s="79"/>
+      <c r="IH71" s="79"/>
+      <c r="II71" s="79"/>
+      <c r="IJ71" s="79"/>
+      <c r="IK71" s="79"/>
+      <c r="IL71" s="79"/>
+      <c r="IM71" s="79"/>
+      <c r="IN71" s="79"/>
+      <c r="IO71" s="79"/>
+      <c r="IP71" s="79"/>
+      <c r="IQ71" s="79"/>
+      <c r="IR71" s="79"/>
+      <c r="IS71" s="79"/>
+      <c r="IT71" s="79"/>
+      <c r="IU71" s="79"/>
+      <c r="IV71" s="79"/>
+      <c r="IW71" s="79"/>
+    </row>
+    <row r="72" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F72" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G72" s="78">
+        <v>0</v>
+      </c>
+      <c r="H72" s="78">
+        <v>1</v>
+      </c>
+      <c r="I72" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J72" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K72" s="79"/>
+      <c r="L72" s="79"/>
+      <c r="M72" s="79"/>
+      <c r="N72" s="79"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="79"/>
+      <c r="Q72" s="79"/>
+      <c r="R72" s="79"/>
+      <c r="S72" s="79"/>
+      <c r="T72" s="79"/>
+      <c r="U72" s="79"/>
+      <c r="V72" s="79"/>
+      <c r="W72" s="79"/>
+      <c r="X72" s="79"/>
+      <c r="Y72" s="79"/>
+      <c r="Z72" s="79"/>
+      <c r="AA72" s="79"/>
+      <c r="AB72" s="79"/>
+      <c r="AC72" s="79"/>
+      <c r="AD72" s="79"/>
+      <c r="AE72" s="79"/>
+      <c r="AF72" s="79"/>
+      <c r="AG72" s="79"/>
+      <c r="AH72" s="79"/>
+      <c r="AI72" s="79"/>
+      <c r="AJ72" s="79"/>
+      <c r="AK72" s="79"/>
+      <c r="AL72" s="79"/>
+      <c r="AM72" s="79"/>
+      <c r="AN72" s="79"/>
+      <c r="AO72" s="79"/>
+      <c r="AP72" s="79"/>
+      <c r="AQ72" s="79"/>
+      <c r="AR72" s="79"/>
+      <c r="AS72" s="79"/>
+      <c r="AT72" s="79"/>
+      <c r="AU72" s="79"/>
+      <c r="AV72" s="79"/>
+      <c r="AW72" s="79"/>
+      <c r="AX72" s="79"/>
+      <c r="AY72" s="79"/>
+      <c r="AZ72" s="79"/>
+      <c r="BA72" s="79"/>
+      <c r="BB72" s="79"/>
+      <c r="BC72" s="79"/>
+      <c r="BD72" s="79"/>
+      <c r="BE72" s="79"/>
+      <c r="BF72" s="79"/>
+      <c r="BG72" s="79"/>
+      <c r="BH72" s="79"/>
+      <c r="BI72" s="79"/>
+      <c r="BJ72" s="79"/>
+      <c r="BK72" s="79"/>
+      <c r="BL72" s="79"/>
+      <c r="BM72" s="79"/>
+      <c r="BN72" s="79"/>
+      <c r="BO72" s="79"/>
+      <c r="BP72" s="79"/>
+      <c r="BQ72" s="79"/>
+      <c r="BR72" s="79"/>
+      <c r="BS72" s="79"/>
+      <c r="BT72" s="79"/>
+      <c r="BU72" s="79"/>
+      <c r="BV72" s="79"/>
+      <c r="BW72" s="79"/>
+      <c r="BX72" s="79"/>
+      <c r="BY72" s="79"/>
+      <c r="BZ72" s="79"/>
+      <c r="CA72" s="79"/>
+      <c r="CB72" s="79"/>
+      <c r="CC72" s="79"/>
+      <c r="CD72" s="79"/>
+      <c r="CE72" s="79"/>
+      <c r="CF72" s="79"/>
+      <c r="CG72" s="79"/>
+      <c r="CH72" s="79"/>
+      <c r="CI72" s="79"/>
+      <c r="CJ72" s="79"/>
+      <c r="CK72" s="79"/>
+      <c r="CL72" s="79"/>
+      <c r="CM72" s="79"/>
+      <c r="CN72" s="79"/>
+      <c r="CO72" s="79"/>
+      <c r="CP72" s="79"/>
+      <c r="CQ72" s="79"/>
+      <c r="CR72" s="79"/>
+      <c r="CS72" s="79"/>
+      <c r="CT72" s="79"/>
+      <c r="CU72" s="79"/>
+      <c r="CV72" s="79"/>
+      <c r="CW72" s="79"/>
+      <c r="CX72" s="79"/>
+      <c r="CY72" s="79"/>
+      <c r="CZ72" s="79"/>
+      <c r="DA72" s="79"/>
+      <c r="DB72" s="79"/>
+      <c r="DC72" s="79"/>
+      <c r="DD72" s="79"/>
+      <c r="DE72" s="79"/>
+      <c r="DF72" s="79"/>
+      <c r="DG72" s="79"/>
+      <c r="DH72" s="79"/>
+      <c r="DI72" s="79"/>
+      <c r="DJ72" s="79"/>
+      <c r="DK72" s="79"/>
+      <c r="DL72" s="79"/>
+      <c r="DM72" s="79"/>
+      <c r="DN72" s="79"/>
+      <c r="DO72" s="79"/>
+      <c r="DP72" s="79"/>
+      <c r="DQ72" s="79"/>
+      <c r="DR72" s="79"/>
+      <c r="DS72" s="79"/>
+      <c r="DT72" s="79"/>
+      <c r="DU72" s="79"/>
+      <c r="DV72" s="79"/>
+      <c r="DW72" s="79"/>
+      <c r="DX72" s="79"/>
+      <c r="DY72" s="79"/>
+      <c r="DZ72" s="79"/>
+      <c r="EA72" s="79"/>
+      <c r="EB72" s="79"/>
+      <c r="EC72" s="79"/>
+      <c r="ED72" s="79"/>
+      <c r="EE72" s="79"/>
+      <c r="EF72" s="79"/>
+      <c r="EG72" s="79"/>
+      <c r="EH72" s="79"/>
+      <c r="EI72" s="79"/>
+      <c r="EJ72" s="79"/>
+      <c r="EK72" s="79"/>
+      <c r="EL72" s="79"/>
+      <c r="EM72" s="79"/>
+      <c r="EN72" s="79"/>
+      <c r="EO72" s="79"/>
+      <c r="EP72" s="79"/>
+      <c r="EQ72" s="79"/>
+      <c r="ER72" s="79"/>
+      <c r="ES72" s="79"/>
+      <c r="ET72" s="79"/>
+      <c r="EU72" s="79"/>
+      <c r="EV72" s="79"/>
+      <c r="EW72" s="79"/>
+      <c r="EX72" s="79"/>
+      <c r="EY72" s="79"/>
+      <c r="EZ72" s="79"/>
+      <c r="FA72" s="79"/>
+      <c r="FB72" s="79"/>
+      <c r="FC72" s="79"/>
+      <c r="FD72" s="79"/>
+      <c r="FE72" s="79"/>
+      <c r="FF72" s="79"/>
+      <c r="FG72" s="79"/>
+      <c r="FH72" s="79"/>
+      <c r="FI72" s="79"/>
+      <c r="FJ72" s="79"/>
+      <c r="FK72" s="79"/>
+      <c r="FL72" s="79"/>
+      <c r="FM72" s="79"/>
+      <c r="FN72" s="79"/>
+      <c r="FO72" s="79"/>
+      <c r="FP72" s="79"/>
+      <c r="FQ72" s="79"/>
+      <c r="FR72" s="79"/>
+      <c r="FS72" s="79"/>
+      <c r="FT72" s="79"/>
+      <c r="FU72" s="79"/>
+      <c r="FV72" s="79"/>
+      <c r="FW72" s="79"/>
+      <c r="FX72" s="79"/>
+      <c r="FY72" s="79"/>
+      <c r="FZ72" s="79"/>
+      <c r="GA72" s="79"/>
+      <c r="GB72" s="79"/>
+      <c r="GC72" s="79"/>
+      <c r="GD72" s="79"/>
+      <c r="GE72" s="79"/>
+      <c r="GF72" s="79"/>
+      <c r="GG72" s="79"/>
+      <c r="GH72" s="79"/>
+      <c r="GI72" s="79"/>
+      <c r="GJ72" s="79"/>
+      <c r="GK72" s="79"/>
+      <c r="GL72" s="79"/>
+      <c r="GM72" s="79"/>
+      <c r="GN72" s="79"/>
+      <c r="GO72" s="79"/>
+      <c r="GP72" s="79"/>
+      <c r="GQ72" s="79"/>
+      <c r="GR72" s="79"/>
+      <c r="GS72" s="79"/>
+      <c r="GT72" s="79"/>
+      <c r="GU72" s="79"/>
+      <c r="GV72" s="79"/>
+      <c r="GW72" s="79"/>
+      <c r="GX72" s="79"/>
+      <c r="GY72" s="79"/>
+      <c r="GZ72" s="79"/>
+      <c r="HA72" s="79"/>
+      <c r="HB72" s="79"/>
+      <c r="HC72" s="79"/>
+      <c r="HD72" s="79"/>
+      <c r="HE72" s="79"/>
+      <c r="HF72" s="79"/>
+      <c r="HG72" s="79"/>
+      <c r="HH72" s="79"/>
+      <c r="HI72" s="79"/>
+      <c r="HJ72" s="79"/>
+      <c r="HK72" s="79"/>
+      <c r="HL72" s="79"/>
+      <c r="HM72" s="79"/>
+      <c r="HN72" s="79"/>
+      <c r="HO72" s="79"/>
+      <c r="HP72" s="79"/>
+      <c r="HQ72" s="79"/>
+      <c r="HR72" s="79"/>
+      <c r="HS72" s="79"/>
+      <c r="HT72" s="79"/>
+      <c r="HU72" s="79"/>
+      <c r="HV72" s="79"/>
+      <c r="HW72" s="79"/>
+      <c r="HX72" s="79"/>
+      <c r="HY72" s="79"/>
+      <c r="HZ72" s="79"/>
+      <c r="IA72" s="79"/>
+      <c r="IB72" s="79"/>
+      <c r="IC72" s="79"/>
+      <c r="ID72" s="79"/>
+      <c r="IE72" s="79"/>
+      <c r="IF72" s="79"/>
+      <c r="IG72" s="79"/>
+      <c r="IH72" s="79"/>
+      <c r="II72" s="79"/>
+      <c r="IJ72" s="79"/>
+      <c r="IK72" s="79"/>
+      <c r="IL72" s="79"/>
+      <c r="IM72" s="79"/>
+      <c r="IN72" s="79"/>
+      <c r="IO72" s="79"/>
+      <c r="IP72" s="79"/>
+      <c r="IQ72" s="79"/>
+      <c r="IR72" s="79"/>
+      <c r="IS72" s="79"/>
+      <c r="IT72" s="79"/>
+      <c r="IU72" s="79"/>
+      <c r="IV72" s="79"/>
+      <c r="IW72" s="79"/>
+    </row>
+    <row r="73" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="77" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="78" t="s">
+        <v>164</v>
+      </c>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F73" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G73" s="78">
+        <v>0</v>
+      </c>
+      <c r="H73" s="78">
+        <v>1</v>
+      </c>
+      <c r="I73" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K73" s="79"/>
+      <c r="L73" s="79"/>
+      <c r="M73" s="79"/>
+      <c r="N73" s="79"/>
+      <c r="O73" s="79"/>
+      <c r="P73" s="79"/>
+      <c r="Q73" s="79"/>
+      <c r="R73" s="79"/>
+      <c r="S73" s="79"/>
+      <c r="T73" s="79"/>
+      <c r="U73" s="79"/>
+      <c r="V73" s="79"/>
+      <c r="W73" s="79"/>
+      <c r="X73" s="79"/>
+      <c r="Y73" s="79"/>
+      <c r="Z73" s="79"/>
+      <c r="AA73" s="79"/>
+      <c r="AB73" s="79"/>
+      <c r="AC73" s="79"/>
+      <c r="AD73" s="79"/>
+      <c r="AE73" s="79"/>
+      <c r="AF73" s="79"/>
+      <c r="AG73" s="79"/>
+      <c r="AH73" s="79"/>
+      <c r="AI73" s="79"/>
+      <c r="AJ73" s="79"/>
+      <c r="AK73" s="79"/>
+      <c r="AL73" s="79"/>
+      <c r="AM73" s="79"/>
+      <c r="AN73" s="79"/>
+      <c r="AO73" s="79"/>
+      <c r="AP73" s="79"/>
+      <c r="AQ73" s="79"/>
+      <c r="AR73" s="79"/>
+      <c r="AS73" s="79"/>
+      <c r="AT73" s="79"/>
+      <c r="AU73" s="79"/>
+      <c r="AV73" s="79"/>
+      <c r="AW73" s="79"/>
+      <c r="AX73" s="79"/>
+      <c r="AY73" s="79"/>
+      <c r="AZ73" s="79"/>
+      <c r="BA73" s="79"/>
+      <c r="BB73" s="79"/>
+      <c r="BC73" s="79"/>
+      <c r="BD73" s="79"/>
+      <c r="BE73" s="79"/>
+      <c r="BF73" s="79"/>
+      <c r="BG73" s="79"/>
+      <c r="BH73" s="79"/>
+      <c r="BI73" s="79"/>
+      <c r="BJ73" s="79"/>
+      <c r="BK73" s="79"/>
+      <c r="BL73" s="79"/>
+      <c r="BM73" s="79"/>
+      <c r="BN73" s="79"/>
+      <c r="BO73" s="79"/>
+      <c r="BP73" s="79"/>
+      <c r="BQ73" s="79"/>
+      <c r="BR73" s="79"/>
+      <c r="BS73" s="79"/>
+      <c r="BT73" s="79"/>
+      <c r="BU73" s="79"/>
+      <c r="BV73" s="79"/>
+      <c r="BW73" s="79"/>
+      <c r="BX73" s="79"/>
+      <c r="BY73" s="79"/>
+      <c r="BZ73" s="79"/>
+      <c r="CA73" s="79"/>
+      <c r="CB73" s="79"/>
+      <c r="CC73" s="79"/>
+      <c r="CD73" s="79"/>
+      <c r="CE73" s="79"/>
+      <c r="CF73" s="79"/>
+      <c r="CG73" s="79"/>
+      <c r="CH73" s="79"/>
+      <c r="CI73" s="79"/>
+      <c r="CJ73" s="79"/>
+      <c r="CK73" s="79"/>
+      <c r="CL73" s="79"/>
+      <c r="CM73" s="79"/>
+      <c r="CN73" s="79"/>
+      <c r="CO73" s="79"/>
+      <c r="CP73" s="79"/>
+      <c r="CQ73" s="79"/>
+      <c r="CR73" s="79"/>
+      <c r="CS73" s="79"/>
+      <c r="CT73" s="79"/>
+      <c r="CU73" s="79"/>
+      <c r="CV73" s="79"/>
+      <c r="CW73" s="79"/>
+      <c r="CX73" s="79"/>
+      <c r="CY73" s="79"/>
+      <c r="CZ73" s="79"/>
+      <c r="DA73" s="79"/>
+      <c r="DB73" s="79"/>
+      <c r="DC73" s="79"/>
+      <c r="DD73" s="79"/>
+      <c r="DE73" s="79"/>
+      <c r="DF73" s="79"/>
+      <c r="DG73" s="79"/>
+      <c r="DH73" s="79"/>
+      <c r="DI73" s="79"/>
+      <c r="DJ73" s="79"/>
+      <c r="DK73" s="79"/>
+      <c r="DL73" s="79"/>
+      <c r="DM73" s="79"/>
+      <c r="DN73" s="79"/>
+      <c r="DO73" s="79"/>
+      <c r="DP73" s="79"/>
+      <c r="DQ73" s="79"/>
+      <c r="DR73" s="79"/>
+      <c r="DS73" s="79"/>
+      <c r="DT73" s="79"/>
+      <c r="DU73" s="79"/>
+      <c r="DV73" s="79"/>
+      <c r="DW73" s="79"/>
+      <c r="DX73" s="79"/>
+      <c r="DY73" s="79"/>
+      <c r="DZ73" s="79"/>
+      <c r="EA73" s="79"/>
+      <c r="EB73" s="79"/>
+      <c r="EC73" s="79"/>
+      <c r="ED73" s="79"/>
+      <c r="EE73" s="79"/>
+      <c r="EF73" s="79"/>
+      <c r="EG73" s="79"/>
+      <c r="EH73" s="79"/>
+      <c r="EI73" s="79"/>
+      <c r="EJ73" s="79"/>
+      <c r="EK73" s="79"/>
+      <c r="EL73" s="79"/>
+      <c r="EM73" s="79"/>
+      <c r="EN73" s="79"/>
+      <c r="EO73" s="79"/>
+      <c r="EP73" s="79"/>
+      <c r="EQ73" s="79"/>
+      <c r="ER73" s="79"/>
+      <c r="ES73" s="79"/>
+      <c r="ET73" s="79"/>
+      <c r="EU73" s="79"/>
+      <c r="EV73" s="79"/>
+      <c r="EW73" s="79"/>
+      <c r="EX73" s="79"/>
+      <c r="EY73" s="79"/>
+      <c r="EZ73" s="79"/>
+      <c r="FA73" s="79"/>
+      <c r="FB73" s="79"/>
+      <c r="FC73" s="79"/>
+      <c r="FD73" s="79"/>
+      <c r="FE73" s="79"/>
+      <c r="FF73" s="79"/>
+      <c r="FG73" s="79"/>
+      <c r="FH73" s="79"/>
+      <c r="FI73" s="79"/>
+      <c r="FJ73" s="79"/>
+      <c r="FK73" s="79"/>
+      <c r="FL73" s="79"/>
+      <c r="FM73" s="79"/>
+      <c r="FN73" s="79"/>
+      <c r="FO73" s="79"/>
+      <c r="FP73" s="79"/>
+      <c r="FQ73" s="79"/>
+      <c r="FR73" s="79"/>
+      <c r="FS73" s="79"/>
+      <c r="FT73" s="79"/>
+      <c r="FU73" s="79"/>
+      <c r="FV73" s="79"/>
+      <c r="FW73" s="79"/>
+      <c r="FX73" s="79"/>
+      <c r="FY73" s="79"/>
+      <c r="FZ73" s="79"/>
+      <c r="GA73" s="79"/>
+      <c r="GB73" s="79"/>
+      <c r="GC73" s="79"/>
+      <c r="GD73" s="79"/>
+      <c r="GE73" s="79"/>
+      <c r="GF73" s="79"/>
+      <c r="GG73" s="79"/>
+      <c r="GH73" s="79"/>
+      <c r="GI73" s="79"/>
+      <c r="GJ73" s="79"/>
+      <c r="GK73" s="79"/>
+      <c r="GL73" s="79"/>
+      <c r="GM73" s="79"/>
+      <c r="GN73" s="79"/>
+      <c r="GO73" s="79"/>
+      <c r="GP73" s="79"/>
+      <c r="GQ73" s="79"/>
+      <c r="GR73" s="79"/>
+      <c r="GS73" s="79"/>
+      <c r="GT73" s="79"/>
+      <c r="GU73" s="79"/>
+      <c r="GV73" s="79"/>
+      <c r="GW73" s="79"/>
+      <c r="GX73" s="79"/>
+      <c r="GY73" s="79"/>
+      <c r="GZ73" s="79"/>
+      <c r="HA73" s="79"/>
+      <c r="HB73" s="79"/>
+      <c r="HC73" s="79"/>
+      <c r="HD73" s="79"/>
+      <c r="HE73" s="79"/>
+      <c r="HF73" s="79"/>
+      <c r="HG73" s="79"/>
+      <c r="HH73" s="79"/>
+      <c r="HI73" s="79"/>
+      <c r="HJ73" s="79"/>
+      <c r="HK73" s="79"/>
+      <c r="HL73" s="79"/>
+      <c r="HM73" s="79"/>
+      <c r="HN73" s="79"/>
+      <c r="HO73" s="79"/>
+      <c r="HP73" s="79"/>
+      <c r="HQ73" s="79"/>
+      <c r="HR73" s="79"/>
+      <c r="HS73" s="79"/>
+      <c r="HT73" s="79"/>
+      <c r="HU73" s="79"/>
+      <c r="HV73" s="79"/>
+      <c r="HW73" s="79"/>
+      <c r="HX73" s="79"/>
+      <c r="HY73" s="79"/>
+      <c r="HZ73" s="79"/>
+      <c r="IA73" s="79"/>
+      <c r="IB73" s="79"/>
+      <c r="IC73" s="79"/>
+      <c r="ID73" s="79"/>
+      <c r="IE73" s="79"/>
+      <c r="IF73" s="79"/>
+      <c r="IG73" s="79"/>
+      <c r="IH73" s="79"/>
+      <c r="II73" s="79"/>
+      <c r="IJ73" s="79"/>
+      <c r="IK73" s="79"/>
+      <c r="IL73" s="79"/>
+      <c r="IM73" s="79"/>
+      <c r="IN73" s="79"/>
+      <c r="IO73" s="79"/>
+      <c r="IP73" s="79"/>
+      <c r="IQ73" s="79"/>
+      <c r="IR73" s="79"/>
+      <c r="IS73" s="79"/>
+      <c r="IT73" s="79"/>
+      <c r="IU73" s="79"/>
+      <c r="IV73" s="79"/>
+      <c r="IW73" s="79"/>
+    </row>
+    <row r="74" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="77" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="78" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F74" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G74" s="78">
+        <v>0</v>
+      </c>
+      <c r="H74" s="78">
+        <v>1</v>
+      </c>
+      <c r="I74" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J74" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K74" s="79"/>
+      <c r="L74" s="79"/>
+      <c r="M74" s="79"/>
+      <c r="N74" s="79"/>
+      <c r="O74" s="79"/>
+      <c r="P74" s="79"/>
+      <c r="Q74" s="79"/>
+      <c r="R74" s="79"/>
+      <c r="S74" s="79"/>
+      <c r="T74" s="79"/>
+      <c r="U74" s="79"/>
+      <c r="V74" s="79"/>
+      <c r="W74" s="79"/>
+      <c r="X74" s="79"/>
+      <c r="Y74" s="79"/>
+      <c r="Z74" s="79"/>
+      <c r="AA74" s="79"/>
+      <c r="AB74" s="79"/>
+      <c r="AC74" s="79"/>
+      <c r="AD74" s="79"/>
+      <c r="AE74" s="79"/>
+      <c r="AF74" s="79"/>
+      <c r="AG74" s="79"/>
+      <c r="AH74" s="79"/>
+      <c r="AI74" s="79"/>
+      <c r="AJ74" s="79"/>
+      <c r="AK74" s="79"/>
+      <c r="AL74" s="79"/>
+      <c r="AM74" s="79"/>
+      <c r="AN74" s="79"/>
+      <c r="AO74" s="79"/>
+      <c r="AP74" s="79"/>
+      <c r="AQ74" s="79"/>
+      <c r="AR74" s="79"/>
+      <c r="AS74" s="79"/>
+      <c r="AT74" s="79"/>
+      <c r="AU74" s="79"/>
+      <c r="AV74" s="79"/>
+      <c r="AW74" s="79"/>
+      <c r="AX74" s="79"/>
+      <c r="AY74" s="79"/>
+      <c r="AZ74" s="79"/>
+      <c r="BA74" s="79"/>
+      <c r="BB74" s="79"/>
+      <c r="BC74" s="79"/>
+      <c r="BD74" s="79"/>
+      <c r="BE74" s="79"/>
+      <c r="BF74" s="79"/>
+      <c r="BG74" s="79"/>
+      <c r="BH74" s="79"/>
+      <c r="BI74" s="79"/>
+      <c r="BJ74" s="79"/>
+      <c r="BK74" s="79"/>
+      <c r="BL74" s="79"/>
+      <c r="BM74" s="79"/>
+      <c r="BN74" s="79"/>
+      <c r="BO74" s="79"/>
+      <c r="BP74" s="79"/>
+      <c r="BQ74" s="79"/>
+      <c r="BR74" s="79"/>
+      <c r="BS74" s="79"/>
+      <c r="BT74" s="79"/>
+      <c r="BU74" s="79"/>
+      <c r="BV74" s="79"/>
+      <c r="BW74" s="79"/>
+      <c r="BX74" s="79"/>
+      <c r="BY74" s="79"/>
+      <c r="BZ74" s="79"/>
+      <c r="CA74" s="79"/>
+      <c r="CB74" s="79"/>
+      <c r="CC74" s="79"/>
+      <c r="CD74" s="79"/>
+      <c r="CE74" s="79"/>
+      <c r="CF74" s="79"/>
+      <c r="CG74" s="79"/>
+      <c r="CH74" s="79"/>
+      <c r="CI74" s="79"/>
+      <c r="CJ74" s="79"/>
+      <c r="CK74" s="79"/>
+      <c r="CL74" s="79"/>
+      <c r="CM74" s="79"/>
+      <c r="CN74" s="79"/>
+      <c r="CO74" s="79"/>
+      <c r="CP74" s="79"/>
+      <c r="CQ74" s="79"/>
+      <c r="CR74" s="79"/>
+      <c r="CS74" s="79"/>
+      <c r="CT74" s="79"/>
+      <c r="CU74" s="79"/>
+      <c r="CV74" s="79"/>
+      <c r="CW74" s="79"/>
+      <c r="CX74" s="79"/>
+      <c r="CY74" s="79"/>
+      <c r="CZ74" s="79"/>
+      <c r="DA74" s="79"/>
+      <c r="DB74" s="79"/>
+      <c r="DC74" s="79"/>
+      <c r="DD74" s="79"/>
+      <c r="DE74" s="79"/>
+      <c r="DF74" s="79"/>
+      <c r="DG74" s="79"/>
+      <c r="DH74" s="79"/>
+      <c r="DI74" s="79"/>
+      <c r="DJ74" s="79"/>
+      <c r="DK74" s="79"/>
+      <c r="DL74" s="79"/>
+      <c r="DM74" s="79"/>
+      <c r="DN74" s="79"/>
+      <c r="DO74" s="79"/>
+      <c r="DP74" s="79"/>
+      <c r="DQ74" s="79"/>
+      <c r="DR74" s="79"/>
+      <c r="DS74" s="79"/>
+      <c r="DT74" s="79"/>
+      <c r="DU74" s="79"/>
+      <c r="DV74" s="79"/>
+      <c r="DW74" s="79"/>
+      <c r="DX74" s="79"/>
+      <c r="DY74" s="79"/>
+      <c r="DZ74" s="79"/>
+      <c r="EA74" s="79"/>
+      <c r="EB74" s="79"/>
+      <c r="EC74" s="79"/>
+      <c r="ED74" s="79"/>
+      <c r="EE74" s="79"/>
+      <c r="EF74" s="79"/>
+      <c r="EG74" s="79"/>
+      <c r="EH74" s="79"/>
+      <c r="EI74" s="79"/>
+      <c r="EJ74" s="79"/>
+      <c r="EK74" s="79"/>
+      <c r="EL74" s="79"/>
+      <c r="EM74" s="79"/>
+      <c r="EN74" s="79"/>
+      <c r="EO74" s="79"/>
+      <c r="EP74" s="79"/>
+      <c r="EQ74" s="79"/>
+      <c r="ER74" s="79"/>
+      <c r="ES74" s="79"/>
+      <c r="ET74" s="79"/>
+      <c r="EU74" s="79"/>
+      <c r="EV74" s="79"/>
+      <c r="EW74" s="79"/>
+      <c r="EX74" s="79"/>
+      <c r="EY74" s="79"/>
+      <c r="EZ74" s="79"/>
+      <c r="FA74" s="79"/>
+      <c r="FB74" s="79"/>
+      <c r="FC74" s="79"/>
+      <c r="FD74" s="79"/>
+      <c r="FE74" s="79"/>
+      <c r="FF74" s="79"/>
+      <c r="FG74" s="79"/>
+      <c r="FH74" s="79"/>
+      <c r="FI74" s="79"/>
+      <c r="FJ74" s="79"/>
+      <c r="FK74" s="79"/>
+      <c r="FL74" s="79"/>
+      <c r="FM74" s="79"/>
+      <c r="FN74" s="79"/>
+      <c r="FO74" s="79"/>
+      <c r="FP74" s="79"/>
+      <c r="FQ74" s="79"/>
+      <c r="FR74" s="79"/>
+      <c r="FS74" s="79"/>
+      <c r="FT74" s="79"/>
+      <c r="FU74" s="79"/>
+      <c r="FV74" s="79"/>
+      <c r="FW74" s="79"/>
+      <c r="FX74" s="79"/>
+      <c r="FY74" s="79"/>
+      <c r="FZ74" s="79"/>
+      <c r="GA74" s="79"/>
+      <c r="GB74" s="79"/>
+      <c r="GC74" s="79"/>
+      <c r="GD74" s="79"/>
+      <c r="GE74" s="79"/>
+      <c r="GF74" s="79"/>
+      <c r="GG74" s="79"/>
+      <c r="GH74" s="79"/>
+      <c r="GI74" s="79"/>
+      <c r="GJ74" s="79"/>
+      <c r="GK74" s="79"/>
+      <c r="GL74" s="79"/>
+      <c r="GM74" s="79"/>
+      <c r="GN74" s="79"/>
+      <c r="GO74" s="79"/>
+      <c r="GP74" s="79"/>
+      <c r="GQ74" s="79"/>
+      <c r="GR74" s="79"/>
+      <c r="GS74" s="79"/>
+      <c r="GT74" s="79"/>
+      <c r="GU74" s="79"/>
+      <c r="GV74" s="79"/>
+      <c r="GW74" s="79"/>
+      <c r="GX74" s="79"/>
+      <c r="GY74" s="79"/>
+      <c r="GZ74" s="79"/>
+      <c r="HA74" s="79"/>
+      <c r="HB74" s="79"/>
+      <c r="HC74" s="79"/>
+      <c r="HD74" s="79"/>
+      <c r="HE74" s="79"/>
+      <c r="HF74" s="79"/>
+      <c r="HG74" s="79"/>
+      <c r="HH74" s="79"/>
+      <c r="HI74" s="79"/>
+      <c r="HJ74" s="79"/>
+      <c r="HK74" s="79"/>
+      <c r="HL74" s="79"/>
+      <c r="HM74" s="79"/>
+      <c r="HN74" s="79"/>
+      <c r="HO74" s="79"/>
+      <c r="HP74" s="79"/>
+      <c r="HQ74" s="79"/>
+      <c r="HR74" s="79"/>
+      <c r="HS74" s="79"/>
+      <c r="HT74" s="79"/>
+      <c r="HU74" s="79"/>
+      <c r="HV74" s="79"/>
+      <c r="HW74" s="79"/>
+      <c r="HX74" s="79"/>
+      <c r="HY74" s="79"/>
+      <c r="HZ74" s="79"/>
+      <c r="IA74" s="79"/>
+      <c r="IB74" s="79"/>
+      <c r="IC74" s="79"/>
+      <c r="ID74" s="79"/>
+      <c r="IE74" s="79"/>
+      <c r="IF74" s="79"/>
+      <c r="IG74" s="79"/>
+      <c r="IH74" s="79"/>
+      <c r="II74" s="79"/>
+      <c r="IJ74" s="79"/>
+      <c r="IK74" s="79"/>
+      <c r="IL74" s="79"/>
+      <c r="IM74" s="79"/>
+      <c r="IN74" s="79"/>
+      <c r="IO74" s="79"/>
+      <c r="IP74" s="79"/>
+      <c r="IQ74" s="79"/>
+      <c r="IR74" s="79"/>
+      <c r="IS74" s="79"/>
+      <c r="IT74" s="79"/>
+      <c r="IU74" s="79"/>
+      <c r="IV74" s="79"/>
+      <c r="IW74" s="79"/>
+    </row>
+    <row r="75" spans="1:257" s="80" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F75" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" s="78">
+        <v>0</v>
+      </c>
+      <c r="H75" s="78">
+        <v>1</v>
+      </c>
+      <c r="I75" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="J75" s="78" t="s">
+        <v>157</v>
+      </c>
+      <c r="K75" s="79"/>
+      <c r="L75" s="79"/>
+      <c r="M75" s="79"/>
+      <c r="N75" s="79"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="79"/>
+      <c r="Q75" s="79"/>
+      <c r="R75" s="79"/>
+      <c r="S75" s="79"/>
+      <c r="T75" s="79"/>
+      <c r="U75" s="79"/>
+      <c r="V75" s="79"/>
+      <c r="W75" s="79"/>
+      <c r="X75" s="79"/>
+      <c r="Y75" s="79"/>
+      <c r="Z75" s="79"/>
+      <c r="AA75" s="79"/>
+      <c r="AB75" s="79"/>
+      <c r="AC75" s="79"/>
+      <c r="AD75" s="79"/>
+      <c r="AE75" s="79"/>
+      <c r="AF75" s="79"/>
+      <c r="AG75" s="79"/>
+      <c r="AH75" s="79"/>
+      <c r="AI75" s="79"/>
+      <c r="AJ75" s="79"/>
+      <c r="AK75" s="79"/>
+      <c r="AL75" s="79"/>
+      <c r="AM75" s="79"/>
+      <c r="AN75" s="79"/>
+      <c r="AO75" s="79"/>
+      <c r="AP75" s="79"/>
+      <c r="AQ75" s="79"/>
+      <c r="AR75" s="79"/>
+      <c r="AS75" s="79"/>
+      <c r="AT75" s="79"/>
+      <c r="AU75" s="79"/>
+      <c r="AV75" s="79"/>
+      <c r="AW75" s="79"/>
+      <c r="AX75" s="79"/>
+      <c r="AY75" s="79"/>
+      <c r="AZ75" s="79"/>
+      <c r="BA75" s="79"/>
+      <c r="BB75" s="79"/>
+      <c r="BC75" s="79"/>
+      <c r="BD75" s="79"/>
+      <c r="BE75" s="79"/>
+      <c r="BF75" s="79"/>
+      <c r="BG75" s="79"/>
+      <c r="BH75" s="79"/>
+      <c r="BI75" s="79"/>
+      <c r="BJ75" s="79"/>
+      <c r="BK75" s="79"/>
+      <c r="BL75" s="79"/>
+      <c r="BM75" s="79"/>
+      <c r="BN75" s="79"/>
+      <c r="BO75" s="79"/>
+      <c r="BP75" s="79"/>
+      <c r="BQ75" s="79"/>
+      <c r="BR75" s="79"/>
+      <c r="BS75" s="79"/>
+      <c r="BT75" s="79"/>
+      <c r="BU75" s="79"/>
+      <c r="BV75" s="79"/>
+      <c r="BW75" s="79"/>
+      <c r="BX75" s="79"/>
+      <c r="BY75" s="79"/>
+      <c r="BZ75" s="79"/>
+      <c r="CA75" s="79"/>
+      <c r="CB75" s="79"/>
+      <c r="CC75" s="79"/>
+      <c r="CD75" s="79"/>
+      <c r="CE75" s="79"/>
+      <c r="CF75" s="79"/>
+      <c r="CG75" s="79"/>
+      <c r="CH75" s="79"/>
+      <c r="CI75" s="79"/>
+      <c r="CJ75" s="79"/>
+      <c r="CK75" s="79"/>
+      <c r="CL75" s="79"/>
+      <c r="CM75" s="79"/>
+      <c r="CN75" s="79"/>
+      <c r="CO75" s="79"/>
+      <c r="CP75" s="79"/>
+      <c r="CQ75" s="79"/>
+      <c r="CR75" s="79"/>
+      <c r="CS75" s="79"/>
+      <c r="CT75" s="79"/>
+      <c r="CU75" s="79"/>
+      <c r="CV75" s="79"/>
+      <c r="CW75" s="79"/>
+      <c r="CX75" s="79"/>
+      <c r="CY75" s="79"/>
+      <c r="CZ75" s="79"/>
+      <c r="DA75" s="79"/>
+      <c r="DB75" s="79"/>
+      <c r="DC75" s="79"/>
+      <c r="DD75" s="79"/>
+      <c r="DE75" s="79"/>
+      <c r="DF75" s="79"/>
+      <c r="DG75" s="79"/>
+      <c r="DH75" s="79"/>
+      <c r="DI75" s="79"/>
+      <c r="DJ75" s="79"/>
+      <c r="DK75" s="79"/>
+      <c r="DL75" s="79"/>
+      <c r="DM75" s="79"/>
+      <c r="DN75" s="79"/>
+      <c r="DO75" s="79"/>
+      <c r="DP75" s="79"/>
+      <c r="DQ75" s="79"/>
+      <c r="DR75" s="79"/>
+      <c r="DS75" s="79"/>
+      <c r="DT75" s="79"/>
+      <c r="DU75" s="79"/>
+      <c r="DV75" s="79"/>
+      <c r="DW75" s="79"/>
+      <c r="DX75" s="79"/>
+      <c r="DY75" s="79"/>
+      <c r="DZ75" s="79"/>
+      <c r="EA75" s="79"/>
+      <c r="EB75" s="79"/>
+      <c r="EC75" s="79"/>
+      <c r="ED75" s="79"/>
+      <c r="EE75" s="79"/>
+      <c r="EF75" s="79"/>
+      <c r="EG75" s="79"/>
+      <c r="EH75" s="79"/>
+      <c r="EI75" s="79"/>
+      <c r="EJ75" s="79"/>
+      <c r="EK75" s="79"/>
+      <c r="EL75" s="79"/>
+      <c r="EM75" s="79"/>
+      <c r="EN75" s="79"/>
+      <c r="EO75" s="79"/>
+      <c r="EP75" s="79"/>
+      <c r="EQ75" s="79"/>
+      <c r="ER75" s="79"/>
+      <c r="ES75" s="79"/>
+      <c r="ET75" s="79"/>
+      <c r="EU75" s="79"/>
+      <c r="EV75" s="79"/>
+      <c r="EW75" s="79"/>
+      <c r="EX75" s="79"/>
+      <c r="EY75" s="79"/>
+      <c r="EZ75" s="79"/>
+      <c r="FA75" s="79"/>
+      <c r="FB75" s="79"/>
+      <c r="FC75" s="79"/>
+      <c r="FD75" s="79"/>
+      <c r="FE75" s="79"/>
+      <c r="FF75" s="79"/>
+      <c r="FG75" s="79"/>
+      <c r="FH75" s="79"/>
+      <c r="FI75" s="79"/>
+      <c r="FJ75" s="79"/>
+      <c r="FK75" s="79"/>
+      <c r="FL75" s="79"/>
+      <c r="FM75" s="79"/>
+      <c r="FN75" s="79"/>
+      <c r="FO75" s="79"/>
+      <c r="FP75" s="79"/>
+      <c r="FQ75" s="79"/>
+      <c r="FR75" s="79"/>
+      <c r="FS75" s="79"/>
+      <c r="FT75" s="79"/>
+      <c r="FU75" s="79"/>
+      <c r="FV75" s="79"/>
+      <c r="FW75" s="79"/>
+      <c r="FX75" s="79"/>
+      <c r="FY75" s="79"/>
+      <c r="FZ75" s="79"/>
+      <c r="GA75" s="79"/>
+      <c r="GB75" s="79"/>
+      <c r="GC75" s="79"/>
+      <c r="GD75" s="79"/>
+      <c r="GE75" s="79"/>
+      <c r="GF75" s="79"/>
+      <c r="GG75" s="79"/>
+      <c r="GH75" s="79"/>
+      <c r="GI75" s="79"/>
+      <c r="GJ75" s="79"/>
+      <c r="GK75" s="79"/>
+      <c r="GL75" s="79"/>
+      <c r="GM75" s="79"/>
+      <c r="GN75" s="79"/>
+      <c r="GO75" s="79"/>
+      <c r="GP75" s="79"/>
+      <c r="GQ75" s="79"/>
+      <c r="GR75" s="79"/>
+      <c r="GS75" s="79"/>
+      <c r="GT75" s="79"/>
+      <c r="GU75" s="79"/>
+      <c r="GV75" s="79"/>
+      <c r="GW75" s="79"/>
+      <c r="GX75" s="79"/>
+      <c r="GY75" s="79"/>
+      <c r="GZ75" s="79"/>
+      <c r="HA75" s="79"/>
+      <c r="HB75" s="79"/>
+      <c r="HC75" s="79"/>
+      <c r="HD75" s="79"/>
+      <c r="HE75" s="79"/>
+      <c r="HF75" s="79"/>
+      <c r="HG75" s="79"/>
+      <c r="HH75" s="79"/>
+      <c r="HI75" s="79"/>
+      <c r="HJ75" s="79"/>
+      <c r="HK75" s="79"/>
+      <c r="HL75" s="79"/>
+      <c r="HM75" s="79"/>
+      <c r="HN75" s="79"/>
+      <c r="HO75" s="79"/>
+      <c r="HP75" s="79"/>
+      <c r="HQ75" s="79"/>
+      <c r="HR75" s="79"/>
+      <c r="HS75" s="79"/>
+      <c r="HT75" s="79"/>
+      <c r="HU75" s="79"/>
+      <c r="HV75" s="79"/>
+      <c r="HW75" s="79"/>
+      <c r="HX75" s="79"/>
+      <c r="HY75" s="79"/>
+      <c r="HZ75" s="79"/>
+      <c r="IA75" s="79"/>
+      <c r="IB75" s="79"/>
+      <c r="IC75" s="79"/>
+      <c r="ID75" s="79"/>
+      <c r="IE75" s="79"/>
+      <c r="IF75" s="79"/>
+      <c r="IG75" s="79"/>
+      <c r="IH75" s="79"/>
+      <c r="II75" s="79"/>
+      <c r="IJ75" s="79"/>
+      <c r="IK75" s="79"/>
+      <c r="IL75" s="79"/>
+      <c r="IM75" s="79"/>
+      <c r="IN75" s="79"/>
+      <c r="IO75" s="79"/>
+      <c r="IP75" s="79"/>
+      <c r="IQ75" s="79"/>
+      <c r="IR75" s="79"/>
+      <c r="IS75" s="79"/>
+      <c r="IT75" s="79"/>
+      <c r="IU75" s="79"/>
+      <c r="IV75" s="79"/>
+      <c r="IW75" s="79"/>
+    </row>
+    <row r="76" spans="1:257" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C76" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G76" s="74">
+        <v>0</v>
+      </c>
+      <c r="H76" s="74">
+        <v>1</v>
+      </c>
+      <c r="I76" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K76" s="75"/>
+      <c r="L76" s="75"/>
+      <c r="M76" s="75"/>
+      <c r="N76" s="75"/>
+      <c r="O76" s="75"/>
+      <c r="P76" s="75"/>
+      <c r="Q76" s="75"/>
+      <c r="R76" s="75"/>
+      <c r="S76" s="75"/>
+      <c r="T76" s="75"/>
+      <c r="U76" s="75"/>
+      <c r="V76" s="75"/>
+      <c r="W76" s="75"/>
+      <c r="X76" s="75"/>
+      <c r="Y76" s="75"/>
+      <c r="Z76" s="75"/>
+      <c r="AA76" s="75"/>
+      <c r="AB76" s="75"/>
+      <c r="AC76" s="75"/>
+      <c r="AD76" s="75"/>
+      <c r="AE76" s="75"/>
+      <c r="AF76" s="75"/>
+      <c r="AG76" s="75"/>
+      <c r="AH76" s="75"/>
+      <c r="AI76" s="75"/>
+      <c r="AJ76" s="75"/>
+      <c r="AK76" s="75"/>
+      <c r="AL76" s="75"/>
+      <c r="AM76" s="75"/>
+      <c r="AN76" s="75"/>
+      <c r="AO76" s="75"/>
+      <c r="AP76" s="75"/>
+      <c r="AQ76" s="75"/>
+      <c r="AR76" s="75"/>
+      <c r="AS76" s="75"/>
+      <c r="AT76" s="75"/>
+      <c r="AU76" s="75"/>
+      <c r="AV76" s="75"/>
+      <c r="AW76" s="75"/>
+      <c r="AX76" s="75"/>
+      <c r="AY76" s="75"/>
+      <c r="AZ76" s="75"/>
+      <c r="BA76" s="75"/>
+      <c r="BB76" s="75"/>
+      <c r="BC76" s="75"/>
+      <c r="BD76" s="75"/>
+      <c r="BE76" s="75"/>
+      <c r="BF76" s="75"/>
+      <c r="BG76" s="75"/>
+      <c r="BH76" s="75"/>
+      <c r="BI76" s="75"/>
+      <c r="BJ76" s="75"/>
+      <c r="BK76" s="75"/>
+      <c r="BL76" s="75"/>
+      <c r="BM76" s="75"/>
+      <c r="BN76" s="75"/>
+      <c r="BO76" s="75"/>
+      <c r="BP76" s="75"/>
+      <c r="BQ76" s="75"/>
+      <c r="BR76" s="75"/>
+      <c r="BS76" s="75"/>
+      <c r="BT76" s="75"/>
+      <c r="BU76" s="75"/>
+      <c r="BV76" s="75"/>
+      <c r="BW76" s="75"/>
+      <c r="BX76" s="75"/>
+      <c r="BY76" s="75"/>
+      <c r="BZ76" s="75"/>
+      <c r="CA76" s="75"/>
+      <c r="CB76" s="75"/>
+      <c r="CC76" s="75"/>
+      <c r="CD76" s="75"/>
+      <c r="CE76" s="75"/>
+      <c r="CF76" s="75"/>
+      <c r="CG76" s="75"/>
+      <c r="CH76" s="75"/>
+      <c r="CI76" s="75"/>
+      <c r="CJ76" s="75"/>
+      <c r="CK76" s="75"/>
+      <c r="CL76" s="75"/>
+      <c r="CM76" s="75"/>
+      <c r="CN76" s="75"/>
+      <c r="CO76" s="75"/>
+      <c r="CP76" s="75"/>
+      <c r="CQ76" s="75"/>
+      <c r="CR76" s="75"/>
+      <c r="CS76" s="75"/>
+      <c r="CT76" s="75"/>
+      <c r="CU76" s="75"/>
+      <c r="CV76" s="75"/>
+      <c r="CW76" s="75"/>
+      <c r="CX76" s="75"/>
+      <c r="CY76" s="75"/>
+      <c r="CZ76" s="75"/>
+      <c r="DA76" s="75"/>
+      <c r="DB76" s="75"/>
+      <c r="DC76" s="75"/>
+      <c r="DD76" s="75"/>
+      <c r="DE76" s="75"/>
+      <c r="DF76" s="75"/>
+      <c r="DG76" s="75"/>
+      <c r="DH76" s="75"/>
+      <c r="DI76" s="75"/>
+      <c r="DJ76" s="75"/>
+      <c r="DK76" s="75"/>
+      <c r="DL76" s="75"/>
+      <c r="DM76" s="75"/>
+      <c r="DN76" s="75"/>
+      <c r="DO76" s="75"/>
+      <c r="DP76" s="75"/>
+      <c r="DQ76" s="75"/>
+      <c r="DR76" s="75"/>
+      <c r="DS76" s="75"/>
+      <c r="DT76" s="75"/>
+      <c r="DU76" s="75"/>
+      <c r="DV76" s="75"/>
+      <c r="DW76" s="75"/>
+      <c r="DX76" s="75"/>
+      <c r="DY76" s="75"/>
+      <c r="DZ76" s="75"/>
+      <c r="EA76" s="75"/>
+      <c r="EB76" s="75"/>
+      <c r="EC76" s="75"/>
+      <c r="ED76" s="75"/>
+      <c r="EE76" s="75"/>
+      <c r="EF76" s="75"/>
+      <c r="EG76" s="75"/>
+      <c r="EH76" s="75"/>
+      <c r="EI76" s="75"/>
+      <c r="EJ76" s="75"/>
+      <c r="EK76" s="75"/>
+      <c r="EL76" s="75"/>
+      <c r="EM76" s="75"/>
+      <c r="EN76" s="75"/>
+      <c r="EO76" s="75"/>
+      <c r="EP76" s="75"/>
+      <c r="EQ76" s="75"/>
+      <c r="ER76" s="75"/>
+      <c r="ES76" s="75"/>
+      <c r="ET76" s="75"/>
+      <c r="EU76" s="75"/>
+      <c r="EV76" s="75"/>
+      <c r="EW76" s="75"/>
+      <c r="EX76" s="75"/>
+      <c r="EY76" s="75"/>
+      <c r="EZ76" s="75"/>
+      <c r="FA76" s="75"/>
+      <c r="FB76" s="75"/>
+      <c r="FC76" s="75"/>
+      <c r="FD76" s="75"/>
+      <c r="FE76" s="75"/>
+      <c r="FF76" s="75"/>
+      <c r="FG76" s="75"/>
+      <c r="FH76" s="75"/>
+      <c r="FI76" s="75"/>
+      <c r="FJ76" s="75"/>
+      <c r="FK76" s="75"/>
+      <c r="FL76" s="75"/>
+      <c r="FM76" s="75"/>
+      <c r="FN76" s="75"/>
+      <c r="FO76" s="75"/>
+      <c r="FP76" s="75"/>
+      <c r="FQ76" s="75"/>
+      <c r="FR76" s="75"/>
+      <c r="FS76" s="75"/>
+      <c r="FT76" s="75"/>
+      <c r="FU76" s="75"/>
+      <c r="FV76" s="75"/>
+      <c r="FW76" s="75"/>
+      <c r="FX76" s="75"/>
+      <c r="FY76" s="75"/>
+      <c r="FZ76" s="75"/>
+      <c r="GA76" s="75"/>
+      <c r="GB76" s="75"/>
+      <c r="GC76" s="75"/>
+      <c r="GD76" s="75"/>
+      <c r="GE76" s="75"/>
+      <c r="GF76" s="75"/>
+      <c r="GG76" s="75"/>
+      <c r="GH76" s="75"/>
+      <c r="GI76" s="75"/>
+      <c r="GJ76" s="75"/>
+      <c r="GK76" s="75"/>
+      <c r="GL76" s="75"/>
+      <c r="GM76" s="75"/>
+      <c r="GN76" s="75"/>
+      <c r="GO76" s="75"/>
+      <c r="GP76" s="75"/>
+      <c r="GQ76" s="75"/>
+      <c r="GR76" s="75"/>
+      <c r="GS76" s="75"/>
+      <c r="GT76" s="75"/>
+      <c r="GU76" s="75"/>
+      <c r="GV76" s="75"/>
+      <c r="GW76" s="75"/>
+      <c r="GX76" s="75"/>
+      <c r="GY76" s="75"/>
+      <c r="GZ76" s="75"/>
+      <c r="HA76" s="75"/>
+      <c r="HB76" s="75"/>
+      <c r="HC76" s="75"/>
+      <c r="HD76" s="75"/>
+      <c r="HE76" s="75"/>
+      <c r="HF76" s="75"/>
+      <c r="HG76" s="75"/>
+      <c r="HH76" s="75"/>
+      <c r="HI76" s="75"/>
+      <c r="HJ76" s="75"/>
+      <c r="HK76" s="75"/>
+      <c r="HL76" s="75"/>
+      <c r="HM76" s="75"/>
+      <c r="HN76" s="75"/>
+      <c r="HO76" s="75"/>
+      <c r="HP76" s="75"/>
+      <c r="HQ76" s="75"/>
+      <c r="HR76" s="75"/>
+      <c r="HS76" s="75"/>
+      <c r="HT76" s="75"/>
+      <c r="HU76" s="75"/>
+      <c r="HV76" s="75"/>
+      <c r="HW76" s="75"/>
+      <c r="HX76" s="75"/>
+      <c r="HY76" s="75"/>
+      <c r="HZ76" s="75"/>
+      <c r="IA76" s="75"/>
+      <c r="IB76" s="75"/>
+      <c r="IC76" s="75"/>
+      <c r="ID76" s="75"/>
+      <c r="IE76" s="75"/>
+      <c r="IF76" s="75"/>
+      <c r="IG76" s="75"/>
+      <c r="IH76" s="75"/>
+      <c r="II76" s="75"/>
+      <c r="IJ76" s="75"/>
+      <c r="IK76" s="75"/>
+      <c r="IL76" s="75"/>
+      <c r="IM76" s="75"/>
+      <c r="IN76" s="75"/>
+      <c r="IO76" s="75"/>
+      <c r="IP76" s="75"/>
+      <c r="IQ76" s="75"/>
+      <c r="IR76" s="75"/>
+      <c r="IS76" s="75"/>
+      <c r="IT76" s="75"/>
+      <c r="IU76" s="75"/>
+      <c r="IV76" s="75"/>
+      <c r="IW76" s="75"/>
+    </row>
+    <row r="77" spans="1:257" s="76" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G77" s="74">
+        <v>0</v>
+      </c>
+      <c r="H77" s="74">
+        <v>1</v>
+      </c>
+      <c r="I77" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J77" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="75"/>
+      <c r="N77" s="75"/>
+      <c r="O77" s="75"/>
+      <c r="P77" s="75"/>
+      <c r="Q77" s="75"/>
+      <c r="R77" s="75"/>
+      <c r="S77" s="75"/>
+      <c r="T77" s="75"/>
+      <c r="U77" s="75"/>
+      <c r="V77" s="75"/>
+      <c r="W77" s="75"/>
+      <c r="X77" s="75"/>
+      <c r="Y77" s="75"/>
+      <c r="Z77" s="75"/>
+      <c r="AA77" s="75"/>
+      <c r="AB77" s="75"/>
+      <c r="AC77" s="75"/>
+      <c r="AD77" s="75"/>
+      <c r="AE77" s="75"/>
+      <c r="AF77" s="75"/>
+      <c r="AG77" s="75"/>
+      <c r="AH77" s="75"/>
+      <c r="AI77" s="75"/>
+      <c r="AJ77" s="75"/>
+      <c r="AK77" s="75"/>
+      <c r="AL77" s="75"/>
+      <c r="AM77" s="75"/>
+      <c r="AN77" s="75"/>
+      <c r="AO77" s="75"/>
+      <c r="AP77" s="75"/>
+      <c r="AQ77" s="75"/>
+      <c r="AR77" s="75"/>
+      <c r="AS77" s="75"/>
+      <c r="AT77" s="75"/>
+      <c r="AU77" s="75"/>
+      <c r="AV77" s="75"/>
+      <c r="AW77" s="75"/>
+      <c r="AX77" s="75"/>
+      <c r="AY77" s="75"/>
+      <c r="AZ77" s="75"/>
+      <c r="BA77" s="75"/>
+      <c r="BB77" s="75"/>
+      <c r="BC77" s="75"/>
+      <c r="BD77" s="75"/>
+      <c r="BE77" s="75"/>
+      <c r="BF77" s="75"/>
+      <c r="BG77" s="75"/>
+      <c r="BH77" s="75"/>
+      <c r="BI77" s="75"/>
+      <c r="BJ77" s="75"/>
+      <c r="BK77" s="75"/>
+      <c r="BL77" s="75"/>
+      <c r="BM77" s="75"/>
+      <c r="BN77" s="75"/>
+      <c r="BO77" s="75"/>
+      <c r="BP77" s="75"/>
+      <c r="BQ77" s="75"/>
+      <c r="BR77" s="75"/>
+      <c r="BS77" s="75"/>
+      <c r="BT77" s="75"/>
+      <c r="BU77" s="75"/>
+      <c r="BV77" s="75"/>
+      <c r="BW77" s="75"/>
+      <c r="BX77" s="75"/>
+      <c r="BY77" s="75"/>
+      <c r="BZ77" s="75"/>
+      <c r="CA77" s="75"/>
+      <c r="CB77" s="75"/>
+      <c r="CC77" s="75"/>
+      <c r="CD77" s="75"/>
+      <c r="CE77" s="75"/>
+      <c r="CF77" s="75"/>
+      <c r="CG77" s="75"/>
+      <c r="CH77" s="75"/>
+      <c r="CI77" s="75"/>
+      <c r="CJ77" s="75"/>
+      <c r="CK77" s="75"/>
+      <c r="CL77" s="75"/>
+      <c r="CM77" s="75"/>
+      <c r="CN77" s="75"/>
+      <c r="CO77" s="75"/>
+      <c r="CP77" s="75"/>
+      <c r="CQ77" s="75"/>
+      <c r="CR77" s="75"/>
+      <c r="CS77" s="75"/>
+      <c r="CT77" s="75"/>
+      <c r="CU77" s="75"/>
+      <c r="CV77" s="75"/>
+      <c r="CW77" s="75"/>
+      <c r="CX77" s="75"/>
+      <c r="CY77" s="75"/>
+      <c r="CZ77" s="75"/>
+      <c r="DA77" s="75"/>
+      <c r="DB77" s="75"/>
+      <c r="DC77" s="75"/>
+      <c r="DD77" s="75"/>
+      <c r="DE77" s="75"/>
+      <c r="DF77" s="75"/>
+      <c r="DG77" s="75"/>
+      <c r="DH77" s="75"/>
+      <c r="DI77" s="75"/>
+      <c r="DJ77" s="75"/>
+      <c r="DK77" s="75"/>
+      <c r="DL77" s="75"/>
+      <c r="DM77" s="75"/>
+      <c r="DN77" s="75"/>
+      <c r="DO77" s="75"/>
+      <c r="DP77" s="75"/>
+      <c r="DQ77" s="75"/>
+      <c r="DR77" s="75"/>
+      <c r="DS77" s="75"/>
+      <c r="DT77" s="75"/>
+      <c r="DU77" s="75"/>
+      <c r="DV77" s="75"/>
+      <c r="DW77" s="75"/>
+      <c r="DX77" s="75"/>
+      <c r="DY77" s="75"/>
+      <c r="DZ77" s="75"/>
+      <c r="EA77" s="75"/>
+      <c r="EB77" s="75"/>
+      <c r="EC77" s="75"/>
+      <c r="ED77" s="75"/>
+      <c r="EE77" s="75"/>
+      <c r="EF77" s="75"/>
+      <c r="EG77" s="75"/>
+      <c r="EH77" s="75"/>
+      <c r="EI77" s="75"/>
+      <c r="EJ77" s="75"/>
+      <c r="EK77" s="75"/>
+      <c r="EL77" s="75"/>
+      <c r="EM77" s="75"/>
+      <c r="EN77" s="75"/>
+      <c r="EO77" s="75"/>
+      <c r="EP77" s="75"/>
+      <c r="EQ77" s="75"/>
+      <c r="ER77" s="75"/>
+      <c r="ES77" s="75"/>
+      <c r="ET77" s="75"/>
+      <c r="EU77" s="75"/>
+      <c r="EV77" s="75"/>
+      <c r="EW77" s="75"/>
+      <c r="EX77" s="75"/>
+      <c r="EY77" s="75"/>
+      <c r="EZ77" s="75"/>
+      <c r="FA77" s="75"/>
+      <c r="FB77" s="75"/>
+      <c r="FC77" s="75"/>
+      <c r="FD77" s="75"/>
+      <c r="FE77" s="75"/>
+      <c r="FF77" s="75"/>
+      <c r="FG77" s="75"/>
+      <c r="FH77" s="75"/>
+      <c r="FI77" s="75"/>
+      <c r="FJ77" s="75"/>
+      <c r="FK77" s="75"/>
+      <c r="FL77" s="75"/>
+      <c r="FM77" s="75"/>
+      <c r="FN77" s="75"/>
+      <c r="FO77" s="75"/>
+      <c r="FP77" s="75"/>
+      <c r="FQ77" s="75"/>
+      <c r="FR77" s="75"/>
+      <c r="FS77" s="75"/>
+      <c r="FT77" s="75"/>
+      <c r="FU77" s="75"/>
+      <c r="FV77" s="75"/>
+      <c r="FW77" s="75"/>
+      <c r="FX77" s="75"/>
+      <c r="FY77" s="75"/>
+      <c r="FZ77" s="75"/>
+      <c r="GA77" s="75"/>
+      <c r="GB77" s="75"/>
+      <c r="GC77" s="75"/>
+      <c r="GD77" s="75"/>
+      <c r="GE77" s="75"/>
+      <c r="GF77" s="75"/>
+      <c r="GG77" s="75"/>
+      <c r="GH77" s="75"/>
+      <c r="GI77" s="75"/>
+      <c r="GJ77" s="75"/>
+      <c r="GK77" s="75"/>
+      <c r="GL77" s="75"/>
+      <c r="GM77" s="75"/>
+      <c r="GN77" s="75"/>
+      <c r="GO77" s="75"/>
+      <c r="GP77" s="75"/>
+      <c r="GQ77" s="75"/>
+      <c r="GR77" s="75"/>
+      <c r="GS77" s="75"/>
+      <c r="GT77" s="75"/>
+      <c r="GU77" s="75"/>
+      <c r="GV77" s="75"/>
+      <c r="GW77" s="75"/>
+      <c r="GX77" s="75"/>
+      <c r="GY77" s="75"/>
+      <c r="GZ77" s="75"/>
+      <c r="HA77" s="75"/>
+      <c r="HB77" s="75"/>
+      <c r="HC77" s="75"/>
+      <c r="HD77" s="75"/>
+      <c r="HE77" s="75"/>
+      <c r="HF77" s="75"/>
+      <c r="HG77" s="75"/>
+      <c r="HH77" s="75"/>
+      <c r="HI77" s="75"/>
+      <c r="HJ77" s="75"/>
+      <c r="HK77" s="75"/>
+      <c r="HL77" s="75"/>
+      <c r="HM77" s="75"/>
+      <c r="HN77" s="75"/>
+      <c r="HO77" s="75"/>
+      <c r="HP77" s="75"/>
+      <c r="HQ77" s="75"/>
+      <c r="HR77" s="75"/>
+      <c r="HS77" s="75"/>
+      <c r="HT77" s="75"/>
+      <c r="HU77" s="75"/>
+      <c r="HV77" s="75"/>
+      <c r="HW77" s="75"/>
+      <c r="HX77" s="75"/>
+      <c r="HY77" s="75"/>
+      <c r="HZ77" s="75"/>
+      <c r="IA77" s="75"/>
+      <c r="IB77" s="75"/>
+      <c r="IC77" s="75"/>
+      <c r="ID77" s="75"/>
+      <c r="IE77" s="75"/>
+      <c r="IF77" s="75"/>
+      <c r="IG77" s="75"/>
+      <c r="IH77" s="75"/>
+      <c r="II77" s="75"/>
+      <c r="IJ77" s="75"/>
+      <c r="IK77" s="75"/>
+      <c r="IL77" s="75"/>
+      <c r="IM77" s="75"/>
+      <c r="IN77" s="75"/>
+      <c r="IO77" s="75"/>
+      <c r="IP77" s="75"/>
+      <c r="IQ77" s="75"/>
+      <c r="IR77" s="75"/>
+      <c r="IS77" s="75"/>
+      <c r="IT77" s="75"/>
+      <c r="IU77" s="75"/>
+      <c r="IV77" s="75"/>
+      <c r="IW77" s="75"/>
+    </row>
+    <row r="78" spans="1:257" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="B78" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C78" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F78" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G78" s="74">
+        <v>0</v>
+      </c>
+      <c r="H78" s="74">
+        <v>1</v>
+      </c>
+      <c r="I78" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J78" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="75"/>
+      <c r="N78" s="75"/>
+      <c r="O78" s="75"/>
+      <c r="P78" s="75"/>
+      <c r="Q78" s="75"/>
+      <c r="R78" s="75"/>
+      <c r="S78" s="75"/>
+      <c r="T78" s="75"/>
+      <c r="U78" s="75"/>
+      <c r="V78" s="75"/>
+      <c r="W78" s="75"/>
+      <c r="X78" s="75"/>
+      <c r="Y78" s="75"/>
+      <c r="Z78" s="75"/>
+      <c r="AA78" s="75"/>
+      <c r="AB78" s="75"/>
+      <c r="AC78" s="75"/>
+      <c r="AD78" s="75"/>
+      <c r="AE78" s="75"/>
+      <c r="AF78" s="75"/>
+      <c r="AG78" s="75"/>
+      <c r="AH78" s="75"/>
+      <c r="AI78" s="75"/>
+      <c r="AJ78" s="75"/>
+      <c r="AK78" s="75"/>
+      <c r="AL78" s="75"/>
+      <c r="AM78" s="75"/>
+      <c r="AN78" s="75"/>
+      <c r="AO78" s="75"/>
+      <c r="AP78" s="75"/>
+      <c r="AQ78" s="75"/>
+      <c r="AR78" s="75"/>
+      <c r="AS78" s="75"/>
+      <c r="AT78" s="75"/>
+      <c r="AU78" s="75"/>
+      <c r="AV78" s="75"/>
+      <c r="AW78" s="75"/>
+      <c r="AX78" s="75"/>
+      <c r="AY78" s="75"/>
+      <c r="AZ78" s="75"/>
+      <c r="BA78" s="75"/>
+      <c r="BB78" s="75"/>
+      <c r="BC78" s="75"/>
+      <c r="BD78" s="75"/>
+      <c r="BE78" s="75"/>
+      <c r="BF78" s="75"/>
+      <c r="BG78" s="75"/>
+      <c r="BH78" s="75"/>
+      <c r="BI78" s="75"/>
+      <c r="BJ78" s="75"/>
+      <c r="BK78" s="75"/>
+      <c r="BL78" s="75"/>
+      <c r="BM78" s="75"/>
+      <c r="BN78" s="75"/>
+      <c r="BO78" s="75"/>
+      <c r="BP78" s="75"/>
+      <c r="BQ78" s="75"/>
+      <c r="BR78" s="75"/>
+      <c r="BS78" s="75"/>
+      <c r="BT78" s="75"/>
+      <c r="BU78" s="75"/>
+      <c r="BV78" s="75"/>
+      <c r="BW78" s="75"/>
+      <c r="BX78" s="75"/>
+      <c r="BY78" s="75"/>
+      <c r="BZ78" s="75"/>
+      <c r="CA78" s="75"/>
+      <c r="CB78" s="75"/>
+      <c r="CC78" s="75"/>
+      <c r="CD78" s="75"/>
+      <c r="CE78" s="75"/>
+      <c r="CF78" s="75"/>
+      <c r="CG78" s="75"/>
+      <c r="CH78" s="75"/>
+      <c r="CI78" s="75"/>
+      <c r="CJ78" s="75"/>
+      <c r="CK78" s="75"/>
+      <c r="CL78" s="75"/>
+      <c r="CM78" s="75"/>
+      <c r="CN78" s="75"/>
+      <c r="CO78" s="75"/>
+      <c r="CP78" s="75"/>
+      <c r="CQ78" s="75"/>
+      <c r="CR78" s="75"/>
+      <c r="CS78" s="75"/>
+      <c r="CT78" s="75"/>
+      <c r="CU78" s="75"/>
+      <c r="CV78" s="75"/>
+      <c r="CW78" s="75"/>
+      <c r="CX78" s="75"/>
+      <c r="CY78" s="75"/>
+      <c r="CZ78" s="75"/>
+      <c r="DA78" s="75"/>
+      <c r="DB78" s="75"/>
+      <c r="DC78" s="75"/>
+      <c r="DD78" s="75"/>
+      <c r="DE78" s="75"/>
+      <c r="DF78" s="75"/>
+      <c r="DG78" s="75"/>
+      <c r="DH78" s="75"/>
+      <c r="DI78" s="75"/>
+      <c r="DJ78" s="75"/>
+      <c r="DK78" s="75"/>
+      <c r="DL78" s="75"/>
+      <c r="DM78" s="75"/>
+      <c r="DN78" s="75"/>
+      <c r="DO78" s="75"/>
+      <c r="DP78" s="75"/>
+      <c r="DQ78" s="75"/>
+      <c r="DR78" s="75"/>
+      <c r="DS78" s="75"/>
+      <c r="DT78" s="75"/>
+      <c r="DU78" s="75"/>
+      <c r="DV78" s="75"/>
+      <c r="DW78" s="75"/>
+      <c r="DX78" s="75"/>
+      <c r="DY78" s="75"/>
+      <c r="DZ78" s="75"/>
+      <c r="EA78" s="75"/>
+      <c r="EB78" s="75"/>
+      <c r="EC78" s="75"/>
+      <c r="ED78" s="75"/>
+      <c r="EE78" s="75"/>
+      <c r="EF78" s="75"/>
+      <c r="EG78" s="75"/>
+      <c r="EH78" s="75"/>
+      <c r="EI78" s="75"/>
+      <c r="EJ78" s="75"/>
+      <c r="EK78" s="75"/>
+      <c r="EL78" s="75"/>
+      <c r="EM78" s="75"/>
+      <c r="EN78" s="75"/>
+      <c r="EO78" s="75"/>
+      <c r="EP78" s="75"/>
+      <c r="EQ78" s="75"/>
+      <c r="ER78" s="75"/>
+      <c r="ES78" s="75"/>
+      <c r="ET78" s="75"/>
+      <c r="EU78" s="75"/>
+      <c r="EV78" s="75"/>
+      <c r="EW78" s="75"/>
+      <c r="EX78" s="75"/>
+      <c r="EY78" s="75"/>
+      <c r="EZ78" s="75"/>
+      <c r="FA78" s="75"/>
+      <c r="FB78" s="75"/>
+      <c r="FC78" s="75"/>
+      <c r="FD78" s="75"/>
+      <c r="FE78" s="75"/>
+      <c r="FF78" s="75"/>
+      <c r="FG78" s="75"/>
+      <c r="FH78" s="75"/>
+      <c r="FI78" s="75"/>
+      <c r="FJ78" s="75"/>
+      <c r="FK78" s="75"/>
+      <c r="FL78" s="75"/>
+      <c r="FM78" s="75"/>
+      <c r="FN78" s="75"/>
+      <c r="FO78" s="75"/>
+      <c r="FP78" s="75"/>
+      <c r="FQ78" s="75"/>
+      <c r="FR78" s="75"/>
+      <c r="FS78" s="75"/>
+      <c r="FT78" s="75"/>
+      <c r="FU78" s="75"/>
+      <c r="FV78" s="75"/>
+      <c r="FW78" s="75"/>
+      <c r="FX78" s="75"/>
+      <c r="FY78" s="75"/>
+      <c r="FZ78" s="75"/>
+      <c r="GA78" s="75"/>
+      <c r="GB78" s="75"/>
+      <c r="GC78" s="75"/>
+      <c r="GD78" s="75"/>
+      <c r="GE78" s="75"/>
+      <c r="GF78" s="75"/>
+      <c r="GG78" s="75"/>
+      <c r="GH78" s="75"/>
+      <c r="GI78" s="75"/>
+      <c r="GJ78" s="75"/>
+      <c r="GK78" s="75"/>
+      <c r="GL78" s="75"/>
+      <c r="GM78" s="75"/>
+      <c r="GN78" s="75"/>
+      <c r="GO78" s="75"/>
+      <c r="GP78" s="75"/>
+      <c r="GQ78" s="75"/>
+      <c r="GR78" s="75"/>
+      <c r="GS78" s="75"/>
+      <c r="GT78" s="75"/>
+      <c r="GU78" s="75"/>
+      <c r="GV78" s="75"/>
+      <c r="GW78" s="75"/>
+      <c r="GX78" s="75"/>
+      <c r="GY78" s="75"/>
+      <c r="GZ78" s="75"/>
+      <c r="HA78" s="75"/>
+      <c r="HB78" s="75"/>
+      <c r="HC78" s="75"/>
+      <c r="HD78" s="75"/>
+      <c r="HE78" s="75"/>
+      <c r="HF78" s="75"/>
+      <c r="HG78" s="75"/>
+      <c r="HH78" s="75"/>
+      <c r="HI78" s="75"/>
+      <c r="HJ78" s="75"/>
+      <c r="HK78" s="75"/>
+      <c r="HL78" s="75"/>
+      <c r="HM78" s="75"/>
+      <c r="HN78" s="75"/>
+      <c r="HO78" s="75"/>
+      <c r="HP78" s="75"/>
+      <c r="HQ78" s="75"/>
+      <c r="HR78" s="75"/>
+      <c r="HS78" s="75"/>
+      <c r="HT78" s="75"/>
+      <c r="HU78" s="75"/>
+      <c r="HV78" s="75"/>
+      <c r="HW78" s="75"/>
+      <c r="HX78" s="75"/>
+      <c r="HY78" s="75"/>
+      <c r="HZ78" s="75"/>
+      <c r="IA78" s="75"/>
+      <c r="IB78" s="75"/>
+      <c r="IC78" s="75"/>
+      <c r="ID78" s="75"/>
+      <c r="IE78" s="75"/>
+      <c r="IF78" s="75"/>
+      <c r="IG78" s="75"/>
+      <c r="IH78" s="75"/>
+      <c r="II78" s="75"/>
+      <c r="IJ78" s="75"/>
+      <c r="IK78" s="75"/>
+      <c r="IL78" s="75"/>
+      <c r="IM78" s="75"/>
+      <c r="IN78" s="75"/>
+      <c r="IO78" s="75"/>
+      <c r="IP78" s="75"/>
+      <c r="IQ78" s="75"/>
+      <c r="IR78" s="75"/>
+      <c r="IS78" s="75"/>
+      <c r="IT78" s="75"/>
+      <c r="IU78" s="75"/>
+      <c r="IV78" s="75"/>
+      <c r="IW78" s="75"/>
+    </row>
+    <row r="79" spans="1:257" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C79" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D79" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F79" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="74">
+        <v>0</v>
+      </c>
+      <c r="H79" s="74">
+        <v>1</v>
+      </c>
+      <c r="I79" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J79" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K79" s="75"/>
+      <c r="L79" s="75"/>
+      <c r="M79" s="75"/>
+      <c r="N79" s="75"/>
+      <c r="O79" s="75"/>
+      <c r="P79" s="75"/>
+      <c r="Q79" s="75"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="75"/>
+      <c r="T79" s="75"/>
+      <c r="U79" s="75"/>
+      <c r="V79" s="75"/>
+      <c r="W79" s="75"/>
+      <c r="X79" s="75"/>
+      <c r="Y79" s="75"/>
+      <c r="Z79" s="75"/>
+      <c r="AA79" s="75"/>
+      <c r="AB79" s="75"/>
+      <c r="AC79" s="75"/>
+      <c r="AD79" s="75"/>
+      <c r="AE79" s="75"/>
+      <c r="AF79" s="75"/>
+      <c r="AG79" s="75"/>
+      <c r="AH79" s="75"/>
+      <c r="AI79" s="75"/>
+      <c r="AJ79" s="75"/>
+      <c r="AK79" s="75"/>
+      <c r="AL79" s="75"/>
+      <c r="AM79" s="75"/>
+      <c r="AN79" s="75"/>
+      <c r="AO79" s="75"/>
+      <c r="AP79" s="75"/>
+      <c r="AQ79" s="75"/>
+      <c r="AR79" s="75"/>
+      <c r="AS79" s="75"/>
+      <c r="AT79" s="75"/>
+      <c r="AU79" s="75"/>
+      <c r="AV79" s="75"/>
+      <c r="AW79" s="75"/>
+      <c r="AX79" s="75"/>
+      <c r="AY79" s="75"/>
+      <c r="AZ79" s="75"/>
+      <c r="BA79" s="75"/>
+      <c r="BB79" s="75"/>
+      <c r="BC79" s="75"/>
+      <c r="BD79" s="75"/>
+      <c r="BE79" s="75"/>
+      <c r="BF79" s="75"/>
+      <c r="BG79" s="75"/>
+      <c r="BH79" s="75"/>
+      <c r="BI79" s="75"/>
+      <c r="BJ79" s="75"/>
+      <c r="BK79" s="75"/>
+      <c r="BL79" s="75"/>
+      <c r="BM79" s="75"/>
+      <c r="BN79" s="75"/>
+      <c r="BO79" s="75"/>
+      <c r="BP79" s="75"/>
+      <c r="BQ79" s="75"/>
+      <c r="BR79" s="75"/>
+      <c r="BS79" s="75"/>
+      <c r="BT79" s="75"/>
+      <c r="BU79" s="75"/>
+      <c r="BV79" s="75"/>
+      <c r="BW79" s="75"/>
+      <c r="BX79" s="75"/>
+      <c r="BY79" s="75"/>
+      <c r="BZ79" s="75"/>
+      <c r="CA79" s="75"/>
+      <c r="CB79" s="75"/>
+      <c r="CC79" s="75"/>
+      <c r="CD79" s="75"/>
+      <c r="CE79" s="75"/>
+      <c r="CF79" s="75"/>
+      <c r="CG79" s="75"/>
+      <c r="CH79" s="75"/>
+      <c r="CI79" s="75"/>
+      <c r="CJ79" s="75"/>
+      <c r="CK79" s="75"/>
+      <c r="CL79" s="75"/>
+      <c r="CM79" s="75"/>
+      <c r="CN79" s="75"/>
+      <c r="CO79" s="75"/>
+      <c r="CP79" s="75"/>
+      <c r="CQ79" s="75"/>
+      <c r="CR79" s="75"/>
+      <c r="CS79" s="75"/>
+      <c r="CT79" s="75"/>
+      <c r="CU79" s="75"/>
+      <c r="CV79" s="75"/>
+      <c r="CW79" s="75"/>
+      <c r="CX79" s="75"/>
+      <c r="CY79" s="75"/>
+      <c r="CZ79" s="75"/>
+      <c r="DA79" s="75"/>
+      <c r="DB79" s="75"/>
+      <c r="DC79" s="75"/>
+      <c r="DD79" s="75"/>
+      <c r="DE79" s="75"/>
+      <c r="DF79" s="75"/>
+      <c r="DG79" s="75"/>
+      <c r="DH79" s="75"/>
+      <c r="DI79" s="75"/>
+      <c r="DJ79" s="75"/>
+      <c r="DK79" s="75"/>
+      <c r="DL79" s="75"/>
+      <c r="DM79" s="75"/>
+      <c r="DN79" s="75"/>
+      <c r="DO79" s="75"/>
+      <c r="DP79" s="75"/>
+      <c r="DQ79" s="75"/>
+      <c r="DR79" s="75"/>
+      <c r="DS79" s="75"/>
+      <c r="DT79" s="75"/>
+      <c r="DU79" s="75"/>
+      <c r="DV79" s="75"/>
+      <c r="DW79" s="75"/>
+      <c r="DX79" s="75"/>
+      <c r="DY79" s="75"/>
+      <c r="DZ79" s="75"/>
+      <c r="EA79" s="75"/>
+      <c r="EB79" s="75"/>
+      <c r="EC79" s="75"/>
+      <c r="ED79" s="75"/>
+      <c r="EE79" s="75"/>
+      <c r="EF79" s="75"/>
+      <c r="EG79" s="75"/>
+      <c r="EH79" s="75"/>
+      <c r="EI79" s="75"/>
+      <c r="EJ79" s="75"/>
+      <c r="EK79" s="75"/>
+      <c r="EL79" s="75"/>
+      <c r="EM79" s="75"/>
+      <c r="EN79" s="75"/>
+      <c r="EO79" s="75"/>
+      <c r="EP79" s="75"/>
+      <c r="EQ79" s="75"/>
+      <c r="ER79" s="75"/>
+      <c r="ES79" s="75"/>
+      <c r="ET79" s="75"/>
+      <c r="EU79" s="75"/>
+      <c r="EV79" s="75"/>
+      <c r="EW79" s="75"/>
+      <c r="EX79" s="75"/>
+      <c r="EY79" s="75"/>
+      <c r="EZ79" s="75"/>
+      <c r="FA79" s="75"/>
+      <c r="FB79" s="75"/>
+      <c r="FC79" s="75"/>
+      <c r="FD79" s="75"/>
+      <c r="FE79" s="75"/>
+      <c r="FF79" s="75"/>
+      <c r="FG79" s="75"/>
+      <c r="FH79" s="75"/>
+      <c r="FI79" s="75"/>
+      <c r="FJ79" s="75"/>
+      <c r="FK79" s="75"/>
+      <c r="FL79" s="75"/>
+      <c r="FM79" s="75"/>
+      <c r="FN79" s="75"/>
+      <c r="FO79" s="75"/>
+      <c r="FP79" s="75"/>
+      <c r="FQ79" s="75"/>
+      <c r="FR79" s="75"/>
+      <c r="FS79" s="75"/>
+      <c r="FT79" s="75"/>
+      <c r="FU79" s="75"/>
+      <c r="FV79" s="75"/>
+      <c r="FW79" s="75"/>
+      <c r="FX79" s="75"/>
+      <c r="FY79" s="75"/>
+      <c r="FZ79" s="75"/>
+      <c r="GA79" s="75"/>
+      <c r="GB79" s="75"/>
+      <c r="GC79" s="75"/>
+      <c r="GD79" s="75"/>
+      <c r="GE79" s="75"/>
+      <c r="GF79" s="75"/>
+      <c r="GG79" s="75"/>
+      <c r="GH79" s="75"/>
+      <c r="GI79" s="75"/>
+      <c r="GJ79" s="75"/>
+      <c r="GK79" s="75"/>
+      <c r="GL79" s="75"/>
+      <c r="GM79" s="75"/>
+      <c r="GN79" s="75"/>
+      <c r="GO79" s="75"/>
+      <c r="GP79" s="75"/>
+      <c r="GQ79" s="75"/>
+      <c r="GR79" s="75"/>
+      <c r="GS79" s="75"/>
+      <c r="GT79" s="75"/>
+      <c r="GU79" s="75"/>
+      <c r="GV79" s="75"/>
+      <c r="GW79" s="75"/>
+      <c r="GX79" s="75"/>
+      <c r="GY79" s="75"/>
+      <c r="GZ79" s="75"/>
+      <c r="HA79" s="75"/>
+      <c r="HB79" s="75"/>
+      <c r="HC79" s="75"/>
+      <c r="HD79" s="75"/>
+      <c r="HE79" s="75"/>
+      <c r="HF79" s="75"/>
+      <c r="HG79" s="75"/>
+      <c r="HH79" s="75"/>
+      <c r="HI79" s="75"/>
+      <c r="HJ79" s="75"/>
+      <c r="HK79" s="75"/>
+      <c r="HL79" s="75"/>
+      <c r="HM79" s="75"/>
+      <c r="HN79" s="75"/>
+      <c r="HO79" s="75"/>
+      <c r="HP79" s="75"/>
+      <c r="HQ79" s="75"/>
+      <c r="HR79" s="75"/>
+      <c r="HS79" s="75"/>
+      <c r="HT79" s="75"/>
+      <c r="HU79" s="75"/>
+      <c r="HV79" s="75"/>
+      <c r="HW79" s="75"/>
+      <c r="HX79" s="75"/>
+      <c r="HY79" s="75"/>
+      <c r="HZ79" s="75"/>
+      <c r="IA79" s="75"/>
+      <c r="IB79" s="75"/>
+      <c r="IC79" s="75"/>
+      <c r="ID79" s="75"/>
+      <c r="IE79" s="75"/>
+      <c r="IF79" s="75"/>
+      <c r="IG79" s="75"/>
+      <c r="IH79" s="75"/>
+      <c r="II79" s="75"/>
+      <c r="IJ79" s="75"/>
+      <c r="IK79" s="75"/>
+      <c r="IL79" s="75"/>
+      <c r="IM79" s="75"/>
+      <c r="IN79" s="75"/>
+      <c r="IO79" s="75"/>
+      <c r="IP79" s="75"/>
+      <c r="IQ79" s="75"/>
+      <c r="IR79" s="75"/>
+      <c r="IS79" s="75"/>
+      <c r="IT79" s="75"/>
+      <c r="IU79" s="75"/>
+      <c r="IV79" s="75"/>
+      <c r="IW79" s="75"/>
+    </row>
+    <row r="80" spans="1:257" s="76" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D80" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="G80" s="74">
+        <v>0</v>
+      </c>
+      <c r="H80" s="74">
+        <v>1</v>
+      </c>
+      <c r="I80" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="J80" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="K80" s="75"/>
+      <c r="L80" s="75"/>
+      <c r="M80" s="75"/>
+      <c r="N80" s="75"/>
+      <c r="O80" s="75"/>
+      <c r="P80" s="75"/>
+      <c r="Q80" s="75"/>
+      <c r="R80" s="75"/>
+      <c r="S80" s="75"/>
+      <c r="T80" s="75"/>
+      <c r="U80" s="75"/>
+      <c r="V80" s="75"/>
+      <c r="W80" s="75"/>
+      <c r="X80" s="75"/>
+      <c r="Y80" s="75"/>
+      <c r="Z80" s="75"/>
+      <c r="AA80" s="75"/>
+      <c r="AB80" s="75"/>
+      <c r="AC80" s="75"/>
+      <c r="AD80" s="75"/>
+      <c r="AE80" s="75"/>
+      <c r="AF80" s="75"/>
+      <c r="AG80" s="75"/>
+      <c r="AH80" s="75"/>
+      <c r="AI80" s="75"/>
+      <c r="AJ80" s="75"/>
+      <c r="AK80" s="75"/>
+      <c r="AL80" s="75"/>
+      <c r="AM80" s="75"/>
+      <c r="AN80" s="75"/>
+      <c r="AO80" s="75"/>
+      <c r="AP80" s="75"/>
+      <c r="AQ80" s="75"/>
+      <c r="AR80" s="75"/>
+      <c r="AS80" s="75"/>
+      <c r="AT80" s="75"/>
+      <c r="AU80" s="75"/>
+      <c r="AV80" s="75"/>
+      <c r="AW80" s="75"/>
+      <c r="AX80" s="75"/>
+      <c r="AY80" s="75"/>
+      <c r="AZ80" s="75"/>
+      <c r="BA80" s="75"/>
+      <c r="BB80" s="75"/>
+      <c r="BC80" s="75"/>
+      <c r="BD80" s="75"/>
+      <c r="BE80" s="75"/>
+      <c r="BF80" s="75"/>
+      <c r="BG80" s="75"/>
+      <c r="BH80" s="75"/>
+      <c r="BI80" s="75"/>
+      <c r="BJ80" s="75"/>
+      <c r="BK80" s="75"/>
+      <c r="BL80" s="75"/>
+      <c r="BM80" s="75"/>
+      <c r="BN80" s="75"/>
+      <c r="BO80" s="75"/>
+      <c r="BP80" s="75"/>
+      <c r="BQ80" s="75"/>
+      <c r="BR80" s="75"/>
+      <c r="BS80" s="75"/>
+      <c r="BT80" s="75"/>
+      <c r="BU80" s="75"/>
+      <c r="BV80" s="75"/>
+      <c r="BW80" s="75"/>
+      <c r="BX80" s="75"/>
+      <c r="BY80" s="75"/>
+      <c r="BZ80" s="75"/>
+      <c r="CA80" s="75"/>
+      <c r="CB80" s="75"/>
+      <c r="CC80" s="75"/>
+      <c r="CD80" s="75"/>
+      <c r="CE80" s="75"/>
+      <c r="CF80" s="75"/>
+      <c r="CG80" s="75"/>
+      <c r="CH80" s="75"/>
+      <c r="CI80" s="75"/>
+      <c r="CJ80" s="75"/>
+      <c r="CK80" s="75"/>
+      <c r="CL80" s="75"/>
+      <c r="CM80" s="75"/>
+      <c r="CN80" s="75"/>
+      <c r="CO80" s="75"/>
+      <c r="CP80" s="75"/>
+      <c r="CQ80" s="75"/>
+      <c r="CR80" s="75"/>
+      <c r="CS80" s="75"/>
+      <c r="CT80" s="75"/>
+      <c r="CU80" s="75"/>
+      <c r="CV80" s="75"/>
+      <c r="CW80" s="75"/>
+      <c r="CX80" s="75"/>
+      <c r="CY80" s="75"/>
+      <c r="CZ80" s="75"/>
+      <c r="DA80" s="75"/>
+      <c r="DB80" s="75"/>
+      <c r="DC80" s="75"/>
+      <c r="DD80" s="75"/>
+      <c r="DE80" s="75"/>
+      <c r="DF80" s="75"/>
+      <c r="DG80" s="75"/>
+      <c r="DH80" s="75"/>
+      <c r="DI80" s="75"/>
+      <c r="DJ80" s="75"/>
+      <c r="DK80" s="75"/>
+      <c r="DL80" s="75"/>
+      <c r="DM80" s="75"/>
+      <c r="DN80" s="75"/>
+      <c r="DO80" s="75"/>
+      <c r="DP80" s="75"/>
+      <c r="DQ80" s="75"/>
+      <c r="DR80" s="75"/>
+      <c r="DS80" s="75"/>
+      <c r="DT80" s="75"/>
+      <c r="DU80" s="75"/>
+      <c r="DV80" s="75"/>
+      <c r="DW80" s="75"/>
+      <c r="DX80" s="75"/>
+      <c r="DY80" s="75"/>
+      <c r="DZ80" s="75"/>
+      <c r="EA80" s="75"/>
+      <c r="EB80" s="75"/>
+      <c r="EC80" s="75"/>
+      <c r="ED80" s="75"/>
+      <c r="EE80" s="75"/>
+      <c r="EF80" s="75"/>
+      <c r="EG80" s="75"/>
+      <c r="EH80" s="75"/>
+      <c r="EI80" s="75"/>
+      <c r="EJ80" s="75"/>
+      <c r="EK80" s="75"/>
+      <c r="EL80" s="75"/>
+      <c r="EM80" s="75"/>
+      <c r="EN80" s="75"/>
+      <c r="EO80" s="75"/>
+      <c r="EP80" s="75"/>
+      <c r="EQ80" s="75"/>
+      <c r="ER80" s="75"/>
+      <c r="ES80" s="75"/>
+      <c r="ET80" s="75"/>
+      <c r="EU80" s="75"/>
+      <c r="EV80" s="75"/>
+      <c r="EW80" s="75"/>
+      <c r="EX80" s="75"/>
+      <c r="EY80" s="75"/>
+      <c r="EZ80" s="75"/>
+      <c r="FA80" s="75"/>
+      <c r="FB80" s="75"/>
+      <c r="FC80" s="75"/>
+      <c r="FD80" s="75"/>
+      <c r="FE80" s="75"/>
+      <c r="FF80" s="75"/>
+      <c r="FG80" s="75"/>
+      <c r="FH80" s="75"/>
+      <c r="FI80" s="75"/>
+      <c r="FJ80" s="75"/>
+      <c r="FK80" s="75"/>
+      <c r="FL80" s="75"/>
+      <c r="FM80" s="75"/>
+      <c r="FN80" s="75"/>
+      <c r="FO80" s="75"/>
+      <c r="FP80" s="75"/>
+      <c r="FQ80" s="75"/>
+      <c r="FR80" s="75"/>
+      <c r="FS80" s="75"/>
+      <c r="FT80" s="75"/>
+      <c r="FU80" s="75"/>
+      <c r="FV80" s="75"/>
+      <c r="FW80" s="75"/>
+      <c r="FX80" s="75"/>
+      <c r="FY80" s="75"/>
+      <c r="FZ80" s="75"/>
+      <c r="GA80" s="75"/>
+      <c r="GB80" s="75"/>
+      <c r="GC80" s="75"/>
+      <c r="GD80" s="75"/>
+      <c r="GE80" s="75"/>
+      <c r="GF80" s="75"/>
+      <c r="GG80" s="75"/>
+      <c r="GH80" s="75"/>
+      <c r="GI80" s="75"/>
+      <c r="GJ80" s="75"/>
+      <c r="GK80" s="75"/>
+      <c r="GL80" s="75"/>
+      <c r="GM80" s="75"/>
+      <c r="GN80" s="75"/>
+      <c r="GO80" s="75"/>
+      <c r="GP80" s="75"/>
+      <c r="GQ80" s="75"/>
+      <c r="GR80" s="75"/>
+      <c r="GS80" s="75"/>
+      <c r="GT80" s="75"/>
+      <c r="GU80" s="75"/>
+      <c r="GV80" s="75"/>
+      <c r="GW80" s="75"/>
+      <c r="GX80" s="75"/>
+      <c r="GY80" s="75"/>
+      <c r="GZ80" s="75"/>
+      <c r="HA80" s="75"/>
+      <c r="HB80" s="75"/>
+      <c r="HC80" s="75"/>
+      <c r="HD80" s="75"/>
+      <c r="HE80" s="75"/>
+      <c r="HF80" s="75"/>
+      <c r="HG80" s="75"/>
+      <c r="HH80" s="75"/>
+      <c r="HI80" s="75"/>
+      <c r="HJ80" s="75"/>
+      <c r="HK80" s="75"/>
+      <c r="HL80" s="75"/>
+      <c r="HM80" s="75"/>
+      <c r="HN80" s="75"/>
+      <c r="HO80" s="75"/>
+      <c r="HP80" s="75"/>
+      <c r="HQ80" s="75"/>
+      <c r="HR80" s="75"/>
+      <c r="HS80" s="75"/>
+      <c r="HT80" s="75"/>
+      <c r="HU80" s="75"/>
+      <c r="HV80" s="75"/>
+      <c r="HW80" s="75"/>
+      <c r="HX80" s="75"/>
+      <c r="HY80" s="75"/>
+      <c r="HZ80" s="75"/>
+      <c r="IA80" s="75"/>
+      <c r="IB80" s="75"/>
+      <c r="IC80" s="75"/>
+      <c r="ID80" s="75"/>
+      <c r="IE80" s="75"/>
+      <c r="IF80" s="75"/>
+      <c r="IG80" s="75"/>
+      <c r="IH80" s="75"/>
+      <c r="II80" s="75"/>
+      <c r="IJ80" s="75"/>
+      <c r="IK80" s="75"/>
+      <c r="IL80" s="75"/>
+      <c r="IM80" s="75"/>
+      <c r="IN80" s="75"/>
+      <c r="IO80" s="75"/>
+      <c r="IP80" s="75"/>
+      <c r="IQ80" s="75"/>
+      <c r="IR80" s="75"/>
+      <c r="IS80" s="75"/>
+      <c r="IT80" s="75"/>
+      <c r="IU80" s="75"/>
+      <c r="IV80" s="75"/>
+      <c r="IW80" s="75"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A81" s="73"/>
+      <c r="B81" s="73"/>
+      <c r="C81" s="73"/>
+      <c r="D81" s="73"/>
+      <c r="E81" s="73"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="73"/>
+      <c r="H81" s="73"/>
+      <c r="I81" s="73"/>
+      <c r="J81" s="73"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A82" s="73"/>
+      <c r="B82" s="73"/>
+      <c r="C82" s="73"/>
+      <c r="D82" s="73"/>
+      <c r="E82" s="73"/>
+      <c r="F82" s="73"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="73"/>
+      <c r="I82" s="73"/>
+      <c r="J82" s="73"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A83" s="73"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="73"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="73"/>
+      <c r="H83" s="73"/>
+      <c r="I83" s="73"/>
+      <c r="J83" s="73"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A84" s="73"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="73"/>
+      <c r="D84" s="73"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="73"/>
+      <c r="H84" s="73"/>
+      <c r="I84" s="73"/>
+      <c r="J84" s="73"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A85" s="73"/>
+      <c r="B85" s="73"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="73"/>
+      <c r="E85" s="73"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="73"/>
+      <c r="H85" s="73"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A86" s="73"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="73"/>
+      <c r="E86" s="73"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="73"/>
+      <c r="H86" s="73"/>
+      <c r="I86" s="73"/>
+      <c r="J86" s="73"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A87" s="73"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="73"/>
+      <c r="H87" s="73"/>
+      <c r="I87" s="73"/>
+      <c r="J87" s="73"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A88" s="73"/>
+      <c r="B88" s="73"/>
+      <c r="C88" s="73"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="73"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="73"/>
+      <c r="H88" s="73"/>
+      <c r="I88" s="73"/>
+      <c r="J88" s="73"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A89" s="73"/>
+      <c r="B89" s="73"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="73"/>
+      <c r="E89" s="73"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="73"/>
+      <c r="H89" s="73"/>
+      <c r="I89" s="73"/>
+      <c r="J89" s="73"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A90" s="73"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="73"/>
+      <c r="D90" s="73"/>
+      <c r="E90" s="73"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="73"/>
+      <c r="H90" s="73"/>
+      <c r="I90" s="73"/>
+      <c r="J90" s="73"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A91" s="73"/>
+      <c r="B91" s="73"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="73"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="73"/>
+      <c r="H91" s="73"/>
+      <c r="I91" s="73"/>
+      <c r="J91" s="73"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A92" s="73"/>
+      <c r="B92" s="73"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="73"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="73"/>
+      <c r="H92" s="73"/>
+      <c r="I92" s="73"/>
+      <c r="J92" s="73"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A93" s="73"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="73"/>
+      <c r="D93" s="73"/>
+      <c r="E93" s="73"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="73"/>
+      <c r="H93" s="73"/>
+      <c r="I93" s="73"/>
+      <c r="J93" s="73"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A94" s="73"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="73"/>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11377,8 +15884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView showGridLines="0" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/oscar-web/db/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A566AFC7-D336-7040-9911-1E9D0DCD5B60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BEDF4-DAA3-4526-91E7-9A6209C600CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="224">
   <si>
     <t>name</t>
   </si>
@@ -653,13 +653,58 @@
   </si>
   <si>
     <t>Forms for Identification of Victim of Human Trafficking</t>
+  </si>
+  <si>
+    <t>referral_document</t>
+  </si>
+  <si>
+    <t>travel_doc</t>
+  </si>
+  <si>
+    <t>Laissez-Passer</t>
+  </si>
+  <si>
+    <t>Screening Interview Form</t>
+  </si>
+  <si>
+    <t>local_consent</t>
+  </si>
+  <si>
+    <t>Legal Representation</t>
+  </si>
+  <si>
+    <t>police_interview</t>
+  </si>
+  <si>
+    <t>Letter from Immigration Police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labour Trafficking </t>
+  </si>
+  <si>
+    <t>Sexual Trafficking</t>
+  </si>
+  <si>
+    <t>labor_trafficking_legal_doc_option</t>
+  </si>
+  <si>
+    <t>sex_trafficking_legal_doc_option</t>
+  </si>
+  <si>
+    <t>other_legal_doc_option</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1035,7 +1080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1173,6 +1218,8 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,26 +1605,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW130"/>
+  <dimension ref="A1:IW129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="257" width="8.83203125" style="1"/>
+    <col min="6" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="257" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -1609,7 +1656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="66" t="s">
         <v>10</v>
       </c>
@@ -1637,7 +1684,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="68" t="s">
         <v>16</v>
       </c>
@@ -1665,7 +1712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>18</v>
       </c>
@@ -1693,7 +1740,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="68" t="s">
         <v>20</v>
       </c>
@@ -1721,7 +1768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="68" t="s">
         <v>22</v>
       </c>
@@ -1749,7 +1796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="68" t="s">
         <v>18</v>
       </c>
@@ -1777,7 +1824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="68" t="s">
         <v>24</v>
       </c>
@@ -1805,7 +1852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
@@ -1835,7 +1882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -1865,7 +1912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
@@ -1895,7 +1942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -1925,7 +1972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="68" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +2000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="68" t="s">
         <v>38</v>
       </c>
@@ -1981,7 +2028,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="68" t="s">
         <v>41</v>
       </c>
@@ -2009,7 +2056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>43</v>
       </c>
@@ -2039,7 +2086,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>45</v>
       </c>
@@ -2069,7 +2116,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
@@ -2099,7 +2146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="19" t="s">
         <v>138</v>
       </c>
@@ -2153,7 +2200,7 @@
       </c>
       <c r="IW19" s="25"/>
     </row>
-    <row r="20" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="77" t="s">
         <v>136</v>
       </c>
@@ -2428,7 +2475,7 @@
       <c r="IV20"/>
       <c r="IW20"/>
     </row>
-    <row r="21" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="77" t="s">
         <v>141</v>
       </c>
@@ -2703,7 +2750,7 @@
       <c r="IV21"/>
       <c r="IW21"/>
     </row>
-    <row r="22" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="82" t="s">
         <v>51</v>
       </c>
@@ -2732,7 +2779,7 @@
       </c>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="82" t="s">
         <v>53</v>
       </c>
@@ -2760,7 +2807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>55</v>
       </c>
@@ -2790,7 +2837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>57</v>
       </c>
@@ -2820,7 +2867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="19" t="s">
         <v>60</v>
       </c>
@@ -2850,7 +2897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="19" t="s">
         <v>62</v>
       </c>
@@ -2880,7 +2927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="19" t="s">
         <v>64</v>
       </c>
@@ -2910,7 +2957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="19" t="s">
         <v>66</v>
       </c>
@@ -2940,7 +2987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="19" t="s">
         <v>68</v>
       </c>
@@ -2970,7 +3017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>70</v>
       </c>
@@ -3000,7 +3047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="19" t="s">
         <v>72</v>
       </c>
@@ -3030,7 +3077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="19" t="s">
         <v>73</v>
       </c>
@@ -3060,7 +3107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:257" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="19" t="s">
         <v>74</v>
       </c>
@@ -3090,7 +3137,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="19" t="s">
         <v>75</v>
       </c>
@@ -3367,7 +3414,7 @@
       <c r="IV35"/>
       <c r="IW35"/>
     </row>
-    <row r="36" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="19" t="s">
         <v>76</v>
       </c>
@@ -3644,7 +3691,7 @@
       <c r="IV36"/>
       <c r="IW36"/>
     </row>
-    <row r="37" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="19" t="s">
         <v>77</v>
       </c>
@@ -3921,7 +3968,7 @@
       <c r="IV37"/>
       <c r="IW37"/>
     </row>
-    <row r="38" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="19" t="s">
         <v>79</v>
       </c>
@@ -4198,7 +4245,7 @@
       <c r="IV38"/>
       <c r="IW38"/>
     </row>
-    <row r="39" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="19" t="s">
         <v>81</v>
       </c>
@@ -4475,7 +4522,7 @@
       <c r="IV39"/>
       <c r="IW39"/>
     </row>
-    <row r="40" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="19" t="s">
         <v>83</v>
       </c>
@@ -4752,7 +4799,7 @@
       <c r="IV40"/>
       <c r="IW40"/>
     </row>
-    <row r="41" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="19" t="s">
         <v>85</v>
       </c>
@@ -5029,7 +5076,7 @@
       <c r="IV41"/>
       <c r="IW41"/>
     </row>
-    <row r="42" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="19" t="s">
         <v>87</v>
       </c>
@@ -5306,7 +5353,7 @@
       <c r="IV42"/>
       <c r="IW42"/>
     </row>
-    <row r="43" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="19" t="s">
         <v>89</v>
       </c>
@@ -5583,7 +5630,7 @@
       <c r="IV43"/>
       <c r="IW43"/>
     </row>
-    <row r="44" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="19" t="s">
         <v>91</v>
       </c>
@@ -5860,7 +5907,7 @@
       <c r="IV44"/>
       <c r="IW44"/>
     </row>
-    <row r="45" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="19" t="s">
         <v>92</v>
       </c>
@@ -6137,7 +6184,7 @@
       <c r="IV45"/>
       <c r="IW45"/>
     </row>
-    <row r="46" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="53" t="s">
         <v>94</v>
       </c>
@@ -6412,7 +6459,7 @@
       <c r="IV46"/>
       <c r="IW46"/>
     </row>
-    <row r="47" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="87" t="s">
         <v>97</v>
       </c>
@@ -6689,7 +6736,7 @@
       <c r="IV47"/>
       <c r="IW47"/>
     </row>
-    <row r="48" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="87" t="s">
         <v>77</v>
       </c>
@@ -6964,7 +7011,7 @@
       <c r="IV48"/>
       <c r="IW48"/>
     </row>
-    <row r="49" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="87" t="s">
         <v>22</v>
       </c>
@@ -7239,7 +7286,7 @@
       <c r="IV49"/>
       <c r="IW49"/>
     </row>
-    <row r="50" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="87" t="s">
         <v>0</v>
       </c>
@@ -7514,7 +7561,7 @@
       <c r="IV50"/>
       <c r="IW50"/>
     </row>
-    <row r="51" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="87" t="s">
         <v>79</v>
       </c>
@@ -7789,7 +7836,7 @@
       <c r="IV51"/>
       <c r="IW51"/>
     </row>
-    <row r="52" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="87" t="s">
         <v>81</v>
       </c>
@@ -8064,7 +8111,7 @@
       <c r="IV52"/>
       <c r="IW52"/>
     </row>
-    <row r="53" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="87" t="s">
         <v>83</v>
       </c>
@@ -8339,7 +8386,7 @@
       <c r="IV53"/>
       <c r="IW53"/>
     </row>
-    <row r="54" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="87" t="s">
         <v>101</v>
       </c>
@@ -8614,7 +8661,7 @@
       <c r="IV54"/>
       <c r="IW54"/>
     </row>
-    <row r="55" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="87" t="s">
         <v>102</v>
       </c>
@@ -8889,7 +8936,7 @@
       <c r="IV55"/>
       <c r="IW55"/>
     </row>
-    <row r="56" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="87" t="s">
         <v>104</v>
       </c>
@@ -9164,7 +9211,7 @@
       <c r="IV56"/>
       <c r="IW56"/>
     </row>
-    <row r="57" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="87" t="s">
         <v>106</v>
       </c>
@@ -9439,7 +9486,7 @@
       <c r="IV57"/>
       <c r="IW57"/>
     </row>
-    <row r="58" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="87" t="s">
         <v>108</v>
       </c>
@@ -9714,7 +9761,7 @@
       <c r="IV58"/>
       <c r="IW58"/>
     </row>
-    <row r="59" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="53" t="s">
         <v>111</v>
       </c>
@@ -9989,7 +10036,7 @@
       <c r="IV59"/>
       <c r="IW59"/>
     </row>
-    <row r="60" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="53" t="s">
         <v>113</v>
       </c>
@@ -10264,7 +10311,7 @@
       <c r="IV60"/>
       <c r="IW60"/>
     </row>
-    <row r="61" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="92" t="s">
         <v>22</v>
       </c>
@@ -10539,7 +10586,7 @@
       <c r="IV61"/>
       <c r="IW61"/>
     </row>
-    <row r="62" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="53" t="s">
         <v>115</v>
       </c>
@@ -10814,7 +10861,7 @@
       <c r="IV62"/>
       <c r="IW62"/>
     </row>
-    <row r="63" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="53" t="s">
         <v>117</v>
       </c>
@@ -11089,7 +11136,7 @@
       <c r="IV63"/>
       <c r="IW63"/>
     </row>
-    <row r="64" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="40" t="s">
         <v>119</v>
       </c>
@@ -11366,7 +11413,7 @@
       <c r="IV64"/>
       <c r="IW64"/>
     </row>
-    <row r="65" spans="1:257" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="53" t="s">
         <v>120</v>
       </c>
@@ -11643,7 +11690,7 @@
       <c r="IV65"/>
       <c r="IW65"/>
     </row>
-    <row r="66" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="62" t="s">
         <v>143</v>
       </c>
@@ -11920,7 +11967,7 @@
       <c r="IV66" s="64"/>
       <c r="IW66" s="64"/>
     </row>
-    <row r="67" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="63" t="s">
         <v>144</v>
       </c>
@@ -12197,7 +12244,7 @@
       <c r="IV67" s="64"/>
       <c r="IW67" s="64"/>
     </row>
-    <row r="68" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="62" t="s">
         <v>145</v>
       </c>
@@ -12474,7 +12521,7 @@
       <c r="IV68" s="64"/>
       <c r="IW68" s="64"/>
     </row>
-    <row r="69" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="62" t="s">
         <v>146</v>
       </c>
@@ -12751,7 +12798,7 @@
       <c r="IV69" s="64"/>
       <c r="IW69" s="64"/>
     </row>
-    <row r="70" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="62" t="s">
         <v>147</v>
       </c>
@@ -13028,7 +13075,7 @@
       <c r="IV70" s="64"/>
       <c r="IW70" s="64"/>
     </row>
-    <row r="71" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="62" t="s">
         <v>148</v>
       </c>
@@ -13305,7 +13352,7 @@
       <c r="IV71" s="64"/>
       <c r="IW71" s="64"/>
     </row>
-    <row r="72" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="62" t="s">
         <v>149</v>
       </c>
@@ -13582,7 +13629,7 @@
       <c r="IV72" s="64"/>
       <c r="IW72" s="64"/>
     </row>
-    <row r="73" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="62" t="s">
         <v>150</v>
       </c>
@@ -13859,7 +13906,7 @@
       <c r="IV73" s="64"/>
       <c r="IW73" s="64"/>
     </row>
-    <row r="74" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="62" t="s">
         <v>151</v>
       </c>
@@ -14136,7 +14183,7 @@
       <c r="IV74" s="64"/>
       <c r="IW74" s="64"/>
     </row>
-    <row r="75" spans="1:257" s="65" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:257" s="65" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="62" t="s">
         <v>152</v>
       </c>
@@ -14413,7 +14460,7 @@
       <c r="IV75" s="64"/>
       <c r="IW75" s="64"/>
     </row>
-    <row r="76" spans="1:257" s="61" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="59" t="s">
         <v>153</v>
       </c>
@@ -14690,7 +14737,7 @@
       <c r="IV76" s="60"/>
       <c r="IW76" s="60"/>
     </row>
-    <row r="77" spans="1:257" s="61" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="59" t="s">
         <v>154</v>
       </c>
@@ -14967,7 +15014,7 @@
       <c r="IV77" s="60"/>
       <c r="IW77" s="60"/>
     </row>
-    <row r="78" spans="1:257" s="61" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="59" t="s">
         <v>143</v>
       </c>
@@ -15244,7 +15291,7 @@
       <c r="IV78" s="60"/>
       <c r="IW78" s="60"/>
     </row>
-    <row r="79" spans="1:257" s="61" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="59" t="s">
         <v>155</v>
       </c>
@@ -15521,7 +15568,7 @@
       <c r="IV79" s="60"/>
       <c r="IW79" s="60"/>
     </row>
-    <row r="80" spans="1:257" s="61" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="59" t="s">
         <v>156</v>
       </c>
@@ -15798,7 +15845,7 @@
       <c r="IV80" s="60"/>
       <c r="IW80" s="60"/>
     </row>
-    <row r="81" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="58" t="s">
         <v>175</v>
       </c>
@@ -15826,7 +15873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="58" t="s">
         <v>177</v>
       </c>
@@ -15854,7 +15901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="58" t="s">
         <v>179</v>
       </c>
@@ -15882,7 +15929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="58" t="s">
         <v>181</v>
       </c>
@@ -15910,7 +15957,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="58" t="s">
         <v>183</v>
       </c>
@@ -15938,7 +15985,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="58" t="s">
         <v>185</v>
       </c>
@@ -15966,7 +16013,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="58" t="s">
         <v>187</v>
       </c>
@@ -15994,7 +16041,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="58" t="s">
         <v>189</v>
       </c>
@@ -16022,7 +16069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="58" t="s">
         <v>191</v>
       </c>
@@ -16050,7 +16097,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="58" t="s">
         <v>193</v>
       </c>
@@ -16078,7 +16125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="58" t="s">
         <v>195</v>
       </c>
@@ -16106,7 +16153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="58" t="s">
         <v>197</v>
       </c>
@@ -16134,7 +16181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="58" t="s">
         <v>200</v>
       </c>
@@ -16162,7 +16209,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:10" ht="18" customHeight="1">
       <c r="A94" s="58" t="s">
         <v>201</v>
       </c>
@@ -16190,9 +16237,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="58" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B95" s="58" t="s">
         <v>11</v>
@@ -16218,7 +16265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="58" t="s">
         <v>205</v>
       </c>
@@ -16246,7 +16293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="58" t="s">
         <v>207</v>
       </c>
@@ -16274,130 +16321,242 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="58"/>
-      <c r="B98" s="58"/>
-      <c r="C98" s="58"/>
+    <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A98" s="95" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="95" t="s">
+        <v>211</v>
+      </c>
       <c r="D98" s="58"/>
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
+      <c r="E98" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="58">
+        <v>0</v>
+      </c>
+      <c r="H98" s="58">
+        <v>1</v>
+      </c>
+      <c r="I98" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J98" s="95" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="99" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="58"/>
-      <c r="B99" s="58"/>
-      <c r="C99" s="58"/>
+    <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A99" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="B99" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="95" t="s">
+        <v>212</v>
+      </c>
       <c r="D99" s="58"/>
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
+      <c r="E99" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="58">
+        <v>0</v>
+      </c>
+      <c r="H99" s="58">
+        <v>1</v>
+      </c>
+      <c r="I99" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J99" s="95" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="100" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="58"/>
+    <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A100" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="95" t="s">
+        <v>214</v>
+      </c>
       <c r="D100" s="58"/>
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
+      <c r="E100" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="58">
+        <v>0</v>
+      </c>
+      <c r="H100" s="58">
+        <v>1</v>
+      </c>
+      <c r="I100" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J100" s="95" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="101" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="58"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="58"/>
+    <row r="101" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A101" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="95" t="s">
+        <v>216</v>
+      </c>
       <c r="D101" s="58"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
+      <c r="E101" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="58">
+        <v>0</v>
+      </c>
+      <c r="H101" s="58">
+        <v>1</v>
+      </c>
+      <c r="I101" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J101" s="95" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="102" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
+    <row r="102" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A102" s="95" t="s">
+        <v>219</v>
+      </c>
       <c r="B102" s="58"/>
-      <c r="C102" s="58"/>
+      <c r="C102" s="95" t="s">
+        <v>217</v>
+      </c>
       <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
+      <c r="E102" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="58">
+        <v>0</v>
+      </c>
+      <c r="H102" s="58">
+        <v>1</v>
+      </c>
+      <c r="I102" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J102" s="95" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="103" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="58"/>
+    <row r="103" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A103" s="95" t="s">
+        <v>220</v>
+      </c>
       <c r="B103" s="58"/>
-      <c r="C103" s="58"/>
+      <c r="C103" s="95" t="s">
+        <v>218</v>
+      </c>
       <c r="D103" s="58"/>
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
+      <c r="E103" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="58">
+        <v>0</v>
+      </c>
+      <c r="H103" s="58">
+        <v>1</v>
+      </c>
+      <c r="I103" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J103" s="95" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="104" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
+    <row r="104" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A104" s="95" t="s">
+        <v>221</v>
+      </c>
       <c r="B104" s="58"/>
-      <c r="C104" s="58"/>
+      <c r="C104" s="95" t="s">
+        <v>223</v>
+      </c>
       <c r="D104" s="58"/>
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
+      <c r="E104" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="58">
+        <v>0</v>
+      </c>
+      <c r="H104" s="58">
+        <v>1</v>
+      </c>
+      <c r="I104" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J104" s="95" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="105" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="B105" s="58"/>
-      <c r="C105" s="58"/>
-      <c r="D105" s="58"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
+    <row r="105" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="106" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="107" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="108" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="109" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="110" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="111" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="112" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="113" spans="3:3" ht="17.100000000000001" customHeight="1">
+      <c r="C113" s="96" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="106" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="17" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="115" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="116" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="117" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="118" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="119" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="120" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="121" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="122" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="123" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="124" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="125" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="126" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="127" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="128" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="129" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;P</oddFooter>
   </headerFooter>
@@ -16412,17 +16571,17 @@
       <selection activeCell="A63" sqref="A63:XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="257" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="257" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16454,7 +16613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -16484,7 +16643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.7" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -16514,7 +16673,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.7" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -16544,7 +16703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.7" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -16574,7 +16733,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13.7" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -16604,7 +16763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13.7" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -16634,7 +16793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13.7" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -16664,7 +16823,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="13.7" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
@@ -16696,7 +16855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="13.7" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -16728,7 +16887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="13.7" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
@@ -16760,7 +16919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="13.7" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -16789,7 +16948,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13.7" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -16819,7 +16978,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13.7" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -16846,7 +17005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13.7" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -16873,7 +17032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>43</v>
       </c>
@@ -16905,7 +17064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -16937,7 +17096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>47</v>
       </c>
@@ -16969,7 +17128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
@@ -16999,7 +17158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>51</v>
       </c>
@@ -17029,7 +17188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>53</v>
       </c>
@@ -17056,7 +17215,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="13.7" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -17088,7 +17247,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="13.7" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -17120,7 +17279,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" s="29" t="s">
         <v>60</v>
       </c>
@@ -17152,7 +17311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="29" t="s">
         <v>62</v>
       </c>
@@ -17184,7 +17343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="29" t="s">
         <v>133</v>
       </c>
@@ -17216,7 +17375,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>64</v>
       </c>
@@ -17248,7 +17407,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="29" t="s">
         <v>66</v>
       </c>
@@ -17280,7 +17439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="29" t="s">
         <v>68</v>
       </c>
@@ -17312,7 +17471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>70</v>
       </c>
@@ -17344,7 +17503,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="29" t="s">
         <v>72</v>
       </c>
@@ -17376,7 +17535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="29" t="s">
         <v>73</v>
       </c>
@@ -17408,7 +17567,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:257" ht="12.75" customHeight="1">
       <c r="A33" s="29" t="s">
         <v>74</v>
       </c>
@@ -17440,7 +17599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" ht="12.75" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>75</v>
       </c>
@@ -17472,7 +17631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:257" ht="12.75" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>76</v>
       </c>
@@ -17504,7 +17663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:257" ht="12.75" customHeight="1">
       <c r="A36" s="29" t="s">
         <v>77</v>
       </c>
@@ -17534,7 +17693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:257" ht="12.75" customHeight="1">
       <c r="A37" s="29" t="s">
         <v>79</v>
       </c>
@@ -17564,7 +17723,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:257" ht="12.75" customHeight="1">
       <c r="A38" s="29" t="s">
         <v>81</v>
       </c>
@@ -17594,7 +17753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" ht="12.75" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>83</v>
       </c>
@@ -17624,7 +17783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" ht="12.75" customHeight="1">
       <c r="A40" s="29" t="s">
         <v>85</v>
       </c>
@@ -17654,7 +17813,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:257" ht="12.75" customHeight="1">
       <c r="A41" s="29" t="s">
         <v>87</v>
       </c>
@@ -17684,7 +17843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:257" ht="12.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>89</v>
       </c>
@@ -17714,7 +17873,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:257" ht="12.75" customHeight="1">
       <c r="A43" s="29" t="s">
         <v>91</v>
       </c>
@@ -17744,7 +17903,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:257" ht="12.75" customHeight="1">
       <c r="A44" s="29" t="s">
         <v>92</v>
       </c>
@@ -17774,7 +17933,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:257" ht="12.75" customHeight="1">
       <c r="A45" s="35" t="s">
         <v>94</v>
       </c>
@@ -17804,7 +17963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:257" ht="12.75" customHeight="1">
       <c r="A46" s="41" t="s">
         <v>97</v>
       </c>
@@ -18081,7 +18240,7 @@
       <c r="IV46" s="55"/>
       <c r="IW46" s="55"/>
     </row>
-    <row r="47" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:257" ht="12.75" customHeight="1">
       <c r="A47" s="46" t="s">
         <v>77</v>
       </c>
@@ -18356,7 +18515,7 @@
       <c r="IV47" s="55"/>
       <c r="IW47" s="55"/>
     </row>
-    <row r="48" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:257" ht="12.75" customHeight="1">
       <c r="A48" s="46" t="s">
         <v>79</v>
       </c>
@@ -18631,7 +18790,7 @@
       <c r="IV48" s="55"/>
       <c r="IW48" s="55"/>
     </row>
-    <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:257" ht="12.75" customHeight="1">
       <c r="A49" s="46" t="s">
         <v>81</v>
       </c>
@@ -18906,7 +19065,7 @@
       <c r="IV49" s="55"/>
       <c r="IW49" s="55"/>
     </row>
-    <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:257" ht="12.75" customHeight="1">
       <c r="A50" s="46" t="s">
         <v>83</v>
       </c>
@@ -19181,7 +19340,7 @@
       <c r="IV50" s="55"/>
       <c r="IW50" s="55"/>
     </row>
-    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:257" ht="12.75" customHeight="1">
       <c r="A51" s="46" t="s">
         <v>101</v>
       </c>
@@ -19456,7 +19615,7 @@
       <c r="IV51" s="55"/>
       <c r="IW51" s="55"/>
     </row>
-    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:257" ht="12.75" customHeight="1">
       <c r="A52" s="46" t="s">
         <v>102</v>
       </c>
@@ -19731,7 +19890,7 @@
       <c r="IV52" s="55"/>
       <c r="IW52" s="55"/>
     </row>
-    <row r="53" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:257" ht="12.75" customHeight="1">
       <c r="A53" s="46" t="s">
         <v>104</v>
       </c>
@@ -20006,7 +20165,7 @@
       <c r="IV53" s="55"/>
       <c r="IW53" s="55"/>
     </row>
-    <row r="54" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:257" ht="12.75" customHeight="1">
       <c r="A54" s="46" t="s">
         <v>106</v>
       </c>
@@ -20281,7 +20440,7 @@
       <c r="IV54" s="55"/>
       <c r="IW54" s="55"/>
     </row>
-    <row r="55" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:257" ht="12.75" customHeight="1">
       <c r="A55" s="46" t="s">
         <v>108</v>
       </c>
@@ -20556,7 +20715,7 @@
       <c r="IV55" s="55"/>
       <c r="IW55" s="55"/>
     </row>
-    <row r="56" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:257" ht="12.75" customHeight="1">
       <c r="A56" s="35" t="s">
         <v>22</v>
       </c>
@@ -20588,7 +20747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:257" ht="12.75" customHeight="1">
       <c r="A57" s="35" t="s">
         <v>111</v>
       </c>
@@ -20615,7 +20774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:257" ht="12.75" customHeight="1">
       <c r="A58" s="35" t="s">
         <v>117</v>
       </c>
@@ -20642,7 +20801,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:257" ht="12.75" customHeight="1">
       <c r="A59" s="35" t="s">
         <v>113</v>
       </c>
@@ -20669,7 +20828,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:257" ht="12.75" customHeight="1">
       <c r="A60" s="35" t="s">
         <v>115</v>
       </c>
@@ -20699,7 +20858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:257" ht="12.75" customHeight="1">
       <c r="A61" s="37" t="s">
         <v>119</v>
       </c>
@@ -20731,7 +20890,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:257" ht="12.75" customHeight="1">
       <c r="A62" s="35" t="s">
         <v>120</v>
       </c>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Home/Documents/oscar-web/db/support/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EE9AFA-6490-304F-AC1A-17C4312ABD51}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276ED3A-5BE9-4851-A7F6-5B51A532A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="29380" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="1050" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="144">
   <si>
     <t>name</t>
   </si>
@@ -456,12 +456,15 @@
   <si>
     <t>View Screening Assessment</t>
   </si>
+  <si>
+    <t>user</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1324,26 +1327,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW65"/>
+  <dimension ref="A1:IW67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="257" width="8.83203125" style="1"/>
+    <col min="6" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="257" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.7" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.7" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.7" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1483,7 +1486,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13.7" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13.7" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13.7" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="13.7" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="13.7" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -1625,7 +1628,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="13.7" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="13.7" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -1683,7 +1686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13.7" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13.7" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13.7" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -1764,7 +1767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>43</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:257" ht="15" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:257" ht="15" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>47</v>
       </c>
@@ -1852,7 +1855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:257" ht="15" customHeight="1">
       <c r="A19" s="23" t="s">
         <v>138</v>
       </c>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="IW19" s="25"/>
     </row>
-    <row r="20" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:257" ht="15" customHeight="1">
       <c r="A20" s="62" t="s">
         <v>136</v>
       </c>
@@ -2180,7 +2183,7 @@
       <c r="IV20"/>
       <c r="IW20"/>
     </row>
-    <row r="21" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:257" ht="15" customHeight="1">
       <c r="A21" s="62" t="s">
         <v>141</v>
       </c>
@@ -2455,7 +2458,7 @@
       <c r="IV21"/>
       <c r="IW21"/>
     </row>
-    <row r="22" spans="1:257" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:257" ht="15" customHeight="1">
       <c r="A22" s="26" t="s">
         <v>51</v>
       </c>
@@ -2483,7 +2486,7 @@
       </c>
       <c r="K22" s="25"/>
     </row>
-    <row r="23" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:257" ht="13.7" customHeight="1">
       <c r="A23" s="26" t="s">
         <v>53</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:257" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:257" ht="13.7" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>55</v>
       </c>
@@ -2539,7 +2542,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:257" ht="12.75" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:257" ht="12.75" customHeight="1">
       <c r="A26" s="29" t="s">
         <v>60</v>
       </c>
@@ -2597,7 +2600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:257" ht="12.75" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>62</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:257" ht="12.75" customHeight="1">
       <c r="A28" s="29" t="s">
         <v>64</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:257" ht="12.75" customHeight="1">
       <c r="A29" s="29" t="s">
         <v>66</v>
       </c>
@@ -2684,7 +2687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:257" ht="12.75" customHeight="1">
       <c r="A30" s="29" t="s">
         <v>68</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:257" ht="12.75" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:257" ht="12.75" customHeight="1">
       <c r="A32" s="29" t="s">
         <v>72</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:257" ht="12.75" customHeight="1">
       <c r="A33" s="29" t="s">
         <v>73</v>
       </c>
@@ -2800,7 +2803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:257" s="1" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" s="1" customFormat="1" hidden="1">
       <c r="A34" s="29" t="s">
         <v>74</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:257" ht="12.75" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>75</v>
       </c>
@@ -3105,7 +3108,7 @@
       <c r="IV35"/>
       <c r="IW35"/>
     </row>
-    <row r="36" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:257" ht="12.75" customHeight="1">
       <c r="A36" s="29" t="s">
         <v>76</v>
       </c>
@@ -3381,7 +3384,7 @@
       <c r="IV36"/>
       <c r="IW36"/>
     </row>
-    <row r="37" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:257" ht="12.75" customHeight="1">
       <c r="A37" s="29" t="s">
         <v>77</v>
       </c>
@@ -3657,7 +3660,7 @@
       <c r="IV37"/>
       <c r="IW37"/>
     </row>
-    <row r="38" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:257" ht="12.75" customHeight="1">
       <c r="A38" s="29" t="s">
         <v>79</v>
       </c>
@@ -3933,7 +3936,7 @@
       <c r="IV38"/>
       <c r="IW38"/>
     </row>
-    <row r="39" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" ht="12.75" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>81</v>
       </c>
@@ -4209,7 +4212,7 @@
       <c r="IV39"/>
       <c r="IW39"/>
     </row>
-    <row r="40" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" ht="12.75" customHeight="1">
       <c r="A40" s="29" t="s">
         <v>83</v>
       </c>
@@ -4485,7 +4488,7 @@
       <c r="IV40"/>
       <c r="IW40"/>
     </row>
-    <row r="41" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:257" ht="12.75" customHeight="1">
       <c r="A41" s="29" t="s">
         <v>85</v>
       </c>
@@ -4761,7 +4764,7 @@
       <c r="IV41"/>
       <c r="IW41"/>
     </row>
-    <row r="42" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:257" ht="12.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>87</v>
       </c>
@@ -5037,7 +5040,7 @@
       <c r="IV42"/>
       <c r="IW42"/>
     </row>
-    <row r="43" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:257" ht="12.75" customHeight="1">
       <c r="A43" s="29" t="s">
         <v>89</v>
       </c>
@@ -5313,7 +5316,7 @@
       <c r="IV43"/>
       <c r="IW43"/>
     </row>
-    <row r="44" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:257" ht="12.75" customHeight="1">
       <c r="A44" s="29" t="s">
         <v>91</v>
       </c>
@@ -5589,7 +5592,7 @@
       <c r="IV44"/>
       <c r="IW44"/>
     </row>
-    <row r="45" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:257" ht="12.75" customHeight="1">
       <c r="A45" s="29" t="s">
         <v>92</v>
       </c>
@@ -5865,7 +5868,7 @@
       <c r="IV45"/>
       <c r="IW45"/>
     </row>
-    <row r="46" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:257" ht="12.75" customHeight="1">
       <c r="A46" s="35" t="s">
         <v>94</v>
       </c>
@@ -6140,7 +6143,7 @@
       <c r="IV46"/>
       <c r="IW46"/>
     </row>
-    <row r="47" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:257" ht="12.75" customHeight="1">
       <c r="A47" s="41" t="s">
         <v>97</v>
       </c>
@@ -6417,7 +6420,7 @@
       <c r="IV47"/>
       <c r="IW47"/>
     </row>
-    <row r="48" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:257" ht="12.75" customHeight="1">
       <c r="A48" s="46" t="s">
         <v>77</v>
       </c>
@@ -6692,7 +6695,7 @@
       <c r="IV48"/>
       <c r="IW48"/>
     </row>
-    <row r="49" spans="1:257" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:257" ht="11.1" customHeight="1">
       <c r="A49" s="46" t="s">
         <v>22</v>
       </c>
@@ -6967,7 +6970,7 @@
       <c r="IV49"/>
       <c r="IW49"/>
     </row>
-    <row r="50" spans="1:257" ht="11" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:257" ht="11.1" customHeight="1">
       <c r="A50" s="46" t="s">
         <v>0</v>
       </c>
@@ -7242,7 +7245,7 @@
       <c r="IV50"/>
       <c r="IW50"/>
     </row>
-    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:257" ht="12.75" customHeight="1">
       <c r="A51" s="46" t="s">
         <v>79</v>
       </c>
@@ -7517,7 +7520,7 @@
       <c r="IV51"/>
       <c r="IW51"/>
     </row>
-    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:257" ht="12.75" customHeight="1">
       <c r="A52" s="46" t="s">
         <v>81</v>
       </c>
@@ -7792,7 +7795,7 @@
       <c r="IV52"/>
       <c r="IW52"/>
     </row>
-    <row r="53" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:257" ht="12.75" customHeight="1">
       <c r="A53" s="46" t="s">
         <v>83</v>
       </c>
@@ -8067,7 +8070,7 @@
       <c r="IV53"/>
       <c r="IW53"/>
     </row>
-    <row r="54" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:257" ht="12.75" customHeight="1">
       <c r="A54" s="46" t="s">
         <v>101</v>
       </c>
@@ -8342,7 +8345,7 @@
       <c r="IV54"/>
       <c r="IW54"/>
     </row>
-    <row r="55" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:257" ht="12.75" customHeight="1">
       <c r="A55" s="46" t="s">
         <v>102</v>
       </c>
@@ -8617,7 +8620,7 @@
       <c r="IV55"/>
       <c r="IW55"/>
     </row>
-    <row r="56" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:257" ht="12.75" customHeight="1">
       <c r="A56" s="46" t="s">
         <v>104</v>
       </c>
@@ -8892,7 +8895,7 @@
       <c r="IV56"/>
       <c r="IW56"/>
     </row>
-    <row r="57" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:257" ht="12.75" customHeight="1">
       <c r="A57" s="46" t="s">
         <v>106</v>
       </c>
@@ -9167,7 +9170,7 @@
       <c r="IV57"/>
       <c r="IW57"/>
     </row>
-    <row r="58" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:257" ht="12.75" customHeight="1">
       <c r="A58" s="46" t="s">
         <v>108</v>
       </c>
@@ -9442,7 +9445,7 @@
       <c r="IV58"/>
       <c r="IW58"/>
     </row>
-    <row r="59" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:257" ht="12.75" customHeight="1">
       <c r="A59" s="35" t="s">
         <v>111</v>
       </c>
@@ -9716,7 +9719,7 @@
       <c r="IV59"/>
       <c r="IW59"/>
     </row>
-    <row r="60" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:257" ht="12.75" customHeight="1">
       <c r="A60" s="35" t="s">
         <v>113</v>
       </c>
@@ -9990,7 +9993,7 @@
       <c r="IV60"/>
       <c r="IW60"/>
     </row>
-    <row r="61" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:257" ht="12.75" customHeight="1">
       <c r="A61" s="61" t="s">
         <v>22</v>
       </c>
@@ -10264,7 +10267,7 @@
       <c r="IV61"/>
       <c r="IW61"/>
     </row>
-    <row r="62" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:257" ht="12.75" customHeight="1">
       <c r="A62" s="35" t="s">
         <v>115</v>
       </c>
@@ -10538,7 +10541,7 @@
       <c r="IV62"/>
       <c r="IW62"/>
     </row>
-    <row r="63" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:257" ht="12.75" customHeight="1">
       <c r="A63" s="35" t="s">
         <v>117</v>
       </c>
@@ -10812,7 +10815,7 @@
       <c r="IV63"/>
       <c r="IW63"/>
     </row>
-    <row r="64" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:257" ht="12.75" customHeight="1">
       <c r="A64" s="37" t="s">
         <v>119</v>
       </c>
@@ -11088,7 +11091,7 @@
       <c r="IV64"/>
       <c r="IW64"/>
     </row>
-    <row r="65" spans="1:257" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:257">
       <c r="A65" s="35" t="s">
         <v>120</v>
       </c>
@@ -11364,6 +11367,556 @@
       <c r="IV65"/>
       <c r="IW65"/>
     </row>
+    <row r="66" spans="1:257" ht="12.75" customHeight="1">
+      <c r="A66" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="20"/>
+      <c r="E66" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="F66" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="48">
+        <v>0</v>
+      </c>
+      <c r="H66" s="48">
+        <v>1</v>
+      </c>
+      <c r="I66" s="48"/>
+      <c r="J66" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+      <c r="AL66"/>
+      <c r="AM66"/>
+      <c r="AN66"/>
+      <c r="AO66"/>
+      <c r="AP66"/>
+      <c r="AQ66"/>
+      <c r="AR66"/>
+      <c r="AS66"/>
+      <c r="AT66"/>
+      <c r="AU66"/>
+      <c r="AV66"/>
+      <c r="AW66"/>
+      <c r="AX66"/>
+      <c r="AY66"/>
+      <c r="AZ66"/>
+      <c r="BA66"/>
+      <c r="BB66"/>
+      <c r="BC66"/>
+      <c r="BD66"/>
+      <c r="BE66"/>
+      <c r="BF66"/>
+      <c r="BG66"/>
+      <c r="BH66"/>
+      <c r="BI66"/>
+      <c r="BJ66"/>
+      <c r="BK66"/>
+      <c r="BL66"/>
+      <c r="BM66"/>
+      <c r="BN66"/>
+      <c r="BO66"/>
+      <c r="BP66"/>
+      <c r="BQ66"/>
+      <c r="BR66"/>
+      <c r="BS66"/>
+      <c r="BT66"/>
+      <c r="BU66"/>
+      <c r="BV66"/>
+      <c r="BW66"/>
+      <c r="BX66"/>
+      <c r="BY66"/>
+      <c r="BZ66"/>
+      <c r="CA66"/>
+      <c r="CB66"/>
+      <c r="CC66"/>
+      <c r="CD66"/>
+      <c r="CE66"/>
+      <c r="CF66"/>
+      <c r="CG66"/>
+      <c r="CH66"/>
+      <c r="CI66"/>
+      <c r="CJ66"/>
+      <c r="CK66"/>
+      <c r="CL66"/>
+      <c r="CM66"/>
+      <c r="CN66"/>
+      <c r="CO66"/>
+      <c r="CP66"/>
+      <c r="CQ66"/>
+      <c r="CR66"/>
+      <c r="CS66"/>
+      <c r="CT66"/>
+      <c r="CU66"/>
+      <c r="CV66"/>
+      <c r="CW66"/>
+      <c r="CX66"/>
+      <c r="CY66"/>
+      <c r="CZ66"/>
+      <c r="DA66"/>
+      <c r="DB66"/>
+      <c r="DC66"/>
+      <c r="DD66"/>
+      <c r="DE66"/>
+      <c r="DF66"/>
+      <c r="DG66"/>
+      <c r="DH66"/>
+      <c r="DI66"/>
+      <c r="DJ66"/>
+      <c r="DK66"/>
+      <c r="DL66"/>
+      <c r="DM66"/>
+      <c r="DN66"/>
+      <c r="DO66"/>
+      <c r="DP66"/>
+      <c r="DQ66"/>
+      <c r="DR66"/>
+      <c r="DS66"/>
+      <c r="DT66"/>
+      <c r="DU66"/>
+      <c r="DV66"/>
+      <c r="DW66"/>
+      <c r="DX66"/>
+      <c r="DY66"/>
+      <c r="DZ66"/>
+      <c r="EA66"/>
+      <c r="EB66"/>
+      <c r="EC66"/>
+      <c r="ED66"/>
+      <c r="EE66"/>
+      <c r="EF66"/>
+      <c r="EG66"/>
+      <c r="EH66"/>
+      <c r="EI66"/>
+      <c r="EJ66"/>
+      <c r="EK66"/>
+      <c r="EL66"/>
+      <c r="EM66"/>
+      <c r="EN66"/>
+      <c r="EO66"/>
+      <c r="EP66"/>
+      <c r="EQ66"/>
+      <c r="ER66"/>
+      <c r="ES66"/>
+      <c r="ET66"/>
+      <c r="EU66"/>
+      <c r="EV66"/>
+      <c r="EW66"/>
+      <c r="EX66"/>
+      <c r="EY66"/>
+      <c r="EZ66"/>
+      <c r="FA66"/>
+      <c r="FB66"/>
+      <c r="FC66"/>
+      <c r="FD66"/>
+      <c r="FE66"/>
+      <c r="FF66"/>
+      <c r="FG66"/>
+      <c r="FH66"/>
+      <c r="FI66"/>
+      <c r="FJ66"/>
+      <c r="FK66"/>
+      <c r="FL66"/>
+      <c r="FM66"/>
+      <c r="FN66"/>
+      <c r="FO66"/>
+      <c r="FP66"/>
+      <c r="FQ66"/>
+      <c r="FR66"/>
+      <c r="FS66"/>
+      <c r="FT66"/>
+      <c r="FU66"/>
+      <c r="FV66"/>
+      <c r="FW66"/>
+      <c r="FX66"/>
+      <c r="FY66"/>
+      <c r="FZ66"/>
+      <c r="GA66"/>
+      <c r="GB66"/>
+      <c r="GC66"/>
+      <c r="GD66"/>
+      <c r="GE66"/>
+      <c r="GF66"/>
+      <c r="GG66"/>
+      <c r="GH66"/>
+      <c r="GI66"/>
+      <c r="GJ66"/>
+      <c r="GK66"/>
+      <c r="GL66"/>
+      <c r="GM66"/>
+      <c r="GN66"/>
+      <c r="GO66"/>
+      <c r="GP66"/>
+      <c r="GQ66"/>
+      <c r="GR66"/>
+      <c r="GS66"/>
+      <c r="GT66"/>
+      <c r="GU66"/>
+      <c r="GV66"/>
+      <c r="GW66"/>
+      <c r="GX66"/>
+      <c r="GY66"/>
+      <c r="GZ66"/>
+      <c r="HA66"/>
+      <c r="HB66"/>
+      <c r="HC66"/>
+      <c r="HD66"/>
+      <c r="HE66"/>
+      <c r="HF66"/>
+      <c r="HG66"/>
+      <c r="HH66"/>
+      <c r="HI66"/>
+      <c r="HJ66"/>
+      <c r="HK66"/>
+      <c r="HL66"/>
+      <c r="HM66"/>
+      <c r="HN66"/>
+      <c r="HO66"/>
+      <c r="HP66"/>
+      <c r="HQ66"/>
+      <c r="HR66"/>
+      <c r="HS66"/>
+      <c r="HT66"/>
+      <c r="HU66"/>
+      <c r="HV66"/>
+      <c r="HW66"/>
+      <c r="HX66"/>
+      <c r="HY66"/>
+      <c r="HZ66"/>
+      <c r="IA66"/>
+      <c r="IB66"/>
+      <c r="IC66"/>
+      <c r="ID66"/>
+      <c r="IE66"/>
+      <c r="IF66"/>
+      <c r="IG66"/>
+      <c r="IH66"/>
+      <c r="II66"/>
+      <c r="IJ66"/>
+      <c r="IK66"/>
+      <c r="IL66"/>
+      <c r="IM66"/>
+      <c r="IN66"/>
+      <c r="IO66"/>
+      <c r="IP66"/>
+      <c r="IQ66"/>
+      <c r="IR66"/>
+      <c r="IS66"/>
+      <c r="IT66"/>
+      <c r="IU66"/>
+      <c r="IV66"/>
+      <c r="IW66"/>
+    </row>
+    <row r="67" spans="1:257" ht="12.75" customHeight="1">
+      <c r="A67" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="48">
+        <v>0</v>
+      </c>
+      <c r="H67" s="48">
+        <v>1</v>
+      </c>
+      <c r="I67" s="48"/>
+      <c r="J67" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+      <c r="AL67"/>
+      <c r="AM67"/>
+      <c r="AN67"/>
+      <c r="AO67"/>
+      <c r="AP67"/>
+      <c r="AQ67"/>
+      <c r="AR67"/>
+      <c r="AS67"/>
+      <c r="AT67"/>
+      <c r="AU67"/>
+      <c r="AV67"/>
+      <c r="AW67"/>
+      <c r="AX67"/>
+      <c r="AY67"/>
+      <c r="AZ67"/>
+      <c r="BA67"/>
+      <c r="BB67"/>
+      <c r="BC67"/>
+      <c r="BD67"/>
+      <c r="BE67"/>
+      <c r="BF67"/>
+      <c r="BG67"/>
+      <c r="BH67"/>
+      <c r="BI67"/>
+      <c r="BJ67"/>
+      <c r="BK67"/>
+      <c r="BL67"/>
+      <c r="BM67"/>
+      <c r="BN67"/>
+      <c r="BO67"/>
+      <c r="BP67"/>
+      <c r="BQ67"/>
+      <c r="BR67"/>
+      <c r="BS67"/>
+      <c r="BT67"/>
+      <c r="BU67"/>
+      <c r="BV67"/>
+      <c r="BW67"/>
+      <c r="BX67"/>
+      <c r="BY67"/>
+      <c r="BZ67"/>
+      <c r="CA67"/>
+      <c r="CB67"/>
+      <c r="CC67"/>
+      <c r="CD67"/>
+      <c r="CE67"/>
+      <c r="CF67"/>
+      <c r="CG67"/>
+      <c r="CH67"/>
+      <c r="CI67"/>
+      <c r="CJ67"/>
+      <c r="CK67"/>
+      <c r="CL67"/>
+      <c r="CM67"/>
+      <c r="CN67"/>
+      <c r="CO67"/>
+      <c r="CP67"/>
+      <c r="CQ67"/>
+      <c r="CR67"/>
+      <c r="CS67"/>
+      <c r="CT67"/>
+      <c r="CU67"/>
+      <c r="CV67"/>
+      <c r="CW67"/>
+      <c r="CX67"/>
+      <c r="CY67"/>
+      <c r="CZ67"/>
+      <c r="DA67"/>
+      <c r="DB67"/>
+      <c r="DC67"/>
+      <c r="DD67"/>
+      <c r="DE67"/>
+      <c r="DF67"/>
+      <c r="DG67"/>
+      <c r="DH67"/>
+      <c r="DI67"/>
+      <c r="DJ67"/>
+      <c r="DK67"/>
+      <c r="DL67"/>
+      <c r="DM67"/>
+      <c r="DN67"/>
+      <c r="DO67"/>
+      <c r="DP67"/>
+      <c r="DQ67"/>
+      <c r="DR67"/>
+      <c r="DS67"/>
+      <c r="DT67"/>
+      <c r="DU67"/>
+      <c r="DV67"/>
+      <c r="DW67"/>
+      <c r="DX67"/>
+      <c r="DY67"/>
+      <c r="DZ67"/>
+      <c r="EA67"/>
+      <c r="EB67"/>
+      <c r="EC67"/>
+      <c r="ED67"/>
+      <c r="EE67"/>
+      <c r="EF67"/>
+      <c r="EG67"/>
+      <c r="EH67"/>
+      <c r="EI67"/>
+      <c r="EJ67"/>
+      <c r="EK67"/>
+      <c r="EL67"/>
+      <c r="EM67"/>
+      <c r="EN67"/>
+      <c r="EO67"/>
+      <c r="EP67"/>
+      <c r="EQ67"/>
+      <c r="ER67"/>
+      <c r="ES67"/>
+      <c r="ET67"/>
+      <c r="EU67"/>
+      <c r="EV67"/>
+      <c r="EW67"/>
+      <c r="EX67"/>
+      <c r="EY67"/>
+      <c r="EZ67"/>
+      <c r="FA67"/>
+      <c r="FB67"/>
+      <c r="FC67"/>
+      <c r="FD67"/>
+      <c r="FE67"/>
+      <c r="FF67"/>
+      <c r="FG67"/>
+      <c r="FH67"/>
+      <c r="FI67"/>
+      <c r="FJ67"/>
+      <c r="FK67"/>
+      <c r="FL67"/>
+      <c r="FM67"/>
+      <c r="FN67"/>
+      <c r="FO67"/>
+      <c r="FP67"/>
+      <c r="FQ67"/>
+      <c r="FR67"/>
+      <c r="FS67"/>
+      <c r="FT67"/>
+      <c r="FU67"/>
+      <c r="FV67"/>
+      <c r="FW67"/>
+      <c r="FX67"/>
+      <c r="FY67"/>
+      <c r="FZ67"/>
+      <c r="GA67"/>
+      <c r="GB67"/>
+      <c r="GC67"/>
+      <c r="GD67"/>
+      <c r="GE67"/>
+      <c r="GF67"/>
+      <c r="GG67"/>
+      <c r="GH67"/>
+      <c r="GI67"/>
+      <c r="GJ67"/>
+      <c r="GK67"/>
+      <c r="GL67"/>
+      <c r="GM67"/>
+      <c r="GN67"/>
+      <c r="GO67"/>
+      <c r="GP67"/>
+      <c r="GQ67"/>
+      <c r="GR67"/>
+      <c r="GS67"/>
+      <c r="GT67"/>
+      <c r="GU67"/>
+      <c r="GV67"/>
+      <c r="GW67"/>
+      <c r="GX67"/>
+      <c r="GY67"/>
+      <c r="GZ67"/>
+      <c r="HA67"/>
+      <c r="HB67"/>
+      <c r="HC67"/>
+      <c r="HD67"/>
+      <c r="HE67"/>
+      <c r="HF67"/>
+      <c r="HG67"/>
+      <c r="HH67"/>
+      <c r="HI67"/>
+      <c r="HJ67"/>
+      <c r="HK67"/>
+      <c r="HL67"/>
+      <c r="HM67"/>
+      <c r="HN67"/>
+      <c r="HO67"/>
+      <c r="HP67"/>
+      <c r="HQ67"/>
+      <c r="HR67"/>
+      <c r="HS67"/>
+      <c r="HT67"/>
+      <c r="HU67"/>
+      <c r="HV67"/>
+      <c r="HW67"/>
+      <c r="HX67"/>
+      <c r="HY67"/>
+      <c r="HZ67"/>
+      <c r="IA67"/>
+      <c r="IB67"/>
+      <c r="IC67"/>
+      <c r="ID67"/>
+      <c r="IE67"/>
+      <c r="IF67"/>
+      <c r="IG67"/>
+      <c r="IH67"/>
+      <c r="II67"/>
+      <c r="IJ67"/>
+      <c r="IK67"/>
+      <c r="IL67"/>
+      <c r="IM67"/>
+      <c r="IN67"/>
+      <c r="IO67"/>
+      <c r="IP67"/>
+      <c r="IQ67"/>
+      <c r="IR67"/>
+      <c r="IS67"/>
+      <c r="IT67"/>
+      <c r="IU67"/>
+      <c r="IV67"/>
+      <c r="IW67"/>
+    </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -11381,17 +11934,17 @@
       <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28.5" style="1" customWidth="1"/>
-    <col min="2" max="4" width="26.5" style="1" customWidth="1"/>
-    <col min="5" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="1" customWidth="1"/>
-    <col min="11" max="257" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="26.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" customWidth="1"/>
+    <col min="11" max="257" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="17.45" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11423,7 +11976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="17.45" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -11453,7 +12006,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="13.7" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -11483,7 +12036,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="13.7" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -11513,7 +12066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="13.7" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -11543,7 +12096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="13.7" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -11573,7 +12126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="13.7" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -11603,7 +12156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="13.7" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>24</v>
       </c>
@@ -11633,7 +12186,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="13.7" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>26</v>
       </c>
@@ -11665,7 +12218,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="13.7" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
@@ -11697,7 +12250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="13.7" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>32</v>
       </c>
@@ -11729,7 +12282,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="13.7" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -11758,7 +12311,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="13.7" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -11788,7 +12341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="13.7" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
@@ -11815,7 +12368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="13.7" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
@@ -11842,7 +12395,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15" customHeight="1">
       <c r="A16" s="23" t="s">
         <v>43</v>
       </c>
@@ -11874,7 +12427,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>45</v>
       </c>
@@ -11906,7 +12459,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15" customHeight="1">
       <c r="A18" s="23" t="s">
         <v>47</v>
       </c>
@@ -11938,7 +12491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15" customHeight="1">
       <c r="A19" s="26" t="s">
         <v>49</v>
       </c>
@@ -11968,7 +12521,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15" customHeight="1">
       <c r="A20" s="26" t="s">
         <v>51</v>
       </c>
@@ -11998,7 +12551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15" customHeight="1">
       <c r="A21" s="26" t="s">
         <v>53</v>
       </c>
@@ -12025,7 +12578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="13.7" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>55</v>
       </c>
@@ -12057,7 +12610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="13.7" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
@@ -12089,7 +12642,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75" customHeight="1">
       <c r="A24" s="29" t="s">
         <v>60</v>
       </c>
@@ -12121,7 +12674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.75" customHeight="1">
       <c r="A25" s="29" t="s">
         <v>62</v>
       </c>
@@ -12153,7 +12706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.75" customHeight="1">
       <c r="A26" s="29" t="s">
         <v>133</v>
       </c>
@@ -12185,7 +12738,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="12.75" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>64</v>
       </c>
@@ -12217,7 +12770,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="12.75" customHeight="1">
       <c r="A28" s="29" t="s">
         <v>66</v>
       </c>
@@ -12249,7 +12802,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.75" customHeight="1">
       <c r="A29" s="29" t="s">
         <v>68</v>
       </c>
@@ -12281,7 +12834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="12.75" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>70</v>
       </c>
@@ -12313,7 +12866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.75" customHeight="1">
       <c r="A31" s="29" t="s">
         <v>72</v>
       </c>
@@ -12345,7 +12898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="12.75" customHeight="1">
       <c r="A32" s="29" t="s">
         <v>73</v>
       </c>
@@ -12377,7 +12930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:257" ht="12.75" customHeight="1">
       <c r="A33" s="29" t="s">
         <v>74</v>
       </c>
@@ -12409,7 +12962,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:257" ht="12.75" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>75</v>
       </c>
@@ -12441,7 +12994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:257" ht="12.75" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>76</v>
       </c>
@@ -12473,7 +13026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:257" ht="12.75" customHeight="1">
       <c r="A36" s="29" t="s">
         <v>77</v>
       </c>
@@ -12503,7 +13056,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:257" ht="12.75" customHeight="1">
       <c r="A37" s="29" t="s">
         <v>79</v>
       </c>
@@ -12533,7 +13086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:257" ht="12.75" customHeight="1">
       <c r="A38" s="29" t="s">
         <v>81</v>
       </c>
@@ -12563,7 +13116,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:257" ht="12.75" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>83</v>
       </c>
@@ -12593,7 +13146,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:257" ht="12.75" customHeight="1">
       <c r="A40" s="29" t="s">
         <v>85</v>
       </c>
@@ -12623,7 +13176,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:257" ht="12.75" customHeight="1">
       <c r="A41" s="29" t="s">
         <v>87</v>
       </c>
@@ -12653,7 +13206,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:257" ht="12.75" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>89</v>
       </c>
@@ -12683,7 +13236,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:257" ht="12.75" customHeight="1">
       <c r="A43" s="29" t="s">
         <v>91</v>
       </c>
@@ -12713,7 +13266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:257" ht="12.75" customHeight="1">
       <c r="A44" s="29" t="s">
         <v>92</v>
       </c>
@@ -12743,7 +13296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:257" ht="12.75" customHeight="1">
       <c r="A45" s="35" t="s">
         <v>94</v>
       </c>
@@ -12773,7 +13326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:257" ht="12.75" customHeight="1">
       <c r="A46" s="41" t="s">
         <v>97</v>
       </c>
@@ -13050,7 +13603,7 @@
       <c r="IV46" s="56"/>
       <c r="IW46" s="56"/>
     </row>
-    <row r="47" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:257" ht="12.75" customHeight="1">
       <c r="A47" s="46" t="s">
         <v>77</v>
       </c>
@@ -13325,7 +13878,7 @@
       <c r="IV47" s="56"/>
       <c r="IW47" s="56"/>
     </row>
-    <row r="48" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:257" ht="12.75" customHeight="1">
       <c r="A48" s="46" t="s">
         <v>79</v>
       </c>
@@ -13600,7 +14153,7 @@
       <c r="IV48" s="56"/>
       <c r="IW48" s="56"/>
     </row>
-    <row r="49" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:257" ht="12.75" customHeight="1">
       <c r="A49" s="46" t="s">
         <v>81</v>
       </c>
@@ -13875,7 +14428,7 @@
       <c r="IV49" s="56"/>
       <c r="IW49" s="56"/>
     </row>
-    <row r="50" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:257" ht="12.75" customHeight="1">
       <c r="A50" s="46" t="s">
         <v>83</v>
       </c>
@@ -14150,7 +14703,7 @@
       <c r="IV50" s="56"/>
       <c r="IW50" s="56"/>
     </row>
-    <row r="51" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:257" ht="12.75" customHeight="1">
       <c r="A51" s="46" t="s">
         <v>101</v>
       </c>
@@ -14425,7 +14978,7 @@
       <c r="IV51" s="56"/>
       <c r="IW51" s="56"/>
     </row>
-    <row r="52" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:257" ht="12.75" customHeight="1">
       <c r="A52" s="46" t="s">
         <v>102</v>
       </c>
@@ -14700,7 +15253,7 @@
       <c r="IV52" s="56"/>
       <c r="IW52" s="56"/>
     </row>
-    <row r="53" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:257" ht="12.75" customHeight="1">
       <c r="A53" s="46" t="s">
         <v>104</v>
       </c>
@@ -14975,7 +15528,7 @@
       <c r="IV53" s="56"/>
       <c r="IW53" s="56"/>
     </row>
-    <row r="54" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:257" ht="12.75" customHeight="1">
       <c r="A54" s="46" t="s">
         <v>106</v>
       </c>
@@ -15250,7 +15803,7 @@
       <c r="IV54" s="56"/>
       <c r="IW54" s="56"/>
     </row>
-    <row r="55" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:257" ht="12.75" customHeight="1">
       <c r="A55" s="46" t="s">
         <v>108</v>
       </c>
@@ -15525,7 +16078,7 @@
       <c r="IV55" s="56"/>
       <c r="IW55" s="56"/>
     </row>
-    <row r="56" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:257" ht="12.75" customHeight="1">
       <c r="A56" s="35" t="s">
         <v>22</v>
       </c>
@@ -15557,7 +16110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:257" ht="12.75" customHeight="1">
       <c r="A57" s="35" t="s">
         <v>111</v>
       </c>
@@ -15584,7 +16137,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:257" ht="12.75" customHeight="1">
       <c r="A58" s="35" t="s">
         <v>117</v>
       </c>
@@ -15611,7 +16164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:257" ht="12.75" customHeight="1">
       <c r="A59" s="35" t="s">
         <v>113</v>
       </c>
@@ -15638,7 +16191,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:257" ht="12.75" customHeight="1">
       <c r="A60" s="35" t="s">
         <v>115</v>
       </c>
@@ -15668,7 +16221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:257" ht="12.75" customHeight="1">
       <c r="A61" s="37" t="s">
         <v>119</v>
       </c>
@@ -15700,7 +16253,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="1:257" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:257" ht="12.75" customHeight="1">
       <c r="A62" s="35" t="s">
         <v>120</v>
       </c>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F276ED3A-5BE9-4851-A7F6-5B51A532A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351DE7B-6CB3-4A4C-B433-B0D943BD6D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31290" yWindow="1050" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="145">
   <si>
     <t>name</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>province</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1333,7 @@
   <dimension ref="A1:IW67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -11369,7 +11372,7 @@
     </row>
     <row r="66" spans="1:257" ht="12.75" customHeight="1">
       <c r="A66" s="46" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B66" s="47" t="s">
         <v>143</v>
@@ -11644,7 +11647,7 @@
     </row>
     <row r="67" spans="1:257" ht="12.75" customHeight="1">
       <c r="A67" s="46" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B67" s="47" t="s">
         <v>120</v>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663BEDF4-DAA3-4526-91E7-9A6209C600CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77575D9-7CA5-4FD3-A185-F371A8335D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31140" yWindow="1065" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="244">
   <si>
     <t>name</t>
   </si>
@@ -694,10 +694,70 @@
     <t>other_legal_doc_option</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>referral_date</t>
+  </si>
+  <si>
+    <t>Date of Internal Referral</t>
+  </si>
+  <si>
+    <t>internal_referral</t>
+  </si>
+  <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>client_name</t>
+  </si>
+  <si>
+    <t>Client Name</t>
+  </si>
+  <si>
+    <t>referred_from</t>
+  </si>
+  <si>
+    <t>Referral Form</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>Referred To</t>
+  </si>
+  <si>
+    <t>client_representing_problem</t>
+  </si>
+  <si>
+    <t>CLIENT’S PRESENTING PROBLEMS</t>
+  </si>
+  <si>
+    <t>emergency_note</t>
+  </si>
+  <si>
+    <t>NOTE: EMERGENCY/CRISIS NEEDS</t>
+  </si>
+  <si>
+    <t>referral_reason</t>
+  </si>
+  <si>
+    <t>referral_decision</t>
+  </si>
+  <si>
+    <t>REFERRAL DECISION (to be approved by case management supervisor)</t>
+  </si>
+  <si>
+    <t>File Upload</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -1219,7 +1279,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1607,8 +1668,8 @@
   </sheetPr>
   <dimension ref="A1:IW129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -16293,7 +16354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="97" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="58" t="s">
         <v>207</v>
       </c>
@@ -16321,7 +16382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="98" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="95" t="s">
         <v>210</v>
       </c>
@@ -16351,7 +16412,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="99" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="95" t="s">
         <v>203</v>
       </c>
@@ -16381,7 +16442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="100" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="95" t="s">
         <v>213</v>
       </c>
@@ -16411,7 +16472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="101" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="95" t="s">
         <v>215</v>
       </c>
@@ -16441,7 +16502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="102" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="95" t="s">
         <v>219</v>
       </c>
@@ -16469,7 +16530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="103" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="95" t="s">
         <v>220</v>
       </c>
@@ -16497,13 +16558,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="104" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="95" t="s">
         <v>221</v>
       </c>
       <c r="B104" s="58"/>
       <c r="C104" s="95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="95" t="s">
@@ -16525,34 +16586,3338 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="106" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="107" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="108" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="109" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="110" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="111" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="112" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="113" spans="3:3" ht="17.100000000000001" customHeight="1">
-      <c r="C113" s="96" t="s">
-        <v>222</v>
-      </c>
+    <row r="105" spans="1:257" ht="15.75" customHeight="1">
+      <c r="A105" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B105" s="78" t="s">
+        <v>224</v>
+      </c>
+      <c r="C105" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="57"/>
+      <c r="E105" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="81">
+        <v>0</v>
+      </c>
+      <c r="H105" s="81">
+        <v>1</v>
+      </c>
+      <c r="I105" s="96"/>
+      <c r="J105" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+      <c r="Y105"/>
+      <c r="Z105"/>
+      <c r="AA105"/>
+      <c r="AB105"/>
+      <c r="AC105"/>
+      <c r="AD105"/>
+      <c r="AE105"/>
+      <c r="AF105"/>
+      <c r="AG105"/>
+      <c r="AH105"/>
+      <c r="AI105"/>
+      <c r="AJ105"/>
+      <c r="AK105"/>
+      <c r="AL105"/>
+      <c r="AM105"/>
+      <c r="AN105"/>
+      <c r="AO105"/>
+      <c r="AP105"/>
+      <c r="AQ105"/>
+      <c r="AR105"/>
+      <c r="AS105"/>
+      <c r="AT105"/>
+      <c r="AU105"/>
+      <c r="AV105"/>
+      <c r="AW105"/>
+      <c r="AX105"/>
+      <c r="AY105"/>
+      <c r="AZ105"/>
+      <c r="BA105"/>
+      <c r="BB105"/>
+      <c r="BC105"/>
+      <c r="BD105"/>
+      <c r="BE105"/>
+      <c r="BF105"/>
+      <c r="BG105"/>
+      <c r="BH105"/>
+      <c r="BI105"/>
+      <c r="BJ105"/>
+      <c r="BK105"/>
+      <c r="BL105"/>
+      <c r="BM105"/>
+      <c r="BN105"/>
+      <c r="BO105"/>
+      <c r="BP105"/>
+      <c r="BQ105"/>
+      <c r="BR105"/>
+      <c r="BS105"/>
+      <c r="BT105"/>
+      <c r="BU105"/>
+      <c r="BV105"/>
+      <c r="BW105"/>
+      <c r="BX105"/>
+      <c r="BY105"/>
+      <c r="BZ105"/>
+      <c r="CA105"/>
+      <c r="CB105"/>
+      <c r="CC105"/>
+      <c r="CD105"/>
+      <c r="CE105"/>
+      <c r="CF105"/>
+      <c r="CG105"/>
+      <c r="CH105"/>
+      <c r="CI105"/>
+      <c r="CJ105"/>
+      <c r="CK105"/>
+      <c r="CL105"/>
+      <c r="CM105"/>
+      <c r="CN105"/>
+      <c r="CO105"/>
+      <c r="CP105"/>
+      <c r="CQ105"/>
+      <c r="CR105"/>
+      <c r="CS105"/>
+      <c r="CT105"/>
+      <c r="CU105"/>
+      <c r="CV105"/>
+      <c r="CW105"/>
+      <c r="CX105"/>
+      <c r="CY105"/>
+      <c r="CZ105"/>
+      <c r="DA105"/>
+      <c r="DB105"/>
+      <c r="DC105"/>
+      <c r="DD105"/>
+      <c r="DE105"/>
+      <c r="DF105"/>
+      <c r="DG105"/>
+      <c r="DH105"/>
+      <c r="DI105"/>
+      <c r="DJ105"/>
+      <c r="DK105"/>
+      <c r="DL105"/>
+      <c r="DM105"/>
+      <c r="DN105"/>
+      <c r="DO105"/>
+      <c r="DP105"/>
+      <c r="DQ105"/>
+      <c r="DR105"/>
+      <c r="DS105"/>
+      <c r="DT105"/>
+      <c r="DU105"/>
+      <c r="DV105"/>
+      <c r="DW105"/>
+      <c r="DX105"/>
+      <c r="DY105"/>
+      <c r="DZ105"/>
+      <c r="EA105"/>
+      <c r="EB105"/>
+      <c r="EC105"/>
+      <c r="ED105"/>
+      <c r="EE105"/>
+      <c r="EF105"/>
+      <c r="EG105"/>
+      <c r="EH105"/>
+      <c r="EI105"/>
+      <c r="EJ105"/>
+      <c r="EK105"/>
+      <c r="EL105"/>
+      <c r="EM105"/>
+      <c r="EN105"/>
+      <c r="EO105"/>
+      <c r="EP105"/>
+      <c r="EQ105"/>
+      <c r="ER105"/>
+      <c r="ES105"/>
+      <c r="ET105"/>
+      <c r="EU105"/>
+      <c r="EV105"/>
+      <c r="EW105"/>
+      <c r="EX105"/>
+      <c r="EY105"/>
+      <c r="EZ105"/>
+      <c r="FA105"/>
+      <c r="FB105"/>
+      <c r="FC105"/>
+      <c r="FD105"/>
+      <c r="FE105"/>
+      <c r="FF105"/>
+      <c r="FG105"/>
+      <c r="FH105"/>
+      <c r="FI105"/>
+      <c r="FJ105"/>
+      <c r="FK105"/>
+      <c r="FL105"/>
+      <c r="FM105"/>
+      <c r="FN105"/>
+      <c r="FO105"/>
+      <c r="FP105"/>
+      <c r="FQ105"/>
+      <c r="FR105"/>
+      <c r="FS105"/>
+      <c r="FT105"/>
+      <c r="FU105"/>
+      <c r="FV105"/>
+      <c r="FW105"/>
+      <c r="FX105"/>
+      <c r="FY105"/>
+      <c r="FZ105"/>
+      <c r="GA105"/>
+      <c r="GB105"/>
+      <c r="GC105"/>
+      <c r="GD105"/>
+      <c r="GE105"/>
+      <c r="GF105"/>
+      <c r="GG105"/>
+      <c r="GH105"/>
+      <c r="GI105"/>
+      <c r="GJ105"/>
+      <c r="GK105"/>
+      <c r="GL105"/>
+      <c r="GM105"/>
+      <c r="GN105"/>
+      <c r="GO105"/>
+      <c r="GP105"/>
+      <c r="GQ105"/>
+      <c r="GR105"/>
+      <c r="GS105"/>
+      <c r="GT105"/>
+      <c r="GU105"/>
+      <c r="GV105"/>
+      <c r="GW105"/>
+      <c r="GX105"/>
+      <c r="GY105"/>
+      <c r="GZ105"/>
+      <c r="HA105"/>
+      <c r="HB105"/>
+      <c r="HC105"/>
+      <c r="HD105"/>
+      <c r="HE105"/>
+      <c r="HF105"/>
+      <c r="HG105"/>
+      <c r="HH105"/>
+      <c r="HI105"/>
+      <c r="HJ105"/>
+      <c r="HK105"/>
+      <c r="HL105"/>
+      <c r="HM105"/>
+      <c r="HN105"/>
+      <c r="HO105"/>
+      <c r="HP105"/>
+      <c r="HQ105"/>
+      <c r="HR105"/>
+      <c r="HS105"/>
+      <c r="HT105"/>
+      <c r="HU105"/>
+      <c r="HV105"/>
+      <c r="HW105"/>
+      <c r="HX105"/>
+      <c r="HY105"/>
+      <c r="HZ105"/>
+      <c r="IA105"/>
+      <c r="IB105"/>
+      <c r="IC105"/>
+      <c r="ID105"/>
+      <c r="IE105"/>
+      <c r="IF105"/>
+      <c r="IG105"/>
+      <c r="IH105"/>
+      <c r="II105"/>
+      <c r="IJ105"/>
+      <c r="IK105"/>
+      <c r="IL105"/>
+      <c r="IM105"/>
+      <c r="IN105"/>
+      <c r="IO105"/>
+      <c r="IP105"/>
+      <c r="IQ105"/>
+      <c r="IR105"/>
+      <c r="IS105"/>
+      <c r="IT105"/>
+      <c r="IU105"/>
+      <c r="IV105"/>
+      <c r="IW105"/>
     </row>
-    <row r="114" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="115" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="116" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="117" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="118" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="119" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="120" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="121" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="122" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="123" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="124" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="125" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="126" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="127" spans="3:3" ht="17.100000000000001" customHeight="1"/>
-    <row r="128" spans="3:3" ht="17.100000000000001" customHeight="1"/>
+    <row r="106" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A106" s="78" t="s">
+        <v>223</v>
+      </c>
+      <c r="B106" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="D106" s="57"/>
+      <c r="E106" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="F106" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="81">
+        <v>0</v>
+      </c>
+      <c r="H106" s="81">
+        <v>1</v>
+      </c>
+      <c r="I106" s="96"/>
+      <c r="J106" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+      <c r="Y106"/>
+      <c r="Z106"/>
+      <c r="AA106"/>
+      <c r="AB106"/>
+      <c r="AC106"/>
+      <c r="AD106"/>
+      <c r="AE106"/>
+      <c r="AF106"/>
+      <c r="AG106"/>
+      <c r="AH106"/>
+      <c r="AI106"/>
+      <c r="AJ106"/>
+      <c r="AK106"/>
+      <c r="AL106"/>
+      <c r="AM106"/>
+      <c r="AN106"/>
+      <c r="AO106"/>
+      <c r="AP106"/>
+      <c r="AQ106"/>
+      <c r="AR106"/>
+      <c r="AS106"/>
+      <c r="AT106"/>
+      <c r="AU106"/>
+      <c r="AV106"/>
+      <c r="AW106"/>
+      <c r="AX106"/>
+      <c r="AY106"/>
+      <c r="AZ106"/>
+      <c r="BA106"/>
+      <c r="BB106"/>
+      <c r="BC106"/>
+      <c r="BD106"/>
+      <c r="BE106"/>
+      <c r="BF106"/>
+      <c r="BG106"/>
+      <c r="BH106"/>
+      <c r="BI106"/>
+      <c r="BJ106"/>
+      <c r="BK106"/>
+      <c r="BL106"/>
+      <c r="BM106"/>
+      <c r="BN106"/>
+      <c r="BO106"/>
+      <c r="BP106"/>
+      <c r="BQ106"/>
+      <c r="BR106"/>
+      <c r="BS106"/>
+      <c r="BT106"/>
+      <c r="BU106"/>
+      <c r="BV106"/>
+      <c r="BW106"/>
+      <c r="BX106"/>
+      <c r="BY106"/>
+      <c r="BZ106"/>
+      <c r="CA106"/>
+      <c r="CB106"/>
+      <c r="CC106"/>
+      <c r="CD106"/>
+      <c r="CE106"/>
+      <c r="CF106"/>
+      <c r="CG106"/>
+      <c r="CH106"/>
+      <c r="CI106"/>
+      <c r="CJ106"/>
+      <c r="CK106"/>
+      <c r="CL106"/>
+      <c r="CM106"/>
+      <c r="CN106"/>
+      <c r="CO106"/>
+      <c r="CP106"/>
+      <c r="CQ106"/>
+      <c r="CR106"/>
+      <c r="CS106"/>
+      <c r="CT106"/>
+      <c r="CU106"/>
+      <c r="CV106"/>
+      <c r="CW106"/>
+      <c r="CX106"/>
+      <c r="CY106"/>
+      <c r="CZ106"/>
+      <c r="DA106"/>
+      <c r="DB106"/>
+      <c r="DC106"/>
+      <c r="DD106"/>
+      <c r="DE106"/>
+      <c r="DF106"/>
+      <c r="DG106"/>
+      <c r="DH106"/>
+      <c r="DI106"/>
+      <c r="DJ106"/>
+      <c r="DK106"/>
+      <c r="DL106"/>
+      <c r="DM106"/>
+      <c r="DN106"/>
+      <c r="DO106"/>
+      <c r="DP106"/>
+      <c r="DQ106"/>
+      <c r="DR106"/>
+      <c r="DS106"/>
+      <c r="DT106"/>
+      <c r="DU106"/>
+      <c r="DV106"/>
+      <c r="DW106"/>
+      <c r="DX106"/>
+      <c r="DY106"/>
+      <c r="DZ106"/>
+      <c r="EA106"/>
+      <c r="EB106"/>
+      <c r="EC106"/>
+      <c r="ED106"/>
+      <c r="EE106"/>
+      <c r="EF106"/>
+      <c r="EG106"/>
+      <c r="EH106"/>
+      <c r="EI106"/>
+      <c r="EJ106"/>
+      <c r="EK106"/>
+      <c r="EL106"/>
+      <c r="EM106"/>
+      <c r="EN106"/>
+      <c r="EO106"/>
+      <c r="EP106"/>
+      <c r="EQ106"/>
+      <c r="ER106"/>
+      <c r="ES106"/>
+      <c r="ET106"/>
+      <c r="EU106"/>
+      <c r="EV106"/>
+      <c r="EW106"/>
+      <c r="EX106"/>
+      <c r="EY106"/>
+      <c r="EZ106"/>
+      <c r="FA106"/>
+      <c r="FB106"/>
+      <c r="FC106"/>
+      <c r="FD106"/>
+      <c r="FE106"/>
+      <c r="FF106"/>
+      <c r="FG106"/>
+      <c r="FH106"/>
+      <c r="FI106"/>
+      <c r="FJ106"/>
+      <c r="FK106"/>
+      <c r="FL106"/>
+      <c r="FM106"/>
+      <c r="FN106"/>
+      <c r="FO106"/>
+      <c r="FP106"/>
+      <c r="FQ106"/>
+      <c r="FR106"/>
+      <c r="FS106"/>
+      <c r="FT106"/>
+      <c r="FU106"/>
+      <c r="FV106"/>
+      <c r="FW106"/>
+      <c r="FX106"/>
+      <c r="FY106"/>
+      <c r="FZ106"/>
+      <c r="GA106"/>
+      <c r="GB106"/>
+      <c r="GC106"/>
+      <c r="GD106"/>
+      <c r="GE106"/>
+      <c r="GF106"/>
+      <c r="GG106"/>
+      <c r="GH106"/>
+      <c r="GI106"/>
+      <c r="GJ106"/>
+      <c r="GK106"/>
+      <c r="GL106"/>
+      <c r="GM106"/>
+      <c r="GN106"/>
+      <c r="GO106"/>
+      <c r="GP106"/>
+      <c r="GQ106"/>
+      <c r="GR106"/>
+      <c r="GS106"/>
+      <c r="GT106"/>
+      <c r="GU106"/>
+      <c r="GV106"/>
+      <c r="GW106"/>
+      <c r="GX106"/>
+      <c r="GY106"/>
+      <c r="GZ106"/>
+      <c r="HA106"/>
+      <c r="HB106"/>
+      <c r="HC106"/>
+      <c r="HD106"/>
+      <c r="HE106"/>
+      <c r="HF106"/>
+      <c r="HG106"/>
+      <c r="HH106"/>
+      <c r="HI106"/>
+      <c r="HJ106"/>
+      <c r="HK106"/>
+      <c r="HL106"/>
+      <c r="HM106"/>
+      <c r="HN106"/>
+      <c r="HO106"/>
+      <c r="HP106"/>
+      <c r="HQ106"/>
+      <c r="HR106"/>
+      <c r="HS106"/>
+      <c r="HT106"/>
+      <c r="HU106"/>
+      <c r="HV106"/>
+      <c r="HW106"/>
+      <c r="HX106"/>
+      <c r="HY106"/>
+      <c r="HZ106"/>
+      <c r="IA106"/>
+      <c r="IB106"/>
+      <c r="IC106"/>
+      <c r="ID106"/>
+      <c r="IE106"/>
+      <c r="IF106"/>
+      <c r="IG106"/>
+      <c r="IH106"/>
+      <c r="II106"/>
+      <c r="IJ106"/>
+      <c r="IK106"/>
+      <c r="IL106"/>
+      <c r="IM106"/>
+      <c r="IN106"/>
+      <c r="IO106"/>
+      <c r="IP106"/>
+      <c r="IQ106"/>
+      <c r="IR106"/>
+      <c r="IS106"/>
+      <c r="IT106"/>
+      <c r="IU106"/>
+      <c r="IV106"/>
+      <c r="IW106"/>
+    </row>
+    <row r="107" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A107" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="B107" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D107" s="57"/>
+      <c r="E107" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F107" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="81">
+        <v>0</v>
+      </c>
+      <c r="H107" s="57">
+        <v>1</v>
+      </c>
+      <c r="I107" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J107" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107"/>
+      <c r="AI107"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
+      <c r="AL107"/>
+      <c r="AM107"/>
+      <c r="AN107"/>
+      <c r="AO107"/>
+      <c r="AP107"/>
+      <c r="AQ107"/>
+      <c r="AR107"/>
+      <c r="AS107"/>
+      <c r="AT107"/>
+      <c r="AU107"/>
+      <c r="AV107"/>
+      <c r="AW107"/>
+      <c r="AX107"/>
+      <c r="AY107"/>
+      <c r="AZ107"/>
+      <c r="BA107"/>
+      <c r="BB107"/>
+      <c r="BC107"/>
+      <c r="BD107"/>
+      <c r="BE107"/>
+      <c r="BF107"/>
+      <c r="BG107"/>
+      <c r="BH107"/>
+      <c r="BI107"/>
+      <c r="BJ107"/>
+      <c r="BK107"/>
+      <c r="BL107"/>
+      <c r="BM107"/>
+      <c r="BN107"/>
+      <c r="BO107"/>
+      <c r="BP107"/>
+      <c r="BQ107"/>
+      <c r="BR107"/>
+      <c r="BS107"/>
+      <c r="BT107"/>
+      <c r="BU107"/>
+      <c r="BV107"/>
+      <c r="BW107"/>
+      <c r="BX107"/>
+      <c r="BY107"/>
+      <c r="BZ107"/>
+      <c r="CA107"/>
+      <c r="CB107"/>
+      <c r="CC107"/>
+      <c r="CD107"/>
+      <c r="CE107"/>
+      <c r="CF107"/>
+      <c r="CG107"/>
+      <c r="CH107"/>
+      <c r="CI107"/>
+      <c r="CJ107"/>
+      <c r="CK107"/>
+      <c r="CL107"/>
+      <c r="CM107"/>
+      <c r="CN107"/>
+      <c r="CO107"/>
+      <c r="CP107"/>
+      <c r="CQ107"/>
+      <c r="CR107"/>
+      <c r="CS107"/>
+      <c r="CT107"/>
+      <c r="CU107"/>
+      <c r="CV107"/>
+      <c r="CW107"/>
+      <c r="CX107"/>
+      <c r="CY107"/>
+      <c r="CZ107"/>
+      <c r="DA107"/>
+      <c r="DB107"/>
+      <c r="DC107"/>
+      <c r="DD107"/>
+      <c r="DE107"/>
+      <c r="DF107"/>
+      <c r="DG107"/>
+      <c r="DH107"/>
+      <c r="DI107"/>
+      <c r="DJ107"/>
+      <c r="DK107"/>
+      <c r="DL107"/>
+      <c r="DM107"/>
+      <c r="DN107"/>
+      <c r="DO107"/>
+      <c r="DP107"/>
+      <c r="DQ107"/>
+      <c r="DR107"/>
+      <c r="DS107"/>
+      <c r="DT107"/>
+      <c r="DU107"/>
+      <c r="DV107"/>
+      <c r="DW107"/>
+      <c r="DX107"/>
+      <c r="DY107"/>
+      <c r="DZ107"/>
+      <c r="EA107"/>
+      <c r="EB107"/>
+      <c r="EC107"/>
+      <c r="ED107"/>
+      <c r="EE107"/>
+      <c r="EF107"/>
+      <c r="EG107"/>
+      <c r="EH107"/>
+      <c r="EI107"/>
+      <c r="EJ107"/>
+      <c r="EK107"/>
+      <c r="EL107"/>
+      <c r="EM107"/>
+      <c r="EN107"/>
+      <c r="EO107"/>
+      <c r="EP107"/>
+      <c r="EQ107"/>
+      <c r="ER107"/>
+      <c r="ES107"/>
+      <c r="ET107"/>
+      <c r="EU107"/>
+      <c r="EV107"/>
+      <c r="EW107"/>
+      <c r="EX107"/>
+      <c r="EY107"/>
+      <c r="EZ107"/>
+      <c r="FA107"/>
+      <c r="FB107"/>
+      <c r="FC107"/>
+      <c r="FD107"/>
+      <c r="FE107"/>
+      <c r="FF107"/>
+      <c r="FG107"/>
+      <c r="FH107"/>
+      <c r="FI107"/>
+      <c r="FJ107"/>
+      <c r="FK107"/>
+      <c r="FL107"/>
+      <c r="FM107"/>
+      <c r="FN107"/>
+      <c r="FO107"/>
+      <c r="FP107"/>
+      <c r="FQ107"/>
+      <c r="FR107"/>
+      <c r="FS107"/>
+      <c r="FT107"/>
+      <c r="FU107"/>
+      <c r="FV107"/>
+      <c r="FW107"/>
+      <c r="FX107"/>
+      <c r="FY107"/>
+      <c r="FZ107"/>
+      <c r="GA107"/>
+      <c r="GB107"/>
+      <c r="GC107"/>
+      <c r="GD107"/>
+      <c r="GE107"/>
+      <c r="GF107"/>
+      <c r="GG107"/>
+      <c r="GH107"/>
+      <c r="GI107"/>
+      <c r="GJ107"/>
+      <c r="GK107"/>
+      <c r="GL107"/>
+      <c r="GM107"/>
+      <c r="GN107"/>
+      <c r="GO107"/>
+      <c r="GP107"/>
+      <c r="GQ107"/>
+      <c r="GR107"/>
+      <c r="GS107"/>
+      <c r="GT107"/>
+      <c r="GU107"/>
+      <c r="GV107"/>
+      <c r="GW107"/>
+      <c r="GX107"/>
+      <c r="GY107"/>
+      <c r="GZ107"/>
+      <c r="HA107"/>
+      <c r="HB107"/>
+      <c r="HC107"/>
+      <c r="HD107"/>
+      <c r="HE107"/>
+      <c r="HF107"/>
+      <c r="HG107"/>
+      <c r="HH107"/>
+      <c r="HI107"/>
+      <c r="HJ107"/>
+      <c r="HK107"/>
+      <c r="HL107"/>
+      <c r="HM107"/>
+      <c r="HN107"/>
+      <c r="HO107"/>
+      <c r="HP107"/>
+      <c r="HQ107"/>
+      <c r="HR107"/>
+      <c r="HS107"/>
+      <c r="HT107"/>
+      <c r="HU107"/>
+      <c r="HV107"/>
+      <c r="HW107"/>
+      <c r="HX107"/>
+      <c r="HY107"/>
+      <c r="HZ107"/>
+      <c r="IA107"/>
+      <c r="IB107"/>
+      <c r="IC107"/>
+      <c r="ID107"/>
+      <c r="IE107"/>
+      <c r="IF107"/>
+      <c r="IG107"/>
+      <c r="IH107"/>
+      <c r="II107"/>
+      <c r="IJ107"/>
+      <c r="IK107"/>
+      <c r="IL107"/>
+      <c r="IM107"/>
+      <c r="IN107"/>
+      <c r="IO107"/>
+      <c r="IP107"/>
+      <c r="IQ107"/>
+      <c r="IR107"/>
+      <c r="IS107"/>
+      <c r="IT107"/>
+      <c r="IU107"/>
+      <c r="IV107"/>
+      <c r="IW107"/>
+    </row>
+    <row r="108" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A108" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="D108" s="57"/>
+      <c r="E108" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F108" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="81">
+        <v>0</v>
+      </c>
+      <c r="H108" s="57">
+        <v>1</v>
+      </c>
+      <c r="I108" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J108" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108"/>
+      <c r="AA108"/>
+      <c r="AB108"/>
+      <c r="AC108"/>
+      <c r="AD108"/>
+      <c r="AE108"/>
+      <c r="AF108"/>
+      <c r="AG108"/>
+      <c r="AH108"/>
+      <c r="AI108"/>
+      <c r="AJ108"/>
+      <c r="AK108"/>
+      <c r="AL108"/>
+      <c r="AM108"/>
+      <c r="AN108"/>
+      <c r="AO108"/>
+      <c r="AP108"/>
+      <c r="AQ108"/>
+      <c r="AR108"/>
+      <c r="AS108"/>
+      <c r="AT108"/>
+      <c r="AU108"/>
+      <c r="AV108"/>
+      <c r="AW108"/>
+      <c r="AX108"/>
+      <c r="AY108"/>
+      <c r="AZ108"/>
+      <c r="BA108"/>
+      <c r="BB108"/>
+      <c r="BC108"/>
+      <c r="BD108"/>
+      <c r="BE108"/>
+      <c r="BF108"/>
+      <c r="BG108"/>
+      <c r="BH108"/>
+      <c r="BI108"/>
+      <c r="BJ108"/>
+      <c r="BK108"/>
+      <c r="BL108"/>
+      <c r="BM108"/>
+      <c r="BN108"/>
+      <c r="BO108"/>
+      <c r="BP108"/>
+      <c r="BQ108"/>
+      <c r="BR108"/>
+      <c r="BS108"/>
+      <c r="BT108"/>
+      <c r="BU108"/>
+      <c r="BV108"/>
+      <c r="BW108"/>
+      <c r="BX108"/>
+      <c r="BY108"/>
+      <c r="BZ108"/>
+      <c r="CA108"/>
+      <c r="CB108"/>
+      <c r="CC108"/>
+      <c r="CD108"/>
+      <c r="CE108"/>
+      <c r="CF108"/>
+      <c r="CG108"/>
+      <c r="CH108"/>
+      <c r="CI108"/>
+      <c r="CJ108"/>
+      <c r="CK108"/>
+      <c r="CL108"/>
+      <c r="CM108"/>
+      <c r="CN108"/>
+      <c r="CO108"/>
+      <c r="CP108"/>
+      <c r="CQ108"/>
+      <c r="CR108"/>
+      <c r="CS108"/>
+      <c r="CT108"/>
+      <c r="CU108"/>
+      <c r="CV108"/>
+      <c r="CW108"/>
+      <c r="CX108"/>
+      <c r="CY108"/>
+      <c r="CZ108"/>
+      <c r="DA108"/>
+      <c r="DB108"/>
+      <c r="DC108"/>
+      <c r="DD108"/>
+      <c r="DE108"/>
+      <c r="DF108"/>
+      <c r="DG108"/>
+      <c r="DH108"/>
+      <c r="DI108"/>
+      <c r="DJ108"/>
+      <c r="DK108"/>
+      <c r="DL108"/>
+      <c r="DM108"/>
+      <c r="DN108"/>
+      <c r="DO108"/>
+      <c r="DP108"/>
+      <c r="DQ108"/>
+      <c r="DR108"/>
+      <c r="DS108"/>
+      <c r="DT108"/>
+      <c r="DU108"/>
+      <c r="DV108"/>
+      <c r="DW108"/>
+      <c r="DX108"/>
+      <c r="DY108"/>
+      <c r="DZ108"/>
+      <c r="EA108"/>
+      <c r="EB108"/>
+      <c r="EC108"/>
+      <c r="ED108"/>
+      <c r="EE108"/>
+      <c r="EF108"/>
+      <c r="EG108"/>
+      <c r="EH108"/>
+      <c r="EI108"/>
+      <c r="EJ108"/>
+      <c r="EK108"/>
+      <c r="EL108"/>
+      <c r="EM108"/>
+      <c r="EN108"/>
+      <c r="EO108"/>
+      <c r="EP108"/>
+      <c r="EQ108"/>
+      <c r="ER108"/>
+      <c r="ES108"/>
+      <c r="ET108"/>
+      <c r="EU108"/>
+      <c r="EV108"/>
+      <c r="EW108"/>
+      <c r="EX108"/>
+      <c r="EY108"/>
+      <c r="EZ108"/>
+      <c r="FA108"/>
+      <c r="FB108"/>
+      <c r="FC108"/>
+      <c r="FD108"/>
+      <c r="FE108"/>
+      <c r="FF108"/>
+      <c r="FG108"/>
+      <c r="FH108"/>
+      <c r="FI108"/>
+      <c r="FJ108"/>
+      <c r="FK108"/>
+      <c r="FL108"/>
+      <c r="FM108"/>
+      <c r="FN108"/>
+      <c r="FO108"/>
+      <c r="FP108"/>
+      <c r="FQ108"/>
+      <c r="FR108"/>
+      <c r="FS108"/>
+      <c r="FT108"/>
+      <c r="FU108"/>
+      <c r="FV108"/>
+      <c r="FW108"/>
+      <c r="FX108"/>
+      <c r="FY108"/>
+      <c r="FZ108"/>
+      <c r="GA108"/>
+      <c r="GB108"/>
+      <c r="GC108"/>
+      <c r="GD108"/>
+      <c r="GE108"/>
+      <c r="GF108"/>
+      <c r="GG108"/>
+      <c r="GH108"/>
+      <c r="GI108"/>
+      <c r="GJ108"/>
+      <c r="GK108"/>
+      <c r="GL108"/>
+      <c r="GM108"/>
+      <c r="GN108"/>
+      <c r="GO108"/>
+      <c r="GP108"/>
+      <c r="GQ108"/>
+      <c r="GR108"/>
+      <c r="GS108"/>
+      <c r="GT108"/>
+      <c r="GU108"/>
+      <c r="GV108"/>
+      <c r="GW108"/>
+      <c r="GX108"/>
+      <c r="GY108"/>
+      <c r="GZ108"/>
+      <c r="HA108"/>
+      <c r="HB108"/>
+      <c r="HC108"/>
+      <c r="HD108"/>
+      <c r="HE108"/>
+      <c r="HF108"/>
+      <c r="HG108"/>
+      <c r="HH108"/>
+      <c r="HI108"/>
+      <c r="HJ108"/>
+      <c r="HK108"/>
+      <c r="HL108"/>
+      <c r="HM108"/>
+      <c r="HN108"/>
+      <c r="HO108"/>
+      <c r="HP108"/>
+      <c r="HQ108"/>
+      <c r="HR108"/>
+      <c r="HS108"/>
+      <c r="HT108"/>
+      <c r="HU108"/>
+      <c r="HV108"/>
+      <c r="HW108"/>
+      <c r="HX108"/>
+      <c r="HY108"/>
+      <c r="HZ108"/>
+      <c r="IA108"/>
+      <c r="IB108"/>
+      <c r="IC108"/>
+      <c r="ID108"/>
+      <c r="IE108"/>
+      <c r="IF108"/>
+      <c r="IG108"/>
+      <c r="IH108"/>
+      <c r="II108"/>
+      <c r="IJ108"/>
+      <c r="IK108"/>
+      <c r="IL108"/>
+      <c r="IM108"/>
+      <c r="IN108"/>
+      <c r="IO108"/>
+      <c r="IP108"/>
+      <c r="IQ108"/>
+      <c r="IR108"/>
+      <c r="IS108"/>
+      <c r="IT108"/>
+      <c r="IU108"/>
+      <c r="IV108"/>
+      <c r="IW108"/>
+    </row>
+    <row r="109" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A109" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="B109" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D109" s="57"/>
+      <c r="E109" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F109" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="81">
+        <v>0</v>
+      </c>
+      <c r="H109" s="57">
+        <v>1</v>
+      </c>
+      <c r="I109" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J109" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109"/>
+      <c r="AI109"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
+      <c r="AL109"/>
+      <c r="AM109"/>
+      <c r="AN109"/>
+      <c r="AO109"/>
+      <c r="AP109"/>
+      <c r="AQ109"/>
+      <c r="AR109"/>
+      <c r="AS109"/>
+      <c r="AT109"/>
+      <c r="AU109"/>
+      <c r="AV109"/>
+      <c r="AW109"/>
+      <c r="AX109"/>
+      <c r="AY109"/>
+      <c r="AZ109"/>
+      <c r="BA109"/>
+      <c r="BB109"/>
+      <c r="BC109"/>
+      <c r="BD109"/>
+      <c r="BE109"/>
+      <c r="BF109"/>
+      <c r="BG109"/>
+      <c r="BH109"/>
+      <c r="BI109"/>
+      <c r="BJ109"/>
+      <c r="BK109"/>
+      <c r="BL109"/>
+      <c r="BM109"/>
+      <c r="BN109"/>
+      <c r="BO109"/>
+      <c r="BP109"/>
+      <c r="BQ109"/>
+      <c r="BR109"/>
+      <c r="BS109"/>
+      <c r="BT109"/>
+      <c r="BU109"/>
+      <c r="BV109"/>
+      <c r="BW109"/>
+      <c r="BX109"/>
+      <c r="BY109"/>
+      <c r="BZ109"/>
+      <c r="CA109"/>
+      <c r="CB109"/>
+      <c r="CC109"/>
+      <c r="CD109"/>
+      <c r="CE109"/>
+      <c r="CF109"/>
+      <c r="CG109"/>
+      <c r="CH109"/>
+      <c r="CI109"/>
+      <c r="CJ109"/>
+      <c r="CK109"/>
+      <c r="CL109"/>
+      <c r="CM109"/>
+      <c r="CN109"/>
+      <c r="CO109"/>
+      <c r="CP109"/>
+      <c r="CQ109"/>
+      <c r="CR109"/>
+      <c r="CS109"/>
+      <c r="CT109"/>
+      <c r="CU109"/>
+      <c r="CV109"/>
+      <c r="CW109"/>
+      <c r="CX109"/>
+      <c r="CY109"/>
+      <c r="CZ109"/>
+      <c r="DA109"/>
+      <c r="DB109"/>
+      <c r="DC109"/>
+      <c r="DD109"/>
+      <c r="DE109"/>
+      <c r="DF109"/>
+      <c r="DG109"/>
+      <c r="DH109"/>
+      <c r="DI109"/>
+      <c r="DJ109"/>
+      <c r="DK109"/>
+      <c r="DL109"/>
+      <c r="DM109"/>
+      <c r="DN109"/>
+      <c r="DO109"/>
+      <c r="DP109"/>
+      <c r="DQ109"/>
+      <c r="DR109"/>
+      <c r="DS109"/>
+      <c r="DT109"/>
+      <c r="DU109"/>
+      <c r="DV109"/>
+      <c r="DW109"/>
+      <c r="DX109"/>
+      <c r="DY109"/>
+      <c r="DZ109"/>
+      <c r="EA109"/>
+      <c r="EB109"/>
+      <c r="EC109"/>
+      <c r="ED109"/>
+      <c r="EE109"/>
+      <c r="EF109"/>
+      <c r="EG109"/>
+      <c r="EH109"/>
+      <c r="EI109"/>
+      <c r="EJ109"/>
+      <c r="EK109"/>
+      <c r="EL109"/>
+      <c r="EM109"/>
+      <c r="EN109"/>
+      <c r="EO109"/>
+      <c r="EP109"/>
+      <c r="EQ109"/>
+      <c r="ER109"/>
+      <c r="ES109"/>
+      <c r="ET109"/>
+      <c r="EU109"/>
+      <c r="EV109"/>
+      <c r="EW109"/>
+      <c r="EX109"/>
+      <c r="EY109"/>
+      <c r="EZ109"/>
+      <c r="FA109"/>
+      <c r="FB109"/>
+      <c r="FC109"/>
+      <c r="FD109"/>
+      <c r="FE109"/>
+      <c r="FF109"/>
+      <c r="FG109"/>
+      <c r="FH109"/>
+      <c r="FI109"/>
+      <c r="FJ109"/>
+      <c r="FK109"/>
+      <c r="FL109"/>
+      <c r="FM109"/>
+      <c r="FN109"/>
+      <c r="FO109"/>
+      <c r="FP109"/>
+      <c r="FQ109"/>
+      <c r="FR109"/>
+      <c r="FS109"/>
+      <c r="FT109"/>
+      <c r="FU109"/>
+      <c r="FV109"/>
+      <c r="FW109"/>
+      <c r="FX109"/>
+      <c r="FY109"/>
+      <c r="FZ109"/>
+      <c r="GA109"/>
+      <c r="GB109"/>
+      <c r="GC109"/>
+      <c r="GD109"/>
+      <c r="GE109"/>
+      <c r="GF109"/>
+      <c r="GG109"/>
+      <c r="GH109"/>
+      <c r="GI109"/>
+      <c r="GJ109"/>
+      <c r="GK109"/>
+      <c r="GL109"/>
+      <c r="GM109"/>
+      <c r="GN109"/>
+      <c r="GO109"/>
+      <c r="GP109"/>
+      <c r="GQ109"/>
+      <c r="GR109"/>
+      <c r="GS109"/>
+      <c r="GT109"/>
+      <c r="GU109"/>
+      <c r="GV109"/>
+      <c r="GW109"/>
+      <c r="GX109"/>
+      <c r="GY109"/>
+      <c r="GZ109"/>
+      <c r="HA109"/>
+      <c r="HB109"/>
+      <c r="HC109"/>
+      <c r="HD109"/>
+      <c r="HE109"/>
+      <c r="HF109"/>
+      <c r="HG109"/>
+      <c r="HH109"/>
+      <c r="HI109"/>
+      <c r="HJ109"/>
+      <c r="HK109"/>
+      <c r="HL109"/>
+      <c r="HM109"/>
+      <c r="HN109"/>
+      <c r="HO109"/>
+      <c r="HP109"/>
+      <c r="HQ109"/>
+      <c r="HR109"/>
+      <c r="HS109"/>
+      <c r="HT109"/>
+      <c r="HU109"/>
+      <c r="HV109"/>
+      <c r="HW109"/>
+      <c r="HX109"/>
+      <c r="HY109"/>
+      <c r="HZ109"/>
+      <c r="IA109"/>
+      <c r="IB109"/>
+      <c r="IC109"/>
+      <c r="ID109"/>
+      <c r="IE109"/>
+      <c r="IF109"/>
+      <c r="IG109"/>
+      <c r="IH109"/>
+      <c r="II109"/>
+      <c r="IJ109"/>
+      <c r="IK109"/>
+      <c r="IL109"/>
+      <c r="IM109"/>
+      <c r="IN109"/>
+      <c r="IO109"/>
+      <c r="IP109"/>
+      <c r="IQ109"/>
+      <c r="IR109"/>
+      <c r="IS109"/>
+      <c r="IT109"/>
+      <c r="IU109"/>
+      <c r="IV109"/>
+      <c r="IW109"/>
+    </row>
+    <row r="110" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A110" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B110" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D110" s="57"/>
+      <c r="E110" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F110" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="81">
+        <v>0</v>
+      </c>
+      <c r="H110" s="57">
+        <v>1</v>
+      </c>
+      <c r="I110" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J110" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110"/>
+      <c r="AI110"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
+      <c r="AL110"/>
+      <c r="AM110"/>
+      <c r="AN110"/>
+      <c r="AO110"/>
+      <c r="AP110"/>
+      <c r="AQ110"/>
+      <c r="AR110"/>
+      <c r="AS110"/>
+      <c r="AT110"/>
+      <c r="AU110"/>
+      <c r="AV110"/>
+      <c r="AW110"/>
+      <c r="AX110"/>
+      <c r="AY110"/>
+      <c r="AZ110"/>
+      <c r="BA110"/>
+      <c r="BB110"/>
+      <c r="BC110"/>
+      <c r="BD110"/>
+      <c r="BE110"/>
+      <c r="BF110"/>
+      <c r="BG110"/>
+      <c r="BH110"/>
+      <c r="BI110"/>
+      <c r="BJ110"/>
+      <c r="BK110"/>
+      <c r="BL110"/>
+      <c r="BM110"/>
+      <c r="BN110"/>
+      <c r="BO110"/>
+      <c r="BP110"/>
+      <c r="BQ110"/>
+      <c r="BR110"/>
+      <c r="BS110"/>
+      <c r="BT110"/>
+      <c r="BU110"/>
+      <c r="BV110"/>
+      <c r="BW110"/>
+      <c r="BX110"/>
+      <c r="BY110"/>
+      <c r="BZ110"/>
+      <c r="CA110"/>
+      <c r="CB110"/>
+      <c r="CC110"/>
+      <c r="CD110"/>
+      <c r="CE110"/>
+      <c r="CF110"/>
+      <c r="CG110"/>
+      <c r="CH110"/>
+      <c r="CI110"/>
+      <c r="CJ110"/>
+      <c r="CK110"/>
+      <c r="CL110"/>
+      <c r="CM110"/>
+      <c r="CN110"/>
+      <c r="CO110"/>
+      <c r="CP110"/>
+      <c r="CQ110"/>
+      <c r="CR110"/>
+      <c r="CS110"/>
+      <c r="CT110"/>
+      <c r="CU110"/>
+      <c r="CV110"/>
+      <c r="CW110"/>
+      <c r="CX110"/>
+      <c r="CY110"/>
+      <c r="CZ110"/>
+      <c r="DA110"/>
+      <c r="DB110"/>
+      <c r="DC110"/>
+      <c r="DD110"/>
+      <c r="DE110"/>
+      <c r="DF110"/>
+      <c r="DG110"/>
+      <c r="DH110"/>
+      <c r="DI110"/>
+      <c r="DJ110"/>
+      <c r="DK110"/>
+      <c r="DL110"/>
+      <c r="DM110"/>
+      <c r="DN110"/>
+      <c r="DO110"/>
+      <c r="DP110"/>
+      <c r="DQ110"/>
+      <c r="DR110"/>
+      <c r="DS110"/>
+      <c r="DT110"/>
+      <c r="DU110"/>
+      <c r="DV110"/>
+      <c r="DW110"/>
+      <c r="DX110"/>
+      <c r="DY110"/>
+      <c r="DZ110"/>
+      <c r="EA110"/>
+      <c r="EB110"/>
+      <c r="EC110"/>
+      <c r="ED110"/>
+      <c r="EE110"/>
+      <c r="EF110"/>
+      <c r="EG110"/>
+      <c r="EH110"/>
+      <c r="EI110"/>
+      <c r="EJ110"/>
+      <c r="EK110"/>
+      <c r="EL110"/>
+      <c r="EM110"/>
+      <c r="EN110"/>
+      <c r="EO110"/>
+      <c r="EP110"/>
+      <c r="EQ110"/>
+      <c r="ER110"/>
+      <c r="ES110"/>
+      <c r="ET110"/>
+      <c r="EU110"/>
+      <c r="EV110"/>
+      <c r="EW110"/>
+      <c r="EX110"/>
+      <c r="EY110"/>
+      <c r="EZ110"/>
+      <c r="FA110"/>
+      <c r="FB110"/>
+      <c r="FC110"/>
+      <c r="FD110"/>
+      <c r="FE110"/>
+      <c r="FF110"/>
+      <c r="FG110"/>
+      <c r="FH110"/>
+      <c r="FI110"/>
+      <c r="FJ110"/>
+      <c r="FK110"/>
+      <c r="FL110"/>
+      <c r="FM110"/>
+      <c r="FN110"/>
+      <c r="FO110"/>
+      <c r="FP110"/>
+      <c r="FQ110"/>
+      <c r="FR110"/>
+      <c r="FS110"/>
+      <c r="FT110"/>
+      <c r="FU110"/>
+      <c r="FV110"/>
+      <c r="FW110"/>
+      <c r="FX110"/>
+      <c r="FY110"/>
+      <c r="FZ110"/>
+      <c r="GA110"/>
+      <c r="GB110"/>
+      <c r="GC110"/>
+      <c r="GD110"/>
+      <c r="GE110"/>
+      <c r="GF110"/>
+      <c r="GG110"/>
+      <c r="GH110"/>
+      <c r="GI110"/>
+      <c r="GJ110"/>
+      <c r="GK110"/>
+      <c r="GL110"/>
+      <c r="GM110"/>
+      <c r="GN110"/>
+      <c r="GO110"/>
+      <c r="GP110"/>
+      <c r="GQ110"/>
+      <c r="GR110"/>
+      <c r="GS110"/>
+      <c r="GT110"/>
+      <c r="GU110"/>
+      <c r="GV110"/>
+      <c r="GW110"/>
+      <c r="GX110"/>
+      <c r="GY110"/>
+      <c r="GZ110"/>
+      <c r="HA110"/>
+      <c r="HB110"/>
+      <c r="HC110"/>
+      <c r="HD110"/>
+      <c r="HE110"/>
+      <c r="HF110"/>
+      <c r="HG110"/>
+      <c r="HH110"/>
+      <c r="HI110"/>
+      <c r="HJ110"/>
+      <c r="HK110"/>
+      <c r="HL110"/>
+      <c r="HM110"/>
+      <c r="HN110"/>
+      <c r="HO110"/>
+      <c r="HP110"/>
+      <c r="HQ110"/>
+      <c r="HR110"/>
+      <c r="HS110"/>
+      <c r="HT110"/>
+      <c r="HU110"/>
+      <c r="HV110"/>
+      <c r="HW110"/>
+      <c r="HX110"/>
+      <c r="HY110"/>
+      <c r="HZ110"/>
+      <c r="IA110"/>
+      <c r="IB110"/>
+      <c r="IC110"/>
+      <c r="ID110"/>
+      <c r="IE110"/>
+      <c r="IF110"/>
+      <c r="IG110"/>
+      <c r="IH110"/>
+      <c r="II110"/>
+      <c r="IJ110"/>
+      <c r="IK110"/>
+      <c r="IL110"/>
+      <c r="IM110"/>
+      <c r="IN110"/>
+      <c r="IO110"/>
+      <c r="IP110"/>
+      <c r="IQ110"/>
+      <c r="IR110"/>
+      <c r="IS110"/>
+      <c r="IT110"/>
+      <c r="IU110"/>
+      <c r="IV110"/>
+      <c r="IW110"/>
+    </row>
+    <row r="111" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A111" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="B111" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D111" s="57"/>
+      <c r="E111" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F111" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="81">
+        <v>4</v>
+      </c>
+      <c r="H111" s="57">
+        <v>1</v>
+      </c>
+      <c r="I111" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J111" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+      <c r="Y111"/>
+      <c r="Z111"/>
+      <c r="AA111"/>
+      <c r="AB111"/>
+      <c r="AC111"/>
+      <c r="AD111"/>
+      <c r="AE111"/>
+      <c r="AF111"/>
+      <c r="AG111"/>
+      <c r="AH111"/>
+      <c r="AI111"/>
+      <c r="AJ111"/>
+      <c r="AK111"/>
+      <c r="AL111"/>
+      <c r="AM111"/>
+      <c r="AN111"/>
+      <c r="AO111"/>
+      <c r="AP111"/>
+      <c r="AQ111"/>
+      <c r="AR111"/>
+      <c r="AS111"/>
+      <c r="AT111"/>
+      <c r="AU111"/>
+      <c r="AV111"/>
+      <c r="AW111"/>
+      <c r="AX111"/>
+      <c r="AY111"/>
+      <c r="AZ111"/>
+      <c r="BA111"/>
+      <c r="BB111"/>
+      <c r="BC111"/>
+      <c r="BD111"/>
+      <c r="BE111"/>
+      <c r="BF111"/>
+      <c r="BG111"/>
+      <c r="BH111"/>
+      <c r="BI111"/>
+      <c r="BJ111"/>
+      <c r="BK111"/>
+      <c r="BL111"/>
+      <c r="BM111"/>
+      <c r="BN111"/>
+      <c r="BO111"/>
+      <c r="BP111"/>
+      <c r="BQ111"/>
+      <c r="BR111"/>
+      <c r="BS111"/>
+      <c r="BT111"/>
+      <c r="BU111"/>
+      <c r="BV111"/>
+      <c r="BW111"/>
+      <c r="BX111"/>
+      <c r="BY111"/>
+      <c r="BZ111"/>
+      <c r="CA111"/>
+      <c r="CB111"/>
+      <c r="CC111"/>
+      <c r="CD111"/>
+      <c r="CE111"/>
+      <c r="CF111"/>
+      <c r="CG111"/>
+      <c r="CH111"/>
+      <c r="CI111"/>
+      <c r="CJ111"/>
+      <c r="CK111"/>
+      <c r="CL111"/>
+      <c r="CM111"/>
+      <c r="CN111"/>
+      <c r="CO111"/>
+      <c r="CP111"/>
+      <c r="CQ111"/>
+      <c r="CR111"/>
+      <c r="CS111"/>
+      <c r="CT111"/>
+      <c r="CU111"/>
+      <c r="CV111"/>
+      <c r="CW111"/>
+      <c r="CX111"/>
+      <c r="CY111"/>
+      <c r="CZ111"/>
+      <c r="DA111"/>
+      <c r="DB111"/>
+      <c r="DC111"/>
+      <c r="DD111"/>
+      <c r="DE111"/>
+      <c r="DF111"/>
+      <c r="DG111"/>
+      <c r="DH111"/>
+      <c r="DI111"/>
+      <c r="DJ111"/>
+      <c r="DK111"/>
+      <c r="DL111"/>
+      <c r="DM111"/>
+      <c r="DN111"/>
+      <c r="DO111"/>
+      <c r="DP111"/>
+      <c r="DQ111"/>
+      <c r="DR111"/>
+      <c r="DS111"/>
+      <c r="DT111"/>
+      <c r="DU111"/>
+      <c r="DV111"/>
+      <c r="DW111"/>
+      <c r="DX111"/>
+      <c r="DY111"/>
+      <c r="DZ111"/>
+      <c r="EA111"/>
+      <c r="EB111"/>
+      <c r="EC111"/>
+      <c r="ED111"/>
+      <c r="EE111"/>
+      <c r="EF111"/>
+      <c r="EG111"/>
+      <c r="EH111"/>
+      <c r="EI111"/>
+      <c r="EJ111"/>
+      <c r="EK111"/>
+      <c r="EL111"/>
+      <c r="EM111"/>
+      <c r="EN111"/>
+      <c r="EO111"/>
+      <c r="EP111"/>
+      <c r="EQ111"/>
+      <c r="ER111"/>
+      <c r="ES111"/>
+      <c r="ET111"/>
+      <c r="EU111"/>
+      <c r="EV111"/>
+      <c r="EW111"/>
+      <c r="EX111"/>
+      <c r="EY111"/>
+      <c r="EZ111"/>
+      <c r="FA111"/>
+      <c r="FB111"/>
+      <c r="FC111"/>
+      <c r="FD111"/>
+      <c r="FE111"/>
+      <c r="FF111"/>
+      <c r="FG111"/>
+      <c r="FH111"/>
+      <c r="FI111"/>
+      <c r="FJ111"/>
+      <c r="FK111"/>
+      <c r="FL111"/>
+      <c r="FM111"/>
+      <c r="FN111"/>
+      <c r="FO111"/>
+      <c r="FP111"/>
+      <c r="FQ111"/>
+      <c r="FR111"/>
+      <c r="FS111"/>
+      <c r="FT111"/>
+      <c r="FU111"/>
+      <c r="FV111"/>
+      <c r="FW111"/>
+      <c r="FX111"/>
+      <c r="FY111"/>
+      <c r="FZ111"/>
+      <c r="GA111"/>
+      <c r="GB111"/>
+      <c r="GC111"/>
+      <c r="GD111"/>
+      <c r="GE111"/>
+      <c r="GF111"/>
+      <c r="GG111"/>
+      <c r="GH111"/>
+      <c r="GI111"/>
+      <c r="GJ111"/>
+      <c r="GK111"/>
+      <c r="GL111"/>
+      <c r="GM111"/>
+      <c r="GN111"/>
+      <c r="GO111"/>
+      <c r="GP111"/>
+      <c r="GQ111"/>
+      <c r="GR111"/>
+      <c r="GS111"/>
+      <c r="GT111"/>
+      <c r="GU111"/>
+      <c r="GV111"/>
+      <c r="GW111"/>
+      <c r="GX111"/>
+      <c r="GY111"/>
+      <c r="GZ111"/>
+      <c r="HA111"/>
+      <c r="HB111"/>
+      <c r="HC111"/>
+      <c r="HD111"/>
+      <c r="HE111"/>
+      <c r="HF111"/>
+      <c r="HG111"/>
+      <c r="HH111"/>
+      <c r="HI111"/>
+      <c r="HJ111"/>
+      <c r="HK111"/>
+      <c r="HL111"/>
+      <c r="HM111"/>
+      <c r="HN111"/>
+      <c r="HO111"/>
+      <c r="HP111"/>
+      <c r="HQ111"/>
+      <c r="HR111"/>
+      <c r="HS111"/>
+      <c r="HT111"/>
+      <c r="HU111"/>
+      <c r="HV111"/>
+      <c r="HW111"/>
+      <c r="HX111"/>
+      <c r="HY111"/>
+      <c r="HZ111"/>
+      <c r="IA111"/>
+      <c r="IB111"/>
+      <c r="IC111"/>
+      <c r="ID111"/>
+      <c r="IE111"/>
+      <c r="IF111"/>
+      <c r="IG111"/>
+      <c r="IH111"/>
+      <c r="II111"/>
+      <c r="IJ111"/>
+      <c r="IK111"/>
+      <c r="IL111"/>
+      <c r="IM111"/>
+      <c r="IN111"/>
+      <c r="IO111"/>
+      <c r="IP111"/>
+      <c r="IQ111"/>
+      <c r="IR111"/>
+      <c r="IS111"/>
+      <c r="IT111"/>
+      <c r="IU111"/>
+      <c r="IV111"/>
+      <c r="IW111"/>
+    </row>
+    <row r="112" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A112" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C112" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D112" s="57"/>
+      <c r="E112" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F112" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="81">
+        <v>0</v>
+      </c>
+      <c r="H112" s="57">
+        <v>1</v>
+      </c>
+      <c r="I112" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J112" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+      <c r="Y112"/>
+      <c r="Z112"/>
+      <c r="AA112"/>
+      <c r="AB112"/>
+      <c r="AC112"/>
+      <c r="AD112"/>
+      <c r="AE112"/>
+      <c r="AF112"/>
+      <c r="AG112"/>
+      <c r="AH112"/>
+      <c r="AI112"/>
+      <c r="AJ112"/>
+      <c r="AK112"/>
+      <c r="AL112"/>
+      <c r="AM112"/>
+      <c r="AN112"/>
+      <c r="AO112"/>
+      <c r="AP112"/>
+      <c r="AQ112"/>
+      <c r="AR112"/>
+      <c r="AS112"/>
+      <c r="AT112"/>
+      <c r="AU112"/>
+      <c r="AV112"/>
+      <c r="AW112"/>
+      <c r="AX112"/>
+      <c r="AY112"/>
+      <c r="AZ112"/>
+      <c r="BA112"/>
+      <c r="BB112"/>
+      <c r="BC112"/>
+      <c r="BD112"/>
+      <c r="BE112"/>
+      <c r="BF112"/>
+      <c r="BG112"/>
+      <c r="BH112"/>
+      <c r="BI112"/>
+      <c r="BJ112"/>
+      <c r="BK112"/>
+      <c r="BL112"/>
+      <c r="BM112"/>
+      <c r="BN112"/>
+      <c r="BO112"/>
+      <c r="BP112"/>
+      <c r="BQ112"/>
+      <c r="BR112"/>
+      <c r="BS112"/>
+      <c r="BT112"/>
+      <c r="BU112"/>
+      <c r="BV112"/>
+      <c r="BW112"/>
+      <c r="BX112"/>
+      <c r="BY112"/>
+      <c r="BZ112"/>
+      <c r="CA112"/>
+      <c r="CB112"/>
+      <c r="CC112"/>
+      <c r="CD112"/>
+      <c r="CE112"/>
+      <c r="CF112"/>
+      <c r="CG112"/>
+      <c r="CH112"/>
+      <c r="CI112"/>
+      <c r="CJ112"/>
+      <c r="CK112"/>
+      <c r="CL112"/>
+      <c r="CM112"/>
+      <c r="CN112"/>
+      <c r="CO112"/>
+      <c r="CP112"/>
+      <c r="CQ112"/>
+      <c r="CR112"/>
+      <c r="CS112"/>
+      <c r="CT112"/>
+      <c r="CU112"/>
+      <c r="CV112"/>
+      <c r="CW112"/>
+      <c r="CX112"/>
+      <c r="CY112"/>
+      <c r="CZ112"/>
+      <c r="DA112"/>
+      <c r="DB112"/>
+      <c r="DC112"/>
+      <c r="DD112"/>
+      <c r="DE112"/>
+      <c r="DF112"/>
+      <c r="DG112"/>
+      <c r="DH112"/>
+      <c r="DI112"/>
+      <c r="DJ112"/>
+      <c r="DK112"/>
+      <c r="DL112"/>
+      <c r="DM112"/>
+      <c r="DN112"/>
+      <c r="DO112"/>
+      <c r="DP112"/>
+      <c r="DQ112"/>
+      <c r="DR112"/>
+      <c r="DS112"/>
+      <c r="DT112"/>
+      <c r="DU112"/>
+      <c r="DV112"/>
+      <c r="DW112"/>
+      <c r="DX112"/>
+      <c r="DY112"/>
+      <c r="DZ112"/>
+      <c r="EA112"/>
+      <c r="EB112"/>
+      <c r="EC112"/>
+      <c r="ED112"/>
+      <c r="EE112"/>
+      <c r="EF112"/>
+      <c r="EG112"/>
+      <c r="EH112"/>
+      <c r="EI112"/>
+      <c r="EJ112"/>
+      <c r="EK112"/>
+      <c r="EL112"/>
+      <c r="EM112"/>
+      <c r="EN112"/>
+      <c r="EO112"/>
+      <c r="EP112"/>
+      <c r="EQ112"/>
+      <c r="ER112"/>
+      <c r="ES112"/>
+      <c r="ET112"/>
+      <c r="EU112"/>
+      <c r="EV112"/>
+      <c r="EW112"/>
+      <c r="EX112"/>
+      <c r="EY112"/>
+      <c r="EZ112"/>
+      <c r="FA112"/>
+      <c r="FB112"/>
+      <c r="FC112"/>
+      <c r="FD112"/>
+      <c r="FE112"/>
+      <c r="FF112"/>
+      <c r="FG112"/>
+      <c r="FH112"/>
+      <c r="FI112"/>
+      <c r="FJ112"/>
+      <c r="FK112"/>
+      <c r="FL112"/>
+      <c r="FM112"/>
+      <c r="FN112"/>
+      <c r="FO112"/>
+      <c r="FP112"/>
+      <c r="FQ112"/>
+      <c r="FR112"/>
+      <c r="FS112"/>
+      <c r="FT112"/>
+      <c r="FU112"/>
+      <c r="FV112"/>
+      <c r="FW112"/>
+      <c r="FX112"/>
+      <c r="FY112"/>
+      <c r="FZ112"/>
+      <c r="GA112"/>
+      <c r="GB112"/>
+      <c r="GC112"/>
+      <c r="GD112"/>
+      <c r="GE112"/>
+      <c r="GF112"/>
+      <c r="GG112"/>
+      <c r="GH112"/>
+      <c r="GI112"/>
+      <c r="GJ112"/>
+      <c r="GK112"/>
+      <c r="GL112"/>
+      <c r="GM112"/>
+      <c r="GN112"/>
+      <c r="GO112"/>
+      <c r="GP112"/>
+      <c r="GQ112"/>
+      <c r="GR112"/>
+      <c r="GS112"/>
+      <c r="GT112"/>
+      <c r="GU112"/>
+      <c r="GV112"/>
+      <c r="GW112"/>
+      <c r="GX112"/>
+      <c r="GY112"/>
+      <c r="GZ112"/>
+      <c r="HA112"/>
+      <c r="HB112"/>
+      <c r="HC112"/>
+      <c r="HD112"/>
+      <c r="HE112"/>
+      <c r="HF112"/>
+      <c r="HG112"/>
+      <c r="HH112"/>
+      <c r="HI112"/>
+      <c r="HJ112"/>
+      <c r="HK112"/>
+      <c r="HL112"/>
+      <c r="HM112"/>
+      <c r="HN112"/>
+      <c r="HO112"/>
+      <c r="HP112"/>
+      <c r="HQ112"/>
+      <c r="HR112"/>
+      <c r="HS112"/>
+      <c r="HT112"/>
+      <c r="HU112"/>
+      <c r="HV112"/>
+      <c r="HW112"/>
+      <c r="HX112"/>
+      <c r="HY112"/>
+      <c r="HZ112"/>
+      <c r="IA112"/>
+      <c r="IB112"/>
+      <c r="IC112"/>
+      <c r="ID112"/>
+      <c r="IE112"/>
+      <c r="IF112"/>
+      <c r="IG112"/>
+      <c r="IH112"/>
+      <c r="II112"/>
+      <c r="IJ112"/>
+      <c r="IK112"/>
+      <c r="IL112"/>
+      <c r="IM112"/>
+      <c r="IN112"/>
+      <c r="IO112"/>
+      <c r="IP112"/>
+      <c r="IQ112"/>
+      <c r="IR112"/>
+      <c r="IS112"/>
+      <c r="IT112"/>
+      <c r="IU112"/>
+      <c r="IV112"/>
+      <c r="IW112"/>
+    </row>
+    <row r="113" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A113" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="B113" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C113" s="57" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" s="57"/>
+      <c r="E113" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F113" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="81">
+        <v>0</v>
+      </c>
+      <c r="H113" s="57">
+        <v>1</v>
+      </c>
+      <c r="I113" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J113" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+      <c r="Y113"/>
+      <c r="Z113"/>
+      <c r="AA113"/>
+      <c r="AB113"/>
+      <c r="AC113"/>
+      <c r="AD113"/>
+      <c r="AE113"/>
+      <c r="AF113"/>
+      <c r="AG113"/>
+      <c r="AH113"/>
+      <c r="AI113"/>
+      <c r="AJ113"/>
+      <c r="AK113"/>
+      <c r="AL113"/>
+      <c r="AM113"/>
+      <c r="AN113"/>
+      <c r="AO113"/>
+      <c r="AP113"/>
+      <c r="AQ113"/>
+      <c r="AR113"/>
+      <c r="AS113"/>
+      <c r="AT113"/>
+      <c r="AU113"/>
+      <c r="AV113"/>
+      <c r="AW113"/>
+      <c r="AX113"/>
+      <c r="AY113"/>
+      <c r="AZ113"/>
+      <c r="BA113"/>
+      <c r="BB113"/>
+      <c r="BC113"/>
+      <c r="BD113"/>
+      <c r="BE113"/>
+      <c r="BF113"/>
+      <c r="BG113"/>
+      <c r="BH113"/>
+      <c r="BI113"/>
+      <c r="BJ113"/>
+      <c r="BK113"/>
+      <c r="BL113"/>
+      <c r="BM113"/>
+      <c r="BN113"/>
+      <c r="BO113"/>
+      <c r="BP113"/>
+      <c r="BQ113"/>
+      <c r="BR113"/>
+      <c r="BS113"/>
+      <c r="BT113"/>
+      <c r="BU113"/>
+      <c r="BV113"/>
+      <c r="BW113"/>
+      <c r="BX113"/>
+      <c r="BY113"/>
+      <c r="BZ113"/>
+      <c r="CA113"/>
+      <c r="CB113"/>
+      <c r="CC113"/>
+      <c r="CD113"/>
+      <c r="CE113"/>
+      <c r="CF113"/>
+      <c r="CG113"/>
+      <c r="CH113"/>
+      <c r="CI113"/>
+      <c r="CJ113"/>
+      <c r="CK113"/>
+      <c r="CL113"/>
+      <c r="CM113"/>
+      <c r="CN113"/>
+      <c r="CO113"/>
+      <c r="CP113"/>
+      <c r="CQ113"/>
+      <c r="CR113"/>
+      <c r="CS113"/>
+      <c r="CT113"/>
+      <c r="CU113"/>
+      <c r="CV113"/>
+      <c r="CW113"/>
+      <c r="CX113"/>
+      <c r="CY113"/>
+      <c r="CZ113"/>
+      <c r="DA113"/>
+      <c r="DB113"/>
+      <c r="DC113"/>
+      <c r="DD113"/>
+      <c r="DE113"/>
+      <c r="DF113"/>
+      <c r="DG113"/>
+      <c r="DH113"/>
+      <c r="DI113"/>
+      <c r="DJ113"/>
+      <c r="DK113"/>
+      <c r="DL113"/>
+      <c r="DM113"/>
+      <c r="DN113"/>
+      <c r="DO113"/>
+      <c r="DP113"/>
+      <c r="DQ113"/>
+      <c r="DR113"/>
+      <c r="DS113"/>
+      <c r="DT113"/>
+      <c r="DU113"/>
+      <c r="DV113"/>
+      <c r="DW113"/>
+      <c r="DX113"/>
+      <c r="DY113"/>
+      <c r="DZ113"/>
+      <c r="EA113"/>
+      <c r="EB113"/>
+      <c r="EC113"/>
+      <c r="ED113"/>
+      <c r="EE113"/>
+      <c r="EF113"/>
+      <c r="EG113"/>
+      <c r="EH113"/>
+      <c r="EI113"/>
+      <c r="EJ113"/>
+      <c r="EK113"/>
+      <c r="EL113"/>
+      <c r="EM113"/>
+      <c r="EN113"/>
+      <c r="EO113"/>
+      <c r="EP113"/>
+      <c r="EQ113"/>
+      <c r="ER113"/>
+      <c r="ES113"/>
+      <c r="ET113"/>
+      <c r="EU113"/>
+      <c r="EV113"/>
+      <c r="EW113"/>
+      <c r="EX113"/>
+      <c r="EY113"/>
+      <c r="EZ113"/>
+      <c r="FA113"/>
+      <c r="FB113"/>
+      <c r="FC113"/>
+      <c r="FD113"/>
+      <c r="FE113"/>
+      <c r="FF113"/>
+      <c r="FG113"/>
+      <c r="FH113"/>
+      <c r="FI113"/>
+      <c r="FJ113"/>
+      <c r="FK113"/>
+      <c r="FL113"/>
+      <c r="FM113"/>
+      <c r="FN113"/>
+      <c r="FO113"/>
+      <c r="FP113"/>
+      <c r="FQ113"/>
+      <c r="FR113"/>
+      <c r="FS113"/>
+      <c r="FT113"/>
+      <c r="FU113"/>
+      <c r="FV113"/>
+      <c r="FW113"/>
+      <c r="FX113"/>
+      <c r="FY113"/>
+      <c r="FZ113"/>
+      <c r="GA113"/>
+      <c r="GB113"/>
+      <c r="GC113"/>
+      <c r="GD113"/>
+      <c r="GE113"/>
+      <c r="GF113"/>
+      <c r="GG113"/>
+      <c r="GH113"/>
+      <c r="GI113"/>
+      <c r="GJ113"/>
+      <c r="GK113"/>
+      <c r="GL113"/>
+      <c r="GM113"/>
+      <c r="GN113"/>
+      <c r="GO113"/>
+      <c r="GP113"/>
+      <c r="GQ113"/>
+      <c r="GR113"/>
+      <c r="GS113"/>
+      <c r="GT113"/>
+      <c r="GU113"/>
+      <c r="GV113"/>
+      <c r="GW113"/>
+      <c r="GX113"/>
+      <c r="GY113"/>
+      <c r="GZ113"/>
+      <c r="HA113"/>
+      <c r="HB113"/>
+      <c r="HC113"/>
+      <c r="HD113"/>
+      <c r="HE113"/>
+      <c r="HF113"/>
+      <c r="HG113"/>
+      <c r="HH113"/>
+      <c r="HI113"/>
+      <c r="HJ113"/>
+      <c r="HK113"/>
+      <c r="HL113"/>
+      <c r="HM113"/>
+      <c r="HN113"/>
+      <c r="HO113"/>
+      <c r="HP113"/>
+      <c r="HQ113"/>
+      <c r="HR113"/>
+      <c r="HS113"/>
+      <c r="HT113"/>
+      <c r="HU113"/>
+      <c r="HV113"/>
+      <c r="HW113"/>
+      <c r="HX113"/>
+      <c r="HY113"/>
+      <c r="HZ113"/>
+      <c r="IA113"/>
+      <c r="IB113"/>
+      <c r="IC113"/>
+      <c r="ID113"/>
+      <c r="IE113"/>
+      <c r="IF113"/>
+      <c r="IG113"/>
+      <c r="IH113"/>
+      <c r="II113"/>
+      <c r="IJ113"/>
+      <c r="IK113"/>
+      <c r="IL113"/>
+      <c r="IM113"/>
+      <c r="IN113"/>
+      <c r="IO113"/>
+      <c r="IP113"/>
+      <c r="IQ113"/>
+      <c r="IR113"/>
+      <c r="IS113"/>
+      <c r="IT113"/>
+      <c r="IU113"/>
+      <c r="IV113"/>
+      <c r="IW113"/>
+    </row>
+    <row r="114" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A114" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="57" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="D114" s="57"/>
+      <c r="E114" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F114" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="81">
+        <v>0</v>
+      </c>
+      <c r="H114" s="57">
+        <v>1</v>
+      </c>
+      <c r="I114" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J114" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+      <c r="Y114"/>
+      <c r="Z114"/>
+      <c r="AA114"/>
+      <c r="AB114"/>
+      <c r="AC114"/>
+      <c r="AD114"/>
+      <c r="AE114"/>
+      <c r="AF114"/>
+      <c r="AG114"/>
+      <c r="AH114"/>
+      <c r="AI114"/>
+      <c r="AJ114"/>
+      <c r="AK114"/>
+      <c r="AL114"/>
+      <c r="AM114"/>
+      <c r="AN114"/>
+      <c r="AO114"/>
+      <c r="AP114"/>
+      <c r="AQ114"/>
+      <c r="AR114"/>
+      <c r="AS114"/>
+      <c r="AT114"/>
+      <c r="AU114"/>
+      <c r="AV114"/>
+      <c r="AW114"/>
+      <c r="AX114"/>
+      <c r="AY114"/>
+      <c r="AZ114"/>
+      <c r="BA114"/>
+      <c r="BB114"/>
+      <c r="BC114"/>
+      <c r="BD114"/>
+      <c r="BE114"/>
+      <c r="BF114"/>
+      <c r="BG114"/>
+      <c r="BH114"/>
+      <c r="BI114"/>
+      <c r="BJ114"/>
+      <c r="BK114"/>
+      <c r="BL114"/>
+      <c r="BM114"/>
+      <c r="BN114"/>
+      <c r="BO114"/>
+      <c r="BP114"/>
+      <c r="BQ114"/>
+      <c r="BR114"/>
+      <c r="BS114"/>
+      <c r="BT114"/>
+      <c r="BU114"/>
+      <c r="BV114"/>
+      <c r="BW114"/>
+      <c r="BX114"/>
+      <c r="BY114"/>
+      <c r="BZ114"/>
+      <c r="CA114"/>
+      <c r="CB114"/>
+      <c r="CC114"/>
+      <c r="CD114"/>
+      <c r="CE114"/>
+      <c r="CF114"/>
+      <c r="CG114"/>
+      <c r="CH114"/>
+      <c r="CI114"/>
+      <c r="CJ114"/>
+      <c r="CK114"/>
+      <c r="CL114"/>
+      <c r="CM114"/>
+      <c r="CN114"/>
+      <c r="CO114"/>
+      <c r="CP114"/>
+      <c r="CQ114"/>
+      <c r="CR114"/>
+      <c r="CS114"/>
+      <c r="CT114"/>
+      <c r="CU114"/>
+      <c r="CV114"/>
+      <c r="CW114"/>
+      <c r="CX114"/>
+      <c r="CY114"/>
+      <c r="CZ114"/>
+      <c r="DA114"/>
+      <c r="DB114"/>
+      <c r="DC114"/>
+      <c r="DD114"/>
+      <c r="DE114"/>
+      <c r="DF114"/>
+      <c r="DG114"/>
+      <c r="DH114"/>
+      <c r="DI114"/>
+      <c r="DJ114"/>
+      <c r="DK114"/>
+      <c r="DL114"/>
+      <c r="DM114"/>
+      <c r="DN114"/>
+      <c r="DO114"/>
+      <c r="DP114"/>
+      <c r="DQ114"/>
+      <c r="DR114"/>
+      <c r="DS114"/>
+      <c r="DT114"/>
+      <c r="DU114"/>
+      <c r="DV114"/>
+      <c r="DW114"/>
+      <c r="DX114"/>
+      <c r="DY114"/>
+      <c r="DZ114"/>
+      <c r="EA114"/>
+      <c r="EB114"/>
+      <c r="EC114"/>
+      <c r="ED114"/>
+      <c r="EE114"/>
+      <c r="EF114"/>
+      <c r="EG114"/>
+      <c r="EH114"/>
+      <c r="EI114"/>
+      <c r="EJ114"/>
+      <c r="EK114"/>
+      <c r="EL114"/>
+      <c r="EM114"/>
+      <c r="EN114"/>
+      <c r="EO114"/>
+      <c r="EP114"/>
+      <c r="EQ114"/>
+      <c r="ER114"/>
+      <c r="ES114"/>
+      <c r="ET114"/>
+      <c r="EU114"/>
+      <c r="EV114"/>
+      <c r="EW114"/>
+      <c r="EX114"/>
+      <c r="EY114"/>
+      <c r="EZ114"/>
+      <c r="FA114"/>
+      <c r="FB114"/>
+      <c r="FC114"/>
+      <c r="FD114"/>
+      <c r="FE114"/>
+      <c r="FF114"/>
+      <c r="FG114"/>
+      <c r="FH114"/>
+      <c r="FI114"/>
+      <c r="FJ114"/>
+      <c r="FK114"/>
+      <c r="FL114"/>
+      <c r="FM114"/>
+      <c r="FN114"/>
+      <c r="FO114"/>
+      <c r="FP114"/>
+      <c r="FQ114"/>
+      <c r="FR114"/>
+      <c r="FS114"/>
+      <c r="FT114"/>
+      <c r="FU114"/>
+      <c r="FV114"/>
+      <c r="FW114"/>
+      <c r="FX114"/>
+      <c r="FY114"/>
+      <c r="FZ114"/>
+      <c r="GA114"/>
+      <c r="GB114"/>
+      <c r="GC114"/>
+      <c r="GD114"/>
+      <c r="GE114"/>
+      <c r="GF114"/>
+      <c r="GG114"/>
+      <c r="GH114"/>
+      <c r="GI114"/>
+      <c r="GJ114"/>
+      <c r="GK114"/>
+      <c r="GL114"/>
+      <c r="GM114"/>
+      <c r="GN114"/>
+      <c r="GO114"/>
+      <c r="GP114"/>
+      <c r="GQ114"/>
+      <c r="GR114"/>
+      <c r="GS114"/>
+      <c r="GT114"/>
+      <c r="GU114"/>
+      <c r="GV114"/>
+      <c r="GW114"/>
+      <c r="GX114"/>
+      <c r="GY114"/>
+      <c r="GZ114"/>
+      <c r="HA114"/>
+      <c r="HB114"/>
+      <c r="HC114"/>
+      <c r="HD114"/>
+      <c r="HE114"/>
+      <c r="HF114"/>
+      <c r="HG114"/>
+      <c r="HH114"/>
+      <c r="HI114"/>
+      <c r="HJ114"/>
+      <c r="HK114"/>
+      <c r="HL114"/>
+      <c r="HM114"/>
+      <c r="HN114"/>
+      <c r="HO114"/>
+      <c r="HP114"/>
+      <c r="HQ114"/>
+      <c r="HR114"/>
+      <c r="HS114"/>
+      <c r="HT114"/>
+      <c r="HU114"/>
+      <c r="HV114"/>
+      <c r="HW114"/>
+      <c r="HX114"/>
+      <c r="HY114"/>
+      <c r="HZ114"/>
+      <c r="IA114"/>
+      <c r="IB114"/>
+      <c r="IC114"/>
+      <c r="ID114"/>
+      <c r="IE114"/>
+      <c r="IF114"/>
+      <c r="IG114"/>
+      <c r="IH114"/>
+      <c r="II114"/>
+      <c r="IJ114"/>
+      <c r="IK114"/>
+      <c r="IL114"/>
+      <c r="IM114"/>
+      <c r="IN114"/>
+      <c r="IO114"/>
+      <c r="IP114"/>
+      <c r="IQ114"/>
+      <c r="IR114"/>
+      <c r="IS114"/>
+      <c r="IT114"/>
+      <c r="IU114"/>
+      <c r="IV114"/>
+      <c r="IW114"/>
+    </row>
+    <row r="115" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A115" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="B115" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C115" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="57"/>
+      <c r="E115" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F115" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="81">
+        <v>0</v>
+      </c>
+      <c r="H115" s="57">
+        <v>1</v>
+      </c>
+      <c r="I115" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J115" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+      <c r="Y115"/>
+      <c r="Z115"/>
+      <c r="AA115"/>
+      <c r="AB115"/>
+      <c r="AC115"/>
+      <c r="AD115"/>
+      <c r="AE115"/>
+      <c r="AF115"/>
+      <c r="AG115"/>
+      <c r="AH115"/>
+      <c r="AI115"/>
+      <c r="AJ115"/>
+      <c r="AK115"/>
+      <c r="AL115"/>
+      <c r="AM115"/>
+      <c r="AN115"/>
+      <c r="AO115"/>
+      <c r="AP115"/>
+      <c r="AQ115"/>
+      <c r="AR115"/>
+      <c r="AS115"/>
+      <c r="AT115"/>
+      <c r="AU115"/>
+      <c r="AV115"/>
+      <c r="AW115"/>
+      <c r="AX115"/>
+      <c r="AY115"/>
+      <c r="AZ115"/>
+      <c r="BA115"/>
+      <c r="BB115"/>
+      <c r="BC115"/>
+      <c r="BD115"/>
+      <c r="BE115"/>
+      <c r="BF115"/>
+      <c r="BG115"/>
+      <c r="BH115"/>
+      <c r="BI115"/>
+      <c r="BJ115"/>
+      <c r="BK115"/>
+      <c r="BL115"/>
+      <c r="BM115"/>
+      <c r="BN115"/>
+      <c r="BO115"/>
+      <c r="BP115"/>
+      <c r="BQ115"/>
+      <c r="BR115"/>
+      <c r="BS115"/>
+      <c r="BT115"/>
+      <c r="BU115"/>
+      <c r="BV115"/>
+      <c r="BW115"/>
+      <c r="BX115"/>
+      <c r="BY115"/>
+      <c r="BZ115"/>
+      <c r="CA115"/>
+      <c r="CB115"/>
+      <c r="CC115"/>
+      <c r="CD115"/>
+      <c r="CE115"/>
+      <c r="CF115"/>
+      <c r="CG115"/>
+      <c r="CH115"/>
+      <c r="CI115"/>
+      <c r="CJ115"/>
+      <c r="CK115"/>
+      <c r="CL115"/>
+      <c r="CM115"/>
+      <c r="CN115"/>
+      <c r="CO115"/>
+      <c r="CP115"/>
+      <c r="CQ115"/>
+      <c r="CR115"/>
+      <c r="CS115"/>
+      <c r="CT115"/>
+      <c r="CU115"/>
+      <c r="CV115"/>
+      <c r="CW115"/>
+      <c r="CX115"/>
+      <c r="CY115"/>
+      <c r="CZ115"/>
+      <c r="DA115"/>
+      <c r="DB115"/>
+      <c r="DC115"/>
+      <c r="DD115"/>
+      <c r="DE115"/>
+      <c r="DF115"/>
+      <c r="DG115"/>
+      <c r="DH115"/>
+      <c r="DI115"/>
+      <c r="DJ115"/>
+      <c r="DK115"/>
+      <c r="DL115"/>
+      <c r="DM115"/>
+      <c r="DN115"/>
+      <c r="DO115"/>
+      <c r="DP115"/>
+      <c r="DQ115"/>
+      <c r="DR115"/>
+      <c r="DS115"/>
+      <c r="DT115"/>
+      <c r="DU115"/>
+      <c r="DV115"/>
+      <c r="DW115"/>
+      <c r="DX115"/>
+      <c r="DY115"/>
+      <c r="DZ115"/>
+      <c r="EA115"/>
+      <c r="EB115"/>
+      <c r="EC115"/>
+      <c r="ED115"/>
+      <c r="EE115"/>
+      <c r="EF115"/>
+      <c r="EG115"/>
+      <c r="EH115"/>
+      <c r="EI115"/>
+      <c r="EJ115"/>
+      <c r="EK115"/>
+      <c r="EL115"/>
+      <c r="EM115"/>
+      <c r="EN115"/>
+      <c r="EO115"/>
+      <c r="EP115"/>
+      <c r="EQ115"/>
+      <c r="ER115"/>
+      <c r="ES115"/>
+      <c r="ET115"/>
+      <c r="EU115"/>
+      <c r="EV115"/>
+      <c r="EW115"/>
+      <c r="EX115"/>
+      <c r="EY115"/>
+      <c r="EZ115"/>
+      <c r="FA115"/>
+      <c r="FB115"/>
+      <c r="FC115"/>
+      <c r="FD115"/>
+      <c r="FE115"/>
+      <c r="FF115"/>
+      <c r="FG115"/>
+      <c r="FH115"/>
+      <c r="FI115"/>
+      <c r="FJ115"/>
+      <c r="FK115"/>
+      <c r="FL115"/>
+      <c r="FM115"/>
+      <c r="FN115"/>
+      <c r="FO115"/>
+      <c r="FP115"/>
+      <c r="FQ115"/>
+      <c r="FR115"/>
+      <c r="FS115"/>
+      <c r="FT115"/>
+      <c r="FU115"/>
+      <c r="FV115"/>
+      <c r="FW115"/>
+      <c r="FX115"/>
+      <c r="FY115"/>
+      <c r="FZ115"/>
+      <c r="GA115"/>
+      <c r="GB115"/>
+      <c r="GC115"/>
+      <c r="GD115"/>
+      <c r="GE115"/>
+      <c r="GF115"/>
+      <c r="GG115"/>
+      <c r="GH115"/>
+      <c r="GI115"/>
+      <c r="GJ115"/>
+      <c r="GK115"/>
+      <c r="GL115"/>
+      <c r="GM115"/>
+      <c r="GN115"/>
+      <c r="GO115"/>
+      <c r="GP115"/>
+      <c r="GQ115"/>
+      <c r="GR115"/>
+      <c r="GS115"/>
+      <c r="GT115"/>
+      <c r="GU115"/>
+      <c r="GV115"/>
+      <c r="GW115"/>
+      <c r="GX115"/>
+      <c r="GY115"/>
+      <c r="GZ115"/>
+      <c r="HA115"/>
+      <c r="HB115"/>
+      <c r="HC115"/>
+      <c r="HD115"/>
+      <c r="HE115"/>
+      <c r="HF115"/>
+      <c r="HG115"/>
+      <c r="HH115"/>
+      <c r="HI115"/>
+      <c r="HJ115"/>
+      <c r="HK115"/>
+      <c r="HL115"/>
+      <c r="HM115"/>
+      <c r="HN115"/>
+      <c r="HO115"/>
+      <c r="HP115"/>
+      <c r="HQ115"/>
+      <c r="HR115"/>
+      <c r="HS115"/>
+      <c r="HT115"/>
+      <c r="HU115"/>
+      <c r="HV115"/>
+      <c r="HW115"/>
+      <c r="HX115"/>
+      <c r="HY115"/>
+      <c r="HZ115"/>
+      <c r="IA115"/>
+      <c r="IB115"/>
+      <c r="IC115"/>
+      <c r="ID115"/>
+      <c r="IE115"/>
+      <c r="IF115"/>
+      <c r="IG115"/>
+      <c r="IH115"/>
+      <c r="II115"/>
+      <c r="IJ115"/>
+      <c r="IK115"/>
+      <c r="IL115"/>
+      <c r="IM115"/>
+      <c r="IN115"/>
+      <c r="IO115"/>
+      <c r="IP115"/>
+      <c r="IQ115"/>
+      <c r="IR115"/>
+      <c r="IS115"/>
+      <c r="IT115"/>
+      <c r="IU115"/>
+      <c r="IV115"/>
+      <c r="IW115"/>
+    </row>
+    <row r="116" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A116" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="C116" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D116" s="57"/>
+      <c r="E116" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F116" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="81">
+        <v>0</v>
+      </c>
+      <c r="H116" s="57">
+        <v>1</v>
+      </c>
+      <c r="I116" s="97" t="s">
+        <v>174</v>
+      </c>
+      <c r="J116" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+      <c r="Y116"/>
+      <c r="Z116"/>
+      <c r="AA116"/>
+      <c r="AB116"/>
+      <c r="AC116"/>
+      <c r="AD116"/>
+      <c r="AE116"/>
+      <c r="AF116"/>
+      <c r="AG116"/>
+      <c r="AH116"/>
+      <c r="AI116"/>
+      <c r="AJ116"/>
+      <c r="AK116"/>
+      <c r="AL116"/>
+      <c r="AM116"/>
+      <c r="AN116"/>
+      <c r="AO116"/>
+      <c r="AP116"/>
+      <c r="AQ116"/>
+      <c r="AR116"/>
+      <c r="AS116"/>
+      <c r="AT116"/>
+      <c r="AU116"/>
+      <c r="AV116"/>
+      <c r="AW116"/>
+      <c r="AX116"/>
+      <c r="AY116"/>
+      <c r="AZ116"/>
+      <c r="BA116"/>
+      <c r="BB116"/>
+      <c r="BC116"/>
+      <c r="BD116"/>
+      <c r="BE116"/>
+      <c r="BF116"/>
+      <c r="BG116"/>
+      <c r="BH116"/>
+      <c r="BI116"/>
+      <c r="BJ116"/>
+      <c r="BK116"/>
+      <c r="BL116"/>
+      <c r="BM116"/>
+      <c r="BN116"/>
+      <c r="BO116"/>
+      <c r="BP116"/>
+      <c r="BQ116"/>
+      <c r="BR116"/>
+      <c r="BS116"/>
+      <c r="BT116"/>
+      <c r="BU116"/>
+      <c r="BV116"/>
+      <c r="BW116"/>
+      <c r="BX116"/>
+      <c r="BY116"/>
+      <c r="BZ116"/>
+      <c r="CA116"/>
+      <c r="CB116"/>
+      <c r="CC116"/>
+      <c r="CD116"/>
+      <c r="CE116"/>
+      <c r="CF116"/>
+      <c r="CG116"/>
+      <c r="CH116"/>
+      <c r="CI116"/>
+      <c r="CJ116"/>
+      <c r="CK116"/>
+      <c r="CL116"/>
+      <c r="CM116"/>
+      <c r="CN116"/>
+      <c r="CO116"/>
+      <c r="CP116"/>
+      <c r="CQ116"/>
+      <c r="CR116"/>
+      <c r="CS116"/>
+      <c r="CT116"/>
+      <c r="CU116"/>
+      <c r="CV116"/>
+      <c r="CW116"/>
+      <c r="CX116"/>
+      <c r="CY116"/>
+      <c r="CZ116"/>
+      <c r="DA116"/>
+      <c r="DB116"/>
+      <c r="DC116"/>
+      <c r="DD116"/>
+      <c r="DE116"/>
+      <c r="DF116"/>
+      <c r="DG116"/>
+      <c r="DH116"/>
+      <c r="DI116"/>
+      <c r="DJ116"/>
+      <c r="DK116"/>
+      <c r="DL116"/>
+      <c r="DM116"/>
+      <c r="DN116"/>
+      <c r="DO116"/>
+      <c r="DP116"/>
+      <c r="DQ116"/>
+      <c r="DR116"/>
+      <c r="DS116"/>
+      <c r="DT116"/>
+      <c r="DU116"/>
+      <c r="DV116"/>
+      <c r="DW116"/>
+      <c r="DX116"/>
+      <c r="DY116"/>
+      <c r="DZ116"/>
+      <c r="EA116"/>
+      <c r="EB116"/>
+      <c r="EC116"/>
+      <c r="ED116"/>
+      <c r="EE116"/>
+      <c r="EF116"/>
+      <c r="EG116"/>
+      <c r="EH116"/>
+      <c r="EI116"/>
+      <c r="EJ116"/>
+      <c r="EK116"/>
+      <c r="EL116"/>
+      <c r="EM116"/>
+      <c r="EN116"/>
+      <c r="EO116"/>
+      <c r="EP116"/>
+      <c r="EQ116"/>
+      <c r="ER116"/>
+      <c r="ES116"/>
+      <c r="ET116"/>
+      <c r="EU116"/>
+      <c r="EV116"/>
+      <c r="EW116"/>
+      <c r="EX116"/>
+      <c r="EY116"/>
+      <c r="EZ116"/>
+      <c r="FA116"/>
+      <c r="FB116"/>
+      <c r="FC116"/>
+      <c r="FD116"/>
+      <c r="FE116"/>
+      <c r="FF116"/>
+      <c r="FG116"/>
+      <c r="FH116"/>
+      <c r="FI116"/>
+      <c r="FJ116"/>
+      <c r="FK116"/>
+      <c r="FL116"/>
+      <c r="FM116"/>
+      <c r="FN116"/>
+      <c r="FO116"/>
+      <c r="FP116"/>
+      <c r="FQ116"/>
+      <c r="FR116"/>
+      <c r="FS116"/>
+      <c r="FT116"/>
+      <c r="FU116"/>
+      <c r="FV116"/>
+      <c r="FW116"/>
+      <c r="FX116"/>
+      <c r="FY116"/>
+      <c r="FZ116"/>
+      <c r="GA116"/>
+      <c r="GB116"/>
+      <c r="GC116"/>
+      <c r="GD116"/>
+      <c r="GE116"/>
+      <c r="GF116"/>
+      <c r="GG116"/>
+      <c r="GH116"/>
+      <c r="GI116"/>
+      <c r="GJ116"/>
+      <c r="GK116"/>
+      <c r="GL116"/>
+      <c r="GM116"/>
+      <c r="GN116"/>
+      <c r="GO116"/>
+      <c r="GP116"/>
+      <c r="GQ116"/>
+      <c r="GR116"/>
+      <c r="GS116"/>
+      <c r="GT116"/>
+      <c r="GU116"/>
+      <c r="GV116"/>
+      <c r="GW116"/>
+      <c r="GX116"/>
+      <c r="GY116"/>
+      <c r="GZ116"/>
+      <c r="HA116"/>
+      <c r="HB116"/>
+      <c r="HC116"/>
+      <c r="HD116"/>
+      <c r="HE116"/>
+      <c r="HF116"/>
+      <c r="HG116"/>
+      <c r="HH116"/>
+      <c r="HI116"/>
+      <c r="HJ116"/>
+      <c r="HK116"/>
+      <c r="HL116"/>
+      <c r="HM116"/>
+      <c r="HN116"/>
+      <c r="HO116"/>
+      <c r="HP116"/>
+      <c r="HQ116"/>
+      <c r="HR116"/>
+      <c r="HS116"/>
+      <c r="HT116"/>
+      <c r="HU116"/>
+      <c r="HV116"/>
+      <c r="HW116"/>
+      <c r="HX116"/>
+      <c r="HY116"/>
+      <c r="HZ116"/>
+      <c r="IA116"/>
+      <c r="IB116"/>
+      <c r="IC116"/>
+      <c r="ID116"/>
+      <c r="IE116"/>
+      <c r="IF116"/>
+      <c r="IG116"/>
+      <c r="IH116"/>
+      <c r="II116"/>
+      <c r="IJ116"/>
+      <c r="IK116"/>
+      <c r="IL116"/>
+      <c r="IM116"/>
+      <c r="IN116"/>
+      <c r="IO116"/>
+      <c r="IP116"/>
+      <c r="IQ116"/>
+      <c r="IR116"/>
+      <c r="IS116"/>
+      <c r="IT116"/>
+      <c r="IU116"/>
+      <c r="IV116"/>
+      <c r="IW116"/>
+    </row>
+    <row r="117" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="118" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="119" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="120" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="121" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="122" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="123" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="124" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="125" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="126" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="127" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="128" spans="1:257" ht="17.100000000000001" customHeight="1"/>
     <row r="129" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E8A9FD-9AB0-453F-9801-D4ACBA0FEE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F8A3C-5759-4465-ADB9-E3E3C101744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31290" yWindow="1050" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31770" yWindow="795" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="251">
   <si>
     <t>name</t>
   </si>
@@ -758,6 +758,27 @@
   </si>
   <si>
     <t>File Upload</t>
+  </si>
+  <si>
+    <t>REASON FOR REFERRAL AND RECOMMNEDATIONS</t>
+  </si>
+  <si>
+    <t>client_representing_problem_note</t>
+  </si>
+  <si>
+    <t>What issues/needs does the client say he or she needs help addressing:</t>
+  </si>
+  <si>
+    <t>referral_reason_note</t>
+  </si>
+  <si>
+    <t>The referral source’s reason for referral:</t>
+  </si>
+  <si>
+    <t>referral_decision_note</t>
+  </si>
+  <si>
+    <t>Action/intervention taken:</t>
   </si>
 </sst>
 </file>
@@ -1666,10 +1687,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW130"/>
+  <dimension ref="A1:IW133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -17318,13 +17339,13 @@
     </row>
     <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="96" t="s">
@@ -17348,12 +17369,12 @@
     </row>
     <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C114" s="95" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="58" t="s">
         <v>241</v>
       </c>
       <c r="D114" s="58"/>
@@ -17378,13 +17399,13 @@
     </row>
     <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115" s="58" t="s">
-        <v>242</v>
+        <v>231</v>
+      </c>
+      <c r="C115" s="95" t="s">
+        <v>244</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="96" t="s">
@@ -17408,13 +17429,13 @@
     </row>
     <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="58" t="s">
-        <v>243</v>
+        <v>247</v>
+      </c>
+      <c r="C116" s="95" t="s">
+        <v>248</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="96" t="s">
@@ -17436,9 +17457,96 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" s="58"/>
+      <c r="E117" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F117" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="25">
+        <v>0</v>
+      </c>
+      <c r="H117" s="58">
+        <v>1</v>
+      </c>
+      <c r="I117" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J117" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B118" s="58" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" s="58" t="s">
+        <v>250</v>
+      </c>
+      <c r="D118" s="58"/>
+      <c r="E118" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F118" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="25">
+        <v>0</v>
+      </c>
+      <c r="H118" s="58">
+        <v>1</v>
+      </c>
+      <c r="I118" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J118" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A119" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="58" t="s">
+        <v>152</v>
+      </c>
+      <c r="C119" s="58" t="s">
+        <v>243</v>
+      </c>
+      <c r="D119" s="58"/>
+      <c r="E119" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F119" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="25">
+        <v>0</v>
+      </c>
+      <c r="H119" s="58">
+        <v>1</v>
+      </c>
+      <c r="I119" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J119" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1"/>
@@ -17450,6 +17558,9 @@
     <row r="128" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="129" ht="17.100000000000001" customHeight="1"/>
     <row r="130" ht="17.100000000000001" customHeight="1"/>
+    <row r="131" ht="17.100000000000001" customHeight="1"/>
+    <row r="132" ht="17.100000000000001" customHeight="1"/>
+    <row r="133" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79F8A3C-5759-4465-ADB9-E3E3C101744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61191AA-56C2-48CF-9B29-5E7181DA3DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31770" yWindow="795" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="250">
   <si>
     <t>name</t>
   </si>
@@ -712,9 +712,6 @@
     <t>referred_from</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>client_representing_problem</t>
   </si>
   <si>
@@ -757,9 +754,6 @@
     <t>REFERRAL DECISION (to be approved by case management supervisor)</t>
   </si>
   <si>
-    <t>File Upload</t>
-  </si>
-  <si>
     <t>REASON FOR REFERRAL AND RECOMMNEDATIONS</t>
   </si>
   <si>
@@ -779,6 +773,9 @@
   </si>
   <si>
     <t>Action/intervention taken:</t>
+  </si>
+  <si>
+    <t>program_stream_ids</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1686,8 @@
   </sheetPr>
   <dimension ref="A1:IW133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -17162,14 +17159,14 @@
         <v>225</v>
       </c>
       <c r="B107" s="58" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C107" s="58" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D107" s="58"/>
       <c r="E107" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F107" s="96" t="s">
         <v>13</v>
@@ -17192,14 +17189,14 @@
         <v>226</v>
       </c>
       <c r="B108" s="58" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D108" s="58"/>
       <c r="E108" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F108" s="96" t="s">
         <v>13</v>
@@ -17219,17 +17216,17 @@
     </row>
     <row r="109" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B109" s="58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D109" s="58"/>
       <c r="E109" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F109" s="96" t="s">
         <v>13</v>
@@ -17252,14 +17249,14 @@
         <v>227</v>
       </c>
       <c r="B110" s="58" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D110" s="58"/>
       <c r="E110" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F110" s="96" t="s">
         <v>13</v>
@@ -17279,17 +17276,17 @@
     </row>
     <row r="111" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B111" s="58" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F111" s="96" t="s">
         <v>13</v>
@@ -17309,17 +17306,17 @@
     </row>
     <row r="112" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F112" s="96" t="s">
         <v>13</v>
@@ -17339,17 +17336,17 @@
     </row>
     <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F113" s="96" t="s">
         <v>13</v>
@@ -17369,17 +17366,17 @@
     </row>
     <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F114" s="96" t="s">
         <v>13</v>
@@ -17399,17 +17396,17 @@
     </row>
     <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C115" s="95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F115" s="96" t="s">
         <v>13</v>
@@ -17429,17 +17426,17 @@
     </row>
     <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C116" s="95" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F116" s="96" t="s">
         <v>13</v>
@@ -17459,17 +17456,17 @@
     </row>
     <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B117" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C117" s="58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F117" s="96" t="s">
         <v>13</v>
@@ -17489,17 +17486,17 @@
     </row>
     <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="B118" s="58" t="s">
-        <v>249</v>
-      </c>
       <c r="C118" s="58" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F118" s="96" t="s">
         <v>13</v>
@@ -17522,14 +17519,14 @@
         <v>152</v>
       </c>
       <c r="B119" s="58" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="C119" s="58" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="D119" s="58"/>
       <c r="E119" s="96" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F119" s="96" t="s">
         <v>13</v>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77575D9-7CA5-4FD3-A185-F371A8335D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB72ACD-26EC-4578-AB7E-2656886DE83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="1065" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31770" yWindow="795" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="250">
   <si>
     <t>name</t>
   </si>
@@ -697,67 +697,85 @@
     <t>Others</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
     <t>province</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>referral_date</t>
   </si>
   <si>
+    <t>client_id</t>
+  </si>
+  <si>
+    <t>referred_from</t>
+  </si>
+  <si>
+    <t>client_representing_problem</t>
+  </si>
+  <si>
+    <t>emergency_note</t>
+  </si>
+  <si>
+    <t>referral_reason</t>
+  </si>
+  <si>
+    <t>referral_decision</t>
+  </si>
+  <si>
+    <t>internal_referral</t>
+  </si>
+  <si>
     <t>Date of Internal Referral</t>
   </si>
   <si>
-    <t>internal_referral</t>
-  </si>
-  <si>
-    <t>client_id</t>
+    <t>client_name</t>
   </si>
   <si>
     <t>Client ID</t>
   </si>
   <si>
-    <t>client_name</t>
-  </si>
-  <si>
     <t>Client Name</t>
   </si>
   <si>
-    <t>referred_from</t>
-  </si>
-  <si>
     <t>Referral Form</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
     <t>Referred To</t>
   </si>
   <si>
-    <t>client_representing_problem</t>
-  </si>
-  <si>
     <t>CLIENT’S PRESENTING PROBLEMS</t>
   </si>
   <si>
-    <t>emergency_note</t>
-  </si>
-  <si>
     <t>NOTE: EMERGENCY/CRISIS NEEDS</t>
   </si>
   <si>
-    <t>referral_reason</t>
-  </si>
-  <si>
-    <t>referral_decision</t>
-  </si>
-  <si>
     <t>REFERRAL DECISION (to be approved by case management supervisor)</t>
   </si>
   <si>
-    <t>File Upload</t>
+    <t>REASON FOR REFERRAL AND RECOMMNEDATIONS</t>
+  </si>
+  <si>
+    <t>client_representing_problem_note</t>
+  </si>
+  <si>
+    <t>What issues/needs does the client say he or she needs help addressing:</t>
+  </si>
+  <si>
+    <t>referral_reason_note</t>
+  </si>
+  <si>
+    <t>The referral source’s reason for referral:</t>
+  </si>
+  <si>
+    <t>referral_decision_note</t>
+  </si>
+  <si>
+    <t>Action/intervention taken:</t>
+  </si>
+  <si>
+    <t>program_stream_ids</t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1297,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1666,10 +1684,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW129"/>
+  <dimension ref="A1:IW133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -16506,7 +16524,9 @@
       <c r="A102" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="B102" s="58"/>
+      <c r="B102" s="58" t="s">
+        <v>11</v>
+      </c>
       <c r="C102" s="95" t="s">
         <v>217</v>
       </c>
@@ -16534,7 +16554,9 @@
       <c r="A103" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="58"/>
+      <c r="B103" s="58" t="s">
+        <v>11</v>
+      </c>
       <c r="C103" s="95" t="s">
         <v>218</v>
       </c>
@@ -16562,7 +16584,9 @@
       <c r="A104" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="58"/>
+      <c r="B104" s="58" t="s">
+        <v>11</v>
+      </c>
       <c r="C104" s="95" t="s">
         <v>222</v>
       </c>
@@ -16586,31 +16610,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:257" ht="15.75" customHeight="1">
-      <c r="A105" s="78" t="s">
+    <row r="105" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A105" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="B105" s="78" t="s">
-        <v>224</v>
       </c>
       <c r="C105" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="F105" s="80" t="s">
+      <c r="D105" s="58"/>
+      <c r="E105" s="76" t="s">
+        <v>223</v>
+      </c>
+      <c r="F105" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="81">
-        <v>0</v>
-      </c>
-      <c r="H105" s="81">
+      <c r="G105" s="25">
+        <v>0</v>
+      </c>
+      <c r="H105" s="25">
         <v>1</v>
       </c>
-      <c r="I105" s="96"/>
-      <c r="J105" s="81" t="s">
+      <c r="I105" s="10"/>
+      <c r="J105" s="25" t="s">
         <v>15</v>
       </c>
       <c r="K105"/>
@@ -16862,30 +16886,30 @@
       <c r="IW105"/>
     </row>
     <row r="106" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A106" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="B106" s="78" t="s">
+      <c r="A106" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" s="19" t="s">
         <v>120</v>
       </c>
       <c r="C106" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="D106" s="57"/>
-      <c r="E106" s="80" t="s">
+      <c r="D106" s="58"/>
+      <c r="E106" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="F106" s="80" t="s">
+      <c r="F106" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="81">
-        <v>0</v>
-      </c>
-      <c r="H106" s="81">
+      <c r="G106" s="25">
+        <v>0</v>
+      </c>
+      <c r="H106" s="25">
         <v>1</v>
       </c>
-      <c r="I106" s="96"/>
-      <c r="J106" s="81" t="s">
+      <c r="I106" s="10"/>
+      <c r="J106" s="25" t="s">
         <v>15</v>
       </c>
       <c r="K106"/>
@@ -17137,2788 +17161,409 @@
       <c r="IW106"/>
     </row>
     <row r="107" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A107" s="57" t="s">
+      <c r="A107" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B107" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="57" t="s">
-        <v>226</v>
-      </c>
-      <c r="D107" s="57"/>
-      <c r="E107" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F107" s="97" t="s">
+      <c r="B107" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="58"/>
+      <c r="E107" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F107" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="81">
-        <v>0</v>
-      </c>
-      <c r="H107" s="57">
+      <c r="G107" s="25">
+        <v>0</v>
+      </c>
+      <c r="H107" s="97">
         <v>1</v>
       </c>
-      <c r="I107" s="97" t="s">
+      <c r="I107" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J107" s="97" t="s">
+      <c r="J107" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107"/>
-      <c r="V107"/>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="Z107"/>
-      <c r="AA107"/>
-      <c r="AB107"/>
-      <c r="AC107"/>
-      <c r="AD107"/>
-      <c r="AE107"/>
-      <c r="AF107"/>
-      <c r="AG107"/>
-      <c r="AH107"/>
-      <c r="AI107"/>
-      <c r="AJ107"/>
-      <c r="AK107"/>
-      <c r="AL107"/>
-      <c r="AM107"/>
-      <c r="AN107"/>
-      <c r="AO107"/>
-      <c r="AP107"/>
-      <c r="AQ107"/>
-      <c r="AR107"/>
-      <c r="AS107"/>
-      <c r="AT107"/>
-      <c r="AU107"/>
-      <c r="AV107"/>
-      <c r="AW107"/>
-      <c r="AX107"/>
-      <c r="AY107"/>
-      <c r="AZ107"/>
-      <c r="BA107"/>
-      <c r="BB107"/>
-      <c r="BC107"/>
-      <c r="BD107"/>
-      <c r="BE107"/>
-      <c r="BF107"/>
-      <c r="BG107"/>
-      <c r="BH107"/>
-      <c r="BI107"/>
-      <c r="BJ107"/>
-      <c r="BK107"/>
-      <c r="BL107"/>
-      <c r="BM107"/>
-      <c r="BN107"/>
-      <c r="BO107"/>
-      <c r="BP107"/>
-      <c r="BQ107"/>
-      <c r="BR107"/>
-      <c r="BS107"/>
-      <c r="BT107"/>
-      <c r="BU107"/>
-      <c r="BV107"/>
-      <c r="BW107"/>
-      <c r="BX107"/>
-      <c r="BY107"/>
-      <c r="BZ107"/>
-      <c r="CA107"/>
-      <c r="CB107"/>
-      <c r="CC107"/>
-      <c r="CD107"/>
-      <c r="CE107"/>
-      <c r="CF107"/>
-      <c r="CG107"/>
-      <c r="CH107"/>
-      <c r="CI107"/>
-      <c r="CJ107"/>
-      <c r="CK107"/>
-      <c r="CL107"/>
-      <c r="CM107"/>
-      <c r="CN107"/>
-      <c r="CO107"/>
-      <c r="CP107"/>
-      <c r="CQ107"/>
-      <c r="CR107"/>
-      <c r="CS107"/>
-      <c r="CT107"/>
-      <c r="CU107"/>
-      <c r="CV107"/>
-      <c r="CW107"/>
-      <c r="CX107"/>
-      <c r="CY107"/>
-      <c r="CZ107"/>
-      <c r="DA107"/>
-      <c r="DB107"/>
-      <c r="DC107"/>
-      <c r="DD107"/>
-      <c r="DE107"/>
-      <c r="DF107"/>
-      <c r="DG107"/>
-      <c r="DH107"/>
-      <c r="DI107"/>
-      <c r="DJ107"/>
-      <c r="DK107"/>
-      <c r="DL107"/>
-      <c r="DM107"/>
-      <c r="DN107"/>
-      <c r="DO107"/>
-      <c r="DP107"/>
-      <c r="DQ107"/>
-      <c r="DR107"/>
-      <c r="DS107"/>
-      <c r="DT107"/>
-      <c r="DU107"/>
-      <c r="DV107"/>
-      <c r="DW107"/>
-      <c r="DX107"/>
-      <c r="DY107"/>
-      <c r="DZ107"/>
-      <c r="EA107"/>
-      <c r="EB107"/>
-      <c r="EC107"/>
-      <c r="ED107"/>
-      <c r="EE107"/>
-      <c r="EF107"/>
-      <c r="EG107"/>
-      <c r="EH107"/>
-      <c r="EI107"/>
-      <c r="EJ107"/>
-      <c r="EK107"/>
-      <c r="EL107"/>
-      <c r="EM107"/>
-      <c r="EN107"/>
-      <c r="EO107"/>
-      <c r="EP107"/>
-      <c r="EQ107"/>
-      <c r="ER107"/>
-      <c r="ES107"/>
-      <c r="ET107"/>
-      <c r="EU107"/>
-      <c r="EV107"/>
-      <c r="EW107"/>
-      <c r="EX107"/>
-      <c r="EY107"/>
-      <c r="EZ107"/>
-      <c r="FA107"/>
-      <c r="FB107"/>
-      <c r="FC107"/>
-      <c r="FD107"/>
-      <c r="FE107"/>
-      <c r="FF107"/>
-      <c r="FG107"/>
-      <c r="FH107"/>
-      <c r="FI107"/>
-      <c r="FJ107"/>
-      <c r="FK107"/>
-      <c r="FL107"/>
-      <c r="FM107"/>
-      <c r="FN107"/>
-      <c r="FO107"/>
-      <c r="FP107"/>
-      <c r="FQ107"/>
-      <c r="FR107"/>
-      <c r="FS107"/>
-      <c r="FT107"/>
-      <c r="FU107"/>
-      <c r="FV107"/>
-      <c r="FW107"/>
-      <c r="FX107"/>
-      <c r="FY107"/>
-      <c r="FZ107"/>
-      <c r="GA107"/>
-      <c r="GB107"/>
-      <c r="GC107"/>
-      <c r="GD107"/>
-      <c r="GE107"/>
-      <c r="GF107"/>
-      <c r="GG107"/>
-      <c r="GH107"/>
-      <c r="GI107"/>
-      <c r="GJ107"/>
-      <c r="GK107"/>
-      <c r="GL107"/>
-      <c r="GM107"/>
-      <c r="GN107"/>
-      <c r="GO107"/>
-      <c r="GP107"/>
-      <c r="GQ107"/>
-      <c r="GR107"/>
-      <c r="GS107"/>
-      <c r="GT107"/>
-      <c r="GU107"/>
-      <c r="GV107"/>
-      <c r="GW107"/>
-      <c r="GX107"/>
-      <c r="GY107"/>
-      <c r="GZ107"/>
-      <c r="HA107"/>
-      <c r="HB107"/>
-      <c r="HC107"/>
-      <c r="HD107"/>
-      <c r="HE107"/>
-      <c r="HF107"/>
-      <c r="HG107"/>
-      <c r="HH107"/>
-      <c r="HI107"/>
-      <c r="HJ107"/>
-      <c r="HK107"/>
-      <c r="HL107"/>
-      <c r="HM107"/>
-      <c r="HN107"/>
-      <c r="HO107"/>
-      <c r="HP107"/>
-      <c r="HQ107"/>
-      <c r="HR107"/>
-      <c r="HS107"/>
-      <c r="HT107"/>
-      <c r="HU107"/>
-      <c r="HV107"/>
-      <c r="HW107"/>
-      <c r="HX107"/>
-      <c r="HY107"/>
-      <c r="HZ107"/>
-      <c r="IA107"/>
-      <c r="IB107"/>
-      <c r="IC107"/>
-      <c r="ID107"/>
-      <c r="IE107"/>
-      <c r="IF107"/>
-      <c r="IG107"/>
-      <c r="IH107"/>
-      <c r="II107"/>
-      <c r="IJ107"/>
-      <c r="IK107"/>
-      <c r="IL107"/>
-      <c r="IM107"/>
-      <c r="IN107"/>
-      <c r="IO107"/>
-      <c r="IP107"/>
-      <c r="IQ107"/>
-      <c r="IR107"/>
-      <c r="IS107"/>
-      <c r="IT107"/>
-      <c r="IU107"/>
-      <c r="IV107"/>
-      <c r="IW107"/>
     </row>
     <row r="108" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A108" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B108" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="C108" s="57" t="s">
-        <v>229</v>
-      </c>
-      <c r="D108" s="57"/>
-      <c r="E108" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F108" s="97" t="s">
+      <c r="A108" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C108" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="58"/>
+      <c r="E108" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F108" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="81">
-        <v>0</v>
-      </c>
-      <c r="H108" s="57">
+      <c r="G108" s="25">
+        <v>0</v>
+      </c>
+      <c r="H108" s="58">
         <v>1</v>
       </c>
-      <c r="I108" s="97" t="s">
+      <c r="I108" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J108" s="97" t="s">
+      <c r="J108" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K108"/>
-      <c r="L108"/>
-      <c r="M108"/>
-      <c r="N108"/>
-      <c r="O108"/>
-      <c r="P108"/>
-      <c r="Q108"/>
-      <c r="R108"/>
-      <c r="S108"/>
-      <c r="T108"/>
-      <c r="U108"/>
-      <c r="V108"/>
-      <c r="W108"/>
-      <c r="X108"/>
-      <c r="Y108"/>
-      <c r="Z108"/>
-      <c r="AA108"/>
-      <c r="AB108"/>
-      <c r="AC108"/>
-      <c r="AD108"/>
-      <c r="AE108"/>
-      <c r="AF108"/>
-      <c r="AG108"/>
-      <c r="AH108"/>
-      <c r="AI108"/>
-      <c r="AJ108"/>
-      <c r="AK108"/>
-      <c r="AL108"/>
-      <c r="AM108"/>
-      <c r="AN108"/>
-      <c r="AO108"/>
-      <c r="AP108"/>
-      <c r="AQ108"/>
-      <c r="AR108"/>
-      <c r="AS108"/>
-      <c r="AT108"/>
-      <c r="AU108"/>
-      <c r="AV108"/>
-      <c r="AW108"/>
-      <c r="AX108"/>
-      <c r="AY108"/>
-      <c r="AZ108"/>
-      <c r="BA108"/>
-      <c r="BB108"/>
-      <c r="BC108"/>
-      <c r="BD108"/>
-      <c r="BE108"/>
-      <c r="BF108"/>
-      <c r="BG108"/>
-      <c r="BH108"/>
-      <c r="BI108"/>
-      <c r="BJ108"/>
-      <c r="BK108"/>
-      <c r="BL108"/>
-      <c r="BM108"/>
-      <c r="BN108"/>
-      <c r="BO108"/>
-      <c r="BP108"/>
-      <c r="BQ108"/>
-      <c r="BR108"/>
-      <c r="BS108"/>
-      <c r="BT108"/>
-      <c r="BU108"/>
-      <c r="BV108"/>
-      <c r="BW108"/>
-      <c r="BX108"/>
-      <c r="BY108"/>
-      <c r="BZ108"/>
-      <c r="CA108"/>
-      <c r="CB108"/>
-      <c r="CC108"/>
-      <c r="CD108"/>
-      <c r="CE108"/>
-      <c r="CF108"/>
-      <c r="CG108"/>
-      <c r="CH108"/>
-      <c r="CI108"/>
-      <c r="CJ108"/>
-      <c r="CK108"/>
-      <c r="CL108"/>
-      <c r="CM108"/>
-      <c r="CN108"/>
-      <c r="CO108"/>
-      <c r="CP108"/>
-      <c r="CQ108"/>
-      <c r="CR108"/>
-      <c r="CS108"/>
-      <c r="CT108"/>
-      <c r="CU108"/>
-      <c r="CV108"/>
-      <c r="CW108"/>
-      <c r="CX108"/>
-      <c r="CY108"/>
-      <c r="CZ108"/>
-      <c r="DA108"/>
-      <c r="DB108"/>
-      <c r="DC108"/>
-      <c r="DD108"/>
-      <c r="DE108"/>
-      <c r="DF108"/>
-      <c r="DG108"/>
-      <c r="DH108"/>
-      <c r="DI108"/>
-      <c r="DJ108"/>
-      <c r="DK108"/>
-      <c r="DL108"/>
-      <c r="DM108"/>
-      <c r="DN108"/>
-      <c r="DO108"/>
-      <c r="DP108"/>
-      <c r="DQ108"/>
-      <c r="DR108"/>
-      <c r="DS108"/>
-      <c r="DT108"/>
-      <c r="DU108"/>
-      <c r="DV108"/>
-      <c r="DW108"/>
-      <c r="DX108"/>
-      <c r="DY108"/>
-      <c r="DZ108"/>
-      <c r="EA108"/>
-      <c r="EB108"/>
-      <c r="EC108"/>
-      <c r="ED108"/>
-      <c r="EE108"/>
-      <c r="EF108"/>
-      <c r="EG108"/>
-      <c r="EH108"/>
-      <c r="EI108"/>
-      <c r="EJ108"/>
-      <c r="EK108"/>
-      <c r="EL108"/>
-      <c r="EM108"/>
-      <c r="EN108"/>
-      <c r="EO108"/>
-      <c r="EP108"/>
-      <c r="EQ108"/>
-      <c r="ER108"/>
-      <c r="ES108"/>
-      <c r="ET108"/>
-      <c r="EU108"/>
-      <c r="EV108"/>
-      <c r="EW108"/>
-      <c r="EX108"/>
-      <c r="EY108"/>
-      <c r="EZ108"/>
-      <c r="FA108"/>
-      <c r="FB108"/>
-      <c r="FC108"/>
-      <c r="FD108"/>
-      <c r="FE108"/>
-      <c r="FF108"/>
-      <c r="FG108"/>
-      <c r="FH108"/>
-      <c r="FI108"/>
-      <c r="FJ108"/>
-      <c r="FK108"/>
-      <c r="FL108"/>
-      <c r="FM108"/>
-      <c r="FN108"/>
-      <c r="FO108"/>
-      <c r="FP108"/>
-      <c r="FQ108"/>
-      <c r="FR108"/>
-      <c r="FS108"/>
-      <c r="FT108"/>
-      <c r="FU108"/>
-      <c r="FV108"/>
-      <c r="FW108"/>
-      <c r="FX108"/>
-      <c r="FY108"/>
-      <c r="FZ108"/>
-      <c r="GA108"/>
-      <c r="GB108"/>
-      <c r="GC108"/>
-      <c r="GD108"/>
-      <c r="GE108"/>
-      <c r="GF108"/>
-      <c r="GG108"/>
-      <c r="GH108"/>
-      <c r="GI108"/>
-      <c r="GJ108"/>
-      <c r="GK108"/>
-      <c r="GL108"/>
-      <c r="GM108"/>
-      <c r="GN108"/>
-      <c r="GO108"/>
-      <c r="GP108"/>
-      <c r="GQ108"/>
-      <c r="GR108"/>
-      <c r="GS108"/>
-      <c r="GT108"/>
-      <c r="GU108"/>
-      <c r="GV108"/>
-      <c r="GW108"/>
-      <c r="GX108"/>
-      <c r="GY108"/>
-      <c r="GZ108"/>
-      <c r="HA108"/>
-      <c r="HB108"/>
-      <c r="HC108"/>
-      <c r="HD108"/>
-      <c r="HE108"/>
-      <c r="HF108"/>
-      <c r="HG108"/>
-      <c r="HH108"/>
-      <c r="HI108"/>
-      <c r="HJ108"/>
-      <c r="HK108"/>
-      <c r="HL108"/>
-      <c r="HM108"/>
-      <c r="HN108"/>
-      <c r="HO108"/>
-      <c r="HP108"/>
-      <c r="HQ108"/>
-      <c r="HR108"/>
-      <c r="HS108"/>
-      <c r="HT108"/>
-      <c r="HU108"/>
-      <c r="HV108"/>
-      <c r="HW108"/>
-      <c r="HX108"/>
-      <c r="HY108"/>
-      <c r="HZ108"/>
-      <c r="IA108"/>
-      <c r="IB108"/>
-      <c r="IC108"/>
-      <c r="ID108"/>
-      <c r="IE108"/>
-      <c r="IF108"/>
-      <c r="IG108"/>
-      <c r="IH108"/>
-      <c r="II108"/>
-      <c r="IJ108"/>
-      <c r="IK108"/>
-      <c r="IL108"/>
-      <c r="IM108"/>
-      <c r="IN108"/>
-      <c r="IO108"/>
-      <c r="IP108"/>
-      <c r="IQ108"/>
-      <c r="IR108"/>
-      <c r="IS108"/>
-      <c r="IT108"/>
-      <c r="IU108"/>
-      <c r="IV108"/>
-      <c r="IW108"/>
     </row>
     <row r="109" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A109" s="57" t="s">
-        <v>228</v>
-      </c>
-      <c r="B109" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C109" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="D109" s="57"/>
-      <c r="E109" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F109" s="97" t="s">
+      <c r="A109" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B109" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C109" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="58"/>
+      <c r="E109" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F109" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G109" s="81">
-        <v>0</v>
-      </c>
-      <c r="H109" s="57">
+      <c r="G109" s="25">
+        <v>0</v>
+      </c>
+      <c r="H109" s="58">
         <v>1</v>
       </c>
-      <c r="I109" s="97" t="s">
+      <c r="I109" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J109" s="97" t="s">
+      <c r="J109" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K109"/>
-      <c r="L109"/>
-      <c r="M109"/>
-      <c r="N109"/>
-      <c r="O109"/>
-      <c r="P109"/>
-      <c r="Q109"/>
-      <c r="R109"/>
-      <c r="S109"/>
-      <c r="T109"/>
-      <c r="U109"/>
-      <c r="V109"/>
-      <c r="W109"/>
-      <c r="X109"/>
-      <c r="Y109"/>
-      <c r="Z109"/>
-      <c r="AA109"/>
-      <c r="AB109"/>
-      <c r="AC109"/>
-      <c r="AD109"/>
-      <c r="AE109"/>
-      <c r="AF109"/>
-      <c r="AG109"/>
-      <c r="AH109"/>
-      <c r="AI109"/>
-      <c r="AJ109"/>
-      <c r="AK109"/>
-      <c r="AL109"/>
-      <c r="AM109"/>
-      <c r="AN109"/>
-      <c r="AO109"/>
-      <c r="AP109"/>
-      <c r="AQ109"/>
-      <c r="AR109"/>
-      <c r="AS109"/>
-      <c r="AT109"/>
-      <c r="AU109"/>
-      <c r="AV109"/>
-      <c r="AW109"/>
-      <c r="AX109"/>
-      <c r="AY109"/>
-      <c r="AZ109"/>
-      <c r="BA109"/>
-      <c r="BB109"/>
-      <c r="BC109"/>
-      <c r="BD109"/>
-      <c r="BE109"/>
-      <c r="BF109"/>
-      <c r="BG109"/>
-      <c r="BH109"/>
-      <c r="BI109"/>
-      <c r="BJ109"/>
-      <c r="BK109"/>
-      <c r="BL109"/>
-      <c r="BM109"/>
-      <c r="BN109"/>
-      <c r="BO109"/>
-      <c r="BP109"/>
-      <c r="BQ109"/>
-      <c r="BR109"/>
-      <c r="BS109"/>
-      <c r="BT109"/>
-      <c r="BU109"/>
-      <c r="BV109"/>
-      <c r="BW109"/>
-      <c r="BX109"/>
-      <c r="BY109"/>
-      <c r="BZ109"/>
-      <c r="CA109"/>
-      <c r="CB109"/>
-      <c r="CC109"/>
-      <c r="CD109"/>
-      <c r="CE109"/>
-      <c r="CF109"/>
-      <c r="CG109"/>
-      <c r="CH109"/>
-      <c r="CI109"/>
-      <c r="CJ109"/>
-      <c r="CK109"/>
-      <c r="CL109"/>
-      <c r="CM109"/>
-      <c r="CN109"/>
-      <c r="CO109"/>
-      <c r="CP109"/>
-      <c r="CQ109"/>
-      <c r="CR109"/>
-      <c r="CS109"/>
-      <c r="CT109"/>
-      <c r="CU109"/>
-      <c r="CV109"/>
-      <c r="CW109"/>
-      <c r="CX109"/>
-      <c r="CY109"/>
-      <c r="CZ109"/>
-      <c r="DA109"/>
-      <c r="DB109"/>
-      <c r="DC109"/>
-      <c r="DD109"/>
-      <c r="DE109"/>
-      <c r="DF109"/>
-      <c r="DG109"/>
-      <c r="DH109"/>
-      <c r="DI109"/>
-      <c r="DJ109"/>
-      <c r="DK109"/>
-      <c r="DL109"/>
-      <c r="DM109"/>
-      <c r="DN109"/>
-      <c r="DO109"/>
-      <c r="DP109"/>
-      <c r="DQ109"/>
-      <c r="DR109"/>
-      <c r="DS109"/>
-      <c r="DT109"/>
-      <c r="DU109"/>
-      <c r="DV109"/>
-      <c r="DW109"/>
-      <c r="DX109"/>
-      <c r="DY109"/>
-      <c r="DZ109"/>
-      <c r="EA109"/>
-      <c r="EB109"/>
-      <c r="EC109"/>
-      <c r="ED109"/>
-      <c r="EE109"/>
-      <c r="EF109"/>
-      <c r="EG109"/>
-      <c r="EH109"/>
-      <c r="EI109"/>
-      <c r="EJ109"/>
-      <c r="EK109"/>
-      <c r="EL109"/>
-      <c r="EM109"/>
-      <c r="EN109"/>
-      <c r="EO109"/>
-      <c r="EP109"/>
-      <c r="EQ109"/>
-      <c r="ER109"/>
-      <c r="ES109"/>
-      <c r="ET109"/>
-      <c r="EU109"/>
-      <c r="EV109"/>
-      <c r="EW109"/>
-      <c r="EX109"/>
-      <c r="EY109"/>
-      <c r="EZ109"/>
-      <c r="FA109"/>
-      <c r="FB109"/>
-      <c r="FC109"/>
-      <c r="FD109"/>
-      <c r="FE109"/>
-      <c r="FF109"/>
-      <c r="FG109"/>
-      <c r="FH109"/>
-      <c r="FI109"/>
-      <c r="FJ109"/>
-      <c r="FK109"/>
-      <c r="FL109"/>
-      <c r="FM109"/>
-      <c r="FN109"/>
-      <c r="FO109"/>
-      <c r="FP109"/>
-      <c r="FQ109"/>
-      <c r="FR109"/>
-      <c r="FS109"/>
-      <c r="FT109"/>
-      <c r="FU109"/>
-      <c r="FV109"/>
-      <c r="FW109"/>
-      <c r="FX109"/>
-      <c r="FY109"/>
-      <c r="FZ109"/>
-      <c r="GA109"/>
-      <c r="GB109"/>
-      <c r="GC109"/>
-      <c r="GD109"/>
-      <c r="GE109"/>
-      <c r="GF109"/>
-      <c r="GG109"/>
-      <c r="GH109"/>
-      <c r="GI109"/>
-      <c r="GJ109"/>
-      <c r="GK109"/>
-      <c r="GL109"/>
-      <c r="GM109"/>
-      <c r="GN109"/>
-      <c r="GO109"/>
-      <c r="GP109"/>
-      <c r="GQ109"/>
-      <c r="GR109"/>
-      <c r="GS109"/>
-      <c r="GT109"/>
-      <c r="GU109"/>
-      <c r="GV109"/>
-      <c r="GW109"/>
-      <c r="GX109"/>
-      <c r="GY109"/>
-      <c r="GZ109"/>
-      <c r="HA109"/>
-      <c r="HB109"/>
-      <c r="HC109"/>
-      <c r="HD109"/>
-      <c r="HE109"/>
-      <c r="HF109"/>
-      <c r="HG109"/>
-      <c r="HH109"/>
-      <c r="HI109"/>
-      <c r="HJ109"/>
-      <c r="HK109"/>
-      <c r="HL109"/>
-      <c r="HM109"/>
-      <c r="HN109"/>
-      <c r="HO109"/>
-      <c r="HP109"/>
-      <c r="HQ109"/>
-      <c r="HR109"/>
-      <c r="HS109"/>
-      <c r="HT109"/>
-      <c r="HU109"/>
-      <c r="HV109"/>
-      <c r="HW109"/>
-      <c r="HX109"/>
-      <c r="HY109"/>
-      <c r="HZ109"/>
-      <c r="IA109"/>
-      <c r="IB109"/>
-      <c r="IC109"/>
-      <c r="ID109"/>
-      <c r="IE109"/>
-      <c r="IF109"/>
-      <c r="IG109"/>
-      <c r="IH109"/>
-      <c r="II109"/>
-      <c r="IJ109"/>
-      <c r="IK109"/>
-      <c r="IL109"/>
-      <c r="IM109"/>
-      <c r="IN109"/>
-      <c r="IO109"/>
-      <c r="IP109"/>
-      <c r="IQ109"/>
-      <c r="IR109"/>
-      <c r="IS109"/>
-      <c r="IT109"/>
-      <c r="IU109"/>
-      <c r="IV109"/>
-      <c r="IW109"/>
     </row>
     <row r="110" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A110" s="57" t="s">
+      <c r="A110" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B110" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="B110" s="57" t="s">
+      <c r="C110" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D110" s="58"/>
+      <c r="E110" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D110" s="57"/>
-      <c r="E110" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F110" s="97" t="s">
+      <c r="F110" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G110" s="81">
-        <v>0</v>
-      </c>
-      <c r="H110" s="57">
+      <c r="G110" s="25">
+        <v>0</v>
+      </c>
+      <c r="H110" s="58">
         <v>1</v>
       </c>
-      <c r="I110" s="97" t="s">
+      <c r="I110" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J110" s="97" t="s">
+      <c r="J110" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K110"/>
-      <c r="L110"/>
-      <c r="M110"/>
-      <c r="N110"/>
-      <c r="O110"/>
-      <c r="P110"/>
-      <c r="Q110"/>
-      <c r="R110"/>
-      <c r="S110"/>
-      <c r="T110"/>
-      <c r="U110"/>
-      <c r="V110"/>
-      <c r="W110"/>
-      <c r="X110"/>
-      <c r="Y110"/>
-      <c r="Z110"/>
-      <c r="AA110"/>
-      <c r="AB110"/>
-      <c r="AC110"/>
-      <c r="AD110"/>
-      <c r="AE110"/>
-      <c r="AF110"/>
-      <c r="AG110"/>
-      <c r="AH110"/>
-      <c r="AI110"/>
-      <c r="AJ110"/>
-      <c r="AK110"/>
-      <c r="AL110"/>
-      <c r="AM110"/>
-      <c r="AN110"/>
-      <c r="AO110"/>
-      <c r="AP110"/>
-      <c r="AQ110"/>
-      <c r="AR110"/>
-      <c r="AS110"/>
-      <c r="AT110"/>
-      <c r="AU110"/>
-      <c r="AV110"/>
-      <c r="AW110"/>
-      <c r="AX110"/>
-      <c r="AY110"/>
-      <c r="AZ110"/>
-      <c r="BA110"/>
-      <c r="BB110"/>
-      <c r="BC110"/>
-      <c r="BD110"/>
-      <c r="BE110"/>
-      <c r="BF110"/>
-      <c r="BG110"/>
-      <c r="BH110"/>
-      <c r="BI110"/>
-      <c r="BJ110"/>
-      <c r="BK110"/>
-      <c r="BL110"/>
-      <c r="BM110"/>
-      <c r="BN110"/>
-      <c r="BO110"/>
-      <c r="BP110"/>
-      <c r="BQ110"/>
-      <c r="BR110"/>
-      <c r="BS110"/>
-      <c r="BT110"/>
-      <c r="BU110"/>
-      <c r="BV110"/>
-      <c r="BW110"/>
-      <c r="BX110"/>
-      <c r="BY110"/>
-      <c r="BZ110"/>
-      <c r="CA110"/>
-      <c r="CB110"/>
-      <c r="CC110"/>
-      <c r="CD110"/>
-      <c r="CE110"/>
-      <c r="CF110"/>
-      <c r="CG110"/>
-      <c r="CH110"/>
-      <c r="CI110"/>
-      <c r="CJ110"/>
-      <c r="CK110"/>
-      <c r="CL110"/>
-      <c r="CM110"/>
-      <c r="CN110"/>
-      <c r="CO110"/>
-      <c r="CP110"/>
-      <c r="CQ110"/>
-      <c r="CR110"/>
-      <c r="CS110"/>
-      <c r="CT110"/>
-      <c r="CU110"/>
-      <c r="CV110"/>
-      <c r="CW110"/>
-      <c r="CX110"/>
-      <c r="CY110"/>
-      <c r="CZ110"/>
-      <c r="DA110"/>
-      <c r="DB110"/>
-      <c r="DC110"/>
-      <c r="DD110"/>
-      <c r="DE110"/>
-      <c r="DF110"/>
-      <c r="DG110"/>
-      <c r="DH110"/>
-      <c r="DI110"/>
-      <c r="DJ110"/>
-      <c r="DK110"/>
-      <c r="DL110"/>
-      <c r="DM110"/>
-      <c r="DN110"/>
-      <c r="DO110"/>
-      <c r="DP110"/>
-      <c r="DQ110"/>
-      <c r="DR110"/>
-      <c r="DS110"/>
-      <c r="DT110"/>
-      <c r="DU110"/>
-      <c r="DV110"/>
-      <c r="DW110"/>
-      <c r="DX110"/>
-      <c r="DY110"/>
-      <c r="DZ110"/>
-      <c r="EA110"/>
-      <c r="EB110"/>
-      <c r="EC110"/>
-      <c r="ED110"/>
-      <c r="EE110"/>
-      <c r="EF110"/>
-      <c r="EG110"/>
-      <c r="EH110"/>
-      <c r="EI110"/>
-      <c r="EJ110"/>
-      <c r="EK110"/>
-      <c r="EL110"/>
-      <c r="EM110"/>
-      <c r="EN110"/>
-      <c r="EO110"/>
-      <c r="EP110"/>
-      <c r="EQ110"/>
-      <c r="ER110"/>
-      <c r="ES110"/>
-      <c r="ET110"/>
-      <c r="EU110"/>
-      <c r="EV110"/>
-      <c r="EW110"/>
-      <c r="EX110"/>
-      <c r="EY110"/>
-      <c r="EZ110"/>
-      <c r="FA110"/>
-      <c r="FB110"/>
-      <c r="FC110"/>
-      <c r="FD110"/>
-      <c r="FE110"/>
-      <c r="FF110"/>
-      <c r="FG110"/>
-      <c r="FH110"/>
-      <c r="FI110"/>
-      <c r="FJ110"/>
-      <c r="FK110"/>
-      <c r="FL110"/>
-      <c r="FM110"/>
-      <c r="FN110"/>
-      <c r="FO110"/>
-      <c r="FP110"/>
-      <c r="FQ110"/>
-      <c r="FR110"/>
-      <c r="FS110"/>
-      <c r="FT110"/>
-      <c r="FU110"/>
-      <c r="FV110"/>
-      <c r="FW110"/>
-      <c r="FX110"/>
-      <c r="FY110"/>
-      <c r="FZ110"/>
-      <c r="GA110"/>
-      <c r="GB110"/>
-      <c r="GC110"/>
-      <c r="GD110"/>
-      <c r="GE110"/>
-      <c r="GF110"/>
-      <c r="GG110"/>
-      <c r="GH110"/>
-      <c r="GI110"/>
-      <c r="GJ110"/>
-      <c r="GK110"/>
-      <c r="GL110"/>
-      <c r="GM110"/>
-      <c r="GN110"/>
-      <c r="GO110"/>
-      <c r="GP110"/>
-      <c r="GQ110"/>
-      <c r="GR110"/>
-      <c r="GS110"/>
-      <c r="GT110"/>
-      <c r="GU110"/>
-      <c r="GV110"/>
-      <c r="GW110"/>
-      <c r="GX110"/>
-      <c r="GY110"/>
-      <c r="GZ110"/>
-      <c r="HA110"/>
-      <c r="HB110"/>
-      <c r="HC110"/>
-      <c r="HD110"/>
-      <c r="HE110"/>
-      <c r="HF110"/>
-      <c r="HG110"/>
-      <c r="HH110"/>
-      <c r="HI110"/>
-      <c r="HJ110"/>
-      <c r="HK110"/>
-      <c r="HL110"/>
-      <c r="HM110"/>
-      <c r="HN110"/>
-      <c r="HO110"/>
-      <c r="HP110"/>
-      <c r="HQ110"/>
-      <c r="HR110"/>
-      <c r="HS110"/>
-      <c r="HT110"/>
-      <c r="HU110"/>
-      <c r="HV110"/>
-      <c r="HW110"/>
-      <c r="HX110"/>
-      <c r="HY110"/>
-      <c r="HZ110"/>
-      <c r="IA110"/>
-      <c r="IB110"/>
-      <c r="IC110"/>
-      <c r="ID110"/>
-      <c r="IE110"/>
-      <c r="IF110"/>
-      <c r="IG110"/>
-      <c r="IH110"/>
-      <c r="II110"/>
-      <c r="IJ110"/>
-      <c r="IK110"/>
-      <c r="IL110"/>
-      <c r="IM110"/>
-      <c r="IN110"/>
-      <c r="IO110"/>
-      <c r="IP110"/>
-      <c r="IQ110"/>
-      <c r="IR110"/>
-      <c r="IS110"/>
-      <c r="IT110"/>
-      <c r="IU110"/>
-      <c r="IV110"/>
-      <c r="IW110"/>
     </row>
     <row r="111" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A111" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="B111" s="57" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="57" t="s">
-        <v>235</v>
-      </c>
-      <c r="D111" s="57"/>
-      <c r="E111" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F111" s="97" t="s">
+      <c r="A111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C111" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D111" s="58"/>
+      <c r="E111" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F111" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G111" s="81">
+      <c r="G111" s="25">
         <v>4</v>
       </c>
-      <c r="H111" s="57">
+      <c r="H111" s="58">
         <v>1</v>
       </c>
-      <c r="I111" s="97" t="s">
+      <c r="I111" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J111" s="97" t="s">
+      <c r="J111" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K111"/>
-      <c r="L111"/>
-      <c r="M111"/>
-      <c r="N111"/>
-      <c r="O111"/>
-      <c r="P111"/>
-      <c r="Q111"/>
-      <c r="R111"/>
-      <c r="S111"/>
-      <c r="T111"/>
-      <c r="U111"/>
-      <c r="V111"/>
-      <c r="W111"/>
-      <c r="X111"/>
-      <c r="Y111"/>
-      <c r="Z111"/>
-      <c r="AA111"/>
-      <c r="AB111"/>
-      <c r="AC111"/>
-      <c r="AD111"/>
-      <c r="AE111"/>
-      <c r="AF111"/>
-      <c r="AG111"/>
-      <c r="AH111"/>
-      <c r="AI111"/>
-      <c r="AJ111"/>
-      <c r="AK111"/>
-      <c r="AL111"/>
-      <c r="AM111"/>
-      <c r="AN111"/>
-      <c r="AO111"/>
-      <c r="AP111"/>
-      <c r="AQ111"/>
-      <c r="AR111"/>
-      <c r="AS111"/>
-      <c r="AT111"/>
-      <c r="AU111"/>
-      <c r="AV111"/>
-      <c r="AW111"/>
-      <c r="AX111"/>
-      <c r="AY111"/>
-      <c r="AZ111"/>
-      <c r="BA111"/>
-      <c r="BB111"/>
-      <c r="BC111"/>
-      <c r="BD111"/>
-      <c r="BE111"/>
-      <c r="BF111"/>
-      <c r="BG111"/>
-      <c r="BH111"/>
-      <c r="BI111"/>
-      <c r="BJ111"/>
-      <c r="BK111"/>
-      <c r="BL111"/>
-      <c r="BM111"/>
-      <c r="BN111"/>
-      <c r="BO111"/>
-      <c r="BP111"/>
-      <c r="BQ111"/>
-      <c r="BR111"/>
-      <c r="BS111"/>
-      <c r="BT111"/>
-      <c r="BU111"/>
-      <c r="BV111"/>
-      <c r="BW111"/>
-      <c r="BX111"/>
-      <c r="BY111"/>
-      <c r="BZ111"/>
-      <c r="CA111"/>
-      <c r="CB111"/>
-      <c r="CC111"/>
-      <c r="CD111"/>
-      <c r="CE111"/>
-      <c r="CF111"/>
-      <c r="CG111"/>
-      <c r="CH111"/>
-      <c r="CI111"/>
-      <c r="CJ111"/>
-      <c r="CK111"/>
-      <c r="CL111"/>
-      <c r="CM111"/>
-      <c r="CN111"/>
-      <c r="CO111"/>
-      <c r="CP111"/>
-      <c r="CQ111"/>
-      <c r="CR111"/>
-      <c r="CS111"/>
-      <c r="CT111"/>
-      <c r="CU111"/>
-      <c r="CV111"/>
-      <c r="CW111"/>
-      <c r="CX111"/>
-      <c r="CY111"/>
-      <c r="CZ111"/>
-      <c r="DA111"/>
-      <c r="DB111"/>
-      <c r="DC111"/>
-      <c r="DD111"/>
-      <c r="DE111"/>
-      <c r="DF111"/>
-      <c r="DG111"/>
-      <c r="DH111"/>
-      <c r="DI111"/>
-      <c r="DJ111"/>
-      <c r="DK111"/>
-      <c r="DL111"/>
-      <c r="DM111"/>
-      <c r="DN111"/>
-      <c r="DO111"/>
-      <c r="DP111"/>
-      <c r="DQ111"/>
-      <c r="DR111"/>
-      <c r="DS111"/>
-      <c r="DT111"/>
-      <c r="DU111"/>
-      <c r="DV111"/>
-      <c r="DW111"/>
-      <c r="DX111"/>
-      <c r="DY111"/>
-      <c r="DZ111"/>
-      <c r="EA111"/>
-      <c r="EB111"/>
-      <c r="EC111"/>
-      <c r="ED111"/>
-      <c r="EE111"/>
-      <c r="EF111"/>
-      <c r="EG111"/>
-      <c r="EH111"/>
-      <c r="EI111"/>
-      <c r="EJ111"/>
-      <c r="EK111"/>
-      <c r="EL111"/>
-      <c r="EM111"/>
-      <c r="EN111"/>
-      <c r="EO111"/>
-      <c r="EP111"/>
-      <c r="EQ111"/>
-      <c r="ER111"/>
-      <c r="ES111"/>
-      <c r="ET111"/>
-      <c r="EU111"/>
-      <c r="EV111"/>
-      <c r="EW111"/>
-      <c r="EX111"/>
-      <c r="EY111"/>
-      <c r="EZ111"/>
-      <c r="FA111"/>
-      <c r="FB111"/>
-      <c r="FC111"/>
-      <c r="FD111"/>
-      <c r="FE111"/>
-      <c r="FF111"/>
-      <c r="FG111"/>
-      <c r="FH111"/>
-      <c r="FI111"/>
-      <c r="FJ111"/>
-      <c r="FK111"/>
-      <c r="FL111"/>
-      <c r="FM111"/>
-      <c r="FN111"/>
-      <c r="FO111"/>
-      <c r="FP111"/>
-      <c r="FQ111"/>
-      <c r="FR111"/>
-      <c r="FS111"/>
-      <c r="FT111"/>
-      <c r="FU111"/>
-      <c r="FV111"/>
-      <c r="FW111"/>
-      <c r="FX111"/>
-      <c r="FY111"/>
-      <c r="FZ111"/>
-      <c r="GA111"/>
-      <c r="GB111"/>
-      <c r="GC111"/>
-      <c r="GD111"/>
-      <c r="GE111"/>
-      <c r="GF111"/>
-      <c r="GG111"/>
-      <c r="GH111"/>
-      <c r="GI111"/>
-      <c r="GJ111"/>
-      <c r="GK111"/>
-      <c r="GL111"/>
-      <c r="GM111"/>
-      <c r="GN111"/>
-      <c r="GO111"/>
-      <c r="GP111"/>
-      <c r="GQ111"/>
-      <c r="GR111"/>
-      <c r="GS111"/>
-      <c r="GT111"/>
-      <c r="GU111"/>
-      <c r="GV111"/>
-      <c r="GW111"/>
-      <c r="GX111"/>
-      <c r="GY111"/>
-      <c r="GZ111"/>
-      <c r="HA111"/>
-      <c r="HB111"/>
-      <c r="HC111"/>
-      <c r="HD111"/>
-      <c r="HE111"/>
-      <c r="HF111"/>
-      <c r="HG111"/>
-      <c r="HH111"/>
-      <c r="HI111"/>
-      <c r="HJ111"/>
-      <c r="HK111"/>
-      <c r="HL111"/>
-      <c r="HM111"/>
-      <c r="HN111"/>
-      <c r="HO111"/>
-      <c r="HP111"/>
-      <c r="HQ111"/>
-      <c r="HR111"/>
-      <c r="HS111"/>
-      <c r="HT111"/>
-      <c r="HU111"/>
-      <c r="HV111"/>
-      <c r="HW111"/>
-      <c r="HX111"/>
-      <c r="HY111"/>
-      <c r="HZ111"/>
-      <c r="IA111"/>
-      <c r="IB111"/>
-      <c r="IC111"/>
-      <c r="ID111"/>
-      <c r="IE111"/>
-      <c r="IF111"/>
-      <c r="IG111"/>
-      <c r="IH111"/>
-      <c r="II111"/>
-      <c r="IJ111"/>
-      <c r="IK111"/>
-      <c r="IL111"/>
-      <c r="IM111"/>
-      <c r="IN111"/>
-      <c r="IO111"/>
-      <c r="IP111"/>
-      <c r="IQ111"/>
-      <c r="IR111"/>
-      <c r="IS111"/>
-      <c r="IT111"/>
-      <c r="IU111"/>
-      <c r="IV111"/>
-      <c r="IW111"/>
     </row>
     <row r="112" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A112" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="B112" s="57" t="s">
-        <v>236</v>
-      </c>
-      <c r="C112" s="57" t="s">
-        <v>237</v>
-      </c>
-      <c r="D112" s="57"/>
-      <c r="E112" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F112" s="97" t="s">
+      <c r="A112" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B112" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C112" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D112" s="58"/>
+      <c r="E112" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F112" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G112" s="81">
-        <v>0</v>
-      </c>
-      <c r="H112" s="57">
+      <c r="G112" s="25">
+        <v>0</v>
+      </c>
+      <c r="H112" s="58">
         <v>1</v>
       </c>
-      <c r="I112" s="97" t="s">
+      <c r="I112" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J112" s="97" t="s">
+      <c r="J112" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K112"/>
-      <c r="L112"/>
-      <c r="M112"/>
-      <c r="N112"/>
-      <c r="O112"/>
-      <c r="P112"/>
-      <c r="Q112"/>
-      <c r="R112"/>
-      <c r="S112"/>
-      <c r="T112"/>
-      <c r="U112"/>
-      <c r="V112"/>
-      <c r="W112"/>
-      <c r="X112"/>
-      <c r="Y112"/>
-      <c r="Z112"/>
-      <c r="AA112"/>
-      <c r="AB112"/>
-      <c r="AC112"/>
-      <c r="AD112"/>
-      <c r="AE112"/>
-      <c r="AF112"/>
-      <c r="AG112"/>
-      <c r="AH112"/>
-      <c r="AI112"/>
-      <c r="AJ112"/>
-      <c r="AK112"/>
-      <c r="AL112"/>
-      <c r="AM112"/>
-      <c r="AN112"/>
-      <c r="AO112"/>
-      <c r="AP112"/>
-      <c r="AQ112"/>
-      <c r="AR112"/>
-      <c r="AS112"/>
-      <c r="AT112"/>
-      <c r="AU112"/>
-      <c r="AV112"/>
-      <c r="AW112"/>
-      <c r="AX112"/>
-      <c r="AY112"/>
-      <c r="AZ112"/>
-      <c r="BA112"/>
-      <c r="BB112"/>
-      <c r="BC112"/>
-      <c r="BD112"/>
-      <c r="BE112"/>
-      <c r="BF112"/>
-      <c r="BG112"/>
-      <c r="BH112"/>
-      <c r="BI112"/>
-      <c r="BJ112"/>
-      <c r="BK112"/>
-      <c r="BL112"/>
-      <c r="BM112"/>
-      <c r="BN112"/>
-      <c r="BO112"/>
-      <c r="BP112"/>
-      <c r="BQ112"/>
-      <c r="BR112"/>
-      <c r="BS112"/>
-      <c r="BT112"/>
-      <c r="BU112"/>
-      <c r="BV112"/>
-      <c r="BW112"/>
-      <c r="BX112"/>
-      <c r="BY112"/>
-      <c r="BZ112"/>
-      <c r="CA112"/>
-      <c r="CB112"/>
-      <c r="CC112"/>
-      <c r="CD112"/>
-      <c r="CE112"/>
-      <c r="CF112"/>
-      <c r="CG112"/>
-      <c r="CH112"/>
-      <c r="CI112"/>
-      <c r="CJ112"/>
-      <c r="CK112"/>
-      <c r="CL112"/>
-      <c r="CM112"/>
-      <c r="CN112"/>
-      <c r="CO112"/>
-      <c r="CP112"/>
-      <c r="CQ112"/>
-      <c r="CR112"/>
-      <c r="CS112"/>
-      <c r="CT112"/>
-      <c r="CU112"/>
-      <c r="CV112"/>
-      <c r="CW112"/>
-      <c r="CX112"/>
-      <c r="CY112"/>
-      <c r="CZ112"/>
-      <c r="DA112"/>
-      <c r="DB112"/>
-      <c r="DC112"/>
-      <c r="DD112"/>
-      <c r="DE112"/>
-      <c r="DF112"/>
-      <c r="DG112"/>
-      <c r="DH112"/>
-      <c r="DI112"/>
-      <c r="DJ112"/>
-      <c r="DK112"/>
-      <c r="DL112"/>
-      <c r="DM112"/>
-      <c r="DN112"/>
-      <c r="DO112"/>
-      <c r="DP112"/>
-      <c r="DQ112"/>
-      <c r="DR112"/>
-      <c r="DS112"/>
-      <c r="DT112"/>
-      <c r="DU112"/>
-      <c r="DV112"/>
-      <c r="DW112"/>
-      <c r="DX112"/>
-      <c r="DY112"/>
-      <c r="DZ112"/>
-      <c r="EA112"/>
-      <c r="EB112"/>
-      <c r="EC112"/>
-      <c r="ED112"/>
-      <c r="EE112"/>
-      <c r="EF112"/>
-      <c r="EG112"/>
-      <c r="EH112"/>
-      <c r="EI112"/>
-      <c r="EJ112"/>
-      <c r="EK112"/>
-      <c r="EL112"/>
-      <c r="EM112"/>
-      <c r="EN112"/>
-      <c r="EO112"/>
-      <c r="EP112"/>
-      <c r="EQ112"/>
-      <c r="ER112"/>
-      <c r="ES112"/>
-      <c r="ET112"/>
-      <c r="EU112"/>
-      <c r="EV112"/>
-      <c r="EW112"/>
-      <c r="EX112"/>
-      <c r="EY112"/>
-      <c r="EZ112"/>
-      <c r="FA112"/>
-      <c r="FB112"/>
-      <c r="FC112"/>
-      <c r="FD112"/>
-      <c r="FE112"/>
-      <c r="FF112"/>
-      <c r="FG112"/>
-      <c r="FH112"/>
-      <c r="FI112"/>
-      <c r="FJ112"/>
-      <c r="FK112"/>
-      <c r="FL112"/>
-      <c r="FM112"/>
-      <c r="FN112"/>
-      <c r="FO112"/>
-      <c r="FP112"/>
-      <c r="FQ112"/>
-      <c r="FR112"/>
-      <c r="FS112"/>
-      <c r="FT112"/>
-      <c r="FU112"/>
-      <c r="FV112"/>
-      <c r="FW112"/>
-      <c r="FX112"/>
-      <c r="FY112"/>
-      <c r="FZ112"/>
-      <c r="GA112"/>
-      <c r="GB112"/>
-      <c r="GC112"/>
-      <c r="GD112"/>
-      <c r="GE112"/>
-      <c r="GF112"/>
-      <c r="GG112"/>
-      <c r="GH112"/>
-      <c r="GI112"/>
-      <c r="GJ112"/>
-      <c r="GK112"/>
-      <c r="GL112"/>
-      <c r="GM112"/>
-      <c r="GN112"/>
-      <c r="GO112"/>
-      <c r="GP112"/>
-      <c r="GQ112"/>
-      <c r="GR112"/>
-      <c r="GS112"/>
-      <c r="GT112"/>
-      <c r="GU112"/>
-      <c r="GV112"/>
-      <c r="GW112"/>
-      <c r="GX112"/>
-      <c r="GY112"/>
-      <c r="GZ112"/>
-      <c r="HA112"/>
-      <c r="HB112"/>
-      <c r="HC112"/>
-      <c r="HD112"/>
-      <c r="HE112"/>
-      <c r="HF112"/>
-      <c r="HG112"/>
-      <c r="HH112"/>
-      <c r="HI112"/>
-      <c r="HJ112"/>
-      <c r="HK112"/>
-      <c r="HL112"/>
-      <c r="HM112"/>
-      <c r="HN112"/>
-      <c r="HO112"/>
-      <c r="HP112"/>
-      <c r="HQ112"/>
-      <c r="HR112"/>
-      <c r="HS112"/>
-      <c r="HT112"/>
-      <c r="HU112"/>
-      <c r="HV112"/>
-      <c r="HW112"/>
-      <c r="HX112"/>
-      <c r="HY112"/>
-      <c r="HZ112"/>
-      <c r="IA112"/>
-      <c r="IB112"/>
-      <c r="IC112"/>
-      <c r="ID112"/>
-      <c r="IE112"/>
-      <c r="IF112"/>
-      <c r="IG112"/>
-      <c r="IH112"/>
-      <c r="II112"/>
-      <c r="IJ112"/>
-      <c r="IK112"/>
-      <c r="IL112"/>
-      <c r="IM112"/>
-      <c r="IN112"/>
-      <c r="IO112"/>
-      <c r="IP112"/>
-      <c r="IQ112"/>
-      <c r="IR112"/>
-      <c r="IS112"/>
-      <c r="IT112"/>
-      <c r="IU112"/>
-      <c r="IV112"/>
-      <c r="IW112"/>
     </row>
-    <row r="113" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A113" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="B113" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" s="57" t="s">
-        <v>239</v>
-      </c>
-      <c r="D113" s="57"/>
-      <c r="E113" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F113" s="97" t="s">
+    <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A113" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B113" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D113" s="58"/>
+      <c r="E113" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F113" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G113" s="81">
-        <v>0</v>
-      </c>
-      <c r="H113" s="57">
+      <c r="G113" s="25">
+        <v>0</v>
+      </c>
+      <c r="H113" s="58">
         <v>1</v>
       </c>
-      <c r="I113" s="97" t="s">
+      <c r="I113" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J113" s="97" t="s">
+      <c r="J113" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K113"/>
-      <c r="L113"/>
-      <c r="M113"/>
-      <c r="N113"/>
-      <c r="O113"/>
-      <c r="P113"/>
-      <c r="Q113"/>
-      <c r="R113"/>
-      <c r="S113"/>
-      <c r="T113"/>
-      <c r="U113"/>
-      <c r="V113"/>
-      <c r="W113"/>
-      <c r="X113"/>
-      <c r="Y113"/>
-      <c r="Z113"/>
-      <c r="AA113"/>
-      <c r="AB113"/>
-      <c r="AC113"/>
-      <c r="AD113"/>
-      <c r="AE113"/>
-      <c r="AF113"/>
-      <c r="AG113"/>
-      <c r="AH113"/>
-      <c r="AI113"/>
-      <c r="AJ113"/>
-      <c r="AK113"/>
-      <c r="AL113"/>
-      <c r="AM113"/>
-      <c r="AN113"/>
-      <c r="AO113"/>
-      <c r="AP113"/>
-      <c r="AQ113"/>
-      <c r="AR113"/>
-      <c r="AS113"/>
-      <c r="AT113"/>
-      <c r="AU113"/>
-      <c r="AV113"/>
-      <c r="AW113"/>
-      <c r="AX113"/>
-      <c r="AY113"/>
-      <c r="AZ113"/>
-      <c r="BA113"/>
-      <c r="BB113"/>
-      <c r="BC113"/>
-      <c r="BD113"/>
-      <c r="BE113"/>
-      <c r="BF113"/>
-      <c r="BG113"/>
-      <c r="BH113"/>
-      <c r="BI113"/>
-      <c r="BJ113"/>
-      <c r="BK113"/>
-      <c r="BL113"/>
-      <c r="BM113"/>
-      <c r="BN113"/>
-      <c r="BO113"/>
-      <c r="BP113"/>
-      <c r="BQ113"/>
-      <c r="BR113"/>
-      <c r="BS113"/>
-      <c r="BT113"/>
-      <c r="BU113"/>
-      <c r="BV113"/>
-      <c r="BW113"/>
-      <c r="BX113"/>
-      <c r="BY113"/>
-      <c r="BZ113"/>
-      <c r="CA113"/>
-      <c r="CB113"/>
-      <c r="CC113"/>
-      <c r="CD113"/>
-      <c r="CE113"/>
-      <c r="CF113"/>
-      <c r="CG113"/>
-      <c r="CH113"/>
-      <c r="CI113"/>
-      <c r="CJ113"/>
-      <c r="CK113"/>
-      <c r="CL113"/>
-      <c r="CM113"/>
-      <c r="CN113"/>
-      <c r="CO113"/>
-      <c r="CP113"/>
-      <c r="CQ113"/>
-      <c r="CR113"/>
-      <c r="CS113"/>
-      <c r="CT113"/>
-      <c r="CU113"/>
-      <c r="CV113"/>
-      <c r="CW113"/>
-      <c r="CX113"/>
-      <c r="CY113"/>
-      <c r="CZ113"/>
-      <c r="DA113"/>
-      <c r="DB113"/>
-      <c r="DC113"/>
-      <c r="DD113"/>
-      <c r="DE113"/>
-      <c r="DF113"/>
-      <c r="DG113"/>
-      <c r="DH113"/>
-      <c r="DI113"/>
-      <c r="DJ113"/>
-      <c r="DK113"/>
-      <c r="DL113"/>
-      <c r="DM113"/>
-      <c r="DN113"/>
-      <c r="DO113"/>
-      <c r="DP113"/>
-      <c r="DQ113"/>
-      <c r="DR113"/>
-      <c r="DS113"/>
-      <c r="DT113"/>
-      <c r="DU113"/>
-      <c r="DV113"/>
-      <c r="DW113"/>
-      <c r="DX113"/>
-      <c r="DY113"/>
-      <c r="DZ113"/>
-      <c r="EA113"/>
-      <c r="EB113"/>
-      <c r="EC113"/>
-      <c r="ED113"/>
-      <c r="EE113"/>
-      <c r="EF113"/>
-      <c r="EG113"/>
-      <c r="EH113"/>
-      <c r="EI113"/>
-      <c r="EJ113"/>
-      <c r="EK113"/>
-      <c r="EL113"/>
-      <c r="EM113"/>
-      <c r="EN113"/>
-      <c r="EO113"/>
-      <c r="EP113"/>
-      <c r="EQ113"/>
-      <c r="ER113"/>
-      <c r="ES113"/>
-      <c r="ET113"/>
-      <c r="EU113"/>
-      <c r="EV113"/>
-      <c r="EW113"/>
-      <c r="EX113"/>
-      <c r="EY113"/>
-      <c r="EZ113"/>
-      <c r="FA113"/>
-      <c r="FB113"/>
-      <c r="FC113"/>
-      <c r="FD113"/>
-      <c r="FE113"/>
-      <c r="FF113"/>
-      <c r="FG113"/>
-      <c r="FH113"/>
-      <c r="FI113"/>
-      <c r="FJ113"/>
-      <c r="FK113"/>
-      <c r="FL113"/>
-      <c r="FM113"/>
-      <c r="FN113"/>
-      <c r="FO113"/>
-      <c r="FP113"/>
-      <c r="FQ113"/>
-      <c r="FR113"/>
-      <c r="FS113"/>
-      <c r="FT113"/>
-      <c r="FU113"/>
-      <c r="FV113"/>
-      <c r="FW113"/>
-      <c r="FX113"/>
-      <c r="FY113"/>
-      <c r="FZ113"/>
-      <c r="GA113"/>
-      <c r="GB113"/>
-      <c r="GC113"/>
-      <c r="GD113"/>
-      <c r="GE113"/>
-      <c r="GF113"/>
-      <c r="GG113"/>
-      <c r="GH113"/>
-      <c r="GI113"/>
-      <c r="GJ113"/>
-      <c r="GK113"/>
-      <c r="GL113"/>
-      <c r="GM113"/>
-      <c r="GN113"/>
-      <c r="GO113"/>
-      <c r="GP113"/>
-      <c r="GQ113"/>
-      <c r="GR113"/>
-      <c r="GS113"/>
-      <c r="GT113"/>
-      <c r="GU113"/>
-      <c r="GV113"/>
-      <c r="GW113"/>
-      <c r="GX113"/>
-      <c r="GY113"/>
-      <c r="GZ113"/>
-      <c r="HA113"/>
-      <c r="HB113"/>
-      <c r="HC113"/>
-      <c r="HD113"/>
-      <c r="HE113"/>
-      <c r="HF113"/>
-      <c r="HG113"/>
-      <c r="HH113"/>
-      <c r="HI113"/>
-      <c r="HJ113"/>
-      <c r="HK113"/>
-      <c r="HL113"/>
-      <c r="HM113"/>
-      <c r="HN113"/>
-      <c r="HO113"/>
-      <c r="HP113"/>
-      <c r="HQ113"/>
-      <c r="HR113"/>
-      <c r="HS113"/>
-      <c r="HT113"/>
-      <c r="HU113"/>
-      <c r="HV113"/>
-      <c r="HW113"/>
-      <c r="HX113"/>
-      <c r="HY113"/>
-      <c r="HZ113"/>
-      <c r="IA113"/>
-      <c r="IB113"/>
-      <c r="IC113"/>
-      <c r="ID113"/>
-      <c r="IE113"/>
-      <c r="IF113"/>
-      <c r="IG113"/>
-      <c r="IH113"/>
-      <c r="II113"/>
-      <c r="IJ113"/>
-      <c r="IK113"/>
-      <c r="IL113"/>
-      <c r="IM113"/>
-      <c r="IN113"/>
-      <c r="IO113"/>
-      <c r="IP113"/>
-      <c r="IQ113"/>
-      <c r="IR113"/>
-      <c r="IS113"/>
-      <c r="IT113"/>
-      <c r="IU113"/>
-      <c r="IV113"/>
-      <c r="IW113"/>
     </row>
-    <row r="114" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A114" s="57" t="s">
+    <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A114" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C114" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="B114" s="57" t="s">
-        <v>240</v>
-      </c>
-      <c r="C114" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="D114" s="57"/>
-      <c r="E114" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F114" s="97" t="s">
+      <c r="D114" s="58"/>
+      <c r="E114" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G114" s="81">
-        <v>0</v>
-      </c>
-      <c r="H114" s="57">
+      <c r="G114" s="25">
+        <v>0</v>
+      </c>
+      <c r="H114" s="58">
         <v>1</v>
       </c>
-      <c r="I114" s="97" t="s">
+      <c r="I114" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J114" s="97" t="s">
+      <c r="J114" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K114"/>
-      <c r="L114"/>
-      <c r="M114"/>
-      <c r="N114"/>
-      <c r="O114"/>
-      <c r="P114"/>
-      <c r="Q114"/>
-      <c r="R114"/>
-      <c r="S114"/>
-      <c r="T114"/>
-      <c r="U114"/>
-      <c r="V114"/>
-      <c r="W114"/>
-      <c r="X114"/>
-      <c r="Y114"/>
-      <c r="Z114"/>
-      <c r="AA114"/>
-      <c r="AB114"/>
-      <c r="AC114"/>
-      <c r="AD114"/>
-      <c r="AE114"/>
-      <c r="AF114"/>
-      <c r="AG114"/>
-      <c r="AH114"/>
-      <c r="AI114"/>
-      <c r="AJ114"/>
-      <c r="AK114"/>
-      <c r="AL114"/>
-      <c r="AM114"/>
-      <c r="AN114"/>
-      <c r="AO114"/>
-      <c r="AP114"/>
-      <c r="AQ114"/>
-      <c r="AR114"/>
-      <c r="AS114"/>
-      <c r="AT114"/>
-      <c r="AU114"/>
-      <c r="AV114"/>
-      <c r="AW114"/>
-      <c r="AX114"/>
-      <c r="AY114"/>
-      <c r="AZ114"/>
-      <c r="BA114"/>
-      <c r="BB114"/>
-      <c r="BC114"/>
-      <c r="BD114"/>
-      <c r="BE114"/>
-      <c r="BF114"/>
-      <c r="BG114"/>
-      <c r="BH114"/>
-      <c r="BI114"/>
-      <c r="BJ114"/>
-      <c r="BK114"/>
-      <c r="BL114"/>
-      <c r="BM114"/>
-      <c r="BN114"/>
-      <c r="BO114"/>
-      <c r="BP114"/>
-      <c r="BQ114"/>
-      <c r="BR114"/>
-      <c r="BS114"/>
-      <c r="BT114"/>
-      <c r="BU114"/>
-      <c r="BV114"/>
-      <c r="BW114"/>
-      <c r="BX114"/>
-      <c r="BY114"/>
-      <c r="BZ114"/>
-      <c r="CA114"/>
-      <c r="CB114"/>
-      <c r="CC114"/>
-      <c r="CD114"/>
-      <c r="CE114"/>
-      <c r="CF114"/>
-      <c r="CG114"/>
-      <c r="CH114"/>
-      <c r="CI114"/>
-      <c r="CJ114"/>
-      <c r="CK114"/>
-      <c r="CL114"/>
-      <c r="CM114"/>
-      <c r="CN114"/>
-      <c r="CO114"/>
-      <c r="CP114"/>
-      <c r="CQ114"/>
-      <c r="CR114"/>
-      <c r="CS114"/>
-      <c r="CT114"/>
-      <c r="CU114"/>
-      <c r="CV114"/>
-      <c r="CW114"/>
-      <c r="CX114"/>
-      <c r="CY114"/>
-      <c r="CZ114"/>
-      <c r="DA114"/>
-      <c r="DB114"/>
-      <c r="DC114"/>
-      <c r="DD114"/>
-      <c r="DE114"/>
-      <c r="DF114"/>
-      <c r="DG114"/>
-      <c r="DH114"/>
-      <c r="DI114"/>
-      <c r="DJ114"/>
-      <c r="DK114"/>
-      <c r="DL114"/>
-      <c r="DM114"/>
-      <c r="DN114"/>
-      <c r="DO114"/>
-      <c r="DP114"/>
-      <c r="DQ114"/>
-      <c r="DR114"/>
-      <c r="DS114"/>
-      <c r="DT114"/>
-      <c r="DU114"/>
-      <c r="DV114"/>
-      <c r="DW114"/>
-      <c r="DX114"/>
-      <c r="DY114"/>
-      <c r="DZ114"/>
-      <c r="EA114"/>
-      <c r="EB114"/>
-      <c r="EC114"/>
-      <c r="ED114"/>
-      <c r="EE114"/>
-      <c r="EF114"/>
-      <c r="EG114"/>
-      <c r="EH114"/>
-      <c r="EI114"/>
-      <c r="EJ114"/>
-      <c r="EK114"/>
-      <c r="EL114"/>
-      <c r="EM114"/>
-      <c r="EN114"/>
-      <c r="EO114"/>
-      <c r="EP114"/>
-      <c r="EQ114"/>
-      <c r="ER114"/>
-      <c r="ES114"/>
-      <c r="ET114"/>
-      <c r="EU114"/>
-      <c r="EV114"/>
-      <c r="EW114"/>
-      <c r="EX114"/>
-      <c r="EY114"/>
-      <c r="EZ114"/>
-      <c r="FA114"/>
-      <c r="FB114"/>
-      <c r="FC114"/>
-      <c r="FD114"/>
-      <c r="FE114"/>
-      <c r="FF114"/>
-      <c r="FG114"/>
-      <c r="FH114"/>
-      <c r="FI114"/>
-      <c r="FJ114"/>
-      <c r="FK114"/>
-      <c r="FL114"/>
-      <c r="FM114"/>
-      <c r="FN114"/>
-      <c r="FO114"/>
-      <c r="FP114"/>
-      <c r="FQ114"/>
-      <c r="FR114"/>
-      <c r="FS114"/>
-      <c r="FT114"/>
-      <c r="FU114"/>
-      <c r="FV114"/>
-      <c r="FW114"/>
-      <c r="FX114"/>
-      <c r="FY114"/>
-      <c r="FZ114"/>
-      <c r="GA114"/>
-      <c r="GB114"/>
-      <c r="GC114"/>
-      <c r="GD114"/>
-      <c r="GE114"/>
-      <c r="GF114"/>
-      <c r="GG114"/>
-      <c r="GH114"/>
-      <c r="GI114"/>
-      <c r="GJ114"/>
-      <c r="GK114"/>
-      <c r="GL114"/>
-      <c r="GM114"/>
-      <c r="GN114"/>
-      <c r="GO114"/>
-      <c r="GP114"/>
-      <c r="GQ114"/>
-      <c r="GR114"/>
-      <c r="GS114"/>
-      <c r="GT114"/>
-      <c r="GU114"/>
-      <c r="GV114"/>
-      <c r="GW114"/>
-      <c r="GX114"/>
-      <c r="GY114"/>
-      <c r="GZ114"/>
-      <c r="HA114"/>
-      <c r="HB114"/>
-      <c r="HC114"/>
-      <c r="HD114"/>
-      <c r="HE114"/>
-      <c r="HF114"/>
-      <c r="HG114"/>
-      <c r="HH114"/>
-      <c r="HI114"/>
-      <c r="HJ114"/>
-      <c r="HK114"/>
-      <c r="HL114"/>
-      <c r="HM114"/>
-      <c r="HN114"/>
-      <c r="HO114"/>
-      <c r="HP114"/>
-      <c r="HQ114"/>
-      <c r="HR114"/>
-      <c r="HS114"/>
-      <c r="HT114"/>
-      <c r="HU114"/>
-      <c r="HV114"/>
-      <c r="HW114"/>
-      <c r="HX114"/>
-      <c r="HY114"/>
-      <c r="HZ114"/>
-      <c r="IA114"/>
-      <c r="IB114"/>
-      <c r="IC114"/>
-      <c r="ID114"/>
-      <c r="IE114"/>
-      <c r="IF114"/>
-      <c r="IG114"/>
-      <c r="IH114"/>
-      <c r="II114"/>
-      <c r="IJ114"/>
-      <c r="IK114"/>
-      <c r="IL114"/>
-      <c r="IM114"/>
-      <c r="IN114"/>
-      <c r="IO114"/>
-      <c r="IP114"/>
-      <c r="IQ114"/>
-      <c r="IR114"/>
-      <c r="IS114"/>
-      <c r="IT114"/>
-      <c r="IU114"/>
-      <c r="IV114"/>
-      <c r="IW114"/>
     </row>
-    <row r="115" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A115" s="57" t="s">
+    <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="95" t="s">
+        <v>242</v>
+      </c>
+      <c r="D115" s="58"/>
+      <c r="E115" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F115" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="25">
+        <v>0</v>
+      </c>
+      <c r="H115" s="58">
+        <v>1</v>
+      </c>
+      <c r="I115" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J115" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A116" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B116" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116" s="95" t="s">
+        <v>246</v>
+      </c>
+      <c r="D116" s="58"/>
+      <c r="E116" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F116" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="25">
+        <v>0</v>
+      </c>
+      <c r="H116" s="58">
+        <v>1</v>
+      </c>
+      <c r="I116" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J116" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B117" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C117" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="B115" s="57" t="s">
-        <v>241</v>
-      </c>
-      <c r="C115" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="D115" s="57"/>
-      <c r="E115" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F115" s="97" t="s">
+      <c r="D117" s="58"/>
+      <c r="E117" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F117" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G115" s="81">
-        <v>0</v>
-      </c>
-      <c r="H115" s="57">
+      <c r="G117" s="25">
+        <v>0</v>
+      </c>
+      <c r="H117" s="58">
         <v>1</v>
       </c>
-      <c r="I115" s="97" t="s">
+      <c r="I117" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J115" s="97" t="s">
+      <c r="J117" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K115"/>
-      <c r="L115"/>
-      <c r="M115"/>
-      <c r="N115"/>
-      <c r="O115"/>
-      <c r="P115"/>
-      <c r="Q115"/>
-      <c r="R115"/>
-      <c r="S115"/>
-      <c r="T115"/>
-      <c r="U115"/>
-      <c r="V115"/>
-      <c r="W115"/>
-      <c r="X115"/>
-      <c r="Y115"/>
-      <c r="Z115"/>
-      <c r="AA115"/>
-      <c r="AB115"/>
-      <c r="AC115"/>
-      <c r="AD115"/>
-      <c r="AE115"/>
-      <c r="AF115"/>
-      <c r="AG115"/>
-      <c r="AH115"/>
-      <c r="AI115"/>
-      <c r="AJ115"/>
-      <c r="AK115"/>
-      <c r="AL115"/>
-      <c r="AM115"/>
-      <c r="AN115"/>
-      <c r="AO115"/>
-      <c r="AP115"/>
-      <c r="AQ115"/>
-      <c r="AR115"/>
-      <c r="AS115"/>
-      <c r="AT115"/>
-      <c r="AU115"/>
-      <c r="AV115"/>
-      <c r="AW115"/>
-      <c r="AX115"/>
-      <c r="AY115"/>
-      <c r="AZ115"/>
-      <c r="BA115"/>
-      <c r="BB115"/>
-      <c r="BC115"/>
-      <c r="BD115"/>
-      <c r="BE115"/>
-      <c r="BF115"/>
-      <c r="BG115"/>
-      <c r="BH115"/>
-      <c r="BI115"/>
-      <c r="BJ115"/>
-      <c r="BK115"/>
-      <c r="BL115"/>
-      <c r="BM115"/>
-      <c r="BN115"/>
-      <c r="BO115"/>
-      <c r="BP115"/>
-      <c r="BQ115"/>
-      <c r="BR115"/>
-      <c r="BS115"/>
-      <c r="BT115"/>
-      <c r="BU115"/>
-      <c r="BV115"/>
-      <c r="BW115"/>
-      <c r="BX115"/>
-      <c r="BY115"/>
-      <c r="BZ115"/>
-      <c r="CA115"/>
-      <c r="CB115"/>
-      <c r="CC115"/>
-      <c r="CD115"/>
-      <c r="CE115"/>
-      <c r="CF115"/>
-      <c r="CG115"/>
-      <c r="CH115"/>
-      <c r="CI115"/>
-      <c r="CJ115"/>
-      <c r="CK115"/>
-      <c r="CL115"/>
-      <c r="CM115"/>
-      <c r="CN115"/>
-      <c r="CO115"/>
-      <c r="CP115"/>
-      <c r="CQ115"/>
-      <c r="CR115"/>
-      <c r="CS115"/>
-      <c r="CT115"/>
-      <c r="CU115"/>
-      <c r="CV115"/>
-      <c r="CW115"/>
-      <c r="CX115"/>
-      <c r="CY115"/>
-      <c r="CZ115"/>
-      <c r="DA115"/>
-      <c r="DB115"/>
-      <c r="DC115"/>
-      <c r="DD115"/>
-      <c r="DE115"/>
-      <c r="DF115"/>
-      <c r="DG115"/>
-      <c r="DH115"/>
-      <c r="DI115"/>
-      <c r="DJ115"/>
-      <c r="DK115"/>
-      <c r="DL115"/>
-      <c r="DM115"/>
-      <c r="DN115"/>
-      <c r="DO115"/>
-      <c r="DP115"/>
-      <c r="DQ115"/>
-      <c r="DR115"/>
-      <c r="DS115"/>
-      <c r="DT115"/>
-      <c r="DU115"/>
-      <c r="DV115"/>
-      <c r="DW115"/>
-      <c r="DX115"/>
-      <c r="DY115"/>
-      <c r="DZ115"/>
-      <c r="EA115"/>
-      <c r="EB115"/>
-      <c r="EC115"/>
-      <c r="ED115"/>
-      <c r="EE115"/>
-      <c r="EF115"/>
-      <c r="EG115"/>
-      <c r="EH115"/>
-      <c r="EI115"/>
-      <c r="EJ115"/>
-      <c r="EK115"/>
-      <c r="EL115"/>
-      <c r="EM115"/>
-      <c r="EN115"/>
-      <c r="EO115"/>
-      <c r="EP115"/>
-      <c r="EQ115"/>
-      <c r="ER115"/>
-      <c r="ES115"/>
-      <c r="ET115"/>
-      <c r="EU115"/>
-      <c r="EV115"/>
-      <c r="EW115"/>
-      <c r="EX115"/>
-      <c r="EY115"/>
-      <c r="EZ115"/>
-      <c r="FA115"/>
-      <c r="FB115"/>
-      <c r="FC115"/>
-      <c r="FD115"/>
-      <c r="FE115"/>
-      <c r="FF115"/>
-      <c r="FG115"/>
-      <c r="FH115"/>
-      <c r="FI115"/>
-      <c r="FJ115"/>
-      <c r="FK115"/>
-      <c r="FL115"/>
-      <c r="FM115"/>
-      <c r="FN115"/>
-      <c r="FO115"/>
-      <c r="FP115"/>
-      <c r="FQ115"/>
-      <c r="FR115"/>
-      <c r="FS115"/>
-      <c r="FT115"/>
-      <c r="FU115"/>
-      <c r="FV115"/>
-      <c r="FW115"/>
-      <c r="FX115"/>
-      <c r="FY115"/>
-      <c r="FZ115"/>
-      <c r="GA115"/>
-      <c r="GB115"/>
-      <c r="GC115"/>
-      <c r="GD115"/>
-      <c r="GE115"/>
-      <c r="GF115"/>
-      <c r="GG115"/>
-      <c r="GH115"/>
-      <c r="GI115"/>
-      <c r="GJ115"/>
-      <c r="GK115"/>
-      <c r="GL115"/>
-      <c r="GM115"/>
-      <c r="GN115"/>
-      <c r="GO115"/>
-      <c r="GP115"/>
-      <c r="GQ115"/>
-      <c r="GR115"/>
-      <c r="GS115"/>
-      <c r="GT115"/>
-      <c r="GU115"/>
-      <c r="GV115"/>
-      <c r="GW115"/>
-      <c r="GX115"/>
-      <c r="GY115"/>
-      <c r="GZ115"/>
-      <c r="HA115"/>
-      <c r="HB115"/>
-      <c r="HC115"/>
-      <c r="HD115"/>
-      <c r="HE115"/>
-      <c r="HF115"/>
-      <c r="HG115"/>
-      <c r="HH115"/>
-      <c r="HI115"/>
-      <c r="HJ115"/>
-      <c r="HK115"/>
-      <c r="HL115"/>
-      <c r="HM115"/>
-      <c r="HN115"/>
-      <c r="HO115"/>
-      <c r="HP115"/>
-      <c r="HQ115"/>
-      <c r="HR115"/>
-      <c r="HS115"/>
-      <c r="HT115"/>
-      <c r="HU115"/>
-      <c r="HV115"/>
-      <c r="HW115"/>
-      <c r="HX115"/>
-      <c r="HY115"/>
-      <c r="HZ115"/>
-      <c r="IA115"/>
-      <c r="IB115"/>
-      <c r="IC115"/>
-      <c r="ID115"/>
-      <c r="IE115"/>
-      <c r="IF115"/>
-      <c r="IG115"/>
-      <c r="IH115"/>
-      <c r="II115"/>
-      <c r="IJ115"/>
-      <c r="IK115"/>
-      <c r="IL115"/>
-      <c r="IM115"/>
-      <c r="IN115"/>
-      <c r="IO115"/>
-      <c r="IP115"/>
-      <c r="IQ115"/>
-      <c r="IR115"/>
-      <c r="IS115"/>
-      <c r="IT115"/>
-      <c r="IU115"/>
-      <c r="IV115"/>
-      <c r="IW115"/>
     </row>
-    <row r="116" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A116" s="57" t="s">
+    <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A118" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="D118" s="58"/>
+      <c r="E118" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="25">
+        <v>0</v>
+      </c>
+      <c r="H118" s="58">
+        <v>1</v>
+      </c>
+      <c r="I118" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J118" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A119" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B116" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="C116" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="D116" s="57"/>
-      <c r="E116" s="97" t="s">
-        <v>227</v>
-      </c>
-      <c r="F116" s="97" t="s">
+      <c r="B119" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D119" s="58"/>
+      <c r="E119" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="G116" s="81">
-        <v>0</v>
-      </c>
-      <c r="H116" s="57">
+      <c r="G119" s="25">
+        <v>0</v>
+      </c>
+      <c r="H119" s="58">
         <v>1</v>
       </c>
-      <c r="I116" s="97" t="s">
+      <c r="I119" s="96" t="s">
         <v>174</v>
       </c>
-      <c r="J116" s="97" t="s">
+      <c r="J119" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="K116"/>
-      <c r="L116"/>
-      <c r="M116"/>
-      <c r="N116"/>
-      <c r="O116"/>
-      <c r="P116"/>
-      <c r="Q116"/>
-      <c r="R116"/>
-      <c r="S116"/>
-      <c r="T116"/>
-      <c r="U116"/>
-      <c r="V116"/>
-      <c r="W116"/>
-      <c r="X116"/>
-      <c r="Y116"/>
-      <c r="Z116"/>
-      <c r="AA116"/>
-      <c r="AB116"/>
-      <c r="AC116"/>
-      <c r="AD116"/>
-      <c r="AE116"/>
-      <c r="AF116"/>
-      <c r="AG116"/>
-      <c r="AH116"/>
-      <c r="AI116"/>
-      <c r="AJ116"/>
-      <c r="AK116"/>
-      <c r="AL116"/>
-      <c r="AM116"/>
-      <c r="AN116"/>
-      <c r="AO116"/>
-      <c r="AP116"/>
-      <c r="AQ116"/>
-      <c r="AR116"/>
-      <c r="AS116"/>
-      <c r="AT116"/>
-      <c r="AU116"/>
-      <c r="AV116"/>
-      <c r="AW116"/>
-      <c r="AX116"/>
-      <c r="AY116"/>
-      <c r="AZ116"/>
-      <c r="BA116"/>
-      <c r="BB116"/>
-      <c r="BC116"/>
-      <c r="BD116"/>
-      <c r="BE116"/>
-      <c r="BF116"/>
-      <c r="BG116"/>
-      <c r="BH116"/>
-      <c r="BI116"/>
-      <c r="BJ116"/>
-      <c r="BK116"/>
-      <c r="BL116"/>
-      <c r="BM116"/>
-      <c r="BN116"/>
-      <c r="BO116"/>
-      <c r="BP116"/>
-      <c r="BQ116"/>
-      <c r="BR116"/>
-      <c r="BS116"/>
-      <c r="BT116"/>
-      <c r="BU116"/>
-      <c r="BV116"/>
-      <c r="BW116"/>
-      <c r="BX116"/>
-      <c r="BY116"/>
-      <c r="BZ116"/>
-      <c r="CA116"/>
-      <c r="CB116"/>
-      <c r="CC116"/>
-      <c r="CD116"/>
-      <c r="CE116"/>
-      <c r="CF116"/>
-      <c r="CG116"/>
-      <c r="CH116"/>
-      <c r="CI116"/>
-      <c r="CJ116"/>
-      <c r="CK116"/>
-      <c r="CL116"/>
-      <c r="CM116"/>
-      <c r="CN116"/>
-      <c r="CO116"/>
-      <c r="CP116"/>
-      <c r="CQ116"/>
-      <c r="CR116"/>
-      <c r="CS116"/>
-      <c r="CT116"/>
-      <c r="CU116"/>
-      <c r="CV116"/>
-      <c r="CW116"/>
-      <c r="CX116"/>
-      <c r="CY116"/>
-      <c r="CZ116"/>
-      <c r="DA116"/>
-      <c r="DB116"/>
-      <c r="DC116"/>
-      <c r="DD116"/>
-      <c r="DE116"/>
-      <c r="DF116"/>
-      <c r="DG116"/>
-      <c r="DH116"/>
-      <c r="DI116"/>
-      <c r="DJ116"/>
-      <c r="DK116"/>
-      <c r="DL116"/>
-      <c r="DM116"/>
-      <c r="DN116"/>
-      <c r="DO116"/>
-      <c r="DP116"/>
-      <c r="DQ116"/>
-      <c r="DR116"/>
-      <c r="DS116"/>
-      <c r="DT116"/>
-      <c r="DU116"/>
-      <c r="DV116"/>
-      <c r="DW116"/>
-      <c r="DX116"/>
-      <c r="DY116"/>
-      <c r="DZ116"/>
-      <c r="EA116"/>
-      <c r="EB116"/>
-      <c r="EC116"/>
-      <c r="ED116"/>
-      <c r="EE116"/>
-      <c r="EF116"/>
-      <c r="EG116"/>
-      <c r="EH116"/>
-      <c r="EI116"/>
-      <c r="EJ116"/>
-      <c r="EK116"/>
-      <c r="EL116"/>
-      <c r="EM116"/>
-      <c r="EN116"/>
-      <c r="EO116"/>
-      <c r="EP116"/>
-      <c r="EQ116"/>
-      <c r="ER116"/>
-      <c r="ES116"/>
-      <c r="ET116"/>
-      <c r="EU116"/>
-      <c r="EV116"/>
-      <c r="EW116"/>
-      <c r="EX116"/>
-      <c r="EY116"/>
-      <c r="EZ116"/>
-      <c r="FA116"/>
-      <c r="FB116"/>
-      <c r="FC116"/>
-      <c r="FD116"/>
-      <c r="FE116"/>
-      <c r="FF116"/>
-      <c r="FG116"/>
-      <c r="FH116"/>
-      <c r="FI116"/>
-      <c r="FJ116"/>
-      <c r="FK116"/>
-      <c r="FL116"/>
-      <c r="FM116"/>
-      <c r="FN116"/>
-      <c r="FO116"/>
-      <c r="FP116"/>
-      <c r="FQ116"/>
-      <c r="FR116"/>
-      <c r="FS116"/>
-      <c r="FT116"/>
-      <c r="FU116"/>
-      <c r="FV116"/>
-      <c r="FW116"/>
-      <c r="FX116"/>
-      <c r="FY116"/>
-      <c r="FZ116"/>
-      <c r="GA116"/>
-      <c r="GB116"/>
-      <c r="GC116"/>
-      <c r="GD116"/>
-      <c r="GE116"/>
-      <c r="GF116"/>
-      <c r="GG116"/>
-      <c r="GH116"/>
-      <c r="GI116"/>
-      <c r="GJ116"/>
-      <c r="GK116"/>
-      <c r="GL116"/>
-      <c r="GM116"/>
-      <c r="GN116"/>
-      <c r="GO116"/>
-      <c r="GP116"/>
-      <c r="GQ116"/>
-      <c r="GR116"/>
-      <c r="GS116"/>
-      <c r="GT116"/>
-      <c r="GU116"/>
-      <c r="GV116"/>
-      <c r="GW116"/>
-      <c r="GX116"/>
-      <c r="GY116"/>
-      <c r="GZ116"/>
-      <c r="HA116"/>
-      <c r="HB116"/>
-      <c r="HC116"/>
-      <c r="HD116"/>
-      <c r="HE116"/>
-      <c r="HF116"/>
-      <c r="HG116"/>
-      <c r="HH116"/>
-      <c r="HI116"/>
-      <c r="HJ116"/>
-      <c r="HK116"/>
-      <c r="HL116"/>
-      <c r="HM116"/>
-      <c r="HN116"/>
-      <c r="HO116"/>
-      <c r="HP116"/>
-      <c r="HQ116"/>
-      <c r="HR116"/>
-      <c r="HS116"/>
-      <c r="HT116"/>
-      <c r="HU116"/>
-      <c r="HV116"/>
-      <c r="HW116"/>
-      <c r="HX116"/>
-      <c r="HY116"/>
-      <c r="HZ116"/>
-      <c r="IA116"/>
-      <c r="IB116"/>
-      <c r="IC116"/>
-      <c r="ID116"/>
-      <c r="IE116"/>
-      <c r="IF116"/>
-      <c r="IG116"/>
-      <c r="IH116"/>
-      <c r="II116"/>
-      <c r="IJ116"/>
-      <c r="IK116"/>
-      <c r="IL116"/>
-      <c r="IM116"/>
-      <c r="IN116"/>
-      <c r="IO116"/>
-      <c r="IP116"/>
-      <c r="IQ116"/>
-      <c r="IR116"/>
-      <c r="IS116"/>
-      <c r="IT116"/>
-      <c r="IU116"/>
-      <c r="IV116"/>
-      <c r="IW116"/>
     </row>
-    <row r="117" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="118" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="119" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="120" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="121" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="122" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="123" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="124" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="125" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="126" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="127" spans="1:257" ht="17.100000000000001" customHeight="1"/>
-    <row r="128" spans="1:257" ht="17.100000000000001" customHeight="1"/>
+    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="124" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="125" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="126" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="127" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="128" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="129" ht="17.100000000000001" customHeight="1"/>
+    <row r="130" ht="17.100000000000001" customHeight="1"/>
+    <row r="131" ht="17.100000000000001" customHeight="1"/>
+    <row r="132" ht="17.100000000000001" customHeight="1"/>
+    <row r="133" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61191AA-56C2-48CF-9B29-5E7181DA3DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD7F9D4-FB76-4380-80DE-D2A32AFC2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31770" yWindow="795" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="250">
   <si>
     <t>name</t>
   </si>
@@ -739,9 +739,6 @@
     <t>Client Name</t>
   </si>
   <si>
-    <t>Referral Form</t>
-  </si>
-  <si>
     <t>Referred To</t>
   </si>
   <si>
@@ -776,6 +773,9 @@
   </si>
   <si>
     <t>program_stream_ids</t>
+  </si>
+  <si>
+    <t>Referred From</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1686,8 @@
   </sheetPr>
   <dimension ref="A1:IW133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -16524,7 +16524,9 @@
       <c r="A102" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="B102" s="58"/>
+      <c r="B102" s="58" t="s">
+        <v>11</v>
+      </c>
       <c r="C102" s="95" t="s">
         <v>217</v>
       </c>
@@ -16552,7 +16554,9 @@
       <c r="A103" s="95" t="s">
         <v>220</v>
       </c>
-      <c r="B103" s="58"/>
+      <c r="B103" s="58" t="s">
+        <v>11</v>
+      </c>
       <c r="C103" s="95" t="s">
         <v>218</v>
       </c>
@@ -16580,7 +16584,9 @@
       <c r="A104" s="95" t="s">
         <v>221</v>
       </c>
-      <c r="B104" s="58"/>
+      <c r="B104" s="58" t="s">
+        <v>11</v>
+      </c>
       <c r="C104" s="95" t="s">
         <v>222</v>
       </c>
@@ -17252,7 +17258,7 @@
         <v>232</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D110" s="58"/>
       <c r="E110" s="96" t="s">
@@ -17276,13 +17282,13 @@
     </row>
     <row r="111" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B111" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="96" t="s">
@@ -17312,7 +17318,7 @@
         <v>232</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="96" t="s">
@@ -17336,13 +17342,13 @@
     </row>
     <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="96" t="s">
@@ -17372,7 +17378,7 @@
         <v>232</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="96" t="s">
@@ -17402,7 +17408,7 @@
         <v>232</v>
       </c>
       <c r="C115" s="95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="96" t="s">
@@ -17426,13 +17432,13 @@
     </row>
     <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B116" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C116" s="95" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="96" t="s">
@@ -17462,7 +17468,7 @@
         <v>232</v>
       </c>
       <c r="C117" s="58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="96" t="s">
@@ -17486,13 +17492,13 @@
     </row>
     <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B118" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="96" t="s">

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB72ACD-26EC-4578-AB7E-2656886DE83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44792CE5-0415-4FD1-9DDC-EBD00E61EB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31770" yWindow="795" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="252">
   <si>
     <t>name</t>
   </si>
@@ -739,9 +739,6 @@
     <t>Client Name</t>
   </si>
   <si>
-    <t>Referral Form</t>
-  </si>
-  <si>
     <t>Referred To</t>
   </si>
   <si>
@@ -776,6 +773,15 @@
   </si>
   <si>
     <t>program_stream_ids</t>
+  </si>
+  <si>
+    <t>Referred From</t>
+  </si>
+  <si>
+    <t>task_completed_date</t>
+  </si>
+  <si>
+    <t>Task Completed Date</t>
   </si>
 </sst>
 </file>
@@ -1684,10 +1690,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW133"/>
+  <dimension ref="A1:IW134"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -15924,43 +15930,292 @@
       <c r="IV80" s="60"/>
       <c r="IW80" s="60"/>
     </row>
-    <row r="81" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A81" s="58" t="s">
+    <row r="81" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A81" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="59" t="s">
+        <v>251</v>
+      </c>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="59">
+        <v>0</v>
+      </c>
+      <c r="H81" s="59">
+        <v>1</v>
+      </c>
+      <c r="I81" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="J81" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K81" s="60"/>
+      <c r="L81" s="60"/>
+      <c r="M81" s="60"/>
+      <c r="N81" s="60"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="60"/>
+      <c r="R81" s="60"/>
+      <c r="S81" s="60"/>
+      <c r="T81" s="60"/>
+      <c r="U81" s="60"/>
+      <c r="V81" s="60"/>
+      <c r="W81" s="60"/>
+      <c r="X81" s="60"/>
+      <c r="Y81" s="60"/>
+      <c r="Z81" s="60"/>
+      <c r="AA81" s="60"/>
+      <c r="AB81" s="60"/>
+      <c r="AC81" s="60"/>
+      <c r="AD81" s="60"/>
+      <c r="AE81" s="60"/>
+      <c r="AF81" s="60"/>
+      <c r="AG81" s="60"/>
+      <c r="AH81" s="60"/>
+      <c r="AI81" s="60"/>
+      <c r="AJ81" s="60"/>
+      <c r="AK81" s="60"/>
+      <c r="AL81" s="60"/>
+      <c r="AM81" s="60"/>
+      <c r="AN81" s="60"/>
+      <c r="AO81" s="60"/>
+      <c r="AP81" s="60"/>
+      <c r="AQ81" s="60"/>
+      <c r="AR81" s="60"/>
+      <c r="AS81" s="60"/>
+      <c r="AT81" s="60"/>
+      <c r="AU81" s="60"/>
+      <c r="AV81" s="60"/>
+      <c r="AW81" s="60"/>
+      <c r="AX81" s="60"/>
+      <c r="AY81" s="60"/>
+      <c r="AZ81" s="60"/>
+      <c r="BA81" s="60"/>
+      <c r="BB81" s="60"/>
+      <c r="BC81" s="60"/>
+      <c r="BD81" s="60"/>
+      <c r="BE81" s="60"/>
+      <c r="BF81" s="60"/>
+      <c r="BG81" s="60"/>
+      <c r="BH81" s="60"/>
+      <c r="BI81" s="60"/>
+      <c r="BJ81" s="60"/>
+      <c r="BK81" s="60"/>
+      <c r="BL81" s="60"/>
+      <c r="BM81" s="60"/>
+      <c r="BN81" s="60"/>
+      <c r="BO81" s="60"/>
+      <c r="BP81" s="60"/>
+      <c r="BQ81" s="60"/>
+      <c r="BR81" s="60"/>
+      <c r="BS81" s="60"/>
+      <c r="BT81" s="60"/>
+      <c r="BU81" s="60"/>
+      <c r="BV81" s="60"/>
+      <c r="BW81" s="60"/>
+      <c r="BX81" s="60"/>
+      <c r="BY81" s="60"/>
+      <c r="BZ81" s="60"/>
+      <c r="CA81" s="60"/>
+      <c r="CB81" s="60"/>
+      <c r="CC81" s="60"/>
+      <c r="CD81" s="60"/>
+      <c r="CE81" s="60"/>
+      <c r="CF81" s="60"/>
+      <c r="CG81" s="60"/>
+      <c r="CH81" s="60"/>
+      <c r="CI81" s="60"/>
+      <c r="CJ81" s="60"/>
+      <c r="CK81" s="60"/>
+      <c r="CL81" s="60"/>
+      <c r="CM81" s="60"/>
+      <c r="CN81" s="60"/>
+      <c r="CO81" s="60"/>
+      <c r="CP81" s="60"/>
+      <c r="CQ81" s="60"/>
+      <c r="CR81" s="60"/>
+      <c r="CS81" s="60"/>
+      <c r="CT81" s="60"/>
+      <c r="CU81" s="60"/>
+      <c r="CV81" s="60"/>
+      <c r="CW81" s="60"/>
+      <c r="CX81" s="60"/>
+      <c r="CY81" s="60"/>
+      <c r="CZ81" s="60"/>
+      <c r="DA81" s="60"/>
+      <c r="DB81" s="60"/>
+      <c r="DC81" s="60"/>
+      <c r="DD81" s="60"/>
+      <c r="DE81" s="60"/>
+      <c r="DF81" s="60"/>
+      <c r="DG81" s="60"/>
+      <c r="DH81" s="60"/>
+      <c r="DI81" s="60"/>
+      <c r="DJ81" s="60"/>
+      <c r="DK81" s="60"/>
+      <c r="DL81" s="60"/>
+      <c r="DM81" s="60"/>
+      <c r="DN81" s="60"/>
+      <c r="DO81" s="60"/>
+      <c r="DP81" s="60"/>
+      <c r="DQ81" s="60"/>
+      <c r="DR81" s="60"/>
+      <c r="DS81" s="60"/>
+      <c r="DT81" s="60"/>
+      <c r="DU81" s="60"/>
+      <c r="DV81" s="60"/>
+      <c r="DW81" s="60"/>
+      <c r="DX81" s="60"/>
+      <c r="DY81" s="60"/>
+      <c r="DZ81" s="60"/>
+      <c r="EA81" s="60"/>
+      <c r="EB81" s="60"/>
+      <c r="EC81" s="60"/>
+      <c r="ED81" s="60"/>
+      <c r="EE81" s="60"/>
+      <c r="EF81" s="60"/>
+      <c r="EG81" s="60"/>
+      <c r="EH81" s="60"/>
+      <c r="EI81" s="60"/>
+      <c r="EJ81" s="60"/>
+      <c r="EK81" s="60"/>
+      <c r="EL81" s="60"/>
+      <c r="EM81" s="60"/>
+      <c r="EN81" s="60"/>
+      <c r="EO81" s="60"/>
+      <c r="EP81" s="60"/>
+      <c r="EQ81" s="60"/>
+      <c r="ER81" s="60"/>
+      <c r="ES81" s="60"/>
+      <c r="ET81" s="60"/>
+      <c r="EU81" s="60"/>
+      <c r="EV81" s="60"/>
+      <c r="EW81" s="60"/>
+      <c r="EX81" s="60"/>
+      <c r="EY81" s="60"/>
+      <c r="EZ81" s="60"/>
+      <c r="FA81" s="60"/>
+      <c r="FB81" s="60"/>
+      <c r="FC81" s="60"/>
+      <c r="FD81" s="60"/>
+      <c r="FE81" s="60"/>
+      <c r="FF81" s="60"/>
+      <c r="FG81" s="60"/>
+      <c r="FH81" s="60"/>
+      <c r="FI81" s="60"/>
+      <c r="FJ81" s="60"/>
+      <c r="FK81" s="60"/>
+      <c r="FL81" s="60"/>
+      <c r="FM81" s="60"/>
+      <c r="FN81" s="60"/>
+      <c r="FO81" s="60"/>
+      <c r="FP81" s="60"/>
+      <c r="FQ81" s="60"/>
+      <c r="FR81" s="60"/>
+      <c r="FS81" s="60"/>
+      <c r="FT81" s="60"/>
+      <c r="FU81" s="60"/>
+      <c r="FV81" s="60"/>
+      <c r="FW81" s="60"/>
+      <c r="FX81" s="60"/>
+      <c r="FY81" s="60"/>
+      <c r="FZ81" s="60"/>
+      <c r="GA81" s="60"/>
+      <c r="GB81" s="60"/>
+      <c r="GC81" s="60"/>
+      <c r="GD81" s="60"/>
+      <c r="GE81" s="60"/>
+      <c r="GF81" s="60"/>
+      <c r="GG81" s="60"/>
+      <c r="GH81" s="60"/>
+      <c r="GI81" s="60"/>
+      <c r="GJ81" s="60"/>
+      <c r="GK81" s="60"/>
+      <c r="GL81" s="60"/>
+      <c r="GM81" s="60"/>
+      <c r="GN81" s="60"/>
+      <c r="GO81" s="60"/>
+      <c r="GP81" s="60"/>
+      <c r="GQ81" s="60"/>
+      <c r="GR81" s="60"/>
+      <c r="GS81" s="60"/>
+      <c r="GT81" s="60"/>
+      <c r="GU81" s="60"/>
+      <c r="GV81" s="60"/>
+      <c r="GW81" s="60"/>
+      <c r="GX81" s="60"/>
+      <c r="GY81" s="60"/>
+      <c r="GZ81" s="60"/>
+      <c r="HA81" s="60"/>
+      <c r="HB81" s="60"/>
+      <c r="HC81" s="60"/>
+      <c r="HD81" s="60"/>
+      <c r="HE81" s="60"/>
+      <c r="HF81" s="60"/>
+      <c r="HG81" s="60"/>
+      <c r="HH81" s="60"/>
+      <c r="HI81" s="60"/>
+      <c r="HJ81" s="60"/>
+      <c r="HK81" s="60"/>
+      <c r="HL81" s="60"/>
+      <c r="HM81" s="60"/>
+      <c r="HN81" s="60"/>
+      <c r="HO81" s="60"/>
+      <c r="HP81" s="60"/>
+      <c r="HQ81" s="60"/>
+      <c r="HR81" s="60"/>
+      <c r="HS81" s="60"/>
+      <c r="HT81" s="60"/>
+      <c r="HU81" s="60"/>
+      <c r="HV81" s="60"/>
+      <c r="HW81" s="60"/>
+      <c r="HX81" s="60"/>
+      <c r="HY81" s="60"/>
+      <c r="HZ81" s="60"/>
+      <c r="IA81" s="60"/>
+      <c r="IB81" s="60"/>
+      <c r="IC81" s="60"/>
+      <c r="ID81" s="60"/>
+      <c r="IE81" s="60"/>
+      <c r="IF81" s="60"/>
+      <c r="IG81" s="60"/>
+      <c r="IH81" s="60"/>
+      <c r="II81" s="60"/>
+      <c r="IJ81" s="60"/>
+      <c r="IK81" s="60"/>
+      <c r="IL81" s="60"/>
+      <c r="IM81" s="60"/>
+      <c r="IN81" s="60"/>
+      <c r="IO81" s="60"/>
+      <c r="IP81" s="60"/>
+      <c r="IQ81" s="60"/>
+      <c r="IR81" s="60"/>
+      <c r="IS81" s="60"/>
+      <c r="IT81" s="60"/>
+      <c r="IU81" s="60"/>
+      <c r="IV81" s="60"/>
+      <c r="IW81" s="60"/>
+    </row>
+    <row r="82" spans="1:257" ht="17.100000000000001" customHeight="1">
+      <c r="A82" s="58" t="s">
         <v>175</v>
-      </c>
-      <c r="B81" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F81" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" s="58">
-        <v>0</v>
-      </c>
-      <c r="H81" s="58">
-        <v>1</v>
-      </c>
-      <c r="I81" s="58"/>
-      <c r="J81" s="58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="17.100000000000001" customHeight="1">
-      <c r="A82" s="58" t="s">
-        <v>177</v>
       </c>
       <c r="B82" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C82" s="58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82" s="58"/>
       <c r="E82" s="58" t="s">
@@ -15980,15 +16235,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="83" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B83" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C83" s="58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D83" s="58"/>
       <c r="E83" s="58" t="s">
@@ -16008,15 +16263,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="84" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B84" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D84" s="58"/>
       <c r="E84" s="58" t="s">
@@ -16036,15 +16291,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="85" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="58" t="s">
@@ -16064,15 +16319,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="86" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="58" t="s">
@@ -16092,15 +16347,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="87" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B87" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="58" t="s">
@@ -16120,15 +16375,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="88" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B88" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D88" s="58"/>
       <c r="E88" s="58" t="s">
@@ -16148,15 +16403,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="89" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B89" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D89" s="58"/>
       <c r="E89" s="58" t="s">
@@ -16176,15 +16431,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="90" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="58" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D90" s="58"/>
       <c r="E90" s="58" t="s">
@@ -16204,15 +16459,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="91" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="58" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B91" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D91" s="58"/>
       <c r="E91" s="58" t="s">
@@ -16232,15 +16487,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="92" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B92" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D92" s="58"/>
       <c r="E92" s="58" t="s">
@@ -16260,15 +16515,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="93" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="58" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B93" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D93" s="58"/>
       <c r="E93" s="58" t="s">
@@ -16285,18 +16540,18 @@
       </c>
       <c r="I93" s="58"/>
       <c r="J93" s="58" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18" customHeight="1">
+    <row r="94" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="58" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B94" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="58" t="s">
@@ -16316,15 +16571,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="95" spans="1:257" ht="18" customHeight="1">
       <c r="A95" s="58" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B95" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="58" t="s">
@@ -16344,15 +16599,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="17.100000000000001" customHeight="1">
+    <row r="96" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="58" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B96" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D96" s="58"/>
       <c r="E96" s="58" t="s">
@@ -16374,13 +16629,13 @@
     </row>
     <row r="97" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B97" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D97" s="58"/>
       <c r="E97" s="58" t="s">
@@ -16401,20 +16656,20 @@
       </c>
     </row>
     <row r="98" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A98" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="B98" s="95" t="s">
+      <c r="A98" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="B98" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="95" t="s">
-        <v>211</v>
+      <c r="C98" s="58" t="s">
+        <v>208</v>
       </c>
       <c r="D98" s="58"/>
-      <c r="E98" s="95" t="s">
+      <c r="E98" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="95" t="s">
+      <c r="F98" s="58" t="s">
         <v>13</v>
       </c>
       <c r="G98" s="58">
@@ -16423,22 +16678,20 @@
       <c r="H98" s="58">
         <v>1</v>
       </c>
-      <c r="I98" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="J98" s="95" t="s">
-        <v>15</v>
+      <c r="I98" s="58"/>
+      <c r="J98" s="58" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="95" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B99" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C99" s="95" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D99" s="58"/>
       <c r="E99" s="95" t="s">
@@ -16457,18 +16710,18 @@
         <v>174</v>
       </c>
       <c r="J99" s="95" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="95" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B100" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C100" s="95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D100" s="58"/>
       <c r="E100" s="95" t="s">
@@ -16487,18 +16740,18 @@
         <v>174</v>
       </c>
       <c r="J100" s="95" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="95" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B101" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="95" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D101" s="58"/>
       <c r="E101" s="95" t="s">
@@ -16517,18 +16770,18 @@
         <v>174</v>
       </c>
       <c r="J101" s="95" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="B102" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B102" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="95" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D102" s="58"/>
       <c r="E102" s="95" t="s">
@@ -16547,18 +16800,18 @@
         <v>174</v>
       </c>
       <c r="J102" s="95" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="103" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="95" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B103" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="95" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D103" s="58"/>
       <c r="E103" s="95" t="s">
@@ -16582,13 +16835,13 @@
     </row>
     <row r="104" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B104" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="95" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="95" t="s">
@@ -16611,293 +16864,48 @@
       </c>
     </row>
     <row r="105" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A105" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B105" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C105" s="85" t="s">
-        <v>78</v>
+      <c r="A105" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" s="95" t="s">
+        <v>222</v>
       </c>
       <c r="D105" s="58"/>
-      <c r="E105" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="F105" s="76" t="s">
+      <c r="E105" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="25">
-        <v>0</v>
-      </c>
-      <c r="H105" s="25">
+      <c r="G105" s="58">
+        <v>0</v>
+      </c>
+      <c r="H105" s="58">
         <v>1</v>
       </c>
-      <c r="I105" s="10"/>
-      <c r="J105" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K105"/>
-      <c r="L105"/>
-      <c r="M105"/>
-      <c r="N105"/>
-      <c r="O105"/>
-      <c r="P105"/>
-      <c r="Q105"/>
-      <c r="R105"/>
-      <c r="S105"/>
-      <c r="T105"/>
-      <c r="U105"/>
-      <c r="V105"/>
-      <c r="W105"/>
-      <c r="X105"/>
-      <c r="Y105"/>
-      <c r="Z105"/>
-      <c r="AA105"/>
-      <c r="AB105"/>
-      <c r="AC105"/>
-      <c r="AD105"/>
-      <c r="AE105"/>
-      <c r="AF105"/>
-      <c r="AG105"/>
-      <c r="AH105"/>
-      <c r="AI105"/>
-      <c r="AJ105"/>
-      <c r="AK105"/>
-      <c r="AL105"/>
-      <c r="AM105"/>
-      <c r="AN105"/>
-      <c r="AO105"/>
-      <c r="AP105"/>
-      <c r="AQ105"/>
-      <c r="AR105"/>
-      <c r="AS105"/>
-      <c r="AT105"/>
-      <c r="AU105"/>
-      <c r="AV105"/>
-      <c r="AW105"/>
-      <c r="AX105"/>
-      <c r="AY105"/>
-      <c r="AZ105"/>
-      <c r="BA105"/>
-      <c r="BB105"/>
-      <c r="BC105"/>
-      <c r="BD105"/>
-      <c r="BE105"/>
-      <c r="BF105"/>
-      <c r="BG105"/>
-      <c r="BH105"/>
-      <c r="BI105"/>
-      <c r="BJ105"/>
-      <c r="BK105"/>
-      <c r="BL105"/>
-      <c r="BM105"/>
-      <c r="BN105"/>
-      <c r="BO105"/>
-      <c r="BP105"/>
-      <c r="BQ105"/>
-      <c r="BR105"/>
-      <c r="BS105"/>
-      <c r="BT105"/>
-      <c r="BU105"/>
-      <c r="BV105"/>
-      <c r="BW105"/>
-      <c r="BX105"/>
-      <c r="BY105"/>
-      <c r="BZ105"/>
-      <c r="CA105"/>
-      <c r="CB105"/>
-      <c r="CC105"/>
-      <c r="CD105"/>
-      <c r="CE105"/>
-      <c r="CF105"/>
-      <c r="CG105"/>
-      <c r="CH105"/>
-      <c r="CI105"/>
-      <c r="CJ105"/>
-      <c r="CK105"/>
-      <c r="CL105"/>
-      <c r="CM105"/>
-      <c r="CN105"/>
-      <c r="CO105"/>
-      <c r="CP105"/>
-      <c r="CQ105"/>
-      <c r="CR105"/>
-      <c r="CS105"/>
-      <c r="CT105"/>
-      <c r="CU105"/>
-      <c r="CV105"/>
-      <c r="CW105"/>
-      <c r="CX105"/>
-      <c r="CY105"/>
-      <c r="CZ105"/>
-      <c r="DA105"/>
-      <c r="DB105"/>
-      <c r="DC105"/>
-      <c r="DD105"/>
-      <c r="DE105"/>
-      <c r="DF105"/>
-      <c r="DG105"/>
-      <c r="DH105"/>
-      <c r="DI105"/>
-      <c r="DJ105"/>
-      <c r="DK105"/>
-      <c r="DL105"/>
-      <c r="DM105"/>
-      <c r="DN105"/>
-      <c r="DO105"/>
-      <c r="DP105"/>
-      <c r="DQ105"/>
-      <c r="DR105"/>
-      <c r="DS105"/>
-      <c r="DT105"/>
-      <c r="DU105"/>
-      <c r="DV105"/>
-      <c r="DW105"/>
-      <c r="DX105"/>
-      <c r="DY105"/>
-      <c r="DZ105"/>
-      <c r="EA105"/>
-      <c r="EB105"/>
-      <c r="EC105"/>
-      <c r="ED105"/>
-      <c r="EE105"/>
-      <c r="EF105"/>
-      <c r="EG105"/>
-      <c r="EH105"/>
-      <c r="EI105"/>
-      <c r="EJ105"/>
-      <c r="EK105"/>
-      <c r="EL105"/>
-      <c r="EM105"/>
-      <c r="EN105"/>
-      <c r="EO105"/>
-      <c r="EP105"/>
-      <c r="EQ105"/>
-      <c r="ER105"/>
-      <c r="ES105"/>
-      <c r="ET105"/>
-      <c r="EU105"/>
-      <c r="EV105"/>
-      <c r="EW105"/>
-      <c r="EX105"/>
-      <c r="EY105"/>
-      <c r="EZ105"/>
-      <c r="FA105"/>
-      <c r="FB105"/>
-      <c r="FC105"/>
-      <c r="FD105"/>
-      <c r="FE105"/>
-      <c r="FF105"/>
-      <c r="FG105"/>
-      <c r="FH105"/>
-      <c r="FI105"/>
-      <c r="FJ105"/>
-      <c r="FK105"/>
-      <c r="FL105"/>
-      <c r="FM105"/>
-      <c r="FN105"/>
-      <c r="FO105"/>
-      <c r="FP105"/>
-      <c r="FQ105"/>
-      <c r="FR105"/>
-      <c r="FS105"/>
-      <c r="FT105"/>
-      <c r="FU105"/>
-      <c r="FV105"/>
-      <c r="FW105"/>
-      <c r="FX105"/>
-      <c r="FY105"/>
-      <c r="FZ105"/>
-      <c r="GA105"/>
-      <c r="GB105"/>
-      <c r="GC105"/>
-      <c r="GD105"/>
-      <c r="GE105"/>
-      <c r="GF105"/>
-      <c r="GG105"/>
-      <c r="GH105"/>
-      <c r="GI105"/>
-      <c r="GJ105"/>
-      <c r="GK105"/>
-      <c r="GL105"/>
-      <c r="GM105"/>
-      <c r="GN105"/>
-      <c r="GO105"/>
-      <c r="GP105"/>
-      <c r="GQ105"/>
-      <c r="GR105"/>
-      <c r="GS105"/>
-      <c r="GT105"/>
-      <c r="GU105"/>
-      <c r="GV105"/>
-      <c r="GW105"/>
-      <c r="GX105"/>
-      <c r="GY105"/>
-      <c r="GZ105"/>
-      <c r="HA105"/>
-      <c r="HB105"/>
-      <c r="HC105"/>
-      <c r="HD105"/>
-      <c r="HE105"/>
-      <c r="HF105"/>
-      <c r="HG105"/>
-      <c r="HH105"/>
-      <c r="HI105"/>
-      <c r="HJ105"/>
-      <c r="HK105"/>
-      <c r="HL105"/>
-      <c r="HM105"/>
-      <c r="HN105"/>
-      <c r="HO105"/>
-      <c r="HP105"/>
-      <c r="HQ105"/>
-      <c r="HR105"/>
-      <c r="HS105"/>
-      <c r="HT105"/>
-      <c r="HU105"/>
-      <c r="HV105"/>
-      <c r="HW105"/>
-      <c r="HX105"/>
-      <c r="HY105"/>
-      <c r="HZ105"/>
-      <c r="IA105"/>
-      <c r="IB105"/>
-      <c r="IC105"/>
-      <c r="ID105"/>
-      <c r="IE105"/>
-      <c r="IF105"/>
-      <c r="IG105"/>
-      <c r="IH105"/>
-      <c r="II105"/>
-      <c r="IJ105"/>
-      <c r="IK105"/>
-      <c r="IL105"/>
-      <c r="IM105"/>
-      <c r="IN105"/>
-      <c r="IO105"/>
-      <c r="IP105"/>
-      <c r="IQ105"/>
-      <c r="IR105"/>
-      <c r="IS105"/>
-      <c r="IT105"/>
-      <c r="IU105"/>
-      <c r="IV105"/>
-      <c r="IW105"/>
+      <c r="I105" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="J105" s="95" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A106" s="19" t="s">
         <v>224</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C106" s="85" t="s">
         <v>78</v>
       </c>
       <c r="D106" s="58"/>
       <c r="E106" s="76" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="F106" s="76" t="s">
         <v>13</v>
@@ -17161,44 +17169,289 @@
       <c r="IW106"/>
     </row>
     <row r="107" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A107" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B107" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>233</v>
+      <c r="A107" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="85" t="s">
+        <v>78</v>
       </c>
       <c r="D107" s="58"/>
-      <c r="E107" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="F107" s="96" t="s">
+      <c r="E107" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="F107" s="76" t="s">
         <v>13</v>
       </c>
       <c r="G107" s="25">
         <v>0</v>
       </c>
-      <c r="H107" s="97">
+      <c r="H107" s="25">
         <v>1</v>
       </c>
-      <c r="I107" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="J107" s="96" t="s">
-        <v>29</v>
-      </c>
+      <c r="I107" s="10"/>
+      <c r="J107" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+      <c r="Y107"/>
+      <c r="Z107"/>
+      <c r="AA107"/>
+      <c r="AB107"/>
+      <c r="AC107"/>
+      <c r="AD107"/>
+      <c r="AE107"/>
+      <c r="AF107"/>
+      <c r="AG107"/>
+      <c r="AH107"/>
+      <c r="AI107"/>
+      <c r="AJ107"/>
+      <c r="AK107"/>
+      <c r="AL107"/>
+      <c r="AM107"/>
+      <c r="AN107"/>
+      <c r="AO107"/>
+      <c r="AP107"/>
+      <c r="AQ107"/>
+      <c r="AR107"/>
+      <c r="AS107"/>
+      <c r="AT107"/>
+      <c r="AU107"/>
+      <c r="AV107"/>
+      <c r="AW107"/>
+      <c r="AX107"/>
+      <c r="AY107"/>
+      <c r="AZ107"/>
+      <c r="BA107"/>
+      <c r="BB107"/>
+      <c r="BC107"/>
+      <c r="BD107"/>
+      <c r="BE107"/>
+      <c r="BF107"/>
+      <c r="BG107"/>
+      <c r="BH107"/>
+      <c r="BI107"/>
+      <c r="BJ107"/>
+      <c r="BK107"/>
+      <c r="BL107"/>
+      <c r="BM107"/>
+      <c r="BN107"/>
+      <c r="BO107"/>
+      <c r="BP107"/>
+      <c r="BQ107"/>
+      <c r="BR107"/>
+      <c r="BS107"/>
+      <c r="BT107"/>
+      <c r="BU107"/>
+      <c r="BV107"/>
+      <c r="BW107"/>
+      <c r="BX107"/>
+      <c r="BY107"/>
+      <c r="BZ107"/>
+      <c r="CA107"/>
+      <c r="CB107"/>
+      <c r="CC107"/>
+      <c r="CD107"/>
+      <c r="CE107"/>
+      <c r="CF107"/>
+      <c r="CG107"/>
+      <c r="CH107"/>
+      <c r="CI107"/>
+      <c r="CJ107"/>
+      <c r="CK107"/>
+      <c r="CL107"/>
+      <c r="CM107"/>
+      <c r="CN107"/>
+      <c r="CO107"/>
+      <c r="CP107"/>
+      <c r="CQ107"/>
+      <c r="CR107"/>
+      <c r="CS107"/>
+      <c r="CT107"/>
+      <c r="CU107"/>
+      <c r="CV107"/>
+      <c r="CW107"/>
+      <c r="CX107"/>
+      <c r="CY107"/>
+      <c r="CZ107"/>
+      <c r="DA107"/>
+      <c r="DB107"/>
+      <c r="DC107"/>
+      <c r="DD107"/>
+      <c r="DE107"/>
+      <c r="DF107"/>
+      <c r="DG107"/>
+      <c r="DH107"/>
+      <c r="DI107"/>
+      <c r="DJ107"/>
+      <c r="DK107"/>
+      <c r="DL107"/>
+      <c r="DM107"/>
+      <c r="DN107"/>
+      <c r="DO107"/>
+      <c r="DP107"/>
+      <c r="DQ107"/>
+      <c r="DR107"/>
+      <c r="DS107"/>
+      <c r="DT107"/>
+      <c r="DU107"/>
+      <c r="DV107"/>
+      <c r="DW107"/>
+      <c r="DX107"/>
+      <c r="DY107"/>
+      <c r="DZ107"/>
+      <c r="EA107"/>
+      <c r="EB107"/>
+      <c r="EC107"/>
+      <c r="ED107"/>
+      <c r="EE107"/>
+      <c r="EF107"/>
+      <c r="EG107"/>
+      <c r="EH107"/>
+      <c r="EI107"/>
+      <c r="EJ107"/>
+      <c r="EK107"/>
+      <c r="EL107"/>
+      <c r="EM107"/>
+      <c r="EN107"/>
+      <c r="EO107"/>
+      <c r="EP107"/>
+      <c r="EQ107"/>
+      <c r="ER107"/>
+      <c r="ES107"/>
+      <c r="ET107"/>
+      <c r="EU107"/>
+      <c r="EV107"/>
+      <c r="EW107"/>
+      <c r="EX107"/>
+      <c r="EY107"/>
+      <c r="EZ107"/>
+      <c r="FA107"/>
+      <c r="FB107"/>
+      <c r="FC107"/>
+      <c r="FD107"/>
+      <c r="FE107"/>
+      <c r="FF107"/>
+      <c r="FG107"/>
+      <c r="FH107"/>
+      <c r="FI107"/>
+      <c r="FJ107"/>
+      <c r="FK107"/>
+      <c r="FL107"/>
+      <c r="FM107"/>
+      <c r="FN107"/>
+      <c r="FO107"/>
+      <c r="FP107"/>
+      <c r="FQ107"/>
+      <c r="FR107"/>
+      <c r="FS107"/>
+      <c r="FT107"/>
+      <c r="FU107"/>
+      <c r="FV107"/>
+      <c r="FW107"/>
+      <c r="FX107"/>
+      <c r="FY107"/>
+      <c r="FZ107"/>
+      <c r="GA107"/>
+      <c r="GB107"/>
+      <c r="GC107"/>
+      <c r="GD107"/>
+      <c r="GE107"/>
+      <c r="GF107"/>
+      <c r="GG107"/>
+      <c r="GH107"/>
+      <c r="GI107"/>
+      <c r="GJ107"/>
+      <c r="GK107"/>
+      <c r="GL107"/>
+      <c r="GM107"/>
+      <c r="GN107"/>
+      <c r="GO107"/>
+      <c r="GP107"/>
+      <c r="GQ107"/>
+      <c r="GR107"/>
+      <c r="GS107"/>
+      <c r="GT107"/>
+      <c r="GU107"/>
+      <c r="GV107"/>
+      <c r="GW107"/>
+      <c r="GX107"/>
+      <c r="GY107"/>
+      <c r="GZ107"/>
+      <c r="HA107"/>
+      <c r="HB107"/>
+      <c r="HC107"/>
+      <c r="HD107"/>
+      <c r="HE107"/>
+      <c r="HF107"/>
+      <c r="HG107"/>
+      <c r="HH107"/>
+      <c r="HI107"/>
+      <c r="HJ107"/>
+      <c r="HK107"/>
+      <c r="HL107"/>
+      <c r="HM107"/>
+      <c r="HN107"/>
+      <c r="HO107"/>
+      <c r="HP107"/>
+      <c r="HQ107"/>
+      <c r="HR107"/>
+      <c r="HS107"/>
+      <c r="HT107"/>
+      <c r="HU107"/>
+      <c r="HV107"/>
+      <c r="HW107"/>
+      <c r="HX107"/>
+      <c r="HY107"/>
+      <c r="HZ107"/>
+      <c r="IA107"/>
+      <c r="IB107"/>
+      <c r="IC107"/>
+      <c r="ID107"/>
+      <c r="IE107"/>
+      <c r="IF107"/>
+      <c r="IG107"/>
+      <c r="IH107"/>
+      <c r="II107"/>
+      <c r="IJ107"/>
+      <c r="IK107"/>
+      <c r="IL107"/>
+      <c r="IM107"/>
+      <c r="IN107"/>
+      <c r="IO107"/>
+      <c r="IP107"/>
+      <c r="IQ107"/>
+      <c r="IR107"/>
+      <c r="IS107"/>
+      <c r="IT107"/>
+      <c r="IU107"/>
+      <c r="IV107"/>
+      <c r="IW107"/>
     </row>
     <row r="108" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B108" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D108" s="58"/>
       <c r="E108" s="96" t="s">
@@ -17210,7 +17463,7 @@
       <c r="G108" s="25">
         <v>0</v>
       </c>
-      <c r="H108" s="58">
+      <c r="H108" s="97">
         <v>1</v>
       </c>
       <c r="I108" s="96" t="s">
@@ -17222,13 +17475,13 @@
     </row>
     <row r="109" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B109" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D109" s="58"/>
       <c r="E109" s="96" t="s">
@@ -17252,13 +17505,13 @@
     </row>
     <row r="110" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B110" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D110" s="58"/>
       <c r="E110" s="96" t="s">
@@ -17282,13 +17535,13 @@
     </row>
     <row r="111" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B111" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="96" t="s">
@@ -17298,7 +17551,7 @@
         <v>13</v>
       </c>
       <c r="G111" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H111" s="58">
         <v>1</v>
@@ -17312,13 +17565,13 @@
     </row>
     <row r="112" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B112" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="96" t="s">
@@ -17328,7 +17581,7 @@
         <v>13</v>
       </c>
       <c r="G112" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H112" s="58">
         <v>1</v>
@@ -17342,13 +17595,13 @@
     </row>
     <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B113" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="96" t="s">
@@ -17372,13 +17625,13 @@
     </row>
     <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="B114" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="96" t="s">
@@ -17402,13 +17655,13 @@
     </row>
     <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B115" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C115" s="95" t="s">
-        <v>242</v>
+      <c r="C115" s="58" t="s">
+        <v>239</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="96" t="s">
@@ -17432,13 +17685,13 @@
     </row>
     <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B116" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C116" s="95" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="96" t="s">
@@ -17462,13 +17715,13 @@
     </row>
     <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B117" s="58" t="s">
         <v>232</v>
       </c>
-      <c r="C117" s="58" t="s">
-        <v>241</v>
+      <c r="C117" s="95" t="s">
+        <v>245</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="96" t="s">
@@ -17492,13 +17745,13 @@
     </row>
     <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="B118" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C118" s="58" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="96" t="s">
@@ -17522,13 +17775,13 @@
     </row>
     <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="B119" s="58" t="s">
         <v>232</v>
       </c>
       <c r="C119" s="58" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
       <c r="D119" s="58"/>
       <c r="E119" s="96" t="s">
@@ -17550,7 +17803,36 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A120" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D120" s="58"/>
+      <c r="E120" s="96" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="25">
+        <v>0</v>
+      </c>
+      <c r="H120" s="58">
+        <v>1</v>
+      </c>
+      <c r="I120" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="J120" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1"/>
@@ -17564,6 +17846,7 @@
     <row r="131" ht="17.100000000000001" customHeight="1"/>
     <row r="132" ht="17.100000000000001" customHeight="1"/>
     <row r="133" ht="17.100000000000001" customHeight="1"/>
+    <row r="134" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44792CE5-0415-4FD1-9DDC-EBD00E61EB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C0492E-3113-4C4A-8765-7BE79A7138FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31770" yWindow="795" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="257">
   <si>
     <t>name</t>
   </si>
@@ -493,9 +493,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>service_deliveries</t>
-  </si>
-  <si>
     <t>service_provided</t>
   </si>
   <si>
@@ -782,6 +779,24 @@
   </si>
   <si>
     <t>Task Completed Date</t>
+  </si>
+  <si>
+    <t>service_received</t>
+  </si>
+  <si>
+    <t>Service Received</t>
+  </si>
+  <si>
+    <t>done_by</t>
+  </si>
+  <si>
+    <t>Done by</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>Manage</t>
   </si>
 </sst>
 </file>
@@ -1690,10 +1705,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IW134"/>
+  <dimension ref="A1:IW137"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2035,7 +2050,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="11" t="s">
@@ -11780,14 +11795,14 @@
         <v>143</v>
       </c>
       <c r="B66" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D66" s="63"/>
       <c r="E66" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F66" s="63" t="s">
         <v>13</v>
@@ -11799,7 +11814,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J66" s="63" t="s">
         <v>15</v>
@@ -12057,14 +12072,14 @@
         <v>144</v>
       </c>
       <c r="B67" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D67" s="63"/>
       <c r="E67" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F67" s="63" t="s">
         <v>13</v>
@@ -12076,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J67" s="63" t="s">
         <v>15</v>
@@ -12334,14 +12349,14 @@
         <v>145</v>
       </c>
       <c r="B68" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="63"/>
       <c r="E68" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F68" s="63" t="s">
         <v>13</v>
@@ -12353,7 +12368,7 @@
         <v>1</v>
       </c>
       <c r="I68" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J68" s="63" t="s">
         <v>15</v>
@@ -12611,14 +12626,14 @@
         <v>146</v>
       </c>
       <c r="B69" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D69" s="63"/>
       <c r="E69" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F69" s="63" t="s">
         <v>13</v>
@@ -12630,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J69" s="63" t="s">
         <v>15</v>
@@ -12888,14 +12903,14 @@
         <v>147</v>
       </c>
       <c r="B70" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D70" s="63"/>
       <c r="E70" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F70" s="63" t="s">
         <v>13</v>
@@ -12907,7 +12922,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J70" s="63" t="s">
         <v>15</v>
@@ -13165,14 +13180,14 @@
         <v>148</v>
       </c>
       <c r="B71" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C71" s="63" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D71" s="63"/>
       <c r="E71" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F71" s="63" t="s">
         <v>13</v>
@@ -13184,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J71" s="63" t="s">
         <v>15</v>
@@ -13442,14 +13457,14 @@
         <v>149</v>
       </c>
       <c r="B72" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C72" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="63"/>
       <c r="E72" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F72" s="63" t="s">
         <v>13</v>
@@ -13461,7 +13476,7 @@
         <v>1</v>
       </c>
       <c r="I72" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J72" s="94" t="s">
         <v>3</v>
@@ -13719,14 +13734,14 @@
         <v>150</v>
       </c>
       <c r="B73" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D73" s="63"/>
       <c r="E73" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F73" s="63" t="s">
         <v>13</v>
@@ -13738,7 +13753,7 @@
         <v>1</v>
       </c>
       <c r="I73" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J73" s="63" t="s">
         <v>15</v>
@@ -13996,14 +14011,14 @@
         <v>151</v>
       </c>
       <c r="B74" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D74" s="63"/>
       <c r="E74" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F74" s="63" t="s">
         <v>13</v>
@@ -14015,7 +14030,7 @@
         <v>1</v>
       </c>
       <c r="I74" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J74" s="94" t="s">
         <v>3</v>
@@ -14273,14 +14288,14 @@
         <v>152</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="63"/>
       <c r="E75" s="63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F75" s="63" t="s">
         <v>13</v>
@@ -14292,7 +14307,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J75" s="63" t="s">
         <v>15</v>
@@ -14550,14 +14565,14 @@
         <v>153</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D76" s="59"/>
       <c r="E76" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F76" s="59" t="s">
         <v>13</v>
@@ -14569,7 +14584,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J76" s="59" t="s">
         <v>15</v>
@@ -14827,14 +14842,14 @@
         <v>154</v>
       </c>
       <c r="B77" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C77" s="59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D77" s="59"/>
       <c r="E77" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F77" s="59" t="s">
         <v>13</v>
@@ -14846,7 +14861,7 @@
         <v>1</v>
       </c>
       <c r="I77" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J77" s="59" t="s">
         <v>15</v>
@@ -15104,14 +15119,14 @@
         <v>143</v>
       </c>
       <c r="B78" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="59" t="s">
         <v>158</v>
-      </c>
-      <c r="C78" s="59" t="s">
-        <v>159</v>
       </c>
       <c r="D78" s="59"/>
       <c r="E78" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78" s="59" t="s">
         <v>13</v>
@@ -15123,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J78" s="59" t="s">
         <v>15</v>
@@ -15378,17 +15393,17 @@
     </row>
     <row r="79" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="59" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B79" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C79" s="59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D79" s="59"/>
       <c r="E79" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F79" s="59" t="s">
         <v>13</v>
@@ -15400,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J79" s="59" t="s">
         <v>15</v>
@@ -15655,17 +15670,17 @@
     </row>
     <row r="80" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C80" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D80" s="59"/>
       <c r="E80" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F80" s="59" t="s">
         <v>13</v>
@@ -15677,7 +15692,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J80" s="59" t="s">
         <v>15</v>
@@ -15932,17 +15947,17 @@
     </row>
     <row r="81" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="59" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B81" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C81" s="59" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D81" s="59"/>
       <c r="E81" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F81" s="59" t="s">
         <v>13</v>
@@ -15954,7 +15969,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="63" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J81" s="59" t="s">
         <v>15</v>
@@ -16207,99 +16222,846 @@
       <c r="IV81" s="60"/>
       <c r="IW81" s="60"/>
     </row>
-    <row r="82" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A82" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B82" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="58" t="s">
-        <v>176</v>
-      </c>
-      <c r="D82" s="58"/>
-      <c r="E82" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="58" t="s">
+    <row r="82" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A82" s="59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="59" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F82" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G82" s="58">
+      <c r="G82" s="59">
         <v>0</v>
       </c>
-      <c r="H82" s="58">
+      <c r="H82" s="59">
         <v>1</v>
       </c>
-      <c r="I82" s="58"/>
-      <c r="J82" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="I82" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="J82" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" s="60"/>
+      <c r="L82" s="60"/>
+      <c r="M82" s="60"/>
+      <c r="N82" s="60"/>
+      <c r="O82" s="60"/>
+      <c r="P82" s="60"/>
+      <c r="Q82" s="60"/>
+      <c r="R82" s="60"/>
+      <c r="S82" s="60"/>
+      <c r="T82" s="60"/>
+      <c r="U82" s="60"/>
+      <c r="V82" s="60"/>
+      <c r="W82" s="60"/>
+      <c r="X82" s="60"/>
+      <c r="Y82" s="60"/>
+      <c r="Z82" s="60"/>
+      <c r="AA82" s="60"/>
+      <c r="AB82" s="60"/>
+      <c r="AC82" s="60"/>
+      <c r="AD82" s="60"/>
+      <c r="AE82" s="60"/>
+      <c r="AF82" s="60"/>
+      <c r="AG82" s="60"/>
+      <c r="AH82" s="60"/>
+      <c r="AI82" s="60"/>
+      <c r="AJ82" s="60"/>
+      <c r="AK82" s="60"/>
+      <c r="AL82" s="60"/>
+      <c r="AM82" s="60"/>
+      <c r="AN82" s="60"/>
+      <c r="AO82" s="60"/>
+      <c r="AP82" s="60"/>
+      <c r="AQ82" s="60"/>
+      <c r="AR82" s="60"/>
+      <c r="AS82" s="60"/>
+      <c r="AT82" s="60"/>
+      <c r="AU82" s="60"/>
+      <c r="AV82" s="60"/>
+      <c r="AW82" s="60"/>
+      <c r="AX82" s="60"/>
+      <c r="AY82" s="60"/>
+      <c r="AZ82" s="60"/>
+      <c r="BA82" s="60"/>
+      <c r="BB82" s="60"/>
+      <c r="BC82" s="60"/>
+      <c r="BD82" s="60"/>
+      <c r="BE82" s="60"/>
+      <c r="BF82" s="60"/>
+      <c r="BG82" s="60"/>
+      <c r="BH82" s="60"/>
+      <c r="BI82" s="60"/>
+      <c r="BJ82" s="60"/>
+      <c r="BK82" s="60"/>
+      <c r="BL82" s="60"/>
+      <c r="BM82" s="60"/>
+      <c r="BN82" s="60"/>
+      <c r="BO82" s="60"/>
+      <c r="BP82" s="60"/>
+      <c r="BQ82" s="60"/>
+      <c r="BR82" s="60"/>
+      <c r="BS82" s="60"/>
+      <c r="BT82" s="60"/>
+      <c r="BU82" s="60"/>
+      <c r="BV82" s="60"/>
+      <c r="BW82" s="60"/>
+      <c r="BX82" s="60"/>
+      <c r="BY82" s="60"/>
+      <c r="BZ82" s="60"/>
+      <c r="CA82" s="60"/>
+      <c r="CB82" s="60"/>
+      <c r="CC82" s="60"/>
+      <c r="CD82" s="60"/>
+      <c r="CE82" s="60"/>
+      <c r="CF82" s="60"/>
+      <c r="CG82" s="60"/>
+      <c r="CH82" s="60"/>
+      <c r="CI82" s="60"/>
+      <c r="CJ82" s="60"/>
+      <c r="CK82" s="60"/>
+      <c r="CL82" s="60"/>
+      <c r="CM82" s="60"/>
+      <c r="CN82" s="60"/>
+      <c r="CO82" s="60"/>
+      <c r="CP82" s="60"/>
+      <c r="CQ82" s="60"/>
+      <c r="CR82" s="60"/>
+      <c r="CS82" s="60"/>
+      <c r="CT82" s="60"/>
+      <c r="CU82" s="60"/>
+      <c r="CV82" s="60"/>
+      <c r="CW82" s="60"/>
+      <c r="CX82" s="60"/>
+      <c r="CY82" s="60"/>
+      <c r="CZ82" s="60"/>
+      <c r="DA82" s="60"/>
+      <c r="DB82" s="60"/>
+      <c r="DC82" s="60"/>
+      <c r="DD82" s="60"/>
+      <c r="DE82" s="60"/>
+      <c r="DF82" s="60"/>
+      <c r="DG82" s="60"/>
+      <c r="DH82" s="60"/>
+      <c r="DI82" s="60"/>
+      <c r="DJ82" s="60"/>
+      <c r="DK82" s="60"/>
+      <c r="DL82" s="60"/>
+      <c r="DM82" s="60"/>
+      <c r="DN82" s="60"/>
+      <c r="DO82" s="60"/>
+      <c r="DP82" s="60"/>
+      <c r="DQ82" s="60"/>
+      <c r="DR82" s="60"/>
+      <c r="DS82" s="60"/>
+      <c r="DT82" s="60"/>
+      <c r="DU82" s="60"/>
+      <c r="DV82" s="60"/>
+      <c r="DW82" s="60"/>
+      <c r="DX82" s="60"/>
+      <c r="DY82" s="60"/>
+      <c r="DZ82" s="60"/>
+      <c r="EA82" s="60"/>
+      <c r="EB82" s="60"/>
+      <c r="EC82" s="60"/>
+      <c r="ED82" s="60"/>
+      <c r="EE82" s="60"/>
+      <c r="EF82" s="60"/>
+      <c r="EG82" s="60"/>
+      <c r="EH82" s="60"/>
+      <c r="EI82" s="60"/>
+      <c r="EJ82" s="60"/>
+      <c r="EK82" s="60"/>
+      <c r="EL82" s="60"/>
+      <c r="EM82" s="60"/>
+      <c r="EN82" s="60"/>
+      <c r="EO82" s="60"/>
+      <c r="EP82" s="60"/>
+      <c r="EQ82" s="60"/>
+      <c r="ER82" s="60"/>
+      <c r="ES82" s="60"/>
+      <c r="ET82" s="60"/>
+      <c r="EU82" s="60"/>
+      <c r="EV82" s="60"/>
+      <c r="EW82" s="60"/>
+      <c r="EX82" s="60"/>
+      <c r="EY82" s="60"/>
+      <c r="EZ82" s="60"/>
+      <c r="FA82" s="60"/>
+      <c r="FB82" s="60"/>
+      <c r="FC82" s="60"/>
+      <c r="FD82" s="60"/>
+      <c r="FE82" s="60"/>
+      <c r="FF82" s="60"/>
+      <c r="FG82" s="60"/>
+      <c r="FH82" s="60"/>
+      <c r="FI82" s="60"/>
+      <c r="FJ82" s="60"/>
+      <c r="FK82" s="60"/>
+      <c r="FL82" s="60"/>
+      <c r="FM82" s="60"/>
+      <c r="FN82" s="60"/>
+      <c r="FO82" s="60"/>
+      <c r="FP82" s="60"/>
+      <c r="FQ82" s="60"/>
+      <c r="FR82" s="60"/>
+      <c r="FS82" s="60"/>
+      <c r="FT82" s="60"/>
+      <c r="FU82" s="60"/>
+      <c r="FV82" s="60"/>
+      <c r="FW82" s="60"/>
+      <c r="FX82" s="60"/>
+      <c r="FY82" s="60"/>
+      <c r="FZ82" s="60"/>
+      <c r="GA82" s="60"/>
+      <c r="GB82" s="60"/>
+      <c r="GC82" s="60"/>
+      <c r="GD82" s="60"/>
+      <c r="GE82" s="60"/>
+      <c r="GF82" s="60"/>
+      <c r="GG82" s="60"/>
+      <c r="GH82" s="60"/>
+      <c r="GI82" s="60"/>
+      <c r="GJ82" s="60"/>
+      <c r="GK82" s="60"/>
+      <c r="GL82" s="60"/>
+      <c r="GM82" s="60"/>
+      <c r="GN82" s="60"/>
+      <c r="GO82" s="60"/>
+      <c r="GP82" s="60"/>
+      <c r="GQ82" s="60"/>
+      <c r="GR82" s="60"/>
+      <c r="GS82" s="60"/>
+      <c r="GT82" s="60"/>
+      <c r="GU82" s="60"/>
+      <c r="GV82" s="60"/>
+      <c r="GW82" s="60"/>
+      <c r="GX82" s="60"/>
+      <c r="GY82" s="60"/>
+      <c r="GZ82" s="60"/>
+      <c r="HA82" s="60"/>
+      <c r="HB82" s="60"/>
+      <c r="HC82" s="60"/>
+      <c r="HD82" s="60"/>
+      <c r="HE82" s="60"/>
+      <c r="HF82" s="60"/>
+      <c r="HG82" s="60"/>
+      <c r="HH82" s="60"/>
+      <c r="HI82" s="60"/>
+      <c r="HJ82" s="60"/>
+      <c r="HK82" s="60"/>
+      <c r="HL82" s="60"/>
+      <c r="HM82" s="60"/>
+      <c r="HN82" s="60"/>
+      <c r="HO82" s="60"/>
+      <c r="HP82" s="60"/>
+      <c r="HQ82" s="60"/>
+      <c r="HR82" s="60"/>
+      <c r="HS82" s="60"/>
+      <c r="HT82" s="60"/>
+      <c r="HU82" s="60"/>
+      <c r="HV82" s="60"/>
+      <c r="HW82" s="60"/>
+      <c r="HX82" s="60"/>
+      <c r="HY82" s="60"/>
+      <c r="HZ82" s="60"/>
+      <c r="IA82" s="60"/>
+      <c r="IB82" s="60"/>
+      <c r="IC82" s="60"/>
+      <c r="ID82" s="60"/>
+      <c r="IE82" s="60"/>
+      <c r="IF82" s="60"/>
+      <c r="IG82" s="60"/>
+      <c r="IH82" s="60"/>
+      <c r="II82" s="60"/>
+      <c r="IJ82" s="60"/>
+      <c r="IK82" s="60"/>
+      <c r="IL82" s="60"/>
+      <c r="IM82" s="60"/>
+      <c r="IN82" s="60"/>
+      <c r="IO82" s="60"/>
+      <c r="IP82" s="60"/>
+      <c r="IQ82" s="60"/>
+      <c r="IR82" s="60"/>
+      <c r="IS82" s="60"/>
+      <c r="IT82" s="60"/>
+      <c r="IU82" s="60"/>
+      <c r="IV82" s="60"/>
+      <c r="IW82" s="60"/>
     </row>
-    <row r="83" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A83" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="B83" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="58"/>
-      <c r="E83" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F83" s="58" t="s">
+    <row r="83" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A83" s="59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F83" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G83" s="58">
+      <c r="G83" s="59">
         <v>0</v>
       </c>
-      <c r="H83" s="58">
+      <c r="H83" s="59">
         <v>1</v>
       </c>
-      <c r="I83" s="58"/>
-      <c r="J83" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="I83" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="J83" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="60"/>
+      <c r="U83" s="60"/>
+      <c r="V83" s="60"/>
+      <c r="W83" s="60"/>
+      <c r="X83" s="60"/>
+      <c r="Y83" s="60"/>
+      <c r="Z83" s="60"/>
+      <c r="AA83" s="60"/>
+      <c r="AB83" s="60"/>
+      <c r="AC83" s="60"/>
+      <c r="AD83" s="60"/>
+      <c r="AE83" s="60"/>
+      <c r="AF83" s="60"/>
+      <c r="AG83" s="60"/>
+      <c r="AH83" s="60"/>
+      <c r="AI83" s="60"/>
+      <c r="AJ83" s="60"/>
+      <c r="AK83" s="60"/>
+      <c r="AL83" s="60"/>
+      <c r="AM83" s="60"/>
+      <c r="AN83" s="60"/>
+      <c r="AO83" s="60"/>
+      <c r="AP83" s="60"/>
+      <c r="AQ83" s="60"/>
+      <c r="AR83" s="60"/>
+      <c r="AS83" s="60"/>
+      <c r="AT83" s="60"/>
+      <c r="AU83" s="60"/>
+      <c r="AV83" s="60"/>
+      <c r="AW83" s="60"/>
+      <c r="AX83" s="60"/>
+      <c r="AY83" s="60"/>
+      <c r="AZ83" s="60"/>
+      <c r="BA83" s="60"/>
+      <c r="BB83" s="60"/>
+      <c r="BC83" s="60"/>
+      <c r="BD83" s="60"/>
+      <c r="BE83" s="60"/>
+      <c r="BF83" s="60"/>
+      <c r="BG83" s="60"/>
+      <c r="BH83" s="60"/>
+      <c r="BI83" s="60"/>
+      <c r="BJ83" s="60"/>
+      <c r="BK83" s="60"/>
+      <c r="BL83" s="60"/>
+      <c r="BM83" s="60"/>
+      <c r="BN83" s="60"/>
+      <c r="BO83" s="60"/>
+      <c r="BP83" s="60"/>
+      <c r="BQ83" s="60"/>
+      <c r="BR83" s="60"/>
+      <c r="BS83" s="60"/>
+      <c r="BT83" s="60"/>
+      <c r="BU83" s="60"/>
+      <c r="BV83" s="60"/>
+      <c r="BW83" s="60"/>
+      <c r="BX83" s="60"/>
+      <c r="BY83" s="60"/>
+      <c r="BZ83" s="60"/>
+      <c r="CA83" s="60"/>
+      <c r="CB83" s="60"/>
+      <c r="CC83" s="60"/>
+      <c r="CD83" s="60"/>
+      <c r="CE83" s="60"/>
+      <c r="CF83" s="60"/>
+      <c r="CG83" s="60"/>
+      <c r="CH83" s="60"/>
+      <c r="CI83" s="60"/>
+      <c r="CJ83" s="60"/>
+      <c r="CK83" s="60"/>
+      <c r="CL83" s="60"/>
+      <c r="CM83" s="60"/>
+      <c r="CN83" s="60"/>
+      <c r="CO83" s="60"/>
+      <c r="CP83" s="60"/>
+      <c r="CQ83" s="60"/>
+      <c r="CR83" s="60"/>
+      <c r="CS83" s="60"/>
+      <c r="CT83" s="60"/>
+      <c r="CU83" s="60"/>
+      <c r="CV83" s="60"/>
+      <c r="CW83" s="60"/>
+      <c r="CX83" s="60"/>
+      <c r="CY83" s="60"/>
+      <c r="CZ83" s="60"/>
+      <c r="DA83" s="60"/>
+      <c r="DB83" s="60"/>
+      <c r="DC83" s="60"/>
+      <c r="DD83" s="60"/>
+      <c r="DE83" s="60"/>
+      <c r="DF83" s="60"/>
+      <c r="DG83" s="60"/>
+      <c r="DH83" s="60"/>
+      <c r="DI83" s="60"/>
+      <c r="DJ83" s="60"/>
+      <c r="DK83" s="60"/>
+      <c r="DL83" s="60"/>
+      <c r="DM83" s="60"/>
+      <c r="DN83" s="60"/>
+      <c r="DO83" s="60"/>
+      <c r="DP83" s="60"/>
+      <c r="DQ83" s="60"/>
+      <c r="DR83" s="60"/>
+      <c r="DS83" s="60"/>
+      <c r="DT83" s="60"/>
+      <c r="DU83" s="60"/>
+      <c r="DV83" s="60"/>
+      <c r="DW83" s="60"/>
+      <c r="DX83" s="60"/>
+      <c r="DY83" s="60"/>
+      <c r="DZ83" s="60"/>
+      <c r="EA83" s="60"/>
+      <c r="EB83" s="60"/>
+      <c r="EC83" s="60"/>
+      <c r="ED83" s="60"/>
+      <c r="EE83" s="60"/>
+      <c r="EF83" s="60"/>
+      <c r="EG83" s="60"/>
+      <c r="EH83" s="60"/>
+      <c r="EI83" s="60"/>
+      <c r="EJ83" s="60"/>
+      <c r="EK83" s="60"/>
+      <c r="EL83" s="60"/>
+      <c r="EM83" s="60"/>
+      <c r="EN83" s="60"/>
+      <c r="EO83" s="60"/>
+      <c r="EP83" s="60"/>
+      <c r="EQ83" s="60"/>
+      <c r="ER83" s="60"/>
+      <c r="ES83" s="60"/>
+      <c r="ET83" s="60"/>
+      <c r="EU83" s="60"/>
+      <c r="EV83" s="60"/>
+      <c r="EW83" s="60"/>
+      <c r="EX83" s="60"/>
+      <c r="EY83" s="60"/>
+      <c r="EZ83" s="60"/>
+      <c r="FA83" s="60"/>
+      <c r="FB83" s="60"/>
+      <c r="FC83" s="60"/>
+      <c r="FD83" s="60"/>
+      <c r="FE83" s="60"/>
+      <c r="FF83" s="60"/>
+      <c r="FG83" s="60"/>
+      <c r="FH83" s="60"/>
+      <c r="FI83" s="60"/>
+      <c r="FJ83" s="60"/>
+      <c r="FK83" s="60"/>
+      <c r="FL83" s="60"/>
+      <c r="FM83" s="60"/>
+      <c r="FN83" s="60"/>
+      <c r="FO83" s="60"/>
+      <c r="FP83" s="60"/>
+      <c r="FQ83" s="60"/>
+      <c r="FR83" s="60"/>
+      <c r="FS83" s="60"/>
+      <c r="FT83" s="60"/>
+      <c r="FU83" s="60"/>
+      <c r="FV83" s="60"/>
+      <c r="FW83" s="60"/>
+      <c r="FX83" s="60"/>
+      <c r="FY83" s="60"/>
+      <c r="FZ83" s="60"/>
+      <c r="GA83" s="60"/>
+      <c r="GB83" s="60"/>
+      <c r="GC83" s="60"/>
+      <c r="GD83" s="60"/>
+      <c r="GE83" s="60"/>
+      <c r="GF83" s="60"/>
+      <c r="GG83" s="60"/>
+      <c r="GH83" s="60"/>
+      <c r="GI83" s="60"/>
+      <c r="GJ83" s="60"/>
+      <c r="GK83" s="60"/>
+      <c r="GL83" s="60"/>
+      <c r="GM83" s="60"/>
+      <c r="GN83" s="60"/>
+      <c r="GO83" s="60"/>
+      <c r="GP83" s="60"/>
+      <c r="GQ83" s="60"/>
+      <c r="GR83" s="60"/>
+      <c r="GS83" s="60"/>
+      <c r="GT83" s="60"/>
+      <c r="GU83" s="60"/>
+      <c r="GV83" s="60"/>
+      <c r="GW83" s="60"/>
+      <c r="GX83" s="60"/>
+      <c r="GY83" s="60"/>
+      <c r="GZ83" s="60"/>
+      <c r="HA83" s="60"/>
+      <c r="HB83" s="60"/>
+      <c r="HC83" s="60"/>
+      <c r="HD83" s="60"/>
+      <c r="HE83" s="60"/>
+      <c r="HF83" s="60"/>
+      <c r="HG83" s="60"/>
+      <c r="HH83" s="60"/>
+      <c r="HI83" s="60"/>
+      <c r="HJ83" s="60"/>
+      <c r="HK83" s="60"/>
+      <c r="HL83" s="60"/>
+      <c r="HM83" s="60"/>
+      <c r="HN83" s="60"/>
+      <c r="HO83" s="60"/>
+      <c r="HP83" s="60"/>
+      <c r="HQ83" s="60"/>
+      <c r="HR83" s="60"/>
+      <c r="HS83" s="60"/>
+      <c r="HT83" s="60"/>
+      <c r="HU83" s="60"/>
+      <c r="HV83" s="60"/>
+      <c r="HW83" s="60"/>
+      <c r="HX83" s="60"/>
+      <c r="HY83" s="60"/>
+      <c r="HZ83" s="60"/>
+      <c r="IA83" s="60"/>
+      <c r="IB83" s="60"/>
+      <c r="IC83" s="60"/>
+      <c r="ID83" s="60"/>
+      <c r="IE83" s="60"/>
+      <c r="IF83" s="60"/>
+      <c r="IG83" s="60"/>
+      <c r="IH83" s="60"/>
+      <c r="II83" s="60"/>
+      <c r="IJ83" s="60"/>
+      <c r="IK83" s="60"/>
+      <c r="IL83" s="60"/>
+      <c r="IM83" s="60"/>
+      <c r="IN83" s="60"/>
+      <c r="IO83" s="60"/>
+      <c r="IP83" s="60"/>
+      <c r="IQ83" s="60"/>
+      <c r="IR83" s="60"/>
+      <c r="IS83" s="60"/>
+      <c r="IT83" s="60"/>
+      <c r="IU83" s="60"/>
+      <c r="IV83" s="60"/>
+      <c r="IW83" s="60"/>
     </row>
-    <row r="84" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A84" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="D84" s="58"/>
-      <c r="E84" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84" s="58" t="s">
+    <row r="84" spans="1:257" s="61" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A84" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F84" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G84" s="58">
+      <c r="G84" s="59">
         <v>0</v>
       </c>
-      <c r="H84" s="58">
+      <c r="H84" s="59">
         <v>1</v>
       </c>
-      <c r="I84" s="58"/>
-      <c r="J84" s="58" t="s">
-        <v>29</v>
-      </c>
+      <c r="I84" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="J84" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="K84" s="60"/>
+      <c r="L84" s="60"/>
+      <c r="M84" s="60"/>
+      <c r="N84" s="60"/>
+      <c r="O84" s="60"/>
+      <c r="P84" s="60"/>
+      <c r="Q84" s="60"/>
+      <c r="R84" s="60"/>
+      <c r="S84" s="60"/>
+      <c r="T84" s="60"/>
+      <c r="U84" s="60"/>
+      <c r="V84" s="60"/>
+      <c r="W84" s="60"/>
+      <c r="X84" s="60"/>
+      <c r="Y84" s="60"/>
+      <c r="Z84" s="60"/>
+      <c r="AA84" s="60"/>
+      <c r="AB84" s="60"/>
+      <c r="AC84" s="60"/>
+      <c r="AD84" s="60"/>
+      <c r="AE84" s="60"/>
+      <c r="AF84" s="60"/>
+      <c r="AG84" s="60"/>
+      <c r="AH84" s="60"/>
+      <c r="AI84" s="60"/>
+      <c r="AJ84" s="60"/>
+      <c r="AK84" s="60"/>
+      <c r="AL84" s="60"/>
+      <c r="AM84" s="60"/>
+      <c r="AN84" s="60"/>
+      <c r="AO84" s="60"/>
+      <c r="AP84" s="60"/>
+      <c r="AQ84" s="60"/>
+      <c r="AR84" s="60"/>
+      <c r="AS84" s="60"/>
+      <c r="AT84" s="60"/>
+      <c r="AU84" s="60"/>
+      <c r="AV84" s="60"/>
+      <c r="AW84" s="60"/>
+      <c r="AX84" s="60"/>
+      <c r="AY84" s="60"/>
+      <c r="AZ84" s="60"/>
+      <c r="BA84" s="60"/>
+      <c r="BB84" s="60"/>
+      <c r="BC84" s="60"/>
+      <c r="BD84" s="60"/>
+      <c r="BE84" s="60"/>
+      <c r="BF84" s="60"/>
+      <c r="BG84" s="60"/>
+      <c r="BH84" s="60"/>
+      <c r="BI84" s="60"/>
+      <c r="BJ84" s="60"/>
+      <c r="BK84" s="60"/>
+      <c r="BL84" s="60"/>
+      <c r="BM84" s="60"/>
+      <c r="BN84" s="60"/>
+      <c r="BO84" s="60"/>
+      <c r="BP84" s="60"/>
+      <c r="BQ84" s="60"/>
+      <c r="BR84" s="60"/>
+      <c r="BS84" s="60"/>
+      <c r="BT84" s="60"/>
+      <c r="BU84" s="60"/>
+      <c r="BV84" s="60"/>
+      <c r="BW84" s="60"/>
+      <c r="BX84" s="60"/>
+      <c r="BY84" s="60"/>
+      <c r="BZ84" s="60"/>
+      <c r="CA84" s="60"/>
+      <c r="CB84" s="60"/>
+      <c r="CC84" s="60"/>
+      <c r="CD84" s="60"/>
+      <c r="CE84" s="60"/>
+      <c r="CF84" s="60"/>
+      <c r="CG84" s="60"/>
+      <c r="CH84" s="60"/>
+      <c r="CI84" s="60"/>
+      <c r="CJ84" s="60"/>
+      <c r="CK84" s="60"/>
+      <c r="CL84" s="60"/>
+      <c r="CM84" s="60"/>
+      <c r="CN84" s="60"/>
+      <c r="CO84" s="60"/>
+      <c r="CP84" s="60"/>
+      <c r="CQ84" s="60"/>
+      <c r="CR84" s="60"/>
+      <c r="CS84" s="60"/>
+      <c r="CT84" s="60"/>
+      <c r="CU84" s="60"/>
+      <c r="CV84" s="60"/>
+      <c r="CW84" s="60"/>
+      <c r="CX84" s="60"/>
+      <c r="CY84" s="60"/>
+      <c r="CZ84" s="60"/>
+      <c r="DA84" s="60"/>
+      <c r="DB84" s="60"/>
+      <c r="DC84" s="60"/>
+      <c r="DD84" s="60"/>
+      <c r="DE84" s="60"/>
+      <c r="DF84" s="60"/>
+      <c r="DG84" s="60"/>
+      <c r="DH84" s="60"/>
+      <c r="DI84" s="60"/>
+      <c r="DJ84" s="60"/>
+      <c r="DK84" s="60"/>
+      <c r="DL84" s="60"/>
+      <c r="DM84" s="60"/>
+      <c r="DN84" s="60"/>
+      <c r="DO84" s="60"/>
+      <c r="DP84" s="60"/>
+      <c r="DQ84" s="60"/>
+      <c r="DR84" s="60"/>
+      <c r="DS84" s="60"/>
+      <c r="DT84" s="60"/>
+      <c r="DU84" s="60"/>
+      <c r="DV84" s="60"/>
+      <c r="DW84" s="60"/>
+      <c r="DX84" s="60"/>
+      <c r="DY84" s="60"/>
+      <c r="DZ84" s="60"/>
+      <c r="EA84" s="60"/>
+      <c r="EB84" s="60"/>
+      <c r="EC84" s="60"/>
+      <c r="ED84" s="60"/>
+      <c r="EE84" s="60"/>
+      <c r="EF84" s="60"/>
+      <c r="EG84" s="60"/>
+      <c r="EH84" s="60"/>
+      <c r="EI84" s="60"/>
+      <c r="EJ84" s="60"/>
+      <c r="EK84" s="60"/>
+      <c r="EL84" s="60"/>
+      <c r="EM84" s="60"/>
+      <c r="EN84" s="60"/>
+      <c r="EO84" s="60"/>
+      <c r="EP84" s="60"/>
+      <c r="EQ84" s="60"/>
+      <c r="ER84" s="60"/>
+      <c r="ES84" s="60"/>
+      <c r="ET84" s="60"/>
+      <c r="EU84" s="60"/>
+      <c r="EV84" s="60"/>
+      <c r="EW84" s="60"/>
+      <c r="EX84" s="60"/>
+      <c r="EY84" s="60"/>
+      <c r="EZ84" s="60"/>
+      <c r="FA84" s="60"/>
+      <c r="FB84" s="60"/>
+      <c r="FC84" s="60"/>
+      <c r="FD84" s="60"/>
+      <c r="FE84" s="60"/>
+      <c r="FF84" s="60"/>
+      <c r="FG84" s="60"/>
+      <c r="FH84" s="60"/>
+      <c r="FI84" s="60"/>
+      <c r="FJ84" s="60"/>
+      <c r="FK84" s="60"/>
+      <c r="FL84" s="60"/>
+      <c r="FM84" s="60"/>
+      <c r="FN84" s="60"/>
+      <c r="FO84" s="60"/>
+      <c r="FP84" s="60"/>
+      <c r="FQ84" s="60"/>
+      <c r="FR84" s="60"/>
+      <c r="FS84" s="60"/>
+      <c r="FT84" s="60"/>
+      <c r="FU84" s="60"/>
+      <c r="FV84" s="60"/>
+      <c r="FW84" s="60"/>
+      <c r="FX84" s="60"/>
+      <c r="FY84" s="60"/>
+      <c r="FZ84" s="60"/>
+      <c r="GA84" s="60"/>
+      <c r="GB84" s="60"/>
+      <c r="GC84" s="60"/>
+      <c r="GD84" s="60"/>
+      <c r="GE84" s="60"/>
+      <c r="GF84" s="60"/>
+      <c r="GG84" s="60"/>
+      <c r="GH84" s="60"/>
+      <c r="GI84" s="60"/>
+      <c r="GJ84" s="60"/>
+      <c r="GK84" s="60"/>
+      <c r="GL84" s="60"/>
+      <c r="GM84" s="60"/>
+      <c r="GN84" s="60"/>
+      <c r="GO84" s="60"/>
+      <c r="GP84" s="60"/>
+      <c r="GQ84" s="60"/>
+      <c r="GR84" s="60"/>
+      <c r="GS84" s="60"/>
+      <c r="GT84" s="60"/>
+      <c r="GU84" s="60"/>
+      <c r="GV84" s="60"/>
+      <c r="GW84" s="60"/>
+      <c r="GX84" s="60"/>
+      <c r="GY84" s="60"/>
+      <c r="GZ84" s="60"/>
+      <c r="HA84" s="60"/>
+      <c r="HB84" s="60"/>
+      <c r="HC84" s="60"/>
+      <c r="HD84" s="60"/>
+      <c r="HE84" s="60"/>
+      <c r="HF84" s="60"/>
+      <c r="HG84" s="60"/>
+      <c r="HH84" s="60"/>
+      <c r="HI84" s="60"/>
+      <c r="HJ84" s="60"/>
+      <c r="HK84" s="60"/>
+      <c r="HL84" s="60"/>
+      <c r="HM84" s="60"/>
+      <c r="HN84" s="60"/>
+      <c r="HO84" s="60"/>
+      <c r="HP84" s="60"/>
+      <c r="HQ84" s="60"/>
+      <c r="HR84" s="60"/>
+      <c r="HS84" s="60"/>
+      <c r="HT84" s="60"/>
+      <c r="HU84" s="60"/>
+      <c r="HV84" s="60"/>
+      <c r="HW84" s="60"/>
+      <c r="HX84" s="60"/>
+      <c r="HY84" s="60"/>
+      <c r="HZ84" s="60"/>
+      <c r="IA84" s="60"/>
+      <c r="IB84" s="60"/>
+      <c r="IC84" s="60"/>
+      <c r="ID84" s="60"/>
+      <c r="IE84" s="60"/>
+      <c r="IF84" s="60"/>
+      <c r="IG84" s="60"/>
+      <c r="IH84" s="60"/>
+      <c r="II84" s="60"/>
+      <c r="IJ84" s="60"/>
+      <c r="IK84" s="60"/>
+      <c r="IL84" s="60"/>
+      <c r="IM84" s="60"/>
+      <c r="IN84" s="60"/>
+      <c r="IO84" s="60"/>
+      <c r="IP84" s="60"/>
+      <c r="IQ84" s="60"/>
+      <c r="IR84" s="60"/>
+      <c r="IS84" s="60"/>
+      <c r="IT84" s="60"/>
+      <c r="IU84" s="60"/>
+      <c r="IV84" s="60"/>
+      <c r="IW84" s="60"/>
     </row>
     <row r="85" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="58" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B85" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="58" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D85" s="58"/>
       <c r="E85" s="58" t="s">
@@ -16321,13 +17083,13 @@
     </row>
     <row r="86" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="58" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B86" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="58" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D86" s="58"/>
       <c r="E86" s="58" t="s">
@@ -16349,13 +17111,13 @@
     </row>
     <row r="87" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="58" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B87" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="58" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D87" s="58"/>
       <c r="E87" s="58" t="s">
@@ -16377,13 +17139,13 @@
     </row>
     <row r="88" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="58" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B88" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="58" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D88" s="58"/>
       <c r="E88" s="58" t="s">
@@ -16405,13 +17167,13 @@
     </row>
     <row r="89" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="58" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B89" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="58" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D89" s="58"/>
       <c r="E89" s="58" t="s">
@@ -16433,13 +17195,13 @@
     </row>
     <row r="90" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="58" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B90" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D90" s="58"/>
       <c r="E90" s="58" t="s">
@@ -16461,13 +17223,13 @@
     </row>
     <row r="91" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="58" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B91" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D91" s="58"/>
       <c r="E91" s="58" t="s">
@@ -16489,13 +17251,13 @@
     </row>
     <row r="92" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="58" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B92" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D92" s="58"/>
       <c r="E92" s="58" t="s">
@@ -16517,13 +17279,13 @@
     </row>
     <row r="93" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="58" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B93" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D93" s="58"/>
       <c r="E93" s="58" t="s">
@@ -16545,13 +17307,13 @@
     </row>
     <row r="94" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="58" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B94" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D94" s="58"/>
       <c r="E94" s="58" t="s">
@@ -16568,18 +17330,18 @@
       </c>
       <c r="I94" s="58"/>
       <c r="J94" s="58" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:257" ht="18" customHeight="1">
+    <row r="95" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="58" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B95" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D95" s="58"/>
       <c r="E95" s="58" t="s">
@@ -16596,18 +17358,18 @@
       </c>
       <c r="I95" s="58"/>
       <c r="J95" s="58" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="58" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B96" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D96" s="58"/>
       <c r="E96" s="58" t="s">
@@ -16624,18 +17386,18 @@
       </c>
       <c r="I96" s="58"/>
       <c r="J96" s="58" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="58" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B97" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D97" s="58"/>
       <c r="E97" s="58" t="s">
@@ -16655,15 +17417,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:257" ht="17.100000000000001" customHeight="1">
+    <row r="98" spans="1:257" ht="18" customHeight="1">
       <c r="A98" s="58" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B98" s="58" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="58" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D98" s="58"/>
       <c r="E98" s="58" t="s">
@@ -16684,20 +17446,20 @@
       </c>
     </row>
     <row r="99" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A99" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="B99" s="95" t="s">
+      <c r="A99" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C99" s="95" t="s">
-        <v>211</v>
+      <c r="C99" s="58" t="s">
+        <v>203</v>
       </c>
       <c r="D99" s="58"/>
-      <c r="E99" s="95" t="s">
+      <c r="E99" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F99" s="95" t="s">
+      <c r="F99" s="58" t="s">
         <v>13</v>
       </c>
       <c r="G99" s="58">
@@ -16706,28 +17468,26 @@
       <c r="H99" s="58">
         <v>1</v>
       </c>
-      <c r="I99" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="J99" s="95" t="s">
-        <v>15</v>
+      <c r="I99" s="58"/>
+      <c r="J99" s="58" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A100" s="95" t="s">
-        <v>203</v>
-      </c>
-      <c r="B100" s="95" t="s">
+      <c r="A100" s="58" t="s">
+        <v>204</v>
+      </c>
+      <c r="B100" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="95" t="s">
-        <v>212</v>
+      <c r="C100" s="58" t="s">
+        <v>205</v>
       </c>
       <c r="D100" s="58"/>
-      <c r="E100" s="95" t="s">
+      <c r="E100" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F100" s="95" t="s">
+      <c r="F100" s="58" t="s">
         <v>13</v>
       </c>
       <c r="G100" s="58">
@@ -16736,28 +17496,26 @@
       <c r="H100" s="58">
         <v>1</v>
       </c>
-      <c r="I100" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="J100" s="95" t="s">
-        <v>140</v>
+      <c r="I100" s="58"/>
+      <c r="J100" s="58" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A101" s="95" t="s">
-        <v>213</v>
-      </c>
-      <c r="B101" s="95" t="s">
+      <c r="A101" s="58" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="95" t="s">
-        <v>214</v>
+      <c r="C101" s="58" t="s">
+        <v>207</v>
       </c>
       <c r="D101" s="58"/>
-      <c r="E101" s="95" t="s">
+      <c r="E101" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F101" s="95" t="s">
+      <c r="F101" s="58" t="s">
         <v>13</v>
       </c>
       <c r="G101" s="58">
@@ -16766,22 +17524,20 @@
       <c r="H101" s="58">
         <v>1</v>
       </c>
-      <c r="I101" s="95" t="s">
-        <v>174</v>
-      </c>
-      <c r="J101" s="95" t="s">
-        <v>15</v>
+      <c r="I101" s="58"/>
+      <c r="J101" s="58" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="95" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B102" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="95" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D102" s="58"/>
       <c r="E102" s="95" t="s">
@@ -16797,21 +17553,21 @@
         <v>1</v>
       </c>
       <c r="I102" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J102" s="95" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="B103" s="58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="95" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D103" s="58"/>
       <c r="E103" s="95" t="s">
@@ -16827,21 +17583,21 @@
         <v>1</v>
       </c>
       <c r="I103" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J103" s="95" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="95" t="s">
-        <v>220</v>
-      </c>
-      <c r="B104" s="58" t="s">
+        <v>212</v>
+      </c>
+      <c r="B104" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="95" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="95" t="s">
@@ -16857,21 +17613,21 @@
         <v>1</v>
       </c>
       <c r="I104" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J104" s="95" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="95" t="s">
-        <v>221</v>
-      </c>
-      <c r="B105" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="B105" s="95" t="s">
         <v>11</v>
       </c>
       <c r="C105" s="95" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D105" s="58"/>
       <c r="E105" s="95" t="s">
@@ -16887,665 +17643,665 @@
         <v>1</v>
       </c>
       <c r="I105" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J105" s="95" t="s">
-        <v>3</v>
+        <v>140</v>
       </c>
     </row>
     <row r="106" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A106" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" s="85" t="s">
-        <v>78</v>
+      <c r="A106" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B106" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="95" t="s">
+        <v>216</v>
       </c>
       <c r="D106" s="58"/>
-      <c r="E106" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="F106" s="76" t="s">
+      <c r="E106" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G106" s="25">
+      <c r="G106" s="58">
         <v>0</v>
       </c>
-      <c r="H106" s="25">
+      <c r="H106" s="58">
         <v>1</v>
       </c>
-      <c r="I106" s="10"/>
-      <c r="J106" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K106"/>
-      <c r="L106"/>
-      <c r="M106"/>
-      <c r="N106"/>
-      <c r="O106"/>
-      <c r="P106"/>
-      <c r="Q106"/>
-      <c r="R106"/>
-      <c r="S106"/>
-      <c r="T106"/>
-      <c r="U106"/>
-      <c r="V106"/>
-      <c r="W106"/>
-      <c r="X106"/>
-      <c r="Y106"/>
-      <c r="Z106"/>
-      <c r="AA106"/>
-      <c r="AB106"/>
-      <c r="AC106"/>
-      <c r="AD106"/>
-      <c r="AE106"/>
-      <c r="AF106"/>
-      <c r="AG106"/>
-      <c r="AH106"/>
-      <c r="AI106"/>
-      <c r="AJ106"/>
-      <c r="AK106"/>
-      <c r="AL106"/>
-      <c r="AM106"/>
-      <c r="AN106"/>
-      <c r="AO106"/>
-      <c r="AP106"/>
-      <c r="AQ106"/>
-      <c r="AR106"/>
-      <c r="AS106"/>
-      <c r="AT106"/>
-      <c r="AU106"/>
-      <c r="AV106"/>
-      <c r="AW106"/>
-      <c r="AX106"/>
-      <c r="AY106"/>
-      <c r="AZ106"/>
-      <c r="BA106"/>
-      <c r="BB106"/>
-      <c r="BC106"/>
-      <c r="BD106"/>
-      <c r="BE106"/>
-      <c r="BF106"/>
-      <c r="BG106"/>
-      <c r="BH106"/>
-      <c r="BI106"/>
-      <c r="BJ106"/>
-      <c r="BK106"/>
-      <c r="BL106"/>
-      <c r="BM106"/>
-      <c r="BN106"/>
-      <c r="BO106"/>
-      <c r="BP106"/>
-      <c r="BQ106"/>
-      <c r="BR106"/>
-      <c r="BS106"/>
-      <c r="BT106"/>
-      <c r="BU106"/>
-      <c r="BV106"/>
-      <c r="BW106"/>
-      <c r="BX106"/>
-      <c r="BY106"/>
-      <c r="BZ106"/>
-      <c r="CA106"/>
-      <c r="CB106"/>
-      <c r="CC106"/>
-      <c r="CD106"/>
-      <c r="CE106"/>
-      <c r="CF106"/>
-      <c r="CG106"/>
-      <c r="CH106"/>
-      <c r="CI106"/>
-      <c r="CJ106"/>
-      <c r="CK106"/>
-      <c r="CL106"/>
-      <c r="CM106"/>
-      <c r="CN106"/>
-      <c r="CO106"/>
-      <c r="CP106"/>
-      <c r="CQ106"/>
-      <c r="CR106"/>
-      <c r="CS106"/>
-      <c r="CT106"/>
-      <c r="CU106"/>
-      <c r="CV106"/>
-      <c r="CW106"/>
-      <c r="CX106"/>
-      <c r="CY106"/>
-      <c r="CZ106"/>
-      <c r="DA106"/>
-      <c r="DB106"/>
-      <c r="DC106"/>
-      <c r="DD106"/>
-      <c r="DE106"/>
-      <c r="DF106"/>
-      <c r="DG106"/>
-      <c r="DH106"/>
-      <c r="DI106"/>
-      <c r="DJ106"/>
-      <c r="DK106"/>
-      <c r="DL106"/>
-      <c r="DM106"/>
-      <c r="DN106"/>
-      <c r="DO106"/>
-      <c r="DP106"/>
-      <c r="DQ106"/>
-      <c r="DR106"/>
-      <c r="DS106"/>
-      <c r="DT106"/>
-      <c r="DU106"/>
-      <c r="DV106"/>
-      <c r="DW106"/>
-      <c r="DX106"/>
-      <c r="DY106"/>
-      <c r="DZ106"/>
-      <c r="EA106"/>
-      <c r="EB106"/>
-      <c r="EC106"/>
-      <c r="ED106"/>
-      <c r="EE106"/>
-      <c r="EF106"/>
-      <c r="EG106"/>
-      <c r="EH106"/>
-      <c r="EI106"/>
-      <c r="EJ106"/>
-      <c r="EK106"/>
-      <c r="EL106"/>
-      <c r="EM106"/>
-      <c r="EN106"/>
-      <c r="EO106"/>
-      <c r="EP106"/>
-      <c r="EQ106"/>
-      <c r="ER106"/>
-      <c r="ES106"/>
-      <c r="ET106"/>
-      <c r="EU106"/>
-      <c r="EV106"/>
-      <c r="EW106"/>
-      <c r="EX106"/>
-      <c r="EY106"/>
-      <c r="EZ106"/>
-      <c r="FA106"/>
-      <c r="FB106"/>
-      <c r="FC106"/>
-      <c r="FD106"/>
-      <c r="FE106"/>
-      <c r="FF106"/>
-      <c r="FG106"/>
-      <c r="FH106"/>
-      <c r="FI106"/>
-      <c r="FJ106"/>
-      <c r="FK106"/>
-      <c r="FL106"/>
-      <c r="FM106"/>
-      <c r="FN106"/>
-      <c r="FO106"/>
-      <c r="FP106"/>
-      <c r="FQ106"/>
-      <c r="FR106"/>
-      <c r="FS106"/>
-      <c r="FT106"/>
-      <c r="FU106"/>
-      <c r="FV106"/>
-      <c r="FW106"/>
-      <c r="FX106"/>
-      <c r="FY106"/>
-      <c r="FZ106"/>
-      <c r="GA106"/>
-      <c r="GB106"/>
-      <c r="GC106"/>
-      <c r="GD106"/>
-      <c r="GE106"/>
-      <c r="GF106"/>
-      <c r="GG106"/>
-      <c r="GH106"/>
-      <c r="GI106"/>
-      <c r="GJ106"/>
-      <c r="GK106"/>
-      <c r="GL106"/>
-      <c r="GM106"/>
-      <c r="GN106"/>
-      <c r="GO106"/>
-      <c r="GP106"/>
-      <c r="GQ106"/>
-      <c r="GR106"/>
-      <c r="GS106"/>
-      <c r="GT106"/>
-      <c r="GU106"/>
-      <c r="GV106"/>
-      <c r="GW106"/>
-      <c r="GX106"/>
-      <c r="GY106"/>
-      <c r="GZ106"/>
-      <c r="HA106"/>
-      <c r="HB106"/>
-      <c r="HC106"/>
-      <c r="HD106"/>
-      <c r="HE106"/>
-      <c r="HF106"/>
-      <c r="HG106"/>
-      <c r="HH106"/>
-      <c r="HI106"/>
-      <c r="HJ106"/>
-      <c r="HK106"/>
-      <c r="HL106"/>
-      <c r="HM106"/>
-      <c r="HN106"/>
-      <c r="HO106"/>
-      <c r="HP106"/>
-      <c r="HQ106"/>
-      <c r="HR106"/>
-      <c r="HS106"/>
-      <c r="HT106"/>
-      <c r="HU106"/>
-      <c r="HV106"/>
-      <c r="HW106"/>
-      <c r="HX106"/>
-      <c r="HY106"/>
-      <c r="HZ106"/>
-      <c r="IA106"/>
-      <c r="IB106"/>
-      <c r="IC106"/>
-      <c r="ID106"/>
-      <c r="IE106"/>
-      <c r="IF106"/>
-      <c r="IG106"/>
-      <c r="IH106"/>
-      <c r="II106"/>
-      <c r="IJ106"/>
-      <c r="IK106"/>
-      <c r="IL106"/>
-      <c r="IM106"/>
-      <c r="IN106"/>
-      <c r="IO106"/>
-      <c r="IP106"/>
-      <c r="IQ106"/>
-      <c r="IR106"/>
-      <c r="IS106"/>
-      <c r="IT106"/>
-      <c r="IU106"/>
-      <c r="IV106"/>
-      <c r="IW106"/>
+      <c r="I106" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="J106" s="95" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A107" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="85" t="s">
-        <v>78</v>
+      <c r="A107" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="B107" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="95" t="s">
+        <v>217</v>
       </c>
       <c r="D107" s="58"/>
-      <c r="E107" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="F107" s="76" t="s">
+      <c r="E107" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G107" s="25">
+      <c r="G107" s="58">
         <v>0</v>
       </c>
-      <c r="H107" s="25">
+      <c r="H107" s="58">
         <v>1</v>
       </c>
-      <c r="I107" s="10"/>
-      <c r="J107" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K107"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107"/>
-      <c r="P107"/>
-      <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107"/>
-      <c r="V107"/>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="Z107"/>
-      <c r="AA107"/>
-      <c r="AB107"/>
-      <c r="AC107"/>
-      <c r="AD107"/>
-      <c r="AE107"/>
-      <c r="AF107"/>
-      <c r="AG107"/>
-      <c r="AH107"/>
-      <c r="AI107"/>
-      <c r="AJ107"/>
-      <c r="AK107"/>
-      <c r="AL107"/>
-      <c r="AM107"/>
-      <c r="AN107"/>
-      <c r="AO107"/>
-      <c r="AP107"/>
-      <c r="AQ107"/>
-      <c r="AR107"/>
-      <c r="AS107"/>
-      <c r="AT107"/>
-      <c r="AU107"/>
-      <c r="AV107"/>
-      <c r="AW107"/>
-      <c r="AX107"/>
-      <c r="AY107"/>
-      <c r="AZ107"/>
-      <c r="BA107"/>
-      <c r="BB107"/>
-      <c r="BC107"/>
-      <c r="BD107"/>
-      <c r="BE107"/>
-      <c r="BF107"/>
-      <c r="BG107"/>
-      <c r="BH107"/>
-      <c r="BI107"/>
-      <c r="BJ107"/>
-      <c r="BK107"/>
-      <c r="BL107"/>
-      <c r="BM107"/>
-      <c r="BN107"/>
-      <c r="BO107"/>
-      <c r="BP107"/>
-      <c r="BQ107"/>
-      <c r="BR107"/>
-      <c r="BS107"/>
-      <c r="BT107"/>
-      <c r="BU107"/>
-      <c r="BV107"/>
-      <c r="BW107"/>
-      <c r="BX107"/>
-      <c r="BY107"/>
-      <c r="BZ107"/>
-      <c r="CA107"/>
-      <c r="CB107"/>
-      <c r="CC107"/>
-      <c r="CD107"/>
-      <c r="CE107"/>
-      <c r="CF107"/>
-      <c r="CG107"/>
-      <c r="CH107"/>
-      <c r="CI107"/>
-      <c r="CJ107"/>
-      <c r="CK107"/>
-      <c r="CL107"/>
-      <c r="CM107"/>
-      <c r="CN107"/>
-      <c r="CO107"/>
-      <c r="CP107"/>
-      <c r="CQ107"/>
-      <c r="CR107"/>
-      <c r="CS107"/>
-      <c r="CT107"/>
-      <c r="CU107"/>
-      <c r="CV107"/>
-      <c r="CW107"/>
-      <c r="CX107"/>
-      <c r="CY107"/>
-      <c r="CZ107"/>
-      <c r="DA107"/>
-      <c r="DB107"/>
-      <c r="DC107"/>
-      <c r="DD107"/>
-      <c r="DE107"/>
-      <c r="DF107"/>
-      <c r="DG107"/>
-      <c r="DH107"/>
-      <c r="DI107"/>
-      <c r="DJ107"/>
-      <c r="DK107"/>
-      <c r="DL107"/>
-      <c r="DM107"/>
-      <c r="DN107"/>
-      <c r="DO107"/>
-      <c r="DP107"/>
-      <c r="DQ107"/>
-      <c r="DR107"/>
-      <c r="DS107"/>
-      <c r="DT107"/>
-      <c r="DU107"/>
-      <c r="DV107"/>
-      <c r="DW107"/>
-      <c r="DX107"/>
-      <c r="DY107"/>
-      <c r="DZ107"/>
-      <c r="EA107"/>
-      <c r="EB107"/>
-      <c r="EC107"/>
-      <c r="ED107"/>
-      <c r="EE107"/>
-      <c r="EF107"/>
-      <c r="EG107"/>
-      <c r="EH107"/>
-      <c r="EI107"/>
-      <c r="EJ107"/>
-      <c r="EK107"/>
-      <c r="EL107"/>
-      <c r="EM107"/>
-      <c r="EN107"/>
-      <c r="EO107"/>
-      <c r="EP107"/>
-      <c r="EQ107"/>
-      <c r="ER107"/>
-      <c r="ES107"/>
-      <c r="ET107"/>
-      <c r="EU107"/>
-      <c r="EV107"/>
-      <c r="EW107"/>
-      <c r="EX107"/>
-      <c r="EY107"/>
-      <c r="EZ107"/>
-      <c r="FA107"/>
-      <c r="FB107"/>
-      <c r="FC107"/>
-      <c r="FD107"/>
-      <c r="FE107"/>
-      <c r="FF107"/>
-      <c r="FG107"/>
-      <c r="FH107"/>
-      <c r="FI107"/>
-      <c r="FJ107"/>
-      <c r="FK107"/>
-      <c r="FL107"/>
-      <c r="FM107"/>
-      <c r="FN107"/>
-      <c r="FO107"/>
-      <c r="FP107"/>
-      <c r="FQ107"/>
-      <c r="FR107"/>
-      <c r="FS107"/>
-      <c r="FT107"/>
-      <c r="FU107"/>
-      <c r="FV107"/>
-      <c r="FW107"/>
-      <c r="FX107"/>
-      <c r="FY107"/>
-      <c r="FZ107"/>
-      <c r="GA107"/>
-      <c r="GB107"/>
-      <c r="GC107"/>
-      <c r="GD107"/>
-      <c r="GE107"/>
-      <c r="GF107"/>
-      <c r="GG107"/>
-      <c r="GH107"/>
-      <c r="GI107"/>
-      <c r="GJ107"/>
-      <c r="GK107"/>
-      <c r="GL107"/>
-      <c r="GM107"/>
-      <c r="GN107"/>
-      <c r="GO107"/>
-      <c r="GP107"/>
-      <c r="GQ107"/>
-      <c r="GR107"/>
-      <c r="GS107"/>
-      <c r="GT107"/>
-      <c r="GU107"/>
-      <c r="GV107"/>
-      <c r="GW107"/>
-      <c r="GX107"/>
-      <c r="GY107"/>
-      <c r="GZ107"/>
-      <c r="HA107"/>
-      <c r="HB107"/>
-      <c r="HC107"/>
-      <c r="HD107"/>
-      <c r="HE107"/>
-      <c r="HF107"/>
-      <c r="HG107"/>
-      <c r="HH107"/>
-      <c r="HI107"/>
-      <c r="HJ107"/>
-      <c r="HK107"/>
-      <c r="HL107"/>
-      <c r="HM107"/>
-      <c r="HN107"/>
-      <c r="HO107"/>
-      <c r="HP107"/>
-      <c r="HQ107"/>
-      <c r="HR107"/>
-      <c r="HS107"/>
-      <c r="HT107"/>
-      <c r="HU107"/>
-      <c r="HV107"/>
-      <c r="HW107"/>
-      <c r="HX107"/>
-      <c r="HY107"/>
-      <c r="HZ107"/>
-      <c r="IA107"/>
-      <c r="IB107"/>
-      <c r="IC107"/>
-      <c r="ID107"/>
-      <c r="IE107"/>
-      <c r="IF107"/>
-      <c r="IG107"/>
-      <c r="IH107"/>
-      <c r="II107"/>
-      <c r="IJ107"/>
-      <c r="IK107"/>
-      <c r="IL107"/>
-      <c r="IM107"/>
-      <c r="IN107"/>
-      <c r="IO107"/>
-      <c r="IP107"/>
-      <c r="IQ107"/>
-      <c r="IR107"/>
-      <c r="IS107"/>
-      <c r="IT107"/>
-      <c r="IU107"/>
-      <c r="IV107"/>
-      <c r="IW107"/>
+      <c r="I107" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="J107" s="95" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="108" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A108" s="1" t="s">
-        <v>225</v>
+      <c r="A108" s="95" t="s">
+        <v>220</v>
       </c>
       <c r="B108" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C108" s="58" t="s">
-        <v>233</v>
+        <v>11</v>
+      </c>
+      <c r="C108" s="95" t="s">
+        <v>221</v>
       </c>
       <c r="D108" s="58"/>
-      <c r="E108" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="F108" s="96" t="s">
+      <c r="E108" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="G108" s="25">
+      <c r="G108" s="58">
         <v>0</v>
       </c>
-      <c r="H108" s="97">
+      <c r="H108" s="58">
         <v>1</v>
       </c>
-      <c r="I108" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="J108" s="96" t="s">
-        <v>29</v>
+      <c r="I108" s="95" t="s">
+        <v>173</v>
+      </c>
+      <c r="J108" s="95" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A109" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B109" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C109" s="58" t="s">
-        <v>235</v>
+      <c r="A109" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="85" t="s">
+        <v>78</v>
       </c>
       <c r="D109" s="58"/>
-      <c r="E109" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="F109" s="96" t="s">
+      <c r="E109" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="F109" s="76" t="s">
         <v>13</v>
       </c>
       <c r="G109" s="25">
         <v>0</v>
       </c>
-      <c r="H109" s="58">
+      <c r="H109" s="25">
         <v>1</v>
       </c>
-      <c r="I109" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="J109" s="96" t="s">
-        <v>29</v>
-      </c>
+      <c r="I109" s="10"/>
+      <c r="J109" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109"/>
+      <c r="AA109"/>
+      <c r="AB109"/>
+      <c r="AC109"/>
+      <c r="AD109"/>
+      <c r="AE109"/>
+      <c r="AF109"/>
+      <c r="AG109"/>
+      <c r="AH109"/>
+      <c r="AI109"/>
+      <c r="AJ109"/>
+      <c r="AK109"/>
+      <c r="AL109"/>
+      <c r="AM109"/>
+      <c r="AN109"/>
+      <c r="AO109"/>
+      <c r="AP109"/>
+      <c r="AQ109"/>
+      <c r="AR109"/>
+      <c r="AS109"/>
+      <c r="AT109"/>
+      <c r="AU109"/>
+      <c r="AV109"/>
+      <c r="AW109"/>
+      <c r="AX109"/>
+      <c r="AY109"/>
+      <c r="AZ109"/>
+      <c r="BA109"/>
+      <c r="BB109"/>
+      <c r="BC109"/>
+      <c r="BD109"/>
+      <c r="BE109"/>
+      <c r="BF109"/>
+      <c r="BG109"/>
+      <c r="BH109"/>
+      <c r="BI109"/>
+      <c r="BJ109"/>
+      <c r="BK109"/>
+      <c r="BL109"/>
+      <c r="BM109"/>
+      <c r="BN109"/>
+      <c r="BO109"/>
+      <c r="BP109"/>
+      <c r="BQ109"/>
+      <c r="BR109"/>
+      <c r="BS109"/>
+      <c r="BT109"/>
+      <c r="BU109"/>
+      <c r="BV109"/>
+      <c r="BW109"/>
+      <c r="BX109"/>
+      <c r="BY109"/>
+      <c r="BZ109"/>
+      <c r="CA109"/>
+      <c r="CB109"/>
+      <c r="CC109"/>
+      <c r="CD109"/>
+      <c r="CE109"/>
+      <c r="CF109"/>
+      <c r="CG109"/>
+      <c r="CH109"/>
+      <c r="CI109"/>
+      <c r="CJ109"/>
+      <c r="CK109"/>
+      <c r="CL109"/>
+      <c r="CM109"/>
+      <c r="CN109"/>
+      <c r="CO109"/>
+      <c r="CP109"/>
+      <c r="CQ109"/>
+      <c r="CR109"/>
+      <c r="CS109"/>
+      <c r="CT109"/>
+      <c r="CU109"/>
+      <c r="CV109"/>
+      <c r="CW109"/>
+      <c r="CX109"/>
+      <c r="CY109"/>
+      <c r="CZ109"/>
+      <c r="DA109"/>
+      <c r="DB109"/>
+      <c r="DC109"/>
+      <c r="DD109"/>
+      <c r="DE109"/>
+      <c r="DF109"/>
+      <c r="DG109"/>
+      <c r="DH109"/>
+      <c r="DI109"/>
+      <c r="DJ109"/>
+      <c r="DK109"/>
+      <c r="DL109"/>
+      <c r="DM109"/>
+      <c r="DN109"/>
+      <c r="DO109"/>
+      <c r="DP109"/>
+      <c r="DQ109"/>
+      <c r="DR109"/>
+      <c r="DS109"/>
+      <c r="DT109"/>
+      <c r="DU109"/>
+      <c r="DV109"/>
+      <c r="DW109"/>
+      <c r="DX109"/>
+      <c r="DY109"/>
+      <c r="DZ109"/>
+      <c r="EA109"/>
+      <c r="EB109"/>
+      <c r="EC109"/>
+      <c r="ED109"/>
+      <c r="EE109"/>
+      <c r="EF109"/>
+      <c r="EG109"/>
+      <c r="EH109"/>
+      <c r="EI109"/>
+      <c r="EJ109"/>
+      <c r="EK109"/>
+      <c r="EL109"/>
+      <c r="EM109"/>
+      <c r="EN109"/>
+      <c r="EO109"/>
+      <c r="EP109"/>
+      <c r="EQ109"/>
+      <c r="ER109"/>
+      <c r="ES109"/>
+      <c r="ET109"/>
+      <c r="EU109"/>
+      <c r="EV109"/>
+      <c r="EW109"/>
+      <c r="EX109"/>
+      <c r="EY109"/>
+      <c r="EZ109"/>
+      <c r="FA109"/>
+      <c r="FB109"/>
+      <c r="FC109"/>
+      <c r="FD109"/>
+      <c r="FE109"/>
+      <c r="FF109"/>
+      <c r="FG109"/>
+      <c r="FH109"/>
+      <c r="FI109"/>
+      <c r="FJ109"/>
+      <c r="FK109"/>
+      <c r="FL109"/>
+      <c r="FM109"/>
+      <c r="FN109"/>
+      <c r="FO109"/>
+      <c r="FP109"/>
+      <c r="FQ109"/>
+      <c r="FR109"/>
+      <c r="FS109"/>
+      <c r="FT109"/>
+      <c r="FU109"/>
+      <c r="FV109"/>
+      <c r="FW109"/>
+      <c r="FX109"/>
+      <c r="FY109"/>
+      <c r="FZ109"/>
+      <c r="GA109"/>
+      <c r="GB109"/>
+      <c r="GC109"/>
+      <c r="GD109"/>
+      <c r="GE109"/>
+      <c r="GF109"/>
+      <c r="GG109"/>
+      <c r="GH109"/>
+      <c r="GI109"/>
+      <c r="GJ109"/>
+      <c r="GK109"/>
+      <c r="GL109"/>
+      <c r="GM109"/>
+      <c r="GN109"/>
+      <c r="GO109"/>
+      <c r="GP109"/>
+      <c r="GQ109"/>
+      <c r="GR109"/>
+      <c r="GS109"/>
+      <c r="GT109"/>
+      <c r="GU109"/>
+      <c r="GV109"/>
+      <c r="GW109"/>
+      <c r="GX109"/>
+      <c r="GY109"/>
+      <c r="GZ109"/>
+      <c r="HA109"/>
+      <c r="HB109"/>
+      <c r="HC109"/>
+      <c r="HD109"/>
+      <c r="HE109"/>
+      <c r="HF109"/>
+      <c r="HG109"/>
+      <c r="HH109"/>
+      <c r="HI109"/>
+      <c r="HJ109"/>
+      <c r="HK109"/>
+      <c r="HL109"/>
+      <c r="HM109"/>
+      <c r="HN109"/>
+      <c r="HO109"/>
+      <c r="HP109"/>
+      <c r="HQ109"/>
+      <c r="HR109"/>
+      <c r="HS109"/>
+      <c r="HT109"/>
+      <c r="HU109"/>
+      <c r="HV109"/>
+      <c r="HW109"/>
+      <c r="HX109"/>
+      <c r="HY109"/>
+      <c r="HZ109"/>
+      <c r="IA109"/>
+      <c r="IB109"/>
+      <c r="IC109"/>
+      <c r="ID109"/>
+      <c r="IE109"/>
+      <c r="IF109"/>
+      <c r="IG109"/>
+      <c r="IH109"/>
+      <c r="II109"/>
+      <c r="IJ109"/>
+      <c r="IK109"/>
+      <c r="IL109"/>
+      <c r="IM109"/>
+      <c r="IN109"/>
+      <c r="IO109"/>
+      <c r="IP109"/>
+      <c r="IQ109"/>
+      <c r="IR109"/>
+      <c r="IS109"/>
+      <c r="IT109"/>
+      <c r="IU109"/>
+      <c r="IV109"/>
+      <c r="IW109"/>
     </row>
     <row r="110" spans="1:257" ht="17.100000000000001" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B110" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C110" s="58" t="s">
-        <v>236</v>
+      <c r="A110" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="85" t="s">
+        <v>78</v>
       </c>
       <c r="D110" s="58"/>
-      <c r="E110" s="96" t="s">
-        <v>232</v>
-      </c>
-      <c r="F110" s="96" t="s">
+      <c r="E110" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" s="76" t="s">
         <v>13</v>
       </c>
       <c r="G110" s="25">
         <v>0</v>
       </c>
-      <c r="H110" s="58">
+      <c r="H110" s="25">
         <v>1</v>
       </c>
-      <c r="I110" s="96" t="s">
-        <v>174</v>
-      </c>
-      <c r="J110" s="96" t="s">
-        <v>29</v>
-      </c>
+      <c r="I110" s="10"/>
+      <c r="J110" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110"/>
+      <c r="AA110"/>
+      <c r="AB110"/>
+      <c r="AC110"/>
+      <c r="AD110"/>
+      <c r="AE110"/>
+      <c r="AF110"/>
+      <c r="AG110"/>
+      <c r="AH110"/>
+      <c r="AI110"/>
+      <c r="AJ110"/>
+      <c r="AK110"/>
+      <c r="AL110"/>
+      <c r="AM110"/>
+      <c r="AN110"/>
+      <c r="AO110"/>
+      <c r="AP110"/>
+      <c r="AQ110"/>
+      <c r="AR110"/>
+      <c r="AS110"/>
+      <c r="AT110"/>
+      <c r="AU110"/>
+      <c r="AV110"/>
+      <c r="AW110"/>
+      <c r="AX110"/>
+      <c r="AY110"/>
+      <c r="AZ110"/>
+      <c r="BA110"/>
+      <c r="BB110"/>
+      <c r="BC110"/>
+      <c r="BD110"/>
+      <c r="BE110"/>
+      <c r="BF110"/>
+      <c r="BG110"/>
+      <c r="BH110"/>
+      <c r="BI110"/>
+      <c r="BJ110"/>
+      <c r="BK110"/>
+      <c r="BL110"/>
+      <c r="BM110"/>
+      <c r="BN110"/>
+      <c r="BO110"/>
+      <c r="BP110"/>
+      <c r="BQ110"/>
+      <c r="BR110"/>
+      <c r="BS110"/>
+      <c r="BT110"/>
+      <c r="BU110"/>
+      <c r="BV110"/>
+      <c r="BW110"/>
+      <c r="BX110"/>
+      <c r="BY110"/>
+      <c r="BZ110"/>
+      <c r="CA110"/>
+      <c r="CB110"/>
+      <c r="CC110"/>
+      <c r="CD110"/>
+      <c r="CE110"/>
+      <c r="CF110"/>
+      <c r="CG110"/>
+      <c r="CH110"/>
+      <c r="CI110"/>
+      <c r="CJ110"/>
+      <c r="CK110"/>
+      <c r="CL110"/>
+      <c r="CM110"/>
+      <c r="CN110"/>
+      <c r="CO110"/>
+      <c r="CP110"/>
+      <c r="CQ110"/>
+      <c r="CR110"/>
+      <c r="CS110"/>
+      <c r="CT110"/>
+      <c r="CU110"/>
+      <c r="CV110"/>
+      <c r="CW110"/>
+      <c r="CX110"/>
+      <c r="CY110"/>
+      <c r="CZ110"/>
+      <c r="DA110"/>
+      <c r="DB110"/>
+      <c r="DC110"/>
+      <c r="DD110"/>
+      <c r="DE110"/>
+      <c r="DF110"/>
+      <c r="DG110"/>
+      <c r="DH110"/>
+      <c r="DI110"/>
+      <c r="DJ110"/>
+      <c r="DK110"/>
+      <c r="DL110"/>
+      <c r="DM110"/>
+      <c r="DN110"/>
+      <c r="DO110"/>
+      <c r="DP110"/>
+      <c r="DQ110"/>
+      <c r="DR110"/>
+      <c r="DS110"/>
+      <c r="DT110"/>
+      <c r="DU110"/>
+      <c r="DV110"/>
+      <c r="DW110"/>
+      <c r="DX110"/>
+      <c r="DY110"/>
+      <c r="DZ110"/>
+      <c r="EA110"/>
+      <c r="EB110"/>
+      <c r="EC110"/>
+      <c r="ED110"/>
+      <c r="EE110"/>
+      <c r="EF110"/>
+      <c r="EG110"/>
+      <c r="EH110"/>
+      <c r="EI110"/>
+      <c r="EJ110"/>
+      <c r="EK110"/>
+      <c r="EL110"/>
+      <c r="EM110"/>
+      <c r="EN110"/>
+      <c r="EO110"/>
+      <c r="EP110"/>
+      <c r="EQ110"/>
+      <c r="ER110"/>
+      <c r="ES110"/>
+      <c r="ET110"/>
+      <c r="EU110"/>
+      <c r="EV110"/>
+      <c r="EW110"/>
+      <c r="EX110"/>
+      <c r="EY110"/>
+      <c r="EZ110"/>
+      <c r="FA110"/>
+      <c r="FB110"/>
+      <c r="FC110"/>
+      <c r="FD110"/>
+      <c r="FE110"/>
+      <c r="FF110"/>
+      <c r="FG110"/>
+      <c r="FH110"/>
+      <c r="FI110"/>
+      <c r="FJ110"/>
+      <c r="FK110"/>
+      <c r="FL110"/>
+      <c r="FM110"/>
+      <c r="FN110"/>
+      <c r="FO110"/>
+      <c r="FP110"/>
+      <c r="FQ110"/>
+      <c r="FR110"/>
+      <c r="FS110"/>
+      <c r="FT110"/>
+      <c r="FU110"/>
+      <c r="FV110"/>
+      <c r="FW110"/>
+      <c r="FX110"/>
+      <c r="FY110"/>
+      <c r="FZ110"/>
+      <c r="GA110"/>
+      <c r="GB110"/>
+      <c r="GC110"/>
+      <c r="GD110"/>
+      <c r="GE110"/>
+      <c r="GF110"/>
+      <c r="GG110"/>
+      <c r="GH110"/>
+      <c r="GI110"/>
+      <c r="GJ110"/>
+      <c r="GK110"/>
+      <c r="GL110"/>
+      <c r="GM110"/>
+      <c r="GN110"/>
+      <c r="GO110"/>
+      <c r="GP110"/>
+      <c r="GQ110"/>
+      <c r="GR110"/>
+      <c r="GS110"/>
+      <c r="GT110"/>
+      <c r="GU110"/>
+      <c r="GV110"/>
+      <c r="GW110"/>
+      <c r="GX110"/>
+      <c r="GY110"/>
+      <c r="GZ110"/>
+      <c r="HA110"/>
+      <c r="HB110"/>
+      <c r="HC110"/>
+      <c r="HD110"/>
+      <c r="HE110"/>
+      <c r="HF110"/>
+      <c r="HG110"/>
+      <c r="HH110"/>
+      <c r="HI110"/>
+      <c r="HJ110"/>
+      <c r="HK110"/>
+      <c r="HL110"/>
+      <c r="HM110"/>
+      <c r="HN110"/>
+      <c r="HO110"/>
+      <c r="HP110"/>
+      <c r="HQ110"/>
+      <c r="HR110"/>
+      <c r="HS110"/>
+      <c r="HT110"/>
+      <c r="HU110"/>
+      <c r="HV110"/>
+      <c r="HW110"/>
+      <c r="HX110"/>
+      <c r="HY110"/>
+      <c r="HZ110"/>
+      <c r="IA110"/>
+      <c r="IB110"/>
+      <c r="IC110"/>
+      <c r="ID110"/>
+      <c r="IE110"/>
+      <c r="IF110"/>
+      <c r="IG110"/>
+      <c r="IH110"/>
+      <c r="II110"/>
+      <c r="IJ110"/>
+      <c r="IK110"/>
+      <c r="IL110"/>
+      <c r="IM110"/>
+      <c r="IN110"/>
+      <c r="IO110"/>
+      <c r="IP110"/>
+      <c r="IQ110"/>
+      <c r="IR110"/>
+      <c r="IS110"/>
+      <c r="IT110"/>
+      <c r="IU110"/>
+      <c r="IV110"/>
+      <c r="IW110"/>
     </row>
     <row r="111" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B111" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C111" s="58" t="s">
         <v>232</v>
-      </c>
-      <c r="C111" s="58" t="s">
-        <v>249</v>
       </c>
       <c r="D111" s="58"/>
       <c r="E111" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F111" s="96" t="s">
         <v>13</v>
@@ -17553,11 +18309,11 @@
       <c r="G111" s="25">
         <v>0</v>
       </c>
-      <c r="H111" s="58">
+      <c r="H111" s="97">
         <v>1</v>
       </c>
       <c r="I111" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J111" s="96" t="s">
         <v>29</v>
@@ -17565,29 +18321,29 @@
     </row>
     <row r="112" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B112" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D112" s="58"/>
       <c r="E112" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F112" s="96" t="s">
         <v>13</v>
       </c>
       <c r="G112" s="25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H112" s="58">
         <v>1</v>
       </c>
       <c r="I112" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J112" s="96" t="s">
         <v>29</v>
@@ -17595,17 +18351,17 @@
     </row>
     <row r="113" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B113" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D113" s="58"/>
       <c r="E113" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F113" s="96" t="s">
         <v>13</v>
@@ -17617,7 +18373,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J113" s="96" t="s">
         <v>29</v>
@@ -17625,17 +18381,17 @@
     </row>
     <row r="114" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B114" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D114" s="58"/>
       <c r="E114" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F114" s="96" t="s">
         <v>13</v>
@@ -17647,7 +18403,7 @@
         <v>1</v>
       </c>
       <c r="I114" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J114" s="96" t="s">
         <v>29</v>
@@ -17655,29 +18411,29 @@
     </row>
     <row r="115" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="B115" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D115" s="58"/>
       <c r="E115" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F115" s="96" t="s">
         <v>13</v>
       </c>
       <c r="G115" s="25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H115" s="58">
         <v>1</v>
       </c>
       <c r="I115" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J115" s="96" t="s">
         <v>29</v>
@@ -17685,17 +18441,17 @@
     </row>
     <row r="116" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B116" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C116" s="95" t="s">
-        <v>241</v>
+        <v>231</v>
+      </c>
+      <c r="C116" s="58" t="s">
+        <v>237</v>
       </c>
       <c r="D116" s="58"/>
       <c r="E116" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F116" s="96" t="s">
         <v>13</v>
@@ -17707,7 +18463,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J116" s="96" t="s">
         <v>29</v>
@@ -17715,17 +18471,17 @@
     </row>
     <row r="117" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B117" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117" s="95" t="s">
-        <v>245</v>
+        <v>231</v>
+      </c>
+      <c r="C117" s="58" t="s">
+        <v>242</v>
       </c>
       <c r="D117" s="58"/>
       <c r="E117" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F117" s="96" t="s">
         <v>13</v>
@@ -17737,7 +18493,7 @@
         <v>1</v>
       </c>
       <c r="I117" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J117" s="96" t="s">
         <v>29</v>
@@ -17745,17 +18501,17 @@
     </row>
     <row r="118" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A118" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B118" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="B118" s="58" t="s">
-        <v>232</v>
-      </c>
       <c r="C118" s="58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D118" s="58"/>
       <c r="E118" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F118" s="96" t="s">
         <v>13</v>
@@ -17767,7 +18523,7 @@
         <v>1</v>
       </c>
       <c r="I118" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J118" s="96" t="s">
         <v>29</v>
@@ -17775,17 +18531,17 @@
     </row>
     <row r="119" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B119" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119" s="58" t="s">
-        <v>247</v>
+        <v>231</v>
+      </c>
+      <c r="C119" s="95" t="s">
+        <v>240</v>
       </c>
       <c r="D119" s="58"/>
       <c r="E119" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F119" s="96" t="s">
         <v>13</v>
@@ -17797,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J119" s="96" t="s">
         <v>29</v>
@@ -17805,17 +18561,17 @@
     </row>
     <row r="120" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A120" s="1" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="B120" s="58" t="s">
-        <v>232</v>
-      </c>
-      <c r="C120" s="58" t="s">
-        <v>168</v>
+        <v>231</v>
+      </c>
+      <c r="C120" s="95" t="s">
+        <v>244</v>
       </c>
       <c r="D120" s="58"/>
       <c r="E120" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F120" s="96" t="s">
         <v>13</v>
@@ -17827,15 +18583,102 @@
         <v>1</v>
       </c>
       <c r="I120" s="96" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J120" s="96" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1"/>
-    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1"/>
+    <row r="121" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C121" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="58"/>
+      <c r="E121" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="F121" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="25">
+        <v>0</v>
+      </c>
+      <c r="H121" s="58">
+        <v>1</v>
+      </c>
+      <c r="I121" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="J121" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B122" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C122" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" s="58"/>
+      <c r="E122" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="F122" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="25">
+        <v>0</v>
+      </c>
+      <c r="H122" s="58">
+        <v>1</v>
+      </c>
+      <c r="I122" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="J122" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A123" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B123" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="58"/>
+      <c r="E123" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="F123" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="25">
+        <v>0</v>
+      </c>
+      <c r="H123" s="58">
+        <v>1</v>
+      </c>
+      <c r="I123" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="J123" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="124" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="125" spans="1:10" ht="17.100000000000001" customHeight="1"/>
     <row r="126" spans="1:10" ht="17.100000000000001" customHeight="1"/>
@@ -17847,6 +18690,9 @@
     <row r="132" ht="17.100000000000001" customHeight="1"/>
     <row r="133" ht="17.100000000000001" customHeight="1"/>
     <row r="134" ht="17.100000000000001" customHeight="1"/>
+    <row r="135" ht="17.100000000000001" customHeight="1"/>
+    <row r="136" ht="17.100000000000001" customHeight="1"/>
+    <row r="137" ht="17.100000000000001" customHeight="1"/>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/db/support/field_settings.xlsx
+++ b/db/support/field_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kiry\Documents\oscar-web\db\support\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD7F9D4-FB76-4380-80DE-D2A32AFC2267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A1AF92-740E-46F4-8FC1-3361E1E0EB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31770" yWindow="795" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,9 +709,6 @@
     <t>client_id</t>
   </si>
   <si>
-    <t>referred_from</t>
-  </si>
-  <si>
     <t>client_representing_problem</t>
   </si>
   <si>
@@ -776,6 +773,9 @@
   </si>
   <si>
     <t>Referred From</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -1686,8 +1686,8 @@
   </sheetPr>
   <dimension ref="A1:IW133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -17165,14 +17165,14 @@
         <v>225</v>
       </c>
       <c r="B107" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" s="58" t="s">
         <v>232</v>
-      </c>
-      <c r="C107" s="58" t="s">
-        <v>233</v>
       </c>
       <c r="D107" s="58"/>
       <c r="E107" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F107" s="96" t="s">
         <v>13</v>
@@ -17195,14 +17195,14 @@
         <v>226</v>
       </c>
       <c r="B108" s="58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D108" s="58"/>
       <c r="E108" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F108" s="96" t="s">
         <v>13</v>
@@ -17222,17 +17222,17 @@
     </row>
     <row r="109" spans="1:257" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       <